--- a/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
+++ b/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xyu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xyu\Desktop\AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
   <si>
     <t>Week</t>
   </si>
@@ -264,6 +264,39 @@
   </si>
   <si>
     <t>AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx</t>
+  </si>
+  <si>
+    <t>Define Test process</t>
+  </si>
+  <si>
+    <t>TestPlan.docx</t>
+  </si>
+  <si>
+    <t>AS_RE_OperationRequirement_HuyNguyen.docx</t>
+  </si>
+  <si>
+    <t>ACDM Reading</t>
+  </si>
+  <si>
+    <t>Review task works Pre-week (week 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devide work task about Stage 1 elicite </t>
+  </si>
+  <si>
+    <t>Raise some question for future system</t>
+  </si>
+  <si>
+    <t>Update role &amp; responsibility in test phase</t>
+  </si>
+  <si>
+    <t>Question for system</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Description for Stage 4 in ACDM</t>
   </si>
 </sst>
 </file>
@@ -586,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -755,12 +788,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -772,6 +799,151 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,95 +980,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -907,56 +1022,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1353,13 +1420,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O166"/>
+  <dimension ref="A1:O171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1381,81 +1448,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="77"/>
+      <c r="A1" s="122"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="124"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="78" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="80"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="127"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="130"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="86"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="133"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="107"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="16"/>
       <c r="H5" s="39" t="s">
         <v>53</v>
@@ -1500,16 +1567,16 @@
       <c r="J6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="122">
+      <c r="A7" s="137">
         <v>1</v>
       </c>
-      <c r="B7" s="99">
+      <c r="B7" s="106">
         <v>41586</v>
       </c>
       <c r="C7" s="17">
@@ -1521,7 +1588,7 @@
       <c r="E7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="102">
+      <c r="F7" s="109">
         <f>SUM(E7:E9)</f>
         <v>2</v>
       </c>
@@ -1544,8 +1611,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123"/>
-      <c r="B8" s="100"/>
+      <c r="A8" s="138"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1555,7 +1622,7 @@
       <c r="E8" s="18">
         <v>0.5</v>
       </c>
-      <c r="F8" s="103"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="19" t="s">
         <v>20</v>
       </c>
@@ -1568,8 +1635,8 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="124"/>
-      <c r="B9" s="101"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="17">
         <v>0.83333333333333337</v>
       </c>
@@ -1579,7 +1646,7 @@
       <c r="E9" s="18">
         <v>1.5</v>
       </c>
-      <c r="F9" s="104"/>
+      <c r="F9" s="111"/>
       <c r="G9" s="41" t="s">
         <v>25</v>
       </c>
@@ -1590,10 +1657,10 @@
       <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="117">
+      <c r="A10" s="145">
         <v>2</v>
       </c>
-      <c r="B10" s="120">
+      <c r="B10" s="135">
         <v>41589</v>
       </c>
       <c r="C10" s="46">
@@ -1605,7 +1672,7 @@
       <c r="E10" s="47">
         <v>1.5</v>
       </c>
-      <c r="F10" s="125">
+      <c r="F10" s="140">
         <f>SUM(E10:E11)</f>
         <v>3.5</v>
       </c>
@@ -1619,8 +1686,8 @@
       <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:15" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118"/>
-      <c r="B11" s="121"/>
+      <c r="A11" s="146"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="46">
         <v>0.875</v>
       </c>
@@ -1630,7 +1697,7 @@
       <c r="E11" s="47">
         <v>2</v>
       </c>
-      <c r="F11" s="126"/>
+      <c r="F11" s="141"/>
       <c r="G11" s="56" t="s">
         <v>25</v>
       </c>
@@ -1641,8 +1708,8 @@
       <c r="J11" s="48"/>
     </row>
     <row r="12" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="118"/>
-      <c r="B12" s="115">
+      <c r="A12" s="146"/>
+      <c r="B12" s="92">
         <v>41590</v>
       </c>
       <c r="C12" s="21">
@@ -1654,7 +1721,7 @@
       <c r="E12" s="22">
         <v>2.25</v>
       </c>
-      <c r="F12" s="113">
+      <c r="F12" s="86">
         <f>SUM(E12:E13)</f>
         <v>3.5</v>
       </c>
@@ -1680,8 +1747,8 @@
       <c r="O12" s="30"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="118"/>
-      <c r="B13" s="116"/>
+      <c r="A13" s="146"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="21">
         <v>0.86458333333333337</v>
       </c>
@@ -1691,7 +1758,7 @@
       <c r="E13" s="22">
         <v>1.25</v>
       </c>
-      <c r="F13" s="114"/>
+      <c r="F13" s="87"/>
       <c r="G13" s="56" t="s">
         <v>25</v>
       </c>
@@ -1707,8 +1774,8 @@
       <c r="O13" s="30"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="118"/>
-      <c r="B14" s="115">
+      <c r="A14" s="146"/>
+      <c r="B14" s="92">
         <v>41592</v>
       </c>
       <c r="C14" s="23">
@@ -1720,7 +1787,7 @@
       <c r="E14" s="26">
         <v>1.5</v>
       </c>
-      <c r="F14" s="113">
+      <c r="F14" s="86">
         <f>SUM(E14:E15)</f>
         <v>2</v>
       </c>
@@ -1738,8 +1805,8 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="118"/>
-      <c r="B15" s="116"/>
+      <c r="A15" s="146"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="23">
         <v>0.9375</v>
       </c>
@@ -1749,7 +1816,7 @@
       <c r="E15" s="26">
         <v>0.5</v>
       </c>
-      <c r="F15" s="114"/>
+      <c r="F15" s="87"/>
       <c r="G15" s="56" t="s">
         <v>17</v>
       </c>
@@ -1764,7 +1831,7 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="119"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="40">
         <v>41593</v>
       </c>
@@ -1794,7 +1861,7 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="10">
-        <f>SUM(E37:E41)</f>
+        <f>SUM(E42:E46)</f>
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
@@ -1802,10 +1869,10 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="112">
+      <c r="A17" s="115">
         <v>3</v>
       </c>
-      <c r="B17" s="127">
+      <c r="B17" s="89">
         <v>41596</v>
       </c>
       <c r="C17" s="44">
@@ -1817,7 +1884,7 @@
       <c r="E17" s="42">
         <v>1</v>
       </c>
-      <c r="F17" s="113">
+      <c r="F17" s="86">
         <f>SUM(E17:E19)</f>
         <v>3.5</v>
       </c>
@@ -1834,7 +1901,7 @@
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="10">
-        <f>SUM(E52:E56)</f>
+        <f>SUM(E57:E61)</f>
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -1842,8 +1909,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
-      <c r="B18" s="130"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="90"/>
       <c r="C18" s="44">
         <v>0.75</v>
       </c>
@@ -1853,7 +1920,7 @@
       <c r="E18" s="42">
         <v>1.5</v>
       </c>
-      <c r="F18" s="129"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="41" t="s">
         <v>18</v>
       </c>
@@ -1870,8 +1937,8 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="112"/>
-      <c r="B19" s="128"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="44">
         <v>0.89583333333333337</v>
       </c>
@@ -1881,7 +1948,7 @@
       <c r="E19" s="42">
         <v>1</v>
       </c>
-      <c r="F19" s="114"/>
+      <c r="F19" s="87"/>
       <c r="G19" s="41" t="s">
         <v>25</v>
       </c>
@@ -1896,8 +1963,8 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
-      <c r="B20" s="127">
+      <c r="A20" s="115"/>
+      <c r="B20" s="89">
         <v>41597</v>
       </c>
       <c r="C20" s="44">
@@ -1909,7 +1976,7 @@
       <c r="E20" s="42">
         <v>1.5</v>
       </c>
-      <c r="F20" s="113">
+      <c r="F20" s="86">
         <f>SUM(E20:E21)</f>
         <v>3</v>
       </c>
@@ -1927,8 +1994,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
-      <c r="B21" s="128"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="44">
         <v>0.8125</v>
       </c>
@@ -1938,7 +2005,7 @@
       <c r="E21" s="42">
         <v>1.5</v>
       </c>
-      <c r="F21" s="114"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="41" t="s">
         <v>18</v>
       </c>
@@ -1952,7 +2019,7 @@
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E57:E61)</f>
+        <f>SUM(E62:E66)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -1960,8 +2027,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
-      <c r="B22" s="127">
+      <c r="A22" s="115"/>
+      <c r="B22" s="89">
         <v>41599</v>
       </c>
       <c r="C22" s="44">
@@ -1973,7 +2040,7 @@
       <c r="E22" s="42">
         <v>3</v>
       </c>
-      <c r="F22" s="113">
+      <c r="F22" s="86">
         <f>SUM(E22:E26)</f>
         <v>7.9</v>
       </c>
@@ -1991,8 +2058,8 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="112"/>
-      <c r="B23" s="130"/>
+      <c r="A23" s="115"/>
+      <c r="B23" s="90"/>
       <c r="C23" s="44">
         <v>0.38194444444444442</v>
       </c>
@@ -2002,7 +2069,7 @@
       <c r="E23" s="42">
         <v>1</v>
       </c>
-      <c r="F23" s="129"/>
+      <c r="F23" s="88"/>
       <c r="G23" s="61" t="s">
         <v>20</v>
       </c>
@@ -2017,8 +2084,8 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
-      <c r="B24" s="130"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="90"/>
       <c r="C24" s="44">
         <v>0.4236111111111111</v>
       </c>
@@ -2028,7 +2095,7 @@
       <c r="E24" s="42">
         <v>1.3</v>
       </c>
-      <c r="F24" s="129"/>
+      <c r="F24" s="88"/>
       <c r="G24" s="41" t="s">
         <v>16</v>
       </c>
@@ -2043,8 +2110,8 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="112"/>
-      <c r="B25" s="130"/>
+      <c r="A25" s="115"/>
+      <c r="B25" s="90"/>
       <c r="C25" s="44">
         <v>0.58333333333333337</v>
       </c>
@@ -2054,7 +2121,7 @@
       <c r="E25" s="42">
         <v>0.5</v>
       </c>
-      <c r="F25" s="129"/>
+      <c r="F25" s="88"/>
       <c r="G25" s="41" t="s">
         <v>18</v>
       </c>
@@ -2069,8 +2136,8 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="112"/>
-      <c r="B26" s="128"/>
+      <c r="A26" s="115"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="65">
         <v>0.625</v>
       </c>
@@ -2080,7 +2147,7 @@
       <c r="E26" s="42">
         <v>2.1</v>
       </c>
-      <c r="F26" s="114"/>
+      <c r="F26" s="87"/>
       <c r="G26" s="41" t="s">
         <v>16</v>
       </c>
@@ -2094,7 +2161,7 @@
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="10">
-        <f>SUM(E67:E71)</f>
+        <f>SUM(E72:E76)</f>
         <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
@@ -2102,8 +2169,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="112"/>
-      <c r="B27" s="127">
+      <c r="A27" s="115"/>
+      <c r="B27" s="89">
         <v>41600</v>
       </c>
       <c r="C27" s="65">
@@ -2115,7 +2182,7 @@
       <c r="E27" s="18">
         <v>1.25</v>
       </c>
-      <c r="F27" s="131">
+      <c r="F27" s="94">
         <f>SUM(E27:E29)</f>
         <v>4</v>
       </c>
@@ -2125,7 +2192,7 @@
       <c r="H27" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="70" t="s">
+      <c r="I27" s="68" t="s">
         <v>73</v>
       </c>
       <c r="J27" s="35"/>
@@ -2135,8 +2202,8 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="112"/>
-      <c r="B28" s="130"/>
+      <c r="A28" s="115"/>
+      <c r="B28" s="90"/>
       <c r="C28" s="65">
         <v>0.5625</v>
       </c>
@@ -2146,8 +2213,8 @@
       <c r="E28" s="18">
         <v>1.25</v>
       </c>
-      <c r="F28" s="132"/>
-      <c r="G28" s="71" t="s">
+      <c r="F28" s="95"/>
+      <c r="G28" s="69" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="27"/>
@@ -2159,19 +2226,19 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="112"/>
-      <c r="B29" s="128"/>
+      <c r="A29" s="115"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="65">
         <v>0.625</v>
       </c>
       <c r="D29" s="65">
         <v>0.6875</v>
       </c>
-      <c r="E29" s="71">
+      <c r="E29" s="69">
         <v>1.5</v>
       </c>
-      <c r="F29" s="133"/>
-      <c r="G29" s="71" t="s">
+      <c r="F29" s="96"/>
+      <c r="G29" s="69" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="27" t="s">
@@ -2184,7 +2251,7 @@
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="10">
-        <f>SUM(E72:E76)</f>
+        <f>SUM(E77:E81)</f>
         <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
@@ -2193,7 +2260,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="67"/>
-      <c r="B30" s="68">
+      <c r="B30" s="89">
         <v>41601</v>
       </c>
       <c r="C30" s="65">
@@ -2202,14 +2269,14 @@
       <c r="D30" s="65">
         <v>0.375</v>
       </c>
-      <c r="E30" s="71">
+      <c r="E30" s="69">
         <v>0.5</v>
       </c>
-      <c r="F30" s="69">
-        <f t="shared" ref="F30:F56" si="0">SUM(E30:E33)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G30" s="71" t="s">
+      <c r="F30" s="142">
+        <f>SUM(E30:E33)</f>
+        <v>2</v>
+      </c>
+      <c r="G30" s="69" t="s">
         <v>18</v>
       </c>
       <c r="H30" s="27" t="s">
@@ -2226,17 +2293,26 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="67"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="71"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="65">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D31" s="65">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E31" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="143"/>
+      <c r="G31" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>78</v>
+      </c>
       <c r="J31" s="35"/>
       <c r="K31" s="8"/>
       <c r="L31" s="6"/>
@@ -2244,85 +2320,91 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="87">
+      <c r="A32" s="74"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="65">
+        <v>0.5625</v>
+      </c>
+      <c r="D32" s="65">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E32" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="F32" s="143"/>
+      <c r="G32" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="73"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="65">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D33" s="65">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E33" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="F33" s="144"/>
+      <c r="G33" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" s="35"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="80">
         <v>4</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B34" s="25">
         <v>41603</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="10">
-        <f>SUM(E77:E81)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="88"/>
-      <c r="B33" s="25">
-        <v>41604</v>
-      </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="10">
-        <f>SUM(E82:E86)</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="88"/>
-      <c r="B34" s="25">
-        <v>41605</v>
-      </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="72"/>
+      <c r="C34" s="75">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D34" s="75">
+        <v>0.875</v>
+      </c>
+      <c r="E34" s="70">
+        <v>1</v>
+      </c>
       <c r="F34" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
+        <f>E34</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="72"/>
       <c r="J34" s="36"/>
       <c r="K34" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="10">
-        <f>SUM(E87:E91)</f>
+        <f>SUM(E82:E86)</f>
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
@@ -2330,27 +2412,37 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="88"/>
-      <c r="B35" s="25">
-        <v>41606</v>
-      </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="116">
+        <v>41604</v>
+      </c>
+      <c r="C35" s="75">
+        <v>0.375</v>
+      </c>
+      <c r="D35" s="75">
+        <v>0.9375</v>
+      </c>
+      <c r="E35" s="70">
+        <v>1.5</v>
+      </c>
+      <c r="F35" s="118">
+        <f>SUM(E35:E36)</f>
+        <v>3</v>
+      </c>
+      <c r="G35" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="72"/>
       <c r="J35" s="36"/>
       <c r="K35" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10">
-        <f>SUM(E92:E96)</f>
+        <f>SUM(E87:E91)</f>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -2358,57 +2450,65 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="89"/>
-      <c r="B36" s="25">
-        <v>41607</v>
-      </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="75">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D36" s="75">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E36" s="70">
+        <v>1.5</v>
+      </c>
+      <c r="F36" s="119"/>
+      <c r="G36" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="148" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" s="72"/>
       <c r="J36" s="36"/>
-      <c r="K36" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="K36" s="8"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="10">
-        <f>SUM(E97:E101)</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="M36" s="10"/>
+      <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="108">
-        <v>5</v>
-      </c>
-      <c r="B37" s="24">
-        <v>41610</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="116">
+        <v>41605</v>
+      </c>
+      <c r="C37" s="75">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D37" s="75">
+        <v>0.34375</v>
+      </c>
+      <c r="E37" s="70">
+        <v>0.25</v>
+      </c>
+      <c r="F37" s="118">
+        <f>SUM(E37:E39)</f>
+        <v>3.08</v>
+      </c>
+      <c r="G37" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="J37" s="36"/>
       <c r="K37" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <f>SUM(E102:E106)</f>
+        <f>SUM(E92:E96)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2416,83 +2516,81 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="109"/>
-      <c r="B38" s="24">
-        <v>41611</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="A38" s="81"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="75">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D38" s="75">
+        <v>0.375</v>
+      </c>
+      <c r="E38" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="121"/>
+      <c r="G38" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="J38" s="36"/>
+      <c r="K38" s="8"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="10">
-        <f>SUM(E107:E111)</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="M38" s="10"/>
+      <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="109"/>
-      <c r="B39" s="24">
-        <v>41612</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="A39" s="81"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="75">
+        <v>0.5625</v>
+      </c>
+      <c r="D39" s="75">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="E39" s="70">
+        <v>2.33</v>
+      </c>
+      <c r="F39" s="119"/>
+      <c r="G39" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39" s="72"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="8"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="10">
-        <f>SUM(E112:E116)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="M39" s="10"/>
+      <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="109"/>
-      <c r="B40" s="24">
-        <v>41613</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="25">
+        <v>41606</v>
+      </c>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="66">
+        <f t="shared" ref="F40:F61" si="0">SUM(E40:E43)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="76"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="36"/>
       <c r="K40" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="10">
-        <f>SUM(E117:E121)</f>
+        <f>SUM(E97:E101)</f>
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -2500,27 +2598,27 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="110"/>
-      <c r="B41" s="24">
-        <v>41614</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="58">
+      <c r="A41" s="82"/>
+      <c r="B41" s="25">
+        <v>41607</v>
+      </c>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="36"/>
       <c r="K41" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="10">
-        <f>SUM(E122:E126)</f>
+        <f>SUM(E102:E106)</f>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
@@ -2528,29 +2626,29 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="87">
-        <v>6</v>
-      </c>
-      <c r="B42" s="25">
-        <v>41617</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="A42" s="77">
+        <v>5</v>
+      </c>
+      <c r="B42" s="24">
+        <v>41610</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
       <c r="K42" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="10">
-        <f>SUM(E127:E131)</f>
+        <f>SUM(E107:E111)</f>
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
@@ -2558,27 +2656,27 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="88"/>
-      <c r="B43" s="25">
-        <v>41618</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="A43" s="78"/>
+      <c r="B43" s="24">
+        <v>41611</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
       <c r="F43" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
       <c r="K43" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="10">
-        <f>SUM(E132:E136)</f>
+        <f>SUM(E112:E116)</f>
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
@@ -2586,27 +2684,27 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="88"/>
-      <c r="B44" s="25">
-        <v>41619</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="A44" s="78"/>
+      <c r="B44" s="24">
+        <v>41612</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
       <c r="K44" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="10">
-        <f>SUM(E137:E141)</f>
+        <f>SUM(E117:E121)</f>
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
@@ -2614,27 +2712,27 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="88"/>
-      <c r="B45" s="25">
-        <v>41620</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="A45" s="78"/>
+      <c r="B45" s="24">
+        <v>41613</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
       <c r="K45" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="10">
-        <f>SUM(E142:E146)</f>
+        <f>SUM(E122:E126)</f>
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
@@ -2642,27 +2740,27 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="89"/>
-      <c r="B46" s="25">
-        <v>41621</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="A46" s="79"/>
+      <c r="B46" s="24">
+        <v>41614</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
       <c r="F46" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
       <c r="K46" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="10">
-        <f>SUM(E147:E151)</f>
+        <f>SUM(E127:E131)</f>
         <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
@@ -2670,29 +2768,29 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="108">
-        <v>7</v>
-      </c>
-      <c r="B47" s="24">
-        <v>41624</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="A47" s="80">
+        <v>6</v>
+      </c>
+      <c r="B47" s="25">
+        <v>41617</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
       <c r="F47" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
       <c r="K47" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="10">
-        <f>SUM(E152:E156)</f>
+        <f>SUM(E132:E136)</f>
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
@@ -2700,27 +2798,27 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="109"/>
-      <c r="B48" s="24">
-        <v>41625</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="25">
+        <v>41618</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
       <c r="F48" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
       <c r="K48" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="10">
-        <f>SUM(E157:E161)</f>
+        <f>SUM(E137:E141)</f>
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
@@ -2728,27 +2826,27 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="109"/>
-      <c r="B49" s="24">
-        <v>41626</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="25">
+        <v>41619</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
       <c r="F49" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
       <c r="K49" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="10">
-        <f>SUM(E162:E166)</f>
+        <f>SUM(E142:E146)</f>
         <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
@@ -2756,2080 +2854,2232 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="109"/>
-      <c r="B50" s="24">
-        <v>41627</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="25">
+        <v>41620</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
       <c r="F50" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L50" s="6"/>
+      <c r="M50" s="10">
+        <f>SUM(E147:E151)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="110"/>
-      <c r="B51" s="24">
-        <v>41628</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="A51" s="82"/>
+      <c r="B51" s="25">
+        <v>41621</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L51" s="6"/>
+      <c r="M51" s="10">
+        <f>SUM(E152:E156)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="87">
-        <v>8</v>
-      </c>
-      <c r="B52" s="25">
-        <v>41631</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="A52" s="77">
+        <v>7</v>
+      </c>
+      <c r="B52" s="24">
+        <v>41624</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
       <c r="F52" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L52" s="6"/>
+      <c r="M52" s="10">
+        <f>SUM(E157:E161)</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="88"/>
-      <c r="B53" s="25">
-        <v>41632</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+      <c r="A53" s="78"/>
+      <c r="B53" s="24">
+        <v>41625</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
       <c r="F53" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L53" s="6"/>
+      <c r="M53" s="10">
+        <f>SUM(E162:E166)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="88"/>
-      <c r="B54" s="25">
-        <v>41633</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="A54" s="78"/>
+      <c r="B54" s="24">
+        <v>41626</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
       <c r="F54" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L54" s="6"/>
+      <c r="M54" s="10">
+        <f>SUM(E167:E171)</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="88"/>
-      <c r="B55" s="25">
-        <v>41634</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
+      <c r="A55" s="78"/>
+      <c r="B55" s="24">
+        <v>41627</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
       <c r="F55" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="89"/>
-      <c r="B56" s="25">
-        <v>41635</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="A56" s="79"/>
+      <c r="B56" s="24">
+        <v>41628</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
       <c r="F56" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="108">
+      <c r="A57" s="80">
+        <v>8</v>
+      </c>
+      <c r="B57" s="25">
+        <v>41631</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="81"/>
+      <c r="B58" s="25">
+        <v>41632</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="81"/>
+      <c r="B59" s="25">
+        <v>41633</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="81"/>
+      <c r="B60" s="25">
+        <v>41634</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="82"/>
+      <c r="B61" s="25">
+        <v>41635</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="77">
         <v>9</v>
       </c>
-      <c r="B57" s="24">
+      <c r="B62" s="24">
         <v>41638</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5">
-        <f t="shared" ref="F57:F58" si="1">E57</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="109"/>
-      <c r="B58" s="24">
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5">
+        <f t="shared" ref="F62:F63" si="1">E62</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="78"/>
+      <c r="B63" s="24">
         <v>41639</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5">
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="109"/>
-      <c r="B59" s="24">
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="78"/>
+      <c r="B64" s="24">
         <v>41640</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5">
-        <f t="shared" ref="F59:F90" si="2">E59</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="109"/>
-      <c r="B60" s="24">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5">
+        <f t="shared" ref="F64:F95" si="2">E64</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="78"/>
+      <c r="B65" s="24">
         <v>41641</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5">
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="110"/>
-      <c r="B61" s="24">
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="79"/>
+      <c r="B66" s="24">
         <v>41642</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5">
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="87">
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="80">
         <v>10</v>
       </c>
-      <c r="B62" s="25">
+      <c r="B67" s="25">
         <v>41645</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6">
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="88"/>
-      <c r="B63" s="25">
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="81"/>
+      <c r="B68" s="25">
         <v>41646</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6">
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="88"/>
-      <c r="B64" s="25">
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="81"/>
+      <c r="B69" s="25">
         <v>41647</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6">
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="88"/>
-      <c r="B65" s="25">
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="81"/>
+      <c r="B70" s="25">
         <v>41648</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6">
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="89"/>
-      <c r="B66" s="25">
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="82"/>
+      <c r="B71" s="25">
         <v>41649</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6">
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="108">
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="77">
         <v>11</v>
       </c>
-      <c r="B67" s="24">
+      <c r="B72" s="24">
         <v>41652</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5">
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="109"/>
-      <c r="B68" s="24">
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="78"/>
+      <c r="B73" s="24">
         <v>41653</v>
       </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5">
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="109"/>
-      <c r="B69" s="24">
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="78"/>
+      <c r="B74" s="24">
         <v>41654</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5">
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="109"/>
-      <c r="B70" s="24">
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="78"/>
+      <c r="B75" s="24">
         <v>41655</v>
       </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5">
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="110"/>
-      <c r="B71" s="24">
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="79"/>
+      <c r="B76" s="24">
         <v>41656</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="87">
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="80">
         <v>12</v>
       </c>
-      <c r="B72" s="25">
+      <c r="B77" s="25">
         <v>41659</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6">
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="88"/>
-      <c r="B73" s="25">
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="81"/>
+      <c r="B78" s="25">
         <v>41660</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6">
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="88"/>
-      <c r="B74" s="25">
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="81"/>
+      <c r="B79" s="25">
         <v>41661</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6">
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="88"/>
-      <c r="B75" s="25">
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="81"/>
+      <c r="B80" s="25">
         <v>41662</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6">
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="89"/>
-      <c r="B76" s="25">
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="82"/>
+      <c r="B81" s="25">
         <v>41663</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6">
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="108">
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="77">
         <v>13</v>
       </c>
-      <c r="B77" s="24">
+      <c r="B82" s="24">
         <v>41666</v>
       </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5">
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G77" s="35" t="s">
+      <c r="G82" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="109"/>
-      <c r="B78" s="24">
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="78"/>
+      <c r="B83" s="24">
         <v>41667</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5">
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G78" s="35" t="s">
+      <c r="G83" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="35"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="109"/>
-      <c r="B79" s="24">
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="78"/>
+      <c r="B84" s="24">
         <v>41668</v>
       </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5">
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G79" s="35" t="s">
+      <c r="G84" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="35"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="109"/>
-      <c r="B80" s="24">
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="78"/>
+      <c r="B85" s="24">
         <v>41669</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5">
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G80" s="35" t="s">
+      <c r="G85" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="35"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="110"/>
-      <c r="B81" s="24">
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="79"/>
+      <c r="B86" s="24">
         <v>41670</v>
       </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5">
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G81" s="35" t="s">
+      <c r="G86" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="35"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="87">
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="80">
         <v>14</v>
       </c>
-      <c r="B82" s="25">
+      <c r="B87" s="25">
         <v>41673</v>
       </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6">
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G82" s="37" t="s">
+      <c r="G87" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="88"/>
-      <c r="B83" s="25">
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="81"/>
+      <c r="B88" s="25">
         <v>41674</v>
       </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6">
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G83" s="37" t="s">
+      <c r="G88" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="88"/>
-      <c r="B84" s="25">
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="81"/>
+      <c r="B89" s="25">
         <v>41675</v>
       </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6">
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G84" s="37" t="s">
+      <c r="G89" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="36"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="88"/>
-      <c r="B85" s="25">
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="81"/>
+      <c r="B90" s="25">
         <v>41676</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6">
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G85" s="37" t="s">
+      <c r="G90" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="36"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="89"/>
-      <c r="B86" s="25">
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="82"/>
+      <c r="B91" s="25">
         <v>41677</v>
       </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6">
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G86" s="37" t="s">
+      <c r="G91" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="36"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="108">
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="77">
         <v>15</v>
       </c>
-      <c r="B87" s="24">
+      <c r="B92" s="24">
         <v>41680</v>
       </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5">
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="35"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="109"/>
-      <c r="B88" s="24">
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="35"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="78"/>
+      <c r="B93" s="24">
         <v>41681</v>
       </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5">
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="35"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="109"/>
-      <c r="B89" s="24">
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="78"/>
+      <c r="B94" s="24">
         <v>41682</v>
       </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5">
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="35"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="109"/>
-      <c r="B90" s="24">
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="78"/>
+      <c r="B95" s="24">
         <v>41683</v>
       </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5">
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G90" s="35"/>
-      <c r="H90" s="35"/>
-      <c r="I90" s="35"/>
-      <c r="J90" s="35"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="110"/>
-      <c r="B91" s="24">
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="79"/>
+      <c r="B96" s="24">
         <v>41684</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5">
-        <f t="shared" ref="F91:F122" si="3">E91</f>
-        <v>0</v>
-      </c>
-      <c r="G91" s="35"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="35"/>
-      <c r="J91" s="35"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="87">
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5">
+        <f t="shared" ref="F96:F127" si="3">E96</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="35"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="80">
         <v>16</v>
       </c>
-      <c r="B92" s="25">
+      <c r="B97" s="25">
         <v>41687</v>
       </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6">
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="88"/>
-      <c r="B93" s="25">
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="81"/>
+      <c r="B98" s="25">
         <v>41688</v>
       </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6">
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="88"/>
-      <c r="B94" s="25">
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="81"/>
+      <c r="B99" s="25">
         <v>41689</v>
       </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6">
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="36"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="88"/>
-      <c r="B95" s="25">
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="36"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="81"/>
+      <c r="B100" s="25">
         <v>41690</v>
       </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6">
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="89"/>
-      <c r="B96" s="25">
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="82"/>
+      <c r="B101" s="25">
         <v>41691</v>
       </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6">
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="108">
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="77">
         <v>17</v>
       </c>
-      <c r="B97" s="24">
+      <c r="B102" s="24">
         <v>41694</v>
       </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5">
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="109"/>
-      <c r="B98" s="24">
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
+      <c r="J102" s="35"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="78"/>
+      <c r="B103" s="24">
         <v>41695</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5">
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="35"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="109"/>
-      <c r="B99" s="24">
+      <c r="G103" s="35"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="35"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="78"/>
+      <c r="B104" s="24">
         <v>41696</v>
       </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5">
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="35"/>
-      <c r="J99" s="35"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="109"/>
-      <c r="B100" s="24">
+      <c r="G104" s="35"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="35"/>
+      <c r="J104" s="35"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="78"/>
+      <c r="B105" s="24">
         <v>41697</v>
       </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5">
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G100" s="35"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="35"/>
-      <c r="J100" s="35"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="110"/>
-      <c r="B101" s="24">
+      <c r="G105" s="35"/>
+      <c r="H105" s="35"/>
+      <c r="I105" s="35"/>
+      <c r="J105" s="35"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="79"/>
+      <c r="B106" s="24">
         <v>41698</v>
       </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5">
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G101" s="35"/>
-      <c r="H101" s="35"/>
-      <c r="I101" s="35"/>
-      <c r="J101" s="35"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="87">
+      <c r="G106" s="35"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="35"/>
+      <c r="J106" s="35"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="80">
         <v>18</v>
       </c>
-      <c r="B102" s="25">
+      <c r="B107" s="25">
         <v>41701</v>
       </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6">
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="36"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="88"/>
-      <c r="B103" s="25">
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="36"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="81"/>
+      <c r="B108" s="25">
         <v>41702</v>
       </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6">
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="36"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="88"/>
-      <c r="B104" s="25">
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="36"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="81"/>
+      <c r="B109" s="25">
         <v>41703</v>
       </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6">
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
-      <c r="J104" s="36"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="88"/>
-      <c r="B105" s="25">
+      <c r="G109" s="36"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="36"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="81"/>
+      <c r="B110" s="25">
         <v>41704</v>
       </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6">
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
-      <c r="J105" s="36"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="89"/>
-      <c r="B106" s="25">
+      <c r="G110" s="36"/>
+      <c r="H110" s="36"/>
+      <c r="I110" s="36"/>
+      <c r="J110" s="36"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="82"/>
+      <c r="B111" s="25">
         <v>41705</v>
       </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6">
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="36"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="108">
+      <c r="G111" s="36"/>
+      <c r="H111" s="36"/>
+      <c r="I111" s="36"/>
+      <c r="J111" s="36"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="77">
         <v>19</v>
       </c>
-      <c r="B107" s="24">
+      <c r="B112" s="24">
         <v>41708</v>
       </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5">
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G107" s="35"/>
-      <c r="H107" s="35"/>
-      <c r="I107" s="35"/>
-      <c r="J107" s="35"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="109"/>
-      <c r="B108" s="24">
+      <c r="G112" s="35"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="35"/>
+      <c r="J112" s="35"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="78"/>
+      <c r="B113" s="24">
         <v>41709</v>
       </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5">
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G108" s="35"/>
-      <c r="H108" s="35"/>
-      <c r="I108" s="35"/>
-      <c r="J108" s="35"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="109"/>
-      <c r="B109" s="24">
+      <c r="G113" s="35"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="35"/>
+      <c r="J113" s="35"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="78"/>
+      <c r="B114" s="24">
         <v>41710</v>
       </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5">
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G109" s="35"/>
-      <c r="H109" s="35"/>
-      <c r="I109" s="35"/>
-      <c r="J109" s="35"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="109"/>
-      <c r="B110" s="24">
+      <c r="G114" s="35"/>
+      <c r="H114" s="35"/>
+      <c r="I114" s="35"/>
+      <c r="J114" s="35"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="78"/>
+      <c r="B115" s="24">
         <v>41711</v>
       </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5">
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G110" s="35"/>
-      <c r="H110" s="35"/>
-      <c r="I110" s="35"/>
-      <c r="J110" s="35"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="110"/>
-      <c r="B111" s="24">
+      <c r="G115" s="35"/>
+      <c r="H115" s="35"/>
+      <c r="I115" s="35"/>
+      <c r="J115" s="35"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="79"/>
+      <c r="B116" s="24">
         <v>41712</v>
       </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5">
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G111" s="35"/>
-      <c r="H111" s="35"/>
-      <c r="I111" s="35"/>
-      <c r="J111" s="35"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="87">
+      <c r="G116" s="35"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="35"/>
+      <c r="J116" s="35"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="80">
         <v>20</v>
       </c>
-      <c r="B112" s="25">
+      <c r="B117" s="25">
         <v>41715</v>
       </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6">
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="36"/>
-      <c r="J112" s="36"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="88"/>
-      <c r="B113" s="25">
+      <c r="G117" s="36"/>
+      <c r="H117" s="36"/>
+      <c r="I117" s="36"/>
+      <c r="J117" s="36"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="81"/>
+      <c r="B118" s="25">
         <v>41716</v>
       </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6">
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="36"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="88"/>
-      <c r="B114" s="25">
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
+      <c r="I118" s="36"/>
+      <c r="J118" s="36"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="81"/>
+      <c r="B119" s="25">
         <v>41717</v>
       </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6">
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G114" s="36"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="36"/>
-      <c r="J114" s="36"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="88"/>
-      <c r="B115" s="25">
+      <c r="G119" s="36"/>
+      <c r="H119" s="36"/>
+      <c r="I119" s="36"/>
+      <c r="J119" s="36"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="81"/>
+      <c r="B120" s="25">
         <v>41718</v>
       </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6">
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G115" s="36"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="36"/>
-      <c r="J115" s="36"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="89"/>
-      <c r="B116" s="25">
+      <c r="G120" s="36"/>
+      <c r="H120" s="36"/>
+      <c r="I120" s="36"/>
+      <c r="J120" s="36"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="82"/>
+      <c r="B121" s="25">
         <v>41719</v>
       </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6">
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G116" s="36"/>
-      <c r="H116" s="36"/>
-      <c r="I116" s="36"/>
-      <c r="J116" s="36"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="108">
+      <c r="G121" s="36"/>
+      <c r="H121" s="36"/>
+      <c r="I121" s="36"/>
+      <c r="J121" s="36"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="77">
         <v>21</v>
       </c>
-      <c r="B117" s="24">
+      <c r="B122" s="24">
         <v>41722</v>
       </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5">
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G117" s="35"/>
-      <c r="H117" s="35"/>
-      <c r="I117" s="35"/>
-      <c r="J117" s="35"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="109"/>
-      <c r="B118" s="24">
+      <c r="G122" s="35"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="35"/>
+      <c r="J122" s="35"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="78"/>
+      <c r="B123" s="24">
         <v>41723</v>
       </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5">
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G118" s="35"/>
-      <c r="H118" s="35"/>
-      <c r="I118" s="35"/>
-      <c r="J118" s="35"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="109"/>
-      <c r="B119" s="24">
+      <c r="G123" s="35"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="35"/>
+      <c r="J123" s="35"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="78"/>
+      <c r="B124" s="24">
         <v>41724</v>
       </c>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5">
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G119" s="35"/>
-      <c r="H119" s="35"/>
-      <c r="I119" s="35"/>
-      <c r="J119" s="35"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="109"/>
-      <c r="B120" s="24">
+      <c r="G124" s="35"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="35"/>
+      <c r="J124" s="35"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="78"/>
+      <c r="B125" s="24">
         <v>41725</v>
       </c>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5">
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G120" s="35"/>
-      <c r="H120" s="35"/>
-      <c r="I120" s="35"/>
-      <c r="J120" s="35"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="110"/>
-      <c r="B121" s="24">
+      <c r="G125" s="35"/>
+      <c r="H125" s="35"/>
+      <c r="I125" s="35"/>
+      <c r="J125" s="35"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="79"/>
+      <c r="B126" s="24">
         <v>41726</v>
       </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5">
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G121" s="35"/>
-      <c r="H121" s="35"/>
-      <c r="I121" s="35"/>
-      <c r="J121" s="35"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="87">
+      <c r="G126" s="35"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="35"/>
+      <c r="J126" s="35"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="80">
         <v>22</v>
       </c>
-      <c r="B122" s="25">
+      <c r="B127" s="25">
         <v>41729</v>
       </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6">
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G122" s="36"/>
-      <c r="H122" s="36"/>
-      <c r="I122" s="36"/>
-      <c r="J122" s="36"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="88"/>
-      <c r="B123" s="25">
+      <c r="G127" s="36"/>
+      <c r="H127" s="36"/>
+      <c r="I127" s="36"/>
+      <c r="J127" s="36"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="81"/>
+      <c r="B128" s="25">
         <v>41730</v>
       </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6">
-        <f t="shared" ref="F123:F154" si="4">E123</f>
-        <v>0</v>
-      </c>
-      <c r="G123" s="36"/>
-      <c r="H123" s="36"/>
-      <c r="I123" s="36"/>
-      <c r="J123" s="36"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="88"/>
-      <c r="B124" s="25">
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6">
+        <f t="shared" ref="F128:F159" si="4">E128</f>
+        <v>0</v>
+      </c>
+      <c r="G128" s="36"/>
+      <c r="H128" s="36"/>
+      <c r="I128" s="36"/>
+      <c r="J128" s="36"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="81"/>
+      <c r="B129" s="25">
         <v>41731</v>
       </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6">
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G124" s="36"/>
-      <c r="H124" s="36"/>
-      <c r="I124" s="36"/>
-      <c r="J124" s="36"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="88"/>
-      <c r="B125" s="25">
+      <c r="G129" s="36"/>
+      <c r="H129" s="36"/>
+      <c r="I129" s="36"/>
+      <c r="J129" s="36"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="81"/>
+      <c r="B130" s="25">
         <v>41732</v>
       </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6">
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G125" s="36"/>
-      <c r="H125" s="36"/>
-      <c r="I125" s="36"/>
-      <c r="J125" s="36"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="89"/>
-      <c r="B126" s="25">
+      <c r="G130" s="36"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="36"/>
+      <c r="J130" s="36"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="82"/>
+      <c r="B131" s="25">
         <v>41733</v>
       </c>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6">
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G126" s="36"/>
-      <c r="H126" s="36"/>
-      <c r="I126" s="36"/>
-      <c r="J126" s="36"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="108">
+      <c r="G131" s="36"/>
+      <c r="H131" s="36"/>
+      <c r="I131" s="36"/>
+      <c r="J131" s="36"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="77">
         <v>23</v>
       </c>
-      <c r="B127" s="24">
+      <c r="B132" s="24">
         <v>41736</v>
       </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5">
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G127" s="35"/>
-      <c r="H127" s="35"/>
-      <c r="I127" s="35"/>
-      <c r="J127" s="35"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="109"/>
-      <c r="B128" s="24">
+      <c r="G132" s="35"/>
+      <c r="H132" s="35"/>
+      <c r="I132" s="35"/>
+      <c r="J132" s="35"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="78"/>
+      <c r="B133" s="24">
         <v>41737</v>
       </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5">
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G128" s="35"/>
-      <c r="H128" s="35"/>
-      <c r="I128" s="35"/>
-      <c r="J128" s="35"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="109"/>
-      <c r="B129" s="24">
+      <c r="G133" s="35"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="35"/>
+      <c r="J133" s="35"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="78"/>
+      <c r="B134" s="24">
         <v>41738</v>
       </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5">
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G129" s="35"/>
-      <c r="H129" s="35"/>
-      <c r="I129" s="35"/>
-      <c r="J129" s="35"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="109"/>
-      <c r="B130" s="24">
+      <c r="G134" s="35"/>
+      <c r="H134" s="35"/>
+      <c r="I134" s="35"/>
+      <c r="J134" s="35"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="78"/>
+      <c r="B135" s="24">
         <v>41739</v>
       </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5">
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G130" s="35"/>
-      <c r="H130" s="35"/>
-      <c r="I130" s="35"/>
-      <c r="J130" s="35"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="110"/>
-      <c r="B131" s="24">
+      <c r="G135" s="35"/>
+      <c r="H135" s="35"/>
+      <c r="I135" s="35"/>
+      <c r="J135" s="35"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="79"/>
+      <c r="B136" s="24">
         <v>41740</v>
       </c>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5">
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G131" s="35"/>
-      <c r="H131" s="35"/>
-      <c r="I131" s="35"/>
-      <c r="J131" s="35"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="87">
+      <c r="G136" s="35"/>
+      <c r="H136" s="35"/>
+      <c r="I136" s="35"/>
+      <c r="J136" s="35"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="80">
         <v>24</v>
       </c>
-      <c r="B132" s="25">
+      <c r="B137" s="25">
         <v>41743</v>
       </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6">
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G132" s="36"/>
-      <c r="H132" s="36"/>
-      <c r="I132" s="36"/>
-      <c r="J132" s="36"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="88"/>
-      <c r="B133" s="25">
+      <c r="G137" s="36"/>
+      <c r="H137" s="36"/>
+      <c r="I137" s="36"/>
+      <c r="J137" s="36"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="81"/>
+      <c r="B138" s="25">
         <v>41744</v>
       </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6">
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G133" s="36"/>
-      <c r="H133" s="36"/>
-      <c r="I133" s="36"/>
-      <c r="J133" s="36"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="88"/>
-      <c r="B134" s="25">
+      <c r="G138" s="36"/>
+      <c r="H138" s="36"/>
+      <c r="I138" s="36"/>
+      <c r="J138" s="36"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="81"/>
+      <c r="B139" s="25">
         <v>41745</v>
       </c>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6">
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G134" s="36"/>
-      <c r="H134" s="36"/>
-      <c r="I134" s="36"/>
-      <c r="J134" s="36"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="88"/>
-      <c r="B135" s="25">
+      <c r="G139" s="36"/>
+      <c r="H139" s="36"/>
+      <c r="I139" s="36"/>
+      <c r="J139" s="36"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="81"/>
+      <c r="B140" s="25">
         <v>41746</v>
       </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6">
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G135" s="36"/>
-      <c r="H135" s="36"/>
-      <c r="I135" s="36"/>
-      <c r="J135" s="36"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="89"/>
-      <c r="B136" s="25">
+      <c r="G140" s="36"/>
+      <c r="H140" s="36"/>
+      <c r="I140" s="36"/>
+      <c r="J140" s="36"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="82"/>
+      <c r="B141" s="25">
         <v>41747</v>
       </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6">
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G136" s="36"/>
-      <c r="H136" s="36"/>
-      <c r="I136" s="36"/>
-      <c r="J136" s="36"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="108">
+      <c r="G141" s="36"/>
+      <c r="H141" s="36"/>
+      <c r="I141" s="36"/>
+      <c r="J141" s="36"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="77">
         <v>25</v>
       </c>
-      <c r="B137" s="24">
+      <c r="B142" s="24">
         <v>41750</v>
       </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5">
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G137" s="35"/>
-      <c r="H137" s="35"/>
-      <c r="I137" s="35"/>
-      <c r="J137" s="35"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="109"/>
-      <c r="B138" s="24">
+      <c r="G142" s="35"/>
+      <c r="H142" s="35"/>
+      <c r="I142" s="35"/>
+      <c r="J142" s="35"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="78"/>
+      <c r="B143" s="24">
         <v>41751</v>
       </c>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5">
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G138" s="35"/>
-      <c r="H138" s="35"/>
-      <c r="I138" s="35"/>
-      <c r="J138" s="35"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="109"/>
-      <c r="B139" s="24">
+      <c r="G143" s="35"/>
+      <c r="H143" s="35"/>
+      <c r="I143" s="35"/>
+      <c r="J143" s="35"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="78"/>
+      <c r="B144" s="24">
         <v>41752</v>
       </c>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5">
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G139" s="35"/>
-      <c r="H139" s="35"/>
-      <c r="I139" s="35"/>
-      <c r="J139" s="35"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="109"/>
-      <c r="B140" s="24">
+      <c r="G144" s="35"/>
+      <c r="H144" s="35"/>
+      <c r="I144" s="35"/>
+      <c r="J144" s="35"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="78"/>
+      <c r="B145" s="24">
         <v>41753</v>
       </c>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5">
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G140" s="35"/>
-      <c r="H140" s="35"/>
-      <c r="I140" s="35"/>
-      <c r="J140" s="35"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="110"/>
-      <c r="B141" s="24">
+      <c r="G145" s="35"/>
+      <c r="H145" s="35"/>
+      <c r="I145" s="35"/>
+      <c r="J145" s="35"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="79"/>
+      <c r="B146" s="24">
         <v>41754</v>
       </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5">
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G141" s="35"/>
-      <c r="H141" s="35"/>
-      <c r="I141" s="35"/>
-      <c r="J141" s="35"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="87">
+      <c r="G146" s="35"/>
+      <c r="H146" s="35"/>
+      <c r="I146" s="35"/>
+      <c r="J146" s="35"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="80">
         <v>26</v>
       </c>
-      <c r="B142" s="25">
+      <c r="B147" s="25">
         <v>41757</v>
       </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6">
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G142" s="36"/>
-      <c r="H142" s="36"/>
-      <c r="I142" s="36"/>
-      <c r="J142" s="36"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="88"/>
-      <c r="B143" s="25">
+      <c r="G147" s="36"/>
+      <c r="H147" s="36"/>
+      <c r="I147" s="36"/>
+      <c r="J147" s="36"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="81"/>
+      <c r="B148" s="25">
         <v>41758</v>
       </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6">
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G143" s="36"/>
-      <c r="H143" s="36"/>
-      <c r="I143" s="36"/>
-      <c r="J143" s="36"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="88"/>
-      <c r="B144" s="25">
+      <c r="G148" s="36"/>
+      <c r="H148" s="36"/>
+      <c r="I148" s="36"/>
+      <c r="J148" s="36"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="81"/>
+      <c r="B149" s="25">
         <v>41759</v>
       </c>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6">
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G144" s="36"/>
-      <c r="H144" s="36"/>
-      <c r="I144" s="36"/>
-      <c r="J144" s="36"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="88"/>
-      <c r="B145" s="25">
+      <c r="G149" s="36"/>
+      <c r="H149" s="36"/>
+      <c r="I149" s="36"/>
+      <c r="J149" s="36"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="81"/>
+      <c r="B150" s="25">
         <v>41760</v>
       </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6">
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G145" s="36"/>
-      <c r="H145" s="36"/>
-      <c r="I145" s="36"/>
-      <c r="J145" s="36"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="89"/>
-      <c r="B146" s="25">
+      <c r="G150" s="36"/>
+      <c r="H150" s="36"/>
+      <c r="I150" s="36"/>
+      <c r="J150" s="36"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="82"/>
+      <c r="B151" s="25">
         <v>41761</v>
       </c>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6">
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G146" s="36"/>
-      <c r="H146" s="36"/>
-      <c r="I146" s="36"/>
-      <c r="J146" s="36"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="108">
+      <c r="G151" s="36"/>
+      <c r="H151" s="36"/>
+      <c r="I151" s="36"/>
+      <c r="J151" s="36"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="77">
         <v>27</v>
       </c>
-      <c r="B147" s="24">
+      <c r="B152" s="24">
         <v>41764</v>
       </c>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5">
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G147" s="35"/>
-      <c r="H147" s="35"/>
-      <c r="I147" s="35"/>
-      <c r="J147" s="35"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="109"/>
-      <c r="B148" s="24">
+      <c r="G152" s="35"/>
+      <c r="H152" s="35"/>
+      <c r="I152" s="35"/>
+      <c r="J152" s="35"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="78"/>
+      <c r="B153" s="24">
         <v>41765</v>
       </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5">
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G148" s="35"/>
-      <c r="H148" s="35"/>
-      <c r="I148" s="35"/>
-      <c r="J148" s="35"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="109"/>
-      <c r="B149" s="24">
+      <c r="G153" s="35"/>
+      <c r="H153" s="35"/>
+      <c r="I153" s="35"/>
+      <c r="J153" s="35"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="78"/>
+      <c r="B154" s="24">
         <v>41766</v>
       </c>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5">
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G149" s="35"/>
-      <c r="H149" s="35"/>
-      <c r="I149" s="35"/>
-      <c r="J149" s="35"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="109"/>
-      <c r="B150" s="24">
+      <c r="G154" s="35"/>
+      <c r="H154" s="35"/>
+      <c r="I154" s="35"/>
+      <c r="J154" s="35"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="78"/>
+      <c r="B155" s="24">
         <v>41767</v>
       </c>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5">
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G150" s="35"/>
-      <c r="H150" s="35"/>
-      <c r="I150" s="35"/>
-      <c r="J150" s="35"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="110"/>
-      <c r="B151" s="24">
+      <c r="G155" s="35"/>
+      <c r="H155" s="35"/>
+      <c r="I155" s="35"/>
+      <c r="J155" s="35"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="79"/>
+      <c r="B156" s="24">
         <v>41768</v>
       </c>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5">
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G151" s="35"/>
-      <c r="H151" s="35"/>
-      <c r="I151" s="35"/>
-      <c r="J151" s="35"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="87">
+      <c r="G156" s="35"/>
+      <c r="H156" s="35"/>
+      <c r="I156" s="35"/>
+      <c r="J156" s="35"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="80">
         <v>28</v>
       </c>
-      <c r="B152" s="25">
+      <c r="B157" s="25">
         <v>41771</v>
       </c>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6">
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G152" s="36"/>
-      <c r="H152" s="36"/>
-      <c r="I152" s="36"/>
-      <c r="J152" s="36"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="88"/>
-      <c r="B153" s="25">
+      <c r="G157" s="36"/>
+      <c r="H157" s="36"/>
+      <c r="I157" s="36"/>
+      <c r="J157" s="36"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="81"/>
+      <c r="B158" s="25">
         <v>41772</v>
       </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6">
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G153" s="36"/>
-      <c r="H153" s="36"/>
-      <c r="I153" s="36"/>
-      <c r="J153" s="36"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="88"/>
-      <c r="B154" s="25">
+      <c r="G158" s="36"/>
+      <c r="H158" s="36"/>
+      <c r="I158" s="36"/>
+      <c r="J158" s="36"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="81"/>
+      <c r="B159" s="25">
         <v>41773</v>
       </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6">
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G154" s="36"/>
-      <c r="H154" s="36"/>
-      <c r="I154" s="36"/>
-      <c r="J154" s="36"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="88"/>
-      <c r="B155" s="25">
+      <c r="G159" s="36"/>
+      <c r="H159" s="36"/>
+      <c r="I159" s="36"/>
+      <c r="J159" s="36"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="81"/>
+      <c r="B160" s="25">
         <v>41774</v>
       </c>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6">
-        <f t="shared" ref="F155:F166" si="5">E155</f>
-        <v>0</v>
-      </c>
-      <c r="G155" s="36"/>
-      <c r="H155" s="36"/>
-      <c r="I155" s="36"/>
-      <c r="J155" s="36"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="89"/>
-      <c r="B156" s="25">
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6">
+        <f t="shared" ref="F160:F171" si="5">E160</f>
+        <v>0</v>
+      </c>
+      <c r="G160" s="36"/>
+      <c r="H160" s="36"/>
+      <c r="I160" s="36"/>
+      <c r="J160" s="36"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="82"/>
+      <c r="B161" s="25">
         <v>41775</v>
       </c>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6">
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G156" s="36"/>
-      <c r="H156" s="36"/>
-      <c r="I156" s="36"/>
-      <c r="J156" s="36"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="108">
+      <c r="G161" s="36"/>
+      <c r="H161" s="36"/>
+      <c r="I161" s="36"/>
+      <c r="J161" s="36"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="77">
         <v>29</v>
       </c>
-      <c r="B157" s="24">
+      <c r="B162" s="24">
         <v>41778</v>
       </c>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5">
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G157" s="35"/>
-      <c r="H157" s="35"/>
-      <c r="I157" s="35"/>
-      <c r="J157" s="35"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="109"/>
-      <c r="B158" s="24">
+      <c r="G162" s="35"/>
+      <c r="H162" s="35"/>
+      <c r="I162" s="35"/>
+      <c r="J162" s="35"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="78"/>
+      <c r="B163" s="24">
         <v>41779</v>
       </c>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5">
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G158" s="35"/>
-      <c r="H158" s="35"/>
-      <c r="I158" s="35"/>
-      <c r="J158" s="35"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="109"/>
-      <c r="B159" s="24">
+      <c r="G163" s="35"/>
+      <c r="H163" s="35"/>
+      <c r="I163" s="35"/>
+      <c r="J163" s="35"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="78"/>
+      <c r="B164" s="24">
         <v>41780</v>
       </c>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5">
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G159" s="35"/>
-      <c r="H159" s="35"/>
-      <c r="I159" s="35"/>
-      <c r="J159" s="35"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="109"/>
-      <c r="B160" s="24">
+      <c r="G164" s="35"/>
+      <c r="H164" s="35"/>
+      <c r="I164" s="35"/>
+      <c r="J164" s="35"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="78"/>
+      <c r="B165" s="24">
         <v>41781</v>
       </c>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5">
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G160" s="35"/>
-      <c r="H160" s="35"/>
-      <c r="I160" s="35"/>
-      <c r="J160" s="35"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="110"/>
-      <c r="B161" s="24">
+      <c r="G165" s="35"/>
+      <c r="H165" s="35"/>
+      <c r="I165" s="35"/>
+      <c r="J165" s="35"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="79"/>
+      <c r="B166" s="24">
         <v>41782</v>
       </c>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5">
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G161" s="35"/>
-      <c r="H161" s="35"/>
-      <c r="I161" s="35"/>
-      <c r="J161" s="35"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="134">
+      <c r="G166" s="35"/>
+      <c r="H166" s="35"/>
+      <c r="I166" s="35"/>
+      <c r="J166" s="35"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="83">
         <v>30</v>
       </c>
-      <c r="B162" s="25">
+      <c r="B167" s="25">
         <v>41785</v>
       </c>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2">
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G162" s="37"/>
-      <c r="H162" s="37"/>
-      <c r="I162" s="37"/>
-      <c r="J162" s="37"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="135"/>
-      <c r="B163" s="25">
+      <c r="G167" s="37"/>
+      <c r="H167" s="37"/>
+      <c r="I167" s="37"/>
+      <c r="J167" s="37"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="84"/>
+      <c r="B168" s="25">
         <v>41786</v>
       </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2">
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G163" s="37"/>
-      <c r="H163" s="37"/>
-      <c r="I163" s="37"/>
-      <c r="J163" s="37"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="135"/>
-      <c r="B164" s="25">
+      <c r="G168" s="37"/>
+      <c r="H168" s="37"/>
+      <c r="I168" s="37"/>
+      <c r="J168" s="37"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="84"/>
+      <c r="B169" s="25">
         <v>41787</v>
       </c>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2">
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G164" s="37"/>
-      <c r="H164" s="37"/>
-      <c r="I164" s="37"/>
-      <c r="J164" s="37"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="135"/>
-      <c r="B165" s="25">
+      <c r="G169" s="37"/>
+      <c r="H169" s="37"/>
+      <c r="I169" s="37"/>
+      <c r="J169" s="37"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="84"/>
+      <c r="B170" s="25">
         <v>41788</v>
       </c>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2">
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G165" s="37"/>
-      <c r="H165" s="37"/>
-      <c r="I165" s="37"/>
-      <c r="J165" s="37"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="136"/>
-      <c r="B166" s="25">
+      <c r="G170" s="37"/>
+      <c r="H170" s="37"/>
+      <c r="I170" s="37"/>
+      <c r="J170" s="37"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="85"/>
+      <c r="B171" s="25">
         <v>41789</v>
       </c>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2">
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G166" s="37"/>
-      <c r="H166" s="37"/>
-      <c r="I166" s="37"/>
-      <c r="J166" s="37"/>
+      <c r="G171" s="37"/>
+      <c r="H171" s="37"/>
+      <c r="I171" s="37"/>
+      <c r="J171" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A157:A161"/>
+  <mergeCells count="58">
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A17:A29"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A82:A86"/>
     <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="B17:B19"/>
@@ -4839,31 +5089,27 @@
     <mergeCell ref="F22:F26"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="F27:F29"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A62:A66"/>
     <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A61"/>
     <mergeCell ref="A67:A71"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A17:A29"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A112:A116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -4966,48 +5212,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M29:M31</xm:sqref>
+          <xm:sqref>M29:M33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="29" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5026,7 +5234,7 @@
           <xm:sqref>M34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
+          <x14:cfRule type="iconSet" priority="28" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5042,10 +5250,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M35</xm:sqref>
+          <xm:sqref>M35:M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
+          <x14:cfRule type="iconSet" priority="27" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5061,67 +5269,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M36</xm:sqref>
+          <xm:sqref>M37:M39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="26" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5140,7 +5291,7 @@
           <xm:sqref>M40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="25" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5159,7 +5310,7 @@
           <xm:sqref>M41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="24" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5178,7 +5329,7 @@
           <xm:sqref>M42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="23" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5197,7 +5348,7 @@
           <xm:sqref>M43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="22" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5216,7 +5367,7 @@
           <xm:sqref>M44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="21" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5235,7 +5386,7 @@
           <xm:sqref>M45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="20" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5254,7 +5405,7 @@
           <xm:sqref>M46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="19" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5273,7 +5424,7 @@
           <xm:sqref>M47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="18" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5292,7 +5443,7 @@
           <xm:sqref>M48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="17" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5309,6 +5460,101 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="16" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="15" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="14" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="11" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -5422,7 +5668,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F22 F7:F8 F12 F14 F16:F17 F20 F27 F30:F166</xm:sqref>
+          <xm:sqref>F22 F7:F8 F12 F14 F16:F17 F20 F27 F30 F34:F35 F37:F38 F40:F171</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5432,7 +5678,7 @@
           <x14:formula1>
             <xm:f>'List main task'!$B$4:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>G9:G31</xm:sqref>
+          <xm:sqref>G9:G41</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
+++ b/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="91">
   <si>
     <t>Week</t>
   </si>
@@ -136,13 +136,7 @@
     <t>Time for doing week 15</t>
   </si>
   <si>
-    <t>Time for doing week 16</t>
-  </si>
-  <si>
     <t>Time for doing week 17</t>
-  </si>
-  <si>
-    <t>Time for doing week 18</t>
   </si>
   <si>
     <t>Time for doing week 19</t>
@@ -297,6 +291,26 @@
   </si>
   <si>
     <t>Description for Stage 4 in ACDM</t>
+  </si>
+  <si>
+    <t>Create Operation Description for Catalog module</t>
+  </si>
+  <si>
+    <t>Operation_Description_Catalog.docx</t>
+  </si>
+  <si>
+    <t>Create Entities fod Catalog module</t>
+  </si>
+  <si>
+    <t>Catalog.docx</t>
+  </si>
+  <si>
+    <t>Review
++ Master Design Plan
++ List Risk
++ Measurement 
++ Process
++ Entities</t>
   </si>
 </sst>
 </file>
@@ -619,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -794,9 +808,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -809,6 +820,141 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -818,14 +964,74 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -836,193 +1042,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1420,24 +1450,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O171"/>
+  <dimension ref="A1:O173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
@@ -1448,87 +1478,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="122"/>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="124"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="87"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="125" t="s">
+      <c r="A2" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="127"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="90"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="130"/>
+      <c r="A3" s="128" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="93"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="103"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="133"/>
+      <c r="A4" s="131"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="96"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="114"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
       <c r="F5" s="16"/>
       <c r="H5" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1553,7 +1583,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>5</v>
@@ -1567,16 +1597,16 @@
       <c r="J6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="137">
+      <c r="A7" s="100">
         <v>1</v>
       </c>
-      <c r="B7" s="106">
+      <c r="B7" s="134">
         <v>41586</v>
       </c>
       <c r="C7" s="17">
@@ -1586,9 +1616,9 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="109">
+        <v>53</v>
+      </c>
+      <c r="F7" s="137">
         <f>SUM(E7:E9)</f>
         <v>2</v>
       </c>
@@ -1611,8 +1641,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="138"/>
-      <c r="B8" s="107"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="135"/>
       <c r="C8" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1622,7 +1652,7 @@
       <c r="E8" s="18">
         <v>0.5</v>
       </c>
-      <c r="F8" s="110"/>
+      <c r="F8" s="138"/>
       <c r="G8" s="19" t="s">
         <v>20</v>
       </c>
@@ -1635,8 +1665,8 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="139"/>
-      <c r="B9" s="108"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="17">
         <v>0.83333333333333337</v>
       </c>
@@ -1646,21 +1676,21 @@
       <c r="E9" s="18">
         <v>1.5</v>
       </c>
-      <c r="F9" s="111"/>
+      <c r="F9" s="139"/>
       <c r="G9" s="41" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I9" s="38"/>
       <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="145">
+      <c r="A10" s="115">
         <v>2</v>
       </c>
-      <c r="B10" s="135">
+      <c r="B10" s="98">
         <v>41589</v>
       </c>
       <c r="C10" s="46">
@@ -1672,7 +1702,7 @@
       <c r="E10" s="47">
         <v>1.5</v>
       </c>
-      <c r="F10" s="140">
+      <c r="F10" s="108">
         <f>SUM(E10:E11)</f>
         <v>3.5</v>
       </c>
@@ -1680,14 +1710,14 @@
         <v>24</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I10" s="50"/>
       <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:15" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="146"/>
-      <c r="B11" s="136"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="46">
         <v>0.875</v>
       </c>
@@ -1697,19 +1727,19 @@
       <c r="E11" s="47">
         <v>2</v>
       </c>
-      <c r="F11" s="141"/>
+      <c r="F11" s="109"/>
       <c r="G11" s="56" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I11" s="50"/>
       <c r="J11" s="48"/>
     </row>
     <row r="12" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="146"/>
-      <c r="B12" s="92">
+      <c r="A12" s="116"/>
+      <c r="B12" s="113">
         <v>41590</v>
       </c>
       <c r="C12" s="21">
@@ -1721,7 +1751,7 @@
       <c r="E12" s="22">
         <v>2.25</v>
       </c>
-      <c r="F12" s="86">
+      <c r="F12" s="106">
         <f>SUM(E12:E13)</f>
         <v>3.5</v>
       </c>
@@ -1729,7 +1759,7 @@
         <v>16</v>
       </c>
       <c r="H12" s="62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I12" s="32"/>
       <c r="J12" s="33"/>
@@ -1747,8 +1777,8 @@
       <c r="O12" s="30"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="146"/>
-      <c r="B13" s="93"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="21">
         <v>0.86458333333333337</v>
       </c>
@@ -1758,12 +1788,12 @@
       <c r="E13" s="22">
         <v>1.25</v>
       </c>
-      <c r="F13" s="87"/>
+      <c r="F13" s="107"/>
       <c r="G13" s="56" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I13" s="32"/>
       <c r="J13" s="33"/>
@@ -1774,8 +1804,8 @@
       <c r="O13" s="30"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="146"/>
-      <c r="B14" s="92">
+      <c r="A14" s="116"/>
+      <c r="B14" s="113">
         <v>41592</v>
       </c>
       <c r="C14" s="23">
@@ -1787,7 +1817,7 @@
       <c r="E14" s="26">
         <v>1.5</v>
       </c>
-      <c r="F14" s="86">
+      <c r="F14" s="106">
         <f>SUM(E14:E15)</f>
         <v>2</v>
       </c>
@@ -1795,7 +1825,7 @@
         <v>25</v>
       </c>
       <c r="H14" s="63" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I14" s="34"/>
       <c r="J14" s="33"/>
@@ -1805,8 +1835,8 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="146"/>
-      <c r="B15" s="93"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="23">
         <v>0.9375</v>
       </c>
@@ -1816,12 +1846,12 @@
       <c r="E15" s="26">
         <v>0.5</v>
       </c>
-      <c r="F15" s="87"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="56" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="34"/>
       <c r="J15" s="33"/>
@@ -1831,7 +1861,7 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="147"/>
+      <c r="A16" s="117"/>
       <c r="B16" s="40">
         <v>41593</v>
       </c>
@@ -1852,7 +1882,7 @@
         <v>16</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="31"/>
       <c r="J16" s="33"/>
@@ -1861,18 +1891,18 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="10">
-        <f>SUM(E42:E46)</f>
-        <v>0</v>
+        <f>SUM(E42:E48)</f>
+        <v>7.47</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="115">
+      <c r="A17" s="124">
         <v>3</v>
       </c>
-      <c r="B17" s="89">
+      <c r="B17" s="103">
         <v>41596</v>
       </c>
       <c r="C17" s="44">
@@ -1884,7 +1914,7 @@
       <c r="E17" s="42">
         <v>1</v>
       </c>
-      <c r="F17" s="86">
+      <c r="F17" s="106">
         <f>SUM(E17:E19)</f>
         <v>3.5</v>
       </c>
@@ -1892,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="41"/>
       <c r="J17" s="35"/>
@@ -1901,7 +1931,7 @@
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="10">
-        <f>SUM(E57:E61)</f>
+        <f>SUM(E59:E63)</f>
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -1909,8 +1939,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
-      <c r="B18" s="90"/>
+      <c r="A18" s="124"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="44">
         <v>0.75</v>
       </c>
@@ -1920,15 +1950,15 @@
       <c r="E18" s="42">
         <v>1.5</v>
       </c>
-      <c r="F18" s="88"/>
+      <c r="F18" s="143"/>
       <c r="G18" s="41" t="s">
         <v>18</v>
       </c>
       <c r="H18" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="41" t="s">
         <v>65</v>
-      </c>
-      <c r="I18" s="41" t="s">
-        <v>67</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="8"/>
@@ -1937,8 +1967,8 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="115"/>
-      <c r="B19" s="91"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="44">
         <v>0.89583333333333337</v>
       </c>
@@ -1948,12 +1978,12 @@
       <c r="E19" s="42">
         <v>1</v>
       </c>
-      <c r="F19" s="87"/>
+      <c r="F19" s="107"/>
       <c r="G19" s="41" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I19" s="41"/>
       <c r="J19" s="35"/>
@@ -1963,8 +1993,8 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="115"/>
-      <c r="B20" s="89">
+      <c r="A20" s="124"/>
+      <c r="B20" s="103">
         <v>41597</v>
       </c>
       <c r="C20" s="44">
@@ -1976,7 +2006,7 @@
       <c r="E20" s="42">
         <v>1.5</v>
       </c>
-      <c r="F20" s="86">
+      <c r="F20" s="106">
         <f>SUM(E20:E21)</f>
         <v>3</v>
       </c>
@@ -1984,7 +2014,7 @@
         <v>16</v>
       </c>
       <c r="H20" s="60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I20" s="41"/>
       <c r="J20" s="35"/>
@@ -1994,8 +2024,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="115"/>
-      <c r="B21" s="91"/>
+      <c r="A21" s="124"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="44">
         <v>0.8125</v>
       </c>
@@ -2005,12 +2035,12 @@
       <c r="E21" s="42">
         <v>1.5</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="107"/>
       <c r="G21" s="41" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I21" s="41"/>
       <c r="J21" s="35"/>
@@ -2019,7 +2049,7 @@
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E62:E66)</f>
+        <f>SUM(E64:E68)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -2027,8 +2057,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="115"/>
-      <c r="B22" s="89">
+      <c r="A22" s="124"/>
+      <c r="B22" s="103">
         <v>41599</v>
       </c>
       <c r="C22" s="44">
@@ -2040,7 +2070,7 @@
       <c r="E22" s="42">
         <v>3</v>
       </c>
-      <c r="F22" s="86">
+      <c r="F22" s="106">
         <f>SUM(E22:E26)</f>
         <v>7.9</v>
       </c>
@@ -2048,7 +2078,7 @@
         <v>17</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I22" s="41"/>
       <c r="J22" s="35"/>
@@ -2058,8 +2088,8 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="115"/>
-      <c r="B23" s="90"/>
+      <c r="A23" s="124"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="44">
         <v>0.38194444444444442</v>
       </c>
@@ -2069,12 +2099,12 @@
       <c r="E23" s="42">
         <v>1</v>
       </c>
-      <c r="F23" s="88"/>
+      <c r="F23" s="143"/>
       <c r="G23" s="61" t="s">
         <v>20</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I23" s="45"/>
       <c r="J23" s="35"/>
@@ -2084,8 +2114,8 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="115"/>
-      <c r="B24" s="90"/>
+      <c r="A24" s="124"/>
+      <c r="B24" s="105"/>
       <c r="C24" s="44">
         <v>0.4236111111111111</v>
       </c>
@@ -2095,12 +2125,12 @@
       <c r="E24" s="42">
         <v>1.3</v>
       </c>
-      <c r="F24" s="88"/>
+      <c r="F24" s="143"/>
       <c r="G24" s="41" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I24" s="45"/>
       <c r="J24" s="35"/>
@@ -2110,8 +2140,8 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="115"/>
-      <c r="B25" s="90"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="44">
         <v>0.58333333333333337</v>
       </c>
@@ -2121,12 +2151,12 @@
       <c r="E25" s="42">
         <v>0.5</v>
       </c>
-      <c r="F25" s="88"/>
+      <c r="F25" s="143"/>
       <c r="G25" s="41" t="s">
         <v>18</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I25" s="45"/>
       <c r="J25" s="35"/>
@@ -2136,8 +2166,8 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="115"/>
-      <c r="B26" s="91"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="65">
         <v>0.625</v>
       </c>
@@ -2147,12 +2177,12 @@
       <c r="E26" s="42">
         <v>2.1</v>
       </c>
-      <c r="F26" s="87"/>
+      <c r="F26" s="107"/>
       <c r="G26" s="41" t="s">
         <v>16</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I26" s="27"/>
       <c r="J26" s="35"/>
@@ -2161,7 +2191,7 @@
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="10">
-        <f>SUM(E72:E76)</f>
+        <f>SUM(E74:E78)</f>
         <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
@@ -2169,8 +2199,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="115"/>
-      <c r="B27" s="89">
+      <c r="A27" s="124"/>
+      <c r="B27" s="103">
         <v>41600</v>
       </c>
       <c r="C27" s="65">
@@ -2182,7 +2212,7 @@
       <c r="E27" s="18">
         <v>1.25</v>
       </c>
-      <c r="F27" s="94">
+      <c r="F27" s="144">
         <f>SUM(E27:E29)</f>
         <v>4</v>
       </c>
@@ -2190,10 +2220,10 @@
         <v>18</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I27" s="68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J27" s="35"/>
       <c r="K27" s="8"/>
@@ -2202,8 +2232,8 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="115"/>
-      <c r="B28" s="90"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="105"/>
       <c r="C28" s="65">
         <v>0.5625</v>
       </c>
@@ -2213,7 +2243,7 @@
       <c r="E28" s="18">
         <v>1.25</v>
       </c>
-      <c r="F28" s="95"/>
+      <c r="F28" s="145"/>
       <c r="G28" s="69" t="s">
         <v>16</v>
       </c>
@@ -2226,8 +2256,8 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="115"/>
-      <c r="B29" s="91"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="65">
         <v>0.625</v>
       </c>
@@ -2237,12 +2267,12 @@
       <c r="E29" s="69">
         <v>1.5</v>
       </c>
-      <c r="F29" s="96"/>
+      <c r="F29" s="146"/>
       <c r="G29" s="69" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I29" s="27"/>
       <c r="J29" s="35"/>
@@ -2251,7 +2281,7 @@
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="10">
-        <f>SUM(E77:E81)</f>
+        <f>SUM(E79:E83)</f>
         <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
@@ -2260,7 +2290,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="67"/>
-      <c r="B30" s="89">
+      <c r="B30" s="103">
         <v>41601</v>
       </c>
       <c r="C30" s="65">
@@ -2272,7 +2302,7 @@
       <c r="E30" s="69">
         <v>0.5</v>
       </c>
-      <c r="F30" s="142">
+      <c r="F30" s="110">
         <f>SUM(E30:E33)</f>
         <v>2</v>
       </c>
@@ -2280,10 +2310,10 @@
         <v>18</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J30" s="35"/>
       <c r="K30" s="8"/>
@@ -2293,7 +2323,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="67"/>
-      <c r="B31" s="90"/>
+      <c r="B31" s="105"/>
       <c r="C31" s="65">
         <v>0.39583333333333331</v>
       </c>
@@ -2303,15 +2333,15 @@
       <c r="E31" s="69">
         <v>0.5</v>
       </c>
-      <c r="F31" s="143"/>
+      <c r="F31" s="111"/>
       <c r="G31" s="69" t="s">
         <v>19</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J31" s="35"/>
       <c r="K31" s="8"/>
@@ -2320,8 +2350,8 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="74"/>
-      <c r="B32" s="90"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="105"/>
       <c r="C32" s="65">
         <v>0.5625</v>
       </c>
@@ -2331,7 +2361,7 @@
       <c r="E32" s="69">
         <v>0.25</v>
       </c>
-      <c r="F32" s="143"/>
+      <c r="F32" s="111"/>
       <c r="G32" s="69" t="s">
         <v>16</v>
       </c>
@@ -2344,8 +2374,8 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-      <c r="B33" s="91"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="65">
         <v>0.57291666666666663</v>
       </c>
@@ -2355,15 +2385,15 @@
       <c r="E33" s="69">
         <v>0.75</v>
       </c>
-      <c r="F33" s="144"/>
+      <c r="F33" s="112"/>
       <c r="G33" s="69" t="s">
         <v>19</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I33" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J33" s="35"/>
       <c r="K33" s="8"/>
@@ -2372,16 +2402,16 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="80">
+      <c r="A34" s="118">
         <v>4</v>
       </c>
       <c r="B34" s="25">
         <v>41603</v>
       </c>
-      <c r="C34" s="75">
+      <c r="C34" s="74">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D34" s="75">
+      <c r="D34" s="74">
         <v>0.875</v>
       </c>
       <c r="E34" s="70">
@@ -2391,20 +2421,20 @@
         <f>E34</f>
         <v>1</v>
       </c>
-      <c r="G34" s="76" t="s">
+      <c r="G34" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="I34" s="72"/>
+      <c r="H34" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" s="71"/>
       <c r="J34" s="36"/>
       <c r="K34" s="8" t="s">
         <v>33</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="10">
-        <f>SUM(E82:E86)</f>
+        <f>SUM(E84:E88)</f>
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
@@ -2412,37 +2442,37 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="116">
+      <c r="A35" s="119"/>
+      <c r="B35" s="79">
         <v>41604</v>
       </c>
-      <c r="C35" s="75">
+      <c r="C35" s="74">
         <v>0.375</v>
       </c>
-      <c r="D35" s="75">
+      <c r="D35" s="74">
         <v>0.9375</v>
       </c>
       <c r="E35" s="70">
         <v>1.5</v>
       </c>
-      <c r="F35" s="118">
+      <c r="F35" s="81">
         <f>SUM(E35:E36)</f>
         <v>3</v>
       </c>
-      <c r="G35" s="76" t="s">
+      <c r="G35" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="I35" s="72"/>
+      <c r="H35" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35" s="71"/>
       <c r="J35" s="36"/>
       <c r="K35" s="8" t="s">
         <v>34</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10">
-        <f>SUM(E87:E91)</f>
+        <f>SUM(E89:E93)</f>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -2450,25 +2480,25 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="75">
+      <c r="A36" s="119"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="74">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D36" s="75">
+      <c r="D36" s="74">
         <v>0.60416666666666663</v>
       </c>
       <c r="E36" s="70">
         <v>1.5</v>
       </c>
-      <c r="F36" s="119"/>
-      <c r="G36" s="76" t="s">
+      <c r="F36" s="82"/>
+      <c r="G36" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="148" t="s">
-        <v>82</v>
-      </c>
-      <c r="I36" s="72"/>
+      <c r="H36" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="71"/>
       <c r="J36" s="36"/>
       <c r="K36" s="8"/>
       <c r="L36" s="6"/>
@@ -2476,31 +2506,31 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="116">
+      <c r="A37" s="119"/>
+      <c r="B37" s="79">
         <v>41605</v>
       </c>
-      <c r="C37" s="75">
+      <c r="C37" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D37" s="75">
+      <c r="D37" s="74">
         <v>0.34375</v>
       </c>
       <c r="E37" s="70">
         <v>0.25</v>
       </c>
-      <c r="F37" s="118">
+      <c r="F37" s="81">
         <f>SUM(E37:E39)</f>
         <v>3.08</v>
       </c>
-      <c r="G37" s="76" t="s">
+      <c r="G37" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="I37" s="72" t="s">
-        <v>78</v>
+      <c r="H37" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="71" t="s">
+        <v>76</v>
       </c>
       <c r="J37" s="36"/>
       <c r="K37" s="8" t="s">
@@ -2508,7 +2538,7 @@
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <f>SUM(E92:E96)</f>
+        <f>SUM(E94:E98)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2516,26 +2546,26 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="120"/>
-      <c r="C38" s="75">
+      <c r="A38" s="119"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="74">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D38" s="75">
+      <c r="D38" s="74">
         <v>0.375</v>
       </c>
       <c r="E38" s="70">
         <v>0.5</v>
       </c>
-      <c r="F38" s="121"/>
-      <c r="G38" s="76" t="s">
+      <c r="F38" s="84"/>
+      <c r="G38" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="I38" s="72" t="s">
-        <v>79</v>
+      <c r="H38" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="71" t="s">
+        <v>77</v>
       </c>
       <c r="J38" s="36"/>
       <c r="K38" s="8"/>
@@ -2544,25 +2574,25 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="117"/>
-      <c r="C39" s="75">
+      <c r="A39" s="119"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="74">
         <v>0.5625</v>
       </c>
-      <c r="D39" s="75">
+      <c r="D39" s="74">
         <v>0.65972222222222221</v>
       </c>
       <c r="E39" s="70">
         <v>2.33</v>
       </c>
-      <c r="F39" s="119"/>
-      <c r="G39" s="76" t="s">
+      <c r="F39" s="82"/>
+      <c r="G39" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="I39" s="72"/>
+      <c r="H39" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39" s="71"/>
       <c r="J39" s="36"/>
       <c r="K39" s="8"/>
       <c r="L39" s="6"/>
@@ -2570,55 +2600,65 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="25">
-        <v>41606</v>
-      </c>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="66">
-        <f t="shared" ref="F40:F61" si="0">SUM(E40:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="76"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
+      <c r="A40" s="119"/>
+      <c r="B40" s="79">
+        <v>41608</v>
+      </c>
+      <c r="C40" s="74">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D40" s="74">
+        <v>0.875</v>
+      </c>
+      <c r="E40" s="70">
+        <v>1</v>
+      </c>
+      <c r="F40" s="81">
+        <f>SUM(E40:E41)</f>
+        <v>1.5</v>
+      </c>
+      <c r="G40" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" s="71"/>
       <c r="J40" s="36"/>
-      <c r="K40" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="K40" s="8"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="10">
-        <f>SUM(E97:E101)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="M40" s="10"/>
+      <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="82"/>
-      <c r="B41" s="25">
-        <v>41607</v>
-      </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="76"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
+      <c r="A41" s="120"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="74">
+        <v>0.875</v>
+      </c>
+      <c r="D41" s="74">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E41" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="82"/>
+      <c r="G41" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="71" t="s">
+        <v>87</v>
+      </c>
       <c r="J41" s="36"/>
       <c r="K41" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="10">
-        <f>SUM(E102:E106)</f>
+        <f>SUM(E104:E108)</f>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
@@ -2626,113 +2666,133 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="77">
-        <v>5</v>
-      </c>
-      <c r="B42" s="24">
+      <c r="A42" s="150"/>
+      <c r="B42" s="77">
         <v>41610</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="C42" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="D42" s="59">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E42" s="69">
+        <v>1</v>
+      </c>
+      <c r="F42" s="76">
+        <v>1</v>
+      </c>
+      <c r="G42" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="8"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="10">
-        <f>SUM(E107:E111)</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="M42" s="10"/>
+      <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="78"/>
-      <c r="B43" s="24">
+      <c r="A43" s="150"/>
+      <c r="B43" s="103">
         <v>41611</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="C43" s="59">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D43" s="59">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="E43" s="69">
+        <v>1</v>
+      </c>
+      <c r="F43" s="144">
+        <f>SUM(E43:E43:E44)</f>
+        <v>1.8</v>
+      </c>
+      <c r="G43" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="8"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="10">
-        <f>SUM(E112:E116)</f>
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="M43" s="10"/>
+      <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="78"/>
-      <c r="B44" s="24">
-        <v>41612</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
+      <c r="A44" s="150"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="59">
+        <v>0.9375</v>
+      </c>
+      <c r="D44" s="59">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="E44" s="152">
+        <v>0.8</v>
+      </c>
+      <c r="F44" s="146"/>
+      <c r="G44" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="J44" s="27"/>
       <c r="K44" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="10">
-        <f>SUM(E117:E121)</f>
+        <f>SUM(E114:E118)</f>
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
-      <c r="B45" s="24">
-        <v>41613</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
+    <row r="45" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="150"/>
+      <c r="B45" s="103">
+        <v>41612</v>
+      </c>
+      <c r="C45" s="59">
+        <v>0.5625</v>
+      </c>
+      <c r="D45" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E45" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="F45" s="144">
+        <f>SUM(E45:E49)</f>
+        <v>4.67</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="154" t="s">
+        <v>90</v>
+      </c>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
       <c r="K45" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="10">
-        <f>SUM(E122:E126)</f>
+        <f>SUM(E119:E123)</f>
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
@@ -2740,57 +2800,55 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="79"/>
-      <c r="B46" s="24">
-        <v>41614</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="A46" s="150"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="59">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="D46" s="59">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E46" s="27">
+        <v>0.17</v>
+      </c>
+      <c r="F46" s="146"/>
+      <c r="G46" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J46" s="27"/>
+      <c r="K46" s="8"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="10">
-        <f>SUM(E127:E131)</f>
-        <v>0</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="M46" s="10"/>
+      <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="80">
-        <v>6</v>
-      </c>
-      <c r="B47" s="25">
-        <v>41617</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
+      <c r="A47" s="150"/>
+      <c r="B47" s="24">
+        <v>41613</v>
+      </c>
+      <c r="C47" s="153"/>
+      <c r="D47" s="153"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="76">
+        <f t="shared" ref="F47:F63" si="0">SUM(E47:E50)</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="69"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
       <c r="K47" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="10">
-        <f>SUM(E132:E136)</f>
+        <f>SUM(E124:E128)</f>
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
@@ -2798,27 +2856,27 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="81"/>
-      <c r="B48" s="25">
-        <v>41618</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="58">
+      <c r="A48" s="151"/>
+      <c r="B48" s="24">
+        <v>41614</v>
+      </c>
+      <c r="C48" s="153"/>
+      <c r="D48" s="153"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
       <c r="K48" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="10">
-        <f>SUM(E137:E141)</f>
+        <f>SUM(E129:E133)</f>
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
@@ -2826,9 +2884,11 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="81"/>
+      <c r="A49" s="118">
+        <v>6</v>
+      </c>
       <c r="B49" s="25">
-        <v>41619</v>
+        <v>41617</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -2842,11 +2902,11 @@
       <c r="I49" s="36"/>
       <c r="J49" s="36"/>
       <c r="K49" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="10">
-        <f>SUM(E142:E146)</f>
+        <f>SUM(E134:E138)</f>
         <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
@@ -2854,9 +2914,9 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="81"/>
+      <c r="A50" s="119"/>
       <c r="B50" s="25">
-        <v>41620</v>
+        <v>41618</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -2870,11 +2930,11 @@
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
       <c r="K50" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="10">
-        <f>SUM(E147:E151)</f>
+        <f>SUM(E139:E143)</f>
         <v>0</v>
       </c>
       <c r="N50" s="3" t="s">
@@ -2882,9 +2942,9 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="82"/>
+      <c r="A51" s="119"/>
       <c r="B51" s="25">
-        <v>41621</v>
+        <v>41619</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -2898,11 +2958,11 @@
       <c r="I51" s="36"/>
       <c r="J51" s="36"/>
       <c r="K51" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="10">
-        <f>SUM(E152:E156)</f>
+        <f>SUM(E144:E148)</f>
         <v>0</v>
       </c>
       <c r="N51" s="3" t="s">
@@ -2910,29 +2970,27 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="77">
-        <v>7</v>
-      </c>
-      <c r="B52" s="24">
-        <v>41624</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="A52" s="119"/>
+      <c r="B52" s="25">
+        <v>41620</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
       <c r="F52" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
       <c r="K52" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="10">
-        <f>SUM(E157:E161)</f>
+        <f>SUM(E149:E153)</f>
         <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
@@ -2940,27 +2998,27 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="78"/>
-      <c r="B53" s="24">
-        <v>41625</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="A53" s="120"/>
+      <c r="B53" s="25">
+        <v>41621</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
       <c r="F53" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
       <c r="K53" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="10">
-        <f>SUM(E162:E166)</f>
+        <f>SUM(E154:E158)</f>
         <v>0</v>
       </c>
       <c r="N53" s="3" t="s">
@@ -2968,9 +3026,11 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="78"/>
+      <c r="A54" s="121">
+        <v>7</v>
+      </c>
       <c r="B54" s="24">
-        <v>41626</v>
+        <v>41624</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -2984,11 +3044,11 @@
       <c r="I54" s="35"/>
       <c r="J54" s="35"/>
       <c r="K54" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="10">
-        <f>SUM(E167:E171)</f>
+        <f>SUM(E159:E163)</f>
         <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
@@ -2996,9 +3056,9 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="78"/>
+      <c r="A55" s="122"/>
       <c r="B55" s="24">
-        <v>41627</v>
+        <v>41625</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -3011,11 +3071,22 @@
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
       <c r="J55" s="35"/>
+      <c r="K55" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L55" s="6"/>
+      <c r="M55" s="10">
+        <f>SUM(E164:E168)</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="79"/>
+      <c r="A56" s="122"/>
       <c r="B56" s="24">
-        <v>41628</v>
+        <v>41626</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -3028,47 +3099,58 @@
       <c r="H56" s="35"/>
       <c r="I56" s="35"/>
       <c r="J56" s="35"/>
+      <c r="K56" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L56" s="6"/>
+      <c r="M56" s="10">
+        <f>SUM(E169:E173)</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="80">
-        <v>8</v>
-      </c>
-      <c r="B57" s="25">
-        <v>41631</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
+      <c r="A57" s="122"/>
+      <c r="B57" s="24">
+        <v>41627</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
       <c r="F57" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="81"/>
-      <c r="B58" s="25">
-        <v>41632</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="A58" s="123"/>
+      <c r="B58" s="24">
+        <v>41628</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
       <c r="F58" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="81"/>
+      <c r="A59" s="118">
+        <v>8</v>
+      </c>
       <c r="B59" s="25">
-        <v>41633</v>
+        <v>41631</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -3083,9 +3165,9 @@
       <c r="J59" s="36"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="81"/>
+      <c r="A60" s="119"/>
       <c r="B60" s="25">
-        <v>41634</v>
+        <v>41632</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -3100,9 +3182,9 @@
       <c r="J60" s="36"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="82"/>
+      <c r="A61" s="119"/>
       <c r="B61" s="25">
-        <v>41635</v>
+        <v>41633</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -3117,51 +3199,51 @@
       <c r="J61" s="36"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="77">
+      <c r="A62" s="119"/>
+      <c r="B62" s="25">
+        <v>41634</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="120"/>
+      <c r="B63" s="25">
+        <v>41635</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="121">
         <v>9</v>
       </c>
-      <c r="B62" s="24">
+      <c r="B64" s="24">
         <v>41638</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5">
-        <f t="shared" ref="F62:F63" si="1">E62</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="78"/>
-      <c r="B63" s="24">
-        <v>41639</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="78"/>
-      <c r="B64" s="24">
-        <v>41640</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5">
-        <f t="shared" ref="F64:F95" si="2">E64</f>
+        <f t="shared" ref="F64:F65" si="1">E64</f>
         <v>0</v>
       </c>
       <c r="G64" s="35"/>
@@ -3170,15 +3252,15 @@
       <c r="J64" s="35"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="78"/>
+      <c r="A65" s="122"/>
       <c r="B65" s="24">
-        <v>41641</v>
+        <v>41639</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G65" s="35"/>
@@ -3187,15 +3269,15 @@
       <c r="J65" s="35"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="79"/>
+      <c r="A66" s="122"/>
       <c r="B66" s="24">
-        <v>41642</v>
+        <v>41640</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F66:F97" si="2">E66</f>
         <v>0</v>
       </c>
       <c r="G66" s="35"/>
@@ -3204,45 +3286,45 @@
       <c r="J66" s="35"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="80">
+      <c r="A67" s="122"/>
+      <c r="B67" s="24">
+        <v>41641</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="123"/>
+      <c r="B68" s="24">
+        <v>41642</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="118">
         <v>10</v>
       </c>
-      <c r="B67" s="25">
+      <c r="B69" s="25">
         <v>41645</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="81"/>
-      <c r="B68" s="25">
-        <v>41646</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="81"/>
-      <c r="B69" s="25">
-        <v>41647</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -3257,9 +3339,9 @@
       <c r="J69" s="36"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="81"/>
+      <c r="A70" s="119"/>
       <c r="B70" s="25">
-        <v>41648</v>
+        <v>41646</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -3274,9 +3356,9 @@
       <c r="J70" s="36"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="82"/>
+      <c r="A71" s="119"/>
       <c r="B71" s="25">
-        <v>41649</v>
+        <v>41647</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -3291,45 +3373,45 @@
       <c r="J71" s="36"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="77">
+      <c r="A72" s="119"/>
+      <c r="B72" s="25">
+        <v>41648</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="120"/>
+      <c r="B73" s="25">
+        <v>41649</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="121">
         <v>11</v>
       </c>
-      <c r="B72" s="24">
+      <c r="B74" s="24">
         <v>41652</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="78"/>
-      <c r="B73" s="24">
-        <v>41653</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="78"/>
-      <c r="B74" s="24">
-        <v>41654</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -3344,9 +3426,9 @@
       <c r="J74" s="35"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="78"/>
+      <c r="A75" s="122"/>
       <c r="B75" s="24">
-        <v>41655</v>
+        <v>41653</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -3361,9 +3443,9 @@
       <c r="J75" s="35"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="79"/>
+      <c r="A76" s="122"/>
       <c r="B76" s="24">
-        <v>41656</v>
+        <v>41654</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -3378,45 +3460,45 @@
       <c r="J76" s="35"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="80">
+      <c r="A77" s="122"/>
+      <c r="B77" s="24">
+        <v>41655</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="123"/>
+      <c r="B78" s="24">
+        <v>41656</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="118">
         <v>12</v>
       </c>
-      <c r="B77" s="25">
+      <c r="B79" s="25">
         <v>41659</v>
-      </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="81"/>
-      <c r="B78" s="25">
-        <v>41660</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="81"/>
-      <c r="B79" s="25">
-        <v>41661</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -3431,9 +3513,9 @@
       <c r="J79" s="36"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="81"/>
+      <c r="A80" s="119"/>
       <c r="B80" s="25">
-        <v>41662</v>
+        <v>41660</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -3448,9 +3530,9 @@
       <c r="J80" s="36"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="82"/>
+      <c r="A81" s="119"/>
       <c r="B81" s="25">
-        <v>41663</v>
+        <v>41661</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -3465,49 +3547,45 @@
       <c r="J81" s="36"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="77">
+      <c r="A82" s="119"/>
+      <c r="B82" s="25">
+        <v>41662</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="120"/>
+      <c r="B83" s="25">
+        <v>41663</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="121">
         <v>13</v>
       </c>
-      <c r="B82" s="24">
+      <c r="B84" s="24">
         <v>41666</v>
-      </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="78"/>
-      <c r="B83" s="24">
-        <v>41667</v>
-      </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="78"/>
-      <c r="B84" s="24">
-        <v>41668</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -3524,9 +3602,9 @@
       <c r="J84" s="35"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="78"/>
+      <c r="A85" s="122"/>
       <c r="B85" s="24">
-        <v>41669</v>
+        <v>41667</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -3543,9 +3621,9 @@
       <c r="J85" s="35"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="79"/>
+      <c r="A86" s="122"/>
       <c r="B86" s="24">
-        <v>41670</v>
+        <v>41668</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -3562,49 +3640,49 @@
       <c r="J86" s="35"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="80">
+      <c r="A87" s="122"/>
+      <c r="B87" s="24">
+        <v>41669</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="123"/>
+      <c r="B88" s="24">
+        <v>41670</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="35"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="118">
         <v>14</v>
       </c>
-      <c r="B87" s="25">
+      <c r="B89" s="25">
         <v>41673</v>
-      </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G87" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="81"/>
-      <c r="B88" s="25">
-        <v>41674</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="81"/>
-      <c r="B89" s="25">
-        <v>41675</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -3621,9 +3699,9 @@
       <c r="J89" s="36"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="81"/>
+      <c r="A90" s="119"/>
       <c r="B90" s="25">
-        <v>41676</v>
+        <v>41674</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -3640,9 +3718,9 @@
       <c r="J90" s="36"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="82"/>
+      <c r="A91" s="119"/>
       <c r="B91" s="25">
-        <v>41677</v>
+        <v>41675</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -3659,45 +3737,49 @@
       <c r="J91" s="36"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="77">
+      <c r="A92" s="119"/>
+      <c r="B92" s="25">
+        <v>41676</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="120"/>
+      <c r="B93" s="25">
+        <v>41677</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="121">
         <v>15</v>
       </c>
-      <c r="B92" s="24">
+      <c r="B94" s="24">
         <v>41680</v>
-      </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="35"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="78"/>
-      <c r="B93" s="24">
-        <v>41681</v>
-      </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="35"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="78"/>
-      <c r="B94" s="24">
-        <v>41682</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -3712,9 +3794,9 @@
       <c r="J94" s="35"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="78"/>
+      <c r="A95" s="122"/>
       <c r="B95" s="24">
-        <v>41683</v>
+        <v>41681</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -3729,15 +3811,15 @@
       <c r="J95" s="35"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="79"/>
+      <c r="A96" s="122"/>
       <c r="B96" s="24">
-        <v>41684</v>
+        <v>41682</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5">
-        <f t="shared" ref="F96:F127" si="3">E96</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G96" s="35"/>
@@ -3746,45 +3828,45 @@
       <c r="J96" s="35"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="80">
+      <c r="A97" s="122"/>
+      <c r="B97" s="24">
+        <v>41683</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="35"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="123"/>
+      <c r="B98" s="24">
+        <v>41684</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5">
+        <f t="shared" ref="F98:F129" si="3">E98</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="35"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="118">
         <v>16</v>
       </c>
-      <c r="B97" s="25">
+      <c r="B99" s="25">
         <v>41687</v>
-      </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="36"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="81"/>
-      <c r="B98" s="25">
-        <v>41688</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="36"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="81"/>
-      <c r="B99" s="25">
-        <v>41689</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -3799,9 +3881,9 @@
       <c r="J99" s="36"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="81"/>
+      <c r="A100" s="119"/>
       <c r="B100" s="25">
-        <v>41690</v>
+        <v>41688</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -3816,9 +3898,9 @@
       <c r="J100" s="36"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="82"/>
+      <c r="A101" s="119"/>
       <c r="B101" s="25">
-        <v>41691</v>
+        <v>41689</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -3833,45 +3915,45 @@
       <c r="J101" s="36"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="77">
+      <c r="A102" s="119"/>
+      <c r="B102" s="25">
+        <v>41690</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="36"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="120"/>
+      <c r="B103" s="25">
+        <v>41691</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="36"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="121">
         <v>17</v>
       </c>
-      <c r="B102" s="24">
+      <c r="B104" s="24">
         <v>41694</v>
-      </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="35"/>
-      <c r="H102" s="35"/>
-      <c r="I102" s="35"/>
-      <c r="J102" s="35"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="78"/>
-      <c r="B103" s="24">
-        <v>41695</v>
-      </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="35"/>
-      <c r="H103" s="35"/>
-      <c r="I103" s="35"/>
-      <c r="J103" s="35"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="78"/>
-      <c r="B104" s="24">
-        <v>41696</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -3886,9 +3968,9 @@
       <c r="J104" s="35"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="78"/>
+      <c r="A105" s="122"/>
       <c r="B105" s="24">
-        <v>41697</v>
+        <v>41695</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -3903,9 +3985,9 @@
       <c r="J105" s="35"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="79"/>
+      <c r="A106" s="122"/>
       <c r="B106" s="24">
-        <v>41698</v>
+        <v>41696</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -3920,45 +4002,45 @@
       <c r="J106" s="35"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="80">
+      <c r="A107" s="122"/>
+      <c r="B107" s="24">
+        <v>41697</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="35"/>
+      <c r="H107" s="35"/>
+      <c r="I107" s="35"/>
+      <c r="J107" s="35"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="123"/>
+      <c r="B108" s="24">
+        <v>41698</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="35"/>
+      <c r="H108" s="35"/>
+      <c r="I108" s="35"/>
+      <c r="J108" s="35"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="118">
         <v>18</v>
       </c>
-      <c r="B107" s="25">
+      <c r="B109" s="25">
         <v>41701</v>
-      </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="36"/>
-      <c r="J107" s="36"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="81"/>
-      <c r="B108" s="25">
-        <v>41702</v>
-      </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="36"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="81"/>
-      <c r="B109" s="25">
-        <v>41703</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -3973,9 +4055,9 @@
       <c r="J109" s="36"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="81"/>
+      <c r="A110" s="119"/>
       <c r="B110" s="25">
-        <v>41704</v>
+        <v>41702</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -3990,9 +4072,9 @@
       <c r="J110" s="36"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="82"/>
+      <c r="A111" s="119"/>
       <c r="B111" s="25">
-        <v>41705</v>
+        <v>41703</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -4007,45 +4089,45 @@
       <c r="J111" s="36"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="77">
+      <c r="A112" s="119"/>
+      <c r="B112" s="25">
+        <v>41704</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="36"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="36"/>
+      <c r="J112" s="36"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="120"/>
+      <c r="B113" s="25">
+        <v>41705</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="36"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="121">
         <v>19</v>
       </c>
-      <c r="B112" s="24">
+      <c r="B114" s="24">
         <v>41708</v>
-      </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G112" s="35"/>
-      <c r="H112" s="35"/>
-      <c r="I112" s="35"/>
-      <c r="J112" s="35"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="78"/>
-      <c r="B113" s="24">
-        <v>41709</v>
-      </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G113" s="35"/>
-      <c r="H113" s="35"/>
-      <c r="I113" s="35"/>
-      <c r="J113" s="35"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="78"/>
-      <c r="B114" s="24">
-        <v>41710</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -4060,9 +4142,9 @@
       <c r="J114" s="35"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="78"/>
+      <c r="A115" s="122"/>
       <c r="B115" s="24">
-        <v>41711</v>
+        <v>41709</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -4077,9 +4159,9 @@
       <c r="J115" s="35"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="79"/>
+      <c r="A116" s="122"/>
       <c r="B116" s="24">
-        <v>41712</v>
+        <v>41710</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -4094,45 +4176,45 @@
       <c r="J116" s="35"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="80">
+      <c r="A117" s="122"/>
+      <c r="B117" s="24">
+        <v>41711</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="35"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="35"/>
+      <c r="J117" s="35"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="123"/>
+      <c r="B118" s="24">
+        <v>41712</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="35"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="35"/>
+      <c r="J118" s="35"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="118">
         <v>20</v>
       </c>
-      <c r="B117" s="25">
+      <c r="B119" s="25">
         <v>41715</v>
-      </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G117" s="36"/>
-      <c r="H117" s="36"/>
-      <c r="I117" s="36"/>
-      <c r="J117" s="36"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="81"/>
-      <c r="B118" s="25">
-        <v>41716</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G118" s="36"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="36"/>
-      <c r="J118" s="36"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="81"/>
-      <c r="B119" s="25">
-        <v>41717</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -4147,9 +4229,9 @@
       <c r="J119" s="36"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="81"/>
+      <c r="A120" s="119"/>
       <c r="B120" s="25">
-        <v>41718</v>
+        <v>41716</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -4164,9 +4246,9 @@
       <c r="J120" s="36"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="82"/>
+      <c r="A121" s="119"/>
       <c r="B121" s="25">
-        <v>41719</v>
+        <v>41717</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -4181,45 +4263,45 @@
       <c r="J121" s="36"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="77">
+      <c r="A122" s="119"/>
+      <c r="B122" s="25">
+        <v>41718</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="36"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="36"/>
+      <c r="J122" s="36"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="120"/>
+      <c r="B123" s="25">
+        <v>41719</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G123" s="36"/>
+      <c r="H123" s="36"/>
+      <c r="I123" s="36"/>
+      <c r="J123" s="36"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="121">
         <v>21</v>
       </c>
-      <c r="B122" s="24">
+      <c r="B124" s="24">
         <v>41722</v>
-      </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G122" s="35"/>
-      <c r="H122" s="35"/>
-      <c r="I122" s="35"/>
-      <c r="J122" s="35"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="78"/>
-      <c r="B123" s="24">
-        <v>41723</v>
-      </c>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G123" s="35"/>
-      <c r="H123" s="35"/>
-      <c r="I123" s="35"/>
-      <c r="J123" s="35"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="78"/>
-      <c r="B124" s="24">
-        <v>41724</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -4234,9 +4316,9 @@
       <c r="J124" s="35"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="78"/>
+      <c r="A125" s="122"/>
       <c r="B125" s="24">
-        <v>41725</v>
+        <v>41723</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -4251,9 +4333,9 @@
       <c r="J125" s="35"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="79"/>
+      <c r="A126" s="122"/>
       <c r="B126" s="24">
-        <v>41726</v>
+        <v>41724</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -4268,51 +4350,51 @@
       <c r="J126" s="35"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="80">
+      <c r="A127" s="122"/>
+      <c r="B127" s="24">
+        <v>41725</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="35"/>
+      <c r="H127" s="35"/>
+      <c r="I127" s="35"/>
+      <c r="J127" s="35"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="123"/>
+      <c r="B128" s="24">
+        <v>41726</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G128" s="35"/>
+      <c r="H128" s="35"/>
+      <c r="I128" s="35"/>
+      <c r="J128" s="35"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="118">
         <v>22</v>
       </c>
-      <c r="B127" s="25">
+      <c r="B129" s="25">
         <v>41729</v>
-      </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G127" s="36"/>
-      <c r="H127" s="36"/>
-      <c r="I127" s="36"/>
-      <c r="J127" s="36"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="81"/>
-      <c r="B128" s="25">
-        <v>41730</v>
-      </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6">
-        <f t="shared" ref="F128:F159" si="4">E128</f>
-        <v>0</v>
-      </c>
-      <c r="G128" s="36"/>
-      <c r="H128" s="36"/>
-      <c r="I128" s="36"/>
-      <c r="J128" s="36"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="81"/>
-      <c r="B129" s="25">
-        <v>41731</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G129" s="36"/>
@@ -4321,15 +4403,15 @@
       <c r="J129" s="36"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="81"/>
+      <c r="A130" s="119"/>
       <c r="B130" s="25">
-        <v>41732</v>
+        <v>41730</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F130:F161" si="4">E130</f>
         <v>0</v>
       </c>
       <c r="G130" s="36"/>
@@ -4338,9 +4420,9 @@
       <c r="J130" s="36"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="82"/>
+      <c r="A131" s="119"/>
       <c r="B131" s="25">
-        <v>41733</v>
+        <v>41731</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -4355,45 +4437,45 @@
       <c r="J131" s="36"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="77">
+      <c r="A132" s="119"/>
+      <c r="B132" s="25">
+        <v>41732</v>
+      </c>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G132" s="36"/>
+      <c r="H132" s="36"/>
+      <c r="I132" s="36"/>
+      <c r="J132" s="36"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="120"/>
+      <c r="B133" s="25">
+        <v>41733</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G133" s="36"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="36"/>
+      <c r="J133" s="36"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="121">
         <v>23</v>
       </c>
-      <c r="B132" s="24">
+      <c r="B134" s="24">
         <v>41736</v>
-      </c>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G132" s="35"/>
-      <c r="H132" s="35"/>
-      <c r="I132" s="35"/>
-      <c r="J132" s="35"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="78"/>
-      <c r="B133" s="24">
-        <v>41737</v>
-      </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G133" s="35"/>
-      <c r="H133" s="35"/>
-      <c r="I133" s="35"/>
-      <c r="J133" s="35"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="78"/>
-      <c r="B134" s="24">
-        <v>41738</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -4408,9 +4490,9 @@
       <c r="J134" s="35"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="78"/>
+      <c r="A135" s="122"/>
       <c r="B135" s="24">
-        <v>41739</v>
+        <v>41737</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -4425,9 +4507,9 @@
       <c r="J135" s="35"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="79"/>
+      <c r="A136" s="122"/>
       <c r="B136" s="24">
-        <v>41740</v>
+        <v>41738</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -4442,45 +4524,45 @@
       <c r="J136" s="35"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="80">
+      <c r="A137" s="122"/>
+      <c r="B137" s="24">
+        <v>41739</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G137" s="35"/>
+      <c r="H137" s="35"/>
+      <c r="I137" s="35"/>
+      <c r="J137" s="35"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="123"/>
+      <c r="B138" s="24">
+        <v>41740</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G138" s="35"/>
+      <c r="H138" s="35"/>
+      <c r="I138" s="35"/>
+      <c r="J138" s="35"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="118">
         <v>24</v>
       </c>
-      <c r="B137" s="25">
+      <c r="B139" s="25">
         <v>41743</v>
-      </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G137" s="36"/>
-      <c r="H137" s="36"/>
-      <c r="I137" s="36"/>
-      <c r="J137" s="36"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="81"/>
-      <c r="B138" s="25">
-        <v>41744</v>
-      </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G138" s="36"/>
-      <c r="H138" s="36"/>
-      <c r="I138" s="36"/>
-      <c r="J138" s="36"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="81"/>
-      <c r="B139" s="25">
-        <v>41745</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -4495,9 +4577,9 @@
       <c r="J139" s="36"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="81"/>
+      <c r="A140" s="119"/>
       <c r="B140" s="25">
-        <v>41746</v>
+        <v>41744</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -4512,9 +4594,9 @@
       <c r="J140" s="36"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="82"/>
+      <c r="A141" s="119"/>
       <c r="B141" s="25">
-        <v>41747</v>
+        <v>41745</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -4529,45 +4611,45 @@
       <c r="J141" s="36"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="77">
+      <c r="A142" s="119"/>
+      <c r="B142" s="25">
+        <v>41746</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G142" s="36"/>
+      <c r="H142" s="36"/>
+      <c r="I142" s="36"/>
+      <c r="J142" s="36"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="120"/>
+      <c r="B143" s="25">
+        <v>41747</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G143" s="36"/>
+      <c r="H143" s="36"/>
+      <c r="I143" s="36"/>
+      <c r="J143" s="36"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="121">
         <v>25</v>
       </c>
-      <c r="B142" s="24">
+      <c r="B144" s="24">
         <v>41750</v>
-      </c>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G142" s="35"/>
-      <c r="H142" s="35"/>
-      <c r="I142" s="35"/>
-      <c r="J142" s="35"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="78"/>
-      <c r="B143" s="24">
-        <v>41751</v>
-      </c>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G143" s="35"/>
-      <c r="H143" s="35"/>
-      <c r="I143" s="35"/>
-      <c r="J143" s="35"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="78"/>
-      <c r="B144" s="24">
-        <v>41752</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -4582,9 +4664,9 @@
       <c r="J144" s="35"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="78"/>
+      <c r="A145" s="122"/>
       <c r="B145" s="24">
-        <v>41753</v>
+        <v>41751</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -4599,9 +4681,9 @@
       <c r="J145" s="35"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="79"/>
+      <c r="A146" s="122"/>
       <c r="B146" s="24">
-        <v>41754</v>
+        <v>41752</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -4616,45 +4698,45 @@
       <c r="J146" s="35"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="80">
+      <c r="A147" s="122"/>
+      <c r="B147" s="24">
+        <v>41753</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G147" s="35"/>
+      <c r="H147" s="35"/>
+      <c r="I147" s="35"/>
+      <c r="J147" s="35"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="123"/>
+      <c r="B148" s="24">
+        <v>41754</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G148" s="35"/>
+      <c r="H148" s="35"/>
+      <c r="I148" s="35"/>
+      <c r="J148" s="35"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="118">
         <v>26</v>
       </c>
-      <c r="B147" s="25">
+      <c r="B149" s="25">
         <v>41757</v>
-      </c>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G147" s="36"/>
-      <c r="H147" s="36"/>
-      <c r="I147" s="36"/>
-      <c r="J147" s="36"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="81"/>
-      <c r="B148" s="25">
-        <v>41758</v>
-      </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G148" s="36"/>
-      <c r="H148" s="36"/>
-      <c r="I148" s="36"/>
-      <c r="J148" s="36"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="81"/>
-      <c r="B149" s="25">
-        <v>41759</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -4669,9 +4751,9 @@
       <c r="J149" s="36"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="81"/>
+      <c r="A150" s="119"/>
       <c r="B150" s="25">
-        <v>41760</v>
+        <v>41758</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -4686,9 +4768,9 @@
       <c r="J150" s="36"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="82"/>
+      <c r="A151" s="119"/>
       <c r="B151" s="25">
-        <v>41761</v>
+        <v>41759</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -4703,45 +4785,45 @@
       <c r="J151" s="36"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="77">
+      <c r="A152" s="119"/>
+      <c r="B152" s="25">
+        <v>41760</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G152" s="36"/>
+      <c r="H152" s="36"/>
+      <c r="I152" s="36"/>
+      <c r="J152" s="36"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="120"/>
+      <c r="B153" s="25">
+        <v>41761</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G153" s="36"/>
+      <c r="H153" s="36"/>
+      <c r="I153" s="36"/>
+      <c r="J153" s="36"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="121">
         <v>27</v>
       </c>
-      <c r="B152" s="24">
+      <c r="B154" s="24">
         <v>41764</v>
-      </c>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G152" s="35"/>
-      <c r="H152" s="35"/>
-      <c r="I152" s="35"/>
-      <c r="J152" s="35"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="78"/>
-      <c r="B153" s="24">
-        <v>41765</v>
-      </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G153" s="35"/>
-      <c r="H153" s="35"/>
-      <c r="I153" s="35"/>
-      <c r="J153" s="35"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="78"/>
-      <c r="B154" s="24">
-        <v>41766</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -4756,9 +4838,9 @@
       <c r="J154" s="35"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="78"/>
+      <c r="A155" s="122"/>
       <c r="B155" s="24">
-        <v>41767</v>
+        <v>41765</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -4773,9 +4855,9 @@
       <c r="J155" s="35"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="79"/>
+      <c r="A156" s="122"/>
       <c r="B156" s="24">
-        <v>41768</v>
+        <v>41766</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -4790,45 +4872,45 @@
       <c r="J156" s="35"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="80">
+      <c r="A157" s="122"/>
+      <c r="B157" s="24">
+        <v>41767</v>
+      </c>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G157" s="35"/>
+      <c r="H157" s="35"/>
+      <c r="I157" s="35"/>
+      <c r="J157" s="35"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="123"/>
+      <c r="B158" s="24">
+        <v>41768</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G158" s="35"/>
+      <c r="H158" s="35"/>
+      <c r="I158" s="35"/>
+      <c r="J158" s="35"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="118">
         <v>28</v>
       </c>
-      <c r="B157" s="25">
+      <c r="B159" s="25">
         <v>41771</v>
-      </c>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G157" s="36"/>
-      <c r="H157" s="36"/>
-      <c r="I157" s="36"/>
-      <c r="J157" s="36"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="81"/>
-      <c r="B158" s="25">
-        <v>41772</v>
-      </c>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G158" s="36"/>
-      <c r="H158" s="36"/>
-      <c r="I158" s="36"/>
-      <c r="J158" s="36"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="81"/>
-      <c r="B159" s="25">
-        <v>41773</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -4843,15 +4925,15 @@
       <c r="J159" s="36"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="81"/>
+      <c r="A160" s="119"/>
       <c r="B160" s="25">
-        <v>41774</v>
+        <v>41772</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6">
-        <f t="shared" ref="F160:F171" si="5">E160</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G160" s="36"/>
@@ -4860,15 +4942,15 @@
       <c r="J160" s="36"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="82"/>
+      <c r="A161" s="119"/>
       <c r="B161" s="25">
-        <v>41775</v>
+        <v>41773</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G161" s="36"/>
@@ -4877,45 +4959,45 @@
       <c r="J161" s="36"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="77">
+      <c r="A162" s="119"/>
+      <c r="B162" s="25">
+        <v>41774</v>
+      </c>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6">
+        <f t="shared" ref="F162:F173" si="5">E162</f>
+        <v>0</v>
+      </c>
+      <c r="G162" s="36"/>
+      <c r="H162" s="36"/>
+      <c r="I162" s="36"/>
+      <c r="J162" s="36"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="120"/>
+      <c r="B163" s="25">
+        <v>41775</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G163" s="36"/>
+      <c r="H163" s="36"/>
+      <c r="I163" s="36"/>
+      <c r="J163" s="36"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="121">
         <v>29</v>
       </c>
-      <c r="B162" s="24">
+      <c r="B164" s="24">
         <v>41778</v>
-      </c>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G162" s="35"/>
-      <c r="H162" s="35"/>
-      <c r="I162" s="35"/>
-      <c r="J162" s="35"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="78"/>
-      <c r="B163" s="24">
-        <v>41779</v>
-      </c>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G163" s="35"/>
-      <c r="H163" s="35"/>
-      <c r="I163" s="35"/>
-      <c r="J163" s="35"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="78"/>
-      <c r="B164" s="24">
-        <v>41780</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -4930,9 +5012,9 @@
       <c r="J164" s="35"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="78"/>
+      <c r="A165" s="122"/>
       <c r="B165" s="24">
-        <v>41781</v>
+        <v>41779</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -4947,9 +5029,9 @@
       <c r="J165" s="35"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="79"/>
+      <c r="A166" s="122"/>
       <c r="B166" s="24">
-        <v>41782</v>
+        <v>41780</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -4964,45 +5046,45 @@
       <c r="J166" s="35"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="83">
+      <c r="A167" s="122"/>
+      <c r="B167" s="24">
+        <v>41781</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G167" s="35"/>
+      <c r="H167" s="35"/>
+      <c r="I167" s="35"/>
+      <c r="J167" s="35"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="123"/>
+      <c r="B168" s="24">
+        <v>41782</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G168" s="35"/>
+      <c r="H168" s="35"/>
+      <c r="I168" s="35"/>
+      <c r="J168" s="35"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="147">
         <v>30</v>
       </c>
-      <c r="B167" s="25">
+      <c r="B169" s="25">
         <v>41785</v>
-      </c>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G167" s="37"/>
-      <c r="H167" s="37"/>
-      <c r="I167" s="37"/>
-      <c r="J167" s="37"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="84"/>
-      <c r="B168" s="25">
-        <v>41786</v>
-      </c>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G168" s="37"/>
-      <c r="H168" s="37"/>
-      <c r="I168" s="37"/>
-      <c r="J168" s="37"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="84"/>
-      <c r="B169" s="25">
-        <v>41787</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -5017,9 +5099,9 @@
       <c r="J169" s="37"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="84"/>
+      <c r="A170" s="148"/>
       <c r="B170" s="25">
-        <v>41788</v>
+        <v>41786</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -5034,9 +5116,9 @@
       <c r="J170" s="37"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="85"/>
+      <c r="A171" s="148"/>
       <c r="B171" s="25">
-        <v>41789</v>
+        <v>41787</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -5050,8 +5132,90 @@
       <c r="I171" s="37"/>
       <c r="J171" s="37"/>
     </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="148"/>
+      <c r="B172" s="25">
+        <v>41788</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G172" s="37"/>
+      <c r="H172" s="37"/>
+      <c r="I172" s="37"/>
+      <c r="J172" s="37"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="149"/>
+      <c r="B173" s="25">
+        <v>41789</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G173" s="37"/>
+      <c r="H173" s="37"/>
+      <c r="I173" s="37"/>
+      <c r="J173" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="64">
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A159:A163"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="A169:A173"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A17:A29"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A42:A48"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="B37:B39"/>
@@ -5068,48 +5232,6 @@
     <mergeCell ref="F30:F33"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A17:A29"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A112:A116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -5272,25 +5394,6 @@
           <xm:sqref>M37:M39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="25" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
@@ -5310,45 +5413,7 @@
           <xm:sqref>M41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="23" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5367,7 +5432,7 @@
           <xm:sqref>M44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="22" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5383,29 +5448,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M45</xm:sqref>
+          <xm:sqref>M45:M46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M46</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="21" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5424,7 +5470,7 @@
           <xm:sqref>M47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="20" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5443,7 +5489,7 @@
           <xm:sqref>M48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="19" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5462,7 +5508,7 @@
           <xm:sqref>M49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="18" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5481,7 +5527,7 @@
           <xm:sqref>M50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="17" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5500,7 +5546,7 @@
           <xm:sqref>M51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="16" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5519,7 +5565,7 @@
           <xm:sqref>M52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="15" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5538,7 +5584,7 @@
           <xm:sqref>M53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="14" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5555,6 +5601,44 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="11" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -5652,23 +5736,61 @@
           <xm:sqref>M23:M25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="46" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
+          <x14:cfRule type="iconSet" priority="47" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>5</xm:f>
+                <xm:f>25</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num" gte="0">
-                <xm:f>24</xm:f>
+                <xm:f>168</xm:f>
               </x14:cfvo>
               <x14:cfIcon iconSet="3Symbols" iconId="1"/>
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F22 F7:F8 F12 F14 F16:F17 F20 F27 F30 F34:F35 F37:F38 F40:F171</xm:sqref>
+          <xm:sqref>M40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="49" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F45 F22 F7:F8 F12 F14 F16:F17 F20 F27 F30 F34:F35 F37:F38 F42:F43 F40 F47:F173</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="50" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M42:M43</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5678,7 +5800,7 @@
           <x14:formula1>
             <xm:f>'List main task'!$B$4:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>G9:G41</xm:sqref>
+          <xm:sqref>G9:G48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
+++ b/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xyu\Desktop\AP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission project\1. Project management\9. Timelog\individual time log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>Week</t>
   </si>
@@ -311,6 +311,9 @@
 + Measurement 
 + Process
 + Entities</t>
+  </si>
+  <si>
+    <t>Self Prepair</t>
   </si>
 </sst>
 </file>
@@ -321,7 +324,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -329,14 +332,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -349,7 +352,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -362,20 +365,20 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -388,34 +391,34 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -806,7 +809,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -829,225 +831,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1055,6 +838,226 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1338,16 +1341,16 @@
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>23</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1371,15 +1374,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1419,7 +1422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -1453,106 +1456,106 @@
   <dimension ref="A1:O173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="47.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="87"/>
+      <c r="A1" s="128"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="130"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="88" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="90"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="133"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="93"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="136"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="131"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="96"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="139"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="140"/>
-      <c r="B5" s="141"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="142"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="16"/>
       <c r="H5" s="39" t="s">
         <v>51</v>
@@ -1566,7 +1569,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>0</v>
       </c>
@@ -1597,16 +1600,16 @@
       <c r="J6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100">
+      <c r="A7" s="143">
         <v>1</v>
       </c>
-      <c r="B7" s="134">
+      <c r="B7" s="114">
         <v>41586</v>
       </c>
       <c r="C7" s="17">
@@ -1618,7 +1621,7 @@
       <c r="E7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="137">
+      <c r="F7" s="117">
         <f>SUM(E7:E9)</f>
         <v>2</v>
       </c>
@@ -1641,8 +1644,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="101"/>
-      <c r="B8" s="135"/>
+      <c r="A8" s="144"/>
+      <c r="B8" s="115"/>
       <c r="C8" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1652,7 +1655,7 @@
       <c r="E8" s="18">
         <v>0.5</v>
       </c>
-      <c r="F8" s="138"/>
+      <c r="F8" s="118"/>
       <c r="G8" s="19" t="s">
         <v>20</v>
       </c>
@@ -1665,8 +1668,8 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="102"/>
-      <c r="B9" s="136"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="17">
         <v>0.83333333333333337</v>
       </c>
@@ -1676,7 +1679,7 @@
       <c r="E9" s="18">
         <v>1.5</v>
       </c>
-      <c r="F9" s="139"/>
+      <c r="F9" s="119"/>
       <c r="G9" s="41" t="s">
         <v>25</v>
       </c>
@@ -1687,10 +1690,10 @@
       <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115">
+      <c r="A10" s="151">
         <v>2</v>
       </c>
-      <c r="B10" s="98">
+      <c r="B10" s="141">
         <v>41589</v>
       </c>
       <c r="C10" s="46">
@@ -1702,7 +1705,7 @@
       <c r="E10" s="47">
         <v>1.5</v>
       </c>
-      <c r="F10" s="108">
+      <c r="F10" s="146">
         <f>SUM(E10:E11)</f>
         <v>3.5</v>
       </c>
@@ -1716,8 +1719,8 @@
       <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:15" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="116"/>
-      <c r="B11" s="99"/>
+      <c r="A11" s="152"/>
+      <c r="B11" s="142"/>
       <c r="C11" s="46">
         <v>0.875</v>
       </c>
@@ -1727,7 +1730,7 @@
       <c r="E11" s="47">
         <v>2</v>
       </c>
-      <c r="F11" s="109"/>
+      <c r="F11" s="147"/>
       <c r="G11" s="56" t="s">
         <v>25</v>
       </c>
@@ -1737,9 +1740,9 @@
       <c r="I11" s="50"/>
       <c r="J11" s="48"/>
     </row>
-    <row r="12" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="116"/>
-      <c r="B12" s="113">
+    <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
+      <c r="A12" s="152"/>
+      <c r="B12" s="102">
         <v>41590</v>
       </c>
       <c r="C12" s="21">
@@ -1751,7 +1754,7 @@
       <c r="E12" s="22">
         <v>2.25</v>
       </c>
-      <c r="F12" s="106">
+      <c r="F12" s="98">
         <f>SUM(E12:E13)</f>
         <v>3.5</v>
       </c>
@@ -1777,8 +1780,8 @@
       <c r="O12" s="30"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="116"/>
-      <c r="B13" s="114"/>
+      <c r="A13" s="152"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="21">
         <v>0.86458333333333337</v>
       </c>
@@ -1788,7 +1791,7 @@
       <c r="E13" s="22">
         <v>1.25</v>
       </c>
-      <c r="F13" s="107"/>
+      <c r="F13" s="99"/>
       <c r="G13" s="56" t="s">
         <v>25</v>
       </c>
@@ -1804,8 +1807,8 @@
       <c r="O13" s="30"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="116"/>
-      <c r="B14" s="113">
+      <c r="A14" s="152"/>
+      <c r="B14" s="102">
         <v>41592</v>
       </c>
       <c r="C14" s="23">
@@ -1817,7 +1820,7 @@
       <c r="E14" s="26">
         <v>1.5</v>
       </c>
-      <c r="F14" s="106">
+      <c r="F14" s="98">
         <f>SUM(E14:E15)</f>
         <v>2</v>
       </c>
@@ -1835,8 +1838,8 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="116"/>
-      <c r="B15" s="114"/>
+      <c r="A15" s="152"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="23">
         <v>0.9375</v>
       </c>
@@ -1846,7 +1849,7 @@
       <c r="E15" s="26">
         <v>0.5</v>
       </c>
-      <c r="F15" s="107"/>
+      <c r="F15" s="99"/>
       <c r="G15" s="56" t="s">
         <v>17</v>
       </c>
@@ -1861,7 +1864,7 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="117"/>
+      <c r="A16" s="153"/>
       <c r="B16" s="40">
         <v>41593</v>
       </c>
@@ -1899,10 +1902,10 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="124">
+      <c r="A17" s="123">
         <v>3</v>
       </c>
-      <c r="B17" s="103">
+      <c r="B17" s="81">
         <v>41596</v>
       </c>
       <c r="C17" s="44">
@@ -1914,7 +1917,7 @@
       <c r="E17" s="42">
         <v>1</v>
       </c>
-      <c r="F17" s="106">
+      <c r="F17" s="98">
         <f>SUM(E17:E19)</f>
         <v>3.5</v>
       </c>
@@ -1939,8 +1942,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="124"/>
-      <c r="B18" s="105"/>
+      <c r="A18" s="123"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="44">
         <v>0.75</v>
       </c>
@@ -1950,7 +1953,7 @@
       <c r="E18" s="42">
         <v>1.5</v>
       </c>
-      <c r="F18" s="143"/>
+      <c r="F18" s="100"/>
       <c r="G18" s="41" t="s">
         <v>18</v>
       </c>
@@ -1967,8 +1970,8 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
-      <c r="B19" s="104"/>
+      <c r="A19" s="123"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="44">
         <v>0.89583333333333337</v>
       </c>
@@ -1978,7 +1981,7 @@
       <c r="E19" s="42">
         <v>1</v>
       </c>
-      <c r="F19" s="107"/>
+      <c r="F19" s="99"/>
       <c r="G19" s="41" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +1996,8 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="124"/>
-      <c r="B20" s="103">
+      <c r="A20" s="123"/>
+      <c r="B20" s="81">
         <v>41597</v>
       </c>
       <c r="C20" s="44">
@@ -2006,7 +2009,7 @@
       <c r="E20" s="42">
         <v>1.5</v>
       </c>
-      <c r="F20" s="106">
+      <c r="F20" s="98">
         <f>SUM(E20:E21)</f>
         <v>3</v>
       </c>
@@ -2024,8 +2027,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="124"/>
-      <c r="B21" s="104"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="44">
         <v>0.8125</v>
       </c>
@@ -2035,7 +2038,7 @@
       <c r="E21" s="42">
         <v>1.5</v>
       </c>
-      <c r="F21" s="107"/>
+      <c r="F21" s="99"/>
       <c r="G21" s="41" t="s">
         <v>18</v>
       </c>
@@ -2057,8 +2060,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="124"/>
-      <c r="B22" s="103">
+      <c r="A22" s="123"/>
+      <c r="B22" s="81">
         <v>41599</v>
       </c>
       <c r="C22" s="44">
@@ -2070,7 +2073,7 @@
       <c r="E22" s="42">
         <v>3</v>
       </c>
-      <c r="F22" s="106">
+      <c r="F22" s="98">
         <f>SUM(E22:E26)</f>
         <v>7.9</v>
       </c>
@@ -2088,8 +2091,8 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="124"/>
-      <c r="B23" s="105"/>
+      <c r="A23" s="123"/>
+      <c r="B23" s="101"/>
       <c r="C23" s="44">
         <v>0.38194444444444442</v>
       </c>
@@ -2099,7 +2102,7 @@
       <c r="E23" s="42">
         <v>1</v>
       </c>
-      <c r="F23" s="143"/>
+      <c r="F23" s="100"/>
       <c r="G23" s="61" t="s">
         <v>20</v>
       </c>
@@ -2114,8 +2117,8 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="124"/>
-      <c r="B24" s="105"/>
+      <c r="A24" s="123"/>
+      <c r="B24" s="101"/>
       <c r="C24" s="44">
         <v>0.4236111111111111</v>
       </c>
@@ -2125,7 +2128,7 @@
       <c r="E24" s="42">
         <v>1.3</v>
       </c>
-      <c r="F24" s="143"/>
+      <c r="F24" s="100"/>
       <c r="G24" s="41" t="s">
         <v>16</v>
       </c>
@@ -2140,8 +2143,8 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="124"/>
-      <c r="B25" s="105"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="101"/>
       <c r="C25" s="44">
         <v>0.58333333333333337</v>
       </c>
@@ -2151,7 +2154,7 @@
       <c r="E25" s="42">
         <v>0.5</v>
       </c>
-      <c r="F25" s="143"/>
+      <c r="F25" s="100"/>
       <c r="G25" s="41" t="s">
         <v>18</v>
       </c>
@@ -2166,8 +2169,8 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="124"/>
-      <c r="B26" s="104"/>
+      <c r="A26" s="123"/>
+      <c r="B26" s="82"/>
       <c r="C26" s="65">
         <v>0.625</v>
       </c>
@@ -2177,7 +2180,7 @@
       <c r="E26" s="42">
         <v>2.1</v>
       </c>
-      <c r="F26" s="107"/>
+      <c r="F26" s="99"/>
       <c r="G26" s="41" t="s">
         <v>16</v>
       </c>
@@ -2199,8 +2202,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="124"/>
-      <c r="B27" s="103">
+      <c r="A27" s="123"/>
+      <c r="B27" s="81">
         <v>41600</v>
       </c>
       <c r="C27" s="65">
@@ -2212,7 +2215,7 @@
       <c r="E27" s="18">
         <v>1.25</v>
       </c>
-      <c r="F27" s="144">
+      <c r="F27" s="83">
         <f>SUM(E27:E29)</f>
         <v>4</v>
       </c>
@@ -2232,8 +2235,8 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="124"/>
-      <c r="B28" s="105"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="101"/>
       <c r="C28" s="65">
         <v>0.5625</v>
       </c>
@@ -2243,7 +2246,7 @@
       <c r="E28" s="18">
         <v>1.25</v>
       </c>
-      <c r="F28" s="145"/>
+      <c r="F28" s="104"/>
       <c r="G28" s="69" t="s">
         <v>16</v>
       </c>
@@ -2256,8 +2259,8 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="124"/>
-      <c r="B29" s="104"/>
+      <c r="A29" s="123"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="65">
         <v>0.625</v>
       </c>
@@ -2267,7 +2270,7 @@
       <c r="E29" s="69">
         <v>1.5</v>
       </c>
-      <c r="F29" s="146"/>
+      <c r="F29" s="84"/>
       <c r="G29" s="69" t="s">
         <v>21</v>
       </c>
@@ -2290,7 +2293,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="67"/>
-      <c r="B30" s="103">
+      <c r="B30" s="81">
         <v>41601</v>
       </c>
       <c r="C30" s="65">
@@ -2302,7 +2305,7 @@
       <c r="E30" s="69">
         <v>0.5</v>
       </c>
-      <c r="F30" s="110">
+      <c r="F30" s="148">
         <f>SUM(E30:E33)</f>
         <v>2</v>
       </c>
@@ -2323,7 +2326,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="67"/>
-      <c r="B31" s="105"/>
+      <c r="B31" s="101"/>
       <c r="C31" s="65">
         <v>0.39583333333333331</v>
       </c>
@@ -2333,7 +2336,7 @@
       <c r="E31" s="69">
         <v>0.5</v>
       </c>
-      <c r="F31" s="111"/>
+      <c r="F31" s="149"/>
       <c r="G31" s="69" t="s">
         <v>19</v>
       </c>
@@ -2350,8 +2353,8 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="105"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="101"/>
       <c r="C32" s="65">
         <v>0.5625</v>
       </c>
@@ -2361,7 +2364,7 @@
       <c r="E32" s="69">
         <v>0.25</v>
       </c>
-      <c r="F32" s="111"/>
+      <c r="F32" s="149"/>
       <c r="G32" s="69" t="s">
         <v>16</v>
       </c>
@@ -2374,8 +2377,8 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="72"/>
-      <c r="B33" s="104"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="65">
         <v>0.57291666666666663</v>
       </c>
@@ -2385,7 +2388,7 @@
       <c r="E33" s="69">
         <v>0.75</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="150"/>
       <c r="G33" s="69" t="s">
         <v>19</v>
       </c>
@@ -2402,32 +2405,32 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="118">
+      <c r="A34" s="92">
         <v>4</v>
       </c>
       <c r="B34" s="25">
         <v>41603</v>
       </c>
-      <c r="C34" s="74">
+      <c r="C34" s="73">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D34" s="74">
+      <c r="D34" s="73">
         <v>0.875</v>
       </c>
-      <c r="E34" s="70">
+      <c r="E34" s="154">
         <v>1</v>
       </c>
       <c r="F34" s="66">
         <f>E34</f>
         <v>1</v>
       </c>
-      <c r="G34" s="75" t="s">
+      <c r="G34" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="71" t="s">
+      <c r="H34" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="71"/>
+      <c r="I34" s="70"/>
       <c r="J34" s="36"/>
       <c r="K34" s="8" t="s">
         <v>33</v>
@@ -2442,30 +2445,30 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="119"/>
-      <c r="B35" s="79">
+      <c r="A35" s="93"/>
+      <c r="B35" s="85">
         <v>41604</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C35" s="73">
         <v>0.375</v>
       </c>
-      <c r="D35" s="74">
+      <c r="D35" s="73">
         <v>0.9375</v>
       </c>
-      <c r="E35" s="70">
+      <c r="E35" s="154">
         <v>1.5</v>
       </c>
-      <c r="F35" s="81">
+      <c r="F35" s="87">
         <f>SUM(E35:E36)</f>
         <v>3</v>
       </c>
-      <c r="G35" s="75" t="s">
+      <c r="G35" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="71" t="s">
+      <c r="H35" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="I35" s="71"/>
+      <c r="I35" s="70"/>
       <c r="J35" s="36"/>
       <c r="K35" s="8" t="s">
         <v>34</v>
@@ -2480,25 +2483,25 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="119"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="74">
+      <c r="A36" s="93"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="73">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D36" s="74">
+      <c r="D36" s="73">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E36" s="70">
+      <c r="E36" s="154">
         <v>1.5</v>
       </c>
-      <c r="F36" s="82"/>
-      <c r="G36" s="75" t="s">
+      <c r="F36" s="88"/>
+      <c r="G36" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="78" t="s">
+      <c r="H36" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="I36" s="71"/>
+      <c r="I36" s="70"/>
       <c r="J36" s="36"/>
       <c r="K36" s="8"/>
       <c r="L36" s="6"/>
@@ -2506,30 +2509,30 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="119"/>
-      <c r="B37" s="79">
+      <c r="A37" s="93"/>
+      <c r="B37" s="85">
         <v>41605</v>
       </c>
-      <c r="C37" s="74">
+      <c r="C37" s="73">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D37" s="74">
+      <c r="D37" s="73">
         <v>0.34375</v>
       </c>
-      <c r="E37" s="70">
+      <c r="E37" s="154">
         <v>0.25</v>
       </c>
-      <c r="F37" s="81">
+      <c r="F37" s="87">
         <f>SUM(E37:E39)</f>
         <v>3.08</v>
       </c>
-      <c r="G37" s="75" t="s">
+      <c r="G37" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="71" t="s">
+      <c r="H37" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="I37" s="71" t="s">
+      <c r="I37" s="70" t="s">
         <v>76</v>
       </c>
       <c r="J37" s="36"/>
@@ -2546,25 +2549,25 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="119"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="74">
+      <c r="A38" s="93"/>
+      <c r="B38" s="126"/>
+      <c r="C38" s="73">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D38" s="74">
+      <c r="D38" s="73">
         <v>0.375</v>
       </c>
-      <c r="E38" s="70">
+      <c r="E38" s="154">
         <v>0.5</v>
       </c>
-      <c r="F38" s="84"/>
-      <c r="G38" s="75" t="s">
+      <c r="F38" s="127"/>
+      <c r="G38" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="71" t="s">
+      <c r="H38" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="I38" s="71" t="s">
+      <c r="I38" s="70" t="s">
         <v>77</v>
       </c>
       <c r="J38" s="36"/>
@@ -2574,25 +2577,25 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="119"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="74">
+      <c r="A39" s="93"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="73">
         <v>0.5625</v>
       </c>
-      <c r="D39" s="74">
+      <c r="D39" s="73">
         <v>0.65972222222222221</v>
       </c>
-      <c r="E39" s="70">
+      <c r="E39" s="154">
         <v>2.33</v>
       </c>
-      <c r="F39" s="82"/>
-      <c r="G39" s="75" t="s">
+      <c r="F39" s="88"/>
+      <c r="G39" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="71" t="s">
+      <c r="H39" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="71"/>
+      <c r="I39" s="70"/>
       <c r="J39" s="36"/>
       <c r="K39" s="8"/>
       <c r="L39" s="6"/>
@@ -2600,30 +2603,30 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="119"/>
-      <c r="B40" s="79">
+      <c r="A40" s="93"/>
+      <c r="B40" s="85">
         <v>41608</v>
       </c>
-      <c r="C40" s="74">
+      <c r="C40" s="73">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D40" s="74">
+      <c r="D40" s="73">
         <v>0.875</v>
       </c>
-      <c r="E40" s="70">
+      <c r="E40" s="154">
         <v>1</v>
       </c>
-      <c r="F40" s="81">
+      <c r="F40" s="87">
         <f>SUM(E40:E41)</f>
         <v>1.5</v>
       </c>
-      <c r="G40" s="75" t="s">
+      <c r="G40" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="71" t="s">
+      <c r="H40" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="71"/>
+      <c r="I40" s="70"/>
       <c r="J40" s="36"/>
       <c r="K40" s="8"/>
       <c r="L40" s="6"/>
@@ -2631,25 +2634,25 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="120"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="74">
+      <c r="A41" s="94"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="73">
         <v>0.875</v>
       </c>
-      <c r="D41" s="74">
+      <c r="D41" s="73">
         <v>0.89583333333333337</v>
       </c>
-      <c r="E41" s="70">
+      <c r="E41" s="154">
         <v>0.5</v>
       </c>
-      <c r="F41" s="82"/>
-      <c r="G41" s="75" t="s">
+      <c r="F41" s="88"/>
+      <c r="G41" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="71" t="s">
+      <c r="H41" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="I41" s="71" t="s">
+      <c r="I41" s="70" t="s">
         <v>87</v>
       </c>
       <c r="J41" s="36"/>
@@ -2666,8 +2669,8 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="150"/>
-      <c r="B42" s="77">
+      <c r="A42" s="124"/>
+      <c r="B42" s="76">
         <v>41610</v>
       </c>
       <c r="C42" s="59">
@@ -2679,7 +2682,7 @@
       <c r="E42" s="69">
         <v>1</v>
       </c>
-      <c r="F42" s="76">
+      <c r="F42" s="75">
         <v>1</v>
       </c>
       <c r="G42" s="69" t="s">
@@ -2696,8 +2699,8 @@
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="150"/>
-      <c r="B43" s="103">
+      <c r="A43" s="124"/>
+      <c r="B43" s="81">
         <v>41611</v>
       </c>
       <c r="C43" s="59">
@@ -2709,7 +2712,7 @@
       <c r="E43" s="69">
         <v>1</v>
       </c>
-      <c r="F43" s="144">
+      <c r="F43" s="83">
         <f>SUM(E43:E43:E44)</f>
         <v>1.8</v>
       </c>
@@ -2727,18 +2730,18 @@
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="150"/>
-      <c r="B44" s="104"/>
+      <c r="A44" s="124"/>
+      <c r="B44" s="82"/>
       <c r="C44" s="59">
         <v>0.9375</v>
       </c>
       <c r="D44" s="59">
         <v>0.97222222222222221</v>
       </c>
-      <c r="E44" s="152">
+      <c r="E44" s="78">
         <v>0.8</v>
       </c>
-      <c r="F44" s="146"/>
+      <c r="F44" s="84"/>
       <c r="G44" s="69" t="s">
         <v>19</v>
       </c>
@@ -2762,8 +2765,8 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="150"/>
-      <c r="B45" s="103">
+      <c r="A45" s="124"/>
+      <c r="B45" s="81">
         <v>41612</v>
       </c>
       <c r="C45" s="59">
@@ -2775,14 +2778,14 @@
       <c r="E45" s="27">
         <v>4.5</v>
       </c>
-      <c r="F45" s="144">
+      <c r="F45" s="83">
         <f>SUM(E45:E49)</f>
         <v>4.67</v>
       </c>
       <c r="G45" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="154" t="s">
+      <c r="H45" s="80" t="s">
         <v>90</v>
       </c>
       <c r="I45" s="27"/>
@@ -2800,8 +2803,8 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="150"/>
-      <c r="B46" s="104"/>
+      <c r="A46" s="124"/>
+      <c r="B46" s="82"/>
       <c r="C46" s="59">
         <v>0.82638888888888884</v>
       </c>
@@ -2811,11 +2814,11 @@
       <c r="E46" s="27">
         <v>0.17</v>
       </c>
-      <c r="F46" s="146"/>
+      <c r="F46" s="84"/>
       <c r="G46" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="154" t="s">
+      <c r="H46" s="80" t="s">
         <v>73</v>
       </c>
       <c r="I46" s="27" t="s">
@@ -2828,14 +2831,14 @@
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="150"/>
+      <c r="A47" s="124"/>
       <c r="B47" s="24">
         <v>41613</v>
       </c>
-      <c r="C47" s="153"/>
-      <c r="D47" s="153"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
       <c r="E47" s="69"/>
-      <c r="F47" s="76">
+      <c r="F47" s="75">
         <f t="shared" ref="F47:F63" si="0">SUM(E47:E50)</f>
         <v>0</v>
       </c>
@@ -2856,14 +2859,14 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="151"/>
+      <c r="A48" s="125"/>
       <c r="B48" s="24">
         <v>41614</v>
       </c>
-      <c r="C48" s="153"/>
-      <c r="D48" s="153"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
       <c r="E48" s="69"/>
-      <c r="F48" s="76">
+      <c r="F48" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2884,7 +2887,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="118">
+      <c r="A49" s="92">
         <v>6</v>
       </c>
       <c r="B49" s="25">
@@ -2914,7 +2917,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="119"/>
+      <c r="A50" s="93"/>
       <c r="B50" s="25">
         <v>41618</v>
       </c>
@@ -2942,7 +2945,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="119"/>
+      <c r="A51" s="93"/>
       <c r="B51" s="25">
         <v>41619</v>
       </c>
@@ -2970,7 +2973,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="119"/>
+      <c r="A52" s="93"/>
       <c r="B52" s="25">
         <v>41620</v>
       </c>
@@ -2998,7 +3001,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="120"/>
+      <c r="A53" s="94"/>
       <c r="B53" s="25">
         <v>41621</v>
       </c>
@@ -3026,7 +3029,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="121">
+      <c r="A54" s="89">
         <v>7</v>
       </c>
       <c r="B54" s="24">
@@ -3056,7 +3059,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="122"/>
+      <c r="A55" s="90"/>
       <c r="B55" s="24">
         <v>41625</v>
       </c>
@@ -3084,7 +3087,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="122"/>
+      <c r="A56" s="90"/>
       <c r="B56" s="24">
         <v>41626</v>
       </c>
@@ -3112,7 +3115,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="122"/>
+      <c r="A57" s="90"/>
       <c r="B57" s="24">
         <v>41627</v>
       </c>
@@ -3129,7 +3132,7 @@
       <c r="J57" s="35"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="123"/>
+      <c r="A58" s="91"/>
       <c r="B58" s="24">
         <v>41628</v>
       </c>
@@ -3146,7 +3149,7 @@
       <c r="J58" s="35"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="118">
+      <c r="A59" s="92">
         <v>8</v>
       </c>
       <c r="B59" s="25">
@@ -3165,7 +3168,7 @@
       <c r="J59" s="36"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="119"/>
+      <c r="A60" s="93"/>
       <c r="B60" s="25">
         <v>41632</v>
       </c>
@@ -3182,7 +3185,7 @@
       <c r="J60" s="36"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="119"/>
+      <c r="A61" s="93"/>
       <c r="B61" s="25">
         <v>41633</v>
       </c>
@@ -3199,7 +3202,7 @@
       <c r="J61" s="36"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="119"/>
+      <c r="A62" s="93"/>
       <c r="B62" s="25">
         <v>41634</v>
       </c>
@@ -3216,7 +3219,7 @@
       <c r="J62" s="36"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="120"/>
+      <c r="A63" s="94"/>
       <c r="B63" s="25">
         <v>41635</v>
       </c>
@@ -3233,7 +3236,7 @@
       <c r="J63" s="36"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="121">
+      <c r="A64" s="89">
         <v>9</v>
       </c>
       <c r="B64" s="24">
@@ -3252,7 +3255,7 @@
       <c r="J64" s="35"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="122"/>
+      <c r="A65" s="90"/>
       <c r="B65" s="24">
         <v>41639</v>
       </c>
@@ -3269,7 +3272,7 @@
       <c r="J65" s="35"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="122"/>
+      <c r="A66" s="90"/>
       <c r="B66" s="24">
         <v>41640</v>
       </c>
@@ -3286,7 +3289,7 @@
       <c r="J66" s="35"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="122"/>
+      <c r="A67" s="90"/>
       <c r="B67" s="24">
         <v>41641</v>
       </c>
@@ -3303,7 +3306,7 @@
       <c r="J67" s="35"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="123"/>
+      <c r="A68" s="91"/>
       <c r="B68" s="24">
         <v>41642</v>
       </c>
@@ -3320,7 +3323,7 @@
       <c r="J68" s="35"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="118">
+      <c r="A69" s="92">
         <v>10</v>
       </c>
       <c r="B69" s="25">
@@ -3339,7 +3342,7 @@
       <c r="J69" s="36"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="119"/>
+      <c r="A70" s="93"/>
       <c r="B70" s="25">
         <v>41646</v>
       </c>
@@ -3356,7 +3359,7 @@
       <c r="J70" s="36"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="119"/>
+      <c r="A71" s="93"/>
       <c r="B71" s="25">
         <v>41647</v>
       </c>
@@ -3373,7 +3376,7 @@
       <c r="J71" s="36"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="119"/>
+      <c r="A72" s="93"/>
       <c r="B72" s="25">
         <v>41648</v>
       </c>
@@ -3390,7 +3393,7 @@
       <c r="J72" s="36"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="120"/>
+      <c r="A73" s="94"/>
       <c r="B73" s="25">
         <v>41649</v>
       </c>
@@ -3407,7 +3410,7 @@
       <c r="J73" s="36"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="121">
+      <c r="A74" s="89">
         <v>11</v>
       </c>
       <c r="B74" s="24">
@@ -3426,7 +3429,7 @@
       <c r="J74" s="35"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="122"/>
+      <c r="A75" s="90"/>
       <c r="B75" s="24">
         <v>41653</v>
       </c>
@@ -3443,7 +3446,7 @@
       <c r="J75" s="35"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="122"/>
+      <c r="A76" s="90"/>
       <c r="B76" s="24">
         <v>41654</v>
       </c>
@@ -3460,7 +3463,7 @@
       <c r="J76" s="35"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="122"/>
+      <c r="A77" s="90"/>
       <c r="B77" s="24">
         <v>41655</v>
       </c>
@@ -3477,7 +3480,7 @@
       <c r="J77" s="35"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="123"/>
+      <c r="A78" s="91"/>
       <c r="B78" s="24">
         <v>41656</v>
       </c>
@@ -3494,7 +3497,7 @@
       <c r="J78" s="35"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="118">
+      <c r="A79" s="92">
         <v>12</v>
       </c>
       <c r="B79" s="25">
@@ -3513,7 +3516,7 @@
       <c r="J79" s="36"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="119"/>
+      <c r="A80" s="93"/>
       <c r="B80" s="25">
         <v>41660</v>
       </c>
@@ -3530,7 +3533,7 @@
       <c r="J80" s="36"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="119"/>
+      <c r="A81" s="93"/>
       <c r="B81" s="25">
         <v>41661</v>
       </c>
@@ -3547,7 +3550,7 @@
       <c r="J81" s="36"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="119"/>
+      <c r="A82" s="93"/>
       <c r="B82" s="25">
         <v>41662</v>
       </c>
@@ -3564,7 +3567,7 @@
       <c r="J82" s="36"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="120"/>
+      <c r="A83" s="94"/>
       <c r="B83" s="25">
         <v>41663</v>
       </c>
@@ -3581,7 +3584,7 @@
       <c r="J83" s="36"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="121">
+      <c r="A84" s="89">
         <v>13</v>
       </c>
       <c r="B84" s="24">
@@ -3602,7 +3605,7 @@
       <c r="J84" s="35"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="122"/>
+      <c r="A85" s="90"/>
       <c r="B85" s="24">
         <v>41667</v>
       </c>
@@ -3621,7 +3624,7 @@
       <c r="J85" s="35"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="122"/>
+      <c r="A86" s="90"/>
       <c r="B86" s="24">
         <v>41668</v>
       </c>
@@ -3640,7 +3643,7 @@
       <c r="J86" s="35"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="122"/>
+      <c r="A87" s="90"/>
       <c r="B87" s="24">
         <v>41669</v>
       </c>
@@ -3659,7 +3662,7 @@
       <c r="J87" s="35"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="123"/>
+      <c r="A88" s="91"/>
       <c r="B88" s="24">
         <v>41670</v>
       </c>
@@ -3678,7 +3681,7 @@
       <c r="J88" s="35"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="118">
+      <c r="A89" s="92">
         <v>14</v>
       </c>
       <c r="B89" s="25">
@@ -3699,7 +3702,7 @@
       <c r="J89" s="36"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="119"/>
+      <c r="A90" s="93"/>
       <c r="B90" s="25">
         <v>41674</v>
       </c>
@@ -3718,7 +3721,7 @@
       <c r="J90" s="36"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="119"/>
+      <c r="A91" s="93"/>
       <c r="B91" s="25">
         <v>41675</v>
       </c>
@@ -3737,7 +3740,7 @@
       <c r="J91" s="36"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="119"/>
+      <c r="A92" s="93"/>
       <c r="B92" s="25">
         <v>41676</v>
       </c>
@@ -3756,7 +3759,7 @@
       <c r="J92" s="36"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="120"/>
+      <c r="A93" s="94"/>
       <c r="B93" s="25">
         <v>41677</v>
       </c>
@@ -3775,7 +3778,7 @@
       <c r="J93" s="36"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="121">
+      <c r="A94" s="89">
         <v>15</v>
       </c>
       <c r="B94" s="24">
@@ -3794,7 +3797,7 @@
       <c r="J94" s="35"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="122"/>
+      <c r="A95" s="90"/>
       <c r="B95" s="24">
         <v>41681</v>
       </c>
@@ -3811,7 +3814,7 @@
       <c r="J95" s="35"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="122"/>
+      <c r="A96" s="90"/>
       <c r="B96" s="24">
         <v>41682</v>
       </c>
@@ -3828,7 +3831,7 @@
       <c r="J96" s="35"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="122"/>
+      <c r="A97" s="90"/>
       <c r="B97" s="24">
         <v>41683</v>
       </c>
@@ -3845,7 +3848,7 @@
       <c r="J97" s="35"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="123"/>
+      <c r="A98" s="91"/>
       <c r="B98" s="24">
         <v>41684</v>
       </c>
@@ -3862,7 +3865,7 @@
       <c r="J98" s="35"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="118">
+      <c r="A99" s="92">
         <v>16</v>
       </c>
       <c r="B99" s="25">
@@ -3881,7 +3884,7 @@
       <c r="J99" s="36"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="119"/>
+      <c r="A100" s="93"/>
       <c r="B100" s="25">
         <v>41688</v>
       </c>
@@ -3898,7 +3901,7 @@
       <c r="J100" s="36"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="119"/>
+      <c r="A101" s="93"/>
       <c r="B101" s="25">
         <v>41689</v>
       </c>
@@ -3915,7 +3918,7 @@
       <c r="J101" s="36"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="119"/>
+      <c r="A102" s="93"/>
       <c r="B102" s="25">
         <v>41690</v>
       </c>
@@ -3932,7 +3935,7 @@
       <c r="J102" s="36"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="120"/>
+      <c r="A103" s="94"/>
       <c r="B103" s="25">
         <v>41691</v>
       </c>
@@ -3949,7 +3952,7 @@
       <c r="J103" s="36"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="121">
+      <c r="A104" s="89">
         <v>17</v>
       </c>
       <c r="B104" s="24">
@@ -3968,7 +3971,7 @@
       <c r="J104" s="35"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="122"/>
+      <c r="A105" s="90"/>
       <c r="B105" s="24">
         <v>41695</v>
       </c>
@@ -3985,7 +3988,7 @@
       <c r="J105" s="35"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="122"/>
+      <c r="A106" s="90"/>
       <c r="B106" s="24">
         <v>41696</v>
       </c>
@@ -4002,7 +4005,7 @@
       <c r="J106" s="35"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="122"/>
+      <c r="A107" s="90"/>
       <c r="B107" s="24">
         <v>41697</v>
       </c>
@@ -4019,7 +4022,7 @@
       <c r="J107" s="35"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="123"/>
+      <c r="A108" s="91"/>
       <c r="B108" s="24">
         <v>41698</v>
       </c>
@@ -4036,7 +4039,7 @@
       <c r="J108" s="35"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="118">
+      <c r="A109" s="92">
         <v>18</v>
       </c>
       <c r="B109" s="25">
@@ -4055,7 +4058,7 @@
       <c r="J109" s="36"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="119"/>
+      <c r="A110" s="93"/>
       <c r="B110" s="25">
         <v>41702</v>
       </c>
@@ -4072,7 +4075,7 @@
       <c r="J110" s="36"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="119"/>
+      <c r="A111" s="93"/>
       <c r="B111" s="25">
         <v>41703</v>
       </c>
@@ -4089,7 +4092,7 @@
       <c r="J111" s="36"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="119"/>
+      <c r="A112" s="93"/>
       <c r="B112" s="25">
         <v>41704</v>
       </c>
@@ -4106,7 +4109,7 @@
       <c r="J112" s="36"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="120"/>
+      <c r="A113" s="94"/>
       <c r="B113" s="25">
         <v>41705</v>
       </c>
@@ -4123,7 +4126,7 @@
       <c r="J113" s="36"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="121">
+      <c r="A114" s="89">
         <v>19</v>
       </c>
       <c r="B114" s="24">
@@ -4142,7 +4145,7 @@
       <c r="J114" s="35"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="122"/>
+      <c r="A115" s="90"/>
       <c r="B115" s="24">
         <v>41709</v>
       </c>
@@ -4159,7 +4162,7 @@
       <c r="J115" s="35"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="122"/>
+      <c r="A116" s="90"/>
       <c r="B116" s="24">
         <v>41710</v>
       </c>
@@ -4176,7 +4179,7 @@
       <c r="J116" s="35"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="122"/>
+      <c r="A117" s="90"/>
       <c r="B117" s="24">
         <v>41711</v>
       </c>
@@ -4193,7 +4196,7 @@
       <c r="J117" s="35"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="123"/>
+      <c r="A118" s="91"/>
       <c r="B118" s="24">
         <v>41712</v>
       </c>
@@ -4210,7 +4213,7 @@
       <c r="J118" s="35"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="118">
+      <c r="A119" s="92">
         <v>20</v>
       </c>
       <c r="B119" s="25">
@@ -4229,7 +4232,7 @@
       <c r="J119" s="36"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="119"/>
+      <c r="A120" s="93"/>
       <c r="B120" s="25">
         <v>41716</v>
       </c>
@@ -4246,7 +4249,7 @@
       <c r="J120" s="36"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="119"/>
+      <c r="A121" s="93"/>
       <c r="B121" s="25">
         <v>41717</v>
       </c>
@@ -4263,7 +4266,7 @@
       <c r="J121" s="36"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="119"/>
+      <c r="A122" s="93"/>
       <c r="B122" s="25">
         <v>41718</v>
       </c>
@@ -4280,7 +4283,7 @@
       <c r="J122" s="36"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="120"/>
+      <c r="A123" s="94"/>
       <c r="B123" s="25">
         <v>41719</v>
       </c>
@@ -4297,7 +4300,7 @@
       <c r="J123" s="36"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="121">
+      <c r="A124" s="89">
         <v>21</v>
       </c>
       <c r="B124" s="24">
@@ -4316,7 +4319,7 @@
       <c r="J124" s="35"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="122"/>
+      <c r="A125" s="90"/>
       <c r="B125" s="24">
         <v>41723</v>
       </c>
@@ -4333,7 +4336,7 @@
       <c r="J125" s="35"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="122"/>
+      <c r="A126" s="90"/>
       <c r="B126" s="24">
         <v>41724</v>
       </c>
@@ -4350,7 +4353,7 @@
       <c r="J126" s="35"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="122"/>
+      <c r="A127" s="90"/>
       <c r="B127" s="24">
         <v>41725</v>
       </c>
@@ -4367,7 +4370,7 @@
       <c r="J127" s="35"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="123"/>
+      <c r="A128" s="91"/>
       <c r="B128" s="24">
         <v>41726</v>
       </c>
@@ -4384,7 +4387,7 @@
       <c r="J128" s="35"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="118">
+      <c r="A129" s="92">
         <v>22</v>
       </c>
       <c r="B129" s="25">
@@ -4403,7 +4406,7 @@
       <c r="J129" s="36"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="119"/>
+      <c r="A130" s="93"/>
       <c r="B130" s="25">
         <v>41730</v>
       </c>
@@ -4420,7 +4423,7 @@
       <c r="J130" s="36"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="119"/>
+      <c r="A131" s="93"/>
       <c r="B131" s="25">
         <v>41731</v>
       </c>
@@ -4437,7 +4440,7 @@
       <c r="J131" s="36"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="119"/>
+      <c r="A132" s="93"/>
       <c r="B132" s="25">
         <v>41732</v>
       </c>
@@ -4454,7 +4457,7 @@
       <c r="J132" s="36"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="120"/>
+      <c r="A133" s="94"/>
       <c r="B133" s="25">
         <v>41733</v>
       </c>
@@ -4471,7 +4474,7 @@
       <c r="J133" s="36"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="121">
+      <c r="A134" s="89">
         <v>23</v>
       </c>
       <c r="B134" s="24">
@@ -4490,7 +4493,7 @@
       <c r="J134" s="35"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="122"/>
+      <c r="A135" s="90"/>
       <c r="B135" s="24">
         <v>41737</v>
       </c>
@@ -4507,7 +4510,7 @@
       <c r="J135" s="35"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="122"/>
+      <c r="A136" s="90"/>
       <c r="B136" s="24">
         <v>41738</v>
       </c>
@@ -4524,7 +4527,7 @@
       <c r="J136" s="35"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="122"/>
+      <c r="A137" s="90"/>
       <c r="B137" s="24">
         <v>41739</v>
       </c>
@@ -4541,7 +4544,7 @@
       <c r="J137" s="35"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="123"/>
+      <c r="A138" s="91"/>
       <c r="B138" s="24">
         <v>41740</v>
       </c>
@@ -4558,7 +4561,7 @@
       <c r="J138" s="35"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="118">
+      <c r="A139" s="92">
         <v>24</v>
       </c>
       <c r="B139" s="25">
@@ -4577,7 +4580,7 @@
       <c r="J139" s="36"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="119"/>
+      <c r="A140" s="93"/>
       <c r="B140" s="25">
         <v>41744</v>
       </c>
@@ -4594,7 +4597,7 @@
       <c r="J140" s="36"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="119"/>
+      <c r="A141" s="93"/>
       <c r="B141" s="25">
         <v>41745</v>
       </c>
@@ -4611,7 +4614,7 @@
       <c r="J141" s="36"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="119"/>
+      <c r="A142" s="93"/>
       <c r="B142" s="25">
         <v>41746</v>
       </c>
@@ -4628,7 +4631,7 @@
       <c r="J142" s="36"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="120"/>
+      <c r="A143" s="94"/>
       <c r="B143" s="25">
         <v>41747</v>
       </c>
@@ -4645,7 +4648,7 @@
       <c r="J143" s="36"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="121">
+      <c r="A144" s="89">
         <v>25</v>
       </c>
       <c r="B144" s="24">
@@ -4664,7 +4667,7 @@
       <c r="J144" s="35"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="122"/>
+      <c r="A145" s="90"/>
       <c r="B145" s="24">
         <v>41751</v>
       </c>
@@ -4681,7 +4684,7 @@
       <c r="J145" s="35"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="122"/>
+      <c r="A146" s="90"/>
       <c r="B146" s="24">
         <v>41752</v>
       </c>
@@ -4698,7 +4701,7 @@
       <c r="J146" s="35"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="122"/>
+      <c r="A147" s="90"/>
       <c r="B147" s="24">
         <v>41753</v>
       </c>
@@ -4715,7 +4718,7 @@
       <c r="J147" s="35"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="123"/>
+      <c r="A148" s="91"/>
       <c r="B148" s="24">
         <v>41754</v>
       </c>
@@ -4732,7 +4735,7 @@
       <c r="J148" s="35"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="118">
+      <c r="A149" s="92">
         <v>26</v>
       </c>
       <c r="B149" s="25">
@@ -4751,7 +4754,7 @@
       <c r="J149" s="36"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="119"/>
+      <c r="A150" s="93"/>
       <c r="B150" s="25">
         <v>41758</v>
       </c>
@@ -4768,7 +4771,7 @@
       <c r="J150" s="36"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="119"/>
+      <c r="A151" s="93"/>
       <c r="B151" s="25">
         <v>41759</v>
       </c>
@@ -4785,7 +4788,7 @@
       <c r="J151" s="36"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="119"/>
+      <c r="A152" s="93"/>
       <c r="B152" s="25">
         <v>41760</v>
       </c>
@@ -4802,7 +4805,7 @@
       <c r="J152" s="36"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="120"/>
+      <c r="A153" s="94"/>
       <c r="B153" s="25">
         <v>41761</v>
       </c>
@@ -4819,7 +4822,7 @@
       <c r="J153" s="36"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="121">
+      <c r="A154" s="89">
         <v>27</v>
       </c>
       <c r="B154" s="24">
@@ -4838,7 +4841,7 @@
       <c r="J154" s="35"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="122"/>
+      <c r="A155" s="90"/>
       <c r="B155" s="24">
         <v>41765</v>
       </c>
@@ -4855,7 +4858,7 @@
       <c r="J155" s="35"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="122"/>
+      <c r="A156" s="90"/>
       <c r="B156" s="24">
         <v>41766</v>
       </c>
@@ -4872,7 +4875,7 @@
       <c r="J156" s="35"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="122"/>
+      <c r="A157" s="90"/>
       <c r="B157" s="24">
         <v>41767</v>
       </c>
@@ -4889,7 +4892,7 @@
       <c r="J157" s="35"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="123"/>
+      <c r="A158" s="91"/>
       <c r="B158" s="24">
         <v>41768</v>
       </c>
@@ -4906,7 +4909,7 @@
       <c r="J158" s="35"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="118">
+      <c r="A159" s="92">
         <v>28</v>
       </c>
       <c r="B159" s="25">
@@ -4925,7 +4928,7 @@
       <c r="J159" s="36"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="119"/>
+      <c r="A160" s="93"/>
       <c r="B160" s="25">
         <v>41772</v>
       </c>
@@ -4942,7 +4945,7 @@
       <c r="J160" s="36"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="119"/>
+      <c r="A161" s="93"/>
       <c r="B161" s="25">
         <v>41773</v>
       </c>
@@ -4959,7 +4962,7 @@
       <c r="J161" s="36"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="119"/>
+      <c r="A162" s="93"/>
       <c r="B162" s="25">
         <v>41774</v>
       </c>
@@ -4976,7 +4979,7 @@
       <c r="J162" s="36"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="120"/>
+      <c r="A163" s="94"/>
       <c r="B163" s="25">
         <v>41775</v>
       </c>
@@ -4993,7 +4996,7 @@
       <c r="J163" s="36"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="121">
+      <c r="A164" s="89">
         <v>29</v>
       </c>
       <c r="B164" s="24">
@@ -5012,7 +5015,7 @@
       <c r="J164" s="35"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="122"/>
+      <c r="A165" s="90"/>
       <c r="B165" s="24">
         <v>41779</v>
       </c>
@@ -5029,7 +5032,7 @@
       <c r="J165" s="35"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="122"/>
+      <c r="A166" s="90"/>
       <c r="B166" s="24">
         <v>41780</v>
       </c>
@@ -5046,7 +5049,7 @@
       <c r="J166" s="35"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="122"/>
+      <c r="A167" s="90"/>
       <c r="B167" s="24">
         <v>41781</v>
       </c>
@@ -5063,7 +5066,7 @@
       <c r="J167" s="35"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="123"/>
+      <c r="A168" s="91"/>
       <c r="B168" s="24">
         <v>41782</v>
       </c>
@@ -5080,7 +5083,7 @@
       <c r="J168" s="35"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="147">
+      <c r="A169" s="95">
         <v>30</v>
       </c>
       <c r="B169" s="25">
@@ -5099,7 +5102,7 @@
       <c r="J169" s="37"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="148"/>
+      <c r="A170" s="96"/>
       <c r="B170" s="25">
         <v>41786</v>
       </c>
@@ -5116,7 +5119,7 @@
       <c r="J170" s="37"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="148"/>
+      <c r="A171" s="96"/>
       <c r="B171" s="25">
         <v>41787</v>
       </c>
@@ -5133,7 +5136,7 @@
       <c r="J171" s="37"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="148"/>
+      <c r="A172" s="96"/>
       <c r="B172" s="25">
         <v>41788</v>
       </c>
@@ -5150,7 +5153,7 @@
       <c r="J172" s="37"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="149"/>
+      <c r="A173" s="97"/>
       <c r="B173" s="25">
         <v>41789</v>
       </c>
@@ -5168,28 +5171,32 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A159:A163"/>
-    <mergeCell ref="A164:A168"/>
-    <mergeCell ref="A169:A173"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A17:A29"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="A84:A88"/>
     <mergeCell ref="A89:A93"/>
     <mergeCell ref="F14:F15"/>
@@ -5206,32 +5213,28 @@
     <mergeCell ref="A64:A68"/>
     <mergeCell ref="A74:A78"/>
     <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A17:A29"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A159:A163"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="A169:A173"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
+++ b/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
@@ -636,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -831,55 +831,222 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -889,175 +1056,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1456,10 +1478,10 @@
   <dimension ref="A1:O173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1468,7 +1490,7 @@
     <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="160" customWidth="1"/>
     <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46.375" style="1" customWidth="1"/>
@@ -1481,81 +1503,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="128"/>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="130"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="88"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="131" t="s">
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="133"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="91"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="136"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="94"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="111"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="139"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="97"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="122"/>
+      <c r="A5" s="143"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145"/>
       <c r="F5" s="16"/>
       <c r="H5" s="39" t="s">
         <v>51</v>
@@ -1582,7 +1604,7 @@
       <c r="D6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="153" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="28" t="s">
@@ -1600,16 +1622,16 @@
       <c r="J6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="140"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="143">
+      <c r="A7" s="101">
         <v>1</v>
       </c>
-      <c r="B7" s="114">
+      <c r="B7" s="137">
         <v>41586</v>
       </c>
       <c r="C7" s="17">
@@ -1621,7 +1643,7 @@
       <c r="E7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="117">
+      <c r="F7" s="140">
         <f>SUM(E7:E9)</f>
         <v>2</v>
       </c>
@@ -1644,8 +1666,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="144"/>
-      <c r="B8" s="115"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="138"/>
       <c r="C8" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1655,7 +1677,7 @@
       <c r="E8" s="18">
         <v>0.5</v>
       </c>
-      <c r="F8" s="118"/>
+      <c r="F8" s="141"/>
       <c r="G8" s="19" t="s">
         <v>20</v>
       </c>
@@ -1668,8 +1690,8 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="145"/>
-      <c r="B9" s="116"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="17">
         <v>0.83333333333333337</v>
       </c>
@@ -1679,7 +1701,7 @@
       <c r="E9" s="18">
         <v>1.5</v>
       </c>
-      <c r="F9" s="119"/>
+      <c r="F9" s="142"/>
       <c r="G9" s="41" t="s">
         <v>25</v>
       </c>
@@ -1690,10 +1712,10 @@
       <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="151">
+      <c r="A10" s="116">
         <v>2</v>
       </c>
-      <c r="B10" s="141">
+      <c r="B10" s="99">
         <v>41589</v>
       </c>
       <c r="C10" s="46">
@@ -1705,7 +1727,7 @@
       <c r="E10" s="47">
         <v>1.5</v>
       </c>
-      <c r="F10" s="146">
+      <c r="F10" s="109">
         <f>SUM(E10:E11)</f>
         <v>3.5</v>
       </c>
@@ -1719,8 +1741,8 @@
       <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:15" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="152"/>
-      <c r="B11" s="142"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="46">
         <v>0.875</v>
       </c>
@@ -1730,7 +1752,7 @@
       <c r="E11" s="47">
         <v>2</v>
       </c>
-      <c r="F11" s="147"/>
+      <c r="F11" s="110"/>
       <c r="G11" s="56" t="s">
         <v>25</v>
       </c>
@@ -1741,8 +1763,8 @@
       <c r="J11" s="48"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="152"/>
-      <c r="B12" s="102">
+      <c r="A12" s="117"/>
+      <c r="B12" s="114">
         <v>41590</v>
       </c>
       <c r="C12" s="21">
@@ -1754,7 +1776,7 @@
       <c r="E12" s="22">
         <v>2.25</v>
       </c>
-      <c r="F12" s="98">
+      <c r="F12" s="107">
         <f>SUM(E12:E13)</f>
         <v>3.5</v>
       </c>
@@ -1780,8 +1802,8 @@
       <c r="O12" s="30"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="152"/>
-      <c r="B13" s="103"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="115"/>
       <c r="C13" s="21">
         <v>0.86458333333333337</v>
       </c>
@@ -1791,7 +1813,7 @@
       <c r="E13" s="22">
         <v>1.25</v>
       </c>
-      <c r="F13" s="99"/>
+      <c r="F13" s="108"/>
       <c r="G13" s="56" t="s">
         <v>25</v>
       </c>
@@ -1807,8 +1829,8 @@
       <c r="O13" s="30"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="152"/>
-      <c r="B14" s="102">
+      <c r="A14" s="117"/>
+      <c r="B14" s="114">
         <v>41592</v>
       </c>
       <c r="C14" s="23">
@@ -1820,7 +1842,7 @@
       <c r="E14" s="26">
         <v>1.5</v>
       </c>
-      <c r="F14" s="98">
+      <c r="F14" s="107">
         <f>SUM(E14:E15)</f>
         <v>2</v>
       </c>
@@ -1838,8 +1860,8 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="152"/>
-      <c r="B15" s="103"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="115"/>
       <c r="C15" s="23">
         <v>0.9375</v>
       </c>
@@ -1849,7 +1871,7 @@
       <c r="E15" s="26">
         <v>0.5</v>
       </c>
-      <c r="F15" s="99"/>
+      <c r="F15" s="108"/>
       <c r="G15" s="56" t="s">
         <v>17</v>
       </c>
@@ -1864,7 +1886,7 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="153"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="40">
         <v>41593</v>
       </c>
@@ -1902,10 +1924,10 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="123">
+      <c r="A17" s="125">
         <v>3</v>
       </c>
-      <c r="B17" s="81">
+      <c r="B17" s="104">
         <v>41596</v>
       </c>
       <c r="C17" s="44">
@@ -1917,7 +1939,7 @@
       <c r="E17" s="42">
         <v>1</v>
       </c>
-      <c r="F17" s="98">
+      <c r="F17" s="107">
         <f>SUM(E17:E19)</f>
         <v>3.5</v>
       </c>
@@ -1942,8 +1964,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="123"/>
-      <c r="B18" s="101"/>
+      <c r="A18" s="125"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="44">
         <v>0.75</v>
       </c>
@@ -1953,7 +1975,7 @@
       <c r="E18" s="42">
         <v>1.5</v>
       </c>
-      <c r="F18" s="100"/>
+      <c r="F18" s="146"/>
       <c r="G18" s="41" t="s">
         <v>18</v>
       </c>
@@ -1970,8 +1992,8 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="123"/>
-      <c r="B19" s="82"/>
+      <c r="A19" s="125"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="44">
         <v>0.89583333333333337</v>
       </c>
@@ -1981,7 +2003,7 @@
       <c r="E19" s="42">
         <v>1</v>
       </c>
-      <c r="F19" s="99"/>
+      <c r="F19" s="108"/>
       <c r="G19" s="41" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2018,8 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="123"/>
-      <c r="B20" s="81">
+      <c r="A20" s="125"/>
+      <c r="B20" s="104">
         <v>41597</v>
       </c>
       <c r="C20" s="44">
@@ -2009,7 +2031,7 @@
       <c r="E20" s="42">
         <v>1.5</v>
       </c>
-      <c r="F20" s="98">
+      <c r="F20" s="107">
         <f>SUM(E20:E21)</f>
         <v>3</v>
       </c>
@@ -2027,8 +2049,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="123"/>
-      <c r="B21" s="82"/>
+      <c r="A21" s="125"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="44">
         <v>0.8125</v>
       </c>
@@ -2038,7 +2060,7 @@
       <c r="E21" s="42">
         <v>1.5</v>
       </c>
-      <c r="F21" s="99"/>
+      <c r="F21" s="108"/>
       <c r="G21" s="41" t="s">
         <v>18</v>
       </c>
@@ -2060,8 +2082,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="123"/>
-      <c r="B22" s="81">
+      <c r="A22" s="125"/>
+      <c r="B22" s="104">
         <v>41599</v>
       </c>
       <c r="C22" s="44">
@@ -2073,9 +2095,9 @@
       <c r="E22" s="42">
         <v>3</v>
       </c>
-      <c r="F22" s="98">
+      <c r="F22" s="107">
         <f>SUM(E22:E26)</f>
-        <v>7.9</v>
+        <v>8.15</v>
       </c>
       <c r="G22" s="41" t="s">
         <v>17</v>
@@ -2091,18 +2113,18 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="123"/>
-      <c r="B23" s="101"/>
+      <c r="A23" s="125"/>
+      <c r="B23" s="106"/>
       <c r="C23" s="44">
-        <v>0.38194444444444442</v>
+        <v>0.375</v>
       </c>
       <c r="D23" s="44">
         <v>0.4236111111111111</v>
       </c>
       <c r="E23" s="42">
-        <v>1</v>
-      </c>
-      <c r="F23" s="100"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F23" s="146"/>
       <c r="G23" s="61" t="s">
         <v>20</v>
       </c>
@@ -2117,8 +2139,8 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="123"/>
-      <c r="B24" s="101"/>
+      <c r="A24" s="125"/>
+      <c r="B24" s="106"/>
       <c r="C24" s="44">
         <v>0.4236111111111111</v>
       </c>
@@ -2126,9 +2148,9 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="E24" s="42">
-        <v>1.3</v>
-      </c>
-      <c r="F24" s="100"/>
+        <v>1.33</v>
+      </c>
+      <c r="F24" s="146"/>
       <c r="G24" s="41" t="s">
         <v>16</v>
       </c>
@@ -2143,8 +2165,8 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="123"/>
-      <c r="B25" s="101"/>
+      <c r="A25" s="125"/>
+      <c r="B25" s="106"/>
       <c r="C25" s="44">
         <v>0.58333333333333337</v>
       </c>
@@ -2154,7 +2176,7 @@
       <c r="E25" s="42">
         <v>0.5</v>
       </c>
-      <c r="F25" s="100"/>
+      <c r="F25" s="146"/>
       <c r="G25" s="41" t="s">
         <v>18</v>
       </c>
@@ -2169,8 +2191,8 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="123"/>
-      <c r="B26" s="82"/>
+      <c r="A26" s="125"/>
+      <c r="B26" s="105"/>
       <c r="C26" s="65">
         <v>0.625</v>
       </c>
@@ -2178,9 +2200,9 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="E26" s="42">
-        <v>2.1</v>
-      </c>
-      <c r="F26" s="99"/>
+        <v>2.16</v>
+      </c>
+      <c r="F26" s="108"/>
       <c r="G26" s="41" t="s">
         <v>16</v>
       </c>
@@ -2202,8 +2224,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="123"/>
-      <c r="B27" s="81">
+      <c r="A27" s="125"/>
+      <c r="B27" s="104">
         <v>41600</v>
       </c>
       <c r="C27" s="65">
@@ -2215,7 +2237,7 @@
       <c r="E27" s="18">
         <v>1.25</v>
       </c>
-      <c r="F27" s="83">
+      <c r="F27" s="147">
         <f>SUM(E27:E29)</f>
         <v>4</v>
       </c>
@@ -2235,8 +2257,8 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="123"/>
-      <c r="B28" s="101"/>
+      <c r="A28" s="125"/>
+      <c r="B28" s="106"/>
       <c r="C28" s="65">
         <v>0.5625</v>
       </c>
@@ -2246,7 +2268,7 @@
       <c r="E28" s="18">
         <v>1.25</v>
       </c>
-      <c r="F28" s="104"/>
+      <c r="F28" s="148"/>
       <c r="G28" s="69" t="s">
         <v>16</v>
       </c>
@@ -2259,18 +2281,18 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="123"/>
-      <c r="B29" s="82"/>
+      <c r="A29" s="125"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="65">
         <v>0.625</v>
       </c>
       <c r="D29" s="65">
         <v>0.6875</v>
       </c>
-      <c r="E29" s="69">
+      <c r="E29" s="154">
         <v>1.5</v>
       </c>
-      <c r="F29" s="84"/>
+      <c r="F29" s="149"/>
       <c r="G29" s="69" t="s">
         <v>21</v>
       </c>
@@ -2293,7 +2315,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="67"/>
-      <c r="B30" s="81">
+      <c r="B30" s="104">
         <v>41601</v>
       </c>
       <c r="C30" s="65">
@@ -2302,10 +2324,10 @@
       <c r="D30" s="65">
         <v>0.375</v>
       </c>
-      <c r="E30" s="69">
+      <c r="E30" s="154">
         <v>0.5</v>
       </c>
-      <c r="F30" s="148">
+      <c r="F30" s="111">
         <f>SUM(E30:E33)</f>
         <v>2</v>
       </c>
@@ -2326,17 +2348,17 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="67"/>
-      <c r="B31" s="101"/>
+      <c r="B31" s="106"/>
       <c r="C31" s="65">
         <v>0.39583333333333331</v>
       </c>
       <c r="D31" s="65">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E31" s="69">
+      <c r="E31" s="154">
         <v>0.5</v>
       </c>
-      <c r="F31" s="149"/>
+      <c r="F31" s="112"/>
       <c r="G31" s="69" t="s">
         <v>19</v>
       </c>
@@ -2354,17 +2376,17 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="72"/>
-      <c r="B32" s="101"/>
+      <c r="B32" s="106"/>
       <c r="C32" s="65">
-        <v>0.5625</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D32" s="65">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E32" s="69">
+      <c r="E32" s="154">
         <v>0.25</v>
       </c>
-      <c r="F32" s="149"/>
+      <c r="F32" s="112"/>
       <c r="G32" s="69" t="s">
         <v>16</v>
       </c>
@@ -2378,17 +2400,17 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="71"/>
-      <c r="B33" s="82"/>
+      <c r="B33" s="105"/>
       <c r="C33" s="65">
         <v>0.57291666666666663</v>
       </c>
       <c r="D33" s="65">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E33" s="69">
+      <c r="E33" s="154">
         <v>0.75</v>
       </c>
-      <c r="F33" s="150"/>
+      <c r="F33" s="113"/>
       <c r="G33" s="69" t="s">
         <v>19</v>
       </c>
@@ -2405,7 +2427,7 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="92">
+      <c r="A34" s="119">
         <v>4</v>
       </c>
       <c r="B34" s="25">
@@ -2417,7 +2439,7 @@
       <c r="D34" s="73">
         <v>0.875</v>
       </c>
-      <c r="E34" s="154">
+      <c r="E34" s="155">
         <v>1</v>
       </c>
       <c r="F34" s="66">
@@ -2445,22 +2467,22 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="93"/>
-      <c r="B35" s="85">
+      <c r="A35" s="120"/>
+      <c r="B35" s="80">
         <v>41604</v>
       </c>
       <c r="C35" s="73">
         <v>0.375</v>
       </c>
       <c r="D35" s="73">
-        <v>0.9375</v>
-      </c>
-      <c r="E35" s="154">
-        <v>1.5</v>
-      </c>
-      <c r="F35" s="87">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E35" s="155">
+        <v>2.5</v>
+      </c>
+      <c r="F35" s="82">
         <f>SUM(E35:E36)</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G35" s="74" t="s">
         <v>20</v>
@@ -2483,18 +2505,18 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="93"/>
-      <c r="B36" s="86"/>
+      <c r="A36" s="120"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="73">
-        <v>0.54166666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="D36" s="73">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E36" s="154">
-        <v>1.5</v>
-      </c>
-      <c r="F36" s="88"/>
+      <c r="E36" s="155">
+        <v>1</v>
+      </c>
+      <c r="F36" s="83"/>
       <c r="G36" s="74" t="s">
         <v>16</v>
       </c>
@@ -2509,8 +2531,8 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="93"/>
-      <c r="B37" s="85">
+      <c r="A37" s="120"/>
+      <c r="B37" s="80">
         <v>41605</v>
       </c>
       <c r="C37" s="73">
@@ -2519,10 +2541,10 @@
       <c r="D37" s="73">
         <v>0.34375</v>
       </c>
-      <c r="E37" s="154">
+      <c r="E37" s="155">
         <v>0.25</v>
       </c>
-      <c r="F37" s="87">
+      <c r="F37" s="82">
         <f>SUM(E37:E39)</f>
         <v>3.08</v>
       </c>
@@ -2549,18 +2571,18 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="93"/>
-      <c r="B38" s="126"/>
+      <c r="A38" s="120"/>
+      <c r="B38" s="84"/>
       <c r="C38" s="73">
         <v>0.35416666666666669</v>
       </c>
       <c r="D38" s="73">
         <v>0.375</v>
       </c>
-      <c r="E38" s="154">
+      <c r="E38" s="155">
         <v>0.5</v>
       </c>
-      <c r="F38" s="127"/>
+      <c r="F38" s="85"/>
       <c r="G38" s="74" t="s">
         <v>19</v>
       </c>
@@ -2577,18 +2599,18 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="93"/>
-      <c r="B39" s="86"/>
+      <c r="A39" s="120"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="73">
         <v>0.5625</v>
       </c>
       <c r="D39" s="73">
         <v>0.65972222222222221</v>
       </c>
-      <c r="E39" s="154">
+      <c r="E39" s="155">
         <v>2.33</v>
       </c>
-      <c r="F39" s="88"/>
+      <c r="F39" s="83"/>
       <c r="G39" s="74" t="s">
         <v>16</v>
       </c>
@@ -2603,8 +2625,8 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="93"/>
-      <c r="B40" s="85">
+      <c r="A40" s="120"/>
+      <c r="B40" s="80">
         <v>41608</v>
       </c>
       <c r="C40" s="73">
@@ -2613,10 +2635,10 @@
       <c r="D40" s="73">
         <v>0.875</v>
       </c>
-      <c r="E40" s="154">
+      <c r="E40" s="155">
         <v>1</v>
       </c>
-      <c r="F40" s="87">
+      <c r="F40" s="82">
         <f>SUM(E40:E41)</f>
         <v>1.5</v>
       </c>
@@ -2634,18 +2656,18 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="94"/>
-      <c r="B41" s="86"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="81"/>
       <c r="C41" s="73">
         <v>0.875</v>
       </c>
       <c r="D41" s="73">
         <v>0.89583333333333337</v>
       </c>
-      <c r="E41" s="154">
+      <c r="E41" s="155">
         <v>0.5</v>
       </c>
-      <c r="F41" s="88"/>
+      <c r="F41" s="83"/>
       <c r="G41" s="74" t="s">
         <v>19</v>
       </c>
@@ -2669,7 +2691,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="124"/>
+      <c r="A42" s="126"/>
       <c r="B42" s="76">
         <v>41610</v>
       </c>
@@ -2679,7 +2701,7 @@
       <c r="D42" s="59">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E42" s="69">
+      <c r="E42" s="154">
         <v>1</v>
       </c>
       <c r="F42" s="75">
@@ -2699,8 +2721,8 @@
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="124"/>
-      <c r="B43" s="81">
+      <c r="A43" s="126"/>
+      <c r="B43" s="104">
         <v>41611</v>
       </c>
       <c r="C43" s="59">
@@ -2709,10 +2731,10 @@
       <c r="D43" s="59">
         <v>0.93055555555555547</v>
       </c>
-      <c r="E43" s="69">
+      <c r="E43" s="154">
         <v>1</v>
       </c>
-      <c r="F43" s="83">
+      <c r="F43" s="147">
         <f>SUM(E43:E43:E44)</f>
         <v>1.8</v>
       </c>
@@ -2730,18 +2752,18 @@
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="124"/>
-      <c r="B44" s="82"/>
+      <c r="A44" s="126"/>
+      <c r="B44" s="105"/>
       <c r="C44" s="59">
         <v>0.9375</v>
       </c>
       <c r="D44" s="59">
         <v>0.97222222222222221</v>
       </c>
-      <c r="E44" s="78">
+      <c r="E44" s="154">
         <v>0.8</v>
       </c>
-      <c r="F44" s="84"/>
+      <c r="F44" s="149"/>
       <c r="G44" s="69" t="s">
         <v>19</v>
       </c>
@@ -2765,8 +2787,8 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="124"/>
-      <c r="B45" s="81">
+      <c r="A45" s="126"/>
+      <c r="B45" s="104">
         <v>41612</v>
       </c>
       <c r="C45" s="59">
@@ -2775,17 +2797,17 @@
       <c r="D45" s="59">
         <v>0.75</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="156">
         <v>4.5</v>
       </c>
-      <c r="F45" s="83">
+      <c r="F45" s="147">
         <f>SUM(E45:E49)</f>
         <v>4.67</v>
       </c>
       <c r="G45" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="80" t="s">
+      <c r="H45" s="79" t="s">
         <v>90</v>
       </c>
       <c r="I45" s="27"/>
@@ -2803,22 +2825,22 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="124"/>
-      <c r="B46" s="82"/>
+      <c r="A46" s="126"/>
+      <c r="B46" s="105"/>
       <c r="C46" s="59">
         <v>0.82638888888888884</v>
       </c>
       <c r="D46" s="59">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="156">
         <v>0.17</v>
       </c>
-      <c r="F46" s="84"/>
+      <c r="F46" s="149"/>
       <c r="G46" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="80" t="s">
+      <c r="H46" s="79" t="s">
         <v>73</v>
       </c>
       <c r="I46" s="27" t="s">
@@ -2831,13 +2853,13 @@
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="124"/>
+      <c r="A47" s="126"/>
       <c r="B47" s="24">
         <v>41613</v>
       </c>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="69"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="154"/>
       <c r="F47" s="75">
         <f t="shared" ref="F47:F63" si="0">SUM(E47:E50)</f>
         <v>0</v>
@@ -2859,13 +2881,13 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="125"/>
+      <c r="A48" s="127"/>
       <c r="B48" s="24">
         <v>41614</v>
       </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="69"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="154"/>
       <c r="F48" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2887,7 +2909,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="92">
+      <c r="A49" s="119">
         <v>6</v>
       </c>
       <c r="B49" s="25">
@@ -2895,7 +2917,7 @@
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="E49" s="157"/>
       <c r="F49" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2917,13 +2939,13 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="93"/>
+      <c r="A50" s="120"/>
       <c r="B50" s="25">
         <v>41618</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="E50" s="157"/>
       <c r="F50" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2945,13 +2967,13 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="93"/>
+      <c r="A51" s="120"/>
       <c r="B51" s="25">
         <v>41619</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="E51" s="157"/>
       <c r="F51" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2973,13 +2995,13 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="93"/>
+      <c r="A52" s="120"/>
       <c r="B52" s="25">
         <v>41620</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="E52" s="157"/>
       <c r="F52" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3001,13 +3023,13 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="94"/>
+      <c r="A53" s="121"/>
       <c r="B53" s="25">
         <v>41621</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+      <c r="E53" s="157"/>
       <c r="F53" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3029,7 +3051,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="89">
+      <c r="A54" s="122">
         <v>7</v>
       </c>
       <c r="B54" s="24">
@@ -3037,7 +3059,7 @@
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="E54" s="158"/>
       <c r="F54" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3059,13 +3081,13 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="90"/>
+      <c r="A55" s="123"/>
       <c r="B55" s="24">
         <v>41625</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="E55" s="158"/>
       <c r="F55" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3087,13 +3109,13 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="90"/>
+      <c r="A56" s="123"/>
       <c r="B56" s="24">
         <v>41626</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="E56" s="158"/>
       <c r="F56" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3115,13 +3137,13 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="90"/>
+      <c r="A57" s="123"/>
       <c r="B57" s="24">
         <v>41627</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="E57" s="158"/>
       <c r="F57" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3132,13 +3154,13 @@
       <c r="J57" s="35"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="91"/>
+      <c r="A58" s="124"/>
       <c r="B58" s="24">
         <v>41628</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+      <c r="E58" s="158"/>
       <c r="F58" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3149,7 +3171,7 @@
       <c r="J58" s="35"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="92">
+      <c r="A59" s="119">
         <v>8</v>
       </c>
       <c r="B59" s="25">
@@ -3157,7 +3179,7 @@
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
+      <c r="E59" s="157"/>
       <c r="F59" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3168,13 +3190,13 @@
       <c r="J59" s="36"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="93"/>
+      <c r="A60" s="120"/>
       <c r="B60" s="25">
         <v>41632</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
+      <c r="E60" s="157"/>
       <c r="F60" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3185,13 +3207,13 @@
       <c r="J60" s="36"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="93"/>
+      <c r="A61" s="120"/>
       <c r="B61" s="25">
         <v>41633</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+      <c r="E61" s="157"/>
       <c r="F61" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3202,13 +3224,13 @@
       <c r="J61" s="36"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="93"/>
+      <c r="A62" s="120"/>
       <c r="B62" s="25">
         <v>41634</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
+      <c r="E62" s="157"/>
       <c r="F62" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3219,13 +3241,13 @@
       <c r="J62" s="36"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="94"/>
+      <c r="A63" s="121"/>
       <c r="B63" s="25">
         <v>41635</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
+      <c r="E63" s="157"/>
       <c r="F63" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3236,7 +3258,7 @@
       <c r="J63" s="36"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="89">
+      <c r="A64" s="122">
         <v>9</v>
       </c>
       <c r="B64" s="24">
@@ -3244,7 +3266,7 @@
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
+      <c r="E64" s="158"/>
       <c r="F64" s="5">
         <f t="shared" ref="F64:F65" si="1">E64</f>
         <v>0</v>
@@ -3255,13 +3277,13 @@
       <c r="J64" s="35"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="90"/>
+      <c r="A65" s="123"/>
       <c r="B65" s="24">
         <v>41639</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
+      <c r="E65" s="158"/>
       <c r="F65" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3272,13 +3294,13 @@
       <c r="J65" s="35"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="90"/>
+      <c r="A66" s="123"/>
       <c r="B66" s="24">
         <v>41640</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
+      <c r="E66" s="158"/>
       <c r="F66" s="5">
         <f t="shared" ref="F66:F97" si="2">E66</f>
         <v>0</v>
@@ -3289,13 +3311,13 @@
       <c r="J66" s="35"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="90"/>
+      <c r="A67" s="123"/>
       <c r="B67" s="24">
         <v>41641</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
+      <c r="E67" s="158"/>
       <c r="F67" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3306,13 +3328,13 @@
       <c r="J67" s="35"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="91"/>
+      <c r="A68" s="124"/>
       <c r="B68" s="24">
         <v>41642</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
+      <c r="E68" s="158"/>
       <c r="F68" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3323,7 +3345,7 @@
       <c r="J68" s="35"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="92">
+      <c r="A69" s="119">
         <v>10</v>
       </c>
       <c r="B69" s="25">
@@ -3331,7 +3353,7 @@
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
+      <c r="E69" s="157"/>
       <c r="F69" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3342,13 +3364,13 @@
       <c r="J69" s="36"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="93"/>
+      <c r="A70" s="120"/>
       <c r="B70" s="25">
         <v>41646</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
+      <c r="E70" s="157"/>
       <c r="F70" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3359,13 +3381,13 @@
       <c r="J70" s="36"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="93"/>
+      <c r="A71" s="120"/>
       <c r="B71" s="25">
         <v>41647</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
+      <c r="E71" s="157"/>
       <c r="F71" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3376,13 +3398,13 @@
       <c r="J71" s="36"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="93"/>
+      <c r="A72" s="120"/>
       <c r="B72" s="25">
         <v>41648</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
+      <c r="E72" s="157"/>
       <c r="F72" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3393,13 +3415,13 @@
       <c r="J72" s="36"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="94"/>
+      <c r="A73" s="121"/>
       <c r="B73" s="25">
         <v>41649</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
+      <c r="E73" s="157"/>
       <c r="F73" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3410,7 +3432,7 @@
       <c r="J73" s="36"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="89">
+      <c r="A74" s="122">
         <v>11</v>
       </c>
       <c r="B74" s="24">
@@ -3418,7 +3440,7 @@
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
+      <c r="E74" s="158"/>
       <c r="F74" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3429,13 +3451,13 @@
       <c r="J74" s="35"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="90"/>
+      <c r="A75" s="123"/>
       <c r="B75" s="24">
         <v>41653</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
+      <c r="E75" s="158"/>
       <c r="F75" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3446,13 +3468,13 @@
       <c r="J75" s="35"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="90"/>
+      <c r="A76" s="123"/>
       <c r="B76" s="24">
         <v>41654</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
+      <c r="E76" s="158"/>
       <c r="F76" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3463,13 +3485,13 @@
       <c r="J76" s="35"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="90"/>
+      <c r="A77" s="123"/>
       <c r="B77" s="24">
         <v>41655</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
+      <c r="E77" s="158"/>
       <c r="F77" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3480,13 +3502,13 @@
       <c r="J77" s="35"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="91"/>
+      <c r="A78" s="124"/>
       <c r="B78" s="24">
         <v>41656</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
+      <c r="E78" s="158"/>
       <c r="F78" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3497,7 +3519,7 @@
       <c r="J78" s="35"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="92">
+      <c r="A79" s="119">
         <v>12</v>
       </c>
       <c r="B79" s="25">
@@ -3505,7 +3527,7 @@
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
+      <c r="E79" s="157"/>
       <c r="F79" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3516,13 +3538,13 @@
       <c r="J79" s="36"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="93"/>
+      <c r="A80" s="120"/>
       <c r="B80" s="25">
         <v>41660</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
+      <c r="E80" s="157"/>
       <c r="F80" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3533,13 +3555,13 @@
       <c r="J80" s="36"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="93"/>
+      <c r="A81" s="120"/>
       <c r="B81" s="25">
         <v>41661</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
+      <c r="E81" s="157"/>
       <c r="F81" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3550,13 +3572,13 @@
       <c r="J81" s="36"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="93"/>
+      <c r="A82" s="120"/>
       <c r="B82" s="25">
         <v>41662</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
+      <c r="E82" s="157"/>
       <c r="F82" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3567,13 +3589,13 @@
       <c r="J82" s="36"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="94"/>
+      <c r="A83" s="121"/>
       <c r="B83" s="25">
         <v>41663</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
+      <c r="E83" s="157"/>
       <c r="F83" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3584,7 +3606,7 @@
       <c r="J83" s="36"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="89">
+      <c r="A84" s="122">
         <v>13</v>
       </c>
       <c r="B84" s="24">
@@ -3592,7 +3614,7 @@
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
+      <c r="E84" s="158"/>
       <c r="F84" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3605,13 +3627,13 @@
       <c r="J84" s="35"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="90"/>
+      <c r="A85" s="123"/>
       <c r="B85" s="24">
         <v>41667</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
+      <c r="E85" s="158"/>
       <c r="F85" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3624,13 +3646,13 @@
       <c r="J85" s="35"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="90"/>
+      <c r="A86" s="123"/>
       <c r="B86" s="24">
         <v>41668</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
+      <c r="E86" s="158"/>
       <c r="F86" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3643,13 +3665,13 @@
       <c r="J86" s="35"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="90"/>
+      <c r="A87" s="123"/>
       <c r="B87" s="24">
         <v>41669</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
+      <c r="E87" s="158"/>
       <c r="F87" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3662,13 +3684,13 @@
       <c r="J87" s="35"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="91"/>
+      <c r="A88" s="124"/>
       <c r="B88" s="24">
         <v>41670</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
+      <c r="E88" s="158"/>
       <c r="F88" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3681,7 +3703,7 @@
       <c r="J88" s="35"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="92">
+      <c r="A89" s="119">
         <v>14</v>
       </c>
       <c r="B89" s="25">
@@ -3689,7 +3711,7 @@
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
+      <c r="E89" s="157"/>
       <c r="F89" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3702,13 +3724,13 @@
       <c r="J89" s="36"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="93"/>
+      <c r="A90" s="120"/>
       <c r="B90" s="25">
         <v>41674</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
+      <c r="E90" s="157"/>
       <c r="F90" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3721,13 +3743,13 @@
       <c r="J90" s="36"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="93"/>
+      <c r="A91" s="120"/>
       <c r="B91" s="25">
         <v>41675</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
+      <c r="E91" s="157"/>
       <c r="F91" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3740,13 +3762,13 @@
       <c r="J91" s="36"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="93"/>
+      <c r="A92" s="120"/>
       <c r="B92" s="25">
         <v>41676</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
+      <c r="E92" s="157"/>
       <c r="F92" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3759,13 +3781,13 @@
       <c r="J92" s="36"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="94"/>
+      <c r="A93" s="121"/>
       <c r="B93" s="25">
         <v>41677</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
+      <c r="E93" s="157"/>
       <c r="F93" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3778,7 +3800,7 @@
       <c r="J93" s="36"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="89">
+      <c r="A94" s="122">
         <v>15</v>
       </c>
       <c r="B94" s="24">
@@ -3786,7 +3808,7 @@
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
+      <c r="E94" s="158"/>
       <c r="F94" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3797,13 +3819,13 @@
       <c r="J94" s="35"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="90"/>
+      <c r="A95" s="123"/>
       <c r="B95" s="24">
         <v>41681</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
+      <c r="E95" s="158"/>
       <c r="F95" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3814,13 +3836,13 @@
       <c r="J95" s="35"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="90"/>
+      <c r="A96" s="123"/>
       <c r="B96" s="24">
         <v>41682</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
+      <c r="E96" s="158"/>
       <c r="F96" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3831,13 +3853,13 @@
       <c r="J96" s="35"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="90"/>
+      <c r="A97" s="123"/>
       <c r="B97" s="24">
         <v>41683</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
+      <c r="E97" s="158"/>
       <c r="F97" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3848,13 +3870,13 @@
       <c r="J97" s="35"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="91"/>
+      <c r="A98" s="124"/>
       <c r="B98" s="24">
         <v>41684</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
+      <c r="E98" s="158"/>
       <c r="F98" s="5">
         <f t="shared" ref="F98:F129" si="3">E98</f>
         <v>0</v>
@@ -3865,7 +3887,7 @@
       <c r="J98" s="35"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="92">
+      <c r="A99" s="119">
         <v>16</v>
       </c>
       <c r="B99" s="25">
@@ -3873,7 +3895,7 @@
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
+      <c r="E99" s="157"/>
       <c r="F99" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3884,13 +3906,13 @@
       <c r="J99" s="36"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="93"/>
+      <c r="A100" s="120"/>
       <c r="B100" s="25">
         <v>41688</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
+      <c r="E100" s="157"/>
       <c r="F100" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3901,13 +3923,13 @@
       <c r="J100" s="36"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="93"/>
+      <c r="A101" s="120"/>
       <c r="B101" s="25">
         <v>41689</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
+      <c r="E101" s="157"/>
       <c r="F101" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3918,13 +3940,13 @@
       <c r="J101" s="36"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="93"/>
+      <c r="A102" s="120"/>
       <c r="B102" s="25">
         <v>41690</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
+      <c r="E102" s="157"/>
       <c r="F102" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3935,13 +3957,13 @@
       <c r="J102" s="36"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="94"/>
+      <c r="A103" s="121"/>
       <c r="B103" s="25">
         <v>41691</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
+      <c r="E103" s="157"/>
       <c r="F103" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3952,7 +3974,7 @@
       <c r="J103" s="36"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="89">
+      <c r="A104" s="122">
         <v>17</v>
       </c>
       <c r="B104" s="24">
@@ -3960,7 +3982,7 @@
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
+      <c r="E104" s="158"/>
       <c r="F104" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3971,13 +3993,13 @@
       <c r="J104" s="35"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="90"/>
+      <c r="A105" s="123"/>
       <c r="B105" s="24">
         <v>41695</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
+      <c r="E105" s="158"/>
       <c r="F105" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3988,13 +4010,13 @@
       <c r="J105" s="35"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="90"/>
+      <c r="A106" s="123"/>
       <c r="B106" s="24">
         <v>41696</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
+      <c r="E106" s="158"/>
       <c r="F106" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4005,13 +4027,13 @@
       <c r="J106" s="35"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="90"/>
+      <c r="A107" s="123"/>
       <c r="B107" s="24">
         <v>41697</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
+      <c r="E107" s="158"/>
       <c r="F107" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4022,13 +4044,13 @@
       <c r="J107" s="35"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="91"/>
+      <c r="A108" s="124"/>
       <c r="B108" s="24">
         <v>41698</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
+      <c r="E108" s="158"/>
       <c r="F108" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4039,7 +4061,7 @@
       <c r="J108" s="35"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="92">
+      <c r="A109" s="119">
         <v>18</v>
       </c>
       <c r="B109" s="25">
@@ -4047,7 +4069,7 @@
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
+      <c r="E109" s="157"/>
       <c r="F109" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4058,13 +4080,13 @@
       <c r="J109" s="36"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="93"/>
+      <c r="A110" s="120"/>
       <c r="B110" s="25">
         <v>41702</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
+      <c r="E110" s="157"/>
       <c r="F110" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4075,13 +4097,13 @@
       <c r="J110" s="36"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="93"/>
+      <c r="A111" s="120"/>
       <c r="B111" s="25">
         <v>41703</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
+      <c r="E111" s="157"/>
       <c r="F111" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4092,13 +4114,13 @@
       <c r="J111" s="36"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="93"/>
+      <c r="A112" s="120"/>
       <c r="B112" s="25">
         <v>41704</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
+      <c r="E112" s="157"/>
       <c r="F112" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4109,13 +4131,13 @@
       <c r="J112" s="36"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="94"/>
+      <c r="A113" s="121"/>
       <c r="B113" s="25">
         <v>41705</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
+      <c r="E113" s="157"/>
       <c r="F113" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4126,7 +4148,7 @@
       <c r="J113" s="36"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="89">
+      <c r="A114" s="122">
         <v>19</v>
       </c>
       <c r="B114" s="24">
@@ -4134,7 +4156,7 @@
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
+      <c r="E114" s="158"/>
       <c r="F114" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4145,13 +4167,13 @@
       <c r="J114" s="35"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="90"/>
+      <c r="A115" s="123"/>
       <c r="B115" s="24">
         <v>41709</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
+      <c r="E115" s="158"/>
       <c r="F115" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4162,13 +4184,13 @@
       <c r="J115" s="35"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="90"/>
+      <c r="A116" s="123"/>
       <c r="B116" s="24">
         <v>41710</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
+      <c r="E116" s="158"/>
       <c r="F116" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4179,13 +4201,13 @@
       <c r="J116" s="35"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="90"/>
+      <c r="A117" s="123"/>
       <c r="B117" s="24">
         <v>41711</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
+      <c r="E117" s="158"/>
       <c r="F117" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4196,13 +4218,13 @@
       <c r="J117" s="35"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="91"/>
+      <c r="A118" s="124"/>
       <c r="B118" s="24">
         <v>41712</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
+      <c r="E118" s="158"/>
       <c r="F118" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4213,7 +4235,7 @@
       <c r="J118" s="35"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="92">
+      <c r="A119" s="119">
         <v>20</v>
       </c>
       <c r="B119" s="25">
@@ -4221,7 +4243,7 @@
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
+      <c r="E119" s="157"/>
       <c r="F119" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4232,13 +4254,13 @@
       <c r="J119" s="36"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="93"/>
+      <c r="A120" s="120"/>
       <c r="B120" s="25">
         <v>41716</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
+      <c r="E120" s="157"/>
       <c r="F120" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4249,13 +4271,13 @@
       <c r="J120" s="36"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="93"/>
+      <c r="A121" s="120"/>
       <c r="B121" s="25">
         <v>41717</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
+      <c r="E121" s="157"/>
       <c r="F121" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4266,13 +4288,13 @@
       <c r="J121" s="36"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="93"/>
+      <c r="A122" s="120"/>
       <c r="B122" s="25">
         <v>41718</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
+      <c r="E122" s="157"/>
       <c r="F122" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4283,13 +4305,13 @@
       <c r="J122" s="36"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="94"/>
+      <c r="A123" s="121"/>
       <c r="B123" s="25">
         <v>41719</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
+      <c r="E123" s="157"/>
       <c r="F123" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4300,7 +4322,7 @@
       <c r="J123" s="36"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="89">
+      <c r="A124" s="122">
         <v>21</v>
       </c>
       <c r="B124" s="24">
@@ -4308,7 +4330,7 @@
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
+      <c r="E124" s="158"/>
       <c r="F124" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4319,13 +4341,13 @@
       <c r="J124" s="35"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="90"/>
+      <c r="A125" s="123"/>
       <c r="B125" s="24">
         <v>41723</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
+      <c r="E125" s="158"/>
       <c r="F125" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4336,13 +4358,13 @@
       <c r="J125" s="35"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="90"/>
+      <c r="A126" s="123"/>
       <c r="B126" s="24">
         <v>41724</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
+      <c r="E126" s="158"/>
       <c r="F126" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4353,13 +4375,13 @@
       <c r="J126" s="35"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="90"/>
+      <c r="A127" s="123"/>
       <c r="B127" s="24">
         <v>41725</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
+      <c r="E127" s="158"/>
       <c r="F127" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4370,13 +4392,13 @@
       <c r="J127" s="35"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="91"/>
+      <c r="A128" s="124"/>
       <c r="B128" s="24">
         <v>41726</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
+      <c r="E128" s="158"/>
       <c r="F128" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4387,7 +4409,7 @@
       <c r="J128" s="35"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="92">
+      <c r="A129" s="119">
         <v>22</v>
       </c>
       <c r="B129" s="25">
@@ -4395,7 +4417,7 @@
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
+      <c r="E129" s="157"/>
       <c r="F129" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4406,13 +4428,13 @@
       <c r="J129" s="36"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="93"/>
+      <c r="A130" s="120"/>
       <c r="B130" s="25">
         <v>41730</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
+      <c r="E130" s="157"/>
       <c r="F130" s="6">
         <f t="shared" ref="F130:F161" si="4">E130</f>
         <v>0</v>
@@ -4423,13 +4445,13 @@
       <c r="J130" s="36"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="93"/>
+      <c r="A131" s="120"/>
       <c r="B131" s="25">
         <v>41731</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
+      <c r="E131" s="157"/>
       <c r="F131" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4440,13 +4462,13 @@
       <c r="J131" s="36"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="93"/>
+      <c r="A132" s="120"/>
       <c r="B132" s="25">
         <v>41732</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
+      <c r="E132" s="157"/>
       <c r="F132" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4457,13 +4479,13 @@
       <c r="J132" s="36"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="94"/>
+      <c r="A133" s="121"/>
       <c r="B133" s="25">
         <v>41733</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
+      <c r="E133" s="157"/>
       <c r="F133" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4474,7 +4496,7 @@
       <c r="J133" s="36"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="89">
+      <c r="A134" s="122">
         <v>23</v>
       </c>
       <c r="B134" s="24">
@@ -4482,7 +4504,7 @@
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
+      <c r="E134" s="158"/>
       <c r="F134" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4493,13 +4515,13 @@
       <c r="J134" s="35"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="90"/>
+      <c r="A135" s="123"/>
       <c r="B135" s="24">
         <v>41737</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
+      <c r="E135" s="158"/>
       <c r="F135" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4510,13 +4532,13 @@
       <c r="J135" s="35"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="90"/>
+      <c r="A136" s="123"/>
       <c r="B136" s="24">
         <v>41738</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
+      <c r="E136" s="158"/>
       <c r="F136" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4527,13 +4549,13 @@
       <c r="J136" s="35"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="90"/>
+      <c r="A137" s="123"/>
       <c r="B137" s="24">
         <v>41739</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
+      <c r="E137" s="158"/>
       <c r="F137" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4544,13 +4566,13 @@
       <c r="J137" s="35"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="91"/>
+      <c r="A138" s="124"/>
       <c r="B138" s="24">
         <v>41740</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
+      <c r="E138" s="158"/>
       <c r="F138" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4561,7 +4583,7 @@
       <c r="J138" s="35"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="92">
+      <c r="A139" s="119">
         <v>24</v>
       </c>
       <c r="B139" s="25">
@@ -4569,7 +4591,7 @@
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
+      <c r="E139" s="157"/>
       <c r="F139" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4580,13 +4602,13 @@
       <c r="J139" s="36"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="93"/>
+      <c r="A140" s="120"/>
       <c r="B140" s="25">
         <v>41744</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
+      <c r="E140" s="157"/>
       <c r="F140" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4597,13 +4619,13 @@
       <c r="J140" s="36"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="93"/>
+      <c r="A141" s="120"/>
       <c r="B141" s="25">
         <v>41745</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
+      <c r="E141" s="157"/>
       <c r="F141" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4614,13 +4636,13 @@
       <c r="J141" s="36"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="93"/>
+      <c r="A142" s="120"/>
       <c r="B142" s="25">
         <v>41746</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
+      <c r="E142" s="157"/>
       <c r="F142" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4631,13 +4653,13 @@
       <c r="J142" s="36"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="94"/>
+      <c r="A143" s="121"/>
       <c r="B143" s="25">
         <v>41747</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
+      <c r="E143" s="157"/>
       <c r="F143" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4648,7 +4670,7 @@
       <c r="J143" s="36"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="89">
+      <c r="A144" s="122">
         <v>25</v>
       </c>
       <c r="B144" s="24">
@@ -4656,7 +4678,7 @@
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
+      <c r="E144" s="158"/>
       <c r="F144" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4667,13 +4689,13 @@
       <c r="J144" s="35"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="90"/>
+      <c r="A145" s="123"/>
       <c r="B145" s="24">
         <v>41751</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
+      <c r="E145" s="158"/>
       <c r="F145" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4684,13 +4706,13 @@
       <c r="J145" s="35"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="90"/>
+      <c r="A146" s="123"/>
       <c r="B146" s="24">
         <v>41752</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
+      <c r="E146" s="158"/>
       <c r="F146" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4701,13 +4723,13 @@
       <c r="J146" s="35"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="90"/>
+      <c r="A147" s="123"/>
       <c r="B147" s="24">
         <v>41753</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
+      <c r="E147" s="158"/>
       <c r="F147" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4718,13 +4740,13 @@
       <c r="J147" s="35"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="91"/>
+      <c r="A148" s="124"/>
       <c r="B148" s="24">
         <v>41754</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
+      <c r="E148" s="158"/>
       <c r="F148" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4735,7 +4757,7 @@
       <c r="J148" s="35"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="92">
+      <c r="A149" s="119">
         <v>26</v>
       </c>
       <c r="B149" s="25">
@@ -4743,7 +4765,7 @@
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
+      <c r="E149" s="157"/>
       <c r="F149" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4754,13 +4776,13 @@
       <c r="J149" s="36"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="93"/>
+      <c r="A150" s="120"/>
       <c r="B150" s="25">
         <v>41758</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
+      <c r="E150" s="157"/>
       <c r="F150" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4771,13 +4793,13 @@
       <c r="J150" s="36"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="93"/>
+      <c r="A151" s="120"/>
       <c r="B151" s="25">
         <v>41759</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
+      <c r="E151" s="157"/>
       <c r="F151" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4788,13 +4810,13 @@
       <c r="J151" s="36"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="93"/>
+      <c r="A152" s="120"/>
       <c r="B152" s="25">
         <v>41760</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
+      <c r="E152" s="157"/>
       <c r="F152" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4805,13 +4827,13 @@
       <c r="J152" s="36"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="94"/>
+      <c r="A153" s="121"/>
       <c r="B153" s="25">
         <v>41761</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
+      <c r="E153" s="157"/>
       <c r="F153" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4822,7 +4844,7 @@
       <c r="J153" s="36"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="89">
+      <c r="A154" s="122">
         <v>27</v>
       </c>
       <c r="B154" s="24">
@@ -4830,7 +4852,7 @@
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
+      <c r="E154" s="158"/>
       <c r="F154" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4841,13 +4863,13 @@
       <c r="J154" s="35"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="90"/>
+      <c r="A155" s="123"/>
       <c r="B155" s="24">
         <v>41765</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
+      <c r="E155" s="158"/>
       <c r="F155" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4858,13 +4880,13 @@
       <c r="J155" s="35"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="90"/>
+      <c r="A156" s="123"/>
       <c r="B156" s="24">
         <v>41766</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
+      <c r="E156" s="158"/>
       <c r="F156" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4875,13 +4897,13 @@
       <c r="J156" s="35"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="90"/>
+      <c r="A157" s="123"/>
       <c r="B157" s="24">
         <v>41767</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
+      <c r="E157" s="158"/>
       <c r="F157" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4892,13 +4914,13 @@
       <c r="J157" s="35"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="91"/>
+      <c r="A158" s="124"/>
       <c r="B158" s="24">
         <v>41768</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
+      <c r="E158" s="158"/>
       <c r="F158" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4909,7 +4931,7 @@
       <c r="J158" s="35"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="92">
+      <c r="A159" s="119">
         <v>28</v>
       </c>
       <c r="B159" s="25">
@@ -4917,7 +4939,7 @@
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
+      <c r="E159" s="157"/>
       <c r="F159" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4928,13 +4950,13 @@
       <c r="J159" s="36"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="93"/>
+      <c r="A160" s="120"/>
       <c r="B160" s="25">
         <v>41772</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
+      <c r="E160" s="157"/>
       <c r="F160" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4945,13 +4967,13 @@
       <c r="J160" s="36"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="93"/>
+      <c r="A161" s="120"/>
       <c r="B161" s="25">
         <v>41773</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
+      <c r="E161" s="157"/>
       <c r="F161" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4962,13 +4984,13 @@
       <c r="J161" s="36"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="93"/>
+      <c r="A162" s="120"/>
       <c r="B162" s="25">
         <v>41774</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
+      <c r="E162" s="157"/>
       <c r="F162" s="6">
         <f t="shared" ref="F162:F173" si="5">E162</f>
         <v>0</v>
@@ -4979,13 +5001,13 @@
       <c r="J162" s="36"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="94"/>
+      <c r="A163" s="121"/>
       <c r="B163" s="25">
         <v>41775</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
+      <c r="E163" s="157"/>
       <c r="F163" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4996,7 +5018,7 @@
       <c r="J163" s="36"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="89">
+      <c r="A164" s="122">
         <v>29</v>
       </c>
       <c r="B164" s="24">
@@ -5004,7 +5026,7 @@
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
+      <c r="E164" s="158"/>
       <c r="F164" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5015,13 +5037,13 @@
       <c r="J164" s="35"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="90"/>
+      <c r="A165" s="123"/>
       <c r="B165" s="24">
         <v>41779</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
+      <c r="E165" s="158"/>
       <c r="F165" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5032,13 +5054,13 @@
       <c r="J165" s="35"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="90"/>
+      <c r="A166" s="123"/>
       <c r="B166" s="24">
         <v>41780</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
+      <c r="E166" s="158"/>
       <c r="F166" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5049,13 +5071,13 @@
       <c r="J166" s="35"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="90"/>
+      <c r="A167" s="123"/>
       <c r="B167" s="24">
         <v>41781</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
+      <c r="E167" s="158"/>
       <c r="F167" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5066,13 +5088,13 @@
       <c r="J167" s="35"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="91"/>
+      <c r="A168" s="124"/>
       <c r="B168" s="24">
         <v>41782</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
+      <c r="E168" s="158"/>
       <c r="F168" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5083,7 +5105,7 @@
       <c r="J168" s="35"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="95">
+      <c r="A169" s="150">
         <v>30</v>
       </c>
       <c r="B169" s="25">
@@ -5091,7 +5113,7 @@
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
+      <c r="E169" s="159"/>
       <c r="F169" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5102,13 +5124,13 @@
       <c r="J169" s="37"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="96"/>
+      <c r="A170" s="151"/>
       <c r="B170" s="25">
         <v>41786</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
+      <c r="E170" s="159"/>
       <c r="F170" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5119,13 +5141,13 @@
       <c r="J170" s="37"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="96"/>
+      <c r="A171" s="151"/>
       <c r="B171" s="25">
         <v>41787</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
+      <c r="E171" s="159"/>
       <c r="F171" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5136,13 +5158,13 @@
       <c r="J171" s="37"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="96"/>
+      <c r="A172" s="151"/>
       <c r="B172" s="25">
         <v>41788</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
+      <c r="E172" s="159"/>
       <c r="F172" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5153,13 +5175,13 @@
       <c r="J172" s="37"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="97"/>
+      <c r="A173" s="152"/>
       <c r="B173" s="25">
         <v>41789</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
+      <c r="E173" s="159"/>
       <c r="F173" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5171,6 +5193,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A159:A163"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="A169:A173"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A17:A29"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A42:A48"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="B37:B39"/>
@@ -5187,54 +5257,6 @@
     <mergeCell ref="F30:F33"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A17:A29"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A159:A163"/>
-    <mergeCell ref="A164:A168"/>
-    <mergeCell ref="A169:A173"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
+++ b/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
@@ -636,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -802,9 +802,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -812,12 +809,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="18" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -837,6 +828,42 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -849,6 +876,114 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -909,21 +1044,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -939,12 +1059,6 @@
     <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -953,132 +1067,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1477,11 +1465,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="6" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1478,7 @@
     <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="160" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="84" customWidth="1"/>
     <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46.375" style="1" customWidth="1"/>
@@ -1503,81 +1491,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="86"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="88"/>
+      <c r="A1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="133"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="89" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="91"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="136"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="94"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="139"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="134"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="97"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="142"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="143"/>
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="145"/>
+      <c r="A5" s="124"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="126"/>
       <c r="F5" s="16"/>
       <c r="H5" s="39" t="s">
         <v>51</v>
@@ -1604,7 +1592,7 @@
       <c r="D6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="153" t="s">
+      <c r="E6" s="77" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="28" t="s">
@@ -1622,16 +1610,16 @@
       <c r="J6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101">
+      <c r="A7" s="146">
         <v>1</v>
       </c>
-      <c r="B7" s="137">
+      <c r="B7" s="118">
         <v>41586</v>
       </c>
       <c r="C7" s="17">
@@ -1643,7 +1631,7 @@
       <c r="E7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="140">
+      <c r="F7" s="121">
         <f>SUM(E7:E9)</f>
         <v>2</v>
       </c>
@@ -1666,8 +1654,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="102"/>
-      <c r="B8" s="138"/>
+      <c r="A8" s="147"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1677,7 +1665,7 @@
       <c r="E8" s="18">
         <v>0.5</v>
       </c>
-      <c r="F8" s="141"/>
+      <c r="F8" s="122"/>
       <c r="G8" s="19" t="s">
         <v>20</v>
       </c>
@@ -1690,8 +1678,8 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
-      <c r="B9" s="139"/>
+      <c r="A9" s="148"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="17">
         <v>0.83333333333333337</v>
       </c>
@@ -1701,7 +1689,7 @@
       <c r="E9" s="18">
         <v>1.5</v>
       </c>
-      <c r="F9" s="142"/>
+      <c r="F9" s="123"/>
       <c r="G9" s="41" t="s">
         <v>25</v>
       </c>
@@ -1712,10 +1700,10 @@
       <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="116">
+      <c r="A10" s="154">
         <v>2</v>
       </c>
-      <c r="B10" s="99">
+      <c r="B10" s="144">
         <v>41589</v>
       </c>
       <c r="C10" s="46">
@@ -1727,7 +1715,7 @@
       <c r="E10" s="47">
         <v>1.5</v>
       </c>
-      <c r="F10" s="109">
+      <c r="F10" s="149">
         <f>SUM(E10:E11)</f>
         <v>3.5</v>
       </c>
@@ -1741,8 +1729,8 @@
       <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:15" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="117"/>
-      <c r="B11" s="100"/>
+      <c r="A11" s="155"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="46">
         <v>0.875</v>
       </c>
@@ -1752,7 +1740,7 @@
       <c r="E11" s="47">
         <v>2</v>
       </c>
-      <c r="F11" s="110"/>
+      <c r="F11" s="150"/>
       <c r="G11" s="56" t="s">
         <v>25</v>
       </c>
@@ -1763,8 +1751,8 @@
       <c r="J11" s="48"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="117"/>
-      <c r="B12" s="114">
+      <c r="A12" s="155"/>
+      <c r="B12" s="106">
         <v>41590</v>
       </c>
       <c r="C12" s="21">
@@ -1776,7 +1764,7 @@
       <c r="E12" s="22">
         <v>2.25</v>
       </c>
-      <c r="F12" s="107">
+      <c r="F12" s="102">
         <f>SUM(E12:E13)</f>
         <v>3.5</v>
       </c>
@@ -1802,8 +1790,8 @@
       <c r="O12" s="30"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
-      <c r="B13" s="115"/>
+      <c r="A13" s="155"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="21">
         <v>0.86458333333333337</v>
       </c>
@@ -1813,7 +1801,7 @@
       <c r="E13" s="22">
         <v>1.25</v>
       </c>
-      <c r="F13" s="108"/>
+      <c r="F13" s="103"/>
       <c r="G13" s="56" t="s">
         <v>25</v>
       </c>
@@ -1829,8 +1817,8 @@
       <c r="O13" s="30"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
-      <c r="B14" s="114">
+      <c r="A14" s="155"/>
+      <c r="B14" s="106">
         <v>41592</v>
       </c>
       <c r="C14" s="23">
@@ -1842,7 +1830,7 @@
       <c r="E14" s="26">
         <v>1.5</v>
       </c>
-      <c r="F14" s="107">
+      <c r="F14" s="102">
         <f>SUM(E14:E15)</f>
         <v>2</v>
       </c>
@@ -1860,8 +1848,8 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
-      <c r="B15" s="115"/>
+      <c r="A15" s="155"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="23">
         <v>0.9375</v>
       </c>
@@ -1871,7 +1859,7 @@
       <c r="E15" s="26">
         <v>0.5</v>
       </c>
-      <c r="F15" s="108"/>
+      <c r="F15" s="103"/>
       <c r="G15" s="56" t="s">
         <v>17</v>
       </c>
@@ -1886,7 +1874,7 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="118"/>
+      <c r="A16" s="156"/>
       <c r="B16" s="40">
         <v>41593</v>
       </c>
@@ -1924,10 +1912,10 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="125">
+      <c r="A17" s="93">
         <v>3</v>
       </c>
-      <c r="B17" s="104">
+      <c r="B17" s="85">
         <v>41596</v>
       </c>
       <c r="C17" s="44">
@@ -1939,7 +1927,7 @@
       <c r="E17" s="42">
         <v>1</v>
       </c>
-      <c r="F17" s="107">
+      <c r="F17" s="102">
         <f>SUM(E17:E19)</f>
         <v>3.5</v>
       </c>
@@ -1964,8 +1952,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="125"/>
-      <c r="B18" s="106"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="44">
         <v>0.75</v>
       </c>
@@ -1975,7 +1963,7 @@
       <c r="E18" s="42">
         <v>1.5</v>
       </c>
-      <c r="F18" s="146"/>
+      <c r="F18" s="104"/>
       <c r="G18" s="41" t="s">
         <v>18</v>
       </c>
@@ -1992,8 +1980,8 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="125"/>
-      <c r="B19" s="105"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="44">
         <v>0.89583333333333337</v>
       </c>
@@ -2003,7 +1991,7 @@
       <c r="E19" s="42">
         <v>1</v>
       </c>
-      <c r="F19" s="108"/>
+      <c r="F19" s="103"/>
       <c r="G19" s="41" t="s">
         <v>25</v>
       </c>
@@ -2018,8 +2006,8 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="125"/>
-      <c r="B20" s="104">
+      <c r="A20" s="94"/>
+      <c r="B20" s="85">
         <v>41597</v>
       </c>
       <c r="C20" s="44">
@@ -2031,7 +2019,7 @@
       <c r="E20" s="42">
         <v>1.5</v>
       </c>
-      <c r="F20" s="107">
+      <c r="F20" s="102">
         <f>SUM(E20:E21)</f>
         <v>3</v>
       </c>
@@ -2049,8 +2037,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="125"/>
-      <c r="B21" s="105"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="44">
         <v>0.8125</v>
       </c>
@@ -2060,7 +2048,7 @@
       <c r="E21" s="42">
         <v>1.5</v>
       </c>
-      <c r="F21" s="108"/>
+      <c r="F21" s="103"/>
       <c r="G21" s="41" t="s">
         <v>18</v>
       </c>
@@ -2082,8 +2070,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="125"/>
-      <c r="B22" s="104">
+      <c r="A22" s="94"/>
+      <c r="B22" s="85">
         <v>41599</v>
       </c>
       <c r="C22" s="44">
@@ -2095,7 +2083,7 @@
       <c r="E22" s="42">
         <v>3</v>
       </c>
-      <c r="F22" s="107">
+      <c r="F22" s="102">
         <f>SUM(E22:E26)</f>
         <v>8.15</v>
       </c>
@@ -2113,8 +2101,8 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="125"/>
-      <c r="B23" s="106"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="44">
         <v>0.375</v>
       </c>
@@ -2124,7 +2112,7 @@
       <c r="E23" s="42">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F23" s="146"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="61" t="s">
         <v>20</v>
       </c>
@@ -2139,8 +2127,8 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="125"/>
-      <c r="B24" s="106"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="105"/>
       <c r="C24" s="44">
         <v>0.4236111111111111</v>
       </c>
@@ -2150,7 +2138,7 @@
       <c r="E24" s="42">
         <v>1.33</v>
       </c>
-      <c r="F24" s="146"/>
+      <c r="F24" s="104"/>
       <c r="G24" s="41" t="s">
         <v>16</v>
       </c>
@@ -2165,8 +2153,8 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="125"/>
-      <c r="B25" s="106"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="44">
         <v>0.58333333333333337</v>
       </c>
@@ -2176,7 +2164,7 @@
       <c r="E25" s="42">
         <v>0.5</v>
       </c>
-      <c r="F25" s="146"/>
+      <c r="F25" s="104"/>
       <c r="G25" s="41" t="s">
         <v>18</v>
       </c>
@@ -2191,8 +2179,8 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="125"/>
-      <c r="B26" s="105"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="65">
         <v>0.625</v>
       </c>
@@ -2202,7 +2190,7 @@
       <c r="E26" s="42">
         <v>2.16</v>
       </c>
-      <c r="F26" s="108"/>
+      <c r="F26" s="103"/>
       <c r="G26" s="41" t="s">
         <v>16</v>
       </c>
@@ -2224,8 +2212,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="125"/>
-      <c r="B27" s="104">
+      <c r="A27" s="94"/>
+      <c r="B27" s="85">
         <v>41600</v>
       </c>
       <c r="C27" s="65">
@@ -2237,7 +2225,7 @@
       <c r="E27" s="18">
         <v>1.25</v>
       </c>
-      <c r="F27" s="147">
+      <c r="F27" s="87">
         <f>SUM(E27:E29)</f>
         <v>4</v>
       </c>
@@ -2247,7 +2235,7 @@
       <c r="H27" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="68" t="s">
+      <c r="I27" s="67" t="s">
         <v>71</v>
       </c>
       <c r="J27" s="35"/>
@@ -2257,8 +2245,8 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="125"/>
-      <c r="B28" s="106"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="105"/>
       <c r="C28" s="65">
         <v>0.5625</v>
       </c>
@@ -2268,8 +2256,8 @@
       <c r="E28" s="18">
         <v>1.25</v>
       </c>
-      <c r="F28" s="148"/>
-      <c r="G28" s="69" t="s">
+      <c r="F28" s="108"/>
+      <c r="G28" s="68" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="27"/>
@@ -2281,19 +2269,19 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="125"/>
-      <c r="B29" s="105"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="65">
         <v>0.625</v>
       </c>
       <c r="D29" s="65">
         <v>0.6875</v>
       </c>
-      <c r="E29" s="154">
+      <c r="E29" s="78">
         <v>1.5</v>
       </c>
-      <c r="F29" s="149"/>
-      <c r="G29" s="69" t="s">
+      <c r="F29" s="88"/>
+      <c r="G29" s="68" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="27" t="s">
@@ -2314,8 +2302,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="104">
+      <c r="A30" s="94"/>
+      <c r="B30" s="85">
         <v>41601</v>
       </c>
       <c r="C30" s="65">
@@ -2324,14 +2312,14 @@
       <c r="D30" s="65">
         <v>0.375</v>
       </c>
-      <c r="E30" s="154">
+      <c r="E30" s="78">
         <v>0.5</v>
       </c>
-      <c r="F30" s="111">
+      <c r="F30" s="151">
         <f>SUM(E30:E33)</f>
         <v>2</v>
       </c>
-      <c r="G30" s="69" t="s">
+      <c r="G30" s="68" t="s">
         <v>18</v>
       </c>
       <c r="H30" s="27" t="s">
@@ -2347,19 +2335,19 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
-      <c r="B31" s="106"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="105"/>
       <c r="C31" s="65">
         <v>0.39583333333333331</v>
       </c>
       <c r="D31" s="65">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E31" s="154">
+      <c r="E31" s="78">
         <v>0.5</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="69" t="s">
+      <c r="F31" s="152"/>
+      <c r="G31" s="68" t="s">
         <v>19</v>
       </c>
       <c r="H31" s="27" t="s">
@@ -2375,19 +2363,19 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="72"/>
-      <c r="B32" s="106"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="105"/>
       <c r="C32" s="65">
         <v>0.54166666666666663</v>
       </c>
       <c r="D32" s="65">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E32" s="154">
+      <c r="E32" s="78">
         <v>0.25</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="69" t="s">
+      <c r="F32" s="152"/>
+      <c r="G32" s="68" t="s">
         <v>16</v>
       </c>
       <c r="H32" s="27"/>
@@ -2399,19 +2387,19 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="105"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="86"/>
       <c r="C33" s="65">
         <v>0.57291666666666663</v>
       </c>
       <c r="D33" s="65">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E33" s="154">
+      <c r="E33" s="78">
         <v>0.75</v>
       </c>
-      <c r="F33" s="113"/>
-      <c r="G33" s="69" t="s">
+      <c r="F33" s="153"/>
+      <c r="G33" s="68" t="s">
         <v>19</v>
       </c>
       <c r="H33" s="27" t="s">
@@ -2427,32 +2415,32 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="119">
+      <c r="A34" s="96">
         <v>4</v>
       </c>
       <c r="B34" s="25">
         <v>41603</v>
       </c>
-      <c r="C34" s="73">
+      <c r="C34" s="70">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D34" s="73">
+      <c r="D34" s="70">
         <v>0.875</v>
       </c>
-      <c r="E34" s="155">
+      <c r="E34" s="79">
         <v>1</v>
       </c>
       <c r="F34" s="66">
         <f>E34</f>
         <v>1</v>
       </c>
-      <c r="G34" s="74" t="s">
+      <c r="G34" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="70" t="s">
+      <c r="H34" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="70"/>
+      <c r="I34" s="69"/>
       <c r="J34" s="36"/>
       <c r="K34" s="8" t="s">
         <v>33</v>
@@ -2467,30 +2455,30 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="120"/>
-      <c r="B35" s="80">
+      <c r="A35" s="97"/>
+      <c r="B35" s="89">
         <v>41604</v>
       </c>
-      <c r="C35" s="73">
+      <c r="C35" s="70">
         <v>0.375</v>
       </c>
-      <c r="D35" s="73">
+      <c r="D35" s="70">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E35" s="155">
+      <c r="E35" s="79">
         <v>2.5</v>
       </c>
-      <c r="F35" s="82">
+      <c r="F35" s="91">
         <f>SUM(E35:E36)</f>
         <v>3.5</v>
       </c>
-      <c r="G35" s="74" t="s">
+      <c r="G35" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="70" t="s">
+      <c r="H35" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="I35" s="70"/>
+      <c r="I35" s="69"/>
       <c r="J35" s="36"/>
       <c r="K35" s="8" t="s">
         <v>34</v>
@@ -2505,25 +2493,25 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="120"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="73">
+      <c r="A36" s="97"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="70">
         <v>0.5625</v>
       </c>
-      <c r="D36" s="73">
+      <c r="D36" s="70">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E36" s="155">
+      <c r="E36" s="79">
         <v>1</v>
       </c>
-      <c r="F36" s="83"/>
-      <c r="G36" s="74" t="s">
+      <c r="F36" s="92"/>
+      <c r="G36" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="77" t="s">
+      <c r="H36" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="I36" s="70"/>
+      <c r="I36" s="69"/>
       <c r="J36" s="36"/>
       <c r="K36" s="8"/>
       <c r="L36" s="6"/>
@@ -2531,30 +2519,30 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="120"/>
-      <c r="B37" s="80">
+      <c r="A37" s="97"/>
+      <c r="B37" s="89">
         <v>41605</v>
       </c>
-      <c r="C37" s="73">
+      <c r="C37" s="70">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D37" s="73">
+      <c r="D37" s="70">
         <v>0.34375</v>
       </c>
-      <c r="E37" s="155">
+      <c r="E37" s="79">
         <v>0.25</v>
       </c>
-      <c r="F37" s="82">
+      <c r="F37" s="91">
         <f>SUM(E37:E39)</f>
         <v>3.08</v>
       </c>
-      <c r="G37" s="74" t="s">
+      <c r="G37" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="70" t="s">
+      <c r="H37" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="I37" s="70" t="s">
+      <c r="I37" s="69" t="s">
         <v>76</v>
       </c>
       <c r="J37" s="36"/>
@@ -2571,25 +2559,25 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="120"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="73">
+      <c r="A38" s="97"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="70">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D38" s="73">
+      <c r="D38" s="70">
         <v>0.375</v>
       </c>
-      <c r="E38" s="155">
+      <c r="E38" s="79">
         <v>0.5</v>
       </c>
-      <c r="F38" s="85"/>
-      <c r="G38" s="74" t="s">
+      <c r="F38" s="130"/>
+      <c r="G38" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="70" t="s">
+      <c r="H38" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="I38" s="70" t="s">
+      <c r="I38" s="69" t="s">
         <v>77</v>
       </c>
       <c r="J38" s="36"/>
@@ -2599,25 +2587,25 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="120"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="73">
+      <c r="A39" s="97"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="70">
         <v>0.5625</v>
       </c>
-      <c r="D39" s="73">
+      <c r="D39" s="70">
         <v>0.65972222222222221</v>
       </c>
-      <c r="E39" s="155">
+      <c r="E39" s="79">
         <v>2.33</v>
       </c>
-      <c r="F39" s="83"/>
-      <c r="G39" s="74" t="s">
+      <c r="F39" s="92"/>
+      <c r="G39" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="70" t="s">
+      <c r="H39" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="70"/>
+      <c r="I39" s="69"/>
       <c r="J39" s="36"/>
       <c r="K39" s="8"/>
       <c r="L39" s="6"/>
@@ -2625,30 +2613,30 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="120"/>
-      <c r="B40" s="80">
+      <c r="A40" s="97"/>
+      <c r="B40" s="89">
         <v>41608</v>
       </c>
-      <c r="C40" s="73">
+      <c r="C40" s="70">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D40" s="73">
+      <c r="D40" s="70">
         <v>0.875</v>
       </c>
-      <c r="E40" s="155">
+      <c r="E40" s="79">
         <v>1</v>
       </c>
-      <c r="F40" s="82">
+      <c r="F40" s="91">
         <f>SUM(E40:E41)</f>
         <v>1.5</v>
       </c>
-      <c r="G40" s="74" t="s">
+      <c r="G40" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="70" t="s">
+      <c r="H40" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="70"/>
+      <c r="I40" s="69"/>
       <c r="J40" s="36"/>
       <c r="K40" s="8"/>
       <c r="L40" s="6"/>
@@ -2656,25 +2644,25 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="121"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="73">
+      <c r="A41" s="98"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="70">
         <v>0.875</v>
       </c>
-      <c r="D41" s="73">
+      <c r="D41" s="70">
         <v>0.89583333333333337</v>
       </c>
-      <c r="E41" s="155">
+      <c r="E41" s="79">
         <v>0.5</v>
       </c>
-      <c r="F41" s="83"/>
-      <c r="G41" s="74" t="s">
+      <c r="F41" s="92"/>
+      <c r="G41" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="70" t="s">
+      <c r="H41" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="I41" s="70" t="s">
+      <c r="I41" s="69" t="s">
         <v>87</v>
       </c>
       <c r="J41" s="36"/>
@@ -2691,8 +2679,8 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="126"/>
-      <c r="B42" s="76">
+      <c r="A42" s="127"/>
+      <c r="B42" s="73">
         <v>41610</v>
       </c>
       <c r="C42" s="59">
@@ -2701,13 +2689,13 @@
       <c r="D42" s="59">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E42" s="154">
+      <c r="E42" s="78">
         <v>1</v>
       </c>
-      <c r="F42" s="75">
+      <c r="F42" s="72">
         <v>1</v>
       </c>
-      <c r="G42" s="69" t="s">
+      <c r="G42" s="68" t="s">
         <v>17</v>
       </c>
       <c r="H42" s="27" t="s">
@@ -2721,8 +2709,8 @@
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="126"/>
-      <c r="B43" s="104">
+      <c r="A43" s="127"/>
+      <c r="B43" s="85">
         <v>41611</v>
       </c>
       <c r="C43" s="59">
@@ -2731,14 +2719,14 @@
       <c r="D43" s="59">
         <v>0.93055555555555547</v>
       </c>
-      <c r="E43" s="154">
+      <c r="E43" s="78">
         <v>1</v>
       </c>
-      <c r="F43" s="147">
+      <c r="F43" s="87">
         <f>SUM(E43:E43:E44)</f>
         <v>1.8</v>
       </c>
-      <c r="G43" s="69" t="s">
+      <c r="G43" s="68" t="s">
         <v>17</v>
       </c>
       <c r="H43" s="27" t="s">
@@ -2752,19 +2740,19 @@
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="126"/>
-      <c r="B44" s="105"/>
+      <c r="A44" s="127"/>
+      <c r="B44" s="86"/>
       <c r="C44" s="59">
         <v>0.9375</v>
       </c>
       <c r="D44" s="59">
         <v>0.97222222222222221</v>
       </c>
-      <c r="E44" s="154">
+      <c r="E44" s="78">
         <v>0.8</v>
       </c>
-      <c r="F44" s="149"/>
-      <c r="G44" s="69" t="s">
+      <c r="F44" s="88"/>
+      <c r="G44" s="68" t="s">
         <v>19</v>
       </c>
       <c r="H44" s="27" t="s">
@@ -2787,8 +2775,8 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="126"/>
-      <c r="B45" s="104">
+      <c r="A45" s="127"/>
+      <c r="B45" s="85">
         <v>41612</v>
       </c>
       <c r="C45" s="59">
@@ -2797,17 +2785,17 @@
       <c r="D45" s="59">
         <v>0.75</v>
       </c>
-      <c r="E45" s="156">
+      <c r="E45" s="80">
         <v>4.5</v>
       </c>
-      <c r="F45" s="147">
+      <c r="F45" s="87">
         <f>SUM(E45:E49)</f>
         <v>4.67</v>
       </c>
       <c r="G45" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="79" t="s">
+      <c r="H45" s="76" t="s">
         <v>90</v>
       </c>
       <c r="I45" s="27"/>
@@ -2825,22 +2813,22 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="126"/>
-      <c r="B46" s="105"/>
+      <c r="A46" s="127"/>
+      <c r="B46" s="86"/>
       <c r="C46" s="59">
         <v>0.82638888888888884</v>
       </c>
       <c r="D46" s="59">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E46" s="156">
+      <c r="E46" s="80">
         <v>0.17</v>
       </c>
-      <c r="F46" s="149"/>
+      <c r="F46" s="88"/>
       <c r="G46" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="79" t="s">
+      <c r="H46" s="76" t="s">
         <v>73</v>
       </c>
       <c r="I46" s="27" t="s">
@@ -2853,18 +2841,18 @@
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="126"/>
+      <c r="A47" s="127"/>
       <c r="B47" s="24">
         <v>41613</v>
       </c>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="154"/>
-      <c r="F47" s="75">
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="72">
         <f t="shared" ref="F47:F63" si="0">SUM(E47:E50)</f>
         <v>0</v>
       </c>
-      <c r="G47" s="69"/>
+      <c r="G47" s="68"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
       <c r="J47" s="27"/>
@@ -2881,18 +2869,18 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="127"/>
+      <c r="A48" s="128"/>
       <c r="B48" s="24">
         <v>41614</v>
       </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="154"/>
-      <c r="F48" s="75">
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" s="69"/>
+      <c r="G48" s="68"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
       <c r="J48" s="27"/>
@@ -2909,7 +2897,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="119">
+      <c r="A49" s="96">
         <v>6</v>
       </c>
       <c r="B49" s="25">
@@ -2917,7 +2905,7 @@
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="157"/>
+      <c r="E49" s="81"/>
       <c r="F49" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2939,13 +2927,13 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="120"/>
+      <c r="A50" s="97"/>
       <c r="B50" s="25">
         <v>41618</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="157"/>
+      <c r="E50" s="81"/>
       <c r="F50" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2967,13 +2955,13 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="120"/>
+      <c r="A51" s="97"/>
       <c r="B51" s="25">
         <v>41619</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="157"/>
+      <c r="E51" s="81"/>
       <c r="F51" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2995,13 +2983,13 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="120"/>
+      <c r="A52" s="97"/>
       <c r="B52" s="25">
         <v>41620</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="157"/>
+      <c r="E52" s="81"/>
       <c r="F52" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3023,13 +3011,13 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="121"/>
+      <c r="A53" s="98"/>
       <c r="B53" s="25">
         <v>41621</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="157"/>
+      <c r="E53" s="81"/>
       <c r="F53" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3051,7 +3039,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="122">
+      <c r="A54" s="93">
         <v>7</v>
       </c>
       <c r="B54" s="24">
@@ -3059,7 +3047,7 @@
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="158"/>
+      <c r="E54" s="82"/>
       <c r="F54" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3081,13 +3069,13 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="123"/>
+      <c r="A55" s="94"/>
       <c r="B55" s="24">
         <v>41625</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="158"/>
+      <c r="E55" s="82"/>
       <c r="F55" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3109,13 +3097,13 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="123"/>
+      <c r="A56" s="94"/>
       <c r="B56" s="24">
         <v>41626</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="158"/>
+      <c r="E56" s="82"/>
       <c r="F56" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3137,13 +3125,13 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="123"/>
+      <c r="A57" s="94"/>
       <c r="B57" s="24">
         <v>41627</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="158"/>
+      <c r="E57" s="82"/>
       <c r="F57" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3154,13 +3142,13 @@
       <c r="J57" s="35"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="124"/>
+      <c r="A58" s="95"/>
       <c r="B58" s="24">
         <v>41628</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="158"/>
+      <c r="E58" s="82"/>
       <c r="F58" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3171,7 +3159,7 @@
       <c r="J58" s="35"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="119">
+      <c r="A59" s="96">
         <v>8</v>
       </c>
       <c r="B59" s="25">
@@ -3179,7 +3167,7 @@
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="157"/>
+      <c r="E59" s="81"/>
       <c r="F59" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3190,13 +3178,13 @@
       <c r="J59" s="36"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="120"/>
+      <c r="A60" s="97"/>
       <c r="B60" s="25">
         <v>41632</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="157"/>
+      <c r="E60" s="81"/>
       <c r="F60" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3207,13 +3195,13 @@
       <c r="J60" s="36"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="120"/>
+      <c r="A61" s="97"/>
       <c r="B61" s="25">
         <v>41633</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="157"/>
+      <c r="E61" s="81"/>
       <c r="F61" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3224,13 +3212,13 @@
       <c r="J61" s="36"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="120"/>
+      <c r="A62" s="97"/>
       <c r="B62" s="25">
         <v>41634</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="157"/>
+      <c r="E62" s="81"/>
       <c r="F62" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3241,13 +3229,13 @@
       <c r="J62" s="36"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="121"/>
+      <c r="A63" s="98"/>
       <c r="B63" s="25">
         <v>41635</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="157"/>
+      <c r="E63" s="81"/>
       <c r="F63" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3258,7 +3246,7 @@
       <c r="J63" s="36"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="122">
+      <c r="A64" s="93">
         <v>9</v>
       </c>
       <c r="B64" s="24">
@@ -3266,7 +3254,7 @@
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="158"/>
+      <c r="E64" s="82"/>
       <c r="F64" s="5">
         <f t="shared" ref="F64:F65" si="1">E64</f>
         <v>0</v>
@@ -3277,13 +3265,13 @@
       <c r="J64" s="35"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="123"/>
+      <c r="A65" s="94"/>
       <c r="B65" s="24">
         <v>41639</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="158"/>
+      <c r="E65" s="82"/>
       <c r="F65" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3294,13 +3282,13 @@
       <c r="J65" s="35"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="123"/>
+      <c r="A66" s="94"/>
       <c r="B66" s="24">
         <v>41640</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="158"/>
+      <c r="E66" s="82"/>
       <c r="F66" s="5">
         <f t="shared" ref="F66:F97" si="2">E66</f>
         <v>0</v>
@@ -3311,13 +3299,13 @@
       <c r="J66" s="35"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="123"/>
+      <c r="A67" s="94"/>
       <c r="B67" s="24">
         <v>41641</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="158"/>
+      <c r="E67" s="82"/>
       <c r="F67" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3328,13 +3316,13 @@
       <c r="J67" s="35"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="124"/>
+      <c r="A68" s="95"/>
       <c r="B68" s="24">
         <v>41642</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="158"/>
+      <c r="E68" s="82"/>
       <c r="F68" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3345,7 +3333,7 @@
       <c r="J68" s="35"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="119">
+      <c r="A69" s="96">
         <v>10</v>
       </c>
       <c r="B69" s="25">
@@ -3353,7 +3341,7 @@
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="157"/>
+      <c r="E69" s="81"/>
       <c r="F69" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3364,13 +3352,13 @@
       <c r="J69" s="36"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="120"/>
+      <c r="A70" s="97"/>
       <c r="B70" s="25">
         <v>41646</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="157"/>
+      <c r="E70" s="81"/>
       <c r="F70" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3381,13 +3369,13 @@
       <c r="J70" s="36"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="120"/>
+      <c r="A71" s="97"/>
       <c r="B71" s="25">
         <v>41647</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="157"/>
+      <c r="E71" s="81"/>
       <c r="F71" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3398,13 +3386,13 @@
       <c r="J71" s="36"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="120"/>
+      <c r="A72" s="97"/>
       <c r="B72" s="25">
         <v>41648</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="157"/>
+      <c r="E72" s="81"/>
       <c r="F72" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3415,13 +3403,13 @@
       <c r="J72" s="36"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="121"/>
+      <c r="A73" s="98"/>
       <c r="B73" s="25">
         <v>41649</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="157"/>
+      <c r="E73" s="81"/>
       <c r="F73" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3432,7 +3420,7 @@
       <c r="J73" s="36"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="122">
+      <c r="A74" s="93">
         <v>11</v>
       </c>
       <c r="B74" s="24">
@@ -3440,7 +3428,7 @@
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="158"/>
+      <c r="E74" s="82"/>
       <c r="F74" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3451,13 +3439,13 @@
       <c r="J74" s="35"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="123"/>
+      <c r="A75" s="94"/>
       <c r="B75" s="24">
         <v>41653</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
-      <c r="E75" s="158"/>
+      <c r="E75" s="82"/>
       <c r="F75" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3468,13 +3456,13 @@
       <c r="J75" s="35"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="123"/>
+      <c r="A76" s="94"/>
       <c r="B76" s="24">
         <v>41654</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="158"/>
+      <c r="E76" s="82"/>
       <c r="F76" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3485,13 +3473,13 @@
       <c r="J76" s="35"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="123"/>
+      <c r="A77" s="94"/>
       <c r="B77" s="24">
         <v>41655</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="158"/>
+      <c r="E77" s="82"/>
       <c r="F77" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3502,13 +3490,13 @@
       <c r="J77" s="35"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="124"/>
+      <c r="A78" s="95"/>
       <c r="B78" s="24">
         <v>41656</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="158"/>
+      <c r="E78" s="82"/>
       <c r="F78" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3519,7 +3507,7 @@
       <c r="J78" s="35"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="119">
+      <c r="A79" s="96">
         <v>12</v>
       </c>
       <c r="B79" s="25">
@@ -3527,7 +3515,7 @@
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="157"/>
+      <c r="E79" s="81"/>
       <c r="F79" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3538,13 +3526,13 @@
       <c r="J79" s="36"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="120"/>
+      <c r="A80" s="97"/>
       <c r="B80" s="25">
         <v>41660</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="157"/>
+      <c r="E80" s="81"/>
       <c r="F80" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3555,13 +3543,13 @@
       <c r="J80" s="36"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="120"/>
+      <c r="A81" s="97"/>
       <c r="B81" s="25">
         <v>41661</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="157"/>
+      <c r="E81" s="81"/>
       <c r="F81" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3572,13 +3560,13 @@
       <c r="J81" s="36"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="120"/>
+      <c r="A82" s="97"/>
       <c r="B82" s="25">
         <v>41662</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="157"/>
+      <c r="E82" s="81"/>
       <c r="F82" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3589,13 +3577,13 @@
       <c r="J82" s="36"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="121"/>
+      <c r="A83" s="98"/>
       <c r="B83" s="25">
         <v>41663</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="157"/>
+      <c r="E83" s="81"/>
       <c r="F83" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3606,7 +3594,7 @@
       <c r="J83" s="36"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="122">
+      <c r="A84" s="93">
         <v>13</v>
       </c>
       <c r="B84" s="24">
@@ -3614,7 +3602,7 @@
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="158"/>
+      <c r="E84" s="82"/>
       <c r="F84" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3627,13 +3615,13 @@
       <c r="J84" s="35"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="123"/>
+      <c r="A85" s="94"/>
       <c r="B85" s="24">
         <v>41667</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="158"/>
+      <c r="E85" s="82"/>
       <c r="F85" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3646,13 +3634,13 @@
       <c r="J85" s="35"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="123"/>
+      <c r="A86" s="94"/>
       <c r="B86" s="24">
         <v>41668</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="158"/>
+      <c r="E86" s="82"/>
       <c r="F86" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3665,13 +3653,13 @@
       <c r="J86" s="35"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="123"/>
+      <c r="A87" s="94"/>
       <c r="B87" s="24">
         <v>41669</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="158"/>
+      <c r="E87" s="82"/>
       <c r="F87" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3684,13 +3672,13 @@
       <c r="J87" s="35"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="124"/>
+      <c r="A88" s="95"/>
       <c r="B88" s="24">
         <v>41670</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
-      <c r="E88" s="158"/>
+      <c r="E88" s="82"/>
       <c r="F88" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3703,7 +3691,7 @@
       <c r="J88" s="35"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="119">
+      <c r="A89" s="96">
         <v>14</v>
       </c>
       <c r="B89" s="25">
@@ -3711,7 +3699,7 @@
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="157"/>
+      <c r="E89" s="81"/>
       <c r="F89" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3724,13 +3712,13 @@
       <c r="J89" s="36"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="120"/>
+      <c r="A90" s="97"/>
       <c r="B90" s="25">
         <v>41674</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="157"/>
+      <c r="E90" s="81"/>
       <c r="F90" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3743,13 +3731,13 @@
       <c r="J90" s="36"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="120"/>
+      <c r="A91" s="97"/>
       <c r="B91" s="25">
         <v>41675</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="157"/>
+      <c r="E91" s="81"/>
       <c r="F91" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3762,13 +3750,13 @@
       <c r="J91" s="36"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="120"/>
+      <c r="A92" s="97"/>
       <c r="B92" s="25">
         <v>41676</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="157"/>
+      <c r="E92" s="81"/>
       <c r="F92" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3781,13 +3769,13 @@
       <c r="J92" s="36"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="121"/>
+      <c r="A93" s="98"/>
       <c r="B93" s="25">
         <v>41677</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="157"/>
+      <c r="E93" s="81"/>
       <c r="F93" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3800,7 +3788,7 @@
       <c r="J93" s="36"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="122">
+      <c r="A94" s="93">
         <v>15</v>
       </c>
       <c r="B94" s="24">
@@ -3808,7 +3796,7 @@
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
-      <c r="E94" s="158"/>
+      <c r="E94" s="82"/>
       <c r="F94" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3819,13 +3807,13 @@
       <c r="J94" s="35"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="123"/>
+      <c r="A95" s="94"/>
       <c r="B95" s="24">
         <v>41681</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
-      <c r="E95" s="158"/>
+      <c r="E95" s="82"/>
       <c r="F95" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3836,13 +3824,13 @@
       <c r="J95" s="35"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="123"/>
+      <c r="A96" s="94"/>
       <c r="B96" s="24">
         <v>41682</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
-      <c r="E96" s="158"/>
+      <c r="E96" s="82"/>
       <c r="F96" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3853,13 +3841,13 @@
       <c r="J96" s="35"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="123"/>
+      <c r="A97" s="94"/>
       <c r="B97" s="24">
         <v>41683</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
-      <c r="E97" s="158"/>
+      <c r="E97" s="82"/>
       <c r="F97" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3870,13 +3858,13 @@
       <c r="J97" s="35"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="124"/>
+      <c r="A98" s="95"/>
       <c r="B98" s="24">
         <v>41684</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
-      <c r="E98" s="158"/>
+      <c r="E98" s="82"/>
       <c r="F98" s="5">
         <f t="shared" ref="F98:F129" si="3">E98</f>
         <v>0</v>
@@ -3887,7 +3875,7 @@
       <c r="J98" s="35"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="119">
+      <c r="A99" s="96">
         <v>16</v>
       </c>
       <c r="B99" s="25">
@@ -3895,7 +3883,7 @@
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="157"/>
+      <c r="E99" s="81"/>
       <c r="F99" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3906,13 +3894,13 @@
       <c r="J99" s="36"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="120"/>
+      <c r="A100" s="97"/>
       <c r="B100" s="25">
         <v>41688</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="157"/>
+      <c r="E100" s="81"/>
       <c r="F100" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3923,13 +3911,13 @@
       <c r="J100" s="36"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="120"/>
+      <c r="A101" s="97"/>
       <c r="B101" s="25">
         <v>41689</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="157"/>
+      <c r="E101" s="81"/>
       <c r="F101" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3940,13 +3928,13 @@
       <c r="J101" s="36"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="120"/>
+      <c r="A102" s="97"/>
       <c r="B102" s="25">
         <v>41690</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
-      <c r="E102" s="157"/>
+      <c r="E102" s="81"/>
       <c r="F102" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3957,13 +3945,13 @@
       <c r="J102" s="36"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="121"/>
+      <c r="A103" s="98"/>
       <c r="B103" s="25">
         <v>41691</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="157"/>
+      <c r="E103" s="81"/>
       <c r="F103" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3974,7 +3962,7 @@
       <c r="J103" s="36"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="122">
+      <c r="A104" s="93">
         <v>17</v>
       </c>
       <c r="B104" s="24">
@@ -3982,7 +3970,7 @@
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
-      <c r="E104" s="158"/>
+      <c r="E104" s="82"/>
       <c r="F104" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3993,13 +3981,13 @@
       <c r="J104" s="35"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="123"/>
+      <c r="A105" s="94"/>
       <c r="B105" s="24">
         <v>41695</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
-      <c r="E105" s="158"/>
+      <c r="E105" s="82"/>
       <c r="F105" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4010,13 +3998,13 @@
       <c r="J105" s="35"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="123"/>
+      <c r="A106" s="94"/>
       <c r="B106" s="24">
         <v>41696</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="158"/>
+      <c r="E106" s="82"/>
       <c r="F106" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4027,13 +4015,13 @@
       <c r="J106" s="35"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="123"/>
+      <c r="A107" s="94"/>
       <c r="B107" s="24">
         <v>41697</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
-      <c r="E107" s="158"/>
+      <c r="E107" s="82"/>
       <c r="F107" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4044,13 +4032,13 @@
       <c r="J107" s="35"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="124"/>
+      <c r="A108" s="95"/>
       <c r="B108" s="24">
         <v>41698</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
-      <c r="E108" s="158"/>
+      <c r="E108" s="82"/>
       <c r="F108" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4061,7 +4049,7 @@
       <c r="J108" s="35"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="119">
+      <c r="A109" s="96">
         <v>18</v>
       </c>
       <c r="B109" s="25">
@@ -4069,7 +4057,7 @@
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
-      <c r="E109" s="157"/>
+      <c r="E109" s="81"/>
       <c r="F109" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4080,13 +4068,13 @@
       <c r="J109" s="36"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="120"/>
+      <c r="A110" s="97"/>
       <c r="B110" s="25">
         <v>41702</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
-      <c r="E110" s="157"/>
+      <c r="E110" s="81"/>
       <c r="F110" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4097,13 +4085,13 @@
       <c r="J110" s="36"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="120"/>
+      <c r="A111" s="97"/>
       <c r="B111" s="25">
         <v>41703</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
-      <c r="E111" s="157"/>
+      <c r="E111" s="81"/>
       <c r="F111" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4114,13 +4102,13 @@
       <c r="J111" s="36"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="120"/>
+      <c r="A112" s="97"/>
       <c r="B112" s="25">
         <v>41704</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
-      <c r="E112" s="157"/>
+      <c r="E112" s="81"/>
       <c r="F112" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4131,13 +4119,13 @@
       <c r="J112" s="36"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="121"/>
+      <c r="A113" s="98"/>
       <c r="B113" s="25">
         <v>41705</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
-      <c r="E113" s="157"/>
+      <c r="E113" s="81"/>
       <c r="F113" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4148,7 +4136,7 @@
       <c r="J113" s="36"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="122">
+      <c r="A114" s="93">
         <v>19</v>
       </c>
       <c r="B114" s="24">
@@ -4156,7 +4144,7 @@
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
-      <c r="E114" s="158"/>
+      <c r="E114" s="82"/>
       <c r="F114" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4167,13 +4155,13 @@
       <c r="J114" s="35"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="123"/>
+      <c r="A115" s="94"/>
       <c r="B115" s="24">
         <v>41709</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
-      <c r="E115" s="158"/>
+      <c r="E115" s="82"/>
       <c r="F115" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4184,13 +4172,13 @@
       <c r="J115" s="35"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="123"/>
+      <c r="A116" s="94"/>
       <c r="B116" s="24">
         <v>41710</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
-      <c r="E116" s="158"/>
+      <c r="E116" s="82"/>
       <c r="F116" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4201,13 +4189,13 @@
       <c r="J116" s="35"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="123"/>
+      <c r="A117" s="94"/>
       <c r="B117" s="24">
         <v>41711</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
-      <c r="E117" s="158"/>
+      <c r="E117" s="82"/>
       <c r="F117" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4218,13 +4206,13 @@
       <c r="J117" s="35"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="124"/>
+      <c r="A118" s="95"/>
       <c r="B118" s="24">
         <v>41712</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
-      <c r="E118" s="158"/>
+      <c r="E118" s="82"/>
       <c r="F118" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4235,7 +4223,7 @@
       <c r="J118" s="35"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="119">
+      <c r="A119" s="96">
         <v>20</v>
       </c>
       <c r="B119" s="25">
@@ -4243,7 +4231,7 @@
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
-      <c r="E119" s="157"/>
+      <c r="E119" s="81"/>
       <c r="F119" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4254,13 +4242,13 @@
       <c r="J119" s="36"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="120"/>
+      <c r="A120" s="97"/>
       <c r="B120" s="25">
         <v>41716</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
-      <c r="E120" s="157"/>
+      <c r="E120" s="81"/>
       <c r="F120" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4271,13 +4259,13 @@
       <c r="J120" s="36"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="120"/>
+      <c r="A121" s="97"/>
       <c r="B121" s="25">
         <v>41717</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
-      <c r="E121" s="157"/>
+      <c r="E121" s="81"/>
       <c r="F121" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4288,13 +4276,13 @@
       <c r="J121" s="36"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="120"/>
+      <c r="A122" s="97"/>
       <c r="B122" s="25">
         <v>41718</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
-      <c r="E122" s="157"/>
+      <c r="E122" s="81"/>
       <c r="F122" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4305,13 +4293,13 @@
       <c r="J122" s="36"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="121"/>
+      <c r="A123" s="98"/>
       <c r="B123" s="25">
         <v>41719</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
-      <c r="E123" s="157"/>
+      <c r="E123" s="81"/>
       <c r="F123" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4322,7 +4310,7 @@
       <c r="J123" s="36"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="122">
+      <c r="A124" s="93">
         <v>21</v>
       </c>
       <c r="B124" s="24">
@@ -4330,7 +4318,7 @@
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
-      <c r="E124" s="158"/>
+      <c r="E124" s="82"/>
       <c r="F124" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4341,13 +4329,13 @@
       <c r="J124" s="35"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="123"/>
+      <c r="A125" s="94"/>
       <c r="B125" s="24">
         <v>41723</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
-      <c r="E125" s="158"/>
+      <c r="E125" s="82"/>
       <c r="F125" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4358,13 +4346,13 @@
       <c r="J125" s="35"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="123"/>
+      <c r="A126" s="94"/>
       <c r="B126" s="24">
         <v>41724</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
-      <c r="E126" s="158"/>
+      <c r="E126" s="82"/>
       <c r="F126" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4375,13 +4363,13 @@
       <c r="J126" s="35"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="123"/>
+      <c r="A127" s="94"/>
       <c r="B127" s="24">
         <v>41725</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
-      <c r="E127" s="158"/>
+      <c r="E127" s="82"/>
       <c r="F127" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4392,13 +4380,13 @@
       <c r="J127" s="35"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="124"/>
+      <c r="A128" s="95"/>
       <c r="B128" s="24">
         <v>41726</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
-      <c r="E128" s="158"/>
+      <c r="E128" s="82"/>
       <c r="F128" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4409,7 +4397,7 @@
       <c r="J128" s="35"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="119">
+      <c r="A129" s="96">
         <v>22</v>
       </c>
       <c r="B129" s="25">
@@ -4417,7 +4405,7 @@
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
-      <c r="E129" s="157"/>
+      <c r="E129" s="81"/>
       <c r="F129" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4428,13 +4416,13 @@
       <c r="J129" s="36"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="120"/>
+      <c r="A130" s="97"/>
       <c r="B130" s="25">
         <v>41730</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
-      <c r="E130" s="157"/>
+      <c r="E130" s="81"/>
       <c r="F130" s="6">
         <f t="shared" ref="F130:F161" si="4">E130</f>
         <v>0</v>
@@ -4445,13 +4433,13 @@
       <c r="J130" s="36"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="120"/>
+      <c r="A131" s="97"/>
       <c r="B131" s="25">
         <v>41731</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
-      <c r="E131" s="157"/>
+      <c r="E131" s="81"/>
       <c r="F131" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4462,13 +4450,13 @@
       <c r="J131" s="36"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="120"/>
+      <c r="A132" s="97"/>
       <c r="B132" s="25">
         <v>41732</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
-      <c r="E132" s="157"/>
+      <c r="E132" s="81"/>
       <c r="F132" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4479,13 +4467,13 @@
       <c r="J132" s="36"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="121"/>
+      <c r="A133" s="98"/>
       <c r="B133" s="25">
         <v>41733</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
-      <c r="E133" s="157"/>
+      <c r="E133" s="81"/>
       <c r="F133" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4496,7 +4484,7 @@
       <c r="J133" s="36"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="122">
+      <c r="A134" s="93">
         <v>23</v>
       </c>
       <c r="B134" s="24">
@@ -4504,7 +4492,7 @@
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
-      <c r="E134" s="158"/>
+      <c r="E134" s="82"/>
       <c r="F134" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4515,13 +4503,13 @@
       <c r="J134" s="35"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="123"/>
+      <c r="A135" s="94"/>
       <c r="B135" s="24">
         <v>41737</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
-      <c r="E135" s="158"/>
+      <c r="E135" s="82"/>
       <c r="F135" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4532,13 +4520,13 @@
       <c r="J135" s="35"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="123"/>
+      <c r="A136" s="94"/>
       <c r="B136" s="24">
         <v>41738</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
-      <c r="E136" s="158"/>
+      <c r="E136" s="82"/>
       <c r="F136" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4549,13 +4537,13 @@
       <c r="J136" s="35"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="123"/>
+      <c r="A137" s="94"/>
       <c r="B137" s="24">
         <v>41739</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
-      <c r="E137" s="158"/>
+      <c r="E137" s="82"/>
       <c r="F137" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4566,13 +4554,13 @@
       <c r="J137" s="35"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="124"/>
+      <c r="A138" s="95"/>
       <c r="B138" s="24">
         <v>41740</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
-      <c r="E138" s="158"/>
+      <c r="E138" s="82"/>
       <c r="F138" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4583,7 +4571,7 @@
       <c r="J138" s="35"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="119">
+      <c r="A139" s="96">
         <v>24</v>
       </c>
       <c r="B139" s="25">
@@ -4591,7 +4579,7 @@
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
-      <c r="E139" s="157"/>
+      <c r="E139" s="81"/>
       <c r="F139" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4602,13 +4590,13 @@
       <c r="J139" s="36"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="120"/>
+      <c r="A140" s="97"/>
       <c r="B140" s="25">
         <v>41744</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
-      <c r="E140" s="157"/>
+      <c r="E140" s="81"/>
       <c r="F140" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4619,13 +4607,13 @@
       <c r="J140" s="36"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="120"/>
+      <c r="A141" s="97"/>
       <c r="B141" s="25">
         <v>41745</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="157"/>
+      <c r="E141" s="81"/>
       <c r="F141" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4636,13 +4624,13 @@
       <c r="J141" s="36"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="120"/>
+      <c r="A142" s="97"/>
       <c r="B142" s="25">
         <v>41746</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="157"/>
+      <c r="E142" s="81"/>
       <c r="F142" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4653,13 +4641,13 @@
       <c r="J142" s="36"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="121"/>
+      <c r="A143" s="98"/>
       <c r="B143" s="25">
         <v>41747</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
-      <c r="E143" s="157"/>
+      <c r="E143" s="81"/>
       <c r="F143" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4670,7 +4658,7 @@
       <c r="J143" s="36"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="122">
+      <c r="A144" s="93">
         <v>25</v>
       </c>
       <c r="B144" s="24">
@@ -4678,7 +4666,7 @@
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
-      <c r="E144" s="158"/>
+      <c r="E144" s="82"/>
       <c r="F144" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4689,13 +4677,13 @@
       <c r="J144" s="35"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="123"/>
+      <c r="A145" s="94"/>
       <c r="B145" s="24">
         <v>41751</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
-      <c r="E145" s="158"/>
+      <c r="E145" s="82"/>
       <c r="F145" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4706,13 +4694,13 @@
       <c r="J145" s="35"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="123"/>
+      <c r="A146" s="94"/>
       <c r="B146" s="24">
         <v>41752</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
-      <c r="E146" s="158"/>
+      <c r="E146" s="82"/>
       <c r="F146" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4723,13 +4711,13 @@
       <c r="J146" s="35"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="123"/>
+      <c r="A147" s="94"/>
       <c r="B147" s="24">
         <v>41753</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
-      <c r="E147" s="158"/>
+      <c r="E147" s="82"/>
       <c r="F147" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4740,13 +4728,13 @@
       <c r="J147" s="35"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="124"/>
+      <c r="A148" s="95"/>
       <c r="B148" s="24">
         <v>41754</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
-      <c r="E148" s="158"/>
+      <c r="E148" s="82"/>
       <c r="F148" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4757,7 +4745,7 @@
       <c r="J148" s="35"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="119">
+      <c r="A149" s="96">
         <v>26</v>
       </c>
       <c r="B149" s="25">
@@ -4765,7 +4753,7 @@
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
-      <c r="E149" s="157"/>
+      <c r="E149" s="81"/>
       <c r="F149" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4776,13 +4764,13 @@
       <c r="J149" s="36"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="120"/>
+      <c r="A150" s="97"/>
       <c r="B150" s="25">
         <v>41758</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
-      <c r="E150" s="157"/>
+      <c r="E150" s="81"/>
       <c r="F150" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4793,13 +4781,13 @@
       <c r="J150" s="36"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="120"/>
+      <c r="A151" s="97"/>
       <c r="B151" s="25">
         <v>41759</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
-      <c r="E151" s="157"/>
+      <c r="E151" s="81"/>
       <c r="F151" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4810,13 +4798,13 @@
       <c r="J151" s="36"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="120"/>
+      <c r="A152" s="97"/>
       <c r="B152" s="25">
         <v>41760</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
-      <c r="E152" s="157"/>
+      <c r="E152" s="81"/>
       <c r="F152" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4827,13 +4815,13 @@
       <c r="J152" s="36"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="121"/>
+      <c r="A153" s="98"/>
       <c r="B153" s="25">
         <v>41761</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
-      <c r="E153" s="157"/>
+      <c r="E153" s="81"/>
       <c r="F153" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4844,7 +4832,7 @@
       <c r="J153" s="36"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="122">
+      <c r="A154" s="93">
         <v>27</v>
       </c>
       <c r="B154" s="24">
@@ -4852,7 +4840,7 @@
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
-      <c r="E154" s="158"/>
+      <c r="E154" s="82"/>
       <c r="F154" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4863,13 +4851,13 @@
       <c r="J154" s="35"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="123"/>
+      <c r="A155" s="94"/>
       <c r="B155" s="24">
         <v>41765</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
-      <c r="E155" s="158"/>
+      <c r="E155" s="82"/>
       <c r="F155" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4880,13 +4868,13 @@
       <c r="J155" s="35"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="123"/>
+      <c r="A156" s="94"/>
       <c r="B156" s="24">
         <v>41766</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
-      <c r="E156" s="158"/>
+      <c r="E156" s="82"/>
       <c r="F156" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4897,13 +4885,13 @@
       <c r="J156" s="35"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="123"/>
+      <c r="A157" s="94"/>
       <c r="B157" s="24">
         <v>41767</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
-      <c r="E157" s="158"/>
+      <c r="E157" s="82"/>
       <c r="F157" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4914,13 +4902,13 @@
       <c r="J157" s="35"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="124"/>
+      <c r="A158" s="95"/>
       <c r="B158" s="24">
         <v>41768</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
-      <c r="E158" s="158"/>
+      <c r="E158" s="82"/>
       <c r="F158" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4931,7 +4919,7 @@
       <c r="J158" s="35"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="119">
+      <c r="A159" s="96">
         <v>28</v>
       </c>
       <c r="B159" s="25">
@@ -4939,7 +4927,7 @@
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
-      <c r="E159" s="157"/>
+      <c r="E159" s="81"/>
       <c r="F159" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4950,13 +4938,13 @@
       <c r="J159" s="36"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="120"/>
+      <c r="A160" s="97"/>
       <c r="B160" s="25">
         <v>41772</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
-      <c r="E160" s="157"/>
+      <c r="E160" s="81"/>
       <c r="F160" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4967,13 +4955,13 @@
       <c r="J160" s="36"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="120"/>
+      <c r="A161" s="97"/>
       <c r="B161" s="25">
         <v>41773</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
-      <c r="E161" s="157"/>
+      <c r="E161" s="81"/>
       <c r="F161" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4984,13 +4972,13 @@
       <c r="J161" s="36"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="120"/>
+      <c r="A162" s="97"/>
       <c r="B162" s="25">
         <v>41774</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
-      <c r="E162" s="157"/>
+      <c r="E162" s="81"/>
       <c r="F162" s="6">
         <f t="shared" ref="F162:F173" si="5">E162</f>
         <v>0</v>
@@ -5001,13 +4989,13 @@
       <c r="J162" s="36"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="121"/>
+      <c r="A163" s="98"/>
       <c r="B163" s="25">
         <v>41775</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
-      <c r="E163" s="157"/>
+      <c r="E163" s="81"/>
       <c r="F163" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5018,7 +5006,7 @@
       <c r="J163" s="36"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="122">
+      <c r="A164" s="93">
         <v>29</v>
       </c>
       <c r="B164" s="24">
@@ -5026,7 +5014,7 @@
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
-      <c r="E164" s="158"/>
+      <c r="E164" s="82"/>
       <c r="F164" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5037,13 +5025,13 @@
       <c r="J164" s="35"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="123"/>
+      <c r="A165" s="94"/>
       <c r="B165" s="24">
         <v>41779</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
-      <c r="E165" s="158"/>
+      <c r="E165" s="82"/>
       <c r="F165" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5054,13 +5042,13 @@
       <c r="J165" s="35"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="123"/>
+      <c r="A166" s="94"/>
       <c r="B166" s="24">
         <v>41780</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
-      <c r="E166" s="158"/>
+      <c r="E166" s="82"/>
       <c r="F166" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5071,13 +5059,13 @@
       <c r="J166" s="35"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="123"/>
+      <c r="A167" s="94"/>
       <c r="B167" s="24">
         <v>41781</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
-      <c r="E167" s="158"/>
+      <c r="E167" s="82"/>
       <c r="F167" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5088,13 +5076,13 @@
       <c r="J167" s="35"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="124"/>
+      <c r="A168" s="95"/>
       <c r="B168" s="24">
         <v>41782</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
-      <c r="E168" s="158"/>
+      <c r="E168" s="82"/>
       <c r="F168" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5105,7 +5093,7 @@
       <c r="J168" s="35"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="150">
+      <c r="A169" s="99">
         <v>30</v>
       </c>
       <c r="B169" s="25">
@@ -5113,7 +5101,7 @@
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
-      <c r="E169" s="159"/>
+      <c r="E169" s="83"/>
       <c r="F169" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5124,13 +5112,13 @@
       <c r="J169" s="37"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="151"/>
+      <c r="A170" s="100"/>
       <c r="B170" s="25">
         <v>41786</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
-      <c r="E170" s="159"/>
+      <c r="E170" s="83"/>
       <c r="F170" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5141,13 +5129,13 @@
       <c r="J170" s="37"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="151"/>
+      <c r="A171" s="100"/>
       <c r="B171" s="25">
         <v>41787</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
-      <c r="E171" s="159"/>
+      <c r="E171" s="83"/>
       <c r="F171" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5158,13 +5146,13 @@
       <c r="J171" s="37"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="151"/>
+      <c r="A172" s="100"/>
       <c r="B172" s="25">
         <v>41788</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
-      <c r="E172" s="159"/>
+      <c r="E172" s="83"/>
       <c r="F172" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5175,13 +5163,13 @@
       <c r="J172" s="37"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="152"/>
+      <c r="A173" s="101"/>
       <c r="B173" s="25">
         <v>41789</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
-      <c r="E173" s="159"/>
+      <c r="E173" s="83"/>
       <c r="F173" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5193,28 +5181,32 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A159:A163"/>
-    <mergeCell ref="A164:A168"/>
-    <mergeCell ref="A169:A173"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A17:A33"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="A84:A88"/>
     <mergeCell ref="A89:A93"/>
     <mergeCell ref="F14:F15"/>
@@ -5231,32 +5223,28 @@
     <mergeCell ref="A64:A68"/>
     <mergeCell ref="A74:A78"/>
     <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A17:A29"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A159:A163"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="A169:A173"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
+++ b/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission project\1. Project management\9. Timelog\individual time log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xyu\Desktop\AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="103">
   <si>
     <t>Week</t>
   </si>
@@ -313,7 +313,41 @@
 + Entities</t>
   </si>
   <si>
-    <t>Self Prepair</t>
+    <t>Reading ACDM (Quality Attributes)</t>
+  </si>
+  <si>
+    <t>Reading ACDM (Stage 3)</t>
+  </si>
+  <si>
+    <t>Addition QA for Catalog document</t>
+  </si>
+  <si>
+    <t>Review Usecase Description for Catalog</t>
+  </si>
+  <si>
+    <t>Templates entities + functional + quality attribute.docx</t>
+  </si>
+  <si>
+    <t>Design interface for Catalog</t>
+  </si>
+  <si>
+    <t>Meeting with mentor review week 6 and plan for week 7
+Update some plan document</t>
+  </si>
+  <si>
+    <t>Review architecturals drivers specification</t>
+  </si>
+  <si>
+    <t>Meeting about internal way of works</t>
+  </si>
+  <si>
+    <t>Update usecase description</t>
+  </si>
+  <si>
+    <t>Interface.vsdx</t>
+  </si>
+  <si>
+    <t>Catalog_New.docx</t>
   </si>
 </sst>
 </file>
@@ -324,7 +358,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -332,14 +366,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -352,7 +386,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -365,20 +399,20 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -391,34 +425,34 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -636,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -802,12 +836,22 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="18" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -822,48 +866,220 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -876,197 +1092,26 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1351,16 +1396,16 @@
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>23</v>
       </c>
@@ -1368,7 +1413,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1376,7 +1421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1384,15 +1429,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1400,7 +1445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1408,7 +1453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1416,7 +1461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1424,7 +1469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1432,7 +1477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1440,7 +1485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1448,7 +1493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -1463,109 +1508,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O173"/>
+  <dimension ref="A1:O179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="6" ySplit="6" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="84" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="47.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="14" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="131"/>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="133"/>
+      <c r="A1" s="112"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="114"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="134" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="136"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="117"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="139"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="120"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="115"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="142"/>
+      <c r="A4" s="139"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="123"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="124"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="126"/>
+      <c r="A5" s="148"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="150"/>
       <c r="F5" s="16"/>
       <c r="H5" s="39" t="s">
         <v>51</v>
@@ -1579,7 +1624,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>0</v>
       </c>
@@ -1592,7 +1637,7 @@
       <c r="D6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="28" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="28" t="s">
@@ -1610,16 +1655,16 @@
       <c r="J6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="146">
+      <c r="A7" s="127">
         <v>1</v>
       </c>
-      <c r="B7" s="118">
+      <c r="B7" s="142">
         <v>41586</v>
       </c>
       <c r="C7" s="17">
@@ -1631,7 +1676,7 @@
       <c r="E7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="121">
+      <c r="F7" s="145">
         <f>SUM(E7:E9)</f>
         <v>2</v>
       </c>
@@ -1654,8 +1699,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="147"/>
-      <c r="B8" s="119"/>
+      <c r="A8" s="128"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1665,7 +1710,7 @@
       <c r="E8" s="18">
         <v>0.5</v>
       </c>
-      <c r="F8" s="122"/>
+      <c r="F8" s="146"/>
       <c r="G8" s="19" t="s">
         <v>20</v>
       </c>
@@ -1678,8 +1723,8 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="148"/>
-      <c r="B9" s="120"/>
+      <c r="A9" s="129"/>
+      <c r="B9" s="144"/>
       <c r="C9" s="17">
         <v>0.83333333333333337</v>
       </c>
@@ -1689,7 +1734,7 @@
       <c r="E9" s="18">
         <v>1.5</v>
       </c>
-      <c r="F9" s="123"/>
+      <c r="F9" s="147"/>
       <c r="G9" s="41" t="s">
         <v>25</v>
       </c>
@@ -1700,10 +1745,10 @@
       <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="154">
+      <c r="A10" s="130">
         <v>2</v>
       </c>
-      <c r="B10" s="144">
+      <c r="B10" s="125">
         <v>41589</v>
       </c>
       <c r="C10" s="46">
@@ -1715,7 +1760,7 @@
       <c r="E10" s="47">
         <v>1.5</v>
       </c>
-      <c r="F10" s="149">
+      <c r="F10" s="107">
         <f>SUM(E10:E11)</f>
         <v>3.5</v>
       </c>
@@ -1729,8 +1774,8 @@
       <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:15" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="145"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="46">
         <v>0.875</v>
       </c>
@@ -1740,7 +1785,7 @@
       <c r="E11" s="47">
         <v>2</v>
       </c>
-      <c r="F11" s="150"/>
+      <c r="F11" s="108"/>
       <c r="G11" s="56" t="s">
         <v>25</v>
       </c>
@@ -1750,9 +1795,9 @@
       <c r="I11" s="50"/>
       <c r="J11" s="48"/>
     </row>
-    <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="155"/>
-      <c r="B12" s="106">
+    <row r="12" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="131"/>
+      <c r="B12" s="99">
         <v>41590</v>
       </c>
       <c r="C12" s="21">
@@ -1764,7 +1809,7 @@
       <c r="E12" s="22">
         <v>2.25</v>
       </c>
-      <c r="F12" s="102">
+      <c r="F12" s="93">
         <f>SUM(E12:E13)</f>
         <v>3.5</v>
       </c>
@@ -1790,8 +1835,8 @@
       <c r="O12" s="30"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="155"/>
-      <c r="B13" s="107"/>
+      <c r="A13" s="131"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="21">
         <v>0.86458333333333337</v>
       </c>
@@ -1801,7 +1846,7 @@
       <c r="E13" s="22">
         <v>1.25</v>
       </c>
-      <c r="F13" s="103"/>
+      <c r="F13" s="94"/>
       <c r="G13" s="56" t="s">
         <v>25</v>
       </c>
@@ -1817,8 +1862,8 @@
       <c r="O13" s="30"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="155"/>
-      <c r="B14" s="106">
+      <c r="A14" s="131"/>
+      <c r="B14" s="99">
         <v>41592</v>
       </c>
       <c r="C14" s="23">
@@ -1830,7 +1875,7 @@
       <c r="E14" s="26">
         <v>1.5</v>
       </c>
-      <c r="F14" s="102">
+      <c r="F14" s="93">
         <f>SUM(E14:E15)</f>
         <v>2</v>
       </c>
@@ -1848,8 +1893,8 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="155"/>
-      <c r="B15" s="107"/>
+      <c r="A15" s="131"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="23">
         <v>0.9375</v>
       </c>
@@ -1859,7 +1904,7 @@
       <c r="E15" s="26">
         <v>0.5</v>
       </c>
-      <c r="F15" s="103"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="56" t="s">
         <v>17</v>
       </c>
@@ -1874,7 +1919,7 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="156"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="40">
         <v>41593</v>
       </c>
@@ -1904,18 +1949,18 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="10">
-        <f>SUM(E42:E48)</f>
-        <v>7.47</v>
+        <f>SUM(E42:E49)</f>
+        <v>9.64</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="93">
+      <c r="A17" s="104">
         <v>3</v>
       </c>
-      <c r="B17" s="85">
+      <c r="B17" s="96">
         <v>41596</v>
       </c>
       <c r="C17" s="44">
@@ -1927,7 +1972,7 @@
       <c r="E17" s="42">
         <v>1</v>
       </c>
-      <c r="F17" s="102">
+      <c r="F17" s="93">
         <f>SUM(E17:E19)</f>
         <v>3.5</v>
       </c>
@@ -1944,7 +1989,7 @@
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="10">
-        <f>SUM(E59:E63)</f>
+        <f>SUM(E65:E69)</f>
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -1952,8 +1997,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="94"/>
-      <c r="B18" s="105"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="97"/>
       <c r="C18" s="44">
         <v>0.75</v>
       </c>
@@ -1963,7 +2008,7 @@
       <c r="E18" s="42">
         <v>1.5</v>
       </c>
-      <c r="F18" s="104"/>
+      <c r="F18" s="95"/>
       <c r="G18" s="41" t="s">
         <v>18</v>
       </c>
@@ -1980,8 +2025,8 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="86"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="44">
         <v>0.89583333333333337</v>
       </c>
@@ -1991,7 +2036,7 @@
       <c r="E19" s="42">
         <v>1</v>
       </c>
-      <c r="F19" s="103"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="41" t="s">
         <v>25</v>
       </c>
@@ -2006,8 +2051,8 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
-      <c r="B20" s="85">
+      <c r="A20" s="104"/>
+      <c r="B20" s="96">
         <v>41597</v>
       </c>
       <c r="C20" s="44">
@@ -2019,7 +2064,7 @@
       <c r="E20" s="42">
         <v>1.5</v>
       </c>
-      <c r="F20" s="102">
+      <c r="F20" s="93">
         <f>SUM(E20:E21)</f>
         <v>3</v>
       </c>
@@ -2037,8 +2082,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
-      <c r="B21" s="86"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="98"/>
       <c r="C21" s="44">
         <v>0.8125</v>
       </c>
@@ -2048,7 +2093,7 @@
       <c r="E21" s="42">
         <v>1.5</v>
       </c>
-      <c r="F21" s="103"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="41" t="s">
         <v>18</v>
       </c>
@@ -2062,7 +2107,7 @@
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E64:E68)</f>
+        <f>SUM(E70:E74)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -2070,8 +2115,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
-      <c r="B22" s="85">
+      <c r="A22" s="104"/>
+      <c r="B22" s="96">
         <v>41599</v>
       </c>
       <c r="C22" s="44">
@@ -2083,9 +2128,9 @@
       <c r="E22" s="42">
         <v>3</v>
       </c>
-      <c r="F22" s="102">
+      <c r="F22" s="93">
         <f>SUM(E22:E26)</f>
-        <v>8.15</v>
+        <v>7.9</v>
       </c>
       <c r="G22" s="41" t="s">
         <v>17</v>
@@ -2101,18 +2146,18 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
-      <c r="B23" s="105"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="44">
-        <v>0.375</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="D23" s="44">
         <v>0.4236111111111111</v>
       </c>
       <c r="E23" s="42">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="F23" s="104"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="95"/>
       <c r="G23" s="61" t="s">
         <v>20</v>
       </c>
@@ -2127,8 +2172,8 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
-      <c r="B24" s="105"/>
+      <c r="A24" s="104"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="44">
         <v>0.4236111111111111</v>
       </c>
@@ -2136,9 +2181,9 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="E24" s="42">
-        <v>1.33</v>
-      </c>
-      <c r="F24" s="104"/>
+        <v>1.3</v>
+      </c>
+      <c r="F24" s="95"/>
       <c r="G24" s="41" t="s">
         <v>16</v>
       </c>
@@ -2153,8 +2198,8 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
-      <c r="B25" s="105"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="97"/>
       <c r="C25" s="44">
         <v>0.58333333333333337</v>
       </c>
@@ -2164,7 +2209,7 @@
       <c r="E25" s="42">
         <v>0.5</v>
       </c>
-      <c r="F25" s="104"/>
+      <c r="F25" s="95"/>
       <c r="G25" s="41" t="s">
         <v>18</v>
       </c>
@@ -2179,8 +2224,8 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
-      <c r="B26" s="86"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="65">
         <v>0.625</v>
       </c>
@@ -2188,9 +2233,9 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="E26" s="42">
-        <v>2.16</v>
-      </c>
-      <c r="F26" s="103"/>
+        <v>2.1</v>
+      </c>
+      <c r="F26" s="94"/>
       <c r="G26" s="41" t="s">
         <v>16</v>
       </c>
@@ -2204,7 +2249,7 @@
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="10">
-        <f>SUM(E74:E78)</f>
+        <f>SUM(E80:E84)</f>
         <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
@@ -2212,8 +2257,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
-      <c r="B27" s="85">
+      <c r="A27" s="104"/>
+      <c r="B27" s="96">
         <v>41600</v>
       </c>
       <c r="C27" s="65">
@@ -2225,7 +2270,7 @@
       <c r="E27" s="18">
         <v>1.25</v>
       </c>
-      <c r="F27" s="87">
+      <c r="F27" s="101">
         <f>SUM(E27:E29)</f>
         <v>4</v>
       </c>
@@ -2235,7 +2280,7 @@
       <c r="H27" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="67" t="s">
+      <c r="I27" s="68" t="s">
         <v>71</v>
       </c>
       <c r="J27" s="35"/>
@@ -2245,8 +2290,8 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="105"/>
+      <c r="A28" s="104"/>
+      <c r="B28" s="97"/>
       <c r="C28" s="65">
         <v>0.5625</v>
       </c>
@@ -2256,8 +2301,8 @@
       <c r="E28" s="18">
         <v>1.25</v>
       </c>
-      <c r="F28" s="108"/>
-      <c r="G28" s="68" t="s">
+      <c r="F28" s="102"/>
+      <c r="G28" s="69" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="27"/>
@@ -2269,19 +2314,19 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
-      <c r="B29" s="86"/>
+      <c r="A29" s="104"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="65">
         <v>0.625</v>
       </c>
       <c r="D29" s="65">
         <v>0.6875</v>
       </c>
-      <c r="E29" s="78">
+      <c r="E29" s="69">
         <v>1.5</v>
       </c>
-      <c r="F29" s="88"/>
-      <c r="G29" s="68" t="s">
+      <c r="F29" s="103"/>
+      <c r="G29" s="69" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="27" t="s">
@@ -2294,7 +2339,7 @@
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="10">
-        <f>SUM(E79:E83)</f>
+        <f>SUM(E85:E89)</f>
         <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
@@ -2302,8 +2347,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
-      <c r="B30" s="85">
+      <c r="A30" s="67"/>
+      <c r="B30" s="96">
         <v>41601</v>
       </c>
       <c r="C30" s="65">
@@ -2312,14 +2357,14 @@
       <c r="D30" s="65">
         <v>0.375</v>
       </c>
-      <c r="E30" s="78">
+      <c r="E30" s="69">
         <v>0.5</v>
       </c>
-      <c r="F30" s="151">
+      <c r="F30" s="109">
         <f>SUM(E30:E33)</f>
         <v>2</v>
       </c>
-      <c r="G30" s="68" t="s">
+      <c r="G30" s="69" t="s">
         <v>18</v>
       </c>
       <c r="H30" s="27" t="s">
@@ -2335,19 +2380,19 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="94"/>
-      <c r="B31" s="105"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="97"/>
       <c r="C31" s="65">
         <v>0.39583333333333331</v>
       </c>
       <c r="D31" s="65">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E31" s="78">
+      <c r="E31" s="69">
         <v>0.5</v>
       </c>
-      <c r="F31" s="152"/>
-      <c r="G31" s="68" t="s">
+      <c r="F31" s="110"/>
+      <c r="G31" s="69" t="s">
         <v>19</v>
       </c>
       <c r="H31" s="27" t="s">
@@ -2363,19 +2408,19 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="94"/>
-      <c r="B32" s="105"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="97"/>
       <c r="C32" s="65">
-        <v>0.54166666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="D32" s="65">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E32" s="78">
+      <c r="E32" s="69">
         <v>0.25</v>
       </c>
-      <c r="F32" s="152"/>
-      <c r="G32" s="68" t="s">
+      <c r="F32" s="110"/>
+      <c r="G32" s="69" t="s">
         <v>16</v>
       </c>
       <c r="H32" s="27"/>
@@ -2387,19 +2432,19 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="95"/>
-      <c r="B33" s="86"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="65">
         <v>0.57291666666666663</v>
       </c>
       <c r="D33" s="65">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E33" s="78">
+      <c r="E33" s="69">
         <v>0.75</v>
       </c>
-      <c r="F33" s="153"/>
-      <c r="G33" s="68" t="s">
+      <c r="F33" s="111"/>
+      <c r="G33" s="69" t="s">
         <v>19</v>
       </c>
       <c r="H33" s="27" t="s">
@@ -2415,39 +2460,39 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="96">
+      <c r="A34" s="87">
         <v>4</v>
       </c>
       <c r="B34" s="25">
         <v>41603</v>
       </c>
-      <c r="C34" s="70">
+      <c r="C34" s="74">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D34" s="70">
+      <c r="D34" s="74">
         <v>0.875</v>
       </c>
-      <c r="E34" s="79">
+      <c r="E34" s="70">
         <v>1</v>
       </c>
       <c r="F34" s="66">
         <f>E34</f>
         <v>1</v>
       </c>
-      <c r="G34" s="71" t="s">
+      <c r="G34" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="69" t="s">
+      <c r="H34" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="69"/>
+      <c r="I34" s="71"/>
       <c r="J34" s="36"/>
       <c r="K34" s="8" t="s">
         <v>33</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="10">
-        <f>SUM(E84:E88)</f>
+        <f>SUM(E90:E94)</f>
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
@@ -2455,37 +2500,37 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="97"/>
-      <c r="B35" s="89">
+      <c r="A35" s="88"/>
+      <c r="B35" s="151">
         <v>41604</v>
       </c>
-      <c r="C35" s="70">
+      <c r="C35" s="74">
         <v>0.375</v>
       </c>
-      <c r="D35" s="70">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="E35" s="79">
-        <v>2.5</v>
-      </c>
-      <c r="F35" s="91">
+      <c r="D35" s="74">
+        <v>0.9375</v>
+      </c>
+      <c r="E35" s="70">
+        <v>1.5</v>
+      </c>
+      <c r="F35" s="153">
         <f>SUM(E35:E36)</f>
-        <v>3.5</v>
-      </c>
-      <c r="G35" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="69" t="s">
+      <c r="H35" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="I35" s="69"/>
+      <c r="I35" s="71"/>
       <c r="J35" s="36"/>
       <c r="K35" s="8" t="s">
         <v>34</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10">
-        <f>SUM(E89:E93)</f>
+        <f>SUM(E95:E99)</f>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -2493,25 +2538,25 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="97"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="70">
-        <v>0.5625</v>
-      </c>
-      <c r="D36" s="70">
+      <c r="A36" s="88"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="74">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D36" s="74">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E36" s="79">
-        <v>1</v>
-      </c>
-      <c r="F36" s="92"/>
-      <c r="G36" s="71" t="s">
+      <c r="E36" s="70">
+        <v>1.5</v>
+      </c>
+      <c r="F36" s="154"/>
+      <c r="G36" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="74" t="s">
+      <c r="H36" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="I36" s="69"/>
+      <c r="I36" s="71"/>
       <c r="J36" s="36"/>
       <c r="K36" s="8"/>
       <c r="L36" s="6"/>
@@ -2519,30 +2564,30 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="97"/>
-      <c r="B37" s="89">
+      <c r="A37" s="88"/>
+      <c r="B37" s="151">
         <v>41605</v>
       </c>
-      <c r="C37" s="70">
+      <c r="C37" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D37" s="70">
+      <c r="D37" s="74">
         <v>0.34375</v>
       </c>
-      <c r="E37" s="79">
+      <c r="E37" s="70">
         <v>0.25</v>
       </c>
-      <c r="F37" s="91">
+      <c r="F37" s="153">
         <f>SUM(E37:E39)</f>
         <v>3.08</v>
       </c>
-      <c r="G37" s="71" t="s">
+      <c r="G37" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="69" t="s">
+      <c r="H37" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="I37" s="69" t="s">
+      <c r="I37" s="71" t="s">
         <v>76</v>
       </c>
       <c r="J37" s="36"/>
@@ -2551,7 +2596,7 @@
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <f>SUM(E94:E98)</f>
+        <f>SUM(E100:E104)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2559,25 +2604,25 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="97"/>
-      <c r="B38" s="129"/>
-      <c r="C38" s="70">
+      <c r="A38" s="88"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="74">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D38" s="70">
+      <c r="D38" s="74">
         <v>0.375</v>
       </c>
-      <c r="E38" s="79">
+      <c r="E38" s="70">
         <v>0.5</v>
       </c>
-      <c r="F38" s="130"/>
-      <c r="G38" s="71" t="s">
+      <c r="F38" s="156"/>
+      <c r="G38" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="69" t="s">
+      <c r="H38" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="I38" s="69" t="s">
+      <c r="I38" s="71" t="s">
         <v>77</v>
       </c>
       <c r="J38" s="36"/>
@@ -2587,25 +2632,25 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="97"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="70">
+      <c r="A39" s="88"/>
+      <c r="B39" s="152"/>
+      <c r="C39" s="74">
         <v>0.5625</v>
       </c>
-      <c r="D39" s="70">
+      <c r="D39" s="74">
         <v>0.65972222222222221</v>
       </c>
-      <c r="E39" s="79">
+      <c r="E39" s="70">
         <v>2.33</v>
       </c>
-      <c r="F39" s="92"/>
-      <c r="G39" s="71" t="s">
+      <c r="F39" s="154"/>
+      <c r="G39" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="69" t="s">
+      <c r="H39" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="69"/>
+      <c r="I39" s="71"/>
       <c r="J39" s="36"/>
       <c r="K39" s="8"/>
       <c r="L39" s="6"/>
@@ -2613,30 +2658,30 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="97"/>
-      <c r="B40" s="89">
+      <c r="A40" s="88"/>
+      <c r="B40" s="151">
         <v>41608</v>
       </c>
-      <c r="C40" s="70">
+      <c r="C40" s="74">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D40" s="70">
+      <c r="D40" s="74">
         <v>0.875</v>
       </c>
-      <c r="E40" s="79">
+      <c r="E40" s="70">
         <v>1</v>
       </c>
-      <c r="F40" s="91">
+      <c r="F40" s="153">
         <f>SUM(E40:E41)</f>
         <v>1.5</v>
       </c>
-      <c r="G40" s="71" t="s">
+      <c r="G40" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="69" t="s">
+      <c r="H40" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="69"/>
+      <c r="I40" s="71"/>
       <c r="J40" s="36"/>
       <c r="K40" s="8"/>
       <c r="L40" s="6"/>
@@ -2644,25 +2689,25 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="98"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="70">
+      <c r="A41" s="89"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="74">
         <v>0.875</v>
       </c>
-      <c r="D41" s="70">
+      <c r="D41" s="74">
         <v>0.89583333333333337</v>
       </c>
-      <c r="E41" s="79">
+      <c r="E41" s="70">
         <v>0.5</v>
       </c>
-      <c r="F41" s="92"/>
-      <c r="G41" s="71" t="s">
+      <c r="F41" s="154"/>
+      <c r="G41" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="69" t="s">
+      <c r="H41" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="I41" s="69" t="s">
+      <c r="I41" s="71" t="s">
         <v>87</v>
       </c>
       <c r="J41" s="36"/>
@@ -2671,7 +2716,7 @@
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="10">
-        <f>SUM(E104:E108)</f>
+        <f>SUM(E110:E114)</f>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
@@ -2679,8 +2724,8 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="127"/>
-      <c r="B42" s="73">
+      <c r="A42" s="105"/>
+      <c r="B42" s="77">
         <v>41610</v>
       </c>
       <c r="C42" s="59">
@@ -2689,13 +2734,13 @@
       <c r="D42" s="59">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E42" s="78">
+      <c r="E42" s="69">
         <v>1</v>
       </c>
-      <c r="F42" s="72">
+      <c r="F42" s="76">
         <v>1</v>
       </c>
-      <c r="G42" s="68" t="s">
+      <c r="G42" s="69" t="s">
         <v>17</v>
       </c>
       <c r="H42" s="27" t="s">
@@ -2709,8 +2754,8 @@
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="127"/>
-      <c r="B43" s="85">
+      <c r="A43" s="105"/>
+      <c r="B43" s="96">
         <v>41611</v>
       </c>
       <c r="C43" s="59">
@@ -2719,14 +2764,14 @@
       <c r="D43" s="59">
         <v>0.93055555555555547</v>
       </c>
-      <c r="E43" s="78">
+      <c r="E43" s="69">
         <v>1</v>
       </c>
-      <c r="F43" s="87">
+      <c r="F43" s="101">
         <f>SUM(E43:E43:E44)</f>
         <v>1.8</v>
       </c>
-      <c r="G43" s="68" t="s">
+      <c r="G43" s="69" t="s">
         <v>17</v>
       </c>
       <c r="H43" s="27" t="s">
@@ -2740,19 +2785,19 @@
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="127"/>
-      <c r="B44" s="86"/>
+      <c r="A44" s="105"/>
+      <c r="B44" s="98"/>
       <c r="C44" s="59">
         <v>0.9375</v>
       </c>
       <c r="D44" s="59">
         <v>0.97222222222222221</v>
       </c>
-      <c r="E44" s="78">
+      <c r="E44" s="79">
         <v>0.8</v>
       </c>
-      <c r="F44" s="88"/>
-      <c r="G44" s="68" t="s">
+      <c r="F44" s="103"/>
+      <c r="G44" s="69" t="s">
         <v>19</v>
       </c>
       <c r="H44" s="27" t="s">
@@ -2767,7 +2812,7 @@
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="10">
-        <f>SUM(E114:E118)</f>
+        <f>SUM(E120:E124)</f>
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
@@ -2775,8 +2820,8 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="127"/>
-      <c r="B45" s="85">
+      <c r="A45" s="105"/>
+      <c r="B45" s="96">
         <v>41612</v>
       </c>
       <c r="C45" s="59">
@@ -2785,17 +2830,17 @@
       <c r="D45" s="59">
         <v>0.75</v>
       </c>
-      <c r="E45" s="80">
+      <c r="E45" s="27">
         <v>4.5</v>
       </c>
-      <c r="F45" s="87">
-        <f>SUM(E45:E49)</f>
+      <c r="F45" s="101">
+        <f>SUM(E45:E46)</f>
         <v>4.67</v>
       </c>
       <c r="G45" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="76" t="s">
+      <c r="H45" s="80" t="s">
         <v>90</v>
       </c>
       <c r="I45" s="27"/>
@@ -2805,7 +2850,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="10">
-        <f>SUM(E119:E123)</f>
+        <f>SUM(E125:E129)</f>
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
@@ -2813,22 +2858,22 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="127"/>
-      <c r="B46" s="86"/>
+      <c r="A46" s="105"/>
+      <c r="B46" s="98"/>
       <c r="C46" s="59">
         <v>0.82638888888888884</v>
       </c>
       <c r="D46" s="59">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E46" s="80">
+      <c r="E46" s="27">
         <v>0.17</v>
       </c>
-      <c r="F46" s="88"/>
+      <c r="F46" s="103"/>
       <c r="G46" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="76" t="s">
+      <c r="H46" s="80" t="s">
         <v>73</v>
       </c>
       <c r="I46" s="27" t="s">
@@ -2841,19 +2886,29 @@
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="127"/>
-      <c r="B47" s="24">
+      <c r="A47" s="105"/>
+      <c r="B47" s="96">
         <v>41613</v>
       </c>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="72">
-        <f t="shared" ref="F47:F63" si="0">SUM(E47:E50)</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="68"/>
-      <c r="H47" s="27"/>
+      <c r="C47" s="59">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="D47" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E47" s="69">
+        <v>0.67</v>
+      </c>
+      <c r="F47" s="101">
+        <f>SUM(E47:E48)</f>
+        <v>0.92</v>
+      </c>
+      <c r="G47" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="I47" s="27"/>
       <c r="J47" s="27"/>
       <c r="K47" s="8" t="s">
@@ -2861,7 +2916,7 @@
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="10">
-        <f>SUM(E124:E128)</f>
+        <f>SUM(E130:E134)</f>
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
@@ -2869,57 +2924,65 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="128"/>
-      <c r="B48" s="24">
+      <c r="A48" s="105"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="D48" s="59">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="E48" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="F48" s="103"/>
+      <c r="G48" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="J48" s="27"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="106"/>
+      <c r="B49" s="24">
         <v>41614</v>
       </c>
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="68"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="8" t="s">
+      <c r="C49" s="59">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="D49" s="59">
+        <v>0.9375</v>
+      </c>
+      <c r="E49" s="69">
+        <v>1.25</v>
+      </c>
+      <c r="F49" s="76">
+        <f>E49</f>
+        <v>1.25</v>
+      </c>
+      <c r="G49" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="L48" s="6"/>
-      <c r="M48" s="10">
-        <f>SUM(E129:E133)</f>
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="96">
-        <v>6</v>
-      </c>
-      <c r="B49" s="25">
-        <v>41617</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="10">
-        <f>SUM(E134:E138)</f>
+        <f>SUM(E135:E139)</f>
         <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
@@ -2927,27 +2990,39 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="97"/>
+      <c r="A50" s="87">
+        <v>6</v>
+      </c>
       <c r="B50" s="25">
-        <v>41618</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="81"/>
+        <v>41617</v>
+      </c>
+      <c r="C50" s="74">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D50" s="74">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E50" s="70">
+        <v>2.17</v>
+      </c>
       <c r="F50" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
+        <f>E50</f>
+        <v>2.17</v>
+      </c>
+      <c r="G50" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="I50" s="71"/>
       <c r="J50" s="36"/>
       <c r="K50" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="10">
-        <f>SUM(E139:E143)</f>
+        <f>SUM(E140:E144)</f>
         <v>0</v>
       </c>
       <c r="N50" s="3" t="s">
@@ -2955,27 +3030,39 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="97"/>
+      <c r="A51" s="88"/>
       <c r="B51" s="25">
-        <v>41619</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="81"/>
+        <v>41618</v>
+      </c>
+      <c r="C51" s="74">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="D51" s="74">
+        <v>0.90625</v>
+      </c>
+      <c r="E51" s="70">
+        <v>0.5</v>
+      </c>
       <c r="F51" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
+        <f>E51</f>
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="I51" s="71" t="s">
+        <v>95</v>
+      </c>
       <c r="J51" s="36"/>
       <c r="K51" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="10">
-        <f>SUM(E144:E148)</f>
+        <f>SUM(E145:E149)</f>
         <v>0</v>
       </c>
       <c r="N51" s="3" t="s">
@@ -2983,141 +3070,167 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="97"/>
+      <c r="A52" s="88"/>
       <c r="B52" s="25">
-        <v>41620</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="81"/>
+        <v>41619</v>
+      </c>
+      <c r="C52" s="74">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D52" s="74">
+        <v>0.9375</v>
+      </c>
+      <c r="E52" s="70">
+        <v>1</v>
+      </c>
       <c r="F52" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
+        <f>E52</f>
+        <v>1</v>
+      </c>
+      <c r="G52" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="I52" s="71"/>
       <c r="J52" s="36"/>
       <c r="K52" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="10">
-        <f>SUM(E149:E153)</f>
+        <f>SUM(E150:E154)</f>
         <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="98"/>
-      <c r="B53" s="25">
+    <row r="53" spans="1:14" s="160" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="88"/>
+      <c r="B53" s="151">
+        <v>41620</v>
+      </c>
+      <c r="C53" s="161">
+        <v>0.375</v>
+      </c>
+      <c r="D53" s="161">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E53" s="71">
+        <v>2</v>
+      </c>
+      <c r="F53" s="101">
+        <f>SUM(E53:E55)</f>
+        <v>6</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="I53" s="71"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="157" t="s">
+        <v>44</v>
+      </c>
+      <c r="L53" s="36"/>
+      <c r="M53" s="158">
+        <f>SUM(E155:E159)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="88"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="161">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D54" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="70">
+        <v>1</v>
+      </c>
+      <c r="F54" s="102"/>
+      <c r="G54" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="I54" s="71"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="88"/>
+      <c r="B55" s="152"/>
+      <c r="C55" s="74">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D55" s="74">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E55" s="70">
+        <v>3</v>
+      </c>
+      <c r="F55" s="103"/>
+      <c r="G55" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="I55" s="71"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="88"/>
+      <c r="B56" s="151">
         <v>41621</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="8" t="s">
+      <c r="C56" s="74">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D56" s="74">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E56" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="F56" s="101">
+        <f>SUM(E56:E58)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G56" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="I56" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="J56" s="36"/>
+      <c r="K56" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="L53" s="6"/>
-      <c r="M53" s="10">
-        <f>SUM(E154:E158)</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="93">
-        <v>7</v>
-      </c>
-      <c r="B54" s="24">
-        <v>41624</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L54" s="6"/>
-      <c r="M54" s="10">
-        <f>SUM(E159:E163)</f>
-        <v>0</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="94"/>
-      <c r="B55" s="24">
-        <v>41625</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L55" s="6"/>
-      <c r="M55" s="10">
-        <f>SUM(E164:E168)</f>
-        <v>0</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="94"/>
-      <c r="B56" s="24">
-        <v>41626</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="10">
-        <f>SUM(E169:E173)</f>
+        <f>SUM(E160:E164)</f>
         <v>0</v>
       </c>
       <c r="N56" s="3" t="s">
@@ -3125,138 +3238,190 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="94"/>
-      <c r="B57" s="24">
-        <v>41627</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
+      <c r="A57" s="88"/>
+      <c r="B57" s="155"/>
+      <c r="C57" s="74">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D57" s="74">
+        <v>0.625</v>
+      </c>
+      <c r="E57" s="70">
+        <v>1</v>
+      </c>
+      <c r="F57" s="102"/>
+      <c r="G57" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="I57" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="J57" s="36"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="3"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="95"/>
-      <c r="B58" s="24">
-        <v>41628</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
+      <c r="A58" s="89"/>
+      <c r="B58" s="152"/>
+      <c r="C58" s="74">
+        <v>0.625</v>
+      </c>
+      <c r="D58" s="74">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E58" s="70">
+        <v>1</v>
+      </c>
+      <c r="F58" s="103"/>
+      <c r="G58" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="I58" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="J58" s="36"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="3"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="96">
+      <c r="A59" s="82"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="84">
+        <v>7</v>
+      </c>
+      <c r="B60" s="24">
+        <v>41624</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="58">
+        <f t="shared" ref="F60:F69" si="0">SUM(E60:E63)</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L60" s="6"/>
+      <c r="M60" s="10">
+        <f>SUM(E165:E169)</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="25">
-        <v>41631</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="97"/>
-      <c r="B60" s="25">
-        <v>41632</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="97"/>
-      <c r="B61" s="25">
-        <v>41633</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="81"/>
+      <c r="A61" s="85"/>
+      <c r="B61" s="24">
+        <v>41625</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
       <c r="F61" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L61" s="6"/>
+      <c r="M61" s="10">
+        <f>SUM(E170:E174)</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="97"/>
-      <c r="B62" s="25">
-        <v>41634</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="81"/>
+      <c r="A62" s="85"/>
+      <c r="B62" s="24">
+        <v>41626</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
       <c r="F62" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L62" s="6"/>
+      <c r="M62" s="10">
+        <f>SUM(E175:E179)</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="98"/>
-      <c r="B63" s="25">
-        <v>41635</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="81"/>
+      <c r="A63" s="85"/>
+      <c r="B63" s="24">
+        <v>41627</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
       <c r="F63" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="93">
-        <v>9</v>
-      </c>
+      <c r="A64" s="86"/>
       <c r="B64" s="24">
-        <v>41638</v>
+        <v>41628</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="5">
-        <f t="shared" ref="F64:F65" si="1">E64</f>
+      <c r="E64" s="5"/>
+      <c r="F64" s="58">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G64" s="35"/>
@@ -3265,85 +3430,85 @@
       <c r="J64" s="35"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="94"/>
-      <c r="B65" s="24">
-        <v>41639</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
+      <c r="A65" s="87">
+        <v>8</v>
+      </c>
+      <c r="B65" s="25">
+        <v>41631</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="94"/>
-      <c r="B66" s="24">
-        <v>41640</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="5">
-        <f t="shared" ref="F66:F97" si="2">E66</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
+      <c r="A66" s="88"/>
+      <c r="B66" s="25">
+        <v>41632</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="94"/>
-      <c r="B67" s="24">
-        <v>41641</v>
-      </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
+      <c r="A67" s="88"/>
+      <c r="B67" s="25">
+        <v>41633</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="95"/>
-      <c r="B68" s="24">
-        <v>41642</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
+      <c r="A68" s="88"/>
+      <c r="B68" s="25">
+        <v>41634</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="96">
-        <v>10</v>
-      </c>
+      <c r="A69" s="89"/>
       <c r="B69" s="25">
-        <v>41645</v>
+        <v>41635</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="6">
-        <f t="shared" si="2"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="58">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G69" s="36"/>
@@ -3352,83 +3517,83 @@
       <c r="J69" s="36"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="97"/>
-      <c r="B70" s="25">
-        <v>41646</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="6">
+      <c r="A70" s="84">
+        <v>9</v>
+      </c>
+      <c r="B70" s="24">
+        <v>41638</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5">
+        <f t="shared" ref="F70:F71" si="1">E70</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="85"/>
+      <c r="B71" s="24">
+        <v>41639</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="85"/>
+      <c r="B72" s="24">
+        <v>41640</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5">
+        <f t="shared" ref="F72:F103" si="2">E72</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="85"/>
+      <c r="B73" s="24">
+        <v>41641</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="97"/>
-      <c r="B71" s="25">
-        <v>41647</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="81"/>
-      <c r="F71" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="97"/>
-      <c r="B72" s="25">
-        <v>41648</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="81"/>
-      <c r="F72" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="98"/>
-      <c r="B73" s="25">
-        <v>41649</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="81"/>
-      <c r="F73" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="93">
-        <v>11</v>
-      </c>
+      <c r="A74" s="86"/>
       <c r="B74" s="24">
-        <v>41652</v>
+        <v>41642</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="82"/>
+      <c r="E74" s="5"/>
       <c r="F74" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3439,83 +3604,83 @@
       <c r="J74" s="35"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="94"/>
-      <c r="B75" s="24">
-        <v>41653</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="82"/>
-      <c r="F75" s="5">
+      <c r="A75" s="87">
+        <v>10</v>
+      </c>
+      <c r="B75" s="25">
+        <v>41645</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="94"/>
-      <c r="B76" s="24">
-        <v>41654</v>
-      </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="5">
+      <c r="A76" s="88"/>
+      <c r="B76" s="25">
+        <v>41646</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="94"/>
-      <c r="B77" s="24">
-        <v>41655</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="82"/>
-      <c r="F77" s="5">
+      <c r="A77" s="88"/>
+      <c r="B77" s="25">
+        <v>41647</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="95"/>
-      <c r="B78" s="24">
-        <v>41656</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="82"/>
-      <c r="F78" s="5">
+      <c r="A78" s="88"/>
+      <c r="B78" s="25">
+        <v>41648</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="35"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="96">
-        <v>12</v>
-      </c>
+      <c r="A79" s="89"/>
       <c r="B79" s="25">
-        <v>41659</v>
+        <v>41649</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="81"/>
+      <c r="E79" s="6"/>
       <c r="F79" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3526,453 +3691,453 @@
       <c r="J79" s="36"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="97"/>
-      <c r="B80" s="25">
-        <v>41660</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="81"/>
-      <c r="F80" s="6">
+      <c r="A80" s="84">
+        <v>11</v>
+      </c>
+      <c r="B80" s="24">
+        <v>41652</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="97"/>
-      <c r="B81" s="25">
-        <v>41661</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="81"/>
-      <c r="F81" s="6">
+      <c r="A81" s="85"/>
+      <c r="B81" s="24">
+        <v>41653</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="97"/>
-      <c r="B82" s="25">
-        <v>41662</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="81"/>
-      <c r="F82" s="6">
+      <c r="A82" s="85"/>
+      <c r="B82" s="24">
+        <v>41654</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="98"/>
-      <c r="B83" s="25">
-        <v>41663</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="81"/>
-      <c r="F83" s="6">
+      <c r="A83" s="85"/>
+      <c r="B83" s="24">
+        <v>41655</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="93">
-        <v>13</v>
-      </c>
+      <c r="A84" s="86"/>
       <c r="B84" s="24">
-        <v>41666</v>
+        <v>41656</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="82"/>
+      <c r="E84" s="5"/>
       <c r="F84" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G84" s="35" t="s">
-        <v>30</v>
-      </c>
+      <c r="G84" s="35"/>
       <c r="H84" s="35"/>
       <c r="I84" s="35"/>
       <c r="J84" s="35"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="94"/>
-      <c r="B85" s="24">
-        <v>41667</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="5">
+      <c r="A85" s="87">
+        <v>12</v>
+      </c>
+      <c r="B85" s="25">
+        <v>41659</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G85" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="94"/>
-      <c r="B86" s="24">
-        <v>41668</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="82"/>
-      <c r="F86" s="5">
+      <c r="A86" s="88"/>
+      <c r="B86" s="25">
+        <v>41660</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G86" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="94"/>
-      <c r="B87" s="24">
-        <v>41669</v>
-      </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="82"/>
-      <c r="F87" s="5">
+      <c r="A87" s="88"/>
+      <c r="B87" s="25">
+        <v>41661</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G87" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="35"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="95"/>
-      <c r="B88" s="24">
-        <v>41670</v>
-      </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="82"/>
-      <c r="F88" s="5">
+      <c r="A88" s="88"/>
+      <c r="B88" s="25">
+        <v>41662</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G88" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="35"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="96">
-        <v>14</v>
-      </c>
+      <c r="A89" s="89"/>
       <c r="B89" s="25">
-        <v>41673</v>
+        <v>41663</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="81"/>
+      <c r="E89" s="6"/>
       <c r="F89" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G89" s="37" t="s">
-        <v>30</v>
-      </c>
+      <c r="G89" s="36"/>
       <c r="H89" s="36"/>
       <c r="I89" s="36"/>
       <c r="J89" s="36"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="97"/>
-      <c r="B90" s="25">
-        <v>41674</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="81"/>
-      <c r="F90" s="6">
+      <c r="A90" s="84">
+        <v>13</v>
+      </c>
+      <c r="B90" s="24">
+        <v>41666</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G90" s="37" t="s">
+      <c r="G90" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="35"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="97"/>
-      <c r="B91" s="25">
-        <v>41675</v>
-      </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="81"/>
-      <c r="F91" s="6">
+      <c r="A91" s="85"/>
+      <c r="B91" s="24">
+        <v>41667</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G91" s="37" t="s">
+      <c r="G91" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="35"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="97"/>
-      <c r="B92" s="25">
-        <v>41676</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="81"/>
-      <c r="F92" s="6">
+      <c r="A92" s="85"/>
+      <c r="B92" s="24">
+        <v>41668</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G92" s="37" t="s">
+      <c r="G92" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="35"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="98"/>
-      <c r="B93" s="25">
-        <v>41677</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="81"/>
-      <c r="F93" s="6">
+      <c r="A93" s="85"/>
+      <c r="B93" s="24">
+        <v>41669</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G93" s="37" t="s">
+      <c r="G93" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="93">
-        <v>15</v>
-      </c>
+      <c r="A94" s="86"/>
       <c r="B94" s="24">
-        <v>41680</v>
+        <v>41670</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
-      <c r="E94" s="82"/>
+      <c r="E94" s="5"/>
       <c r="F94" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G94" s="35"/>
+      <c r="G94" s="35" t="s">
+        <v>30</v>
+      </c>
       <c r="H94" s="35"/>
       <c r="I94" s="35"/>
       <c r="J94" s="35"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="94"/>
-      <c r="B95" s="24">
-        <v>41681</v>
-      </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="82"/>
-      <c r="F95" s="5">
+      <c r="A95" s="87">
+        <v>14</v>
+      </c>
+      <c r="B95" s="25">
+        <v>41673</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="35"/>
-      <c r="J95" s="35"/>
+      <c r="G95" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="94"/>
-      <c r="B96" s="24">
-        <v>41682</v>
-      </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="82"/>
-      <c r="F96" s="5">
+      <c r="A96" s="88"/>
+      <c r="B96" s="25">
+        <v>41674</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G96" s="35"/>
-      <c r="H96" s="35"/>
-      <c r="I96" s="35"/>
-      <c r="J96" s="35"/>
+      <c r="G96" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="94"/>
-      <c r="B97" s="24">
-        <v>41683</v>
-      </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="82"/>
-      <c r="F97" s="5">
+      <c r="A97" s="88"/>
+      <c r="B97" s="25">
+        <v>41675</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35"/>
+      <c r="G97" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="95"/>
-      <c r="B98" s="24">
-        <v>41684</v>
-      </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="82"/>
-      <c r="F98" s="5">
-        <f t="shared" ref="F98:F129" si="3">E98</f>
-        <v>0</v>
-      </c>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="35"/>
+      <c r="A98" s="88"/>
+      <c r="B98" s="25">
+        <v>41676</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H98" s="36"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="96">
-        <v>16</v>
-      </c>
+      <c r="A99" s="89"/>
       <c r="B99" s="25">
-        <v>41687</v>
+        <v>41677</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="81"/>
+      <c r="E99" s="6"/>
       <c r="F99" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="36"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="H99" s="36"/>
       <c r="I99" s="36"/>
       <c r="J99" s="36"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="97"/>
-      <c r="B100" s="25">
-        <v>41688</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="81"/>
-      <c r="F100" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="36"/>
+      <c r="A100" s="84">
+        <v>15</v>
+      </c>
+      <c r="B100" s="24">
+        <v>41680</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="35"/>
+      <c r="J100" s="35"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="97"/>
-      <c r="B101" s="25">
-        <v>41689</v>
-      </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="81"/>
-      <c r="F101" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
+      <c r="A101" s="85"/>
+      <c r="B101" s="24">
+        <v>41681</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="35"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="97"/>
-      <c r="B102" s="25">
-        <v>41690</v>
-      </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="81"/>
-      <c r="F102" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="36"/>
+      <c r="A102" s="85"/>
+      <c r="B102" s="24">
+        <v>41682</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
+      <c r="J102" s="35"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="98"/>
-      <c r="B103" s="25">
-        <v>41691</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="81"/>
-      <c r="F103" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="36"/>
+      <c r="A103" s="85"/>
+      <c r="B103" s="24">
+        <v>41683</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="35"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="35"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="93">
-        <v>17</v>
-      </c>
+      <c r="A104" s="86"/>
       <c r="B104" s="24">
-        <v>41694</v>
+        <v>41684</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
-      <c r="E104" s="82"/>
+      <c r="E104" s="5"/>
       <c r="F104" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F104:F135" si="3">E104</f>
         <v>0</v>
       </c>
       <c r="G104" s="35"/>
@@ -3981,83 +4146,83 @@
       <c r="J104" s="35"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="94"/>
-      <c r="B105" s="24">
-        <v>41695</v>
-      </c>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="5">
+      <c r="A105" s="87">
+        <v>16</v>
+      </c>
+      <c r="B105" s="25">
+        <v>41687</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G105" s="35"/>
-      <c r="H105" s="35"/>
-      <c r="I105" s="35"/>
-      <c r="J105" s="35"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="36"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="94"/>
-      <c r="B106" s="24">
-        <v>41696</v>
-      </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="82"/>
-      <c r="F106" s="5">
+      <c r="A106" s="88"/>
+      <c r="B106" s="25">
+        <v>41688</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G106" s="35"/>
-      <c r="H106" s="35"/>
-      <c r="I106" s="35"/>
-      <c r="J106" s="35"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="36"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="94"/>
-      <c r="B107" s="24">
-        <v>41697</v>
-      </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="82"/>
-      <c r="F107" s="5">
+      <c r="A107" s="88"/>
+      <c r="B107" s="25">
+        <v>41689</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G107" s="35"/>
-      <c r="H107" s="35"/>
-      <c r="I107" s="35"/>
-      <c r="J107" s="35"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="36"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="95"/>
-      <c r="B108" s="24">
-        <v>41698</v>
-      </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="82"/>
-      <c r="F108" s="5">
+      <c r="A108" s="88"/>
+      <c r="B108" s="25">
+        <v>41690</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G108" s="35"/>
-      <c r="H108" s="35"/>
-      <c r="I108" s="35"/>
-      <c r="J108" s="35"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="36"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="96">
-        <v>18</v>
-      </c>
+      <c r="A109" s="89"/>
       <c r="B109" s="25">
-        <v>41701</v>
+        <v>41691</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
-      <c r="E109" s="81"/>
+      <c r="E109" s="6"/>
       <c r="F109" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4068,83 +4233,83 @@
       <c r="J109" s="36"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="97"/>
-      <c r="B110" s="25">
-        <v>41702</v>
-      </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="81"/>
-      <c r="F110" s="6">
+      <c r="A110" s="84">
+        <v>17</v>
+      </c>
+      <c r="B110" s="24">
+        <v>41694</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
-      <c r="J110" s="36"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="35"/>
+      <c r="I110" s="35"/>
+      <c r="J110" s="35"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="97"/>
-      <c r="B111" s="25">
-        <v>41703</v>
-      </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="81"/>
-      <c r="F111" s="6">
+      <c r="A111" s="85"/>
+      <c r="B111" s="24">
+        <v>41695</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="36"/>
-      <c r="J111" s="36"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="35"/>
+      <c r="J111" s="35"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="97"/>
-      <c r="B112" s="25">
-        <v>41704</v>
-      </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="81"/>
-      <c r="F112" s="6">
+      <c r="A112" s="85"/>
+      <c r="B112" s="24">
+        <v>41696</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="36"/>
-      <c r="J112" s="36"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="35"/>
+      <c r="J112" s="35"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="98"/>
-      <c r="B113" s="25">
-        <v>41705</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="81"/>
-      <c r="F113" s="6">
+      <c r="A113" s="85"/>
+      <c r="B113" s="24">
+        <v>41697</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="36"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="35"/>
+      <c r="J113" s="35"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="93">
-        <v>19</v>
-      </c>
+      <c r="A114" s="86"/>
       <c r="B114" s="24">
-        <v>41708</v>
+        <v>41698</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
-      <c r="E114" s="82"/>
+      <c r="E114" s="5"/>
       <c r="F114" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4155,83 +4320,83 @@
       <c r="J114" s="35"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="94"/>
-      <c r="B115" s="24">
-        <v>41709</v>
-      </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="82"/>
-      <c r="F115" s="5">
+      <c r="A115" s="87">
+        <v>18</v>
+      </c>
+      <c r="B115" s="25">
+        <v>41701</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G115" s="35"/>
-      <c r="H115" s="35"/>
-      <c r="I115" s="35"/>
-      <c r="J115" s="35"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="36"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="94"/>
-      <c r="B116" s="24">
-        <v>41710</v>
-      </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="82"/>
-      <c r="F116" s="5">
+      <c r="A116" s="88"/>
+      <c r="B116" s="25">
+        <v>41702</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G116" s="35"/>
-      <c r="H116" s="35"/>
-      <c r="I116" s="35"/>
-      <c r="J116" s="35"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="36"/>
+      <c r="I116" s="36"/>
+      <c r="J116" s="36"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="94"/>
-      <c r="B117" s="24">
-        <v>41711</v>
-      </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="82"/>
-      <c r="F117" s="5">
+      <c r="A117" s="88"/>
+      <c r="B117" s="25">
+        <v>41703</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G117" s="35"/>
-      <c r="H117" s="35"/>
-      <c r="I117" s="35"/>
-      <c r="J117" s="35"/>
+      <c r="G117" s="36"/>
+      <c r="H117" s="36"/>
+      <c r="I117" s="36"/>
+      <c r="J117" s="36"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="95"/>
-      <c r="B118" s="24">
-        <v>41712</v>
-      </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="82"/>
-      <c r="F118" s="5">
+      <c r="A118" s="88"/>
+      <c r="B118" s="25">
+        <v>41704</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G118" s="35"/>
-      <c r="H118" s="35"/>
-      <c r="I118" s="35"/>
-      <c r="J118" s="35"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
+      <c r="I118" s="36"/>
+      <c r="J118" s="36"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="96">
-        <v>20</v>
-      </c>
+      <c r="A119" s="89"/>
       <c r="B119" s="25">
-        <v>41715</v>
+        <v>41705</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
-      <c r="E119" s="81"/>
+      <c r="E119" s="6"/>
       <c r="F119" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4242,83 +4407,83 @@
       <c r="J119" s="36"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="97"/>
-      <c r="B120" s="25">
-        <v>41716</v>
-      </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="81"/>
-      <c r="F120" s="6">
+      <c r="A120" s="84">
+        <v>19</v>
+      </c>
+      <c r="B120" s="24">
+        <v>41708</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G120" s="36"/>
-      <c r="H120" s="36"/>
-      <c r="I120" s="36"/>
-      <c r="J120" s="36"/>
+      <c r="G120" s="35"/>
+      <c r="H120" s="35"/>
+      <c r="I120" s="35"/>
+      <c r="J120" s="35"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="97"/>
-      <c r="B121" s="25">
-        <v>41717</v>
-      </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="81"/>
-      <c r="F121" s="6">
+      <c r="A121" s="85"/>
+      <c r="B121" s="24">
+        <v>41709</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="36"/>
-      <c r="J121" s="36"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="35"/>
+      <c r="I121" s="35"/>
+      <c r="J121" s="35"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="97"/>
-      <c r="B122" s="25">
-        <v>41718</v>
-      </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="81"/>
-      <c r="F122" s="6">
+      <c r="A122" s="85"/>
+      <c r="B122" s="24">
+        <v>41710</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G122" s="36"/>
-      <c r="H122" s="36"/>
-      <c r="I122" s="36"/>
-      <c r="J122" s="36"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="35"/>
+      <c r="J122" s="35"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="98"/>
-      <c r="B123" s="25">
-        <v>41719</v>
-      </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="81"/>
-      <c r="F123" s="6">
+      <c r="A123" s="85"/>
+      <c r="B123" s="24">
+        <v>41711</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G123" s="36"/>
-      <c r="H123" s="36"/>
-      <c r="I123" s="36"/>
-      <c r="J123" s="36"/>
+      <c r="G123" s="35"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="35"/>
+      <c r="J123" s="35"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="93">
-        <v>21</v>
-      </c>
+      <c r="A124" s="86"/>
       <c r="B124" s="24">
-        <v>41722</v>
+        <v>41712</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
-      <c r="E124" s="82"/>
+      <c r="E124" s="5"/>
       <c r="F124" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4329,83 +4494,83 @@
       <c r="J124" s="35"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="94"/>
-      <c r="B125" s="24">
-        <v>41723</v>
-      </c>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="82"/>
-      <c r="F125" s="5">
+      <c r="A125" s="87">
+        <v>20</v>
+      </c>
+      <c r="B125" s="25">
+        <v>41715</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G125" s="35"/>
-      <c r="H125" s="35"/>
-      <c r="I125" s="35"/>
-      <c r="J125" s="35"/>
+      <c r="G125" s="36"/>
+      <c r="H125" s="36"/>
+      <c r="I125" s="36"/>
+      <c r="J125" s="36"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="94"/>
-      <c r="B126" s="24">
-        <v>41724</v>
-      </c>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="82"/>
-      <c r="F126" s="5">
+      <c r="A126" s="88"/>
+      <c r="B126" s="25">
+        <v>41716</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G126" s="35"/>
-      <c r="H126" s="35"/>
-      <c r="I126" s="35"/>
-      <c r="J126" s="35"/>
+      <c r="G126" s="36"/>
+      <c r="H126" s="36"/>
+      <c r="I126" s="36"/>
+      <c r="J126" s="36"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="94"/>
-      <c r="B127" s="24">
-        <v>41725</v>
-      </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="82"/>
-      <c r="F127" s="5">
+      <c r="A127" s="88"/>
+      <c r="B127" s="25">
+        <v>41717</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G127" s="35"/>
-      <c r="H127" s="35"/>
-      <c r="I127" s="35"/>
-      <c r="J127" s="35"/>
+      <c r="G127" s="36"/>
+      <c r="H127" s="36"/>
+      <c r="I127" s="36"/>
+      <c r="J127" s="36"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="95"/>
-      <c r="B128" s="24">
-        <v>41726</v>
-      </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="82"/>
-      <c r="F128" s="5">
+      <c r="A128" s="88"/>
+      <c r="B128" s="25">
+        <v>41718</v>
+      </c>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G128" s="35"/>
-      <c r="H128" s="35"/>
-      <c r="I128" s="35"/>
-      <c r="J128" s="35"/>
+      <c r="G128" s="36"/>
+      <c r="H128" s="36"/>
+      <c r="I128" s="36"/>
+      <c r="J128" s="36"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="96">
-        <v>22</v>
-      </c>
+      <c r="A129" s="89"/>
       <c r="B129" s="25">
-        <v>41729</v>
+        <v>41719</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
-      <c r="E129" s="81"/>
+      <c r="E129" s="6"/>
       <c r="F129" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4416,85 +4581,85 @@
       <c r="J129" s="36"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="97"/>
-      <c r="B130" s="25">
-        <v>41730</v>
-      </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="81"/>
-      <c r="F130" s="6">
-        <f t="shared" ref="F130:F161" si="4">E130</f>
-        <v>0</v>
-      </c>
-      <c r="G130" s="36"/>
-      <c r="H130" s="36"/>
-      <c r="I130" s="36"/>
-      <c r="J130" s="36"/>
+      <c r="A130" s="84">
+        <v>21</v>
+      </c>
+      <c r="B130" s="24">
+        <v>41722</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G130" s="35"/>
+      <c r="H130" s="35"/>
+      <c r="I130" s="35"/>
+      <c r="J130" s="35"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="97"/>
-      <c r="B131" s="25">
-        <v>41731</v>
-      </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="81"/>
-      <c r="F131" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G131" s="36"/>
-      <c r="H131" s="36"/>
-      <c r="I131" s="36"/>
-      <c r="J131" s="36"/>
+      <c r="A131" s="85"/>
+      <c r="B131" s="24">
+        <v>41723</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G131" s="35"/>
+      <c r="H131" s="35"/>
+      <c r="I131" s="35"/>
+      <c r="J131" s="35"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="97"/>
-      <c r="B132" s="25">
-        <v>41732</v>
-      </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="81"/>
-      <c r="F132" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G132" s="36"/>
-      <c r="H132" s="36"/>
-      <c r="I132" s="36"/>
-      <c r="J132" s="36"/>
+      <c r="A132" s="85"/>
+      <c r="B132" s="24">
+        <v>41724</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G132" s="35"/>
+      <c r="H132" s="35"/>
+      <c r="I132" s="35"/>
+      <c r="J132" s="35"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="98"/>
-      <c r="B133" s="25">
-        <v>41733</v>
-      </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="81"/>
-      <c r="F133" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G133" s="36"/>
-      <c r="H133" s="36"/>
-      <c r="I133" s="36"/>
-      <c r="J133" s="36"/>
+      <c r="A133" s="85"/>
+      <c r="B133" s="24">
+        <v>41725</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G133" s="35"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="35"/>
+      <c r="J133" s="35"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="93">
-        <v>23</v>
-      </c>
+      <c r="A134" s="86"/>
       <c r="B134" s="24">
-        <v>41736</v>
+        <v>41726</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
-      <c r="E134" s="82"/>
+      <c r="E134" s="5"/>
       <c r="F134" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G134" s="35"/>
@@ -4503,83 +4668,83 @@
       <c r="J134" s="35"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="94"/>
-      <c r="B135" s="24">
-        <v>41737</v>
-      </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="82"/>
-      <c r="F135" s="5">
+      <c r="A135" s="87">
+        <v>22</v>
+      </c>
+      <c r="B135" s="25">
+        <v>41729</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G135" s="36"/>
+      <c r="H135" s="36"/>
+      <c r="I135" s="36"/>
+      <c r="J135" s="36"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="88"/>
+      <c r="B136" s="25">
+        <v>41730</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6">
+        <f t="shared" ref="F136:F167" si="4">E136</f>
+        <v>0</v>
+      </c>
+      <c r="G136" s="36"/>
+      <c r="H136" s="36"/>
+      <c r="I136" s="36"/>
+      <c r="J136" s="36"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="88"/>
+      <c r="B137" s="25">
+        <v>41731</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G135" s="35"/>
-      <c r="H135" s="35"/>
-      <c r="I135" s="35"/>
-      <c r="J135" s="35"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="94"/>
-      <c r="B136" s="24">
-        <v>41738</v>
-      </c>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="82"/>
-      <c r="F136" s="5">
+      <c r="G137" s="36"/>
+      <c r="H137" s="36"/>
+      <c r="I137" s="36"/>
+      <c r="J137" s="36"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="88"/>
+      <c r="B138" s="25">
+        <v>41732</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G136" s="35"/>
-      <c r="H136" s="35"/>
-      <c r="I136" s="35"/>
-      <c r="J136" s="35"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="94"/>
-      <c r="B137" s="24">
-        <v>41739</v>
-      </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="82"/>
-      <c r="F137" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G137" s="35"/>
-      <c r="H137" s="35"/>
-      <c r="I137" s="35"/>
-      <c r="J137" s="35"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="95"/>
-      <c r="B138" s="24">
-        <v>41740</v>
-      </c>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="82"/>
-      <c r="F138" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G138" s="35"/>
-      <c r="H138" s="35"/>
-      <c r="I138" s="35"/>
-      <c r="J138" s="35"/>
+      <c r="G138" s="36"/>
+      <c r="H138" s="36"/>
+      <c r="I138" s="36"/>
+      <c r="J138" s="36"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="96">
-        <v>24</v>
-      </c>
+      <c r="A139" s="89"/>
       <c r="B139" s="25">
-        <v>41743</v>
+        <v>41733</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
-      <c r="E139" s="81"/>
+      <c r="E139" s="6"/>
       <c r="F139" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4590,83 +4755,83 @@
       <c r="J139" s="36"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="97"/>
-      <c r="B140" s="25">
-        <v>41744</v>
-      </c>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="81"/>
-      <c r="F140" s="6">
+      <c r="A140" s="84">
+        <v>23</v>
+      </c>
+      <c r="B140" s="24">
+        <v>41736</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G140" s="36"/>
-      <c r="H140" s="36"/>
-      <c r="I140" s="36"/>
-      <c r="J140" s="36"/>
+      <c r="G140" s="35"/>
+      <c r="H140" s="35"/>
+      <c r="I140" s="35"/>
+      <c r="J140" s="35"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="97"/>
-      <c r="B141" s="25">
-        <v>41745</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="81"/>
-      <c r="F141" s="6">
+      <c r="A141" s="85"/>
+      <c r="B141" s="24">
+        <v>41737</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G141" s="36"/>
-      <c r="H141" s="36"/>
-      <c r="I141" s="36"/>
-      <c r="J141" s="36"/>
+      <c r="G141" s="35"/>
+      <c r="H141" s="35"/>
+      <c r="I141" s="35"/>
+      <c r="J141" s="35"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="97"/>
-      <c r="B142" s="25">
-        <v>41746</v>
-      </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="81"/>
-      <c r="F142" s="6">
+      <c r="A142" s="85"/>
+      <c r="B142" s="24">
+        <v>41738</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G142" s="36"/>
-      <c r="H142" s="36"/>
-      <c r="I142" s="36"/>
-      <c r="J142" s="36"/>
+      <c r="G142" s="35"/>
+      <c r="H142" s="35"/>
+      <c r="I142" s="35"/>
+      <c r="J142" s="35"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="98"/>
-      <c r="B143" s="25">
-        <v>41747</v>
-      </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="81"/>
-      <c r="F143" s="6">
+      <c r="A143" s="85"/>
+      <c r="B143" s="24">
+        <v>41739</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G143" s="36"/>
-      <c r="H143" s="36"/>
-      <c r="I143" s="36"/>
-      <c r="J143" s="36"/>
+      <c r="G143" s="35"/>
+      <c r="H143" s="35"/>
+      <c r="I143" s="35"/>
+      <c r="J143" s="35"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="93">
-        <v>25</v>
-      </c>
+      <c r="A144" s="86"/>
       <c r="B144" s="24">
-        <v>41750</v>
+        <v>41740</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
-      <c r="E144" s="82"/>
+      <c r="E144" s="5"/>
       <c r="F144" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4677,83 +4842,83 @@
       <c r="J144" s="35"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="94"/>
-      <c r="B145" s="24">
-        <v>41751</v>
-      </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="82"/>
-      <c r="F145" s="5">
+      <c r="A145" s="87">
+        <v>24</v>
+      </c>
+      <c r="B145" s="25">
+        <v>41743</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G145" s="35"/>
-      <c r="H145" s="35"/>
-      <c r="I145" s="35"/>
-      <c r="J145" s="35"/>
+      <c r="G145" s="36"/>
+      <c r="H145" s="36"/>
+      <c r="I145" s="36"/>
+      <c r="J145" s="36"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="94"/>
-      <c r="B146" s="24">
-        <v>41752</v>
-      </c>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="82"/>
-      <c r="F146" s="5">
+      <c r="A146" s="88"/>
+      <c r="B146" s="25">
+        <v>41744</v>
+      </c>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G146" s="35"/>
-      <c r="H146" s="35"/>
-      <c r="I146" s="35"/>
-      <c r="J146" s="35"/>
+      <c r="G146" s="36"/>
+      <c r="H146" s="36"/>
+      <c r="I146" s="36"/>
+      <c r="J146" s="36"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="94"/>
-      <c r="B147" s="24">
-        <v>41753</v>
-      </c>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="82"/>
-      <c r="F147" s="5">
+      <c r="A147" s="88"/>
+      <c r="B147" s="25">
+        <v>41745</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G147" s="35"/>
-      <c r="H147" s="35"/>
-      <c r="I147" s="35"/>
-      <c r="J147" s="35"/>
+      <c r="G147" s="36"/>
+      <c r="H147" s="36"/>
+      <c r="I147" s="36"/>
+      <c r="J147" s="36"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="95"/>
-      <c r="B148" s="24">
-        <v>41754</v>
-      </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="82"/>
-      <c r="F148" s="5">
+      <c r="A148" s="88"/>
+      <c r="B148" s="25">
+        <v>41746</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G148" s="35"/>
-      <c r="H148" s="35"/>
-      <c r="I148" s="35"/>
-      <c r="J148" s="35"/>
+      <c r="G148" s="36"/>
+      <c r="H148" s="36"/>
+      <c r="I148" s="36"/>
+      <c r="J148" s="36"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="96">
-        <v>26</v>
-      </c>
+      <c r="A149" s="89"/>
       <c r="B149" s="25">
-        <v>41757</v>
+        <v>41747</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
-      <c r="E149" s="81"/>
+      <c r="E149" s="6"/>
       <c r="F149" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4764,83 +4929,83 @@
       <c r="J149" s="36"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="97"/>
-      <c r="B150" s="25">
-        <v>41758</v>
-      </c>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="81"/>
-      <c r="F150" s="6">
+      <c r="A150" s="84">
+        <v>25</v>
+      </c>
+      <c r="B150" s="24">
+        <v>41750</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G150" s="36"/>
-      <c r="H150" s="36"/>
-      <c r="I150" s="36"/>
-      <c r="J150" s="36"/>
+      <c r="G150" s="35"/>
+      <c r="H150" s="35"/>
+      <c r="I150" s="35"/>
+      <c r="J150" s="35"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="97"/>
-      <c r="B151" s="25">
-        <v>41759</v>
-      </c>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="81"/>
-      <c r="F151" s="6">
+      <c r="A151" s="85"/>
+      <c r="B151" s="24">
+        <v>41751</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G151" s="36"/>
-      <c r="H151" s="36"/>
-      <c r="I151" s="36"/>
-      <c r="J151" s="36"/>
+      <c r="G151" s="35"/>
+      <c r="H151" s="35"/>
+      <c r="I151" s="35"/>
+      <c r="J151" s="35"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="97"/>
-      <c r="B152" s="25">
-        <v>41760</v>
-      </c>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="81"/>
-      <c r="F152" s="6">
+      <c r="A152" s="85"/>
+      <c r="B152" s="24">
+        <v>41752</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G152" s="36"/>
-      <c r="H152" s="36"/>
-      <c r="I152" s="36"/>
-      <c r="J152" s="36"/>
+      <c r="G152" s="35"/>
+      <c r="H152" s="35"/>
+      <c r="I152" s="35"/>
+      <c r="J152" s="35"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="98"/>
-      <c r="B153" s="25">
-        <v>41761</v>
-      </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="81"/>
-      <c r="F153" s="6">
+      <c r="A153" s="85"/>
+      <c r="B153" s="24">
+        <v>41753</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G153" s="36"/>
-      <c r="H153" s="36"/>
-      <c r="I153" s="36"/>
-      <c r="J153" s="36"/>
+      <c r="G153" s="35"/>
+      <c r="H153" s="35"/>
+      <c r="I153" s="35"/>
+      <c r="J153" s="35"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="93">
-        <v>27</v>
-      </c>
+      <c r="A154" s="86"/>
       <c r="B154" s="24">
-        <v>41764</v>
+        <v>41754</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
-      <c r="E154" s="82"/>
+      <c r="E154" s="5"/>
       <c r="F154" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4851,83 +5016,83 @@
       <c r="J154" s="35"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="94"/>
-      <c r="B155" s="24">
-        <v>41765</v>
-      </c>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="82"/>
-      <c r="F155" s="5">
+      <c r="A155" s="87">
+        <v>26</v>
+      </c>
+      <c r="B155" s="25">
+        <v>41757</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G155" s="35"/>
-      <c r="H155" s="35"/>
-      <c r="I155" s="35"/>
-      <c r="J155" s="35"/>
+      <c r="G155" s="36"/>
+      <c r="H155" s="36"/>
+      <c r="I155" s="36"/>
+      <c r="J155" s="36"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="94"/>
-      <c r="B156" s="24">
-        <v>41766</v>
-      </c>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="82"/>
-      <c r="F156" s="5">
+      <c r="A156" s="88"/>
+      <c r="B156" s="25">
+        <v>41758</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G156" s="35"/>
-      <c r="H156" s="35"/>
-      <c r="I156" s="35"/>
-      <c r="J156" s="35"/>
+      <c r="G156" s="36"/>
+      <c r="H156" s="36"/>
+      <c r="I156" s="36"/>
+      <c r="J156" s="36"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="94"/>
-      <c r="B157" s="24">
-        <v>41767</v>
-      </c>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="82"/>
-      <c r="F157" s="5">
+      <c r="A157" s="88"/>
+      <c r="B157" s="25">
+        <v>41759</v>
+      </c>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G157" s="35"/>
-      <c r="H157" s="35"/>
-      <c r="I157" s="35"/>
-      <c r="J157" s="35"/>
+      <c r="G157" s="36"/>
+      <c r="H157" s="36"/>
+      <c r="I157" s="36"/>
+      <c r="J157" s="36"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="95"/>
-      <c r="B158" s="24">
-        <v>41768</v>
-      </c>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="82"/>
-      <c r="F158" s="5">
+      <c r="A158" s="88"/>
+      <c r="B158" s="25">
+        <v>41760</v>
+      </c>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G158" s="35"/>
-      <c r="H158" s="35"/>
-      <c r="I158" s="35"/>
-      <c r="J158" s="35"/>
+      <c r="G158" s="36"/>
+      <c r="H158" s="36"/>
+      <c r="I158" s="36"/>
+      <c r="J158" s="36"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="96">
-        <v>28</v>
-      </c>
+      <c r="A159" s="89"/>
       <c r="B159" s="25">
-        <v>41771</v>
+        <v>41761</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
-      <c r="E159" s="81"/>
+      <c r="E159" s="6"/>
       <c r="F159" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4938,85 +5103,85 @@
       <c r="J159" s="36"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="97"/>
-      <c r="B160" s="25">
-        <v>41772</v>
-      </c>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="81"/>
-      <c r="F160" s="6">
+      <c r="A160" s="84">
+        <v>27</v>
+      </c>
+      <c r="B160" s="24">
+        <v>41764</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G160" s="36"/>
-      <c r="H160" s="36"/>
-      <c r="I160" s="36"/>
-      <c r="J160" s="36"/>
+      <c r="G160" s="35"/>
+      <c r="H160" s="35"/>
+      <c r="I160" s="35"/>
+      <c r="J160" s="35"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="97"/>
-      <c r="B161" s="25">
-        <v>41773</v>
-      </c>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="81"/>
-      <c r="F161" s="6">
+      <c r="A161" s="85"/>
+      <c r="B161" s="24">
+        <v>41765</v>
+      </c>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G161" s="36"/>
-      <c r="H161" s="36"/>
-      <c r="I161" s="36"/>
-      <c r="J161" s="36"/>
+      <c r="G161" s="35"/>
+      <c r="H161" s="35"/>
+      <c r="I161" s="35"/>
+      <c r="J161" s="35"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="97"/>
-      <c r="B162" s="25">
-        <v>41774</v>
-      </c>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="81"/>
-      <c r="F162" s="6">
-        <f t="shared" ref="F162:F173" si="5">E162</f>
-        <v>0</v>
-      </c>
-      <c r="G162" s="36"/>
-      <c r="H162" s="36"/>
-      <c r="I162" s="36"/>
-      <c r="J162" s="36"/>
+      <c r="A162" s="85"/>
+      <c r="B162" s="24">
+        <v>41766</v>
+      </c>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G162" s="35"/>
+      <c r="H162" s="35"/>
+      <c r="I162" s="35"/>
+      <c r="J162" s="35"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="98"/>
-      <c r="B163" s="25">
-        <v>41775</v>
-      </c>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="81"/>
-      <c r="F163" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G163" s="36"/>
-      <c r="H163" s="36"/>
-      <c r="I163" s="36"/>
-      <c r="J163" s="36"/>
+      <c r="A163" s="85"/>
+      <c r="B163" s="24">
+        <v>41767</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G163" s="35"/>
+      <c r="H163" s="35"/>
+      <c r="I163" s="35"/>
+      <c r="J163" s="35"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="93">
-        <v>29</v>
-      </c>
+      <c r="A164" s="86"/>
       <c r="B164" s="24">
-        <v>41778</v>
+        <v>41768</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
-      <c r="E164" s="82"/>
+      <c r="E164" s="5"/>
       <c r="F164" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G164" s="35"/>
@@ -5025,190 +5190,308 @@
       <c r="J164" s="35"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="94"/>
-      <c r="B165" s="24">
+      <c r="A165" s="87">
+        <v>28</v>
+      </c>
+      <c r="B165" s="25">
+        <v>41771</v>
+      </c>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G165" s="36"/>
+      <c r="H165" s="36"/>
+      <c r="I165" s="36"/>
+      <c r="J165" s="36"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="88"/>
+      <c r="B166" s="25">
+        <v>41772</v>
+      </c>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G166" s="36"/>
+      <c r="H166" s="36"/>
+      <c r="I166" s="36"/>
+      <c r="J166" s="36"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="88"/>
+      <c r="B167" s="25">
+        <v>41773</v>
+      </c>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G167" s="36"/>
+      <c r="H167" s="36"/>
+      <c r="I167" s="36"/>
+      <c r="J167" s="36"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="88"/>
+      <c r="B168" s="25">
+        <v>41774</v>
+      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6">
+        <f t="shared" ref="F168:F179" si="5">E168</f>
+        <v>0</v>
+      </c>
+      <c r="G168" s="36"/>
+      <c r="H168" s="36"/>
+      <c r="I168" s="36"/>
+      <c r="J168" s="36"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="89"/>
+      <c r="B169" s="25">
+        <v>41775</v>
+      </c>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G169" s="36"/>
+      <c r="H169" s="36"/>
+      <c r="I169" s="36"/>
+      <c r="J169" s="36"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="84">
+        <v>29</v>
+      </c>
+      <c r="B170" s="24">
+        <v>41778</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G170" s="35"/>
+      <c r="H170" s="35"/>
+      <c r="I170" s="35"/>
+      <c r="J170" s="35"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="85"/>
+      <c r="B171" s="24">
         <v>41779</v>
       </c>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="82"/>
-      <c r="F165" s="5">
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G165" s="35"/>
-      <c r="H165" s="35"/>
-      <c r="I165" s="35"/>
-      <c r="J165" s="35"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="94"/>
-      <c r="B166" s="24">
+      <c r="G171" s="35"/>
+      <c r="H171" s="35"/>
+      <c r="I171" s="35"/>
+      <c r="J171" s="35"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="85"/>
+      <c r="B172" s="24">
         <v>41780</v>
       </c>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="82"/>
-      <c r="F166" s="5">
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G166" s="35"/>
-      <c r="H166" s="35"/>
-      <c r="I166" s="35"/>
-      <c r="J166" s="35"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="94"/>
-      <c r="B167" s="24">
+      <c r="G172" s="35"/>
+      <c r="H172" s="35"/>
+      <c r="I172" s="35"/>
+      <c r="J172" s="35"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="85"/>
+      <c r="B173" s="24">
         <v>41781</v>
       </c>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="82"/>
-      <c r="F167" s="5">
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G167" s="35"/>
-      <c r="H167" s="35"/>
-      <c r="I167" s="35"/>
-      <c r="J167" s="35"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="95"/>
-      <c r="B168" s="24">
+      <c r="G173" s="35"/>
+      <c r="H173" s="35"/>
+      <c r="I173" s="35"/>
+      <c r="J173" s="35"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="86"/>
+      <c r="B174" s="24">
         <v>41782</v>
       </c>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="82"/>
-      <c r="F168" s="5">
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G168" s="35"/>
-      <c r="H168" s="35"/>
-      <c r="I168" s="35"/>
-      <c r="J168" s="35"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="99">
+      <c r="G174" s="35"/>
+      <c r="H174" s="35"/>
+      <c r="I174" s="35"/>
+      <c r="J174" s="35"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="90">
         <v>30</v>
       </c>
-      <c r="B169" s="25">
+      <c r="B175" s="25">
         <v>41785</v>
       </c>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="83"/>
-      <c r="F169" s="2">
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G169" s="37"/>
-      <c r="H169" s="37"/>
-      <c r="I169" s="37"/>
-      <c r="J169" s="37"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="100"/>
-      <c r="B170" s="25">
+      <c r="G175" s="37"/>
+      <c r="H175" s="37"/>
+      <c r="I175" s="37"/>
+      <c r="J175" s="37"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="91"/>
+      <c r="B176" s="25">
         <v>41786</v>
       </c>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="83"/>
-      <c r="F170" s="2">
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G170" s="37"/>
-      <c r="H170" s="37"/>
-      <c r="I170" s="37"/>
-      <c r="J170" s="37"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="100"/>
-      <c r="B171" s="25">
+      <c r="G176" s="37"/>
+      <c r="H176" s="37"/>
+      <c r="I176" s="37"/>
+      <c r="J176" s="37"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="91"/>
+      <c r="B177" s="25">
         <v>41787</v>
       </c>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="83"/>
-      <c r="F171" s="2">
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G171" s="37"/>
-      <c r="H171" s="37"/>
-      <c r="I171" s="37"/>
-      <c r="J171" s="37"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="100"/>
-      <c r="B172" s="25">
+      <c r="G177" s="37"/>
+      <c r="H177" s="37"/>
+      <c r="I177" s="37"/>
+      <c r="J177" s="37"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="91"/>
+      <c r="B178" s="25">
         <v>41788</v>
       </c>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="83"/>
-      <c r="F172" s="2">
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G172" s="37"/>
-      <c r="H172" s="37"/>
-      <c r="I172" s="37"/>
-      <c r="J172" s="37"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="101"/>
-      <c r="B173" s="25">
+      <c r="G178" s="37"/>
+      <c r="H178" s="37"/>
+      <c r="I178" s="37"/>
+      <c r="J178" s="37"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="92"/>
+      <c r="B179" s="25">
         <v>41789</v>
       </c>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="83"/>
-      <c r="F173" s="2">
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G173" s="37"/>
-      <c r="H173" s="37"/>
-      <c r="I173" s="37"/>
-      <c r="J173" s="37"/>
+      <c r="G179" s="37"/>
+      <c r="H179" s="37"/>
+      <c r="I179" s="37"/>
+      <c r="J179" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="70">
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="F47:F48"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="F37:F39"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F43:F44"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F30:F33"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A17:A29"/>
     <mergeCell ref="A34:A41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A17:A33"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="A95:A99"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="B17:B19"/>
@@ -5218,33 +5501,27 @@
     <mergeCell ref="F22:F26"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="F27:F29"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A159:A163"/>
-    <mergeCell ref="A164:A168"/>
-    <mergeCell ref="A169:A173"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="A160:A164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A170:A174"/>
+    <mergeCell ref="A175:A179"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="A140:A144"/>
+    <mergeCell ref="A145:A149"/>
+    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="A110:A114"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="A120:A124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -5480,29 +5757,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M47</xm:sqref>
+          <xm:sqref>M47:M48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="20" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5521,7 +5779,7 @@
           <xm:sqref>M49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="19" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5540,7 +5798,7 @@
           <xm:sqref>M50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="18" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5559,7 +5817,7 @@
           <xm:sqref>M51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="17" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5578,7 +5836,7 @@
           <xm:sqref>M52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="16" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5594,7 +5852,26 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M53</xm:sqref>
+          <xm:sqref>M53:M55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="15" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M56:M59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="14" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
@@ -5613,7 +5890,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M54</xm:sqref>
+          <xm:sqref>M60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="13" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
@@ -5632,7 +5909,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M55</xm:sqref>
+          <xm:sqref>M61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="12" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
@@ -5651,7 +5928,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M56</xm:sqref>
+          <xm:sqref>M62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="11" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -5784,7 +6061,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F45 F22 F7:F8 F12 F14 F16:F17 F20 F27 F30 F34:F35 F37:F38 F42:F43 F40 F47:F173</xm:sqref>
+          <xm:sqref>F45 F22 F7:F8 F12 F14 F16:F17 F20 F27 F30 F34:F35 F37:F38 F42:F43 F40 F47 F49:F53 F56 F60:F179</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="50" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
@@ -5813,7 +6090,7 @@
           <x14:formula1>
             <xm:f>'List main task'!$B$4:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>G9:G48</xm:sqref>
+          <xm:sqref>G9:G59</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
+++ b/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xyu\Desktop\AP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\9. Timelog\individual time log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="104">
   <si>
     <t>Week</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>Catalog_New.docx</t>
+  </si>
+  <si>
+    <t>plan</t>
   </si>
 </sst>
 </file>
@@ -670,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -836,9 +839,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -847,12 +847,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="18" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -870,33 +864,267 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -906,211 +1134,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1508,13 +1553,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O179"/>
+  <dimension ref="A1:P226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G51" sqref="G51"/>
+      <selection pane="bottomRight" activeCell="D223" sqref="D223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1524,107 +1569,112 @@
     <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="6" max="7" width="7.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="47.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="15" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="112"/>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="114"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="113"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="115" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="117"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="116"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="139"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="123"/>
-    </row>
-    <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="148"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="150"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="119"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="122"/>
+    </row>
+    <row r="5" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="147"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="149"/>
       <c r="F5" s="16"/>
-      <c r="H5" s="39" t="s">
+      <c r="G5" s="172"/>
+      <c r="I5" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="J5" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
       <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>0</v>
       </c>
@@ -1644,27 +1694,30 @@
         <v>50</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="I6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="J6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="K6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="127">
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="126">
         <v>1</v>
       </c>
-      <c r="B7" s="142">
+      <c r="B7" s="141">
         <v>41586</v>
       </c>
       <c r="C7" s="17">
@@ -1676,31 +1729,32 @@
       <c r="E7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="145">
+      <c r="F7" s="144">
         <f>SUM(E7:E9)</f>
         <v>2</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="89"/>
+      <c r="H7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="8" t="s">
+      <c r="I7" s="20"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="29">
+      <c r="M7" s="9"/>
+      <c r="N7" s="29">
         <f>SUM(E7:E9)</f>
         <v>2</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="128"/>
-      <c r="B8" s="143"/>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="127"/>
+      <c r="B8" s="142"/>
       <c r="C8" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1710,21 +1764,22 @@
       <c r="E8" s="18">
         <v>0.5</v>
       </c>
-      <c r="F8" s="146"/>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="145"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="55"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="129"/>
-      <c r="B9" s="144"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="55"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="128"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="17">
         <v>0.83333333333333337</v>
       </c>
@@ -1734,21 +1789,22 @@
       <c r="E9" s="18">
         <v>1.5</v>
       </c>
-      <c r="F9" s="147"/>
-      <c r="G9" s="41" t="s">
+      <c r="F9" s="146"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="I9" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="27"/>
-    </row>
-    <row r="10" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="130">
+      <c r="J9" s="38"/>
+      <c r="K9" s="27"/>
+    </row>
+    <row r="10" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="129">
         <v>2</v>
       </c>
-      <c r="B10" s="125">
+      <c r="B10" s="124">
         <v>41589</v>
       </c>
       <c r="C10" s="46">
@@ -1760,22 +1816,23 @@
       <c r="E10" s="47">
         <v>1.5</v>
       </c>
-      <c r="F10" s="107">
+      <c r="F10" s="153">
         <f>SUM(E10:E11)</f>
         <v>3.5</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="84"/>
+      <c r="H10" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="I10" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="48"/>
-    </row>
-    <row r="11" spans="1:15" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="131"/>
-      <c r="B11" s="126"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="48"/>
+    </row>
+    <row r="11" spans="1:16" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="130"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="46">
         <v>0.875</v>
       </c>
@@ -1785,19 +1842,20 @@
       <c r="E11" s="47">
         <v>2</v>
       </c>
-      <c r="F11" s="108"/>
-      <c r="G11" s="56" t="s">
+      <c r="F11" s="154"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="I11" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="48"/>
-    </row>
-    <row r="12" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="131"/>
-      <c r="B12" s="99">
+      <c r="J11" s="50"/>
+      <c r="K11" s="48"/>
+    </row>
+    <row r="12" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="130"/>
+      <c r="B12" s="155">
         <v>41590</v>
       </c>
       <c r="C12" s="21">
@@ -1809,34 +1867,35 @@
       <c r="E12" s="22">
         <v>2.25</v>
       </c>
-      <c r="F12" s="93">
+      <c r="F12" s="151">
         <f>SUM(E12:E13)</f>
         <v>3.5</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="78"/>
+      <c r="H12" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="I12" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="8" t="s">
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="4">
+      <c r="M12" s="2"/>
+      <c r="N12" s="4">
         <f>SUM(E10:E16)</f>
         <v>10.08</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="30"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="131"/>
-      <c r="B13" s="100"/>
+      <c r="P12" s="30"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="130"/>
+      <c r="B13" s="156"/>
       <c r="C13" s="21">
         <v>0.86458333333333337</v>
       </c>
@@ -1846,24 +1905,25 @@
       <c r="E13" s="22">
         <v>1.25</v>
       </c>
-      <c r="F13" s="94"/>
-      <c r="G13" s="56" t="s">
+      <c r="F13" s="152"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="62" t="s">
+      <c r="I13" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="30"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="131"/>
-      <c r="B14" s="99">
+      <c r="J13" s="32"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="30"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="130"/>
+      <c r="B14" s="155">
         <v>41592</v>
       </c>
       <c r="C14" s="23">
@@ -1875,26 +1935,27 @@
       <c r="E14" s="26">
         <v>1.5</v>
       </c>
-      <c r="F14" s="93">
+      <c r="F14" s="151">
         <f>SUM(E14:E15)</f>
         <v>2</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="78"/>
+      <c r="H14" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="63" t="s">
+      <c r="I14" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="131"/>
-      <c r="B15" s="100"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="130"/>
+      <c r="B15" s="156"/>
       <c r="C15" s="23">
         <v>0.9375</v>
       </c>
@@ -1904,22 +1965,23 @@
       <c r="E15" s="26">
         <v>0.5</v>
       </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="56" t="s">
+      <c r="F15" s="152"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="63" t="s">
+      <c r="I15" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="131"/>
       <c r="B16" s="40">
         <v>41593</v>
       </c>
@@ -1936,31 +1998,32 @@
         <f>E16</f>
         <v>1.08</v>
       </c>
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="78"/>
+      <c r="H16" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="64" t="s">
+      <c r="I16" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="8" t="s">
+      <c r="J16" s="31"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="10">
+      <c r="M16" s="6"/>
+      <c r="N16" s="10">
         <f>SUM(E42:E49)</f>
         <v>9.64</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="104">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="160">
         <v>3</v>
       </c>
-      <c r="B17" s="96">
+      <c r="B17" s="106">
         <v>41596</v>
       </c>
       <c r="C17" s="44">
@@ -1972,33 +2035,34 @@
       <c r="E17" s="42">
         <v>1</v>
       </c>
-      <c r="F17" s="93">
+      <c r="F17" s="151">
         <f>SUM(E17:E19)</f>
         <v>3.5</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="78"/>
+      <c r="H17" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="I17" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="8" t="s">
+      <c r="J17" s="41"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="10">
-        <f>SUM(E65:E69)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
+      <c r="M17" s="6"/>
+      <c r="N17" s="10">
+        <f>SUM(E66:E72)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="97"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="160"/>
+      <c r="B18" s="150"/>
       <c r="C18" s="44">
         <v>0.75</v>
       </c>
@@ -2008,25 +2072,26 @@
       <c r="E18" s="42">
         <v>1.5</v>
       </c>
-      <c r="F18" s="95"/>
-      <c r="G18" s="41" t="s">
+      <c r="F18" s="164"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="41" t="s">
+      <c r="I18" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="J18" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="98"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="160"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="44">
         <v>0.89583333333333337</v>
       </c>
@@ -2036,23 +2101,24 @@
       <c r="E19" s="42">
         <v>1</v>
       </c>
-      <c r="F19" s="94"/>
-      <c r="G19" s="41" t="s">
+      <c r="F19" s="152"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="I19" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="96">
+      <c r="J19" s="41"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="160"/>
+      <c r="B20" s="106">
         <v>41597</v>
       </c>
       <c r="C20" s="44">
@@ -2064,26 +2130,27 @@
       <c r="E20" s="42">
         <v>1.5</v>
       </c>
-      <c r="F20" s="93">
+      <c r="F20" s="151">
         <f>SUM(E20:E21)</f>
         <v>3</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="78"/>
+      <c r="H20" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="60" t="s">
+      <c r="I20" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="98"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="160"/>
+      <c r="B21" s="107"/>
       <c r="C21" s="44">
         <v>0.8125</v>
       </c>
@@ -2093,30 +2160,31 @@
       <c r="E21" s="42">
         <v>1.5</v>
       </c>
-      <c r="F21" s="94"/>
-      <c r="G21" s="41" t="s">
+      <c r="F21" s="152"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="41" t="s">
+      <c r="I21" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="8" t="s">
+      <c r="J21" s="41"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="10">
-        <f>SUM(E70:E74)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="3" t="s">
+      <c r="M21" s="6"/>
+      <c r="N21" s="10">
+        <f>SUM(E73:E79)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="96">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="160"/>
+      <c r="B22" s="106">
         <v>41599</v>
       </c>
       <c r="C22" s="44">
@@ -2128,26 +2196,27 @@
       <c r="E22" s="42">
         <v>3</v>
       </c>
-      <c r="F22" s="93">
+      <c r="F22" s="151">
         <f>SUM(E22:E26)</f>
         <v>7.9</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="78"/>
+      <c r="H22" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="41" t="s">
+      <c r="I22" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="104"/>
-      <c r="B23" s="97"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="160"/>
+      <c r="B23" s="150"/>
       <c r="C23" s="44">
         <v>0.38194444444444442</v>
       </c>
@@ -2157,23 +2226,24 @@
       <c r="E23" s="42">
         <v>1</v>
       </c>
-      <c r="F23" s="95"/>
-      <c r="G23" s="61" t="s">
+      <c r="F23" s="164"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="43" t="s">
+      <c r="I23" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="45"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="104"/>
-      <c r="B24" s="97"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="160"/>
+      <c r="B24" s="150"/>
       <c r="C24" s="44">
         <v>0.4236111111111111</v>
       </c>
@@ -2183,23 +2253,24 @@
       <c r="E24" s="42">
         <v>1.3</v>
       </c>
-      <c r="F24" s="95"/>
-      <c r="G24" s="41" t="s">
+      <c r="F24" s="164"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="43" t="s">
+      <c r="I24" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="45"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="104"/>
-      <c r="B25" s="97"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="160"/>
+      <c r="B25" s="150"/>
       <c r="C25" s="44">
         <v>0.58333333333333337</v>
       </c>
@@ -2209,23 +2280,24 @@
       <c r="E25" s="42">
         <v>0.5</v>
       </c>
-      <c r="F25" s="95"/>
-      <c r="G25" s="41" t="s">
+      <c r="F25" s="164"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="43" t="s">
+      <c r="I25" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="45"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="104"/>
-      <c r="B26" s="98"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="160"/>
+      <c r="B26" s="107"/>
       <c r="C26" s="65">
         <v>0.625</v>
       </c>
@@ -2235,30 +2307,31 @@
       <c r="E26" s="42">
         <v>2.1</v>
       </c>
-      <c r="F26" s="94"/>
-      <c r="G26" s="41" t="s">
+      <c r="F26" s="152"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="I26" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="8" t="s">
+      <c r="J26" s="27"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="10">
-        <f>SUM(E80:E84)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
+      <c r="M26" s="6"/>
+      <c r="N26" s="10">
+        <f>SUM(E87:E93)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="104"/>
-      <c r="B27" s="96">
+    <row r="27" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="160"/>
+      <c r="B27" s="106">
         <v>41600</v>
       </c>
       <c r="C27" s="65">
@@ -2270,28 +2343,29 @@
       <c r="E27" s="18">
         <v>1.25</v>
       </c>
-      <c r="F27" s="101">
+      <c r="F27" s="100">
         <f>SUM(E27:E29)</f>
         <v>4</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="81"/>
+      <c r="H27" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="I27" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="68" t="s">
+      <c r="J27" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="104"/>
-      <c r="B28" s="97"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="160"/>
+      <c r="B28" s="150"/>
       <c r="C28" s="65">
         <v>0.5625</v>
       </c>
@@ -2301,431 +2375,447 @@
       <c r="E28" s="18">
         <v>1.25</v>
       </c>
-      <c r="F28" s="102"/>
-      <c r="G28" s="69" t="s">
+      <c r="F28" s="101"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="104"/>
-      <c r="B29" s="98"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="160"/>
+      <c r="B29" s="107"/>
       <c r="C29" s="65">
         <v>0.625</v>
       </c>
       <c r="D29" s="65">
         <v>0.6875</v>
       </c>
-      <c r="E29" s="69">
+      <c r="E29" s="68">
         <v>1.5</v>
       </c>
-      <c r="F29" s="103"/>
-      <c r="G29" s="69" t="s">
+      <c r="F29" s="102"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="I29" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="8" t="s">
+      <c r="J29" s="27"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="10">
-        <f>SUM(E85:E89)</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="6"/>
+      <c r="N29" s="10">
+        <f>SUM(E94:E100)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="96">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="161">
+        <v>4</v>
+      </c>
+      <c r="B30" s="103">
         <v>41601</v>
       </c>
-      <c r="C30" s="65">
+      <c r="C30" s="168">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D30" s="65">
+      <c r="D30" s="168">
         <v>0.375</v>
       </c>
-      <c r="E30" s="69">
+      <c r="E30" s="72">
         <v>0.5</v>
       </c>
-      <c r="F30" s="109">
+      <c r="F30" s="169">
         <f>SUM(E30:E33)</f>
         <v>2</v>
       </c>
-      <c r="G30" s="69" t="s">
+      <c r="G30" s="173"/>
+      <c r="H30" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="I30" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="27" t="s">
+      <c r="J30" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="65">
+      <c r="K30" s="37"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="162"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="168">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D31" s="65">
+      <c r="D31" s="168">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E31" s="69">
+      <c r="E31" s="72">
         <v>0.5</v>
       </c>
-      <c r="F31" s="110"/>
-      <c r="G31" s="69" t="s">
+      <c r="F31" s="170"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="I31" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="27" t="s">
+      <c r="J31" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="J31" s="35"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="65">
+      <c r="K31" s="37"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="162"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="168">
         <v>0.5625</v>
       </c>
-      <c r="D32" s="65">
+      <c r="D32" s="168">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E32" s="69">
+      <c r="E32" s="72">
         <v>0.25</v>
       </c>
-      <c r="F32" s="110"/>
-      <c r="G32" s="69" t="s">
+      <c r="F32" s="170"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="72"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="65">
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="162"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="168">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D33" s="65">
+      <c r="D33" s="168">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E33" s="69">
+      <c r="E33" s="72">
         <v>0.75</v>
       </c>
-      <c r="F33" s="111"/>
-      <c r="G33" s="69" t="s">
+      <c r="F33" s="171"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="I33" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="I33" s="27" t="s">
+      <c r="J33" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="87">
-        <v>4</v>
-      </c>
+      <c r="K33" s="37"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="162"/>
       <c r="B34" s="25">
         <v>41603</v>
       </c>
-      <c r="C34" s="74">
+      <c r="C34" s="71">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D34" s="74">
+      <c r="D34" s="71">
         <v>0.875</v>
       </c>
-      <c r="E34" s="70">
+      <c r="E34" s="69">
         <v>1</v>
       </c>
       <c r="F34" s="66">
         <f>E34</f>
         <v>1</v>
       </c>
-      <c r="G34" s="75" t="s">
+      <c r="G34" s="66"/>
+      <c r="H34" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="71" t="s">
+      <c r="I34" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="71"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="8" t="s">
+      <c r="J34" s="70"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="10">
-        <f>SUM(E90:E94)</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="3" t="s">
+      <c r="M34" s="6"/>
+      <c r="N34" s="10">
+        <f>SUM(E101:E107)</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="88"/>
-      <c r="B35" s="151">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="162"/>
+      <c r="B35" s="103">
         <v>41604</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C35" s="71">
         <v>0.375</v>
       </c>
-      <c r="D35" s="74">
+      <c r="D35" s="71">
         <v>0.9375</v>
       </c>
-      <c r="E35" s="70">
+      <c r="E35" s="69">
         <v>1.5</v>
       </c>
-      <c r="F35" s="153">
+      <c r="F35" s="108">
         <f>SUM(E35:E36)</f>
         <v>3</v>
       </c>
-      <c r="G35" s="75" t="s">
+      <c r="G35" s="92"/>
+      <c r="H35" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="71" t="s">
+      <c r="I35" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="I35" s="71"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="8" t="s">
+      <c r="J35" s="70"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="10">
-        <f>SUM(E95:E99)</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
+      <c r="M35" s="6"/>
+      <c r="N35" s="10">
+        <f>SUM(E108:E114)</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="88"/>
-      <c r="B36" s="152"/>
-      <c r="C36" s="74">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="162"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="71">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D36" s="74">
+      <c r="D36" s="71">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E36" s="70">
+      <c r="E36" s="69">
         <v>1.5</v>
       </c>
-      <c r="F36" s="154"/>
-      <c r="G36" s="75" t="s">
+      <c r="F36" s="109"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="78" t="s">
+      <c r="I36" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="I36" s="71"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="88"/>
-      <c r="B37" s="151">
+      <c r="J36" s="70"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="162"/>
+      <c r="B37" s="103">
         <v>41605</v>
       </c>
-      <c r="C37" s="74">
+      <c r="C37" s="71">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D37" s="74">
+      <c r="D37" s="71">
         <v>0.34375</v>
       </c>
-      <c r="E37" s="70">
+      <c r="E37" s="69">
         <v>0.25</v>
       </c>
-      <c r="F37" s="153">
+      <c r="F37" s="108">
         <f>SUM(E37:E39)</f>
         <v>3.08</v>
       </c>
-      <c r="G37" s="75" t="s">
+      <c r="G37" s="92"/>
+      <c r="H37" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="71" t="s">
+      <c r="I37" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="I37" s="71" t="s">
+      <c r="J37" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="36"/>
+      <c r="L37" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="10">
-        <f>SUM(E100:E104)</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="3" t="s">
+      <c r="M37" s="6"/>
+      <c r="N37" s="10">
+        <f>SUM(E115:E121)</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="88"/>
-      <c r="B38" s="155"/>
-      <c r="C38" s="74">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="162"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="71">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D38" s="74">
+      <c r="D38" s="71">
         <v>0.375</v>
       </c>
-      <c r="E38" s="70">
+      <c r="E38" s="69">
         <v>0.5</v>
       </c>
-      <c r="F38" s="156"/>
-      <c r="G38" s="75" t="s">
+      <c r="F38" s="110"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="71" t="s">
+      <c r="I38" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="I38" s="71" t="s">
+      <c r="J38" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="J38" s="36"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="88"/>
-      <c r="B39" s="152"/>
-      <c r="C39" s="74">
+      <c r="K38" s="36"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="162"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="71">
         <v>0.5625</v>
       </c>
-      <c r="D39" s="74">
+      <c r="D39" s="71">
         <v>0.65972222222222221</v>
       </c>
-      <c r="E39" s="70">
+      <c r="E39" s="69">
         <v>2.33</v>
       </c>
-      <c r="F39" s="154"/>
-      <c r="G39" s="75" t="s">
+      <c r="F39" s="109"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="71" t="s">
+      <c r="I39" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="71"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="88"/>
-      <c r="B40" s="151">
+      <c r="J39" s="70"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="160">
+        <v>5</v>
+      </c>
+      <c r="B40" s="106">
         <v>41608</v>
       </c>
-      <c r="C40" s="74">
+      <c r="C40" s="65">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D40" s="74">
+      <c r="D40" s="65">
         <v>0.875</v>
       </c>
-      <c r="E40" s="70">
+      <c r="E40" s="68">
         <v>1</v>
       </c>
-      <c r="F40" s="153">
+      <c r="F40" s="100">
         <f>SUM(E40:E41)</f>
         <v>1.5</v>
       </c>
-      <c r="G40" s="75" t="s">
+      <c r="G40" s="81"/>
+      <c r="H40" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="71" t="s">
+      <c r="I40" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="71"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="89"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="74">
+      <c r="J40" s="27"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="160"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="65">
         <v>0.875</v>
       </c>
-      <c r="D41" s="74">
+      <c r="D41" s="65">
         <v>0.89583333333333337</v>
       </c>
-      <c r="E41" s="70">
+      <c r="E41" s="68">
         <v>0.5</v>
       </c>
-      <c r="F41" s="154"/>
-      <c r="G41" s="75" t="s">
+      <c r="F41" s="102"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="71" t="s">
+      <c r="I41" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="I41" s="71" t="s">
+      <c r="J41" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="J41" s="36"/>
-      <c r="K41" s="8" t="s">
+      <c r="K41" s="35"/>
+      <c r="L41" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="10">
-        <f>SUM(E110:E114)</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
+      <c r="M41" s="6"/>
+      <c r="N41" s="10">
+        <f>SUM(E129:E135)</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="105"/>
-      <c r="B42" s="77">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="160"/>
+      <c r="B42" s="74">
         <v>41610</v>
       </c>
       <c r="C42" s="59">
@@ -2734,28 +2824,29 @@
       <c r="D42" s="59">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E42" s="69">
+      <c r="E42" s="68">
         <v>1</v>
       </c>
-      <c r="F42" s="76">
+      <c r="F42" s="73">
         <v>1</v>
       </c>
-      <c r="G42" s="69" t="s">
+      <c r="G42" s="78"/>
+      <c r="H42" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="27" t="s">
+      <c r="I42" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="I42" s="27"/>
       <c r="J42" s="27"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="105"/>
-      <c r="B43" s="96">
+      <c r="K42" s="27"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="160"/>
+      <c r="B43" s="106">
         <v>41611</v>
       </c>
       <c r="C43" s="59">
@@ -2764,64 +2855,66 @@
       <c r="D43" s="59">
         <v>0.93055555555555547</v>
       </c>
-      <c r="E43" s="69">
+      <c r="E43" s="68">
         <v>1</v>
       </c>
-      <c r="F43" s="101">
+      <c r="F43" s="100">
         <f>SUM(E43:E43:E44)</f>
         <v>1.8</v>
       </c>
-      <c r="G43" s="69" t="s">
+      <c r="G43" s="81"/>
+      <c r="H43" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="27" t="s">
+      <c r="I43" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="I43" s="27"/>
       <c r="J43" s="27"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="105"/>
-      <c r="B44" s="98"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="160"/>
+      <c r="B44" s="107"/>
       <c r="C44" s="59">
         <v>0.9375</v>
       </c>
       <c r="D44" s="59">
         <v>0.97222222222222221</v>
       </c>
-      <c r="E44" s="79">
+      <c r="E44" s="76">
         <v>0.8</v>
       </c>
-      <c r="F44" s="103"/>
-      <c r="G44" s="69" t="s">
+      <c r="F44" s="102"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="27" t="s">
+      <c r="I44" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="I44" s="27" t="s">
+      <c r="J44" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="J44" s="27"/>
-      <c r="K44" s="8" t="s">
+      <c r="K44" s="27"/>
+      <c r="L44" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L44" s="6"/>
-      <c r="M44" s="10">
-        <f>SUM(E120:E124)</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="3" t="s">
+      <c r="M44" s="6"/>
+      <c r="N44" s="10">
+        <f>SUM(E143:E149)</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="105"/>
-      <c r="B45" s="96">
+    <row r="45" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="160"/>
+      <c r="B45" s="106">
         <v>41612</v>
       </c>
       <c r="C45" s="59">
@@ -2833,33 +2926,34 @@
       <c r="E45" s="27">
         <v>4.5</v>
       </c>
-      <c r="F45" s="101">
+      <c r="F45" s="100">
         <f>SUM(E45:E46)</f>
         <v>4.67</v>
       </c>
-      <c r="G45" s="27" t="s">
+      <c r="G45" s="81"/>
+      <c r="H45" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="80" t="s">
+      <c r="I45" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="I45" s="27"/>
       <c r="J45" s="27"/>
-      <c r="K45" s="8" t="s">
+      <c r="K45" s="27"/>
+      <c r="L45" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L45" s="6"/>
-      <c r="M45" s="10">
-        <f>SUM(E125:E129)</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
+      <c r="M45" s="6"/>
+      <c r="N45" s="10">
+        <f>SUM(E150:E156)</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="105"/>
-      <c r="B46" s="98"/>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="160"/>
+      <c r="B46" s="107"/>
       <c r="C46" s="59">
         <v>0.82638888888888884</v>
       </c>
@@ -2869,25 +2963,26 @@
       <c r="E46" s="27">
         <v>0.17</v>
       </c>
-      <c r="F46" s="103"/>
-      <c r="G46" s="27" t="s">
+      <c r="F46" s="102"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="80" t="s">
+      <c r="I46" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="I46" s="27" t="s">
+      <c r="J46" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J46" s="27"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="105"/>
-      <c r="B47" s="96">
+      <c r="K46" s="27"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="160"/>
+      <c r="B47" s="106">
         <v>41613</v>
       </c>
       <c r="C47" s="59">
@@ -2896,63 +2991,65 @@
       <c r="D47" s="59">
         <v>0.875</v>
       </c>
-      <c r="E47" s="69">
+      <c r="E47" s="68">
         <v>0.67</v>
       </c>
-      <c r="F47" s="101">
+      <c r="F47" s="100">
         <f>SUM(E47:E48)</f>
         <v>0.92</v>
       </c>
-      <c r="G47" s="69" t="s">
+      <c r="G47" s="81"/>
+      <c r="H47" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="27" t="s">
+      <c r="I47" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="27"/>
       <c r="J47" s="27"/>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="27"/>
+      <c r="L47" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L47" s="6"/>
-      <c r="M47" s="10">
-        <f>SUM(E130:E134)</f>
-        <v>0</v>
-      </c>
-      <c r="N47" s="3" t="s">
+      <c r="M47" s="6"/>
+      <c r="N47" s="10">
+        <f>SUM(E157:E163)</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="105"/>
-      <c r="B48" s="98"/>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="160"/>
+      <c r="B48" s="107"/>
       <c r="C48" s="59">
         <v>0.875</v>
       </c>
       <c r="D48" s="59">
         <v>0.88541666666666663</v>
       </c>
-      <c r="E48" s="69">
+      <c r="E48" s="68">
         <v>0.25</v>
       </c>
-      <c r="F48" s="103"/>
-      <c r="G48" s="69" t="s">
+      <c r="F48" s="102"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="H48" s="27" t="s">
+      <c r="I48" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="I48" s="27" t="s">
+      <c r="J48" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="J48" s="27"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="106"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="160"/>
       <c r="B49" s="24">
         <v>41614</v>
       </c>
@@ -2962,2502 +3059,3908 @@
       <c r="D49" s="59">
         <v>0.9375</v>
       </c>
-      <c r="E49" s="69">
+      <c r="E49" s="68">
         <v>1.25</v>
       </c>
-      <c r="F49" s="76">
+      <c r="F49" s="73">
         <f>E49</f>
         <v>1.25</v>
       </c>
-      <c r="G49" s="69" t="s">
+      <c r="G49" s="78"/>
+      <c r="H49" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="27" t="s">
+      <c r="I49" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="I49" s="27"/>
       <c r="J49" s="27"/>
-      <c r="K49" s="8" t="s">
+      <c r="K49" s="27"/>
+      <c r="L49" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L49" s="6"/>
-      <c r="M49" s="10">
-        <f>SUM(E135:E139)</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="3" t="s">
+      <c r="M49" s="6"/>
+      <c r="N49" s="10">
+        <f>SUM(E164:E170)</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="87">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="161">
         <v>6</v>
       </c>
       <c r="B50" s="25">
         <v>41617</v>
       </c>
-      <c r="C50" s="74">
+      <c r="C50" s="71">
         <v>0.88888888888888884</v>
       </c>
-      <c r="D50" s="74">
+      <c r="D50" s="71">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E50" s="70">
+      <c r="E50" s="69">
         <v>2.17</v>
       </c>
       <c r="F50" s="58">
         <f>E50</f>
         <v>2.17</v>
       </c>
-      <c r="G50" s="75" t="s">
+      <c r="G50" s="78"/>
+      <c r="H50" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="71" t="s">
+      <c r="I50" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="I50" s="71"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="8" t="s">
+      <c r="J50" s="70"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L50" s="6"/>
-      <c r="M50" s="10">
-        <f>SUM(E140:E144)</f>
-        <v>0</v>
-      </c>
-      <c r="N50" s="3" t="s">
+      <c r="M50" s="6"/>
+      <c r="N50" s="10">
+        <f>SUM(E171:E177)</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="88"/>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="162"/>
       <c r="B51" s="25">
         <v>41618</v>
       </c>
-      <c r="C51" s="74">
+      <c r="C51" s="71">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D51" s="74">
+      <c r="D51" s="71">
         <v>0.90625</v>
       </c>
-      <c r="E51" s="70">
+      <c r="E51" s="69">
         <v>0.5</v>
       </c>
       <c r="F51" s="58">
         <f>E51</f>
         <v>0.5</v>
       </c>
-      <c r="G51" s="75" t="s">
+      <c r="G51" s="78"/>
+      <c r="H51" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="71" t="s">
+      <c r="I51" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="71" t="s">
+      <c r="J51" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="J51" s="36"/>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="36"/>
+      <c r="L51" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="L51" s="6"/>
-      <c r="M51" s="10">
-        <f>SUM(E145:E149)</f>
-        <v>0</v>
-      </c>
-      <c r="N51" s="3" t="s">
+      <c r="M51" s="6"/>
+      <c r="N51" s="10">
+        <f>SUM(E178:E184)</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="88"/>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="162"/>
       <c r="B52" s="25">
         <v>41619</v>
       </c>
-      <c r="C52" s="74">
+      <c r="C52" s="71">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D52" s="74">
+      <c r="D52" s="71">
         <v>0.9375</v>
       </c>
-      <c r="E52" s="70">
+      <c r="E52" s="69">
         <v>1</v>
       </c>
       <c r="F52" s="58">
         <f>E52</f>
         <v>1</v>
       </c>
-      <c r="G52" s="75" t="s">
+      <c r="G52" s="78"/>
+      <c r="H52" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="71" t="s">
+      <c r="I52" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="I52" s="71"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="8" t="s">
+      <c r="J52" s="70"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L52" s="6"/>
-      <c r="M52" s="10">
-        <f>SUM(E150:E154)</f>
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
+      <c r="M52" s="6"/>
+      <c r="N52" s="10">
+        <f>SUM(E185:E191)</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="160" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="88"/>
-      <c r="B53" s="151">
+    <row r="53" spans="1:15" s="98" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="162"/>
+      <c r="B53" s="103">
         <v>41620</v>
       </c>
-      <c r="C53" s="161">
+      <c r="C53" s="99">
         <v>0.375</v>
       </c>
-      <c r="D53" s="161">
+      <c r="D53" s="99">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E53" s="71">
+      <c r="E53" s="70">
         <v>2</v>
       </c>
-      <c r="F53" s="101">
+      <c r="F53" s="100">
         <f>SUM(E53:E55)</f>
         <v>6</v>
       </c>
-      <c r="G53" s="33" t="s">
+      <c r="G53" s="81"/>
+      <c r="H53" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H53" s="78" t="s">
+      <c r="I53" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="I53" s="71"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="157" t="s">
+      <c r="J53" s="70"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="L53" s="36"/>
-      <c r="M53" s="158">
-        <f>SUM(E155:E159)</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="159" t="s">
+      <c r="M53" s="36"/>
+      <c r="N53" s="96">
+        <f>SUM(E192:E198)</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="97" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="88"/>
-      <c r="B54" s="155"/>
-      <c r="C54" s="161">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="162"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="99">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D54" s="74">
+      <c r="D54" s="71">
         <v>0.5</v>
       </c>
-      <c r="E54" s="70">
+      <c r="E54" s="69">
         <v>1</v>
       </c>
-      <c r="F54" s="102"/>
-      <c r="G54" s="75" t="s">
+      <c r="F54" s="101"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="H54" s="71" t="s">
+      <c r="I54" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="I54" s="71"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="88"/>
-      <c r="B55" s="152"/>
-      <c r="C55" s="74">
+      <c r="J54" s="70"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="162"/>
+      <c r="B55" s="105"/>
+      <c r="C55" s="71">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D55" s="74">
+      <c r="D55" s="71">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E55" s="70">
+      <c r="E55" s="69">
         <v>3</v>
       </c>
-      <c r="F55" s="103"/>
-      <c r="G55" s="75" t="s">
+      <c r="F55" s="102"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="H55" s="71" t="s">
+      <c r="I55" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="I55" s="71"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="88"/>
-      <c r="B56" s="151">
+      <c r="J55" s="70"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="162"/>
+      <c r="B56" s="103">
         <v>41621</v>
       </c>
-      <c r="C56" s="74">
+      <c r="C56" s="71">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D56" s="74">
+      <c r="D56" s="71">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E56" s="70">
+      <c r="E56" s="69">
         <v>0.5</v>
       </c>
-      <c r="F56" s="101">
+      <c r="F56" s="100">
         <f>SUM(E56:E58)</f>
         <v>2.5</v>
       </c>
-      <c r="G56" s="75" t="s">
+      <c r="G56" s="81"/>
+      <c r="H56" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="H56" s="71" t="s">
+      <c r="I56" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="I56" s="71" t="s">
+      <c r="J56" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="J56" s="36"/>
-      <c r="K56" s="8" t="s">
+      <c r="K56" s="36"/>
+      <c r="L56" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L56" s="6"/>
-      <c r="M56" s="10">
-        <f>SUM(E160:E164)</f>
-        <v>0</v>
-      </c>
-      <c r="N56" s="3" t="s">
+      <c r="M56" s="6"/>
+      <c r="N56" s="10">
+        <f>SUM(E199:E205)</f>
+        <v>0</v>
+      </c>
+      <c r="O56" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="88"/>
-      <c r="B57" s="155"/>
-      <c r="C57" s="74">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="162"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="71">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D57" s="74">
+      <c r="D57" s="71">
         <v>0.625</v>
       </c>
-      <c r="E57" s="70">
+      <c r="E57" s="69">
         <v>1</v>
       </c>
-      <c r="F57" s="102"/>
-      <c r="G57" s="75" t="s">
+      <c r="F57" s="101"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="H57" s="71" t="s">
+      <c r="I57" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="I57" s="71" t="s">
+      <c r="J57" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="J57" s="36"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="89"/>
-      <c r="B58" s="152"/>
-      <c r="C58" s="74">
+      <c r="K57" s="36"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="163"/>
+      <c r="B58" s="105"/>
+      <c r="C58" s="71">
         <v>0.625</v>
       </c>
-      <c r="D58" s="74">
+      <c r="D58" s="71">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E58" s="70">
+      <c r="E58" s="69">
         <v>1</v>
       </c>
-      <c r="F58" s="103"/>
-      <c r="G58" s="75" t="s">
+      <c r="F58" s="102"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="H58" s="71" t="s">
+      <c r="I58" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="I58" s="71" t="s">
+      <c r="J58" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="J58" s="36"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="82"/>
-      <c r="B59" s="81"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="84">
+      <c r="K58" s="36"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="157">
         <v>7</v>
       </c>
+      <c r="B59" s="24">
+        <v>41622</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="58">
+        <f>SUM(E59:E64)</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="78">
+        <f>SUM(F59:F64)</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M59" s="6"/>
+      <c r="N59" s="10">
+        <f>SUM(E206:E212)</f>
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="158"/>
       <c r="B60" s="24">
-        <v>41624</v>
+        <v>41623</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="58">
-        <f t="shared" ref="F60:F69" si="0">SUM(E60:E63)</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="35"/>
+      <c r="F60" s="78">
+        <f t="shared" ref="F60:G60" si="0">SUM(E60:E65)</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H60" s="35"/>
       <c r="I60" s="35"/>
       <c r="J60" s="35"/>
-      <c r="K60" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L60" s="6"/>
-      <c r="M60" s="10">
-        <f>SUM(E165:E169)</f>
-        <v>0</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="85"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="158"/>
       <c r="B61" s="24">
-        <v>41625</v>
+        <v>41624</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="35"/>
+      <c r="F61" s="78">
+        <f t="shared" ref="F61:G61" si="1">SUM(E61:E66)</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H61" s="35"/>
       <c r="I61" s="35"/>
       <c r="J61" s="35"/>
-      <c r="K61" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L61" s="6"/>
-      <c r="M61" s="10">
-        <f>SUM(E170:E174)</f>
-        <v>0</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="85"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="158"/>
       <c r="B62" s="24">
-        <v>41626</v>
+        <v>41625</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="35"/>
+      <c r="F62" s="78">
+        <f t="shared" ref="F62:G62" si="2">SUM(E62:E67)</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="H62" s="35"/>
       <c r="I62" s="35"/>
       <c r="J62" s="35"/>
-      <c r="K62" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L62" s="6"/>
-      <c r="M62" s="10">
-        <f>SUM(E175:E179)</f>
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
+      <c r="K62" s="35"/>
+      <c r="L62" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M62" s="6"/>
+      <c r="N62" s="10">
+        <f>SUM(E213:E219)</f>
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="85"/>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="158"/>
       <c r="B63" s="24">
-        <v>41627</v>
+        <v>41626</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="35"/>
+      <c r="F63" s="78">
+        <f t="shared" ref="F63:G63" si="3">SUM(E63:E68)</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="H63" s="35"/>
       <c r="I63" s="35"/>
       <c r="J63" s="35"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="86"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M63" s="6"/>
+      <c r="N63" s="10">
+        <f>SUM(E220:E226)</f>
+        <v>0</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="158"/>
       <c r="B64" s="24">
-        <v>41628</v>
+        <v>41627</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="35"/>
+      <c r="F64" s="78">
+        <f t="shared" ref="F64:G64" si="4">SUM(E64:E69)</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="H64" s="35"/>
       <c r="I64" s="35"/>
       <c r="J64" s="35"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="87">
+      <c r="K64" s="35"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="159"/>
+      <c r="B65" s="24">
+        <v>41628</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="78">
+        <f t="shared" ref="F65:G65" si="5">SUM(E65:E70)</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="161">
         <v>8</v>
       </c>
-      <c r="B65" s="25">
-        <v>41631</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="88"/>
       <c r="B66" s="25">
-        <v>41632</v>
+        <v>41629</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="36"/>
+      <c r="F66" s="78">
+        <f t="shared" ref="F66:G66" si="6">SUM(E66:E71)</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="78">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="H66" s="36"/>
       <c r="I66" s="36"/>
       <c r="J66" s="36"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="88"/>
+      <c r="K66" s="36"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="162"/>
       <c r="B67" s="25">
-        <v>41633</v>
+        <v>41630</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="36"/>
+      <c r="F67" s="78">
+        <f t="shared" ref="F67:G67" si="7">SUM(E67:E72)</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="H67" s="36"/>
       <c r="I67" s="36"/>
       <c r="J67" s="36"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="88"/>
+      <c r="K67" s="36"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="162"/>
       <c r="B68" s="25">
-        <v>41634</v>
+        <v>41631</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="36"/>
+      <c r="F68" s="78">
+        <f t="shared" ref="F68:G68" si="8">SUM(E68:E73)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="78">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="H68" s="36"/>
       <c r="I68" s="36"/>
       <c r="J68" s="36"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="89"/>
+      <c r="K68" s="36"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="162"/>
       <c r="B69" s="25">
-        <v>41635</v>
+        <v>41632</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="36"/>
+      <c r="F69" s="78">
+        <f t="shared" ref="F69:G69" si="9">SUM(E69:E74)</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="78">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="H69" s="36"/>
       <c r="I69" s="36"/>
       <c r="J69" s="36"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="84">
+      <c r="K69" s="36"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="162"/>
+      <c r="B70" s="25">
+        <v>41633</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="78">
+        <f t="shared" ref="F70:G70" si="10">SUM(E70:E75)</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="78">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="162"/>
+      <c r="B71" s="25">
+        <v>41634</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="78">
+        <f t="shared" ref="F71:G71" si="11">SUM(E71:E76)</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="163"/>
+      <c r="B72" s="25">
+        <v>41635</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="78">
+        <f t="shared" ref="F72:G72" si="12">SUM(E72:E77)</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="78">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="157">
         <v>9</v>
       </c>
-      <c r="B70" s="24">
-        <v>41638</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5">
-        <f t="shared" ref="F70:F71" si="1">E70</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="85"/>
-      <c r="B71" s="24">
-        <v>41639</v>
-      </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="85"/>
-      <c r="B72" s="24">
-        <v>41640</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5">
-        <f t="shared" ref="F72:F103" si="2">E72</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="85"/>
       <c r="B73" s="24">
-        <v>41641</v>
+        <v>41636</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
-      <c r="F73" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="35"/>
+      <c r="F73" s="78">
+        <f t="shared" ref="F73:G73" si="13">SUM(E73:E78)</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="78">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="H73" s="35"/>
       <c r="I73" s="35"/>
       <c r="J73" s="35"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="86"/>
+      <c r="K73" s="35"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="158"/>
       <c r="B74" s="24">
-        <v>41642</v>
+        <v>41637</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
-      <c r="F74" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="35"/>
+      <c r="F74" s="78">
+        <f t="shared" ref="F74:G74" si="14">SUM(E74:E79)</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="78">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="H74" s="35"/>
       <c r="I74" s="35"/>
       <c r="J74" s="35"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="87">
+      <c r="K74" s="35"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="158"/>
+      <c r="B75" s="24">
+        <v>41638</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="78">
+        <f t="shared" ref="F75:G75" si="15">SUM(E75:E80)</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="78">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="158"/>
+      <c r="B76" s="24">
+        <v>41639</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="78">
+        <f t="shared" ref="F76:G76" si="16">SUM(E76:E81)</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="78">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="158"/>
+      <c r="B77" s="24">
+        <v>41640</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="78">
+        <f t="shared" ref="F77:G77" si="17">SUM(E77:E82)</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="78">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="158"/>
+      <c r="B78" s="24">
+        <v>41641</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="78">
+        <f t="shared" ref="F78:G78" si="18">SUM(E78:E83)</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="78">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="159"/>
+      <c r="B79" s="24">
+        <v>41642</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="78">
+        <f t="shared" ref="F79:G79" si="19">SUM(E79:E84)</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="78">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="161">
         <v>10</v>
       </c>
-      <c r="B75" s="25">
+      <c r="B80" s="25">
+        <v>41643</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="78">
+        <f t="shared" ref="F80:G80" si="20">SUM(E80:E85)</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="78">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="162"/>
+      <c r="B81" s="25">
+        <v>41644</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="78">
+        <f t="shared" ref="F81:G81" si="21">SUM(E81:E86)</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="78">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="162"/>
+      <c r="B82" s="25">
         <v>41645</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="88"/>
-      <c r="B76" s="25">
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="78">
+        <f t="shared" ref="F82:G82" si="22">SUM(E82:E87)</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="78">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="162"/>
+      <c r="B83" s="25">
         <v>41646</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="88"/>
-      <c r="B77" s="25">
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="78">
+        <f t="shared" ref="F83:G83" si="23">SUM(E83:E88)</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="78">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="162"/>
+      <c r="B84" s="25">
         <v>41647</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="88"/>
-      <c r="B78" s="25">
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="78">
+        <f t="shared" ref="F84:G84" si="24">SUM(E84:E89)</f>
+        <v>0</v>
+      </c>
+      <c r="G84" s="78">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="162"/>
+      <c r="B85" s="25">
         <v>41648</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="89"/>
-      <c r="B79" s="25">
-        <v>41649</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="84">
-        <v>11</v>
-      </c>
-      <c r="B80" s="24">
-        <v>41652</v>
-      </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="35"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="85"/>
-      <c r="B81" s="24">
-        <v>41653</v>
-      </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="35"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="85"/>
-      <c r="B82" s="24">
-        <v>41654</v>
-      </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="85"/>
-      <c r="B83" s="24">
-        <v>41655</v>
-      </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="86"/>
-      <c r="B84" s="24">
-        <v>41656</v>
-      </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="87">
-        <v>12</v>
-      </c>
-      <c r="B85" s="25">
-        <v>41659</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
-      <c r="F85" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="36"/>
+      <c r="F85" s="78">
+        <f t="shared" ref="F85:G85" si="25">SUM(E85:E90)</f>
+        <v>0</v>
+      </c>
+      <c r="G85" s="78">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="H85" s="36"/>
       <c r="I85" s="36"/>
       <c r="J85" s="36"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="88"/>
+      <c r="K85" s="36"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="163"/>
       <c r="B86" s="25">
-        <v>41660</v>
+        <v>41649</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
-      <c r="F86" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G86" s="36"/>
+      <c r="F86" s="78">
+        <f t="shared" ref="F86:G86" si="26">SUM(E86:E91)</f>
+        <v>0</v>
+      </c>
+      <c r="G86" s="78">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="H86" s="36"/>
       <c r="I86" s="36"/>
       <c r="J86" s="36"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="88"/>
-      <c r="B87" s="25">
-        <v>41661</v>
-      </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="88"/>
-      <c r="B88" s="25">
-        <v>41662</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="89"/>
-      <c r="B89" s="25">
-        <v>41663</v>
-      </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="84">
-        <v>13</v>
-      </c>
+      <c r="K86" s="36"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="157">
+        <v>11</v>
+      </c>
+      <c r="B87" s="24">
+        <v>41650</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="78">
+        <f t="shared" ref="F87:G87" si="27">SUM(E87:E92)</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="78">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="158"/>
+      <c r="B88" s="24">
+        <v>41651</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="78">
+        <f t="shared" ref="F88:G88" si="28">SUM(E88:E93)</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="78">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="158"/>
+      <c r="B89" s="24">
+        <v>41652</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="78">
+        <f t="shared" ref="F89:G89" si="29">SUM(E89:E94)</f>
+        <v>0</v>
+      </c>
+      <c r="G89" s="78">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="158"/>
       <c r="B90" s="24">
-        <v>41666</v>
+        <v>41653</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
-      <c r="F90" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="35" t="s">
-        <v>30</v>
+      <c r="F90" s="78">
+        <f t="shared" ref="F90:G90" si="30">SUM(E90:E95)</f>
+        <v>0</v>
+      </c>
+      <c r="G90" s="78">
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="H90" s="35"/>
       <c r="I90" s="35"/>
       <c r="J90" s="35"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="85"/>
+      <c r="K90" s="35"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="158"/>
       <c r="B91" s="24">
-        <v>41667</v>
+        <v>41654</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
-      <c r="F91" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="35" t="s">
-        <v>30</v>
+      <c r="F91" s="78">
+        <f t="shared" ref="F91:G91" si="31">SUM(E91:E96)</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="78">
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
       <c r="H91" s="35"/>
       <c r="I91" s="35"/>
       <c r="J91" s="35"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="85"/>
+      <c r="K91" s="35"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="158"/>
       <c r="B92" s="24">
-        <v>41668</v>
+        <v>41655</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
-      <c r="F92" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="35" t="s">
-        <v>30</v>
+      <c r="F92" s="78">
+        <f t="shared" ref="F92:G92" si="32">SUM(E92:E97)</f>
+        <v>0</v>
+      </c>
+      <c r="G92" s="78">
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="H92" s="35"/>
       <c r="I92" s="35"/>
       <c r="J92" s="35"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="85"/>
+      <c r="K92" s="35"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="159"/>
       <c r="B93" s="24">
-        <v>41669</v>
+        <v>41656</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
-      <c r="F93" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="35" t="s">
-        <v>30</v>
+      <c r="F93" s="78">
+        <f t="shared" ref="F93:G93" si="33">SUM(E93:E98)</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="78">
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="H93" s="35"/>
       <c r="I93" s="35"/>
       <c r="J93" s="35"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="86"/>
-      <c r="B94" s="24">
-        <v>41670</v>
-      </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="35"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="87">
-        <v>14</v>
-      </c>
+      <c r="K93" s="35"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="161">
+        <v>12</v>
+      </c>
+      <c r="B94" s="25">
+        <v>41657</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="78">
+        <f t="shared" ref="F94:G94" si="34">SUM(E94:E99)</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="78">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="162"/>
       <c r="B95" s="25">
-        <v>41673</v>
+        <v>41658</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
-      <c r="F95" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="37" t="s">
-        <v>30</v>
+      <c r="F95" s="78">
+        <f t="shared" ref="F95:G95" si="35">SUM(E95:E100)</f>
+        <v>0</v>
+      </c>
+      <c r="G95" s="78">
+        <f t="shared" si="35"/>
+        <v>0</v>
       </c>
       <c r="H95" s="36"/>
       <c r="I95" s="36"/>
       <c r="J95" s="36"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="88"/>
+      <c r="K95" s="36"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="162"/>
       <c r="B96" s="25">
-        <v>41674</v>
+        <v>41659</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
-      <c r="F96" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="37" t="s">
-        <v>30</v>
+      <c r="F96" s="78">
+        <f t="shared" ref="F96:G96" si="36">SUM(E96:E101)</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="78">
+        <f t="shared" si="36"/>
+        <v>0</v>
       </c>
       <c r="H96" s="36"/>
       <c r="I96" s="36"/>
       <c r="J96" s="36"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="88"/>
+      <c r="K96" s="36"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="162"/>
       <c r="B97" s="25">
-        <v>41675</v>
+        <v>41660</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="37" t="s">
-        <v>30</v>
+      <c r="F97" s="78">
+        <f t="shared" ref="F97:G97" si="37">SUM(E97:E102)</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="78">
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="H97" s="36"/>
       <c r="I97" s="36"/>
       <c r="J97" s="36"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="88"/>
+      <c r="K97" s="36"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="162"/>
       <c r="B98" s="25">
-        <v>41676</v>
+        <v>41661</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
-      <c r="F98" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="37" t="s">
-        <v>30</v>
+      <c r="F98" s="78">
+        <f t="shared" ref="F98:G98" si="38">SUM(E98:E103)</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="78">
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="H98" s="36"/>
       <c r="I98" s="36"/>
       <c r="J98" s="36"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="89"/>
+      <c r="K98" s="36"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="162"/>
       <c r="B99" s="25">
-        <v>41677</v>
+        <v>41662</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
-      <c r="F99" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="37" t="s">
-        <v>30</v>
+      <c r="F99" s="78">
+        <f t="shared" ref="F99:G99" si="39">SUM(E99:E104)</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="78">
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="H99" s="36"/>
       <c r="I99" s="36"/>
       <c r="J99" s="36"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="84">
-        <v>15</v>
-      </c>
-      <c r="B100" s="24">
-        <v>41680</v>
-      </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="35"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="35"/>
-      <c r="J100" s="35"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="85"/>
+      <c r="K99" s="36"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="163"/>
+      <c r="B100" s="25">
+        <v>41663</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="78">
+        <f t="shared" ref="F100:G100" si="40">SUM(E100:E105)</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="78">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H100" s="36"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="157">
+        <v>13</v>
+      </c>
       <c r="B101" s="24">
-        <v>41681</v>
+        <v>41664</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="35"/>
-      <c r="H101" s="35"/>
+      <c r="F101" s="78">
+        <f t="shared" ref="F101:G101" si="41">SUM(E101:E106)</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="78">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="H101" s="35" t="s">
+        <v>30</v>
+      </c>
       <c r="I101" s="35"/>
       <c r="J101" s="35"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="85"/>
+      <c r="K101" s="35"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="158"/>
       <c r="B102" s="24">
-        <v>41682</v>
+        <v>41665</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
-      <c r="F102" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="35"/>
+      <c r="F102" s="78">
+        <f t="shared" ref="F102:G102" si="42">SUM(E102:E107)</f>
+        <v>0</v>
+      </c>
+      <c r="G102" s="78">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="H102" s="35"/>
       <c r="I102" s="35"/>
       <c r="J102" s="35"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="85"/>
+      <c r="K102" s="35"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="158"/>
       <c r="B103" s="24">
-        <v>41683</v>
+        <v>41666</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
-      <c r="F103" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="35"/>
+      <c r="F103" s="78">
+        <f t="shared" ref="F103:G103" si="43">SUM(E103:E108)</f>
+        <v>0</v>
+      </c>
+      <c r="G103" s="78">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
       <c r="H103" s="35"/>
       <c r="I103" s="35"/>
       <c r="J103" s="35"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="86"/>
+      <c r="K103" s="35"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="158"/>
       <c r="B104" s="24">
-        <v>41684</v>
+        <v>41667</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
-      <c r="F104" s="5">
-        <f t="shared" ref="F104:F135" si="3">E104</f>
-        <v>0</v>
-      </c>
-      <c r="G104" s="35"/>
-      <c r="H104" s="35"/>
+      <c r="F104" s="78">
+        <f t="shared" ref="F104:G104" si="44">SUM(E104:E109)</f>
+        <v>0</v>
+      </c>
+      <c r="G104" s="78">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="H104" s="35" t="s">
+        <v>30</v>
+      </c>
       <c r="I104" s="35"/>
       <c r="J104" s="35"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="87">
-        <v>16</v>
-      </c>
-      <c r="B105" s="25">
-        <v>41687</v>
-      </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
-      <c r="J105" s="36"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="88"/>
-      <c r="B106" s="25">
-        <v>41688</v>
-      </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="36"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="88"/>
-      <c r="B107" s="25">
-        <v>41689</v>
-      </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="36"/>
-      <c r="J107" s="36"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="88"/>
+      <c r="K104" s="35"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="158"/>
+      <c r="B105" s="24">
+        <v>41668</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="78">
+        <f t="shared" ref="F105:G105" si="45">SUM(E105:E110)</f>
+        <v>0</v>
+      </c>
+      <c r="G105" s="78">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="H105" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I105" s="35"/>
+      <c r="J105" s="35"/>
+      <c r="K105" s="35"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="158"/>
+      <c r="B106" s="24">
+        <v>41669</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="78">
+        <f t="shared" ref="F106:G106" si="46">SUM(E106:E111)</f>
+        <v>0</v>
+      </c>
+      <c r="G106" s="78">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="H106" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I106" s="35"/>
+      <c r="J106" s="35"/>
+      <c r="K106" s="35"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="159"/>
+      <c r="B107" s="24">
+        <v>41670</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="78">
+        <f t="shared" ref="F107:G107" si="47">SUM(E107:E112)</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="78">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I107" s="35"/>
+      <c r="J107" s="35"/>
+      <c r="K107" s="35"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="161">
+        <v>14</v>
+      </c>
       <c r="B108" s="25">
-        <v>41690</v>
+        <v>41671</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
-      <c r="F108" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
+      <c r="F108" s="78">
+        <f t="shared" ref="F108:G108" si="48">SUM(E108:E113)</f>
+        <v>0</v>
+      </c>
+      <c r="G108" s="78">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="I108" s="36"/>
       <c r="J108" s="36"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="89"/>
+      <c r="K108" s="36"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="162"/>
       <c r="B109" s="25">
-        <v>41691</v>
+        <v>41672</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
-      <c r="F109" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G109" s="36"/>
-      <c r="H109" s="36"/>
+      <c r="F109" s="78">
+        <f t="shared" ref="F109:G109" si="49">SUM(E109:E114)</f>
+        <v>0</v>
+      </c>
+      <c r="G109" s="78">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="37"/>
       <c r="I109" s="36"/>
       <c r="J109" s="36"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="84">
-        <v>17</v>
-      </c>
-      <c r="B110" s="24">
-        <v>41694</v>
-      </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G110" s="35"/>
-      <c r="H110" s="35"/>
-      <c r="I110" s="35"/>
-      <c r="J110" s="35"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="85"/>
-      <c r="B111" s="24">
-        <v>41695</v>
-      </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G111" s="35"/>
-      <c r="H111" s="35"/>
-      <c r="I111" s="35"/>
-      <c r="J111" s="35"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="85"/>
-      <c r="B112" s="24">
-        <v>41696</v>
-      </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G112" s="35"/>
-      <c r="H112" s="35"/>
-      <c r="I112" s="35"/>
-      <c r="J112" s="35"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="85"/>
-      <c r="B113" s="24">
-        <v>41697</v>
-      </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G113" s="35"/>
-      <c r="H113" s="35"/>
-      <c r="I113" s="35"/>
-      <c r="J113" s="35"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="86"/>
-      <c r="B114" s="24">
-        <v>41698</v>
-      </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G114" s="35"/>
-      <c r="H114" s="35"/>
-      <c r="I114" s="35"/>
-      <c r="J114" s="35"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="87">
-        <v>18</v>
-      </c>
-      <c r="B115" s="25">
-        <v>41701</v>
-      </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G115" s="36"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="36"/>
-      <c r="J115" s="36"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="88"/>
-      <c r="B116" s="25">
-        <v>41702</v>
-      </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G116" s="36"/>
-      <c r="H116" s="36"/>
-      <c r="I116" s="36"/>
-      <c r="J116" s="36"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="88"/>
-      <c r="B117" s="25">
-        <v>41703</v>
-      </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G117" s="36"/>
-      <c r="H117" s="36"/>
-      <c r="I117" s="36"/>
-      <c r="J117" s="36"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="88"/>
-      <c r="B118" s="25">
-        <v>41704</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G118" s="36"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="36"/>
-      <c r="J118" s="36"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="89"/>
-      <c r="B119" s="25">
-        <v>41705</v>
-      </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="36"/>
-      <c r="H119" s="36"/>
-      <c r="I119" s="36"/>
-      <c r="J119" s="36"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="84">
-        <v>19</v>
-      </c>
+      <c r="K109" s="36"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="162"/>
+      <c r="B110" s="25">
+        <v>41673</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="78">
+        <f t="shared" ref="F110:G110" si="50">SUM(E110:E115)</f>
+        <v>0</v>
+      </c>
+      <c r="G110" s="78">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="37"/>
+      <c r="I110" s="36"/>
+      <c r="J110" s="36"/>
+      <c r="K110" s="36"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="162"/>
+      <c r="B111" s="25">
+        <v>41674</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="78">
+        <f t="shared" ref="F111:G111" si="51">SUM(E111:E116)</f>
+        <v>0</v>
+      </c>
+      <c r="G111" s="78">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I111" s="36"/>
+      <c r="J111" s="36"/>
+      <c r="K111" s="36"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="162"/>
+      <c r="B112" s="25">
+        <v>41675</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="78">
+        <f t="shared" ref="F112:G112" si="52">SUM(E112:E117)</f>
+        <v>0</v>
+      </c>
+      <c r="G112" s="78">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I112" s="36"/>
+      <c r="J112" s="36"/>
+      <c r="K112" s="36"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="162"/>
+      <c r="B113" s="25">
+        <v>41676</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="78">
+        <f t="shared" ref="F113:G113" si="53">SUM(E113:E118)</f>
+        <v>0</v>
+      </c>
+      <c r="G113" s="78">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="H113" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I113" s="36"/>
+      <c r="J113" s="36"/>
+      <c r="K113" s="36"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="163"/>
+      <c r="B114" s="25">
+        <v>41677</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="78">
+        <f t="shared" ref="F114:G114" si="54">SUM(E114:E119)</f>
+        <v>0</v>
+      </c>
+      <c r="G114" s="78">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I114" s="36"/>
+      <c r="J114" s="36"/>
+      <c r="K114" s="36"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="157">
+        <v>15</v>
+      </c>
+      <c r="B115" s="24">
+        <v>41678</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="78">
+        <f t="shared" ref="F115:G115" si="55">SUM(E115:E120)</f>
+        <v>0</v>
+      </c>
+      <c r="G115" s="78">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="H115" s="35"/>
+      <c r="I115" s="35"/>
+      <c r="J115" s="35"/>
+      <c r="K115" s="35"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="158"/>
+      <c r="B116" s="24">
+        <v>41679</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="78">
+        <f t="shared" ref="F116:G116" si="56">SUM(E116:E121)</f>
+        <v>0</v>
+      </c>
+      <c r="G116" s="78">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="35"/>
+      <c r="I116" s="35"/>
+      <c r="J116" s="35"/>
+      <c r="K116" s="35"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="158"/>
+      <c r="B117" s="24">
+        <v>41680</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="78">
+        <f t="shared" ref="F117:G117" si="57">SUM(E117:E122)</f>
+        <v>0</v>
+      </c>
+      <c r="G117" s="78">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="H117" s="35"/>
+      <c r="I117" s="35"/>
+      <c r="J117" s="35"/>
+      <c r="K117" s="35"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="158"/>
+      <c r="B118" s="24">
+        <v>41681</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="78">
+        <f t="shared" ref="F118:G118" si="58">SUM(E118:E123)</f>
+        <v>0</v>
+      </c>
+      <c r="G118" s="78">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="H118" s="35"/>
+      <c r="I118" s="35"/>
+      <c r="J118" s="35"/>
+      <c r="K118" s="35"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="158"/>
+      <c r="B119" s="24">
+        <v>41682</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="78">
+        <f t="shared" ref="F119:G119" si="59">SUM(E119:E124)</f>
+        <v>0</v>
+      </c>
+      <c r="G119" s="78">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="H119" s="35"/>
+      <c r="I119" s="35"/>
+      <c r="J119" s="35"/>
+      <c r="K119" s="35"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="158"/>
       <c r="B120" s="24">
-        <v>41708</v>
+        <v>41683</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
-      <c r="F120" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G120" s="35"/>
+      <c r="F120" s="78">
+        <f t="shared" ref="F120:G120" si="60">SUM(E120:E125)</f>
+        <v>0</v>
+      </c>
+      <c r="G120" s="78">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
       <c r="H120" s="35"/>
       <c r="I120" s="35"/>
       <c r="J120" s="35"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="85"/>
+      <c r="K120" s="35"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="159"/>
       <c r="B121" s="24">
-        <v>41709</v>
+        <v>41684</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
-      <c r="F121" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G121" s="35"/>
+      <c r="F121" s="78">
+        <f t="shared" ref="F121:G121" si="61">SUM(E121:E126)</f>
+        <v>0</v>
+      </c>
+      <c r="G121" s="78">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
       <c r="H121" s="35"/>
       <c r="I121" s="35"/>
       <c r="J121" s="35"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="85"/>
-      <c r="B122" s="24">
-        <v>41710</v>
-      </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G122" s="35"/>
-      <c r="H122" s="35"/>
-      <c r="I122" s="35"/>
-      <c r="J122" s="35"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="85"/>
-      <c r="B123" s="24">
-        <v>41711</v>
-      </c>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G123" s="35"/>
-      <c r="H123" s="35"/>
-      <c r="I123" s="35"/>
-      <c r="J123" s="35"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="86"/>
-      <c r="B124" s="24">
-        <v>41712</v>
-      </c>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G124" s="35"/>
-      <c r="H124" s="35"/>
-      <c r="I124" s="35"/>
-      <c r="J124" s="35"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="87">
-        <v>20</v>
-      </c>
+      <c r="K121" s="35"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="161">
+        <v>16</v>
+      </c>
+      <c r="B122" s="25">
+        <v>41685</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="78">
+        <f t="shared" ref="F122:G122" si="62">SUM(E122:E127)</f>
+        <v>0</v>
+      </c>
+      <c r="G122" s="78">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H122" s="36"/>
+      <c r="I122" s="36"/>
+      <c r="J122" s="36"/>
+      <c r="K122" s="36"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="162"/>
+      <c r="B123" s="25">
+        <v>41686</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="78">
+        <f t="shared" ref="F123:G123" si="63">SUM(E123:E128)</f>
+        <v>0</v>
+      </c>
+      <c r="G123" s="78">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="H123" s="36"/>
+      <c r="I123" s="36"/>
+      <c r="J123" s="36"/>
+      <c r="K123" s="36"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="162"/>
+      <c r="B124" s="25">
+        <v>41687</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="78">
+        <f t="shared" ref="F124:G124" si="64">SUM(E124:E129)</f>
+        <v>0</v>
+      </c>
+      <c r="G124" s="78">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="H124" s="36"/>
+      <c r="I124" s="36"/>
+      <c r="J124" s="36"/>
+      <c r="K124" s="36"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="162"/>
       <c r="B125" s="25">
-        <v>41715</v>
+        <v>41688</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
-      <c r="F125" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G125" s="36"/>
+      <c r="F125" s="78">
+        <f t="shared" ref="F125:G125" si="65">SUM(E125:E130)</f>
+        <v>0</v>
+      </c>
+      <c r="G125" s="78">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
       <c r="H125" s="36"/>
       <c r="I125" s="36"/>
       <c r="J125" s="36"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="88"/>
+      <c r="K125" s="36"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="162"/>
       <c r="B126" s="25">
-        <v>41716</v>
+        <v>41689</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
-      <c r="F126" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G126" s="36"/>
+      <c r="F126" s="78">
+        <f t="shared" ref="F126:G126" si="66">SUM(E126:E131)</f>
+        <v>0</v>
+      </c>
+      <c r="G126" s="78">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
       <c r="H126" s="36"/>
       <c r="I126" s="36"/>
       <c r="J126" s="36"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="88"/>
+      <c r="K126" s="36"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="162"/>
       <c r="B127" s="25">
-        <v>41717</v>
+        <v>41690</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
-      <c r="F127" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G127" s="36"/>
+      <c r="F127" s="78">
+        <f t="shared" ref="F127:G127" si="67">SUM(E127:E132)</f>
+        <v>0</v>
+      </c>
+      <c r="G127" s="78">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
       <c r="H127" s="36"/>
       <c r="I127" s="36"/>
       <c r="J127" s="36"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="88"/>
+      <c r="K127" s="36"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="163"/>
       <c r="B128" s="25">
-        <v>41718</v>
+        <v>41691</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
-      <c r="F128" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G128" s="36"/>
+      <c r="F128" s="78">
+        <f t="shared" ref="F128:G128" si="68">SUM(E128:E133)</f>
+        <v>0</v>
+      </c>
+      <c r="G128" s="78">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
       <c r="H128" s="36"/>
       <c r="I128" s="36"/>
       <c r="J128" s="36"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="89"/>
-      <c r="B129" s="25">
-        <v>41719</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G129" s="36"/>
-      <c r="H129" s="36"/>
-      <c r="I129" s="36"/>
-      <c r="J129" s="36"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="84">
-        <v>21</v>
-      </c>
+      <c r="K128" s="36"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="157">
+        <v>17</v>
+      </c>
+      <c r="B129" s="24">
+        <v>41692</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="78">
+        <f t="shared" ref="F129:G129" si="69">SUM(E129:E134)</f>
+        <v>0</v>
+      </c>
+      <c r="G129" s="78">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="H129" s="35"/>
+      <c r="I129" s="35"/>
+      <c r="J129" s="35"/>
+      <c r="K129" s="35"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="158"/>
       <c r="B130" s="24">
-        <v>41722</v>
+        <v>41693</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
-      <c r="F130" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G130" s="35"/>
+      <c r="F130" s="78">
+        <f t="shared" ref="F130:G130" si="70">SUM(E130:E135)</f>
+        <v>0</v>
+      </c>
+      <c r="G130" s="78">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
       <c r="H130" s="35"/>
       <c r="I130" s="35"/>
       <c r="J130" s="35"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="85"/>
+      <c r="K130" s="35"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="158"/>
       <c r="B131" s="24">
-        <v>41723</v>
+        <v>41694</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
-      <c r="F131" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G131" s="35"/>
+      <c r="F131" s="78">
+        <f t="shared" ref="F131:G131" si="71">SUM(E131:E136)</f>
+        <v>0</v>
+      </c>
+      <c r="G131" s="78">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
       <c r="H131" s="35"/>
       <c r="I131" s="35"/>
       <c r="J131" s="35"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="85"/>
+      <c r="K131" s="35"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="158"/>
       <c r="B132" s="24">
-        <v>41724</v>
+        <v>41695</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
-      <c r="F132" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G132" s="35"/>
+      <c r="F132" s="78">
+        <f t="shared" ref="F132:G132" si="72">SUM(E132:E137)</f>
+        <v>0</v>
+      </c>
+      <c r="G132" s="78">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
       <c r="H132" s="35"/>
       <c r="I132" s="35"/>
       <c r="J132" s="35"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="85"/>
+      <c r="K132" s="35"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="158"/>
       <c r="B133" s="24">
-        <v>41725</v>
+        <v>41696</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
-      <c r="F133" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G133" s="35"/>
+      <c r="F133" s="78">
+        <f t="shared" ref="F133:G133" si="73">SUM(E133:E138)</f>
+        <v>0</v>
+      </c>
+      <c r="G133" s="78">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
       <c r="H133" s="35"/>
       <c r="I133" s="35"/>
       <c r="J133" s="35"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="86"/>
+      <c r="K133" s="35"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="158"/>
       <c r="B134" s="24">
-        <v>41726</v>
+        <v>41697</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
-      <c r="F134" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G134" s="35"/>
+      <c r="F134" s="78">
+        <f t="shared" ref="F134:G134" si="74">SUM(E134:E139)</f>
+        <v>0</v>
+      </c>
+      <c r="G134" s="78">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
       <c r="H134" s="35"/>
       <c r="I134" s="35"/>
       <c r="J134" s="35"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="87">
-        <v>22</v>
-      </c>
-      <c r="B135" s="25">
-        <v>41729</v>
-      </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G135" s="36"/>
-      <c r="H135" s="36"/>
-      <c r="I135" s="36"/>
-      <c r="J135" s="36"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="88"/>
+      <c r="K134" s="35"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="159"/>
+      <c r="B135" s="24">
+        <v>41698</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="78">
+        <f t="shared" ref="F135:G135" si="75">SUM(E135:E140)</f>
+        <v>0</v>
+      </c>
+      <c r="G135" s="78">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="H135" s="35"/>
+      <c r="I135" s="35"/>
+      <c r="J135" s="35"/>
+      <c r="K135" s="35"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="161">
+        <v>18</v>
+      </c>
       <c r="B136" s="25">
-        <v>41730</v>
+        <v>41699</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
-      <c r="F136" s="6">
-        <f t="shared" ref="F136:F167" si="4">E136</f>
-        <v>0</v>
-      </c>
-      <c r="G136" s="36"/>
+      <c r="F136" s="78">
+        <f t="shared" ref="F136:G136" si="76">SUM(E136:E141)</f>
+        <v>0</v>
+      </c>
+      <c r="G136" s="78">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
       <c r="H136" s="36"/>
       <c r="I136" s="36"/>
       <c r="J136" s="36"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="88"/>
+      <c r="K136" s="36"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="162"/>
       <c r="B137" s="25">
-        <v>41731</v>
+        <v>41700</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
-      <c r="F137" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G137" s="36"/>
+      <c r="F137" s="78">
+        <f t="shared" ref="F137:G137" si="77">SUM(E137:E142)</f>
+        <v>0</v>
+      </c>
+      <c r="G137" s="78">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
       <c r="H137" s="36"/>
       <c r="I137" s="36"/>
       <c r="J137" s="36"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="88"/>
+      <c r="K137" s="36"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="162"/>
       <c r="B138" s="25">
-        <v>41732</v>
+        <v>41701</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
-      <c r="F138" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G138" s="36"/>
+      <c r="F138" s="78">
+        <f t="shared" ref="F138:G138" si="78">SUM(E138:E143)</f>
+        <v>0</v>
+      </c>
+      <c r="G138" s="78">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
       <c r="H138" s="36"/>
       <c r="I138" s="36"/>
       <c r="J138" s="36"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="89"/>
+      <c r="K138" s="36"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="162"/>
       <c r="B139" s="25">
-        <v>41733</v>
+        <v>41702</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
-      <c r="F139" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G139" s="36"/>
+      <c r="F139" s="78">
+        <f t="shared" ref="F139:G139" si="79">SUM(E139:E144)</f>
+        <v>0</v>
+      </c>
+      <c r="G139" s="78">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
       <c r="H139" s="36"/>
       <c r="I139" s="36"/>
       <c r="J139" s="36"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="84">
-        <v>23</v>
-      </c>
-      <c r="B140" s="24">
-        <v>41736</v>
-      </c>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G140" s="35"/>
-      <c r="H140" s="35"/>
-      <c r="I140" s="35"/>
-      <c r="J140" s="35"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="85"/>
-      <c r="B141" s="24">
-        <v>41737</v>
-      </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G141" s="35"/>
-      <c r="H141" s="35"/>
-      <c r="I141" s="35"/>
-      <c r="J141" s="35"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="85"/>
-      <c r="B142" s="24">
-        <v>41738</v>
-      </c>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G142" s="35"/>
-      <c r="H142" s="35"/>
-      <c r="I142" s="35"/>
-      <c r="J142" s="35"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="85"/>
+      <c r="K139" s="36"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="162"/>
+      <c r="B140" s="25">
+        <v>41703</v>
+      </c>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="78">
+        <f t="shared" ref="F140:G140" si="80">SUM(E140:E145)</f>
+        <v>0</v>
+      </c>
+      <c r="G140" s="78">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="H140" s="36"/>
+      <c r="I140" s="36"/>
+      <c r="J140" s="36"/>
+      <c r="K140" s="36"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="162"/>
+      <c r="B141" s="25">
+        <v>41704</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="78">
+        <f t="shared" ref="F141:G141" si="81">SUM(E141:E146)</f>
+        <v>0</v>
+      </c>
+      <c r="G141" s="78">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="H141" s="36"/>
+      <c r="I141" s="36"/>
+      <c r="J141" s="36"/>
+      <c r="K141" s="36"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="163"/>
+      <c r="B142" s="25">
+        <v>41705</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="78">
+        <f t="shared" ref="F142:G142" si="82">SUM(E142:E147)</f>
+        <v>0</v>
+      </c>
+      <c r="G142" s="78">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="H142" s="36"/>
+      <c r="I142" s="36"/>
+      <c r="J142" s="36"/>
+      <c r="K142" s="36"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="157">
+        <v>19</v>
+      </c>
       <c r="B143" s="24">
-        <v>41739</v>
+        <v>41706</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
-      <c r="F143" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G143" s="35"/>
+      <c r="F143" s="78">
+        <f t="shared" ref="F143:G143" si="83">SUM(E143:E148)</f>
+        <v>0</v>
+      </c>
+      <c r="G143" s="78">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
       <c r="H143" s="35"/>
       <c r="I143" s="35"/>
       <c r="J143" s="35"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="86"/>
+      <c r="K143" s="35"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="158"/>
       <c r="B144" s="24">
-        <v>41740</v>
+        <v>41707</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
-      <c r="F144" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G144" s="35"/>
+      <c r="F144" s="78">
+        <f t="shared" ref="F144:G144" si="84">SUM(E144:E149)</f>
+        <v>0</v>
+      </c>
+      <c r="G144" s="78">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
       <c r="H144" s="35"/>
       <c r="I144" s="35"/>
       <c r="J144" s="35"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="87">
-        <v>24</v>
-      </c>
-      <c r="B145" s="25">
-        <v>41743</v>
-      </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G145" s="36"/>
-      <c r="H145" s="36"/>
-      <c r="I145" s="36"/>
-      <c r="J145" s="36"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="88"/>
-      <c r="B146" s="25">
-        <v>41744</v>
-      </c>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G146" s="36"/>
-      <c r="H146" s="36"/>
-      <c r="I146" s="36"/>
-      <c r="J146" s="36"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="88"/>
-      <c r="B147" s="25">
-        <v>41745</v>
-      </c>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G147" s="36"/>
-      <c r="H147" s="36"/>
-      <c r="I147" s="36"/>
-      <c r="J147" s="36"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="88"/>
-      <c r="B148" s="25">
-        <v>41746</v>
-      </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G148" s="36"/>
-      <c r="H148" s="36"/>
-      <c r="I148" s="36"/>
-      <c r="J148" s="36"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="89"/>
-      <c r="B149" s="25">
-        <v>41747</v>
-      </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G149" s="36"/>
-      <c r="H149" s="36"/>
-      <c r="I149" s="36"/>
-      <c r="J149" s="36"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="84">
-        <v>25</v>
-      </c>
-      <c r="B150" s="24">
-        <v>41750</v>
-      </c>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G150" s="35"/>
-      <c r="H150" s="35"/>
-      <c r="I150" s="35"/>
-      <c r="J150" s="35"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="85"/>
-      <c r="B151" s="24">
-        <v>41751</v>
-      </c>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G151" s="35"/>
-      <c r="H151" s="35"/>
-      <c r="I151" s="35"/>
-      <c r="J151" s="35"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="85"/>
-      <c r="B152" s="24">
-        <v>41752</v>
-      </c>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G152" s="35"/>
-      <c r="H152" s="35"/>
-      <c r="I152" s="35"/>
-      <c r="J152" s="35"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="85"/>
-      <c r="B153" s="24">
-        <v>41753</v>
-      </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G153" s="35"/>
-      <c r="H153" s="35"/>
-      <c r="I153" s="35"/>
-      <c r="J153" s="35"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="86"/>
-      <c r="B154" s="24">
-        <v>41754</v>
-      </c>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G154" s="35"/>
-      <c r="H154" s="35"/>
-      <c r="I154" s="35"/>
-      <c r="J154" s="35"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="87">
-        <v>26</v>
-      </c>
+      <c r="K144" s="35"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="158"/>
+      <c r="B145" s="24">
+        <v>41708</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="78">
+        <f t="shared" ref="F145:G145" si="85">SUM(E145:E150)</f>
+        <v>0</v>
+      </c>
+      <c r="G145" s="78">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H145" s="35"/>
+      <c r="I145" s="35"/>
+      <c r="J145" s="35"/>
+      <c r="K145" s="35"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="158"/>
+      <c r="B146" s="24">
+        <v>41709</v>
+      </c>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="78">
+        <f t="shared" ref="F146:G146" si="86">SUM(E146:E153)</f>
+        <v>0</v>
+      </c>
+      <c r="G146" s="78">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="H146" s="35"/>
+      <c r="I146" s="35"/>
+      <c r="J146" s="35"/>
+      <c r="K146" s="35"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="158"/>
+      <c r="B147" s="24">
+        <v>41710</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="78">
+        <f t="shared" ref="F147:G147" si="87">SUM(E147:E154)</f>
+        <v>0</v>
+      </c>
+      <c r="G147" s="78">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="H147" s="35"/>
+      <c r="I147" s="35"/>
+      <c r="J147" s="35"/>
+      <c r="K147" s="35"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="158"/>
+      <c r="B148" s="24">
+        <v>41711</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="78">
+        <f t="shared" ref="F148:G148" si="88">SUM(E148:E155)</f>
+        <v>0</v>
+      </c>
+      <c r="G148" s="78">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="H148" s="35"/>
+      <c r="I148" s="35"/>
+      <c r="J148" s="35"/>
+      <c r="K148" s="35"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="159"/>
+      <c r="B149" s="24">
+        <v>41712</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="78">
+        <f t="shared" ref="F149:G149" si="89">SUM(E149:E156)</f>
+        <v>0</v>
+      </c>
+      <c r="G149" s="78">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="H149" s="35"/>
+      <c r="I149" s="35"/>
+      <c r="J149" s="35"/>
+      <c r="K149" s="35"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="161">
+        <v>20</v>
+      </c>
+      <c r="B150" s="25">
+        <v>41713</v>
+      </c>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="78">
+        <f t="shared" ref="F150:G150" si="90">SUM(E150:E157)</f>
+        <v>0</v>
+      </c>
+      <c r="G150" s="78">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="H150" s="36"/>
+      <c r="I150" s="36"/>
+      <c r="J150" s="36"/>
+      <c r="K150" s="36"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="162"/>
+      <c r="B151" s="25">
+        <v>41714</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="78"/>
+      <c r="G151" s="78"/>
+      <c r="H151" s="36"/>
+      <c r="I151" s="36"/>
+      <c r="J151" s="36"/>
+      <c r="K151" s="36"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="162"/>
+      <c r="B152" s="25">
+        <v>41715</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="78"/>
+      <c r="G152" s="78"/>
+      <c r="H152" s="36"/>
+      <c r="I152" s="36"/>
+      <c r="J152" s="36"/>
+      <c r="K152" s="36"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="162"/>
+      <c r="B153" s="25">
+        <v>41716</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="78">
+        <f t="shared" ref="F153:G153" si="91">SUM(E153:E160)</f>
+        <v>0</v>
+      </c>
+      <c r="G153" s="78">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="H153" s="36"/>
+      <c r="I153" s="36"/>
+      <c r="J153" s="36"/>
+      <c r="K153" s="36"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="162"/>
+      <c r="B154" s="25">
+        <v>41717</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="78">
+        <f t="shared" ref="F154:G154" si="92">SUM(E154:E161)</f>
+        <v>0</v>
+      </c>
+      <c r="G154" s="78">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="H154" s="36"/>
+      <c r="I154" s="36"/>
+      <c r="J154" s="36"/>
+      <c r="K154" s="36"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="162"/>
       <c r="B155" s="25">
-        <v>41757</v>
+        <v>41718</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
-      <c r="F155" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G155" s="36"/>
+      <c r="F155" s="78">
+        <f t="shared" ref="F155:G155" si="93">SUM(E155:E162)</f>
+        <v>0</v>
+      </c>
+      <c r="G155" s="78">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
       <c r="H155" s="36"/>
       <c r="I155" s="36"/>
       <c r="J155" s="36"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="88"/>
+      <c r="K155" s="36"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="163"/>
       <c r="B156" s="25">
-        <v>41758</v>
+        <v>41719</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
-      <c r="F156" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G156" s="36"/>
+      <c r="F156" s="78">
+        <f t="shared" ref="F156:G156" si="94">SUM(E156:E163)</f>
+        <v>0</v>
+      </c>
+      <c r="G156" s="78">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
       <c r="H156" s="36"/>
       <c r="I156" s="36"/>
       <c r="J156" s="36"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="88"/>
-      <c r="B157" s="25">
-        <v>41759</v>
-      </c>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G157" s="36"/>
-      <c r="H157" s="36"/>
-      <c r="I157" s="36"/>
-      <c r="J157" s="36"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="88"/>
-      <c r="B158" s="25">
-        <v>41760</v>
-      </c>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G158" s="36"/>
-      <c r="H158" s="36"/>
-      <c r="I158" s="36"/>
-      <c r="J158" s="36"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="89"/>
-      <c r="B159" s="25">
-        <v>41761</v>
-      </c>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G159" s="36"/>
-      <c r="H159" s="36"/>
-      <c r="I159" s="36"/>
-      <c r="J159" s="36"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="84">
-        <v>27</v>
-      </c>
+      <c r="K156" s="36"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="157">
+        <v>21</v>
+      </c>
+      <c r="B157" s="24">
+        <v>41720</v>
+      </c>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="78">
+        <f t="shared" ref="F157:G157" si="95">SUM(E157:E164)</f>
+        <v>0</v>
+      </c>
+      <c r="G157" s="78">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="H157" s="35"/>
+      <c r="I157" s="35"/>
+      <c r="J157" s="35"/>
+      <c r="K157" s="35"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="158"/>
+      <c r="B158" s="24">
+        <v>41721</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="78"/>
+      <c r="G158" s="78"/>
+      <c r="H158" s="35"/>
+      <c r="I158" s="35"/>
+      <c r="J158" s="35"/>
+      <c r="K158" s="35"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="158"/>
+      <c r="B159" s="24">
+        <v>41722</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="78"/>
+      <c r="G159" s="78"/>
+      <c r="H159" s="35"/>
+      <c r="I159" s="35"/>
+      <c r="J159" s="35"/>
+      <c r="K159" s="35"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="158"/>
       <c r="B160" s="24">
-        <v>41764</v>
+        <v>41723</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
-      <c r="F160" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G160" s="35"/>
+      <c r="F160" s="78">
+        <f t="shared" ref="F160:G160" si="96">SUM(E160:E167)</f>
+        <v>0</v>
+      </c>
+      <c r="G160" s="78">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
       <c r="H160" s="35"/>
       <c r="I160" s="35"/>
       <c r="J160" s="35"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="85"/>
+      <c r="K160" s="35"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="158"/>
       <c r="B161" s="24">
-        <v>41765</v>
+        <v>41724</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
-      <c r="F161" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G161" s="35"/>
+      <c r="F161" s="78">
+        <f t="shared" ref="F161:G161" si="97">SUM(E161:E168)</f>
+        <v>0</v>
+      </c>
+      <c r="G161" s="78">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
       <c r="H161" s="35"/>
       <c r="I161" s="35"/>
       <c r="J161" s="35"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="85"/>
+      <c r="K161" s="35"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="158"/>
       <c r="B162" s="24">
-        <v>41766</v>
+        <v>41725</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
-      <c r="F162" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G162" s="35"/>
+      <c r="F162" s="78">
+        <f t="shared" ref="F162:G162" si="98">SUM(E162:E169)</f>
+        <v>0</v>
+      </c>
+      <c r="G162" s="78">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
       <c r="H162" s="35"/>
       <c r="I162" s="35"/>
       <c r="J162" s="35"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="85"/>
+      <c r="K162" s="35"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="159"/>
       <c r="B163" s="24">
-        <v>41767</v>
+        <v>41726</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
-      <c r="F163" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G163" s="35"/>
+      <c r="F163" s="78">
+        <f t="shared" ref="F163:G163" si="99">SUM(E163:E170)</f>
+        <v>0</v>
+      </c>
+      <c r="G163" s="78">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
       <c r="H163" s="35"/>
       <c r="I163" s="35"/>
       <c r="J163" s="35"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="86"/>
-      <c r="B164" s="24">
-        <v>41768</v>
-      </c>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G164" s="35"/>
-      <c r="H164" s="35"/>
-      <c r="I164" s="35"/>
-      <c r="J164" s="35"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="87">
-        <v>28</v>
-      </c>
+      <c r="K163" s="35"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="161">
+        <v>22</v>
+      </c>
+      <c r="B164" s="25">
+        <v>41727</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="78">
+        <f t="shared" ref="F164:G164" si="100">SUM(E164:E171)</f>
+        <v>0</v>
+      </c>
+      <c r="G164" s="78">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="H164" s="36"/>
+      <c r="I164" s="36"/>
+      <c r="J164" s="36"/>
+      <c r="K164" s="36"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="162"/>
       <c r="B165" s="25">
-        <v>41771</v>
+        <v>41728</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
-      <c r="F165" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G165" s="36"/>
+      <c r="F165" s="78"/>
+      <c r="G165" s="78"/>
       <c r="H165" s="36"/>
       <c r="I165" s="36"/>
       <c r="J165" s="36"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="88"/>
+      <c r="K165" s="36"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="162"/>
       <c r="B166" s="25">
-        <v>41772</v>
+        <v>41729</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
-      <c r="F166" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G166" s="36"/>
+      <c r="F166" s="78"/>
+      <c r="G166" s="78"/>
       <c r="H166" s="36"/>
       <c r="I166" s="36"/>
       <c r="J166" s="36"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="88"/>
+      <c r="K166" s="36"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="162"/>
       <c r="B167" s="25">
-        <v>41773</v>
+        <v>41730</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
-      <c r="F167" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G167" s="36"/>
+      <c r="F167" s="78">
+        <f t="shared" ref="F167:G167" si="101">SUM(E167:E174)</f>
+        <v>0</v>
+      </c>
+      <c r="G167" s="78">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
       <c r="H167" s="36"/>
       <c r="I167" s="36"/>
       <c r="J167" s="36"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="88"/>
+      <c r="K167" s="36"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="162"/>
       <c r="B168" s="25">
-        <v>41774</v>
+        <v>41731</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
-      <c r="F168" s="6">
-        <f t="shared" ref="F168:F179" si="5">E168</f>
-        <v>0</v>
-      </c>
-      <c r="G168" s="36"/>
+      <c r="F168" s="78">
+        <f t="shared" ref="F168:G168" si="102">SUM(E168:E175)</f>
+        <v>0</v>
+      </c>
+      <c r="G168" s="78">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
       <c r="H168" s="36"/>
       <c r="I168" s="36"/>
       <c r="J168" s="36"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="89"/>
+      <c r="K168" s="36"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="162"/>
       <c r="B169" s="25">
-        <v>41775</v>
+        <v>41732</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
-      <c r="F169" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G169" s="36"/>
+      <c r="F169" s="78">
+        <f t="shared" ref="F169:G169" si="103">SUM(E169:E176)</f>
+        <v>0</v>
+      </c>
+      <c r="G169" s="78">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
       <c r="H169" s="36"/>
       <c r="I169" s="36"/>
       <c r="J169" s="36"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="84">
-        <v>29</v>
-      </c>
-      <c r="B170" s="24">
-        <v>41778</v>
-      </c>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G170" s="35"/>
-      <c r="H170" s="35"/>
-      <c r="I170" s="35"/>
-      <c r="J170" s="35"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="85"/>
+      <c r="K169" s="36"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="163"/>
+      <c r="B170" s="25">
+        <v>41733</v>
+      </c>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="78">
+        <f t="shared" ref="F170:G170" si="104">SUM(E170:E177)</f>
+        <v>0</v>
+      </c>
+      <c r="G170" s="78">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="H170" s="36"/>
+      <c r="I170" s="36"/>
+      <c r="J170" s="36"/>
+      <c r="K170" s="36"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="157">
+        <v>23</v>
+      </c>
       <c r="B171" s="24">
-        <v>41779</v>
+        <v>41734</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
-      <c r="F171" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G171" s="35"/>
+      <c r="F171" s="78">
+        <f t="shared" ref="F171:G171" si="105">SUM(E171:E178)</f>
+        <v>0</v>
+      </c>
+      <c r="G171" s="78">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
       <c r="H171" s="35"/>
       <c r="I171" s="35"/>
       <c r="J171" s="35"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="85"/>
+      <c r="K171" s="35"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="158"/>
       <c r="B172" s="24">
-        <v>41780</v>
+        <v>41735</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
-      <c r="F172" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G172" s="35"/>
+      <c r="F172" s="78"/>
+      <c r="G172" s="78"/>
       <c r="H172" s="35"/>
       <c r="I172" s="35"/>
       <c r="J172" s="35"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="85"/>
+      <c r="K172" s="35"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="158"/>
       <c r="B173" s="24">
-        <v>41781</v>
+        <v>41736</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
-      <c r="F173" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G173" s="35"/>
+      <c r="F173" s="78"/>
+      <c r="G173" s="78"/>
       <c r="H173" s="35"/>
       <c r="I173" s="35"/>
       <c r="J173" s="35"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="86"/>
+      <c r="K173" s="35"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="158"/>
       <c r="B174" s="24">
-        <v>41782</v>
+        <v>41737</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
-      <c r="F174" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G174" s="35"/>
+      <c r="F174" s="78">
+        <f t="shared" ref="F174:G174" si="106">SUM(E174:E181)</f>
+        <v>0</v>
+      </c>
+      <c r="G174" s="78">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
       <c r="H174" s="35"/>
       <c r="I174" s="35"/>
       <c r="J174" s="35"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="90">
+      <c r="K174" s="35"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="158"/>
+      <c r="B175" s="24">
+        <v>41738</v>
+      </c>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="78">
+        <f t="shared" ref="F175:G175" si="107">SUM(E175:E182)</f>
+        <v>0</v>
+      </c>
+      <c r="G175" s="78">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="H175" s="35"/>
+      <c r="I175" s="35"/>
+      <c r="J175" s="35"/>
+      <c r="K175" s="35"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="158"/>
+      <c r="B176" s="24">
+        <v>41739</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="78">
+        <f t="shared" ref="F176:G176" si="108">SUM(E176:E183)</f>
+        <v>0</v>
+      </c>
+      <c r="G176" s="78">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="H176" s="35"/>
+      <c r="I176" s="35"/>
+      <c r="J176" s="35"/>
+      <c r="K176" s="35"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="159"/>
+      <c r="B177" s="24">
+        <v>41740</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="78">
+        <f t="shared" ref="F177:G177" si="109">SUM(E177:E184)</f>
+        <v>0</v>
+      </c>
+      <c r="G177" s="78">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="H177" s="35"/>
+      <c r="I177" s="35"/>
+      <c r="J177" s="35"/>
+      <c r="K177" s="35"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="161">
+        <v>24</v>
+      </c>
+      <c r="B178" s="25">
+        <v>41741</v>
+      </c>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="78">
+        <f t="shared" ref="F178:G178" si="110">SUM(E178:E185)</f>
+        <v>0</v>
+      </c>
+      <c r="G178" s="78">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="H178" s="36"/>
+      <c r="I178" s="36"/>
+      <c r="J178" s="36"/>
+      <c r="K178" s="36"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="162"/>
+      <c r="B179" s="25">
+        <v>41742</v>
+      </c>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="78"/>
+      <c r="G179" s="78"/>
+      <c r="H179" s="36"/>
+      <c r="I179" s="36"/>
+      <c r="J179" s="36"/>
+      <c r="K179" s="36"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="162"/>
+      <c r="B180" s="25">
+        <v>41743</v>
+      </c>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="78"/>
+      <c r="G180" s="78"/>
+      <c r="H180" s="36"/>
+      <c r="I180" s="36"/>
+      <c r="J180" s="36"/>
+      <c r="K180" s="36"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="162"/>
+      <c r="B181" s="25">
+        <v>41744</v>
+      </c>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="78">
+        <f t="shared" ref="F181:G181" si="111">SUM(E181:E188)</f>
+        <v>0</v>
+      </c>
+      <c r="G181" s="78">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="H181" s="36"/>
+      <c r="I181" s="36"/>
+      <c r="J181" s="36"/>
+      <c r="K181" s="36"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="162"/>
+      <c r="B182" s="25">
+        <v>41745</v>
+      </c>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="78">
+        <f t="shared" ref="F182:G182" si="112">SUM(E182:E189)</f>
+        <v>0</v>
+      </c>
+      <c r="G182" s="78">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="H182" s="36"/>
+      <c r="I182" s="36"/>
+      <c r="J182" s="36"/>
+      <c r="K182" s="36"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="162"/>
+      <c r="B183" s="25">
+        <v>41746</v>
+      </c>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="78">
+        <f t="shared" ref="F183:G183" si="113">SUM(E183:E190)</f>
+        <v>0</v>
+      </c>
+      <c r="G183" s="78">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="H183" s="36"/>
+      <c r="I183" s="36"/>
+      <c r="J183" s="36"/>
+      <c r="K183" s="36"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="163"/>
+      <c r="B184" s="25">
+        <v>41747</v>
+      </c>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="78">
+        <f t="shared" ref="F184:G184" si="114">SUM(E184:E191)</f>
+        <v>0</v>
+      </c>
+      <c r="G184" s="78">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="H184" s="36"/>
+      <c r="I184" s="36"/>
+      <c r="J184" s="36"/>
+      <c r="K184" s="36"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="157">
+        <v>25</v>
+      </c>
+      <c r="B185" s="24">
+        <v>41748</v>
+      </c>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="78">
+        <f t="shared" ref="F185:G185" si="115">SUM(E185:E192)</f>
+        <v>0</v>
+      </c>
+      <c r="G185" s="78">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="H185" s="35"/>
+      <c r="I185" s="35"/>
+      <c r="J185" s="35"/>
+      <c r="K185" s="35"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="158"/>
+      <c r="B186" s="24">
+        <v>41749</v>
+      </c>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="78"/>
+      <c r="G186" s="78"/>
+      <c r="H186" s="35"/>
+      <c r="I186" s="35"/>
+      <c r="J186" s="35"/>
+      <c r="K186" s="35"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="158"/>
+      <c r="B187" s="24">
+        <v>41750</v>
+      </c>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="78"/>
+      <c r="G187" s="78"/>
+      <c r="H187" s="35"/>
+      <c r="I187" s="35"/>
+      <c r="J187" s="35"/>
+      <c r="K187" s="35"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="158"/>
+      <c r="B188" s="24">
+        <v>41751</v>
+      </c>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="78">
+        <f t="shared" ref="F188:G188" si="116">SUM(E188:E195)</f>
+        <v>0</v>
+      </c>
+      <c r="G188" s="78">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="H188" s="35"/>
+      <c r="I188" s="35"/>
+      <c r="J188" s="35"/>
+      <c r="K188" s="35"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="158"/>
+      <c r="B189" s="24">
+        <v>41752</v>
+      </c>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="78">
+        <f t="shared" ref="F189:G189" si="117">SUM(E189:E196)</f>
+        <v>0</v>
+      </c>
+      <c r="G189" s="78">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="H189" s="35"/>
+      <c r="I189" s="35"/>
+      <c r="J189" s="35"/>
+      <c r="K189" s="35"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="158"/>
+      <c r="B190" s="24">
+        <v>41753</v>
+      </c>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="78">
+        <f t="shared" ref="F190:G190" si="118">SUM(E190:E197)</f>
+        <v>0</v>
+      </c>
+      <c r="G190" s="78">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="H190" s="35"/>
+      <c r="I190" s="35"/>
+      <c r="J190" s="35"/>
+      <c r="K190" s="35"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="159"/>
+      <c r="B191" s="24">
+        <v>41754</v>
+      </c>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="78">
+        <f t="shared" ref="F191:G191" si="119">SUM(E191:E198)</f>
+        <v>0</v>
+      </c>
+      <c r="G191" s="78">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="H191" s="35"/>
+      <c r="I191" s="35"/>
+      <c r="J191" s="35"/>
+      <c r="K191" s="35"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" s="161">
+        <v>26</v>
+      </c>
+      <c r="B192" s="25">
+        <v>41755</v>
+      </c>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="78">
+        <f t="shared" ref="F192:G192" si="120">SUM(E192:E199)</f>
+        <v>0</v>
+      </c>
+      <c r="G192" s="78">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="H192" s="36"/>
+      <c r="I192" s="36"/>
+      <c r="J192" s="36"/>
+      <c r="K192" s="36"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="162"/>
+      <c r="B193" s="25">
+        <v>41756</v>
+      </c>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="78"/>
+      <c r="G193" s="78"/>
+      <c r="H193" s="36"/>
+      <c r="I193" s="36"/>
+      <c r="J193" s="36"/>
+      <c r="K193" s="36"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="162"/>
+      <c r="B194" s="25">
+        <v>41757</v>
+      </c>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="78"/>
+      <c r="G194" s="78"/>
+      <c r="H194" s="36"/>
+      <c r="I194" s="36"/>
+      <c r="J194" s="36"/>
+      <c r="K194" s="36"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" s="162"/>
+      <c r="B195" s="25">
+        <v>41758</v>
+      </c>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="78">
+        <f t="shared" ref="F195:G195" si="121">SUM(E195:E202)</f>
+        <v>0</v>
+      </c>
+      <c r="G195" s="78">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="H195" s="36"/>
+      <c r="I195" s="36"/>
+      <c r="J195" s="36"/>
+      <c r="K195" s="36"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="162"/>
+      <c r="B196" s="25">
+        <v>41759</v>
+      </c>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="78">
+        <f t="shared" ref="F196:G196" si="122">SUM(E196:E203)</f>
+        <v>0</v>
+      </c>
+      <c r="G196" s="78">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="H196" s="36"/>
+      <c r="I196" s="36"/>
+      <c r="J196" s="36"/>
+      <c r="K196" s="36"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="162"/>
+      <c r="B197" s="25">
+        <v>41760</v>
+      </c>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="78">
+        <f t="shared" ref="F197:G197" si="123">SUM(E197:E204)</f>
+        <v>0</v>
+      </c>
+      <c r="G197" s="78">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="H197" s="36"/>
+      <c r="I197" s="36"/>
+      <c r="J197" s="36"/>
+      <c r="K197" s="36"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="163"/>
+      <c r="B198" s="25">
+        <v>41761</v>
+      </c>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="78">
+        <f t="shared" ref="F198:G198" si="124">SUM(E198:E205)</f>
+        <v>0</v>
+      </c>
+      <c r="G198" s="78">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="H198" s="36"/>
+      <c r="I198" s="36"/>
+      <c r="J198" s="36"/>
+      <c r="K198" s="36"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="157">
+        <v>27</v>
+      </c>
+      <c r="B199" s="24">
+        <v>41762</v>
+      </c>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="78">
+        <f t="shared" ref="F199:G199" si="125">SUM(E199:E206)</f>
+        <v>0</v>
+      </c>
+      <c r="G199" s="78">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="H199" s="35"/>
+      <c r="I199" s="35"/>
+      <c r="J199" s="35"/>
+      <c r="K199" s="35"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="158"/>
+      <c r="B200" s="24">
+        <v>41763</v>
+      </c>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="78"/>
+      <c r="G200" s="78"/>
+      <c r="H200" s="35"/>
+      <c r="I200" s="35"/>
+      <c r="J200" s="35"/>
+      <c r="K200" s="35"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="158"/>
+      <c r="B201" s="24">
+        <v>41764</v>
+      </c>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="78"/>
+      <c r="G201" s="78"/>
+      <c r="H201" s="35"/>
+      <c r="I201" s="35"/>
+      <c r="J201" s="35"/>
+      <c r="K201" s="35"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="158"/>
+      <c r="B202" s="24">
+        <v>41765</v>
+      </c>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="78">
+        <f t="shared" ref="F202:G202" si="126">SUM(E202:E209)</f>
+        <v>0</v>
+      </c>
+      <c r="G202" s="78">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="H202" s="35"/>
+      <c r="I202" s="35"/>
+      <c r="J202" s="35"/>
+      <c r="K202" s="35"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="158"/>
+      <c r="B203" s="24">
+        <v>41766</v>
+      </c>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="78">
+        <f t="shared" ref="F203:G203" si="127">SUM(E203:E210)</f>
+        <v>0</v>
+      </c>
+      <c r="G203" s="78">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="H203" s="35"/>
+      <c r="I203" s="35"/>
+      <c r="J203" s="35"/>
+      <c r="K203" s="35"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" s="158"/>
+      <c r="B204" s="24">
+        <v>41767</v>
+      </c>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="78">
+        <f t="shared" ref="F204:G204" si="128">SUM(E204:E211)</f>
+        <v>0</v>
+      </c>
+      <c r="G204" s="78">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="H204" s="35"/>
+      <c r="I204" s="35"/>
+      <c r="J204" s="35"/>
+      <c r="K204" s="35"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" s="159"/>
+      <c r="B205" s="24">
+        <v>41768</v>
+      </c>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="78">
+        <f t="shared" ref="F205:G205" si="129">SUM(E205:E212)</f>
+        <v>0</v>
+      </c>
+      <c r="G205" s="78">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="H205" s="35"/>
+      <c r="I205" s="35"/>
+      <c r="J205" s="35"/>
+      <c r="K205" s="35"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" s="161">
+        <v>28</v>
+      </c>
+      <c r="B206" s="25">
+        <v>41769</v>
+      </c>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="78">
+        <f>SUM(E206:E213)</f>
+        <v>0</v>
+      </c>
+      <c r="G206" s="78">
+        <f>SUM(F206:F213)</f>
+        <v>0</v>
+      </c>
+      <c r="H206" s="36"/>
+      <c r="I206" s="36"/>
+      <c r="J206" s="36"/>
+      <c r="K206" s="36"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" s="162"/>
+      <c r="B207" s="25">
+        <v>41770</v>
+      </c>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="78"/>
+      <c r="G207" s="78"/>
+      <c r="H207" s="36"/>
+      <c r="I207" s="36"/>
+      <c r="J207" s="36"/>
+      <c r="K207" s="36"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="162"/>
+      <c r="B208" s="25">
+        <v>41771</v>
+      </c>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+      <c r="F208" s="78"/>
+      <c r="G208" s="78"/>
+      <c r="H208" s="36"/>
+      <c r="I208" s="36"/>
+      <c r="J208" s="36"/>
+      <c r="K208" s="36"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" s="162"/>
+      <c r="B209" s="25">
+        <v>41772</v>
+      </c>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+      <c r="F209" s="78">
+        <f>SUM(E209:E216)</f>
+        <v>0</v>
+      </c>
+      <c r="G209" s="78">
+        <f>SUM(F209:F216)</f>
+        <v>0</v>
+      </c>
+      <c r="H209" s="36"/>
+      <c r="I209" s="36"/>
+      <c r="J209" s="36"/>
+      <c r="K209" s="36"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" s="162"/>
+      <c r="B210" s="25">
+        <v>41773</v>
+      </c>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="78">
+        <f>SUM(E210:E217)</f>
+        <v>0</v>
+      </c>
+      <c r="G210" s="78">
+        <f>SUM(F210:F217)</f>
+        <v>0</v>
+      </c>
+      <c r="H210" s="36"/>
+      <c r="I210" s="36"/>
+      <c r="J210" s="36"/>
+      <c r="K210" s="36"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" s="162"/>
+      <c r="B211" s="25">
+        <v>41774</v>
+      </c>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+      <c r="F211" s="78">
+        <f>SUM(E211:E218)</f>
+        <v>0</v>
+      </c>
+      <c r="G211" s="78">
+        <f>SUM(F211:F218)</f>
+        <v>0</v>
+      </c>
+      <c r="H211" s="36"/>
+      <c r="I211" s="36"/>
+      <c r="J211" s="36"/>
+      <c r="K211" s="36"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" s="163"/>
+      <c r="B212" s="25">
+        <v>41775</v>
+      </c>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+      <c r="F212" s="78">
+        <f>SUM(E212:E219)</f>
+        <v>0</v>
+      </c>
+      <c r="G212" s="78">
+        <f>SUM(F212:F219)</f>
+        <v>0</v>
+      </c>
+      <c r="H212" s="36"/>
+      <c r="I212" s="36"/>
+      <c r="J212" s="36"/>
+      <c r="K212" s="36"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" s="157">
+        <v>29</v>
+      </c>
+      <c r="B213" s="24">
+        <v>41776</v>
+      </c>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="78">
+        <f t="shared" ref="F213:G213" si="130">SUM(E213:E220)</f>
+        <v>0</v>
+      </c>
+      <c r="G213" s="78">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="H213" s="35"/>
+      <c r="I213" s="35"/>
+      <c r="J213" s="35"/>
+      <c r="K213" s="35"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" s="158"/>
+      <c r="B214" s="24">
+        <v>41777</v>
+      </c>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="78"/>
+      <c r="G214" s="78"/>
+      <c r="H214" s="35"/>
+      <c r="I214" s="35"/>
+      <c r="J214" s="35"/>
+      <c r="K214" s="35"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" s="158"/>
+      <c r="B215" s="24">
+        <v>41778</v>
+      </c>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="78"/>
+      <c r="G215" s="78"/>
+      <c r="H215" s="35"/>
+      <c r="I215" s="35"/>
+      <c r="J215" s="35"/>
+      <c r="K215" s="35"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" s="158"/>
+      <c r="B216" s="24">
+        <v>41779</v>
+      </c>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="78">
+        <f t="shared" ref="F216:G216" si="131">SUM(E216:E223)</f>
+        <v>0</v>
+      </c>
+      <c r="G216" s="78">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="H216" s="35"/>
+      <c r="I216" s="35"/>
+      <c r="J216" s="35"/>
+      <c r="K216" s="35"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" s="158"/>
+      <c r="B217" s="24">
+        <v>41780</v>
+      </c>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="78">
+        <f t="shared" ref="F217:G217" si="132">SUM(E217:E224)</f>
+        <v>0</v>
+      </c>
+      <c r="G217" s="78">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="H217" s="35"/>
+      <c r="I217" s="35"/>
+      <c r="J217" s="35"/>
+      <c r="K217" s="35"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" s="158"/>
+      <c r="B218" s="24">
+        <v>41781</v>
+      </c>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="78">
+        <f t="shared" ref="F218:G218" si="133">SUM(E218:E225)</f>
+        <v>0</v>
+      </c>
+      <c r="G218" s="78">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="H218" s="35"/>
+      <c r="I218" s="35"/>
+      <c r="J218" s="35"/>
+      <c r="K218" s="35"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" s="159"/>
+      <c r="B219" s="24">
+        <v>41782</v>
+      </c>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="78">
+        <f t="shared" ref="F219:G219" si="134">SUM(E219:E226)</f>
+        <v>0</v>
+      </c>
+      <c r="G219" s="78">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="H219" s="35"/>
+      <c r="I219" s="35"/>
+      <c r="J219" s="35"/>
+      <c r="K219" s="35"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" s="165">
         <v>30</v>
       </c>
-      <c r="B175" s="25">
+      <c r="B220" s="25">
+        <v>41783</v>
+      </c>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="78">
+        <f t="shared" ref="F220:G220" si="135">SUM(E220:E227)</f>
+        <v>0</v>
+      </c>
+      <c r="G220" s="78">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="H220" s="37"/>
+      <c r="I220" s="37"/>
+      <c r="J220" s="37"/>
+      <c r="K220" s="37"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" s="166"/>
+      <c r="B221" s="25">
+        <v>41784</v>
+      </c>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="78"/>
+      <c r="G221" s="78"/>
+      <c r="H221" s="37"/>
+      <c r="I221" s="37"/>
+      <c r="J221" s="37"/>
+      <c r="K221" s="37"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" s="166"/>
+      <c r="B222" s="25">
         <v>41785</v>
       </c>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G175" s="37"/>
-      <c r="H175" s="37"/>
-      <c r="I175" s="37"/>
-      <c r="J175" s="37"/>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="91"/>
-      <c r="B176" s="25">
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="78"/>
+      <c r="G222" s="78"/>
+      <c r="H222" s="37"/>
+      <c r="I222" s="37"/>
+      <c r="J222" s="37"/>
+      <c r="K222" s="37"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" s="166"/>
+      <c r="B223" s="25">
         <v>41786</v>
       </c>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G176" s="37"/>
-      <c r="H176" s="37"/>
-      <c r="I176" s="37"/>
-      <c r="J176" s="37"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="91"/>
-      <c r="B177" s="25">
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="78">
+        <f t="shared" ref="F223:G223" si="136">SUM(E223:E228)</f>
+        <v>0</v>
+      </c>
+      <c r="G223" s="78">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="H223" s="37"/>
+      <c r="I223" s="37"/>
+      <c r="J223" s="37"/>
+      <c r="K223" s="37"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" s="166"/>
+      <c r="B224" s="25">
         <v>41787</v>
       </c>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G177" s="37"/>
-      <c r="H177" s="37"/>
-      <c r="I177" s="37"/>
-      <c r="J177" s="37"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="91"/>
-      <c r="B178" s="25">
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="78">
+        <f t="shared" ref="F224:G224" si="137">SUM(E224:E229)</f>
+        <v>0</v>
+      </c>
+      <c r="G224" s="78">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="H224" s="37"/>
+      <c r="I224" s="37"/>
+      <c r="J224" s="37"/>
+      <c r="K224" s="37"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" s="166"/>
+      <c r="B225" s="25">
         <v>41788</v>
       </c>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G178" s="37"/>
-      <c r="H178" s="37"/>
-      <c r="I178" s="37"/>
-      <c r="J178" s="37"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="92"/>
-      <c r="B179" s="25">
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="78">
+        <f t="shared" ref="F225:G225" si="138">SUM(E225:E230)</f>
+        <v>0</v>
+      </c>
+      <c r="G225" s="78">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="H225" s="37"/>
+      <c r="I225" s="37"/>
+      <c r="J225" s="37"/>
+      <c r="K225" s="37"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" s="167"/>
+      <c r="B226" s="25">
         <v>41789</v>
       </c>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G179" s="37"/>
-      <c r="H179" s="37"/>
-      <c r="I179" s="37"/>
-      <c r="J179" s="37"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="78">
+        <f t="shared" ref="F226:G226" si="139">SUM(E226:E231)</f>
+        <v>0</v>
+      </c>
+      <c r="G226" s="78">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="H226" s="37"/>
+      <c r="I226" s="37"/>
+      <c r="J226" s="37"/>
+      <c r="K226" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A115:A121"/>
+    <mergeCell ref="A122:A128"/>
+    <mergeCell ref="A129:A135"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="A150:A156"/>
+    <mergeCell ref="A143:A149"/>
+    <mergeCell ref="A157:A163"/>
+    <mergeCell ref="A199:A205"/>
+    <mergeCell ref="A206:A212"/>
+    <mergeCell ref="A213:A219"/>
+    <mergeCell ref="A220:A226"/>
+    <mergeCell ref="A164:A170"/>
+    <mergeCell ref="A171:A177"/>
+    <mergeCell ref="A178:A184"/>
+    <mergeCell ref="A185:A191"/>
+    <mergeCell ref="A192:A198"/>
+    <mergeCell ref="A101:A107"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="A94:A100"/>
+    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="A17:A29"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="H2:O4"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="B37:B39"/>
@@ -5468,65 +6971,17 @@
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="F40:F41"/>
     <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="A17:A29"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A130:A134"/>
-    <mergeCell ref="A160:A164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A170:A174"/>
-    <mergeCell ref="A175:A179"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="A140:A144"/>
-    <mergeCell ref="A145:A149"/>
-    <mergeCell ref="A150:A154"/>
-    <mergeCell ref="A155:A159"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="A110:A114"/>
-    <mergeCell ref="A115:A119"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="F47:F48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M7" formulaRange="1"/>
+    <ignoredError sqref="N7" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -5548,7 +7003,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M16</xm:sqref>
+          <xm:sqref>N16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="34" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
@@ -5567,7 +7022,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M17:M20</xm:sqref>
+          <xm:sqref>N17:N20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="33" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
@@ -5586,7 +7041,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M21:M22</xm:sqref>
+          <xm:sqref>N21:N22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="31" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
@@ -5605,7 +7060,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M26:M28</xm:sqref>
+          <xm:sqref>N26:N28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="30" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
@@ -5624,7 +7079,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M29:M33</xm:sqref>
+          <xm:sqref>N29:N33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="29" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
@@ -5643,7 +7098,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M34</xm:sqref>
+          <xm:sqref>N34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="28" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
@@ -5662,7 +7117,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M35:M36</xm:sqref>
+          <xm:sqref>N35:N36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="27" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
@@ -5681,7 +7136,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M37:M39</xm:sqref>
+          <xm:sqref>N37:N39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="25" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
@@ -5700,7 +7155,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M41</xm:sqref>
+          <xm:sqref>N41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="23" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
@@ -5719,7 +7174,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M44</xm:sqref>
+          <xm:sqref>N44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="22" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
@@ -5738,7 +7193,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M45:M46</xm:sqref>
+          <xm:sqref>N45:N46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="21" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
@@ -5757,7 +7212,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M47:M48</xm:sqref>
+          <xm:sqref>N47:N48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="20" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
@@ -5776,7 +7231,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M49</xm:sqref>
+          <xm:sqref>N49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="19" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
@@ -5795,7 +7250,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M50</xm:sqref>
+          <xm:sqref>N50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="18" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
@@ -5814,7 +7269,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M51</xm:sqref>
+          <xm:sqref>N51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="17" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
@@ -5833,7 +7288,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M52</xm:sqref>
+          <xm:sqref>N52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="16" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
@@ -5852,26 +7307,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M53:M55</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M56:M59</xm:sqref>
+          <xm:sqref>N53:N55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="14" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
@@ -5890,7 +7326,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M60</xm:sqref>
+          <xm:sqref>N59:N61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="13" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
@@ -5909,7 +7345,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M61</xm:sqref>
+          <xm:sqref>N62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="12" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
@@ -5928,7 +7364,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M62</xm:sqref>
+          <xm:sqref>N63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="11" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -5947,7 +7383,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M7:M8</xm:sqref>
+          <xm:sqref>N7:N8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="41" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
@@ -5966,7 +7402,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M14:M15</xm:sqref>
+          <xm:sqref>N14:N15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{13950B4A-31F8-40DD-922D-DC2CA60F3002}">
@@ -5985,7 +7421,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F10</xm:sqref>
+          <xm:sqref>F10:G10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="42" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
@@ -6004,7 +7440,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M12:M13</xm:sqref>
+          <xm:sqref>N12:N13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="44" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
@@ -6023,7 +7459,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M23:M25</xm:sqref>
+          <xm:sqref>N23:N25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="47" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
@@ -6042,7 +7478,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M40</xm:sqref>
+          <xm:sqref>N40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="49" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
@@ -6061,7 +7497,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F45 F22 F7:F8 F12 F14 F16:F17 F20 F27 F30 F34:F35 F37:F38 F42:F43 F40 F47 F49:F53 F56 F60:F179</xm:sqref>
+          <xm:sqref>F45:G45 F22:G22 F7:G8 F12:G12 F14:G14 F16:G17 F20:G20 F27:G27 F30:G30 F34:G35 F37:G38 F42:G43 F40:G40 F47:G47 F49:G53 F56:G56 F59:G226</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="50" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
@@ -6080,7 +7516,26 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M42:M43</xm:sqref>
+          <xm:sqref>N42:N43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="51" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>N56:N58</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6090,7 +7545,7 @@
           <x14:formula1>
             <xm:f>'List main task'!$B$4:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>G9:G59</xm:sqref>
+          <xm:sqref>H9:H58</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
+++ b/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
@@ -673,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -930,6 +930,81 @@
     <xf numFmtId="18" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -939,6 +1014,9 @@
     <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -948,11 +1026,137 @@
     <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -962,201 +1166,6 @@
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1555,11 +1564,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G167" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="6" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D223" sqref="D223"/>
+      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1581,87 +1590,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="111"/>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="113"/>
+      <c r="A1" s="137"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="139"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="160"/>
       <c r="G2" s="86"/>
-      <c r="H2" s="114" t="s">
+      <c r="H2" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="116"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="142"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="163"/>
       <c r="G3" s="87"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="119"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="145"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
+      <c r="A4" s="164"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="166"/>
       <c r="G4" s="88"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="122"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="148"/>
     </row>
     <row r="5" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="147"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="149"/>
+      <c r="A5" s="173"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="175"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="172"/>
+      <c r="G5" s="104"/>
       <c r="I5" s="39" t="s">
         <v>51</v>
       </c>
@@ -1708,16 +1717,16 @@
       <c r="K6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
+      <c r="O6" s="149"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="126">
+      <c r="A7" s="152">
         <v>1</v>
       </c>
-      <c r="B7" s="141">
+      <c r="B7" s="167">
         <v>41586</v>
       </c>
       <c r="C7" s="17">
@@ -1729,7 +1738,7 @@
       <c r="E7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="144">
+      <c r="F7" s="170">
         <f>SUM(E7:E9)</f>
         <v>2</v>
       </c>
@@ -1753,8 +1762,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127"/>
-      <c r="B8" s="142"/>
+      <c r="A8" s="153"/>
+      <c r="B8" s="168"/>
       <c r="C8" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1764,7 +1773,7 @@
       <c r="E8" s="18">
         <v>0.5</v>
       </c>
-      <c r="F8" s="145"/>
+      <c r="F8" s="171"/>
       <c r="G8" s="90"/>
       <c r="H8" s="19" t="s">
         <v>20</v>
@@ -1778,8 +1787,8 @@
       <c r="O8" s="55"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="128"/>
-      <c r="B9" s="143"/>
+      <c r="A9" s="154"/>
+      <c r="B9" s="169"/>
       <c r="C9" s="17">
         <v>0.83333333333333337</v>
       </c>
@@ -1789,7 +1798,7 @@
       <c r="E9" s="18">
         <v>1.5</v>
       </c>
-      <c r="F9" s="146"/>
+      <c r="F9" s="172"/>
       <c r="G9" s="91"/>
       <c r="H9" s="41" t="s">
         <v>25</v>
@@ -1801,10 +1810,10 @@
       <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="129">
+      <c r="A10" s="155">
         <v>2</v>
       </c>
-      <c r="B10" s="124">
+      <c r="B10" s="150">
         <v>41589</v>
       </c>
       <c r="C10" s="46">
@@ -1816,7 +1825,7 @@
       <c r="E10" s="47">
         <v>1.5</v>
       </c>
-      <c r="F10" s="153">
+      <c r="F10" s="132">
         <f>SUM(E10:E11)</f>
         <v>3.5</v>
       </c>
@@ -1831,8 +1840,8 @@
       <c r="K10" s="48"/>
     </row>
     <row r="11" spans="1:16" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
-      <c r="B11" s="125"/>
+      <c r="A11" s="156"/>
+      <c r="B11" s="151"/>
       <c r="C11" s="46">
         <v>0.875</v>
       </c>
@@ -1842,7 +1851,7 @@
       <c r="E11" s="47">
         <v>2</v>
       </c>
-      <c r="F11" s="154"/>
+      <c r="F11" s="133"/>
       <c r="G11" s="85"/>
       <c r="H11" s="56" t="s">
         <v>25</v>
@@ -1854,8 +1863,8 @@
       <c r="K11" s="48"/>
     </row>
     <row r="12" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
-      <c r="B12" s="155">
+      <c r="A12" s="156"/>
+      <c r="B12" s="123">
         <v>41590</v>
       </c>
       <c r="C12" s="21">
@@ -1867,7 +1876,7 @@
       <c r="E12" s="22">
         <v>2.25</v>
       </c>
-      <c r="F12" s="151">
+      <c r="F12" s="117">
         <f>SUM(E12:E13)</f>
         <v>3.5</v>
       </c>
@@ -1894,8 +1903,8 @@
       <c r="P12" s="30"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
-      <c r="B13" s="156"/>
+      <c r="A13" s="156"/>
+      <c r="B13" s="124"/>
       <c r="C13" s="21">
         <v>0.86458333333333337</v>
       </c>
@@ -1905,7 +1914,7 @@
       <c r="E13" s="22">
         <v>1.25</v>
       </c>
-      <c r="F13" s="152"/>
+      <c r="F13" s="118"/>
       <c r="G13" s="79"/>
       <c r="H13" s="56" t="s">
         <v>25</v>
@@ -1922,8 +1931,8 @@
       <c r="P13" s="30"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
-      <c r="B14" s="155">
+      <c r="A14" s="156"/>
+      <c r="B14" s="123">
         <v>41592</v>
       </c>
       <c r="C14" s="23">
@@ -1935,7 +1944,7 @@
       <c r="E14" s="26">
         <v>1.5</v>
       </c>
-      <c r="F14" s="151">
+      <c r="F14" s="117">
         <f>SUM(E14:E15)</f>
         <v>2</v>
       </c>
@@ -1954,8 +1963,8 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="130"/>
-      <c r="B15" s="156"/>
+      <c r="A15" s="156"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="23">
         <v>0.9375</v>
       </c>
@@ -1965,7 +1974,7 @@
       <c r="E15" s="26">
         <v>0.5</v>
       </c>
-      <c r="F15" s="152"/>
+      <c r="F15" s="118"/>
       <c r="G15" s="79"/>
       <c r="H15" s="56" t="s">
         <v>17</v>
@@ -1981,7 +1990,7 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="131"/>
+      <c r="A16" s="157"/>
       <c r="B16" s="40">
         <v>41593</v>
       </c>
@@ -2020,10 +2029,10 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="160">
+      <c r="A17" s="128">
         <v>3</v>
       </c>
-      <c r="B17" s="106">
+      <c r="B17" s="120">
         <v>41596</v>
       </c>
       <c r="C17" s="44">
@@ -2035,7 +2044,7 @@
       <c r="E17" s="42">
         <v>1</v>
       </c>
-      <c r="F17" s="151">
+      <c r="F17" s="117">
         <f>SUM(E17:E19)</f>
         <v>3.5</v>
       </c>
@@ -2061,8 +2070,8 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="160"/>
-      <c r="B18" s="150"/>
+      <c r="A18" s="128"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="44">
         <v>0.75</v>
       </c>
@@ -2072,7 +2081,7 @@
       <c r="E18" s="42">
         <v>1.5</v>
       </c>
-      <c r="F18" s="164"/>
+      <c r="F18" s="119"/>
       <c r="G18" s="80"/>
       <c r="H18" s="41" t="s">
         <v>18</v>
@@ -2090,8 +2099,8 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="160"/>
-      <c r="B19" s="107"/>
+      <c r="A19" s="128"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="44">
         <v>0.89583333333333337</v>
       </c>
@@ -2101,7 +2110,7 @@
       <c r="E19" s="42">
         <v>1</v>
       </c>
-      <c r="F19" s="152"/>
+      <c r="F19" s="118"/>
       <c r="G19" s="79"/>
       <c r="H19" s="41" t="s">
         <v>25</v>
@@ -2117,8 +2126,8 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="160"/>
-      <c r="B20" s="106">
+      <c r="A20" s="128"/>
+      <c r="B20" s="120">
         <v>41597</v>
       </c>
       <c r="C20" s="44">
@@ -2130,7 +2139,7 @@
       <c r="E20" s="42">
         <v>1.5</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="117">
         <f>SUM(E20:E21)</f>
         <v>3</v>
       </c>
@@ -2149,8 +2158,8 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="160"/>
-      <c r="B21" s="107"/>
+      <c r="A21" s="128"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="44">
         <v>0.8125</v>
       </c>
@@ -2160,7 +2169,7 @@
       <c r="E21" s="42">
         <v>1.5</v>
       </c>
-      <c r="F21" s="152"/>
+      <c r="F21" s="118"/>
       <c r="G21" s="79"/>
       <c r="H21" s="41" t="s">
         <v>18</v>
@@ -2183,8 +2192,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="160"/>
-      <c r="B22" s="106">
+      <c r="A22" s="128"/>
+      <c r="B22" s="120">
         <v>41599</v>
       </c>
       <c r="C22" s="44">
@@ -2196,7 +2205,7 @@
       <c r="E22" s="42">
         <v>3</v>
       </c>
-      <c r="F22" s="151">
+      <c r="F22" s="117">
         <f>SUM(E22:E26)</f>
         <v>7.9</v>
       </c>
@@ -2215,8 +2224,8 @@
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="160"/>
-      <c r="B23" s="150"/>
+      <c r="A23" s="128"/>
+      <c r="B23" s="121"/>
       <c r="C23" s="44">
         <v>0.38194444444444442</v>
       </c>
@@ -2226,7 +2235,7 @@
       <c r="E23" s="42">
         <v>1</v>
       </c>
-      <c r="F23" s="164"/>
+      <c r="F23" s="119"/>
       <c r="G23" s="80"/>
       <c r="H23" s="61" t="s">
         <v>20</v>
@@ -2242,8 +2251,8 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="160"/>
-      <c r="B24" s="150"/>
+      <c r="A24" s="128"/>
+      <c r="B24" s="121"/>
       <c r="C24" s="44">
         <v>0.4236111111111111</v>
       </c>
@@ -2253,7 +2262,7 @@
       <c r="E24" s="42">
         <v>1.3</v>
       </c>
-      <c r="F24" s="164"/>
+      <c r="F24" s="119"/>
       <c r="G24" s="80"/>
       <c r="H24" s="41" t="s">
         <v>16</v>
@@ -2269,8 +2278,8 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="160"/>
-      <c r="B25" s="150"/>
+      <c r="A25" s="128"/>
+      <c r="B25" s="121"/>
       <c r="C25" s="44">
         <v>0.58333333333333337</v>
       </c>
@@ -2280,7 +2289,7 @@
       <c r="E25" s="42">
         <v>0.5</v>
       </c>
-      <c r="F25" s="164"/>
+      <c r="F25" s="119"/>
       <c r="G25" s="80"/>
       <c r="H25" s="41" t="s">
         <v>18</v>
@@ -2296,8 +2305,8 @@
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="160"/>
-      <c r="B26" s="107"/>
+      <c r="A26" s="128"/>
+      <c r="B26" s="122"/>
       <c r="C26" s="65">
         <v>0.625</v>
       </c>
@@ -2307,7 +2316,7 @@
       <c r="E26" s="42">
         <v>2.1</v>
       </c>
-      <c r="F26" s="152"/>
+      <c r="F26" s="118"/>
       <c r="G26" s="79"/>
       <c r="H26" s="41" t="s">
         <v>16</v>
@@ -2330,8 +2339,8 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="160"/>
-      <c r="B27" s="106">
+      <c r="A27" s="128"/>
+      <c r="B27" s="120">
         <v>41600</v>
       </c>
       <c r="C27" s="65">
@@ -2343,7 +2352,7 @@
       <c r="E27" s="18">
         <v>1.25</v>
       </c>
-      <c r="F27" s="100">
+      <c r="F27" s="125">
         <f>SUM(E27:E29)</f>
         <v>4</v>
       </c>
@@ -2364,8 +2373,8 @@
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="160"/>
-      <c r="B28" s="150"/>
+      <c r="A28" s="128"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="65">
         <v>0.5625</v>
       </c>
@@ -2375,7 +2384,7 @@
       <c r="E28" s="18">
         <v>1.25</v>
       </c>
-      <c r="F28" s="101"/>
+      <c r="F28" s="126"/>
       <c r="G28" s="82"/>
       <c r="H28" s="68" t="s">
         <v>16</v>
@@ -2389,8 +2398,8 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="160"/>
-      <c r="B29" s="107"/>
+      <c r="A29" s="128"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="65">
         <v>0.625</v>
       </c>
@@ -2400,7 +2409,7 @@
       <c r="E29" s="68">
         <v>1.5</v>
       </c>
-      <c r="F29" s="102"/>
+      <c r="F29" s="127"/>
       <c r="G29" s="83"/>
       <c r="H29" s="68" t="s">
         <v>21</v>
@@ -2423,26 +2432,26 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="161">
+      <c r="A30" s="111">
         <v>4</v>
       </c>
-      <c r="B30" s="103">
+      <c r="B30" s="129">
         <v>41601</v>
       </c>
-      <c r="C30" s="168">
+      <c r="C30" s="103">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D30" s="168">
+      <c r="D30" s="103">
         <v>0.375</v>
       </c>
       <c r="E30" s="72">
         <v>0.5</v>
       </c>
-      <c r="F30" s="169">
+      <c r="F30" s="134">
         <f>SUM(E30:E33)</f>
         <v>2</v>
       </c>
-      <c r="G30" s="173"/>
+      <c r="G30" s="105"/>
       <c r="H30" s="72" t="s">
         <v>18</v>
       </c>
@@ -2459,19 +2468,19 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="162"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="168">
+      <c r="A31" s="112"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="103">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D31" s="168">
+      <c r="D31" s="103">
         <v>0.41666666666666669</v>
       </c>
       <c r="E31" s="72">
         <v>0.5</v>
       </c>
-      <c r="F31" s="170"/>
-      <c r="G31" s="174"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="106"/>
       <c r="H31" s="72" t="s">
         <v>19</v>
       </c>
@@ -2488,19 +2497,19 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="162"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="168">
+      <c r="A32" s="112"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="103">
         <v>0.5625</v>
       </c>
-      <c r="D32" s="168">
+      <c r="D32" s="103">
         <v>0.57291666666666663</v>
       </c>
       <c r="E32" s="72">
         <v>0.25</v>
       </c>
-      <c r="F32" s="170"/>
-      <c r="G32" s="174"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="106"/>
       <c r="H32" s="72" t="s">
         <v>16</v>
       </c>
@@ -2513,19 +2522,19 @@
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="162"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="168">
+      <c r="A33" s="112"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="103">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D33" s="168">
+      <c r="D33" s="103">
         <v>0.60416666666666663</v>
       </c>
       <c r="E33" s="72">
         <v>0.75</v>
       </c>
-      <c r="F33" s="171"/>
-      <c r="G33" s="175"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="107"/>
       <c r="H33" s="72" t="s">
         <v>19</v>
       </c>
@@ -2542,7 +2551,7 @@
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="162"/>
+      <c r="A34" s="112"/>
       <c r="B34" s="25">
         <v>41603</v>
       </c>
@@ -2581,8 +2590,8 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="162"/>
-      <c r="B35" s="103">
+      <c r="A35" s="112"/>
+      <c r="B35" s="129">
         <v>41604</v>
       </c>
       <c r="C35" s="71">
@@ -2594,7 +2603,7 @@
       <c r="E35" s="69">
         <v>1.5</v>
       </c>
-      <c r="F35" s="108">
+      <c r="F35" s="176">
         <f>SUM(E35:E36)</f>
         <v>3</v>
       </c>
@@ -2620,8 +2629,8 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="162"/>
-      <c r="B36" s="105"/>
+      <c r="A36" s="112"/>
+      <c r="B36" s="131"/>
       <c r="C36" s="71">
         <v>0.54166666666666663</v>
       </c>
@@ -2631,7 +2640,7 @@
       <c r="E36" s="69">
         <v>1.5</v>
       </c>
-      <c r="F36" s="109"/>
+      <c r="F36" s="177"/>
       <c r="G36" s="93"/>
       <c r="H36" s="72" t="s">
         <v>16</v>
@@ -2647,8 +2656,8 @@
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="162"/>
-      <c r="B37" s="103">
+      <c r="A37" s="112"/>
+      <c r="B37" s="129">
         <v>41605</v>
       </c>
       <c r="C37" s="71">
@@ -2660,7 +2669,7 @@
       <c r="E37" s="69">
         <v>0.25</v>
       </c>
-      <c r="F37" s="108">
+      <c r="F37" s="176">
         <f>SUM(E37:E39)</f>
         <v>3.08</v>
       </c>
@@ -2688,8 +2697,8 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="162"/>
-      <c r="B38" s="104"/>
+      <c r="A38" s="112"/>
+      <c r="B38" s="130"/>
       <c r="C38" s="71">
         <v>0.35416666666666669</v>
       </c>
@@ -2699,7 +2708,7 @@
       <c r="E38" s="69">
         <v>0.5</v>
       </c>
-      <c r="F38" s="110"/>
+      <c r="F38" s="178"/>
       <c r="G38" s="94"/>
       <c r="H38" s="72" t="s">
         <v>19</v>
@@ -2717,8 +2726,8 @@
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="162"/>
-      <c r="B39" s="105"/>
+      <c r="A39" s="112"/>
+      <c r="B39" s="131"/>
       <c r="C39" s="71">
         <v>0.5625</v>
       </c>
@@ -2728,7 +2737,7 @@
       <c r="E39" s="69">
         <v>2.33</v>
       </c>
-      <c r="F39" s="109"/>
+      <c r="F39" s="177"/>
       <c r="G39" s="93"/>
       <c r="H39" s="72" t="s">
         <v>16</v>
@@ -2744,10 +2753,10 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="160">
+      <c r="A40" s="128">
         <v>5</v>
       </c>
-      <c r="B40" s="106">
+      <c r="B40" s="120">
         <v>41608</v>
       </c>
       <c r="C40" s="65">
@@ -2759,7 +2768,7 @@
       <c r="E40" s="68">
         <v>1</v>
       </c>
-      <c r="F40" s="100">
+      <c r="F40" s="125">
         <f>SUM(E40:E41)</f>
         <v>1.5</v>
       </c>
@@ -2778,8 +2787,8 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="160"/>
-      <c r="B41" s="107"/>
+      <c r="A41" s="128"/>
+      <c r="B41" s="122"/>
       <c r="C41" s="65">
         <v>0.875</v>
       </c>
@@ -2789,7 +2798,7 @@
       <c r="E41" s="68">
         <v>0.5</v>
       </c>
-      <c r="F41" s="102"/>
+      <c r="F41" s="127"/>
       <c r="G41" s="83"/>
       <c r="H41" s="68" t="s">
         <v>19</v>
@@ -2814,7 +2823,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="160"/>
+      <c r="A42" s="128"/>
       <c r="B42" s="74">
         <v>41610</v>
       </c>
@@ -2845,8 +2854,8 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="160"/>
-      <c r="B43" s="106">
+      <c r="A43" s="128"/>
+      <c r="B43" s="120">
         <v>41611</v>
       </c>
       <c r="C43" s="59">
@@ -2858,7 +2867,7 @@
       <c r="E43" s="68">
         <v>1</v>
       </c>
-      <c r="F43" s="100">
+      <c r="F43" s="125">
         <f>SUM(E43:E43:E44)</f>
         <v>1.8</v>
       </c>
@@ -2877,8 +2886,8 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="160"/>
-      <c r="B44" s="107"/>
+      <c r="A44" s="128"/>
+      <c r="B44" s="122"/>
       <c r="C44" s="59">
         <v>0.9375</v>
       </c>
@@ -2888,7 +2897,7 @@
       <c r="E44" s="76">
         <v>0.8</v>
       </c>
-      <c r="F44" s="102"/>
+      <c r="F44" s="127"/>
       <c r="G44" s="83"/>
       <c r="H44" s="68" t="s">
         <v>19</v>
@@ -2913,8 +2922,8 @@
       </c>
     </row>
     <row r="45" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="160"/>
-      <c r="B45" s="106">
+      <c r="A45" s="128"/>
+      <c r="B45" s="120">
         <v>41612</v>
       </c>
       <c r="C45" s="59">
@@ -2926,7 +2935,7 @@
       <c r="E45" s="27">
         <v>4.5</v>
       </c>
-      <c r="F45" s="100">
+      <c r="F45" s="125">
         <f>SUM(E45:E46)</f>
         <v>4.67</v>
       </c>
@@ -2952,8 +2961,8 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="160"/>
-      <c r="B46" s="107"/>
+      <c r="A46" s="128"/>
+      <c r="B46" s="122"/>
       <c r="C46" s="59">
         <v>0.82638888888888884</v>
       </c>
@@ -2963,7 +2972,7 @@
       <c r="E46" s="27">
         <v>0.17</v>
       </c>
-      <c r="F46" s="102"/>
+      <c r="F46" s="127"/>
       <c r="G46" s="83"/>
       <c r="H46" s="27" t="s">
         <v>18</v>
@@ -2981,8 +2990,8 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="160"/>
-      <c r="B47" s="106">
+      <c r="A47" s="128"/>
+      <c r="B47" s="120">
         <v>41613</v>
       </c>
       <c r="C47" s="59">
@@ -2994,7 +3003,7 @@
       <c r="E47" s="68">
         <v>0.67</v>
       </c>
-      <c r="F47" s="100">
+      <c r="F47" s="125">
         <f>SUM(E47:E48)</f>
         <v>0.92</v>
       </c>
@@ -3020,8 +3029,8 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="160"/>
-      <c r="B48" s="107"/>
+      <c r="A48" s="128"/>
+      <c r="B48" s="122"/>
       <c r="C48" s="59">
         <v>0.875</v>
       </c>
@@ -3031,7 +3040,7 @@
       <c r="E48" s="68">
         <v>0.25</v>
       </c>
-      <c r="F48" s="102"/>
+      <c r="F48" s="127"/>
       <c r="G48" s="83"/>
       <c r="H48" s="68" t="s">
         <v>19</v>
@@ -3049,7 +3058,7 @@
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="160"/>
+      <c r="A49" s="128"/>
       <c r="B49" s="24">
         <v>41614</v>
       </c>
@@ -3088,7 +3097,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="161">
+      <c r="A50" s="111">
         <v>6</v>
       </c>
       <c r="B50" s="25">
@@ -3103,11 +3112,11 @@
       <c r="E50" s="69">
         <v>2.17</v>
       </c>
-      <c r="F50" s="58">
+      <c r="F50" s="66">
         <f>E50</f>
         <v>2.17</v>
       </c>
-      <c r="G50" s="78"/>
+      <c r="G50" s="66"/>
       <c r="H50" s="72" t="s">
         <v>17</v>
       </c>
@@ -3129,7 +3138,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="162"/>
+      <c r="A51" s="112"/>
       <c r="B51" s="25">
         <v>41618</v>
       </c>
@@ -3142,11 +3151,11 @@
       <c r="E51" s="69">
         <v>0.5</v>
       </c>
-      <c r="F51" s="58">
+      <c r="F51" s="66">
         <f>E51</f>
         <v>0.5</v>
       </c>
-      <c r="G51" s="78"/>
+      <c r="G51" s="66"/>
       <c r="H51" s="72" t="s">
         <v>18</v>
       </c>
@@ -3170,7 +3179,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="162"/>
+      <c r="A52" s="112"/>
       <c r="B52" s="25">
         <v>41619</v>
       </c>
@@ -3183,11 +3192,11 @@
       <c r="E52" s="69">
         <v>1</v>
       </c>
-      <c r="F52" s="58">
+      <c r="F52" s="66">
         <f>E52</f>
         <v>1</v>
       </c>
-      <c r="G52" s="78"/>
+      <c r="G52" s="66"/>
       <c r="H52" s="72" t="s">
         <v>17</v>
       </c>
@@ -3209,8 +3218,8 @@
       </c>
     </row>
     <row r="53" spans="1:15" s="98" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="162"/>
-      <c r="B53" s="103">
+      <c r="A53" s="112"/>
+      <c r="B53" s="129">
         <v>41620</v>
       </c>
       <c r="C53" s="99">
@@ -3222,11 +3231,11 @@
       <c r="E53" s="70">
         <v>2</v>
       </c>
-      <c r="F53" s="100">
+      <c r="F53" s="176">
         <f>SUM(E53:E55)</f>
         <v>6</v>
       </c>
-      <c r="G53" s="81"/>
+      <c r="G53" s="100"/>
       <c r="H53" s="33" t="s">
         <v>20</v>
       </c>
@@ -3248,8 +3257,8 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="162"/>
-      <c r="B54" s="104"/>
+      <c r="A54" s="112"/>
+      <c r="B54" s="130"/>
       <c r="C54" s="99">
         <v>0.45833333333333331</v>
       </c>
@@ -3259,8 +3268,8 @@
       <c r="E54" s="69">
         <v>1</v>
       </c>
-      <c r="F54" s="101"/>
-      <c r="G54" s="82"/>
+      <c r="F54" s="178"/>
+      <c r="G54" s="102"/>
       <c r="H54" s="72" t="s">
         <v>16</v>
       </c>
@@ -3275,8 +3284,8 @@
       <c r="O54" s="3"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="162"/>
-      <c r="B55" s="105"/>
+      <c r="A55" s="112"/>
+      <c r="B55" s="131"/>
       <c r="C55" s="71">
         <v>0.58333333333333337</v>
       </c>
@@ -3286,8 +3295,8 @@
       <c r="E55" s="69">
         <v>3</v>
       </c>
-      <c r="F55" s="102"/>
-      <c r="G55" s="83"/>
+      <c r="F55" s="177"/>
+      <c r="G55" s="101"/>
       <c r="H55" s="72" t="s">
         <v>22</v>
       </c>
@@ -3302,8 +3311,8 @@
       <c r="O55" s="3"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="162"/>
-      <c r="B56" s="103">
+      <c r="A56" s="112"/>
+      <c r="B56" s="129">
         <v>41621</v>
       </c>
       <c r="C56" s="71">
@@ -3315,11 +3324,11 @@
       <c r="E56" s="69">
         <v>0.5</v>
       </c>
-      <c r="F56" s="100">
+      <c r="F56" s="176">
         <f>SUM(E56:E58)</f>
         <v>2.5</v>
       </c>
-      <c r="G56" s="81"/>
+      <c r="G56" s="100"/>
       <c r="H56" s="72" t="s">
         <v>18</v>
       </c>
@@ -3343,8 +3352,8 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="162"/>
-      <c r="B57" s="104"/>
+      <c r="A57" s="112"/>
+      <c r="B57" s="130"/>
       <c r="C57" s="71">
         <v>0.58333333333333337</v>
       </c>
@@ -3354,8 +3363,8 @@
       <c r="E57" s="69">
         <v>1</v>
       </c>
-      <c r="F57" s="101"/>
-      <c r="G57" s="82"/>
+      <c r="F57" s="178"/>
+      <c r="G57" s="102"/>
       <c r="H57" s="72" t="s">
         <v>21</v>
       </c>
@@ -3372,8 +3381,8 @@
       <c r="O57" s="3"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="163"/>
-      <c r="B58" s="105"/>
+      <c r="A58" s="113"/>
+      <c r="B58" s="131"/>
       <c r="C58" s="71">
         <v>0.625</v>
       </c>
@@ -3383,8 +3392,8 @@
       <c r="E58" s="69">
         <v>1</v>
       </c>
-      <c r="F58" s="102"/>
-      <c r="G58" s="83"/>
+      <c r="F58" s="177"/>
+      <c r="G58" s="101"/>
       <c r="H58" s="72" t="s">
         <v>21</v>
       </c>
@@ -3401,7 +3410,7 @@
       <c r="O58" s="3"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="157">
+      <c r="A59" s="108">
         <v>7</v>
       </c>
       <c r="B59" s="24">
@@ -3435,7 +3444,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="158"/>
+      <c r="A60" s="109"/>
       <c r="B60" s="24">
         <v>41623</v>
       </c>
@@ -3460,7 +3469,7 @@
       <c r="O60" s="3"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="158"/>
+      <c r="A61" s="109"/>
       <c r="B61" s="24">
         <v>41624</v>
       </c>
@@ -3485,7 +3494,7 @@
       <c r="O61" s="3"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="158"/>
+      <c r="A62" s="109"/>
       <c r="B62" s="24">
         <v>41625</v>
       </c>
@@ -3517,7 +3526,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="158"/>
+      <c r="A63" s="109"/>
       <c r="B63" s="24">
         <v>41626</v>
       </c>
@@ -3549,7 +3558,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="158"/>
+      <c r="A64" s="109"/>
       <c r="B64" s="24">
         <v>41627</v>
       </c>
@@ -3570,7 +3579,7 @@
       <c r="K64" s="35"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="159"/>
+      <c r="A65" s="110"/>
       <c r="B65" s="24">
         <v>41628</v>
       </c>
@@ -3591,7 +3600,7 @@
       <c r="K65" s="35"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="161">
+      <c r="A66" s="111">
         <v>8</v>
       </c>
       <c r="B66" s="25">
@@ -3614,7 +3623,7 @@
       <c r="K66" s="36"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="162"/>
+      <c r="A67" s="112"/>
       <c r="B67" s="25">
         <v>41630</v>
       </c>
@@ -3635,7 +3644,7 @@
       <c r="K67" s="36"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="162"/>
+      <c r="A68" s="112"/>
       <c r="B68" s="25">
         <v>41631</v>
       </c>
@@ -3656,7 +3665,7 @@
       <c r="K68" s="36"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="162"/>
+      <c r="A69" s="112"/>
       <c r="B69" s="25">
         <v>41632</v>
       </c>
@@ -3677,7 +3686,7 @@
       <c r="K69" s="36"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="162"/>
+      <c r="A70" s="112"/>
       <c r="B70" s="25">
         <v>41633</v>
       </c>
@@ -3698,7 +3707,7 @@
       <c r="K70" s="36"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="162"/>
+      <c r="A71" s="112"/>
       <c r="B71" s="25">
         <v>41634</v>
       </c>
@@ -3719,7 +3728,7 @@
       <c r="K71" s="36"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="163"/>
+      <c r="A72" s="113"/>
       <c r="B72" s="25">
         <v>41635</v>
       </c>
@@ -3740,7 +3749,7 @@
       <c r="K72" s="36"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="157">
+      <c r="A73" s="108">
         <v>9</v>
       </c>
       <c r="B73" s="24">
@@ -3763,7 +3772,7 @@
       <c r="K73" s="35"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="158"/>
+      <c r="A74" s="109"/>
       <c r="B74" s="24">
         <v>41637</v>
       </c>
@@ -3784,7 +3793,7 @@
       <c r="K74" s="35"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="158"/>
+      <c r="A75" s="109"/>
       <c r="B75" s="24">
         <v>41638</v>
       </c>
@@ -3805,7 +3814,7 @@
       <c r="K75" s="35"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="158"/>
+      <c r="A76" s="109"/>
       <c r="B76" s="24">
         <v>41639</v>
       </c>
@@ -3826,7 +3835,7 @@
       <c r="K76" s="35"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="158"/>
+      <c r="A77" s="109"/>
       <c r="B77" s="24">
         <v>41640</v>
       </c>
@@ -3847,7 +3856,7 @@
       <c r="K77" s="35"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="158"/>
+      <c r="A78" s="109"/>
       <c r="B78" s="24">
         <v>41641</v>
       </c>
@@ -3868,7 +3877,7 @@
       <c r="K78" s="35"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="159"/>
+      <c r="A79" s="110"/>
       <c r="B79" s="24">
         <v>41642</v>
       </c>
@@ -3889,7 +3898,7 @@
       <c r="K79" s="35"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="161">
+      <c r="A80" s="111">
         <v>10</v>
       </c>
       <c r="B80" s="25">
@@ -3912,7 +3921,7 @@
       <c r="K80" s="36"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="162"/>
+      <c r="A81" s="112"/>
       <c r="B81" s="25">
         <v>41644</v>
       </c>
@@ -3933,7 +3942,7 @@
       <c r="K81" s="36"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="162"/>
+      <c r="A82" s="112"/>
       <c r="B82" s="25">
         <v>41645</v>
       </c>
@@ -3954,7 +3963,7 @@
       <c r="K82" s="36"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="162"/>
+      <c r="A83" s="112"/>
       <c r="B83" s="25">
         <v>41646</v>
       </c>
@@ -3975,7 +3984,7 @@
       <c r="K83" s="36"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="162"/>
+      <c r="A84" s="112"/>
       <c r="B84" s="25">
         <v>41647</v>
       </c>
@@ -3996,7 +4005,7 @@
       <c r="K84" s="36"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="162"/>
+      <c r="A85" s="112"/>
       <c r="B85" s="25">
         <v>41648</v>
       </c>
@@ -4017,7 +4026,7 @@
       <c r="K85" s="36"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="163"/>
+      <c r="A86" s="113"/>
       <c r="B86" s="25">
         <v>41649</v>
       </c>
@@ -4038,7 +4047,7 @@
       <c r="K86" s="36"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="157">
+      <c r="A87" s="108">
         <v>11</v>
       </c>
       <c r="B87" s="24">
@@ -4061,7 +4070,7 @@
       <c r="K87" s="35"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="158"/>
+      <c r="A88" s="109"/>
       <c r="B88" s="24">
         <v>41651</v>
       </c>
@@ -4082,7 +4091,7 @@
       <c r="K88" s="35"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="158"/>
+      <c r="A89" s="109"/>
       <c r="B89" s="24">
         <v>41652</v>
       </c>
@@ -4103,7 +4112,7 @@
       <c r="K89" s="35"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="158"/>
+      <c r="A90" s="109"/>
       <c r="B90" s="24">
         <v>41653</v>
       </c>
@@ -4124,7 +4133,7 @@
       <c r="K90" s="35"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="158"/>
+      <c r="A91" s="109"/>
       <c r="B91" s="24">
         <v>41654</v>
       </c>
@@ -4145,7 +4154,7 @@
       <c r="K91" s="35"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="158"/>
+      <c r="A92" s="109"/>
       <c r="B92" s="24">
         <v>41655</v>
       </c>
@@ -4166,7 +4175,7 @@
       <c r="K92" s="35"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="159"/>
+      <c r="A93" s="110"/>
       <c r="B93" s="24">
         <v>41656</v>
       </c>
@@ -4187,7 +4196,7 @@
       <c r="K93" s="35"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="161">
+      <c r="A94" s="111">
         <v>12</v>
       </c>
       <c r="B94" s="25">
@@ -4210,7 +4219,7 @@
       <c r="K94" s="36"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="162"/>
+      <c r="A95" s="112"/>
       <c r="B95" s="25">
         <v>41658</v>
       </c>
@@ -4231,7 +4240,7 @@
       <c r="K95" s="36"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="162"/>
+      <c r="A96" s="112"/>
       <c r="B96" s="25">
         <v>41659</v>
       </c>
@@ -4252,7 +4261,7 @@
       <c r="K96" s="36"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="162"/>
+      <c r="A97" s="112"/>
       <c r="B97" s="25">
         <v>41660</v>
       </c>
@@ -4273,7 +4282,7 @@
       <c r="K97" s="36"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="162"/>
+      <c r="A98" s="112"/>
       <c r="B98" s="25">
         <v>41661</v>
       </c>
@@ -4294,7 +4303,7 @@
       <c r="K98" s="36"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="162"/>
+      <c r="A99" s="112"/>
       <c r="B99" s="25">
         <v>41662</v>
       </c>
@@ -4315,7 +4324,7 @@
       <c r="K99" s="36"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="163"/>
+      <c r="A100" s="113"/>
       <c r="B100" s="25">
         <v>41663</v>
       </c>
@@ -4336,7 +4345,7 @@
       <c r="K100" s="36"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="157">
+      <c r="A101" s="108">
         <v>13</v>
       </c>
       <c r="B101" s="24">
@@ -4361,7 +4370,7 @@
       <c r="K101" s="35"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="158"/>
+      <c r="A102" s="109"/>
       <c r="B102" s="24">
         <v>41665</v>
       </c>
@@ -4382,7 +4391,7 @@
       <c r="K102" s="35"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="158"/>
+      <c r="A103" s="109"/>
       <c r="B103" s="24">
         <v>41666</v>
       </c>
@@ -4403,7 +4412,7 @@
       <c r="K103" s="35"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="158"/>
+      <c r="A104" s="109"/>
       <c r="B104" s="24">
         <v>41667</v>
       </c>
@@ -4426,7 +4435,7 @@
       <c r="K104" s="35"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="158"/>
+      <c r="A105" s="109"/>
       <c r="B105" s="24">
         <v>41668</v>
       </c>
@@ -4449,7 +4458,7 @@
       <c r="K105" s="35"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="158"/>
+      <c r="A106" s="109"/>
       <c r="B106" s="24">
         <v>41669</v>
       </c>
@@ -4472,7 +4481,7 @@
       <c r="K106" s="35"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="159"/>
+      <c r="A107" s="110"/>
       <c r="B107" s="24">
         <v>41670</v>
       </c>
@@ -4495,7 +4504,7 @@
       <c r="K107" s="35"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="161">
+      <c r="A108" s="111">
         <v>14</v>
       </c>
       <c r="B108" s="25">
@@ -4520,7 +4529,7 @@
       <c r="K108" s="36"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="162"/>
+      <c r="A109" s="112"/>
       <c r="B109" s="25">
         <v>41672</v>
       </c>
@@ -4541,7 +4550,7 @@
       <c r="K109" s="36"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="162"/>
+      <c r="A110" s="112"/>
       <c r="B110" s="25">
         <v>41673</v>
       </c>
@@ -4562,7 +4571,7 @@
       <c r="K110" s="36"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="162"/>
+      <c r="A111" s="112"/>
       <c r="B111" s="25">
         <v>41674</v>
       </c>
@@ -4585,7 +4594,7 @@
       <c r="K111" s="36"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="162"/>
+      <c r="A112" s="112"/>
       <c r="B112" s="25">
         <v>41675</v>
       </c>
@@ -4608,7 +4617,7 @@
       <c r="K112" s="36"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="162"/>
+      <c r="A113" s="112"/>
       <c r="B113" s="25">
         <v>41676</v>
       </c>
@@ -4631,7 +4640,7 @@
       <c r="K113" s="36"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="163"/>
+      <c r="A114" s="113"/>
       <c r="B114" s="25">
         <v>41677</v>
       </c>
@@ -4654,7 +4663,7 @@
       <c r="K114" s="36"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="157">
+      <c r="A115" s="108">
         <v>15</v>
       </c>
       <c r="B115" s="24">
@@ -4677,7 +4686,7 @@
       <c r="K115" s="35"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="158"/>
+      <c r="A116" s="109"/>
       <c r="B116" s="24">
         <v>41679</v>
       </c>
@@ -4698,7 +4707,7 @@
       <c r="K116" s="35"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="158"/>
+      <c r="A117" s="109"/>
       <c r="B117" s="24">
         <v>41680</v>
       </c>
@@ -4719,7 +4728,7 @@
       <c r="K117" s="35"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="158"/>
+      <c r="A118" s="109"/>
       <c r="B118" s="24">
         <v>41681</v>
       </c>
@@ -4740,7 +4749,7 @@
       <c r="K118" s="35"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="158"/>
+      <c r="A119" s="109"/>
       <c r="B119" s="24">
         <v>41682</v>
       </c>
@@ -4761,7 +4770,7 @@
       <c r="K119" s="35"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="158"/>
+      <c r="A120" s="109"/>
       <c r="B120" s="24">
         <v>41683</v>
       </c>
@@ -4782,7 +4791,7 @@
       <c r="K120" s="35"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="159"/>
+      <c r="A121" s="110"/>
       <c r="B121" s="24">
         <v>41684</v>
       </c>
@@ -4803,7 +4812,7 @@
       <c r="K121" s="35"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="161">
+      <c r="A122" s="111">
         <v>16</v>
       </c>
       <c r="B122" s="25">
@@ -4826,7 +4835,7 @@
       <c r="K122" s="36"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="162"/>
+      <c r="A123" s="112"/>
       <c r="B123" s="25">
         <v>41686</v>
       </c>
@@ -4847,7 +4856,7 @@
       <c r="K123" s="36"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="162"/>
+      <c r="A124" s="112"/>
       <c r="B124" s="25">
         <v>41687</v>
       </c>
@@ -4868,7 +4877,7 @@
       <c r="K124" s="36"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="162"/>
+      <c r="A125" s="112"/>
       <c r="B125" s="25">
         <v>41688</v>
       </c>
@@ -4889,7 +4898,7 @@
       <c r="K125" s="36"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="162"/>
+      <c r="A126" s="112"/>
       <c r="B126" s="25">
         <v>41689</v>
       </c>
@@ -4910,7 +4919,7 @@
       <c r="K126" s="36"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="162"/>
+      <c r="A127" s="112"/>
       <c r="B127" s="25">
         <v>41690</v>
       </c>
@@ -4931,7 +4940,7 @@
       <c r="K127" s="36"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="163"/>
+      <c r="A128" s="113"/>
       <c r="B128" s="25">
         <v>41691</v>
       </c>
@@ -4952,7 +4961,7 @@
       <c r="K128" s="36"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="157">
+      <c r="A129" s="108">
         <v>17</v>
       </c>
       <c r="B129" s="24">
@@ -4975,7 +4984,7 @@
       <c r="K129" s="35"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="158"/>
+      <c r="A130" s="109"/>
       <c r="B130" s="24">
         <v>41693</v>
       </c>
@@ -4996,7 +5005,7 @@
       <c r="K130" s="35"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="158"/>
+      <c r="A131" s="109"/>
       <c r="B131" s="24">
         <v>41694</v>
       </c>
@@ -5017,7 +5026,7 @@
       <c r="K131" s="35"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="158"/>
+      <c r="A132" s="109"/>
       <c r="B132" s="24">
         <v>41695</v>
       </c>
@@ -5038,7 +5047,7 @@
       <c r="K132" s="35"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="158"/>
+      <c r="A133" s="109"/>
       <c r="B133" s="24">
         <v>41696</v>
       </c>
@@ -5059,7 +5068,7 @@
       <c r="K133" s="35"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="158"/>
+      <c r="A134" s="109"/>
       <c r="B134" s="24">
         <v>41697</v>
       </c>
@@ -5080,7 +5089,7 @@
       <c r="K134" s="35"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="159"/>
+      <c r="A135" s="110"/>
       <c r="B135" s="24">
         <v>41698</v>
       </c>
@@ -5101,7 +5110,7 @@
       <c r="K135" s="35"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="161">
+      <c r="A136" s="111">
         <v>18</v>
       </c>
       <c r="B136" s="25">
@@ -5124,7 +5133,7 @@
       <c r="K136" s="36"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="162"/>
+      <c r="A137" s="112"/>
       <c r="B137" s="25">
         <v>41700</v>
       </c>
@@ -5145,7 +5154,7 @@
       <c r="K137" s="36"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="162"/>
+      <c r="A138" s="112"/>
       <c r="B138" s="25">
         <v>41701</v>
       </c>
@@ -5166,7 +5175,7 @@
       <c r="K138" s="36"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="162"/>
+      <c r="A139" s="112"/>
       <c r="B139" s="25">
         <v>41702</v>
       </c>
@@ -5187,7 +5196,7 @@
       <c r="K139" s="36"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="162"/>
+      <c r="A140" s="112"/>
       <c r="B140" s="25">
         <v>41703</v>
       </c>
@@ -5208,7 +5217,7 @@
       <c r="K140" s="36"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="162"/>
+      <c r="A141" s="112"/>
       <c r="B141" s="25">
         <v>41704</v>
       </c>
@@ -5229,7 +5238,7 @@
       <c r="K141" s="36"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="163"/>
+      <c r="A142" s="113"/>
       <c r="B142" s="25">
         <v>41705</v>
       </c>
@@ -5250,7 +5259,7 @@
       <c r="K142" s="36"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="157">
+      <c r="A143" s="108">
         <v>19</v>
       </c>
       <c r="B143" s="24">
@@ -5273,7 +5282,7 @@
       <c r="K143" s="35"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="158"/>
+      <c r="A144" s="109"/>
       <c r="B144" s="24">
         <v>41707</v>
       </c>
@@ -5294,7 +5303,7 @@
       <c r="K144" s="35"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="158"/>
+      <c r="A145" s="109"/>
       <c r="B145" s="24">
         <v>41708</v>
       </c>
@@ -5315,7 +5324,7 @@
       <c r="K145" s="35"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="158"/>
+      <c r="A146" s="109"/>
       <c r="B146" s="24">
         <v>41709</v>
       </c>
@@ -5336,7 +5345,7 @@
       <c r="K146" s="35"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="158"/>
+      <c r="A147" s="109"/>
       <c r="B147" s="24">
         <v>41710</v>
       </c>
@@ -5357,7 +5366,7 @@
       <c r="K147" s="35"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="158"/>
+      <c r="A148" s="109"/>
       <c r="B148" s="24">
         <v>41711</v>
       </c>
@@ -5378,7 +5387,7 @@
       <c r="K148" s="35"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="159"/>
+      <c r="A149" s="110"/>
       <c r="B149" s="24">
         <v>41712</v>
       </c>
@@ -5399,7 +5408,7 @@
       <c r="K149" s="35"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="161">
+      <c r="A150" s="111">
         <v>20</v>
       </c>
       <c r="B150" s="25">
@@ -5422,7 +5431,7 @@
       <c r="K150" s="36"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="162"/>
+      <c r="A151" s="112"/>
       <c r="B151" s="25">
         <v>41714</v>
       </c>
@@ -5437,7 +5446,7 @@
       <c r="K151" s="36"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="162"/>
+      <c r="A152" s="112"/>
       <c r="B152" s="25">
         <v>41715</v>
       </c>
@@ -5452,7 +5461,7 @@
       <c r="K152" s="36"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="162"/>
+      <c r="A153" s="112"/>
       <c r="B153" s="25">
         <v>41716</v>
       </c>
@@ -5473,7 +5482,7 @@
       <c r="K153" s="36"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="162"/>
+      <c r="A154" s="112"/>
       <c r="B154" s="25">
         <v>41717</v>
       </c>
@@ -5494,7 +5503,7 @@
       <c r="K154" s="36"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="162"/>
+      <c r="A155" s="112"/>
       <c r="B155" s="25">
         <v>41718</v>
       </c>
@@ -5515,7 +5524,7 @@
       <c r="K155" s="36"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="163"/>
+      <c r="A156" s="113"/>
       <c r="B156" s="25">
         <v>41719</v>
       </c>
@@ -5536,7 +5545,7 @@
       <c r="K156" s="36"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="157">
+      <c r="A157" s="108">
         <v>21</v>
       </c>
       <c r="B157" s="24">
@@ -5559,7 +5568,7 @@
       <c r="K157" s="35"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="158"/>
+      <c r="A158" s="109"/>
       <c r="B158" s="24">
         <v>41721</v>
       </c>
@@ -5574,7 +5583,7 @@
       <c r="K158" s="35"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="158"/>
+      <c r="A159" s="109"/>
       <c r="B159" s="24">
         <v>41722</v>
       </c>
@@ -5589,7 +5598,7 @@
       <c r="K159" s="35"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="158"/>
+      <c r="A160" s="109"/>
       <c r="B160" s="24">
         <v>41723</v>
       </c>
@@ -5610,7 +5619,7 @@
       <c r="K160" s="35"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="158"/>
+      <c r="A161" s="109"/>
       <c r="B161" s="24">
         <v>41724</v>
       </c>
@@ -5631,7 +5640,7 @@
       <c r="K161" s="35"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="158"/>
+      <c r="A162" s="109"/>
       <c r="B162" s="24">
         <v>41725</v>
       </c>
@@ -5652,7 +5661,7 @@
       <c r="K162" s="35"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="159"/>
+      <c r="A163" s="110"/>
       <c r="B163" s="24">
         <v>41726</v>
       </c>
@@ -5673,7 +5682,7 @@
       <c r="K163" s="35"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="161">
+      <c r="A164" s="111">
         <v>22</v>
       </c>
       <c r="B164" s="25">
@@ -5696,7 +5705,7 @@
       <c r="K164" s="36"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="162"/>
+      <c r="A165" s="112"/>
       <c r="B165" s="25">
         <v>41728</v>
       </c>
@@ -5711,7 +5720,7 @@
       <c r="K165" s="36"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="162"/>
+      <c r="A166" s="112"/>
       <c r="B166" s="25">
         <v>41729</v>
       </c>
@@ -5726,7 +5735,7 @@
       <c r="K166" s="36"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="162"/>
+      <c r="A167" s="112"/>
       <c r="B167" s="25">
         <v>41730</v>
       </c>
@@ -5747,7 +5756,7 @@
       <c r="K167" s="36"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="162"/>
+      <c r="A168" s="112"/>
       <c r="B168" s="25">
         <v>41731</v>
       </c>
@@ -5768,7 +5777,7 @@
       <c r="K168" s="36"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="162"/>
+      <c r="A169" s="112"/>
       <c r="B169" s="25">
         <v>41732</v>
       </c>
@@ -5789,7 +5798,7 @@
       <c r="K169" s="36"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="163"/>
+      <c r="A170" s="113"/>
       <c r="B170" s="25">
         <v>41733</v>
       </c>
@@ -5810,7 +5819,7 @@
       <c r="K170" s="36"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="157">
+      <c r="A171" s="108">
         <v>23</v>
       </c>
       <c r="B171" s="24">
@@ -5833,7 +5842,7 @@
       <c r="K171" s="35"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="158"/>
+      <c r="A172" s="109"/>
       <c r="B172" s="24">
         <v>41735</v>
       </c>
@@ -5848,7 +5857,7 @@
       <c r="K172" s="35"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="158"/>
+      <c r="A173" s="109"/>
       <c r="B173" s="24">
         <v>41736</v>
       </c>
@@ -5863,7 +5872,7 @@
       <c r="K173" s="35"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="158"/>
+      <c r="A174" s="109"/>
       <c r="B174" s="24">
         <v>41737</v>
       </c>
@@ -5884,7 +5893,7 @@
       <c r="K174" s="35"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="158"/>
+      <c r="A175" s="109"/>
       <c r="B175" s="24">
         <v>41738</v>
       </c>
@@ -5905,7 +5914,7 @@
       <c r="K175" s="35"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="158"/>
+      <c r="A176" s="109"/>
       <c r="B176" s="24">
         <v>41739</v>
       </c>
@@ -5926,7 +5935,7 @@
       <c r="K176" s="35"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="159"/>
+      <c r="A177" s="110"/>
       <c r="B177" s="24">
         <v>41740</v>
       </c>
@@ -5947,7 +5956,7 @@
       <c r="K177" s="35"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="161">
+      <c r="A178" s="111">
         <v>24</v>
       </c>
       <c r="B178" s="25">
@@ -5970,7 +5979,7 @@
       <c r="K178" s="36"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="162"/>
+      <c r="A179" s="112"/>
       <c r="B179" s="25">
         <v>41742</v>
       </c>
@@ -5985,7 +5994,7 @@
       <c r="K179" s="36"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="162"/>
+      <c r="A180" s="112"/>
       <c r="B180" s="25">
         <v>41743</v>
       </c>
@@ -6000,7 +6009,7 @@
       <c r="K180" s="36"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="162"/>
+      <c r="A181" s="112"/>
       <c r="B181" s="25">
         <v>41744</v>
       </c>
@@ -6021,7 +6030,7 @@
       <c r="K181" s="36"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="162"/>
+      <c r="A182" s="112"/>
       <c r="B182" s="25">
         <v>41745</v>
       </c>
@@ -6042,7 +6051,7 @@
       <c r="K182" s="36"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="162"/>
+      <c r="A183" s="112"/>
       <c r="B183" s="25">
         <v>41746</v>
       </c>
@@ -6063,7 +6072,7 @@
       <c r="K183" s="36"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="163"/>
+      <c r="A184" s="113"/>
       <c r="B184" s="25">
         <v>41747</v>
       </c>
@@ -6084,7 +6093,7 @@
       <c r="K184" s="36"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="157">
+      <c r="A185" s="108">
         <v>25</v>
       </c>
       <c r="B185" s="24">
@@ -6107,7 +6116,7 @@
       <c r="K185" s="35"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="158"/>
+      <c r="A186" s="109"/>
       <c r="B186" s="24">
         <v>41749</v>
       </c>
@@ -6122,7 +6131,7 @@
       <c r="K186" s="35"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="158"/>
+      <c r="A187" s="109"/>
       <c r="B187" s="24">
         <v>41750</v>
       </c>
@@ -6137,7 +6146,7 @@
       <c r="K187" s="35"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="158"/>
+      <c r="A188" s="109"/>
       <c r="B188" s="24">
         <v>41751</v>
       </c>
@@ -6158,7 +6167,7 @@
       <c r="K188" s="35"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="158"/>
+      <c r="A189" s="109"/>
       <c r="B189" s="24">
         <v>41752</v>
       </c>
@@ -6179,7 +6188,7 @@
       <c r="K189" s="35"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="158"/>
+      <c r="A190" s="109"/>
       <c r="B190" s="24">
         <v>41753</v>
       </c>
@@ -6200,7 +6209,7 @@
       <c r="K190" s="35"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="159"/>
+      <c r="A191" s="110"/>
       <c r="B191" s="24">
         <v>41754</v>
       </c>
@@ -6221,7 +6230,7 @@
       <c r="K191" s="35"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="161">
+      <c r="A192" s="111">
         <v>26</v>
       </c>
       <c r="B192" s="25">
@@ -6244,7 +6253,7 @@
       <c r="K192" s="36"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="162"/>
+      <c r="A193" s="112"/>
       <c r="B193" s="25">
         <v>41756</v>
       </c>
@@ -6259,7 +6268,7 @@
       <c r="K193" s="36"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="162"/>
+      <c r="A194" s="112"/>
       <c r="B194" s="25">
         <v>41757</v>
       </c>
@@ -6274,7 +6283,7 @@
       <c r="K194" s="36"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="162"/>
+      <c r="A195" s="112"/>
       <c r="B195" s="25">
         <v>41758</v>
       </c>
@@ -6295,7 +6304,7 @@
       <c r="K195" s="36"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="162"/>
+      <c r="A196" s="112"/>
       <c r="B196" s="25">
         <v>41759</v>
       </c>
@@ -6316,7 +6325,7 @@
       <c r="K196" s="36"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="162"/>
+      <c r="A197" s="112"/>
       <c r="B197" s="25">
         <v>41760</v>
       </c>
@@ -6337,7 +6346,7 @@
       <c r="K197" s="36"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="163"/>
+      <c r="A198" s="113"/>
       <c r="B198" s="25">
         <v>41761</v>
       </c>
@@ -6358,7 +6367,7 @@
       <c r="K198" s="36"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="157">
+      <c r="A199" s="108">
         <v>27</v>
       </c>
       <c r="B199" s="24">
@@ -6381,7 +6390,7 @@
       <c r="K199" s="35"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="158"/>
+      <c r="A200" s="109"/>
       <c r="B200" s="24">
         <v>41763</v>
       </c>
@@ -6396,7 +6405,7 @@
       <c r="K200" s="35"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="158"/>
+      <c r="A201" s="109"/>
       <c r="B201" s="24">
         <v>41764</v>
       </c>
@@ -6411,7 +6420,7 @@
       <c r="K201" s="35"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="158"/>
+      <c r="A202" s="109"/>
       <c r="B202" s="24">
         <v>41765</v>
       </c>
@@ -6432,7 +6441,7 @@
       <c r="K202" s="35"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="158"/>
+      <c r="A203" s="109"/>
       <c r="B203" s="24">
         <v>41766</v>
       </c>
@@ -6453,7 +6462,7 @@
       <c r="K203" s="35"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="158"/>
+      <c r="A204" s="109"/>
       <c r="B204" s="24">
         <v>41767</v>
       </c>
@@ -6474,7 +6483,7 @@
       <c r="K204" s="35"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="159"/>
+      <c r="A205" s="110"/>
       <c r="B205" s="24">
         <v>41768</v>
       </c>
@@ -6495,7 +6504,7 @@
       <c r="K205" s="35"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="161">
+      <c r="A206" s="111">
         <v>28</v>
       </c>
       <c r="B206" s="25">
@@ -6518,7 +6527,7 @@
       <c r="K206" s="36"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="162"/>
+      <c r="A207" s="112"/>
       <c r="B207" s="25">
         <v>41770</v>
       </c>
@@ -6533,7 +6542,7 @@
       <c r="K207" s="36"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="162"/>
+      <c r="A208" s="112"/>
       <c r="B208" s="25">
         <v>41771</v>
       </c>
@@ -6548,7 +6557,7 @@
       <c r="K208" s="36"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="162"/>
+      <c r="A209" s="112"/>
       <c r="B209" s="25">
         <v>41772</v>
       </c>
@@ -6556,11 +6565,11 @@
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
       <c r="F209" s="78">
-        <f>SUM(E209:E216)</f>
+        <f t="shared" ref="F209:G212" si="130">SUM(E209:E216)</f>
         <v>0</v>
       </c>
       <c r="G209" s="78">
-        <f>SUM(F209:F216)</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="H209" s="36"/>
@@ -6569,7 +6578,7 @@
       <c r="K209" s="36"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="162"/>
+      <c r="A210" s="112"/>
       <c r="B210" s="25">
         <v>41773</v>
       </c>
@@ -6577,11 +6586,11 @@
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
       <c r="F210" s="78">
-        <f>SUM(E210:E217)</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="G210" s="78">
-        <f>SUM(F210:F217)</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="H210" s="36"/>
@@ -6590,7 +6599,7 @@
       <c r="K210" s="36"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="162"/>
+      <c r="A211" s="112"/>
       <c r="B211" s="25">
         <v>41774</v>
       </c>
@@ -6598,11 +6607,11 @@
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
       <c r="F211" s="78">
-        <f>SUM(E211:E218)</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="G211" s="78">
-        <f>SUM(F211:F218)</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="H211" s="36"/>
@@ -6611,7 +6620,7 @@
       <c r="K211" s="36"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="163"/>
+      <c r="A212" s="113"/>
       <c r="B212" s="25">
         <v>41775</v>
       </c>
@@ -6619,11 +6628,11 @@
       <c r="D212" s="6"/>
       <c r="E212" s="6"/>
       <c r="F212" s="78">
-        <f>SUM(E212:E219)</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="G212" s="78">
-        <f>SUM(F212:F219)</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="H212" s="36"/>
@@ -6632,7 +6641,7 @@
       <c r="K212" s="36"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="157">
+      <c r="A213" s="108">
         <v>29</v>
       </c>
       <c r="B213" s="24">
@@ -6642,11 +6651,11 @@
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
       <c r="F213" s="78">
-        <f t="shared" ref="F213:G213" si="130">SUM(E213:E220)</f>
+        <f t="shared" ref="F213:G213" si="131">SUM(E213:E220)</f>
         <v>0</v>
       </c>
       <c r="G213" s="78">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="H213" s="35"/>
@@ -6655,7 +6664,7 @@
       <c r="K213" s="35"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="158"/>
+      <c r="A214" s="109"/>
       <c r="B214" s="24">
         <v>41777</v>
       </c>
@@ -6670,7 +6679,7 @@
       <c r="K214" s="35"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="158"/>
+      <c r="A215" s="109"/>
       <c r="B215" s="24">
         <v>41778</v>
       </c>
@@ -6685,7 +6694,7 @@
       <c r="K215" s="35"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="158"/>
+      <c r="A216" s="109"/>
       <c r="B216" s="24">
         <v>41779</v>
       </c>
@@ -6693,11 +6702,11 @@
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
       <c r="F216" s="78">
-        <f t="shared" ref="F216:G216" si="131">SUM(E216:E223)</f>
+        <f t="shared" ref="F216:G216" si="132">SUM(E216:E223)</f>
         <v>0</v>
       </c>
       <c r="G216" s="78">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="H216" s="35"/>
@@ -6706,7 +6715,7 @@
       <c r="K216" s="35"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="158"/>
+      <c r="A217" s="109"/>
       <c r="B217" s="24">
         <v>41780</v>
       </c>
@@ -6714,11 +6723,11 @@
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
       <c r="F217" s="78">
-        <f t="shared" ref="F217:G217" si="132">SUM(E217:E224)</f>
+        <f t="shared" ref="F217:G217" si="133">SUM(E217:E224)</f>
         <v>0</v>
       </c>
       <c r="G217" s="78">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="H217" s="35"/>
@@ -6727,7 +6736,7 @@
       <c r="K217" s="35"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="158"/>
+      <c r="A218" s="109"/>
       <c r="B218" s="24">
         <v>41781</v>
       </c>
@@ -6735,11 +6744,11 @@
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
       <c r="F218" s="78">
-        <f t="shared" ref="F218:G218" si="133">SUM(E218:E225)</f>
+        <f t="shared" ref="F218:G218" si="134">SUM(E218:E225)</f>
         <v>0</v>
       </c>
       <c r="G218" s="78">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="H218" s="35"/>
@@ -6748,7 +6757,7 @@
       <c r="K218" s="35"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="159"/>
+      <c r="A219" s="110"/>
       <c r="B219" s="24">
         <v>41782</v>
       </c>
@@ -6756,11 +6765,11 @@
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
       <c r="F219" s="78">
-        <f t="shared" ref="F219:G219" si="134">SUM(E219:E226)</f>
+        <f t="shared" ref="F219:G219" si="135">SUM(E219:E226)</f>
         <v>0</v>
       </c>
       <c r="G219" s="78">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="H219" s="35"/>
@@ -6769,7 +6778,7 @@
       <c r="K219" s="35"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="165">
+      <c r="A220" s="114">
         <v>30</v>
       </c>
       <c r="B220" s="25">
@@ -6779,11 +6788,11 @@
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
       <c r="F220" s="78">
-        <f t="shared" ref="F220:G220" si="135">SUM(E220:E227)</f>
+        <f t="shared" ref="F220:G220" si="136">SUM(E220:E227)</f>
         <v>0</v>
       </c>
       <c r="G220" s="78">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="H220" s="37"/>
@@ -6792,7 +6801,7 @@
       <c r="K220" s="37"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="166"/>
+      <c r="A221" s="115"/>
       <c r="B221" s="25">
         <v>41784</v>
       </c>
@@ -6807,7 +6816,7 @@
       <c r="K221" s="37"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="166"/>
+      <c r="A222" s="115"/>
       <c r="B222" s="25">
         <v>41785</v>
       </c>
@@ -6822,7 +6831,7 @@
       <c r="K222" s="37"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="166"/>
+      <c r="A223" s="115"/>
       <c r="B223" s="25">
         <v>41786</v>
       </c>
@@ -6830,11 +6839,11 @@
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
       <c r="F223" s="78">
-        <f t="shared" ref="F223:G223" si="136">SUM(E223:E228)</f>
+        <f t="shared" ref="F223:G223" si="137">SUM(E223:E228)</f>
         <v>0</v>
       </c>
       <c r="G223" s="78">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="H223" s="37"/>
@@ -6843,7 +6852,7 @@
       <c r="K223" s="37"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="166"/>
+      <c r="A224" s="115"/>
       <c r="B224" s="25">
         <v>41787</v>
       </c>
@@ -6851,11 +6860,11 @@
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
       <c r="F224" s="78">
-        <f t="shared" ref="F224:G224" si="137">SUM(E224:E229)</f>
+        <f t="shared" ref="F224:G224" si="138">SUM(E224:E229)</f>
         <v>0</v>
       </c>
       <c r="G224" s="78">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="H224" s="37"/>
@@ -6864,7 +6873,7 @@
       <c r="K224" s="37"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="166"/>
+      <c r="A225" s="115"/>
       <c r="B225" s="25">
         <v>41788</v>
       </c>
@@ -6872,11 +6881,11 @@
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
       <c r="F225" s="78">
-        <f t="shared" ref="F225:G225" si="138">SUM(E225:E230)</f>
+        <f t="shared" ref="F225:G225" si="139">SUM(E225:E230)</f>
         <v>0</v>
       </c>
       <c r="G225" s="78">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="H225" s="37"/>
@@ -6885,7 +6894,7 @@
       <c r="K225" s="37"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="167"/>
+      <c r="A226" s="116"/>
       <c r="B226" s="25">
         <v>41789</v>
       </c>
@@ -6893,11 +6902,11 @@
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
       <c r="F226" s="78">
-        <f t="shared" ref="F226:G226" si="139">SUM(E226:E231)</f>
+        <f t="shared" ref="F226:G226" si="140">SUM(E226:E231)</f>
         <v>0</v>
       </c>
       <c r="G226" s="78">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="H226" s="37"/>
@@ -6907,22 +6916,44 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A115:A121"/>
-    <mergeCell ref="A122:A128"/>
-    <mergeCell ref="A129:A135"/>
-    <mergeCell ref="A136:A142"/>
-    <mergeCell ref="A150:A156"/>
-    <mergeCell ref="A143:A149"/>
-    <mergeCell ref="A157:A163"/>
-    <mergeCell ref="A199:A205"/>
-    <mergeCell ref="A206:A212"/>
-    <mergeCell ref="A213:A219"/>
-    <mergeCell ref="A220:A226"/>
-    <mergeCell ref="A164:A170"/>
-    <mergeCell ref="A171:A177"/>
-    <mergeCell ref="A178:A184"/>
-    <mergeCell ref="A185:A191"/>
-    <mergeCell ref="A192:A198"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="H2:O4"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="A66:A72"/>
     <mergeCell ref="A101:A107"/>
     <mergeCell ref="A108:A114"/>
     <mergeCell ref="F14:F15"/>
@@ -6939,44 +6970,22 @@
     <mergeCell ref="A87:A93"/>
     <mergeCell ref="A80:A86"/>
     <mergeCell ref="A17:A29"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="H2:O4"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A157:A163"/>
+    <mergeCell ref="A199:A205"/>
+    <mergeCell ref="A206:A212"/>
+    <mergeCell ref="A213:A219"/>
+    <mergeCell ref="A220:A226"/>
+    <mergeCell ref="A164:A170"/>
+    <mergeCell ref="A171:A177"/>
+    <mergeCell ref="A178:A184"/>
+    <mergeCell ref="A185:A191"/>
+    <mergeCell ref="A192:A198"/>
+    <mergeCell ref="A115:A121"/>
+    <mergeCell ref="A122:A128"/>
+    <mergeCell ref="A129:A135"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="A150:A156"/>
+    <mergeCell ref="A143:A149"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
+++ b/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\9. Timelog\individual time log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xyu\Desktop\AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="123">
   <si>
     <t>Week</t>
   </si>
@@ -350,7 +350,66 @@
     <t>Catalog_New.docx</t>
   </si>
   <si>
-    <t>plan</t>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>1:30PM</t>
+  </si>
+  <si>
+    <t>4:00PM</t>
+  </si>
+  <si>
+    <t>Review documents</t>
+  </si>
+  <si>
+    <t>3:30PM</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>ACDM Stage 4</t>
+  </si>
+  <si>
+    <t>Method for ACDM stage 4</t>
+  </si>
+  <si>
+    <t>Entity 19 12 2013.docx (Soan tin)
+Entity 19 12 2013.docx (Hoi dap)</t>
+  </si>
+  <si>
+    <t>ID.docx
+usecase QA.docx</t>
+  </si>
+  <si>
+    <t>Quality Attribute.docx</t>
+  </si>
+  <si>
+    <t>Update Quality Attribute</t>
+  </si>
+  <si>
+    <t>QA.docx</t>
+  </si>
+  <si>
+    <t>On-going</t>
+  </si>
+  <si>
+    <t>Testing document</t>
+  </si>
+  <si>
+    <t>Architect document</t>
+  </si>
+  <si>
+    <t>Create User Acceptance Test (UAT)</t>
+  </si>
+  <si>
+    <t>AcceptanceTestSpecification.xlsx</t>
+  </si>
+  <si>
+    <t>Test document template</t>
+  </si>
+  <si>
+    <t>Update UAT</t>
   </si>
 </sst>
 </file>
@@ -673,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -839,6 +898,9 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -847,6 +909,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="18" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -888,6 +956,15 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -930,6 +1007,250 @@
     <xf numFmtId="18" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -939,39 +1260,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -980,192 +1268,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1562,22 +1664,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P226"/>
+  <dimension ref="A1:P214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="6" ySplit="6" topLeftCell="G63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
+      <selection pane="bottomRight" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="1" customWidth="1"/>
     <col min="6" max="7" width="7.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="46.42578125" style="1" customWidth="1"/>
@@ -1590,87 +1691,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="137"/>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="139"/>
+      <c r="A1" s="142"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="144"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="140" t="s">
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="142"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="147"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="145"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="150"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="164"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="148"/>
+      <c r="A4" s="169"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="152"/>
+      <c r="N4" s="152"/>
+      <c r="O4" s="153"/>
     </row>
     <row r="5" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="173"/>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="175"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="180"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="104"/>
+      <c r="G5" s="108"/>
       <c r="I5" s="39" t="s">
         <v>51</v>
       </c>
@@ -1683,7 +1784,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>0</v>
       </c>
@@ -1717,16 +1818,16 @@
       <c r="K6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="149"/>
-      <c r="O6" s="149"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="154"/>
+      <c r="N6" s="154"/>
+      <c r="O6" s="154"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="152">
+      <c r="A7" s="157">
         <v>1</v>
       </c>
-      <c r="B7" s="167">
+      <c r="B7" s="172">
         <v>41586</v>
       </c>
       <c r="C7" s="17">
@@ -1738,11 +1839,11 @@
       <c r="E7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="170">
+      <c r="F7" s="175">
         <f>SUM(E7:E9)</f>
         <v>2</v>
       </c>
-      <c r="G7" s="89"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="19" t="s">
         <v>15</v>
       </c>
@@ -1762,8 +1863,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="153"/>
-      <c r="B8" s="168"/>
+      <c r="A8" s="158"/>
+      <c r="B8" s="173"/>
       <c r="C8" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1773,8 +1874,8 @@
       <c r="E8" s="18">
         <v>0.5</v>
       </c>
-      <c r="F8" s="171"/>
-      <c r="G8" s="90"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="96"/>
       <c r="H8" s="19" t="s">
         <v>20</v>
       </c>
@@ -1787,8 +1888,8 @@
       <c r="O8" s="55"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="154"/>
-      <c r="B9" s="169"/>
+      <c r="A9" s="159"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="17">
         <v>0.83333333333333337</v>
       </c>
@@ -1798,8 +1899,8 @@
       <c r="E9" s="18">
         <v>1.5</v>
       </c>
-      <c r="F9" s="172"/>
-      <c r="G9" s="91"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="97"/>
       <c r="H9" s="41" t="s">
         <v>25</v>
       </c>
@@ -1810,10 +1911,10 @@
       <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155">
+      <c r="A10" s="160">
         <v>2</v>
       </c>
-      <c r="B10" s="150">
+      <c r="B10" s="155">
         <v>41589</v>
       </c>
       <c r="C10" s="46">
@@ -1825,11 +1926,11 @@
       <c r="E10" s="47">
         <v>1.5</v>
       </c>
-      <c r="F10" s="132">
+      <c r="F10" s="135">
         <f>SUM(E10:E11)</f>
         <v>3.5</v>
       </c>
-      <c r="G10" s="84"/>
+      <c r="G10" s="87"/>
       <c r="H10" s="56" t="s">
         <v>24</v>
       </c>
@@ -1840,8 +1941,8 @@
       <c r="K10" s="48"/>
     </row>
     <row r="11" spans="1:16" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="156"/>
-      <c r="B11" s="151"/>
+      <c r="A11" s="161"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="46">
         <v>0.875</v>
       </c>
@@ -1851,8 +1952,8 @@
       <c r="E11" s="47">
         <v>2</v>
       </c>
-      <c r="F11" s="133"/>
-      <c r="G11" s="85"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="88"/>
       <c r="H11" s="56" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1964,8 @@
       <c r="K11" s="48"/>
     </row>
     <row r="12" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="156"/>
-      <c r="B12" s="123">
+      <c r="A12" s="161"/>
+      <c r="B12" s="140">
         <v>41590</v>
       </c>
       <c r="C12" s="21">
@@ -1876,11 +1977,11 @@
       <c r="E12" s="22">
         <v>2.25</v>
       </c>
-      <c r="F12" s="117">
+      <c r="F12" s="133">
         <f>SUM(E12:E13)</f>
         <v>3.5</v>
       </c>
-      <c r="G12" s="78"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="57" t="s">
         <v>16</v>
       </c>
@@ -1903,8 +2004,8 @@
       <c r="P12" s="30"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="156"/>
-      <c r="B13" s="124"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="141"/>
       <c r="C13" s="21">
         <v>0.86458333333333337</v>
       </c>
@@ -1914,8 +2015,8 @@
       <c r="E13" s="22">
         <v>1.25</v>
       </c>
-      <c r="F13" s="118"/>
-      <c r="G13" s="79"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="82"/>
       <c r="H13" s="56" t="s">
         <v>25</v>
       </c>
@@ -1931,8 +2032,8 @@
       <c r="P13" s="30"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="156"/>
-      <c r="B14" s="123">
+      <c r="A14" s="161"/>
+      <c r="B14" s="140">
         <v>41592</v>
       </c>
       <c r="C14" s="23">
@@ -1944,11 +2045,11 @@
       <c r="E14" s="26">
         <v>1.5</v>
       </c>
-      <c r="F14" s="117">
+      <c r="F14" s="133">
         <f>SUM(E14:E15)</f>
         <v>2</v>
       </c>
-      <c r="G14" s="78"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="56" t="s">
         <v>25</v>
       </c>
@@ -1963,8 +2064,8 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="156"/>
-      <c r="B15" s="124"/>
+      <c r="A15" s="161"/>
+      <c r="B15" s="141"/>
       <c r="C15" s="23">
         <v>0.9375</v>
       </c>
@@ -1974,8 +2075,8 @@
       <c r="E15" s="26">
         <v>0.5</v>
       </c>
-      <c r="F15" s="118"/>
-      <c r="G15" s="79"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="82"/>
       <c r="H15" s="56" t="s">
         <v>17</v>
       </c>
@@ -1990,7 +2091,7 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="157"/>
+      <c r="A16" s="162"/>
       <c r="B16" s="40">
         <v>41593</v>
       </c>
@@ -2007,7 +2108,7 @@
         <f>E16</f>
         <v>1.08</v>
       </c>
-      <c r="G16" s="78"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="56" t="s">
         <v>16</v>
       </c>
@@ -2029,10 +2130,10 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="128">
+      <c r="A17" s="181">
         <v>3</v>
       </c>
-      <c r="B17" s="120">
+      <c r="B17" s="184">
         <v>41596</v>
       </c>
       <c r="C17" s="44">
@@ -2044,11 +2145,11 @@
       <c r="E17" s="42">
         <v>1</v>
       </c>
-      <c r="F17" s="117">
+      <c r="F17" s="133">
         <f>SUM(E17:E19)</f>
         <v>3.5</v>
       </c>
-      <c r="G17" s="78"/>
+      <c r="G17" s="81"/>
       <c r="H17" s="41" t="s">
         <v>17</v>
       </c>
@@ -2062,16 +2163,16 @@
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="10">
-        <f>SUM(E66:E72)</f>
-        <v>0</v>
+        <f>SUM(E68:E79)</f>
+        <v>9.34</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="128"/>
-      <c r="B18" s="121"/>
+      <c r="A18" s="181"/>
+      <c r="B18" s="186"/>
       <c r="C18" s="44">
         <v>0.75</v>
       </c>
@@ -2081,8 +2182,8 @@
       <c r="E18" s="42">
         <v>1.5</v>
       </c>
-      <c r="F18" s="119"/>
-      <c r="G18" s="80"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="83"/>
       <c r="H18" s="41" t="s">
         <v>18</v>
       </c>
@@ -2099,8 +2200,8 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="128"/>
-      <c r="B19" s="122"/>
+      <c r="A19" s="181"/>
+      <c r="B19" s="185"/>
       <c r="C19" s="44">
         <v>0.89583333333333337</v>
       </c>
@@ -2110,8 +2211,8 @@
       <c r="E19" s="42">
         <v>1</v>
       </c>
-      <c r="F19" s="118"/>
-      <c r="G19" s="79"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="82"/>
       <c r="H19" s="41" t="s">
         <v>25</v>
       </c>
@@ -2126,8 +2227,8 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="128"/>
-      <c r="B20" s="120">
+      <c r="A20" s="181"/>
+      <c r="B20" s="184">
         <v>41597</v>
       </c>
       <c r="C20" s="44">
@@ -2139,11 +2240,11 @@
       <c r="E20" s="42">
         <v>1.5</v>
       </c>
-      <c r="F20" s="117">
+      <c r="F20" s="133">
         <f>SUM(E20:E21)</f>
         <v>3</v>
       </c>
-      <c r="G20" s="78"/>
+      <c r="G20" s="81"/>
       <c r="H20" s="41" t="s">
         <v>16</v>
       </c>
@@ -2158,8 +2259,8 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="128"/>
-      <c r="B21" s="122"/>
+      <c r="A21" s="181"/>
+      <c r="B21" s="185"/>
       <c r="C21" s="44">
         <v>0.8125</v>
       </c>
@@ -2169,8 +2270,8 @@
       <c r="E21" s="42">
         <v>1.5</v>
       </c>
-      <c r="F21" s="118"/>
-      <c r="G21" s="79"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="82"/>
       <c r="H21" s="41" t="s">
         <v>18</v>
       </c>
@@ -2184,7 +2285,7 @@
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="10">
-        <f>SUM(E73:E79)</f>
+        <f>SUM(E83:E87)</f>
         <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
@@ -2192,8 +2293,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="128"/>
-      <c r="B22" s="120">
+      <c r="A22" s="181"/>
+      <c r="B22" s="184">
         <v>41599</v>
       </c>
       <c r="C22" s="44">
@@ -2205,11 +2306,11 @@
       <c r="E22" s="42">
         <v>3</v>
       </c>
-      <c r="F22" s="117">
+      <c r="F22" s="133">
         <f>SUM(E22:E26)</f>
         <v>7.9</v>
       </c>
-      <c r="G22" s="78"/>
+      <c r="G22" s="81"/>
       <c r="H22" s="41" t="s">
         <v>17</v>
       </c>
@@ -2224,8 +2325,8 @@
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="128"/>
-      <c r="B23" s="121"/>
+      <c r="A23" s="181"/>
+      <c r="B23" s="186"/>
       <c r="C23" s="44">
         <v>0.38194444444444442</v>
       </c>
@@ -2235,8 +2336,8 @@
       <c r="E23" s="42">
         <v>1</v>
       </c>
-      <c r="F23" s="119"/>
-      <c r="G23" s="80"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="83"/>
       <c r="H23" s="61" t="s">
         <v>20</v>
       </c>
@@ -2251,8 +2352,8 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="128"/>
-      <c r="B24" s="121"/>
+      <c r="A24" s="181"/>
+      <c r="B24" s="186"/>
       <c r="C24" s="44">
         <v>0.4236111111111111</v>
       </c>
@@ -2262,8 +2363,8 @@
       <c r="E24" s="42">
         <v>1.3</v>
       </c>
-      <c r="F24" s="119"/>
-      <c r="G24" s="80"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="83"/>
       <c r="H24" s="41" t="s">
         <v>16</v>
       </c>
@@ -2278,8 +2379,8 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="128"/>
-      <c r="B25" s="121"/>
+      <c r="A25" s="181"/>
+      <c r="B25" s="186"/>
       <c r="C25" s="44">
         <v>0.58333333333333337</v>
       </c>
@@ -2289,8 +2390,8 @@
       <c r="E25" s="42">
         <v>0.5</v>
       </c>
-      <c r="F25" s="119"/>
-      <c r="G25" s="80"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="83"/>
       <c r="H25" s="41" t="s">
         <v>18</v>
       </c>
@@ -2305,8 +2406,8 @@
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="128"/>
-      <c r="B26" s="122"/>
+      <c r="A26" s="181"/>
+      <c r="B26" s="185"/>
       <c r="C26" s="65">
         <v>0.625</v>
       </c>
@@ -2316,8 +2417,8 @@
       <c r="E26" s="42">
         <v>2.1</v>
       </c>
-      <c r="F26" s="118"/>
-      <c r="G26" s="79"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="82"/>
       <c r="H26" s="41" t="s">
         <v>16</v>
       </c>
@@ -2331,7 +2432,7 @@
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="10">
-        <f>SUM(E87:E93)</f>
+        <f>SUM(E95:E99)</f>
         <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
@@ -2339,8 +2440,8 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="128"/>
-      <c r="B27" s="120">
+      <c r="A27" s="181"/>
+      <c r="B27" s="184">
         <v>41600</v>
       </c>
       <c r="C27" s="65">
@@ -2352,18 +2453,18 @@
       <c r="E27" s="18">
         <v>1.25</v>
       </c>
-      <c r="F27" s="125">
+      <c r="F27" s="129">
         <f>SUM(E27:E29)</f>
         <v>4</v>
       </c>
-      <c r="G27" s="81"/>
+      <c r="G27" s="84"/>
       <c r="H27" s="27" t="s">
         <v>18</v>
       </c>
       <c r="I27" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="J27" s="67" t="s">
+      <c r="J27" s="68" t="s">
         <v>71</v>
       </c>
       <c r="K27" s="35"/>
@@ -2373,8 +2474,8 @@
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="128"/>
-      <c r="B28" s="121"/>
+      <c r="A28" s="181"/>
+      <c r="B28" s="186"/>
       <c r="C28" s="65">
         <v>0.5625</v>
       </c>
@@ -2384,9 +2485,9 @@
       <c r="E28" s="18">
         <v>1.25</v>
       </c>
-      <c r="F28" s="126"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="68" t="s">
+      <c r="F28" s="130"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="69" t="s">
         <v>16</v>
       </c>
       <c r="I28" s="27"/>
@@ -2398,20 +2499,20 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="128"/>
-      <c r="B29" s="122"/>
+      <c r="A29" s="181"/>
+      <c r="B29" s="185"/>
       <c r="C29" s="65">
         <v>0.625</v>
       </c>
       <c r="D29" s="65">
         <v>0.6875</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="69">
         <v>1.5</v>
       </c>
-      <c r="F29" s="127"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="68" t="s">
+      <c r="F29" s="131"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="69" t="s">
         <v>21</v>
       </c>
       <c r="I29" s="27" t="s">
@@ -2424,7 +2525,7 @@
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="10">
-        <f>SUM(E94:E100)</f>
+        <f>SUM(E101:E105)</f>
         <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
@@ -2432,136 +2533,136 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="111">
-        <v>4</v>
-      </c>
-      <c r="B30" s="129">
+      <c r="A30" s="67"/>
+      <c r="B30" s="184">
         <v>41601</v>
       </c>
-      <c r="C30" s="103">
+      <c r="C30" s="65">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D30" s="103">
+      <c r="D30" s="65">
         <v>0.375</v>
       </c>
-      <c r="E30" s="72">
+      <c r="E30" s="69">
         <v>0.5</v>
       </c>
-      <c r="F30" s="134">
+      <c r="F30" s="137">
         <f>SUM(E30:E33)</f>
         <v>2</v>
       </c>
-      <c r="G30" s="105"/>
-      <c r="H30" s="72" t="s">
+      <c r="G30" s="89"/>
+      <c r="H30" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="33" t="s">
+      <c r="I30" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="J30" s="33" t="s">
+      <c r="J30" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="K30" s="37"/>
+      <c r="K30" s="35"/>
       <c r="L30" s="8"/>
       <c r="M30" s="6"/>
       <c r="N30" s="10"/>
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="112"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="103">
+      <c r="A31" s="67"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="65">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D31" s="103">
+      <c r="D31" s="65">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E31" s="72">
+      <c r="E31" s="69">
         <v>0.5</v>
       </c>
-      <c r="F31" s="135"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="72" t="s">
+      <c r="F31" s="138"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="33" t="s">
+      <c r="I31" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="J31" s="33" t="s">
+      <c r="J31" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="K31" s="37"/>
+      <c r="K31" s="35"/>
       <c r="L31" s="8"/>
       <c r="M31" s="6"/>
       <c r="N31" s="10"/>
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="112"/>
-      <c r="B32" s="130"/>
-      <c r="C32" s="103">
+      <c r="A32" s="73"/>
+      <c r="B32" s="186"/>
+      <c r="C32" s="65">
         <v>0.5625</v>
       </c>
-      <c r="D32" s="103">
+      <c r="D32" s="65">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E32" s="72">
+      <c r="E32" s="69">
         <v>0.25</v>
       </c>
-      <c r="F32" s="135"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="72" t="s">
+      <c r="F32" s="138"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="37"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="35"/>
       <c r="L32" s="8"/>
       <c r="M32" s="6"/>
       <c r="N32" s="10"/>
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="112"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="103">
+      <c r="A33" s="72"/>
+      <c r="B33" s="185"/>
+      <c r="C33" s="65">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D33" s="103">
+      <c r="D33" s="65">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E33" s="72">
+      <c r="E33" s="69">
         <v>0.75</v>
       </c>
-      <c r="F33" s="136"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="72" t="s">
+      <c r="F33" s="139"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="33" t="s">
+      <c r="I33" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="J33" s="33" t="s">
+      <c r="J33" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="K33" s="37"/>
+      <c r="K33" s="35"/>
       <c r="L33" s="8"/>
       <c r="M33" s="6"/>
       <c r="N33" s="10"/>
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="112"/>
+      <c r="A34" s="120">
+        <v>4</v>
+      </c>
       <c r="B34" s="25">
         <v>41603</v>
       </c>
-      <c r="C34" s="71">
+      <c r="C34" s="74">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D34" s="71">
+      <c r="D34" s="74">
         <v>0.875</v>
       </c>
-      <c r="E34" s="69">
+      <c r="E34" s="70">
         <v>1</v>
       </c>
       <c r="F34" s="66">
@@ -2569,20 +2670,20 @@
         <v>1</v>
       </c>
       <c r="G34" s="66"/>
-      <c r="H34" s="72" t="s">
+      <c r="H34" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="70" t="s">
+      <c r="I34" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="J34" s="70"/>
+      <c r="J34" s="71"/>
       <c r="K34" s="36"/>
       <c r="L34" s="8" t="s">
         <v>33</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="10">
-        <f>SUM(E101:E107)</f>
+        <f>SUM(E107:E111)</f>
         <v>0</v>
       </c>
       <c r="O34" s="3" t="s">
@@ -2590,38 +2691,38 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="112"/>
-      <c r="B35" s="129">
+      <c r="A35" s="121"/>
+      <c r="B35" s="126">
         <v>41604</v>
       </c>
-      <c r="C35" s="71">
+      <c r="C35" s="74">
         <v>0.375</v>
       </c>
-      <c r="D35" s="71">
+      <c r="D35" s="74">
         <v>0.9375</v>
       </c>
-      <c r="E35" s="69">
+      <c r="E35" s="70">
         <v>1.5</v>
       </c>
-      <c r="F35" s="176">
+      <c r="F35" s="188">
         <f>SUM(E35:E36)</f>
         <v>3</v>
       </c>
-      <c r="G35" s="92"/>
-      <c r="H35" s="72" t="s">
+      <c r="G35" s="98"/>
+      <c r="H35" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="70" t="s">
+      <c r="I35" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="J35" s="70"/>
+      <c r="J35" s="71"/>
       <c r="K35" s="36"/>
       <c r="L35" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="10">
-        <f>SUM(E108:E114)</f>
+        <f>SUM(E112:E116)</f>
         <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
@@ -2629,26 +2730,26 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="112"/>
-      <c r="B36" s="131"/>
-      <c r="C36" s="71">
+      <c r="A36" s="121"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="74">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D36" s="71">
+      <c r="D36" s="74">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E36" s="69">
+      <c r="E36" s="70">
         <v>1.5</v>
       </c>
-      <c r="F36" s="177"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="72" t="s">
+      <c r="F36" s="189"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="75" t="s">
+      <c r="I36" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="J36" s="70"/>
+      <c r="J36" s="71"/>
       <c r="K36" s="36"/>
       <c r="L36" s="8"/>
       <c r="M36" s="6"/>
@@ -2656,31 +2757,31 @@
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="112"/>
-      <c r="B37" s="129">
+      <c r="A37" s="121"/>
+      <c r="B37" s="126">
         <v>41605</v>
       </c>
-      <c r="C37" s="71">
+      <c r="C37" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D37" s="71">
+      <c r="D37" s="74">
         <v>0.34375</v>
       </c>
-      <c r="E37" s="69">
+      <c r="E37" s="70">
         <v>0.25</v>
       </c>
-      <c r="F37" s="176">
+      <c r="F37" s="188">
         <f>SUM(E37:E39)</f>
         <v>3.08</v>
       </c>
-      <c r="G37" s="92"/>
-      <c r="H37" s="72" t="s">
+      <c r="G37" s="98"/>
+      <c r="H37" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="70" t="s">
+      <c r="I37" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="J37" s="70" t="s">
+      <c r="J37" s="71" t="s">
         <v>76</v>
       </c>
       <c r="K37" s="36"/>
@@ -2689,7 +2790,7 @@
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="10">
-        <f>SUM(E115:E121)</f>
+        <f>SUM(E117:E121)</f>
         <v>0</v>
       </c>
       <c r="O37" s="3" t="s">
@@ -2697,26 +2798,26 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="112"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="71">
+      <c r="A38" s="121"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="74">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D38" s="71">
+      <c r="D38" s="74">
         <v>0.375</v>
       </c>
-      <c r="E38" s="69">
+      <c r="E38" s="70">
         <v>0.5</v>
       </c>
-      <c r="F38" s="178"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="72" t="s">
+      <c r="F38" s="190"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="70" t="s">
+      <c r="I38" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="J38" s="70" t="s">
+      <c r="J38" s="71" t="s">
         <v>77</v>
       </c>
       <c r="K38" s="36"/>
@@ -2726,26 +2827,26 @@
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="112"/>
-      <c r="B39" s="131"/>
-      <c r="C39" s="71">
+      <c r="A39" s="121"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="74">
         <v>0.5625</v>
       </c>
-      <c r="D39" s="71">
+      <c r="D39" s="74">
         <v>0.65972222222222221</v>
       </c>
-      <c r="E39" s="69">
+      <c r="E39" s="70">
         <v>2.33</v>
       </c>
-      <c r="F39" s="177"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="72" t="s">
+      <c r="F39" s="189"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="70" t="s">
+      <c r="I39" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="J39" s="70"/>
+      <c r="J39" s="71"/>
       <c r="K39" s="36"/>
       <c r="L39" s="8"/>
       <c r="M39" s="6"/>
@@ -2753,69 +2854,67 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="128">
-        <v>5</v>
-      </c>
-      <c r="B40" s="120">
+      <c r="A40" s="121"/>
+      <c r="B40" s="126">
         <v>41608</v>
       </c>
-      <c r="C40" s="65">
+      <c r="C40" s="74">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D40" s="65">
+      <c r="D40" s="74">
         <v>0.875</v>
       </c>
-      <c r="E40" s="68">
+      <c r="E40" s="70">
         <v>1</v>
       </c>
-      <c r="F40" s="125">
+      <c r="F40" s="188">
         <f>SUM(E40:E41)</f>
         <v>1.5</v>
       </c>
-      <c r="G40" s="81"/>
-      <c r="H40" s="68" t="s">
+      <c r="G40" s="98"/>
+      <c r="H40" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="I40" s="27" t="s">
+      <c r="I40" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="J40" s="27"/>
-      <c r="K40" s="35"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="36"/>
       <c r="L40" s="8"/>
       <c r="M40" s="6"/>
       <c r="N40" s="10"/>
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="128"/>
-      <c r="B41" s="122"/>
-      <c r="C41" s="65">
+      <c r="A41" s="122"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="74">
         <v>0.875</v>
       </c>
-      <c r="D41" s="65">
+      <c r="D41" s="74">
         <v>0.89583333333333337</v>
       </c>
-      <c r="E41" s="68">
+      <c r="E41" s="70">
         <v>0.5</v>
       </c>
-      <c r="F41" s="127"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="68" t="s">
+      <c r="F41" s="189"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="27" t="s">
+      <c r="I41" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="J41" s="27" t="s">
+      <c r="J41" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="35"/>
+      <c r="K41" s="36"/>
       <c r="L41" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="10">
-        <f>SUM(E129:E135)</f>
+        <f>SUM(E129:E133)</f>
         <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
@@ -2823,8 +2922,8 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="128"/>
-      <c r="B42" s="74">
+      <c r="A42" s="182"/>
+      <c r="B42" s="77">
         <v>41610</v>
       </c>
       <c r="C42" s="59">
@@ -2833,14 +2932,14 @@
       <c r="D42" s="59">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E42" s="68">
+      <c r="E42" s="69">
         <v>1</v>
       </c>
-      <c r="F42" s="73">
+      <c r="F42" s="76">
         <v>1</v>
       </c>
-      <c r="G42" s="78"/>
-      <c r="H42" s="68" t="s">
+      <c r="G42" s="81"/>
+      <c r="H42" s="69" t="s">
         <v>17</v>
       </c>
       <c r="I42" s="27" t="s">
@@ -2854,8 +2953,8 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="128"/>
-      <c r="B43" s="120">
+      <c r="A43" s="182"/>
+      <c r="B43" s="184">
         <v>41611</v>
       </c>
       <c r="C43" s="59">
@@ -2864,15 +2963,15 @@
       <c r="D43" s="59">
         <v>0.93055555555555547</v>
       </c>
-      <c r="E43" s="68">
+      <c r="E43" s="69">
         <v>1</v>
       </c>
-      <c r="F43" s="125">
+      <c r="F43" s="129">
         <f>SUM(E43:E43:E44)</f>
         <v>1.8</v>
       </c>
-      <c r="G43" s="81"/>
-      <c r="H43" s="68" t="s">
+      <c r="G43" s="84"/>
+      <c r="H43" s="69" t="s">
         <v>17</v>
       </c>
       <c r="I43" s="27" t="s">
@@ -2886,20 +2985,20 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="128"/>
-      <c r="B44" s="122"/>
+      <c r="A44" s="182"/>
+      <c r="B44" s="185"/>
       <c r="C44" s="59">
         <v>0.9375</v>
       </c>
       <c r="D44" s="59">
         <v>0.97222222222222221</v>
       </c>
-      <c r="E44" s="76">
+      <c r="E44" s="79">
         <v>0.8</v>
       </c>
-      <c r="F44" s="127"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="68" t="s">
+      <c r="F44" s="131"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="69" t="s">
         <v>19</v>
       </c>
       <c r="I44" s="27" t="s">
@@ -2914,7 +3013,7 @@
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="10">
-        <f>SUM(E143:E149)</f>
+        <f>SUM(E141:E145)</f>
         <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
@@ -2922,8 +3021,8 @@
       </c>
     </row>
     <row r="45" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="128"/>
-      <c r="B45" s="120">
+      <c r="A45" s="182"/>
+      <c r="B45" s="184">
         <v>41612</v>
       </c>
       <c r="C45" s="59">
@@ -2935,15 +3034,15 @@
       <c r="E45" s="27">
         <v>4.5</v>
       </c>
-      <c r="F45" s="125">
+      <c r="F45" s="129">
         <f>SUM(E45:E46)</f>
         <v>4.67</v>
       </c>
-      <c r="G45" s="81"/>
+      <c r="G45" s="84"/>
       <c r="H45" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I45" s="77" t="s">
+      <c r="I45" s="80" t="s">
         <v>90</v>
       </c>
       <c r="J45" s="27"/>
@@ -2953,7 +3052,7 @@
       </c>
       <c r="M45" s="6"/>
       <c r="N45" s="10">
-        <f>SUM(E150:E156)</f>
+        <f>SUM(E147:E151)</f>
         <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
@@ -2961,8 +3060,8 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="128"/>
-      <c r="B46" s="122"/>
+      <c r="A46" s="182"/>
+      <c r="B46" s="185"/>
       <c r="C46" s="59">
         <v>0.82638888888888884</v>
       </c>
@@ -2972,12 +3071,12 @@
       <c r="E46" s="27">
         <v>0.17</v>
       </c>
-      <c r="F46" s="127"/>
-      <c r="G46" s="83"/>
+      <c r="F46" s="131"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I46" s="77" t="s">
+      <c r="I46" s="80" t="s">
         <v>73</v>
       </c>
       <c r="J46" s="27" t="s">
@@ -2990,8 +3089,8 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="128"/>
-      <c r="B47" s="120">
+      <c r="A47" s="182"/>
+      <c r="B47" s="184">
         <v>41613</v>
       </c>
       <c r="C47" s="59">
@@ -3000,15 +3099,15 @@
       <c r="D47" s="59">
         <v>0.875</v>
       </c>
-      <c r="E47" s="68">
+      <c r="E47" s="69">
         <v>0.67</v>
       </c>
-      <c r="F47" s="125">
+      <c r="F47" s="129">
         <f>SUM(E47:E48)</f>
         <v>0.92</v>
       </c>
-      <c r="G47" s="81"/>
-      <c r="H47" s="68" t="s">
+      <c r="G47" s="84"/>
+      <c r="H47" s="69" t="s">
         <v>17</v>
       </c>
       <c r="I47" s="27" t="s">
@@ -3021,7 +3120,7 @@
       </c>
       <c r="M47" s="6"/>
       <c r="N47" s="10">
-        <f>SUM(E157:E163)</f>
+        <f>SUM(E153:E157)</f>
         <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
@@ -3029,20 +3128,20 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="128"/>
-      <c r="B48" s="122"/>
+      <c r="A48" s="182"/>
+      <c r="B48" s="185"/>
       <c r="C48" s="59">
         <v>0.875</v>
       </c>
       <c r="D48" s="59">
         <v>0.88541666666666663</v>
       </c>
-      <c r="E48" s="68">
+      <c r="E48" s="69">
         <v>0.25</v>
       </c>
-      <c r="F48" s="127"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="68" t="s">
+      <c r="F48" s="131"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="69" t="s">
         <v>19</v>
       </c>
       <c r="I48" s="27" t="s">
@@ -3058,7 +3157,7 @@
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="128"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="24">
         <v>41614</v>
       </c>
@@ -3068,15 +3167,15 @@
       <c r="D49" s="59">
         <v>0.9375</v>
       </c>
-      <c r="E49" s="68">
+      <c r="E49" s="69">
         <v>1.25</v>
       </c>
-      <c r="F49" s="73">
+      <c r="F49" s="76">
         <f>E49</f>
         <v>1.25</v>
       </c>
-      <c r="G49" s="78"/>
-      <c r="H49" s="68" t="s">
+      <c r="G49" s="81"/>
+      <c r="H49" s="69" t="s">
         <v>17</v>
       </c>
       <c r="I49" s="27" t="s">
@@ -3089,7 +3188,7 @@
       </c>
       <c r="M49" s="6"/>
       <c r="N49" s="10">
-        <f>SUM(E164:E170)</f>
+        <f>SUM(E159:E163)</f>
         <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
@@ -3097,40 +3196,40 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="111">
+      <c r="A50" s="120">
         <v>6</v>
       </c>
       <c r="B50" s="25">
         <v>41617</v>
       </c>
-      <c r="C50" s="71">
+      <c r="C50" s="74">
         <v>0.88888888888888884</v>
       </c>
-      <c r="D50" s="71">
+      <c r="D50" s="74">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E50" s="69">
+      <c r="E50" s="70">
         <v>2.17</v>
       </c>
-      <c r="F50" s="66">
+      <c r="F50" s="58">
         <f>E50</f>
         <v>2.17</v>
       </c>
-      <c r="G50" s="66"/>
-      <c r="H50" s="72" t="s">
+      <c r="G50" s="81"/>
+      <c r="H50" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="I50" s="70" t="s">
+      <c r="I50" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="J50" s="70"/>
+      <c r="J50" s="71"/>
       <c r="K50" s="36"/>
       <c r="L50" s="8" t="s">
         <v>41</v>
       </c>
       <c r="M50" s="6"/>
       <c r="N50" s="10">
-        <f>SUM(E171:E177)</f>
+        <f>SUM(E165:E169)</f>
         <v>0</v>
       </c>
       <c r="O50" s="3" t="s">
@@ -3138,31 +3237,31 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="112"/>
+      <c r="A51" s="121"/>
       <c r="B51" s="25">
         <v>41618</v>
       </c>
-      <c r="C51" s="71">
+      <c r="C51" s="74">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D51" s="71">
+      <c r="D51" s="74">
         <v>0.90625</v>
       </c>
-      <c r="E51" s="69">
+      <c r="E51" s="70">
         <v>0.5</v>
       </c>
-      <c r="F51" s="66">
+      <c r="F51" s="58">
         <f>E51</f>
         <v>0.5</v>
       </c>
-      <c r="G51" s="66"/>
-      <c r="H51" s="72" t="s">
+      <c r="G51" s="81"/>
+      <c r="H51" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="I51" s="70" t="s">
+      <c r="I51" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="J51" s="70" t="s">
+      <c r="J51" s="71" t="s">
         <v>95</v>
       </c>
       <c r="K51" s="36"/>
@@ -3171,7 +3270,7 @@
       </c>
       <c r="M51" s="6"/>
       <c r="N51" s="10">
-        <f>SUM(E178:E184)</f>
+        <f>SUM(E171:E175)</f>
         <v>0</v>
       </c>
       <c r="O51" s="3" t="s">
@@ -3179,104 +3278,104 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="112"/>
+      <c r="A52" s="121"/>
       <c r="B52" s="25">
         <v>41619</v>
       </c>
-      <c r="C52" s="71">
+      <c r="C52" s="74">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D52" s="71">
+      <c r="D52" s="74">
         <v>0.9375</v>
       </c>
-      <c r="E52" s="69">
+      <c r="E52" s="70">
         <v>1</v>
       </c>
-      <c r="F52" s="66">
+      <c r="F52" s="58">
         <f>E52</f>
         <v>1</v>
       </c>
-      <c r="G52" s="66"/>
-      <c r="H52" s="72" t="s">
+      <c r="G52" s="81"/>
+      <c r="H52" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="70" t="s">
+      <c r="I52" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="J52" s="70"/>
+      <c r="J52" s="71"/>
       <c r="K52" s="36"/>
       <c r="L52" s="8" t="s">
         <v>43</v>
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="10">
-        <f>SUM(E185:E191)</f>
+        <f>SUM(E177:E181)</f>
         <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="98" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="112"/>
-      <c r="B53" s="129">
+    <row r="53" spans="1:15" s="104" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="121"/>
+      <c r="B53" s="126">
         <v>41620</v>
       </c>
-      <c r="C53" s="99">
+      <c r="C53" s="105">
         <v>0.375</v>
       </c>
-      <c r="D53" s="99">
+      <c r="D53" s="105">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E53" s="70">
+      <c r="E53" s="71">
         <v>2</v>
       </c>
-      <c r="F53" s="176">
+      <c r="F53" s="129">
         <f>SUM(E53:E55)</f>
         <v>6</v>
       </c>
-      <c r="G53" s="100"/>
+      <c r="G53" s="84"/>
       <c r="H53" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I53" s="75" t="s">
+      <c r="I53" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="J53" s="70"/>
+      <c r="J53" s="71"/>
       <c r="K53" s="36"/>
-      <c r="L53" s="95" t="s">
+      <c r="L53" s="101" t="s">
         <v>44</v>
       </c>
       <c r="M53" s="36"/>
-      <c r="N53" s="96">
-        <f>SUM(E192:E198)</f>
-        <v>0</v>
-      </c>
-      <c r="O53" s="97" t="s">
+      <c r="N53" s="102">
+        <f>SUM(E183:E187)</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="103" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="112"/>
-      <c r="B54" s="130"/>
-      <c r="C54" s="99">
+      <c r="A54" s="121"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="105">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D54" s="71">
+      <c r="D54" s="74">
         <v>0.5</v>
       </c>
-      <c r="E54" s="69">
+      <c r="E54" s="70">
         <v>1</v>
       </c>
-      <c r="F54" s="178"/>
-      <c r="G54" s="102"/>
-      <c r="H54" s="72" t="s">
+      <c r="F54" s="130"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="I54" s="70" t="s">
+      <c r="I54" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="J54" s="70"/>
+      <c r="J54" s="71"/>
       <c r="K54" s="36"/>
       <c r="L54" s="8"/>
       <c r="M54" s="6"/>
@@ -3284,26 +3383,26 @@
       <c r="O54" s="3"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="112"/>
-      <c r="B55" s="131"/>
-      <c r="C55" s="71">
+      <c r="A55" s="121"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="74">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D55" s="71">
+      <c r="D55" s="74">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E55" s="69">
+      <c r="E55" s="70">
         <v>3</v>
       </c>
-      <c r="F55" s="177"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="72" t="s">
+      <c r="F55" s="131"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="I55" s="70" t="s">
+      <c r="I55" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="J55" s="70"/>
+      <c r="J55" s="71"/>
       <c r="K55" s="36"/>
       <c r="L55" s="8"/>
       <c r="M55" s="6"/>
@@ -3311,31 +3410,31 @@
       <c r="O55" s="3"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="112"/>
-      <c r="B56" s="129">
+      <c r="A56" s="121"/>
+      <c r="B56" s="126">
         <v>41621</v>
       </c>
-      <c r="C56" s="71">
+      <c r="C56" s="74">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D56" s="71">
+      <c r="D56" s="74">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E56" s="69">
+      <c r="E56" s="70">
         <v>0.5</v>
       </c>
-      <c r="F56" s="176">
+      <c r="F56" s="129">
         <f>SUM(E56:E58)</f>
         <v>2.5</v>
       </c>
-      <c r="G56" s="100"/>
-      <c r="H56" s="72" t="s">
+      <c r="G56" s="84"/>
+      <c r="H56" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="I56" s="70" t="s">
+      <c r="I56" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="J56" s="70" t="s">
+      <c r="J56" s="71" t="s">
         <v>101</v>
       </c>
       <c r="K56" s="36"/>
@@ -3344,7 +3443,7 @@
       </c>
       <c r="M56" s="6"/>
       <c r="N56" s="10">
-        <f>SUM(E199:E205)</f>
+        <f>SUM(E189:E193)</f>
         <v>0</v>
       </c>
       <c r="O56" s="3" t="s">
@@ -3352,26 +3451,26 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="112"/>
-      <c r="B57" s="130"/>
-      <c r="C57" s="71">
+      <c r="A57" s="121"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="74">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D57" s="71">
+      <c r="D57" s="74">
         <v>0.625</v>
       </c>
-      <c r="E57" s="69">
+      <c r="E57" s="70">
         <v>1</v>
       </c>
-      <c r="F57" s="178"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="72" t="s">
+      <c r="F57" s="130"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I57" s="70" t="s">
+      <c r="I57" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="J57" s="70" t="s">
+      <c r="J57" s="71" t="s">
         <v>101</v>
       </c>
       <c r="K57" s="36"/>
@@ -3381,26 +3480,26 @@
       <c r="O57" s="3"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="113"/>
-      <c r="B58" s="131"/>
-      <c r="C58" s="71">
+      <c r="A58" s="121"/>
+      <c r="B58" s="128"/>
+      <c r="C58" s="74">
         <v>0.625</v>
       </c>
-      <c r="D58" s="71">
+      <c r="D58" s="74">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E58" s="69">
+      <c r="E58" s="70">
         <v>1</v>
       </c>
-      <c r="F58" s="177"/>
-      <c r="G58" s="101"/>
-      <c r="H58" s="72" t="s">
+      <c r="F58" s="131"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I58" s="70" t="s">
+      <c r="I58" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="J58" s="70" t="s">
+      <c r="J58" s="71" t="s">
         <v>102</v>
       </c>
       <c r="K58" s="36"/>
@@ -3410,25 +3509,22 @@
       <c r="O58" s="3"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="108">
+      <c r="A59" s="123">
         <v>7</v>
       </c>
       <c r="B59" s="24">
-        <v>41622</v>
+        <v>41624</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="58">
-        <f>SUM(E59:E64)</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="78">
-        <f>SUM(F59:F64)</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
+        <f>E59</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="81"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="27"/>
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
       <c r="L59" s="8" t="s">
@@ -3436,7 +3532,7 @@
       </c>
       <c r="M59" s="6"/>
       <c r="N59" s="10">
-        <f>SUM(E206:E212)</f>
+        <f>SUM(E195:E199)</f>
         <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
@@ -3444,48 +3540,64 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="109"/>
-      <c r="B60" s="24">
-        <v>41623</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="78">
-        <f t="shared" ref="F60:G60" si="0">SUM(E60:E65)</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="78">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
+      <c r="A60" s="124"/>
+      <c r="B60" s="184">
+        <v>41625</v>
+      </c>
+      <c r="C60" s="114" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="27">
+        <v>2</v>
+      </c>
+      <c r="F60" s="129">
+        <f>SUM(E60:E62)</f>
+        <v>3.75</v>
+      </c>
+      <c r="G60" s="81"/>
+      <c r="H60" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>108</v>
+      </c>
       <c r="J60" s="35"/>
       <c r="K60" s="35"/>
-      <c r="L60" s="8"/>
+      <c r="L60" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="M60" s="6"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="3"/>
+      <c r="N60" s="10">
+        <f>SUM(E201:E205)</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="109"/>
-      <c r="B61" s="24">
-        <v>41624</v>
-      </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="78">
-        <f t="shared" ref="F61:G61" si="1">SUM(E61:E66)</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
+      <c r="A61" s="124"/>
+      <c r="B61" s="186"/>
+      <c r="C61" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="D61" s="59">
+        <v>0.90625</v>
+      </c>
+      <c r="E61" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="F61" s="130"/>
+      <c r="G61" s="109"/>
+      <c r="H61" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="27" t="s">
+        <v>109</v>
+      </c>
       <c r="J61" s="35"/>
       <c r="K61" s="35"/>
       <c r="L61" s="8"/>
@@ -3494,55 +3606,57 @@
       <c r="O61" s="3"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="109"/>
-      <c r="B62" s="24">
-        <v>41625</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="78">
-        <f t="shared" ref="F62:G62" si="2">SUM(E62:E67)</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="78">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
+      <c r="A62" s="124"/>
+      <c r="B62" s="185"/>
+      <c r="C62" s="59">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D62" s="59">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E62" s="27">
+        <v>1</v>
+      </c>
+      <c r="F62" s="131"/>
+      <c r="G62" s="109"/>
+      <c r="H62" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" s="27" t="s">
+        <v>110</v>
+      </c>
       <c r="J62" s="35"/>
       <c r="K62" s="35"/>
-      <c r="L62" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="L62" s="8"/>
       <c r="M62" s="6"/>
-      <c r="N62" s="10">
-        <f>SUM(E213:E219)</f>
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="N62" s="10"/>
+      <c r="O62" s="3"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="109"/>
+      <c r="A63" s="124"/>
       <c r="B63" s="24">
         <v>41626</v>
       </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="78">
-        <f t="shared" ref="F63:G63" si="3">SUM(E63:E68)</f>
-        <v>0</v>
-      </c>
-      <c r="G63" s="78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
+      <c r="C63" s="114" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="27">
+        <v>2.5</v>
+      </c>
+      <c r="F63" s="58">
+        <f>E63</f>
+        <v>2.5</v>
+      </c>
+      <c r="G63" s="81"/>
+      <c r="H63" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="27" t="s">
+        <v>106</v>
+      </c>
       <c r="J63" s="35"/>
       <c r="K63" s="35"/>
       <c r="L63" s="8" t="s">
@@ -3550,7 +3664,7 @@
       </c>
       <c r="M63" s="6"/>
       <c r="N63" s="10">
-        <f>SUM(E220:E226)</f>
+        <f>SUM(E207:E212)</f>
         <v>0</v>
       </c>
       <c r="O63" s="3" t="s">
@@ -3558,944 +3672,930 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="109"/>
+      <c r="A64" s="124"/>
       <c r="B64" s="24">
         <v>41627</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="78">
-        <f t="shared" ref="F64:G64" si="4">SUM(E64:E69)</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="78">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
+      <c r="C64" s="59">
+        <v>0.9375</v>
+      </c>
+      <c r="D64" s="59">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E64" s="27">
+        <v>1</v>
+      </c>
+      <c r="F64" s="58">
+        <f>E64</f>
+        <v>1</v>
+      </c>
+      <c r="G64" s="81"/>
+      <c r="H64" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="27" t="s">
+        <v>106</v>
+      </c>
       <c r="J64" s="35"/>
       <c r="K64" s="35"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="110"/>
+      <c r="A65" s="124"/>
       <c r="B65" s="24">
         <v>41628</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="78">
-        <f t="shared" ref="F65:G65" si="5">SUM(E65:E70)</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="78">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
+      <c r="F65" s="58">
+        <f>E65</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="81"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="27"/>
       <c r="J65" s="35"/>
       <c r="K65" s="35"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="111">
+      <c r="A66" s="125"/>
+      <c r="B66" s="24">
+        <v>41629</v>
+      </c>
+      <c r="C66" s="59">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D66" s="59">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E66" s="27">
+        <v>1</v>
+      </c>
+      <c r="F66" s="107">
+        <f>E66</f>
+        <v>1</v>
+      </c>
+      <c r="G66" s="107"/>
+      <c r="H66" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+    </row>
+    <row r="67" spans="1:11" s="104" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="120">
         <v>8</v>
       </c>
-      <c r="B66" s="25">
-        <v>41629</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="78">
-        <f t="shared" ref="F66:G66" si="6">SUM(E66:E71)</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="78">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="112"/>
-      <c r="B67" s="25">
-        <v>41630</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="78">
-        <f t="shared" ref="F67:G67" si="7">SUM(E67:E72)</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="78">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="112"/>
-      <c r="B68" s="25">
+      <c r="B67" s="126">
         <v>41631</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="78">
-        <f t="shared" ref="F68:G68" si="8">SUM(E68:E73)</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="78">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="112"/>
-      <c r="B69" s="25">
+      <c r="C67" s="105">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D67" s="105">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E67" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="F67" s="129">
+        <f>SUM(E67:E69)</f>
+        <v>3.17</v>
+      </c>
+      <c r="G67" s="132">
+        <v>25</v>
+      </c>
+      <c r="H67" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="J67" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="K67" s="71"/>
+    </row>
+    <row r="68" spans="1:11" s="104" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="121"/>
+      <c r="B68" s="127"/>
+      <c r="C68" s="105">
+        <v>0.90625</v>
+      </c>
+      <c r="D68" s="105">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="E68" s="71">
+        <v>1</v>
+      </c>
+      <c r="F68" s="130"/>
+      <c r="G68" s="132"/>
+      <c r="H68" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="J68" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="K68" s="71"/>
+    </row>
+    <row r="69" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="121"/>
+      <c r="B69" s="128"/>
+      <c r="C69" s="105">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D69" s="105">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E69" s="71">
+        <v>0.67</v>
+      </c>
+      <c r="F69" s="131"/>
+      <c r="G69" s="132"/>
+      <c r="H69" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="J69" s="78"/>
+      <c r="K69" s="71"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="121"/>
+      <c r="B70" s="126">
         <v>41632</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="78">
-        <f t="shared" ref="F69:G69" si="9">SUM(E69:E74)</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="78">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="112"/>
-      <c r="B70" s="25">
+      <c r="C70" s="74">
+        <v>0.875</v>
+      </c>
+      <c r="D70" s="74">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E70" s="70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="129">
+        <f>SUM(E70:E72)</f>
+        <v>2</v>
+      </c>
+      <c r="G70" s="132"/>
+      <c r="H70" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="J70" s="71"/>
+      <c r="K70" s="71"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="121"/>
+      <c r="B71" s="127"/>
+      <c r="C71" s="74">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D71" s="74">
+        <v>0.9375</v>
+      </c>
+      <c r="E71" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="F71" s="130"/>
+      <c r="G71" s="132"/>
+      <c r="H71" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="J71" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="K71" s="71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="121"/>
+      <c r="B72" s="128"/>
+      <c r="C72" s="105">
+        <v>0.9375</v>
+      </c>
+      <c r="D72" s="105">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E72" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="F72" s="131"/>
+      <c r="G72" s="132"/>
+      <c r="H72" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="J72" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="K72" s="71"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="121"/>
+      <c r="B73" s="126">
         <v>41633</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="78">
-        <f t="shared" ref="F70:G70" si="10">SUM(E70:E75)</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="78">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="112"/>
-      <c r="B71" s="25">
+      <c r="C73" s="74">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D73" s="74">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E73" s="70">
+        <v>1</v>
+      </c>
+      <c r="F73" s="129">
+        <f>SUM(E73:E75)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G73" s="132"/>
+      <c r="H73" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="J73" s="71"/>
+      <c r="K73" s="71"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="121"/>
+      <c r="B74" s="127"/>
+      <c r="C74" s="74">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D74" s="74">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E74" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="F74" s="130"/>
+      <c r="G74" s="132"/>
+      <c r="H74" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="J74" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="K74" s="71"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="121"/>
+      <c r="B75" s="128"/>
+      <c r="C75" s="74">
+        <v>0.875</v>
+      </c>
+      <c r="D75" s="74">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E75" s="70">
+        <v>1</v>
+      </c>
+      <c r="F75" s="131"/>
+      <c r="G75" s="132"/>
+      <c r="H75" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="J75" s="71"/>
+      <c r="K75" s="71"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="121"/>
+      <c r="B76" s="126">
         <v>41634</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="78">
-        <f t="shared" ref="F71:G71" si="11">SUM(E71:E76)</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="113"/>
-      <c r="B72" s="25">
+      <c r="C76" s="74">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D76" s="74">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E76" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="F76" s="129">
+        <f>SUM(E76:E78)</f>
+        <v>1.67</v>
+      </c>
+      <c r="G76" s="132"/>
+      <c r="H76" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="J76" s="71"/>
+      <c r="K76" s="71"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="121"/>
+      <c r="B77" s="127"/>
+      <c r="C77" s="74">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D77" s="74">
+        <v>0.875</v>
+      </c>
+      <c r="E77" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="F77" s="130"/>
+      <c r="G77" s="132"/>
+      <c r="H77" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="J77" s="71"/>
+      <c r="K77" s="71"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="121"/>
+      <c r="B78" s="127"/>
+      <c r="C78" s="74">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="D78" s="74">
+        <v>0</v>
+      </c>
+      <c r="E78" s="71">
+        <v>0.67</v>
+      </c>
+      <c r="F78" s="130"/>
+      <c r="G78" s="132"/>
+      <c r="H78" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="J78" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="K78" s="71"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="121"/>
+      <c r="B79" s="126">
         <v>41635</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="78">
-        <f t="shared" ref="F72:G72" si="12">SUM(E72:E77)</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="78">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="108">
+      <c r="C79" s="74">
+        <v>0.1875</v>
+      </c>
+      <c r="D79" s="74">
+        <v>0.25</v>
+      </c>
+      <c r="E79" s="70">
+        <v>1.5</v>
+      </c>
+      <c r="F79" s="129">
+        <f>SUM(E79:E81)</f>
+        <v>1.5</v>
+      </c>
+      <c r="G79" s="132"/>
+      <c r="H79" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="J79" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="K79" s="71"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="121"/>
+      <c r="B80" s="127"/>
+      <c r="C80" s="115"/>
+      <c r="D80" s="115"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="130"/>
+      <c r="G80" s="132"/>
+      <c r="H80" s="75"/>
+      <c r="I80" s="71"/>
+      <c r="J80" s="71"/>
+      <c r="K80" s="71"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="121"/>
+      <c r="B81" s="128"/>
+      <c r="C81" s="115"/>
+      <c r="D81" s="115"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="131"/>
+      <c r="G81" s="132"/>
+      <c r="H81" s="75"/>
+      <c r="I81" s="71"/>
+      <c r="J81" s="71"/>
+      <c r="K81" s="71"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="122"/>
+      <c r="B82" s="25">
+        <v>41636</v>
+      </c>
+      <c r="C82" s="115"/>
+      <c r="D82" s="115"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="116">
+        <f>SUM(E82:E86)</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="132"/>
+      <c r="H82" s="75"/>
+      <c r="I82" s="71"/>
+      <c r="J82" s="71"/>
+      <c r="K82" s="71"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="123">
         <v>9</v>
       </c>
-      <c r="B73" s="24">
-        <v>41636</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="78">
-        <f t="shared" ref="F73:G73" si="13">SUM(E73:E78)</f>
-        <v>0</v>
-      </c>
-      <c r="G73" s="78">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="109"/>
-      <c r="B74" s="24">
-        <v>41637</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="78">
-        <f t="shared" ref="F74:G74" si="14">SUM(E74:E79)</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="78">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="109"/>
-      <c r="B75" s="24">
+      <c r="B83" s="24">
         <v>41638</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="78">
-        <f t="shared" ref="F75:G75" si="15">SUM(E75:E80)</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="78">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="109"/>
-      <c r="B76" s="24">
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="107">
+        <f t="shared" ref="F83:F106" si="0">SUM(E83:E87)</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="117">
+        <v>25</v>
+      </c>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="124"/>
+      <c r="B84" s="24">
         <v>41639</v>
       </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="78">
-        <f t="shared" ref="F76:G76" si="16">SUM(E76:E81)</f>
-        <v>0</v>
-      </c>
-      <c r="G76" s="78">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="109"/>
-      <c r="B77" s="24">
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="118"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="124"/>
+      <c r="B85" s="24">
         <v>41640</v>
       </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="78">
-        <f t="shared" ref="F77:G77" si="17">SUM(E77:E82)</f>
-        <v>0</v>
-      </c>
-      <c r="G77" s="78">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="109"/>
-      <c r="B78" s="24">
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="118"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="124"/>
+      <c r="B86" s="24">
         <v>41641</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="78">
-        <f t="shared" ref="F78:G78" si="18">SUM(E78:E83)</f>
-        <v>0</v>
-      </c>
-      <c r="G78" s="78">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="35"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="110"/>
-      <c r="B79" s="24">
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="118"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="124"/>
+      <c r="B87" s="24">
         <v>41642</v>
-      </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="78">
-        <f t="shared" ref="F79:G79" si="19">SUM(E79:E84)</f>
-        <v>0</v>
-      </c>
-      <c r="G79" s="78">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="35"/>
-      <c r="K79" s="35"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="111">
-        <v>10</v>
-      </c>
-      <c r="B80" s="25">
-        <v>41643</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="78">
-        <f t="shared" ref="F80:G80" si="20">SUM(E80:E85)</f>
-        <v>0</v>
-      </c>
-      <c r="G80" s="78">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="112"/>
-      <c r="B81" s="25">
-        <v>41644</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="78">
-        <f t="shared" ref="F81:G81" si="21">SUM(E81:E86)</f>
-        <v>0</v>
-      </c>
-      <c r="G81" s="78">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="112"/>
-      <c r="B82" s="25">
-        <v>41645</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="78">
-        <f t="shared" ref="F82:G82" si="22">SUM(E82:E87)</f>
-        <v>0</v>
-      </c>
-      <c r="G82" s="78">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="112"/>
-      <c r="B83" s="25">
-        <v>41646</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="78">
-        <f t="shared" ref="F83:G83" si="23">SUM(E83:E88)</f>
-        <v>0</v>
-      </c>
-      <c r="G83" s="78">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="112"/>
-      <c r="B84" s="25">
-        <v>41647</v>
-      </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="78">
-        <f t="shared" ref="F84:G84" si="24">SUM(E84:E89)</f>
-        <v>0</v>
-      </c>
-      <c r="G84" s="78">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="112"/>
-      <c r="B85" s="25">
-        <v>41648</v>
-      </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="78">
-        <f t="shared" ref="F85:G85" si="25">SUM(E85:E90)</f>
-        <v>0</v>
-      </c>
-      <c r="G85" s="78">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="113"/>
-      <c r="B86" s="25">
-        <v>41649</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="78">
-        <f t="shared" ref="F86:G86" si="26">SUM(E86:E91)</f>
-        <v>0</v>
-      </c>
-      <c r="G86" s="78">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="108">
-        <v>11</v>
-      </c>
-      <c r="B87" s="24">
-        <v>41650</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
-      <c r="F87" s="78">
-        <f t="shared" ref="F87:G87" si="27">SUM(E87:E92)</f>
-        <v>0</v>
-      </c>
-      <c r="G87" s="78">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
+      <c r="F87" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="118"/>
       <c r="H87" s="35"/>
       <c r="I87" s="35"/>
       <c r="J87" s="35"/>
       <c r="K87" s="35"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="109"/>
+      <c r="A88" s="125"/>
       <c r="B88" s="24">
-        <v>41651</v>
+        <v>41643</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
-      <c r="F88" s="78">
-        <f t="shared" ref="F88:G88" si="28">SUM(E88:E93)</f>
-        <v>0</v>
-      </c>
-      <c r="G88" s="78">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
+      <c r="F88" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="119"/>
       <c r="H88" s="35"/>
       <c r="I88" s="35"/>
       <c r="J88" s="35"/>
       <c r="K88" s="35"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="109"/>
-      <c r="B89" s="24">
-        <v>41652</v>
-      </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="78">
-        <f t="shared" ref="F89:G89" si="29">SUM(E89:E94)</f>
-        <v>0</v>
-      </c>
-      <c r="G89" s="78">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="35"/>
-      <c r="K89" s="35"/>
+      <c r="A89" s="120">
+        <v>10</v>
+      </c>
+      <c r="B89" s="25">
+        <v>41645</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="117">
+        <v>25</v>
+      </c>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="109"/>
-      <c r="B90" s="24">
-        <v>41653</v>
-      </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="78">
-        <f t="shared" ref="F90:G90" si="30">SUM(E90:E95)</f>
-        <v>0</v>
-      </c>
-      <c r="G90" s="78">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H90" s="35"/>
-      <c r="I90" s="35"/>
-      <c r="J90" s="35"/>
-      <c r="K90" s="35"/>
+      <c r="A90" s="121"/>
+      <c r="B90" s="25">
+        <v>41646</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="118"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="109"/>
-      <c r="B91" s="24">
-        <v>41654</v>
-      </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="78">
-        <f t="shared" ref="F91:G91" si="31">SUM(E91:E96)</f>
-        <v>0</v>
-      </c>
-      <c r="G91" s="78">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="H91" s="35"/>
-      <c r="I91" s="35"/>
-      <c r="J91" s="35"/>
-      <c r="K91" s="35"/>
+      <c r="A91" s="121"/>
+      <c r="B91" s="25">
+        <v>41647</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="118"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="109"/>
-      <c r="B92" s="24">
-        <v>41655</v>
-      </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="78">
-        <f t="shared" ref="F92:G92" si="32">SUM(E92:E97)</f>
-        <v>0</v>
-      </c>
-      <c r="G92" s="78">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="H92" s="35"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="35"/>
-      <c r="K92" s="35"/>
+      <c r="A92" s="121"/>
+      <c r="B92" s="25">
+        <v>41648</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="118"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="110"/>
-      <c r="B93" s="24">
-        <v>41656</v>
-      </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="78">
-        <f t="shared" ref="F93:G93" si="33">SUM(E93:E98)</f>
-        <v>0</v>
-      </c>
-      <c r="G93" s="78">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="35"/>
+      <c r="A93" s="121"/>
+      <c r="B93" s="25">
+        <v>41649</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="118"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="111">
-        <v>12</v>
-      </c>
+      <c r="A94" s="122"/>
       <c r="B94" s="25">
-        <v>41657</v>
+        <v>41650</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
-      <c r="F94" s="78">
-        <f t="shared" ref="F94:G94" si="34">SUM(E94:E99)</f>
-        <v>0</v>
-      </c>
-      <c r="G94" s="78">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
+      <c r="F94" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="119"/>
       <c r="H94" s="36"/>
       <c r="I94" s="36"/>
       <c r="J94" s="36"/>
       <c r="K94" s="36"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="112"/>
-      <c r="B95" s="25">
+      <c r="A95" s="123">
+        <v>11</v>
+      </c>
+      <c r="B95" s="24">
+        <v>41652</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="117">
+        <v>35</v>
+      </c>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="124"/>
+      <c r="B96" s="24">
+        <v>41653</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="118"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="35"/>
+      <c r="K96" s="35"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="124"/>
+      <c r="B97" s="24">
+        <v>41654</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="118"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="35"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="124"/>
+      <c r="B98" s="24">
+        <v>41655</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="118"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="35"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="124"/>
+      <c r="B99" s="24">
+        <v>41656</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="118"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="35"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="35"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="125"/>
+      <c r="B100" s="24">
         <v>41658</v>
       </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="78">
-        <f t="shared" ref="F95:G95" si="35">SUM(E95:E100)</f>
-        <v>0</v>
-      </c>
-      <c r="G95" s="78">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="112"/>
-      <c r="B96" s="25">
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="119"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="35"/>
+      <c r="J100" s="35"/>
+      <c r="K100" s="35"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="120">
+        <v>12</v>
+      </c>
+      <c r="B101" s="25">
         <v>41659</v>
       </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="78">
-        <f t="shared" ref="F96:G96" si="36">SUM(E96:E101)</f>
-        <v>0</v>
-      </c>
-      <c r="G96" s="78">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="112"/>
-      <c r="B97" s="25">
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="117">
+        <v>35</v>
+      </c>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="121"/>
+      <c r="B102" s="25">
         <v>41660</v>
       </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="78">
-        <f t="shared" ref="F97:G97" si="37">SUM(E97:E102)</f>
-        <v>0</v>
-      </c>
-      <c r="G97" s="78">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="36"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="112"/>
-      <c r="B98" s="25">
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="118"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="121"/>
+      <c r="B103" s="25">
         <v>41661</v>
       </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="78">
-        <f t="shared" ref="F98:G98" si="38">SUM(E98:E103)</f>
-        <v>0</v>
-      </c>
-      <c r="G98" s="78">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="36"/>
-      <c r="K98" s="36"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="112"/>
-      <c r="B99" s="25">
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="118"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="121"/>
+      <c r="B104" s="25">
         <v>41662</v>
       </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="78">
-        <f t="shared" ref="F99:G99" si="39">SUM(E99:E104)</f>
-        <v>0</v>
-      </c>
-      <c r="G99" s="78">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="36"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="113"/>
-      <c r="B100" s="25">
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="118"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="121"/>
+      <c r="B105" s="25">
         <v>41663</v>
       </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="78">
-        <f t="shared" ref="F100:G100" si="40">SUM(E100:E105)</f>
-        <v>0</v>
-      </c>
-      <c r="G100" s="78">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="108">
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="118"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="122"/>
+      <c r="B106" s="25">
+        <v>41665</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="119"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="36"/>
+      <c r="K106" s="36"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="123">
         <v>13</v>
       </c>
-      <c r="B101" s="24">
-        <v>41664</v>
-      </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="78">
-        <f t="shared" ref="F101:G101" si="41">SUM(E101:E106)</f>
-        <v>0</v>
-      </c>
-      <c r="G101" s="78">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="H101" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="I101" s="35"/>
-      <c r="J101" s="35"/>
-      <c r="K101" s="35"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="109"/>
-      <c r="B102" s="24">
-        <v>41665</v>
-      </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="78">
-        <f t="shared" ref="F102:G102" si="42">SUM(E102:E107)</f>
-        <v>0</v>
-      </c>
-      <c r="G102" s="78">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="H102" s="35"/>
-      <c r="I102" s="35"/>
-      <c r="J102" s="35"/>
-      <c r="K102" s="35"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="109"/>
-      <c r="B103" s="24">
+      <c r="B107" s="24">
         <v>41666</v>
-      </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="78">
-        <f t="shared" ref="F103:G103" si="43">SUM(E103:E108)</f>
-        <v>0</v>
-      </c>
-      <c r="G103" s="78">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="H103" s="35"/>
-      <c r="I103" s="35"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="35"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="109"/>
-      <c r="B104" s="24">
-        <v>41667</v>
-      </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="78">
-        <f t="shared" ref="F104:G104" si="44">SUM(E104:E109)</f>
-        <v>0</v>
-      </c>
-      <c r="G104" s="78">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="H104" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="I104" s="35"/>
-      <c r="J104" s="35"/>
-      <c r="K104" s="35"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="109"/>
-      <c r="B105" s="24">
-        <v>41668</v>
-      </c>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="78">
-        <f t="shared" ref="F105:G105" si="45">SUM(E105:E110)</f>
-        <v>0</v>
-      </c>
-      <c r="G105" s="78">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="H105" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="I105" s="35"/>
-      <c r="J105" s="35"/>
-      <c r="K105" s="35"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="109"/>
-      <c r="B106" s="24">
-        <v>41669</v>
-      </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="78">
-        <f t="shared" ref="F106:G106" si="46">SUM(E106:E111)</f>
-        <v>0</v>
-      </c>
-      <c r="G106" s="78">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="H106" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="I106" s="35"/>
-      <c r="J106" s="35"/>
-      <c r="K106" s="35"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="110"/>
-      <c r="B107" s="24">
-        <v>41670</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
-      <c r="F107" s="78">
-        <f t="shared" ref="F107:G107" si="47">SUM(E107:E112)</f>
-        <v>0</v>
-      </c>
-      <c r="G107" s="78">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
+      <c r="F107" s="5">
+        <f t="shared" ref="F107:F116" si="1">E107</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="5"/>
       <c r="H107" s="35" t="s">
         <v>30</v>
       </c>
@@ -4504,111 +4604,100 @@
       <c r="K107" s="35"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="111">
+      <c r="A108" s="124"/>
+      <c r="B108" s="24">
+        <v>41667</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="5"/>
+      <c r="H108" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I108" s="35"/>
+      <c r="J108" s="35"/>
+      <c r="K108" s="35"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="124"/>
+      <c r="B109" s="24">
+        <v>41668</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="5"/>
+      <c r="H109" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I109" s="35"/>
+      <c r="J109" s="35"/>
+      <c r="K109" s="35"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="124"/>
+      <c r="B110" s="24">
+        <v>41669</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="5"/>
+      <c r="H110" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I110" s="35"/>
+      <c r="J110" s="35"/>
+      <c r="K110" s="35"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="125"/>
+      <c r="B111" s="24">
+        <v>41670</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G111" s="5"/>
+      <c r="H111" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I111" s="35"/>
+      <c r="J111" s="35"/>
+      <c r="K111" s="35"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="120">
         <v>14</v>
       </c>
-      <c r="B108" s="25">
-        <v>41671</v>
-      </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="78">
-        <f t="shared" ref="F108:G108" si="48">SUM(E108:E113)</f>
-        <v>0</v>
-      </c>
-      <c r="G108" s="78">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="H108" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="I108" s="36"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="36"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="112"/>
-      <c r="B109" s="25">
-        <v>41672</v>
-      </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="78">
-        <f t="shared" ref="F109:G109" si="49">SUM(E109:E114)</f>
-        <v>0</v>
-      </c>
-      <c r="G109" s="78">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H109" s="37"/>
-      <c r="I109" s="36"/>
-      <c r="J109" s="36"/>
-      <c r="K109" s="36"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="112"/>
-      <c r="B110" s="25">
+      <c r="B112" s="25">
         <v>41673</v>
-      </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="78">
-        <f t="shared" ref="F110:G110" si="50">SUM(E110:E115)</f>
-        <v>0</v>
-      </c>
-      <c r="G110" s="78">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="H110" s="37"/>
-      <c r="I110" s="36"/>
-      <c r="J110" s="36"/>
-      <c r="K110" s="36"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="112"/>
-      <c r="B111" s="25">
-        <v>41674</v>
-      </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="78">
-        <f t="shared" ref="F111:G111" si="51">SUM(E111:E116)</f>
-        <v>0</v>
-      </c>
-      <c r="G111" s="78">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="H111" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="I111" s="36"/>
-      <c r="J111" s="36"/>
-      <c r="K111" s="36"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="112"/>
-      <c r="B112" s="25">
-        <v>41675</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
-      <c r="F112" s="78">
-        <f t="shared" ref="F112:G112" si="52">SUM(E112:E117)</f>
-        <v>0</v>
-      </c>
-      <c r="G112" s="78">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
+      <c r="F112" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="6"/>
       <c r="H112" s="37" t="s">
         <v>30</v>
       </c>
@@ -4617,21 +4706,18 @@
       <c r="K112" s="36"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="112"/>
+      <c r="A113" s="121"/>
       <c r="B113" s="25">
-        <v>41676</v>
+        <v>41674</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
-      <c r="F113" s="78">
-        <f t="shared" ref="F113:G113" si="53">SUM(E113:E118)</f>
-        <v>0</v>
-      </c>
-      <c r="G113" s="78">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
+      <c r="F113" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G113" s="6"/>
       <c r="H113" s="37" t="s">
         <v>30</v>
       </c>
@@ -4640,21 +4726,18 @@
       <c r="K113" s="36"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="113"/>
+      <c r="A114" s="121"/>
       <c r="B114" s="25">
-        <v>41677</v>
+        <v>41675</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
-      <c r="F114" s="78">
-        <f t="shared" ref="F114:G114" si="54">SUM(E114:E119)</f>
-        <v>0</v>
-      </c>
-      <c r="G114" s="78">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
+      <c r="F114" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="6"/>
       <c r="H114" s="37" t="s">
         <v>30</v>
       </c>
@@ -4663,64 +4746,61 @@
       <c r="K114" s="36"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="108">
+      <c r="A115" s="121"/>
+      <c r="B115" s="25">
+        <v>41676</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="6"/>
+      <c r="H115" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I115" s="36"/>
+      <c r="J115" s="36"/>
+      <c r="K115" s="36"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="122"/>
+      <c r="B116" s="25">
+        <v>41677</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="6"/>
+      <c r="H116" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I116" s="36"/>
+      <c r="J116" s="36"/>
+      <c r="K116" s="36"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="123">
         <v>15</v>
       </c>
-      <c r="B115" s="24">
-        <v>41678</v>
-      </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="78">
-        <f t="shared" ref="F115:G115" si="55">SUM(E115:E120)</f>
-        <v>0</v>
-      </c>
-      <c r="G115" s="78">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="H115" s="35"/>
-      <c r="I115" s="35"/>
-      <c r="J115" s="35"/>
-      <c r="K115" s="35"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="109"/>
-      <c r="B116" s="24">
-        <v>41679</v>
-      </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="78">
-        <f t="shared" ref="F116:G116" si="56">SUM(E116:E121)</f>
-        <v>0</v>
-      </c>
-      <c r="G116" s="78">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="H116" s="35"/>
-      <c r="I116" s="35"/>
-      <c r="J116" s="35"/>
-      <c r="K116" s="35"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="109"/>
       <c r="B117" s="24">
         <v>41680</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
-      <c r="F117" s="78">
-        <f t="shared" ref="F117:G117" si="57">SUM(E117:E122)</f>
-        <v>0</v>
-      </c>
-      <c r="G117" s="78">
-        <f t="shared" si="57"/>
-        <v>0</v>
+      <c r="F117" s="107">
+        <f t="shared" ref="F117:F180" si="2">SUM(E117:E121)</f>
+        <v>0</v>
+      </c>
+      <c r="G117" s="117">
+        <v>35</v>
       </c>
       <c r="H117" s="35"/>
       <c r="I117" s="35"/>
@@ -4728,127 +4808,111 @@
       <c r="K117" s="35"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="109"/>
+      <c r="A118" s="124"/>
       <c r="B118" s="24">
         <v>41681</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
-      <c r="F118" s="78">
-        <f t="shared" ref="F118:G118" si="58">SUM(E118:E123)</f>
-        <v>0</v>
-      </c>
-      <c r="G118" s="78">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
+      <c r="F118" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="118"/>
       <c r="H118" s="35"/>
       <c r="I118" s="35"/>
       <c r="J118" s="35"/>
       <c r="K118" s="35"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="109"/>
+      <c r="A119" s="124"/>
       <c r="B119" s="24">
         <v>41682</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
-      <c r="F119" s="78">
-        <f t="shared" ref="F119:G119" si="59">SUM(E119:E124)</f>
-        <v>0</v>
-      </c>
-      <c r="G119" s="78">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
+      <c r="F119" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="118"/>
       <c r="H119" s="35"/>
       <c r="I119" s="35"/>
       <c r="J119" s="35"/>
       <c r="K119" s="35"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="109"/>
+      <c r="A120" s="124"/>
       <c r="B120" s="24">
         <v>41683</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
-      <c r="F120" s="78">
-        <f t="shared" ref="F120:G120" si="60">SUM(E120:E125)</f>
-        <v>0</v>
-      </c>
-      <c r="G120" s="78">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
+      <c r="F120" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G120" s="118"/>
       <c r="H120" s="35"/>
       <c r="I120" s="35"/>
       <c r="J120" s="35"/>
       <c r="K120" s="35"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="110"/>
+      <c r="A121" s="124"/>
       <c r="B121" s="24">
         <v>41684</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
-      <c r="F121" s="78">
-        <f t="shared" ref="F121:G121" si="61">SUM(E121:E126)</f>
-        <v>0</v>
-      </c>
-      <c r="G121" s="78">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
+      <c r="F121" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G121" s="118"/>
       <c r="H121" s="35"/>
       <c r="I121" s="35"/>
       <c r="J121" s="35"/>
       <c r="K121" s="35"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="111">
+      <c r="A122" s="125"/>
+      <c r="B122" s="24">
+        <v>41685</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="119"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="35"/>
+      <c r="J122" s="35"/>
+      <c r="K122" s="35"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="120">
         <v>16</v>
       </c>
-      <c r="B122" s="25">
-        <v>41685</v>
-      </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="78">
-        <f t="shared" ref="F122:G122" si="62">SUM(E122:E127)</f>
-        <v>0</v>
-      </c>
-      <c r="G122" s="78">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H122" s="36"/>
-      <c r="I122" s="36"/>
-      <c r="J122" s="36"/>
-      <c r="K122" s="36"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="112"/>
       <c r="B123" s="25">
-        <v>41686</v>
+        <v>41687</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
-      <c r="F123" s="78">
-        <f t="shared" ref="F123:G123" si="63">SUM(E123:E128)</f>
-        <v>0</v>
-      </c>
-      <c r="G123" s="78">
-        <f t="shared" si="63"/>
-        <v>0</v>
+      <c r="F123" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G123" s="117">
+        <v>35</v>
       </c>
       <c r="H123" s="36"/>
       <c r="I123" s="36"/>
@@ -4856,127 +4920,111 @@
       <c r="K123" s="36"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="112"/>
+      <c r="A124" s="121"/>
       <c r="B124" s="25">
-        <v>41687</v>
+        <v>41688</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
-      <c r="F124" s="78">
-        <f t="shared" ref="F124:G124" si="64">SUM(E124:E129)</f>
-        <v>0</v>
-      </c>
-      <c r="G124" s="78">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
+      <c r="F124" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G124" s="118"/>
       <c r="H124" s="36"/>
       <c r="I124" s="36"/>
       <c r="J124" s="36"/>
       <c r="K124" s="36"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="112"/>
+      <c r="A125" s="121"/>
       <c r="B125" s="25">
-        <v>41688</v>
+        <v>41689</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
-      <c r="F125" s="78">
-        <f t="shared" ref="F125:G125" si="65">SUM(E125:E130)</f>
-        <v>0</v>
-      </c>
-      <c r="G125" s="78">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
+      <c r="F125" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G125" s="118"/>
       <c r="H125" s="36"/>
       <c r="I125" s="36"/>
       <c r="J125" s="36"/>
       <c r="K125" s="36"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="112"/>
+      <c r="A126" s="121"/>
       <c r="B126" s="25">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
-      <c r="F126" s="78">
-        <f t="shared" ref="F126:G126" si="66">SUM(E126:E131)</f>
-        <v>0</v>
-      </c>
-      <c r="G126" s="78">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
+      <c r="F126" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G126" s="118"/>
       <c r="H126" s="36"/>
       <c r="I126" s="36"/>
       <c r="J126" s="36"/>
       <c r="K126" s="36"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="112"/>
+      <c r="A127" s="121"/>
       <c r="B127" s="25">
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
-      <c r="F127" s="78">
-        <f t="shared" ref="F127:G127" si="67">SUM(E127:E132)</f>
-        <v>0</v>
-      </c>
-      <c r="G127" s="78">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
+      <c r="F127" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="118"/>
       <c r="H127" s="36"/>
       <c r="I127" s="36"/>
       <c r="J127" s="36"/>
       <c r="K127" s="36"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="113"/>
+      <c r="A128" s="122"/>
       <c r="B128" s="25">
-        <v>41691</v>
+        <v>41692</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
-      <c r="F128" s="78">
-        <f t="shared" ref="F128:G128" si="68">SUM(E128:E133)</f>
-        <v>0</v>
-      </c>
-      <c r="G128" s="78">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
+      <c r="F128" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G128" s="119"/>
       <c r="H128" s="36"/>
       <c r="I128" s="36"/>
       <c r="J128" s="36"/>
       <c r="K128" s="36"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="108">
+      <c r="A129" s="123">
         <v>17</v>
       </c>
       <c r="B129" s="24">
-        <v>41692</v>
+        <v>41694</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
-      <c r="F129" s="78">
-        <f t="shared" ref="F129:G129" si="69">SUM(E129:E134)</f>
-        <v>0</v>
-      </c>
-      <c r="G129" s="78">
-        <f t="shared" si="69"/>
-        <v>0</v>
+      <c r="F129" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G129" s="117">
+        <v>35</v>
       </c>
       <c r="H129" s="35"/>
       <c r="I129" s="35"/>
@@ -4984,971 +5032,895 @@
       <c r="K129" s="35"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="109"/>
+      <c r="A130" s="124"/>
       <c r="B130" s="24">
-        <v>41693</v>
+        <v>41695</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
-      <c r="F130" s="78">
-        <f t="shared" ref="F130:G130" si="70">SUM(E130:E135)</f>
-        <v>0</v>
-      </c>
-      <c r="G130" s="78">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
+      <c r="F130" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G130" s="118"/>
       <c r="H130" s="35"/>
       <c r="I130" s="35"/>
       <c r="J130" s="35"/>
       <c r="K130" s="35"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="109"/>
+      <c r="A131" s="124"/>
       <c r="B131" s="24">
-        <v>41694</v>
+        <v>41696</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
-      <c r="F131" s="78">
-        <f t="shared" ref="F131:G131" si="71">SUM(E131:E136)</f>
-        <v>0</v>
-      </c>
-      <c r="G131" s="78">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
+      <c r="F131" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G131" s="118"/>
       <c r="H131" s="35"/>
       <c r="I131" s="35"/>
       <c r="J131" s="35"/>
       <c r="K131" s="35"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="109"/>
+      <c r="A132" s="124"/>
       <c r="B132" s="24">
-        <v>41695</v>
+        <v>41697</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
-      <c r="F132" s="78">
-        <f t="shared" ref="F132:G132" si="72">SUM(E132:E137)</f>
-        <v>0</v>
-      </c>
-      <c r="G132" s="78">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
+      <c r="F132" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G132" s="118"/>
       <c r="H132" s="35"/>
       <c r="I132" s="35"/>
       <c r="J132" s="35"/>
       <c r="K132" s="35"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="109"/>
+      <c r="A133" s="124"/>
       <c r="B133" s="24">
-        <v>41696</v>
+        <v>41698</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
-      <c r="F133" s="78">
-        <f t="shared" ref="F133:G133" si="73">SUM(E133:E138)</f>
-        <v>0</v>
-      </c>
-      <c r="G133" s="78">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
+      <c r="F133" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G133" s="118"/>
       <c r="H133" s="35"/>
       <c r="I133" s="35"/>
       <c r="J133" s="35"/>
       <c r="K133" s="35"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="109"/>
+      <c r="A134" s="125"/>
       <c r="B134" s="24">
-        <v>41697</v>
+        <v>41699</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
-      <c r="F134" s="78">
-        <f t="shared" ref="F134:G134" si="74">SUM(E134:E139)</f>
-        <v>0</v>
-      </c>
-      <c r="G134" s="78">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
+      <c r="F134" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G134" s="119"/>
       <c r="H134" s="35"/>
       <c r="I134" s="35"/>
       <c r="J134" s="35"/>
       <c r="K134" s="35"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="110"/>
-      <c r="B135" s="24">
-        <v>41698</v>
-      </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="78">
-        <f t="shared" ref="F135:G135" si="75">SUM(E135:E140)</f>
-        <v>0</v>
-      </c>
-      <c r="G135" s="78">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="H135" s="35"/>
-      <c r="I135" s="35"/>
-      <c r="J135" s="35"/>
-      <c r="K135" s="35"/>
+      <c r="A135" s="120">
+        <v>18</v>
+      </c>
+      <c r="B135" s="25">
+        <v>41701</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G135" s="117">
+        <v>35</v>
+      </c>
+      <c r="H135" s="36"/>
+      <c r="I135" s="36"/>
+      <c r="J135" s="36"/>
+      <c r="K135" s="36"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="111">
-        <v>18</v>
-      </c>
+      <c r="A136" s="121"/>
       <c r="B136" s="25">
-        <v>41699</v>
+        <v>41702</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
-      <c r="F136" s="78">
-        <f t="shared" ref="F136:G136" si="76">SUM(E136:E141)</f>
-        <v>0</v>
-      </c>
-      <c r="G136" s="78">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
+      <c r="F136" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G136" s="118"/>
       <c r="H136" s="36"/>
       <c r="I136" s="36"/>
       <c r="J136" s="36"/>
       <c r="K136" s="36"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="112"/>
+      <c r="A137" s="121"/>
       <c r="B137" s="25">
-        <v>41700</v>
+        <v>41703</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
-      <c r="F137" s="78">
-        <f t="shared" ref="F137:G137" si="77">SUM(E137:E142)</f>
-        <v>0</v>
-      </c>
-      <c r="G137" s="78">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
+      <c r="F137" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G137" s="118"/>
       <c r="H137" s="36"/>
       <c r="I137" s="36"/>
       <c r="J137" s="36"/>
       <c r="K137" s="36"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="112"/>
+      <c r="A138" s="121"/>
       <c r="B138" s="25">
-        <v>41701</v>
+        <v>41704</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
-      <c r="F138" s="78">
-        <f t="shared" ref="F138:G138" si="78">SUM(E138:E143)</f>
-        <v>0</v>
-      </c>
-      <c r="G138" s="78">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
+      <c r="F138" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G138" s="118"/>
       <c r="H138" s="36"/>
       <c r="I138" s="36"/>
       <c r="J138" s="36"/>
       <c r="K138" s="36"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="112"/>
+      <c r="A139" s="121"/>
       <c r="B139" s="25">
-        <v>41702</v>
+        <v>41705</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
-      <c r="F139" s="78">
-        <f t="shared" ref="F139:G139" si="79">SUM(E139:E144)</f>
-        <v>0</v>
-      </c>
-      <c r="G139" s="78">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
+      <c r="F139" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G139" s="118"/>
       <c r="H139" s="36"/>
       <c r="I139" s="36"/>
       <c r="J139" s="36"/>
       <c r="K139" s="36"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="112"/>
+      <c r="A140" s="122"/>
       <c r="B140" s="25">
-        <v>41703</v>
+        <v>41706</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
-      <c r="F140" s="78">
-        <f t="shared" ref="F140:G140" si="80">SUM(E140:E145)</f>
-        <v>0</v>
-      </c>
-      <c r="G140" s="78">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
+      <c r="F140" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G140" s="119"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
       <c r="J140" s="36"/>
       <c r="K140" s="36"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="112"/>
-      <c r="B141" s="25">
-        <v>41704</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="78">
-        <f t="shared" ref="F141:G141" si="81">SUM(E141:E146)</f>
-        <v>0</v>
-      </c>
-      <c r="G141" s="78">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="H141" s="36"/>
-      <c r="I141" s="36"/>
-      <c r="J141" s="36"/>
-      <c r="K141" s="36"/>
+      <c r="A141" s="123">
+        <v>19</v>
+      </c>
+      <c r="B141" s="24">
+        <v>41708</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G141" s="117">
+        <v>35</v>
+      </c>
+      <c r="H141" s="35"/>
+      <c r="I141" s="35"/>
+      <c r="J141" s="35"/>
+      <c r="K141" s="35"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="113"/>
-      <c r="B142" s="25">
-        <v>41705</v>
-      </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="78">
-        <f t="shared" ref="F142:G142" si="82">SUM(E142:E147)</f>
-        <v>0</v>
-      </c>
-      <c r="G142" s="78">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="H142" s="36"/>
-      <c r="I142" s="36"/>
-      <c r="J142" s="36"/>
-      <c r="K142" s="36"/>
+      <c r="A142" s="124"/>
+      <c r="B142" s="24">
+        <v>41709</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G142" s="118"/>
+      <c r="H142" s="35"/>
+      <c r="I142" s="35"/>
+      <c r="J142" s="35"/>
+      <c r="K142" s="35"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="108">
-        <v>19</v>
-      </c>
+      <c r="A143" s="124"/>
       <c r="B143" s="24">
-        <v>41706</v>
+        <v>41710</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
-      <c r="F143" s="78">
-        <f t="shared" ref="F143:G143" si="83">SUM(E143:E148)</f>
-        <v>0</v>
-      </c>
-      <c r="G143" s="78">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
+      <c r="F143" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G143" s="118"/>
       <c r="H143" s="35"/>
       <c r="I143" s="35"/>
       <c r="J143" s="35"/>
       <c r="K143" s="35"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="109"/>
+      <c r="A144" s="124"/>
       <c r="B144" s="24">
-        <v>41707</v>
+        <v>41711</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
-      <c r="F144" s="78">
-        <f t="shared" ref="F144:G144" si="84">SUM(E144:E149)</f>
-        <v>0</v>
-      </c>
-      <c r="G144" s="78">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
+      <c r="F144" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G144" s="118"/>
       <c r="H144" s="35"/>
       <c r="I144" s="35"/>
       <c r="J144" s="35"/>
       <c r="K144" s="35"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="109"/>
+      <c r="A145" s="124"/>
       <c r="B145" s="24">
-        <v>41708</v>
+        <v>41712</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
-      <c r="F145" s="78">
-        <f t="shared" ref="F145:G145" si="85">SUM(E145:E150)</f>
-        <v>0</v>
-      </c>
-      <c r="G145" s="78">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
+      <c r="F145" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G145" s="118"/>
       <c r="H145" s="35"/>
       <c r="I145" s="35"/>
       <c r="J145" s="35"/>
       <c r="K145" s="35"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="109"/>
+      <c r="A146" s="125"/>
       <c r="B146" s="24">
-        <v>41709</v>
+        <v>41713</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
-      <c r="F146" s="78">
-        <f t="shared" ref="F146:G146" si="86">SUM(E146:E153)</f>
-        <v>0</v>
-      </c>
-      <c r="G146" s="78">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
+      <c r="F146" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G146" s="119"/>
       <c r="H146" s="35"/>
       <c r="I146" s="35"/>
       <c r="J146" s="35"/>
       <c r="K146" s="35"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="109"/>
-      <c r="B147" s="24">
-        <v>41710</v>
-      </c>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="78">
-        <f t="shared" ref="F147:G147" si="87">SUM(E147:E154)</f>
-        <v>0</v>
-      </c>
-      <c r="G147" s="78">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="H147" s="35"/>
-      <c r="I147" s="35"/>
-      <c r="J147" s="35"/>
-      <c r="K147" s="35"/>
+      <c r="A147" s="120">
+        <v>20</v>
+      </c>
+      <c r="B147" s="25">
+        <v>41715</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G147" s="117">
+        <v>35</v>
+      </c>
+      <c r="H147" s="36"/>
+      <c r="I147" s="36"/>
+      <c r="J147" s="36"/>
+      <c r="K147" s="36"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="109"/>
-      <c r="B148" s="24">
-        <v>41711</v>
-      </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="78">
-        <f t="shared" ref="F148:G148" si="88">SUM(E148:E155)</f>
-        <v>0</v>
-      </c>
-      <c r="G148" s="78">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="H148" s="35"/>
-      <c r="I148" s="35"/>
-      <c r="J148" s="35"/>
-      <c r="K148" s="35"/>
+      <c r="A148" s="121"/>
+      <c r="B148" s="25">
+        <v>41716</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G148" s="118"/>
+      <c r="H148" s="36"/>
+      <c r="I148" s="36"/>
+      <c r="J148" s="36"/>
+      <c r="K148" s="36"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="110"/>
-      <c r="B149" s="24">
-        <v>41712</v>
-      </c>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="78">
-        <f t="shared" ref="F149:G149" si="89">SUM(E149:E156)</f>
-        <v>0</v>
-      </c>
-      <c r="G149" s="78">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="H149" s="35"/>
-      <c r="I149" s="35"/>
-      <c r="J149" s="35"/>
-      <c r="K149" s="35"/>
+      <c r="A149" s="121"/>
+      <c r="B149" s="25">
+        <v>41717</v>
+      </c>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G149" s="118"/>
+      <c r="H149" s="36"/>
+      <c r="I149" s="36"/>
+      <c r="J149" s="36"/>
+      <c r="K149" s="36"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="111">
-        <v>20</v>
-      </c>
+      <c r="A150" s="121"/>
       <c r="B150" s="25">
-        <v>41713</v>
+        <v>41718</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
-      <c r="F150" s="78">
-        <f t="shared" ref="F150:G150" si="90">SUM(E150:E157)</f>
-        <v>0</v>
-      </c>
-      <c r="G150" s="78">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
+      <c r="F150" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G150" s="118"/>
       <c r="H150" s="36"/>
       <c r="I150" s="36"/>
       <c r="J150" s="36"/>
       <c r="K150" s="36"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="112"/>
+      <c r="A151" s="121"/>
       <c r="B151" s="25">
-        <v>41714</v>
+        <v>41719</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
-      <c r="F151" s="78"/>
-      <c r="G151" s="78"/>
+      <c r="F151" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G151" s="118"/>
       <c r="H151" s="36"/>
       <c r="I151" s="36"/>
       <c r="J151" s="36"/>
       <c r="K151" s="36"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="112"/>
+      <c r="A152" s="122"/>
       <c r="B152" s="25">
-        <v>41715</v>
+        <v>41720</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
-      <c r="F152" s="78"/>
-      <c r="G152" s="78"/>
+      <c r="F152" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G152" s="119"/>
       <c r="H152" s="36"/>
       <c r="I152" s="36"/>
       <c r="J152" s="36"/>
       <c r="K152" s="36"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="112"/>
-      <c r="B153" s="25">
-        <v>41716</v>
-      </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="78">
-        <f t="shared" ref="F153:G153" si="91">SUM(E153:E160)</f>
-        <v>0</v>
-      </c>
-      <c r="G153" s="78">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="H153" s="36"/>
-      <c r="I153" s="36"/>
-      <c r="J153" s="36"/>
-      <c r="K153" s="36"/>
+      <c r="A153" s="123">
+        <v>21</v>
+      </c>
+      <c r="B153" s="24">
+        <v>41722</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G153" s="117">
+        <v>35</v>
+      </c>
+      <c r="H153" s="35"/>
+      <c r="I153" s="35"/>
+      <c r="J153" s="35"/>
+      <c r="K153" s="35"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="112"/>
-      <c r="B154" s="25">
-        <v>41717</v>
-      </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="78">
-        <f t="shared" ref="F154:G154" si="92">SUM(E154:E161)</f>
-        <v>0</v>
-      </c>
-      <c r="G154" s="78">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="H154" s="36"/>
-      <c r="I154" s="36"/>
-      <c r="J154" s="36"/>
-      <c r="K154" s="36"/>
+      <c r="A154" s="124"/>
+      <c r="B154" s="24">
+        <v>41723</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G154" s="118"/>
+      <c r="H154" s="35"/>
+      <c r="I154" s="35"/>
+      <c r="J154" s="35"/>
+      <c r="K154" s="35"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="112"/>
-      <c r="B155" s="25">
-        <v>41718</v>
-      </c>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="78">
-        <f t="shared" ref="F155:G155" si="93">SUM(E155:E162)</f>
-        <v>0</v>
-      </c>
-      <c r="G155" s="78">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="H155" s="36"/>
-      <c r="I155" s="36"/>
-      <c r="J155" s="36"/>
-      <c r="K155" s="36"/>
+      <c r="A155" s="124"/>
+      <c r="B155" s="24">
+        <v>41724</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G155" s="118"/>
+      <c r="H155" s="35"/>
+      <c r="I155" s="35"/>
+      <c r="J155" s="35"/>
+      <c r="K155" s="35"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="113"/>
-      <c r="B156" s="25">
-        <v>41719</v>
-      </c>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="78">
-        <f t="shared" ref="F156:G156" si="94">SUM(E156:E163)</f>
-        <v>0</v>
-      </c>
-      <c r="G156" s="78">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="H156" s="36"/>
-      <c r="I156" s="36"/>
-      <c r="J156" s="36"/>
-      <c r="K156" s="36"/>
+      <c r="A156" s="124"/>
+      <c r="B156" s="24">
+        <v>41725</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G156" s="118"/>
+      <c r="H156" s="35"/>
+      <c r="I156" s="35"/>
+      <c r="J156" s="35"/>
+      <c r="K156" s="35"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="108">
-        <v>21</v>
-      </c>
+      <c r="A157" s="124"/>
       <c r="B157" s="24">
-        <v>41720</v>
+        <v>41726</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
-      <c r="F157" s="78">
-        <f t="shared" ref="F157:G157" si="95">SUM(E157:E164)</f>
-        <v>0</v>
-      </c>
-      <c r="G157" s="78">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
+      <c r="F157" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G157" s="118"/>
       <c r="H157" s="35"/>
       <c r="I157" s="35"/>
       <c r="J157" s="35"/>
       <c r="K157" s="35"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="109"/>
+      <c r="A158" s="125"/>
       <c r="B158" s="24">
-        <v>41721</v>
+        <v>41727</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
-      <c r="F158" s="78"/>
-      <c r="G158" s="78"/>
+      <c r="F158" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G158" s="119"/>
       <c r="H158" s="35"/>
       <c r="I158" s="35"/>
       <c r="J158" s="35"/>
       <c r="K158" s="35"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="109"/>
-      <c r="B159" s="24">
-        <v>41722</v>
-      </c>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="78"/>
-      <c r="G159" s="78"/>
-      <c r="H159" s="35"/>
-      <c r="I159" s="35"/>
-      <c r="J159" s="35"/>
-      <c r="K159" s="35"/>
+      <c r="A159" s="120">
+        <v>22</v>
+      </c>
+      <c r="B159" s="25">
+        <v>41729</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G159" s="117">
+        <v>35</v>
+      </c>
+      <c r="H159" s="36"/>
+      <c r="I159" s="36"/>
+      <c r="J159" s="36"/>
+      <c r="K159" s="36"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="109"/>
-      <c r="B160" s="24">
-        <v>41723</v>
-      </c>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="78">
-        <f t="shared" ref="F160:G160" si="96">SUM(E160:E167)</f>
-        <v>0</v>
-      </c>
-      <c r="G160" s="78">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="H160" s="35"/>
-      <c r="I160" s="35"/>
-      <c r="J160" s="35"/>
-      <c r="K160" s="35"/>
+      <c r="A160" s="121"/>
+      <c r="B160" s="25">
+        <v>41730</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G160" s="118"/>
+      <c r="H160" s="36"/>
+      <c r="I160" s="36"/>
+      <c r="J160" s="36"/>
+      <c r="K160" s="36"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="109"/>
-      <c r="B161" s="24">
-        <v>41724</v>
-      </c>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="78">
-        <f t="shared" ref="F161:G161" si="97">SUM(E161:E168)</f>
-        <v>0</v>
-      </c>
-      <c r="G161" s="78">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="H161" s="35"/>
-      <c r="I161" s="35"/>
-      <c r="J161" s="35"/>
-      <c r="K161" s="35"/>
+      <c r="A161" s="121"/>
+      <c r="B161" s="25">
+        <v>41731</v>
+      </c>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G161" s="118"/>
+      <c r="H161" s="36"/>
+      <c r="I161" s="36"/>
+      <c r="J161" s="36"/>
+      <c r="K161" s="36"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="109"/>
-      <c r="B162" s="24">
-        <v>41725</v>
-      </c>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="78">
-        <f t="shared" ref="F162:G162" si="98">SUM(E162:E169)</f>
-        <v>0</v>
-      </c>
-      <c r="G162" s="78">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="H162" s="35"/>
-      <c r="I162" s="35"/>
-      <c r="J162" s="35"/>
-      <c r="K162" s="35"/>
+      <c r="A162" s="121"/>
+      <c r="B162" s="25">
+        <v>41732</v>
+      </c>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G162" s="118"/>
+      <c r="H162" s="36"/>
+      <c r="I162" s="36"/>
+      <c r="J162" s="36"/>
+      <c r="K162" s="36"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="110"/>
-      <c r="B163" s="24">
-        <v>41726</v>
-      </c>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="78">
-        <f t="shared" ref="F163:G163" si="99">SUM(E163:E170)</f>
-        <v>0</v>
-      </c>
-      <c r="G163" s="78">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="H163" s="35"/>
-      <c r="I163" s="35"/>
-      <c r="J163" s="35"/>
-      <c r="K163" s="35"/>
+      <c r="A163" s="121"/>
+      <c r="B163" s="25">
+        <v>41733</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G163" s="118"/>
+      <c r="H163" s="36"/>
+      <c r="I163" s="36"/>
+      <c r="J163" s="36"/>
+      <c r="K163" s="36"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="111">
-        <v>22</v>
-      </c>
+      <c r="A164" s="122"/>
       <c r="B164" s="25">
-        <v>41727</v>
+        <v>41734</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
-      <c r="F164" s="78">
-        <f t="shared" ref="F164:G164" si="100">SUM(E164:E171)</f>
-        <v>0</v>
-      </c>
-      <c r="G164" s="78">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
+      <c r="F164" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G164" s="119"/>
       <c r="H164" s="36"/>
       <c r="I164" s="36"/>
       <c r="J164" s="36"/>
       <c r="K164" s="36"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="112"/>
-      <c r="B165" s="25">
-        <v>41728</v>
-      </c>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-      <c r="E165" s="6"/>
-      <c r="F165" s="78"/>
-      <c r="G165" s="78"/>
-      <c r="H165" s="36"/>
-      <c r="I165" s="36"/>
-      <c r="J165" s="36"/>
-      <c r="K165" s="36"/>
+      <c r="A165" s="123">
+        <v>23</v>
+      </c>
+      <c r="B165" s="24">
+        <v>41736</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G165" s="117">
+        <v>35</v>
+      </c>
+      <c r="H165" s="35"/>
+      <c r="I165" s="35"/>
+      <c r="J165" s="35"/>
+      <c r="K165" s="35"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="112"/>
-      <c r="B166" s="25">
-        <v>41729</v>
-      </c>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6"/>
-      <c r="F166" s="78"/>
-      <c r="G166" s="78"/>
-      <c r="H166" s="36"/>
-      <c r="I166" s="36"/>
-      <c r="J166" s="36"/>
-      <c r="K166" s="36"/>
+      <c r="A166" s="124"/>
+      <c r="B166" s="24">
+        <v>41737</v>
+      </c>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G166" s="118"/>
+      <c r="H166" s="35"/>
+      <c r="I166" s="35"/>
+      <c r="J166" s="35"/>
+      <c r="K166" s="35"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="112"/>
-      <c r="B167" s="25">
-        <v>41730</v>
-      </c>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
-      <c r="F167" s="78">
-        <f t="shared" ref="F167:G167" si="101">SUM(E167:E174)</f>
-        <v>0</v>
-      </c>
-      <c r="G167" s="78">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="H167" s="36"/>
-      <c r="I167" s="36"/>
-      <c r="J167" s="36"/>
-      <c r="K167" s="36"/>
+      <c r="A167" s="124"/>
+      <c r="B167" s="24">
+        <v>41738</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G167" s="118"/>
+      <c r="H167" s="35"/>
+      <c r="I167" s="35"/>
+      <c r="J167" s="35"/>
+      <c r="K167" s="35"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="112"/>
-      <c r="B168" s="25">
-        <v>41731</v>
-      </c>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
-      <c r="F168" s="78">
-        <f t="shared" ref="F168:G168" si="102">SUM(E168:E175)</f>
-        <v>0</v>
-      </c>
-      <c r="G168" s="78">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="H168" s="36"/>
-      <c r="I168" s="36"/>
-      <c r="J168" s="36"/>
-      <c r="K168" s="36"/>
+      <c r="A168" s="124"/>
+      <c r="B168" s="24">
+        <v>41739</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G168" s="118"/>
+      <c r="H168" s="35"/>
+      <c r="I168" s="35"/>
+      <c r="J168" s="35"/>
+      <c r="K168" s="35"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="112"/>
-      <c r="B169" s="25">
-        <v>41732</v>
-      </c>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="6"/>
-      <c r="F169" s="78">
-        <f t="shared" ref="F169:G169" si="103">SUM(E169:E176)</f>
-        <v>0</v>
-      </c>
-      <c r="G169" s="78">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="H169" s="36"/>
-      <c r="I169" s="36"/>
-      <c r="J169" s="36"/>
-      <c r="K169" s="36"/>
+      <c r="A169" s="124"/>
+      <c r="B169" s="24">
+        <v>41740</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G169" s="118"/>
+      <c r="H169" s="35"/>
+      <c r="I169" s="35"/>
+      <c r="J169" s="35"/>
+      <c r="K169" s="35"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="113"/>
-      <c r="B170" s="25">
-        <v>41733</v>
-      </c>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="6"/>
-      <c r="F170" s="78">
-        <f t="shared" ref="F170:G170" si="104">SUM(E170:E177)</f>
-        <v>0</v>
-      </c>
-      <c r="G170" s="78">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="H170" s="36"/>
-      <c r="I170" s="36"/>
-      <c r="J170" s="36"/>
-      <c r="K170" s="36"/>
+      <c r="A170" s="125"/>
+      <c r="B170" s="24">
+        <v>41741</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G170" s="119"/>
+      <c r="H170" s="35"/>
+      <c r="I170" s="35"/>
+      <c r="J170" s="35"/>
+      <c r="K170" s="35"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="108">
-        <v>23</v>
-      </c>
-      <c r="B171" s="24">
-        <v>41734</v>
-      </c>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="78">
-        <f t="shared" ref="F171:G171" si="105">SUM(E171:E178)</f>
-        <v>0</v>
-      </c>
-      <c r="G171" s="78">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="H171" s="35"/>
-      <c r="I171" s="35"/>
-      <c r="J171" s="35"/>
-      <c r="K171" s="35"/>
+      <c r="A171" s="120">
+        <v>24</v>
+      </c>
+      <c r="B171" s="25">
+        <v>41743</v>
+      </c>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G171" s="117">
+        <v>35</v>
+      </c>
+      <c r="H171" s="36"/>
+      <c r="I171" s="36"/>
+      <c r="J171" s="36"/>
+      <c r="K171" s="36"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="109"/>
-      <c r="B172" s="24">
-        <v>41735</v>
-      </c>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="78"/>
-      <c r="G172" s="78"/>
-      <c r="H172" s="35"/>
-      <c r="I172" s="35"/>
-      <c r="J172" s="35"/>
-      <c r="K172" s="35"/>
+      <c r="A172" s="121"/>
+      <c r="B172" s="25">
+        <v>41744</v>
+      </c>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G172" s="118"/>
+      <c r="H172" s="36"/>
+      <c r="I172" s="36"/>
+      <c r="J172" s="36"/>
+      <c r="K172" s="36"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="109"/>
-      <c r="B173" s="24">
-        <v>41736</v>
-      </c>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="78"/>
-      <c r="G173" s="78"/>
-      <c r="H173" s="35"/>
-      <c r="I173" s="35"/>
-      <c r="J173" s="35"/>
-      <c r="K173" s="35"/>
+      <c r="A173" s="121"/>
+      <c r="B173" s="25">
+        <v>41745</v>
+      </c>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G173" s="118"/>
+      <c r="H173" s="36"/>
+      <c r="I173" s="36"/>
+      <c r="J173" s="36"/>
+      <c r="K173" s="36"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="109"/>
-      <c r="B174" s="24">
-        <v>41737</v>
-      </c>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="78">
-        <f t="shared" ref="F174:G174" si="106">SUM(E174:E181)</f>
-        <v>0</v>
-      </c>
-      <c r="G174" s="78">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="H174" s="35"/>
-      <c r="I174" s="35"/>
-      <c r="J174" s="35"/>
-      <c r="K174" s="35"/>
+      <c r="A174" s="121"/>
+      <c r="B174" s="25">
+        <v>41746</v>
+      </c>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G174" s="118"/>
+      <c r="H174" s="36"/>
+      <c r="I174" s="36"/>
+      <c r="J174" s="36"/>
+      <c r="K174" s="36"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="109"/>
-      <c r="B175" s="24">
-        <v>41738</v>
-      </c>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="78">
-        <f t="shared" ref="F175:G175" si="107">SUM(E175:E182)</f>
-        <v>0</v>
-      </c>
-      <c r="G175" s="78">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="H175" s="35"/>
-      <c r="I175" s="35"/>
-      <c r="J175" s="35"/>
-      <c r="K175" s="35"/>
+      <c r="A175" s="121"/>
+      <c r="B175" s="25">
+        <v>41747</v>
+      </c>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G175" s="118"/>
+      <c r="H175" s="36"/>
+      <c r="I175" s="36"/>
+      <c r="J175" s="36"/>
+      <c r="K175" s="36"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="109"/>
-      <c r="B176" s="24">
-        <v>41739</v>
-      </c>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="78">
-        <f t="shared" ref="F176:G176" si="108">SUM(E176:E183)</f>
-        <v>0</v>
-      </c>
-      <c r="G176" s="78">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="H176" s="35"/>
-      <c r="I176" s="35"/>
-      <c r="J176" s="35"/>
-      <c r="K176" s="35"/>
+      <c r="A176" s="122"/>
+      <c r="B176" s="25">
+        <v>41748</v>
+      </c>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G176" s="119"/>
+      <c r="H176" s="36"/>
+      <c r="I176" s="36"/>
+      <c r="J176" s="36"/>
+      <c r="K176" s="36"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="110"/>
+      <c r="A177" s="123">
+        <v>25</v>
+      </c>
       <c r="B177" s="24">
-        <v>41740</v>
+        <v>41750</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
-      <c r="F177" s="78">
-        <f t="shared" ref="F177:G177" si="109">SUM(E177:E184)</f>
-        <v>0</v>
-      </c>
-      <c r="G177" s="78">
-        <f t="shared" si="109"/>
-        <v>0</v>
+      <c r="F177" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G177" s="117">
+        <v>35</v>
       </c>
       <c r="H177" s="35"/>
       <c r="I177" s="35"/>
@@ -5956,115 +5928,111 @@
       <c r="K177" s="35"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="111">
-        <v>24</v>
-      </c>
-      <c r="B178" s="25">
-        <v>41741</v>
-      </c>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="6"/>
-      <c r="F178" s="78">
-        <f t="shared" ref="F178:G178" si="110">SUM(E178:E185)</f>
-        <v>0</v>
-      </c>
-      <c r="G178" s="78">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="H178" s="36"/>
-      <c r="I178" s="36"/>
-      <c r="J178" s="36"/>
-      <c r="K178" s="36"/>
+      <c r="A178" s="124"/>
+      <c r="B178" s="24">
+        <v>41751</v>
+      </c>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G178" s="118"/>
+      <c r="H178" s="35"/>
+      <c r="I178" s="35"/>
+      <c r="J178" s="35"/>
+      <c r="K178" s="35"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="112"/>
-      <c r="B179" s="25">
-        <v>41742</v>
-      </c>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
-      <c r="F179" s="78"/>
-      <c r="G179" s="78"/>
-      <c r="H179" s="36"/>
-      <c r="I179" s="36"/>
-      <c r="J179" s="36"/>
-      <c r="K179" s="36"/>
+      <c r="A179" s="124"/>
+      <c r="B179" s="24">
+        <v>41752</v>
+      </c>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G179" s="118"/>
+      <c r="H179" s="35"/>
+      <c r="I179" s="35"/>
+      <c r="J179" s="35"/>
+      <c r="K179" s="35"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="112"/>
-      <c r="B180" s="25">
-        <v>41743</v>
-      </c>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="78"/>
-      <c r="G180" s="78"/>
-      <c r="H180" s="36"/>
-      <c r="I180" s="36"/>
-      <c r="J180" s="36"/>
-      <c r="K180" s="36"/>
+      <c r="A180" s="124"/>
+      <c r="B180" s="24">
+        <v>41753</v>
+      </c>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G180" s="118"/>
+      <c r="H180" s="35"/>
+      <c r="I180" s="35"/>
+      <c r="J180" s="35"/>
+      <c r="K180" s="35"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="112"/>
-      <c r="B181" s="25">
-        <v>41744</v>
-      </c>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
-      <c r="F181" s="78">
-        <f t="shared" ref="F181:G181" si="111">SUM(E181:E188)</f>
-        <v>0</v>
-      </c>
-      <c r="G181" s="78">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="H181" s="36"/>
-      <c r="I181" s="36"/>
-      <c r="J181" s="36"/>
-      <c r="K181" s="36"/>
+      <c r="A181" s="124"/>
+      <c r="B181" s="24">
+        <v>41754</v>
+      </c>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="107">
+        <f t="shared" ref="F181:F212" si="3">SUM(E181:E185)</f>
+        <v>0</v>
+      </c>
+      <c r="G181" s="118"/>
+      <c r="H181" s="35"/>
+      <c r="I181" s="35"/>
+      <c r="J181" s="35"/>
+      <c r="K181" s="35"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="112"/>
-      <c r="B182" s="25">
-        <v>41745</v>
-      </c>
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
-      <c r="F182" s="78">
-        <f t="shared" ref="F182:G182" si="112">SUM(E182:E189)</f>
-        <v>0</v>
-      </c>
-      <c r="G182" s="78">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="H182" s="36"/>
-      <c r="I182" s="36"/>
-      <c r="J182" s="36"/>
-      <c r="K182" s="36"/>
+      <c r="A182" s="125"/>
+      <c r="B182" s="24">
+        <v>41755</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G182" s="119"/>
+      <c r="H182" s="35"/>
+      <c r="I182" s="35"/>
+      <c r="J182" s="35"/>
+      <c r="K182" s="35"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="112"/>
+      <c r="A183" s="120">
+        <v>26</v>
+      </c>
       <c r="B183" s="25">
-        <v>41746</v>
+        <v>41757</v>
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
-      <c r="F183" s="78">
-        <f t="shared" ref="F183:G183" si="113">SUM(E183:E190)</f>
-        <v>0</v>
-      </c>
-      <c r="G183" s="78">
-        <f t="shared" si="113"/>
-        <v>0</v>
+      <c r="F183" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G183" s="117">
+        <v>35</v>
       </c>
       <c r="H183" s="36"/>
       <c r="I183" s="36"/>
@@ -6072,115 +6040,111 @@
       <c r="K183" s="36"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="113"/>
+      <c r="A184" s="121"/>
       <c r="B184" s="25">
-        <v>41747</v>
+        <v>41758</v>
       </c>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
-      <c r="F184" s="78">
-        <f t="shared" ref="F184:G184" si="114">SUM(E184:E191)</f>
-        <v>0</v>
-      </c>
-      <c r="G184" s="78">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
+      <c r="F184" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G184" s="118"/>
       <c r="H184" s="36"/>
       <c r="I184" s="36"/>
       <c r="J184" s="36"/>
       <c r="K184" s="36"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="108">
-        <v>25</v>
-      </c>
-      <c r="B185" s="24">
-        <v>41748</v>
-      </c>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="78">
-        <f t="shared" ref="F185:G185" si="115">SUM(E185:E192)</f>
-        <v>0</v>
-      </c>
-      <c r="G185" s="78">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="H185" s="35"/>
-      <c r="I185" s="35"/>
-      <c r="J185" s="35"/>
-      <c r="K185" s="35"/>
+      <c r="A185" s="121"/>
+      <c r="B185" s="25">
+        <v>41759</v>
+      </c>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G185" s="118"/>
+      <c r="H185" s="36"/>
+      <c r="I185" s="36"/>
+      <c r="J185" s="36"/>
+      <c r="K185" s="36"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="109"/>
-      <c r="B186" s="24">
-        <v>41749</v>
-      </c>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="78"/>
-      <c r="G186" s="78"/>
-      <c r="H186" s="35"/>
-      <c r="I186" s="35"/>
-      <c r="J186" s="35"/>
-      <c r="K186" s="35"/>
+      <c r="A186" s="121"/>
+      <c r="B186" s="25">
+        <v>41760</v>
+      </c>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G186" s="118"/>
+      <c r="H186" s="36"/>
+      <c r="I186" s="36"/>
+      <c r="J186" s="36"/>
+      <c r="K186" s="36"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="109"/>
-      <c r="B187" s="24">
-        <v>41750</v>
-      </c>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="78"/>
-      <c r="G187" s="78"/>
-      <c r="H187" s="35"/>
-      <c r="I187" s="35"/>
-      <c r="J187" s="35"/>
-      <c r="K187" s="35"/>
+      <c r="A187" s="121"/>
+      <c r="B187" s="25">
+        <v>41761</v>
+      </c>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G187" s="118"/>
+      <c r="H187" s="36"/>
+      <c r="I187" s="36"/>
+      <c r="J187" s="36"/>
+      <c r="K187" s="36"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="109"/>
-      <c r="B188" s="24">
-        <v>41751</v>
-      </c>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
-      <c r="F188" s="78">
-        <f t="shared" ref="F188:G188" si="116">SUM(E188:E195)</f>
-        <v>0</v>
-      </c>
-      <c r="G188" s="78">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="H188" s="35"/>
-      <c r="I188" s="35"/>
-      <c r="J188" s="35"/>
-      <c r="K188" s="35"/>
+      <c r="A188" s="122"/>
+      <c r="B188" s="25">
+        <v>41762</v>
+      </c>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G188" s="119"/>
+      <c r="H188" s="36"/>
+      <c r="I188" s="36"/>
+      <c r="J188" s="36"/>
+      <c r="K188" s="36"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="109"/>
+      <c r="A189" s="123">
+        <v>27</v>
+      </c>
       <c r="B189" s="24">
-        <v>41752</v>
+        <v>41764</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
-      <c r="F189" s="78">
-        <f t="shared" ref="F189:G189" si="117">SUM(E189:E196)</f>
-        <v>0</v>
-      </c>
-      <c r="G189" s="78">
-        <f t="shared" si="117"/>
-        <v>0</v>
+      <c r="F189" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G189" s="117">
+        <v>35</v>
       </c>
       <c r="H189" s="35"/>
       <c r="I189" s="35"/>
@@ -6188,115 +6152,111 @@
       <c r="K189" s="35"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="109"/>
+      <c r="A190" s="124"/>
       <c r="B190" s="24">
-        <v>41753</v>
+        <v>41765</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
-      <c r="F190" s="78">
-        <f t="shared" ref="F190:G190" si="118">SUM(E190:E197)</f>
-        <v>0</v>
-      </c>
-      <c r="G190" s="78">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
+      <c r="F190" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G190" s="118"/>
       <c r="H190" s="35"/>
       <c r="I190" s="35"/>
       <c r="J190" s="35"/>
       <c r="K190" s="35"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="110"/>
+      <c r="A191" s="124"/>
       <c r="B191" s="24">
-        <v>41754</v>
+        <v>41766</v>
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
-      <c r="F191" s="78">
-        <f t="shared" ref="F191:G191" si="119">SUM(E191:E198)</f>
-        <v>0</v>
-      </c>
-      <c r="G191" s="78">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
+      <c r="F191" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G191" s="118"/>
       <c r="H191" s="35"/>
       <c r="I191" s="35"/>
       <c r="J191" s="35"/>
       <c r="K191" s="35"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="111">
-        <v>26</v>
-      </c>
-      <c r="B192" s="25">
-        <v>41755</v>
-      </c>
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
-      <c r="E192" s="6"/>
-      <c r="F192" s="78">
-        <f t="shared" ref="F192:G192" si="120">SUM(E192:E199)</f>
-        <v>0</v>
-      </c>
-      <c r="G192" s="78">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="H192" s="36"/>
-      <c r="I192" s="36"/>
-      <c r="J192" s="36"/>
-      <c r="K192" s="36"/>
+      <c r="A192" s="124"/>
+      <c r="B192" s="24">
+        <v>41767</v>
+      </c>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G192" s="118"/>
+      <c r="H192" s="35"/>
+      <c r="I192" s="35"/>
+      <c r="J192" s="35"/>
+      <c r="K192" s="35"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="112"/>
-      <c r="B193" s="25">
-        <v>41756</v>
-      </c>
-      <c r="C193" s="6"/>
-      <c r="D193" s="6"/>
-      <c r="E193" s="6"/>
-      <c r="F193" s="78"/>
-      <c r="G193" s="78"/>
-      <c r="H193" s="36"/>
-      <c r="I193" s="36"/>
-      <c r="J193" s="36"/>
-      <c r="K193" s="36"/>
+      <c r="A193" s="124"/>
+      <c r="B193" s="24">
+        <v>41768</v>
+      </c>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G193" s="118"/>
+      <c r="H193" s="35"/>
+      <c r="I193" s="35"/>
+      <c r="J193" s="35"/>
+      <c r="K193" s="35"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="112"/>
-      <c r="B194" s="25">
-        <v>41757</v>
-      </c>
-      <c r="C194" s="6"/>
-      <c r="D194" s="6"/>
-      <c r="E194" s="6"/>
-      <c r="F194" s="78"/>
-      <c r="G194" s="78"/>
-      <c r="H194" s="36"/>
-      <c r="I194" s="36"/>
-      <c r="J194" s="36"/>
-      <c r="K194" s="36"/>
+      <c r="A194" s="125"/>
+      <c r="B194" s="24">
+        <v>41769</v>
+      </c>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G194" s="119"/>
+      <c r="H194" s="35"/>
+      <c r="I194" s="35"/>
+      <c r="J194" s="35"/>
+      <c r="K194" s="35"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="112"/>
+      <c r="A195" s="120">
+        <v>28</v>
+      </c>
       <c r="B195" s="25">
-        <v>41758</v>
+        <v>41771</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
-      <c r="F195" s="78">
-        <f t="shared" ref="F195:G195" si="121">SUM(E195:E202)</f>
-        <v>0</v>
-      </c>
-      <c r="G195" s="78">
-        <f t="shared" si="121"/>
-        <v>0</v>
+      <c r="F195" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G195" s="117">
+        <v>35</v>
       </c>
       <c r="H195" s="36"/>
       <c r="I195" s="36"/>
@@ -6304,634 +6264,398 @@
       <c r="K195" s="36"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="112"/>
+      <c r="A196" s="121"/>
       <c r="B196" s="25">
-        <v>41759</v>
+        <v>41772</v>
       </c>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
-      <c r="F196" s="78">
-        <f t="shared" ref="F196:G196" si="122">SUM(E196:E203)</f>
-        <v>0</v>
-      </c>
-      <c r="G196" s="78">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
+      <c r="F196" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G196" s="118"/>
       <c r="H196" s="36"/>
       <c r="I196" s="36"/>
       <c r="J196" s="36"/>
       <c r="K196" s="36"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="112"/>
+      <c r="A197" s="121"/>
       <c r="B197" s="25">
-        <v>41760</v>
+        <v>41773</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
-      <c r="F197" s="78">
-        <f t="shared" ref="F197:G197" si="123">SUM(E197:E204)</f>
-        <v>0</v>
-      </c>
-      <c r="G197" s="78">
-        <f t="shared" si="123"/>
-        <v>0</v>
-      </c>
+      <c r="F197" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G197" s="118"/>
       <c r="H197" s="36"/>
       <c r="I197" s="36"/>
       <c r="J197" s="36"/>
       <c r="K197" s="36"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="113"/>
+      <c r="A198" s="121"/>
       <c r="B198" s="25">
-        <v>41761</v>
+        <v>41774</v>
       </c>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
-      <c r="F198" s="78">
-        <f t="shared" ref="F198:G198" si="124">SUM(E198:E205)</f>
-        <v>0</v>
-      </c>
-      <c r="G198" s="78">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
+      <c r="F198" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G198" s="118"/>
       <c r="H198" s="36"/>
       <c r="I198" s="36"/>
       <c r="J198" s="36"/>
       <c r="K198" s="36"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="108">
-        <v>27</v>
-      </c>
-      <c r="B199" s="24">
-        <v>41762</v>
-      </c>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="78">
-        <f t="shared" ref="F199:G199" si="125">SUM(E199:E206)</f>
-        <v>0</v>
-      </c>
-      <c r="G199" s="78">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="H199" s="35"/>
-      <c r="I199" s="35"/>
-      <c r="J199" s="35"/>
-      <c r="K199" s="35"/>
+      <c r="A199" s="121"/>
+      <c r="B199" s="25">
+        <v>41775</v>
+      </c>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G199" s="118"/>
+      <c r="H199" s="36"/>
+      <c r="I199" s="36"/>
+      <c r="J199" s="36"/>
+      <c r="K199" s="36"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="109"/>
-      <c r="B200" s="24">
-        <v>41763</v>
-      </c>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
-      <c r="F200" s="78"/>
-      <c r="G200" s="78"/>
-      <c r="H200" s="35"/>
-      <c r="I200" s="35"/>
-      <c r="J200" s="35"/>
-      <c r="K200" s="35"/>
+      <c r="A200" s="122"/>
+      <c r="B200" s="25">
+        <v>41776</v>
+      </c>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G200" s="119"/>
+      <c r="H200" s="36"/>
+      <c r="I200" s="36"/>
+      <c r="J200" s="36"/>
+      <c r="K200" s="36"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="109"/>
+      <c r="A201" s="123">
+        <v>29</v>
+      </c>
       <c r="B201" s="24">
-        <v>41764</v>
+        <v>41778</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
-      <c r="F201" s="78"/>
-      <c r="G201" s="78"/>
+      <c r="F201" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G201" s="117">
+        <v>35</v>
+      </c>
       <c r="H201" s="35"/>
       <c r="I201" s="35"/>
       <c r="J201" s="35"/>
       <c r="K201" s="35"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="109"/>
+      <c r="A202" s="124"/>
       <c r="B202" s="24">
-        <v>41765</v>
+        <v>41779</v>
       </c>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
-      <c r="F202" s="78">
-        <f t="shared" ref="F202:G202" si="126">SUM(E202:E209)</f>
-        <v>0</v>
-      </c>
-      <c r="G202" s="78">
-        <f t="shared" si="126"/>
-        <v>0</v>
-      </c>
+      <c r="F202" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G202" s="118"/>
       <c r="H202" s="35"/>
       <c r="I202" s="35"/>
       <c r="J202" s="35"/>
       <c r="K202" s="35"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="109"/>
+      <c r="A203" s="124"/>
       <c r="B203" s="24">
-        <v>41766</v>
+        <v>41780</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
-      <c r="F203" s="78">
-        <f t="shared" ref="F203:G203" si="127">SUM(E203:E210)</f>
-        <v>0</v>
-      </c>
-      <c r="G203" s="78">
-        <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
+      <c r="F203" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G203" s="118"/>
       <c r="H203" s="35"/>
       <c r="I203" s="35"/>
       <c r="J203" s="35"/>
       <c r="K203" s="35"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="109"/>
+      <c r="A204" s="124"/>
       <c r="B204" s="24">
-        <v>41767</v>
+        <v>41781</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
-      <c r="F204" s="78">
-        <f t="shared" ref="F204:G204" si="128">SUM(E204:E211)</f>
-        <v>0</v>
-      </c>
-      <c r="G204" s="78">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
+      <c r="F204" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G204" s="118"/>
       <c r="H204" s="35"/>
       <c r="I204" s="35"/>
       <c r="J204" s="35"/>
       <c r="K204" s="35"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="110"/>
+      <c r="A205" s="124"/>
       <c r="B205" s="24">
-        <v>41768</v>
+        <v>41782</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
-      <c r="F205" s="78">
-        <f t="shared" ref="F205:G205" si="129">SUM(E205:E212)</f>
-        <v>0</v>
-      </c>
-      <c r="G205" s="78">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
+      <c r="F205" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G205" s="118"/>
       <c r="H205" s="35"/>
       <c r="I205" s="35"/>
       <c r="J205" s="35"/>
       <c r="K205" s="35"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="111">
-        <v>28</v>
-      </c>
-      <c r="B206" s="25">
-        <v>41769</v>
-      </c>
-      <c r="C206" s="6"/>
-      <c r="D206" s="6"/>
-      <c r="E206" s="6"/>
-      <c r="F206" s="78">
-        <f>SUM(E206:E213)</f>
-        <v>0</v>
-      </c>
-      <c r="G206" s="78">
-        <f>SUM(F206:F213)</f>
-        <v>0</v>
-      </c>
-      <c r="H206" s="36"/>
-      <c r="I206" s="36"/>
-      <c r="J206" s="36"/>
-      <c r="K206" s="36"/>
+      <c r="A206" s="125"/>
+      <c r="B206" s="24">
+        <v>41783</v>
+      </c>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G206" s="119"/>
+      <c r="H206" s="35"/>
+      <c r="I206" s="35"/>
+      <c r="J206" s="35"/>
+      <c r="K206" s="35"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="112"/>
+      <c r="A207" s="191">
+        <v>30</v>
+      </c>
       <c r="B207" s="25">
-        <v>41770</v>
-      </c>
-      <c r="C207" s="6"/>
-      <c r="D207" s="6"/>
-      <c r="E207" s="6"/>
-      <c r="F207" s="78"/>
-      <c r="G207" s="78"/>
-      <c r="H207" s="36"/>
-      <c r="I207" s="36"/>
-      <c r="J207" s="36"/>
-      <c r="K207" s="36"/>
+        <v>41785</v>
+      </c>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G207" s="117">
+        <v>35</v>
+      </c>
+      <c r="H207" s="37"/>
+      <c r="I207" s="37"/>
+      <c r="J207" s="37"/>
+      <c r="K207" s="37"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="112"/>
+      <c r="A208" s="192"/>
       <c r="B208" s="25">
-        <v>41771</v>
-      </c>
-      <c r="C208" s="6"/>
-      <c r="D208" s="6"/>
-      <c r="E208" s="6"/>
-      <c r="F208" s="78"/>
-      <c r="G208" s="78"/>
-      <c r="H208" s="36"/>
-      <c r="I208" s="36"/>
-      <c r="J208" s="36"/>
-      <c r="K208" s="36"/>
+        <v>41786</v>
+      </c>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="107">
+        <f>SUM(E208:E211)</f>
+        <v>0</v>
+      </c>
+      <c r="G208" s="118"/>
+      <c r="H208" s="37"/>
+      <c r="I208" s="37"/>
+      <c r="J208" s="37"/>
+      <c r="K208" s="37"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="112"/>
+      <c r="A209" s="192"/>
       <c r="B209" s="25">
-        <v>41772</v>
-      </c>
-      <c r="C209" s="6"/>
-      <c r="D209" s="6"/>
-      <c r="E209" s="6"/>
-      <c r="F209" s="78">
-        <f t="shared" ref="F209:G212" si="130">SUM(E209:E216)</f>
-        <v>0</v>
-      </c>
-      <c r="G209" s="78">
-        <f t="shared" si="130"/>
-        <v>0</v>
-      </c>
-      <c r="H209" s="36"/>
-      <c r="I209" s="36"/>
-      <c r="J209" s="36"/>
-      <c r="K209" s="36"/>
+        <v>41787</v>
+      </c>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="107">
+        <f>SUM(E209:E212)</f>
+        <v>0</v>
+      </c>
+      <c r="G209" s="118"/>
+      <c r="H209" s="37"/>
+      <c r="I209" s="37"/>
+      <c r="J209" s="37"/>
+      <c r="K209" s="37"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="112"/>
+      <c r="A210" s="192"/>
       <c r="B210" s="25">
-        <v>41773</v>
-      </c>
-      <c r="C210" s="6"/>
-      <c r="D210" s="6"/>
-      <c r="E210" s="6"/>
-      <c r="F210" s="78">
-        <f t="shared" si="130"/>
-        <v>0</v>
-      </c>
-      <c r="G210" s="78">
-        <f t="shared" si="130"/>
-        <v>0</v>
-      </c>
-      <c r="H210" s="36"/>
-      <c r="I210" s="36"/>
-      <c r="J210" s="36"/>
-      <c r="K210" s="36"/>
+        <v>41788</v>
+      </c>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="107">
+        <f>SUM(E210:E213)</f>
+        <v>0</v>
+      </c>
+      <c r="G210" s="118"/>
+      <c r="H210" s="37"/>
+      <c r="I210" s="37"/>
+      <c r="J210" s="37"/>
+      <c r="K210" s="37"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="112"/>
+      <c r="A211" s="192"/>
       <c r="B211" s="25">
-        <v>41774</v>
-      </c>
-      <c r="C211" s="6"/>
-      <c r="D211" s="6"/>
-      <c r="E211" s="6"/>
-      <c r="F211" s="78">
-        <f t="shared" si="130"/>
-        <v>0</v>
-      </c>
-      <c r="G211" s="78">
-        <f t="shared" si="130"/>
-        <v>0</v>
-      </c>
-      <c r="H211" s="36"/>
-      <c r="I211" s="36"/>
-      <c r="J211" s="36"/>
-      <c r="K211" s="36"/>
+        <v>41789</v>
+      </c>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="107">
+        <f>SUM(E211:E214)</f>
+        <v>0</v>
+      </c>
+      <c r="G211" s="118"/>
+      <c r="H211" s="37"/>
+      <c r="I211" s="37"/>
+      <c r="J211" s="37"/>
+      <c r="K211" s="37"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="113"/>
+      <c r="A212" s="193"/>
       <c r="B212" s="25">
-        <v>41775</v>
-      </c>
-      <c r="C212" s="6"/>
-      <c r="D212" s="6"/>
-      <c r="E212" s="6"/>
-      <c r="F212" s="78">
-        <f t="shared" si="130"/>
-        <v>0</v>
-      </c>
-      <c r="G212" s="78">
-        <f t="shared" si="130"/>
-        <v>0</v>
-      </c>
-      <c r="H212" s="36"/>
-      <c r="I212" s="36"/>
-      <c r="J212" s="36"/>
-      <c r="K212" s="36"/>
+        <v>41790</v>
+      </c>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G212" s="119"/>
+      <c r="H212" s="37"/>
+      <c r="I212" s="37"/>
+      <c r="J212" s="37"/>
+      <c r="K212" s="37"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="108">
-        <v>29</v>
-      </c>
-      <c r="B213" s="24">
-        <v>41776</v>
-      </c>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
-      <c r="F213" s="78">
-        <f t="shared" ref="F213:G213" si="131">SUM(E213:E220)</f>
-        <v>0</v>
-      </c>
-      <c r="G213" s="78">
-        <f t="shared" si="131"/>
-        <v>0</v>
-      </c>
-      <c r="H213" s="35"/>
-      <c r="I213" s="35"/>
-      <c r="J213" s="35"/>
-      <c r="K213" s="35"/>
+      <c r="A213" s="106"/>
+      <c r="B213" s="110"/>
+      <c r="C213" s="111"/>
+      <c r="D213" s="111"/>
+      <c r="E213" s="111"/>
+      <c r="F213" s="111"/>
+      <c r="G213" s="112"/>
+      <c r="H213" s="113"/>
+      <c r="I213" s="113"/>
+      <c r="J213" s="113"/>
+      <c r="K213" s="113"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="109"/>
-      <c r="B214" s="24">
-        <v>41777</v>
-      </c>
-      <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
-      <c r="E214" s="5"/>
-      <c r="F214" s="78"/>
-      <c r="G214" s="78"/>
-      <c r="H214" s="35"/>
-      <c r="I214" s="35"/>
-      <c r="J214" s="35"/>
-      <c r="K214" s="35"/>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="109"/>
-      <c r="B215" s="24">
-        <v>41778</v>
-      </c>
-      <c r="C215" s="5"/>
-      <c r="D215" s="5"/>
-      <c r="E215" s="5"/>
-      <c r="F215" s="78"/>
-      <c r="G215" s="78"/>
-      <c r="H215" s="35"/>
-      <c r="I215" s="35"/>
-      <c r="J215" s="35"/>
-      <c r="K215" s="35"/>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="109"/>
-      <c r="B216" s="24">
-        <v>41779</v>
-      </c>
-      <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
-      <c r="F216" s="78">
-        <f t="shared" ref="F216:G216" si="132">SUM(E216:E223)</f>
-        <v>0</v>
-      </c>
-      <c r="G216" s="78">
-        <f t="shared" si="132"/>
-        <v>0</v>
-      </c>
-      <c r="H216" s="35"/>
-      <c r="I216" s="35"/>
-      <c r="J216" s="35"/>
-      <c r="K216" s="35"/>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="109"/>
-      <c r="B217" s="24">
-        <v>41780</v>
-      </c>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
-      <c r="F217" s="78">
-        <f t="shared" ref="F217:G217" si="133">SUM(E217:E224)</f>
-        <v>0</v>
-      </c>
-      <c r="G217" s="78">
-        <f t="shared" si="133"/>
-        <v>0</v>
-      </c>
-      <c r="H217" s="35"/>
-      <c r="I217" s="35"/>
-      <c r="J217" s="35"/>
-      <c r="K217" s="35"/>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="109"/>
-      <c r="B218" s="24">
-        <v>41781</v>
-      </c>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-      <c r="F218" s="78">
-        <f t="shared" ref="F218:G218" si="134">SUM(E218:E225)</f>
-        <v>0</v>
-      </c>
-      <c r="G218" s="78">
-        <f t="shared" si="134"/>
-        <v>0</v>
-      </c>
-      <c r="H218" s="35"/>
-      <c r="I218" s="35"/>
-      <c r="J218" s="35"/>
-      <c r="K218" s="35"/>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="110"/>
-      <c r="B219" s="24">
-        <v>41782</v>
-      </c>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-      <c r="F219" s="78">
-        <f t="shared" ref="F219:G219" si="135">SUM(E219:E226)</f>
-        <v>0</v>
-      </c>
-      <c r="G219" s="78">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="H219" s="35"/>
-      <c r="I219" s="35"/>
-      <c r="J219" s="35"/>
-      <c r="K219" s="35"/>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="114">
-        <v>30</v>
-      </c>
-      <c r="B220" s="25">
-        <v>41783</v>
-      </c>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="78">
-        <f t="shared" ref="F220:G220" si="136">SUM(E220:E227)</f>
-        <v>0</v>
-      </c>
-      <c r="G220" s="78">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="H220" s="37"/>
-      <c r="I220" s="37"/>
-      <c r="J220" s="37"/>
-      <c r="K220" s="37"/>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="115"/>
-      <c r="B221" s="25">
-        <v>41784</v>
-      </c>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="78"/>
-      <c r="G221" s="78"/>
-      <c r="H221" s="37"/>
-      <c r="I221" s="37"/>
-      <c r="J221" s="37"/>
-      <c r="K221" s="37"/>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="115"/>
-      <c r="B222" s="25">
-        <v>41785</v>
-      </c>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="78"/>
-      <c r="G222" s="78"/>
-      <c r="H222" s="37"/>
-      <c r="I222" s="37"/>
-      <c r="J222" s="37"/>
-      <c r="K222" s="37"/>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="115"/>
-      <c r="B223" s="25">
-        <v>41786</v>
-      </c>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="78">
-        <f t="shared" ref="F223:G223" si="137">SUM(E223:E228)</f>
-        <v>0</v>
-      </c>
-      <c r="G223" s="78">
-        <f t="shared" si="137"/>
-        <v>0</v>
-      </c>
-      <c r="H223" s="37"/>
-      <c r="I223" s="37"/>
-      <c r="J223" s="37"/>
-      <c r="K223" s="37"/>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="115"/>
-      <c r="B224" s="25">
-        <v>41787</v>
-      </c>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="78">
-        <f t="shared" ref="F224:G224" si="138">SUM(E224:E229)</f>
-        <v>0</v>
-      </c>
-      <c r="G224" s="78">
-        <f t="shared" si="138"/>
-        <v>0</v>
-      </c>
-      <c r="H224" s="37"/>
-      <c r="I224" s="37"/>
-      <c r="J224" s="37"/>
-      <c r="K224" s="37"/>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="115"/>
-      <c r="B225" s="25">
-        <v>41788</v>
-      </c>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="78">
-        <f t="shared" ref="F225:G225" si="139">SUM(E225:E230)</f>
-        <v>0</v>
-      </c>
-      <c r="G225" s="78">
-        <f t="shared" si="139"/>
-        <v>0</v>
-      </c>
-      <c r="H225" s="37"/>
-      <c r="I225" s="37"/>
-      <c r="J225" s="37"/>
-      <c r="K225" s="37"/>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="116"/>
-      <c r="B226" s="25">
-        <v>41789</v>
-      </c>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="78">
-        <f t="shared" ref="F226:G226" si="140">SUM(E226:E231)</f>
-        <v>0</v>
-      </c>
-      <c r="G226" s="78">
-        <f t="shared" si="140"/>
-        <v>0</v>
-      </c>
-      <c r="H226" s="37"/>
-      <c r="I226" s="37"/>
-      <c r="J226" s="37"/>
-      <c r="K226" s="37"/>
+      <c r="A214" s="106"/>
+      <c r="B214" s="110"/>
+      <c r="C214" s="111"/>
+      <c r="D214" s="111"/>
+      <c r="E214" s="111"/>
+      <c r="F214" s="111"/>
+      <c r="G214" s="112"/>
+      <c r="H214" s="113"/>
+      <c r="I214" s="113"/>
+      <c r="J214" s="113"/>
+      <c r="K214" s="113"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="B56:B58"/>
+  <dataConsolidate/>
+  <mergeCells count="103">
+    <mergeCell ref="A135:A140"/>
+    <mergeCell ref="A129:A134"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="A147:A152"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A207:A212"/>
+    <mergeCell ref="A153:A158"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="A165:A170"/>
+    <mergeCell ref="A171:A176"/>
+    <mergeCell ref="A177:A182"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="A189:A194"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="B47:B48"/>
-    <mergeCell ref="F47:F48"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="F35:F36"/>
     <mergeCell ref="B37:B39"/>
-    <mergeCell ref="F37:F39"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="F45:F46"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B40:B41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="H2:O4"/>
     <mergeCell ref="L6:O6"/>
@@ -6943,49 +6667,48 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="A101:A107"/>
-    <mergeCell ref="A108:A114"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="A94:A100"/>
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="A80:A86"/>
     <mergeCell ref="A17:A29"/>
-    <mergeCell ref="A157:A163"/>
-    <mergeCell ref="A199:A205"/>
-    <mergeCell ref="A206:A212"/>
-    <mergeCell ref="A213:A219"/>
-    <mergeCell ref="A220:A226"/>
-    <mergeCell ref="A164:A170"/>
-    <mergeCell ref="A171:A177"/>
-    <mergeCell ref="A178:A184"/>
-    <mergeCell ref="A185:A191"/>
-    <mergeCell ref="A192:A198"/>
-    <mergeCell ref="A115:A121"/>
-    <mergeCell ref="A122:A128"/>
-    <mergeCell ref="A129:A135"/>
-    <mergeCell ref="A136:A142"/>
-    <mergeCell ref="A150:A156"/>
-    <mergeCell ref="A143:A149"/>
+    <mergeCell ref="G141:G146"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="G207:G212"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="G67:G82"/>
+    <mergeCell ref="A67:A82"/>
+    <mergeCell ref="G83:G88"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="G89:G94"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="G95:G100"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="G101:G106"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="G117:G122"/>
+    <mergeCell ref="A117:A122"/>
+    <mergeCell ref="G123:G128"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="G195:G200"/>
+    <mergeCell ref="A195:A200"/>
+    <mergeCell ref="G201:G206"/>
+    <mergeCell ref="A201:A206"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="G177:G182"/>
+    <mergeCell ref="G183:G188"/>
+    <mergeCell ref="G189:G194"/>
+    <mergeCell ref="G147:G152"/>
+    <mergeCell ref="G153:G158"/>
+    <mergeCell ref="G159:G164"/>
+    <mergeCell ref="G165:G170"/>
+    <mergeCell ref="G171:G176"/>
+    <mergeCell ref="G135:G140"/>
+    <mergeCell ref="G129:G134"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -6996,7 +6719,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="37" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
+          <x14:cfRule type="iconSet" priority="57" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7015,7 +6738,7 @@
           <xm:sqref>N16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="34" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
+          <x14:cfRule type="iconSet" priority="54" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7034,7 +6757,7 @@
           <xm:sqref>N17:N20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="33" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
+          <x14:cfRule type="iconSet" priority="53" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7053,7 +6776,7 @@
           <xm:sqref>N21:N22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="31" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
+          <x14:cfRule type="iconSet" priority="51" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7072,7 +6795,7 @@
           <xm:sqref>N26:N28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
+          <x14:cfRule type="iconSet" priority="50" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7091,7 +6814,7 @@
           <xm:sqref>N29:N33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
+          <x14:cfRule type="iconSet" priority="49" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7110,7 +6833,7 @@
           <xm:sqref>N34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
+          <x14:cfRule type="iconSet" priority="48" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7129,7 +6852,7 @@
           <xm:sqref>N35:N36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
+          <x14:cfRule type="iconSet" priority="47" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7148,7 +6871,7 @@
           <xm:sqref>N37:N39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
+          <x14:cfRule type="iconSet" priority="45" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7167,7 +6890,7 @@
           <xm:sqref>N41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="43" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7186,7 +6909,7 @@
           <xm:sqref>N44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="42" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7205,7 +6928,7 @@
           <xm:sqref>N45:N46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="41" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7224,7 +6947,7 @@
           <xm:sqref>N47:N48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="40" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7243,7 +6966,7 @@
           <xm:sqref>N49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="39" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7262,7 +6985,7 @@
           <xm:sqref>N50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="38" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7281,7 +7004,7 @@
           <xm:sqref>N51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="37" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7300,7 +7023,7 @@
           <xm:sqref>N52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="36" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7319,7 +7042,7 @@
           <xm:sqref>N53:N55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="34" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7335,10 +7058,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>N59:N61</xm:sqref>
+          <xm:sqref>N59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="33" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7354,10 +7077,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>N62</xm:sqref>
+          <xm:sqref>N60:N62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="32" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7376,7 +7099,7 @@
           <xm:sqref>N63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
+          <x14:cfRule type="iconSet" priority="31" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7395,7 +7118,7 @@
           <xm:sqref>N7:N8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="41" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
+          <x14:cfRule type="iconSet" priority="61" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7414,7 +7137,7 @@
           <xm:sqref>N14:N15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{13950B4A-31F8-40DD-922D-DC2CA60F3002}">
+          <x14:cfRule type="iconSet" priority="21" id="{13950B4A-31F8-40DD-922D-DC2CA60F3002}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7433,7 +7156,7 @@
           <xm:sqref>F10:G10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="42" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
+          <x14:cfRule type="iconSet" priority="62" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7452,7 +7175,7 @@
           <xm:sqref>N12:N13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="44" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
+          <x14:cfRule type="iconSet" priority="64" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7471,7 +7194,7 @@
           <xm:sqref>N23:N25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="47" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
+          <x14:cfRule type="iconSet" priority="67" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7490,26 +7213,7 @@
           <xm:sqref>N40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="49" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>5</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>24</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F45:G45 F22:G22 F7:G8 F12:G12 F14:G14 F16:G17 F20:G20 F27:G27 F30:G30 F34:G35 F37:G38 F42:G43 F40:G40 F47:G47 F49:G53 F56:G56 F59:G226</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="50" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
+          <x14:cfRule type="iconSet" priority="70" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7528,7 +7232,406 @@
           <xm:sqref>N42:N43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="51" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="20" id="{D50A7088-065F-470A-AAA9-8926AA4F7C88}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>35</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G95</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="19" id="{83799E8E-AE26-41DF-98BB-7B9572015E61}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>35</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G101</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="18" id="{FA2A3A95-FA8D-4F56-854C-9054E142B63E}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G83</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="17" id="{8EC835F6-72FB-4F43-B2F2-C1FA27FF4C02}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G67:G69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="16" id="{081EF95A-1B29-49AB-A905-E6AD5FBCE2A8}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>35</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G117</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="15" id="{20219CE6-01A6-4CEE-B14D-554BF0D9F2D1}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>35</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G123</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="14" id="{2AF0936D-CF99-4524-B73B-0988BA7EE1D3}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>35</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G129</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{FA71D3A3-FDB2-4B5A-8934-308ED9DD36C7}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>35</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G135</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{E3934660-007D-4AA3-AE76-3A2F21DD9340}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>35</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G141</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{FFB586F1-ED42-4656-8556-6F2D7F6D9D9C}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>35</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G147</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{DE789BF7-4075-4A28-B372-1F995688EC22}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>35</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G153</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="9" id="{6102CDE8-C104-4F38-A02E-97986E5A3D2A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>35</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G159</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="8" id="{BBFDEC18-F962-46B9-A09A-36D07BEBC015}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>35</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G165</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="7" id="{5AC105A1-D473-4304-9B80-BFDA678421CF}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>35</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G171</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{1757CEBF-5652-4367-ADB0-36DC819DF1FA}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>35</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G177</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="5" id="{83FCD0DA-2CEC-4778-9EA6-AFA9D59FE8E1}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>35</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G183</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{A116D67A-F01D-41FD-B8A6-8EAC3E0A805A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>35</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G189</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{183F4820-F7F6-44CE-8972-54D40FD98D25}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>35</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G195</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{246531BF-D004-46E5-AA65-14D381EE7296}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>35</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G201</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{451D81C9-15B6-4DEB-B618-2E756277D7B1}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>35</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G207</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="71" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F107:G116 F59:G60 F45:G45 F22:G22 F7:G8 F12:G12 F14:G14 F16:G17 F20:G20 F27:G27 F30:G30 F34:G35 F37:G38 F42:G43 F40:G40 F47:G47 F49:G53 F56:G56 G89 F66:F67 F117:F214 F63:G66 G61:G62 F70 F73:F74 F76 F79 F82:F106</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="72" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7554,7 +7657,7 @@
           <x14:formula1>
             <xm:f>'List main task'!$B$4:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>H9:H58</xm:sqref>
+          <xm:sqref>H9:H82</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
+++ b/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="124">
   <si>
     <t>Week</t>
   </si>
@@ -410,6 +410,11 @@
   </si>
   <si>
     <t>Update UAT</t>
+  </si>
+  <si>
+    <t>AS_RE_ArchitectureDriverSpecification_UC.docx
+AS_RE_ArchitectureDriverSpecification_Entity_25.12.2013_SendToCustomer.docx
+UC-QA Android app.docx</t>
   </si>
 </sst>
 </file>
@@ -732,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1032,11 +1037,227 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1047,228 +1268,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="18" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1664,20 +1679,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P214"/>
+  <dimension ref="A1:P217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomRight" activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="1" customWidth="1"/>
     <col min="6" max="7" width="7.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1691,85 +1707,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="142"/>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="144"/>
+      <c r="A1" s="149"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="151"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="170" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="165"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="172"/>
       <c r="G2" s="92"/>
-      <c r="H2" s="145" t="s">
+      <c r="H2" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="147"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="154"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="173" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="168"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="175"/>
       <c r="G3" s="93"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="150"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="157"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="169"/>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="171"/>
+      <c r="A4" s="176"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="178"/>
       <c r="G4" s="94"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="153"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="160"/>
     </row>
     <row r="5" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="178"/>
-      <c r="B5" s="179"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="180"/>
+      <c r="A5" s="185"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="187"/>
       <c r="F5" s="16"/>
       <c r="G5" s="108"/>
       <c r="I5" s="39" t="s">
@@ -1818,16 +1834,16 @@
       <c r="K6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="154"/>
-      <c r="M6" s="154"/>
-      <c r="N6" s="154"/>
-      <c r="O6" s="154"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="161"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="157">
+      <c r="A7" s="164">
         <v>1</v>
       </c>
-      <c r="B7" s="172">
+      <c r="B7" s="179">
         <v>41586</v>
       </c>
       <c r="C7" s="17">
@@ -1839,7 +1855,7 @@
       <c r="E7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="175">
+      <c r="F7" s="182">
         <f>SUM(E7:E9)</f>
         <v>2</v>
       </c>
@@ -1863,8 +1879,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="158"/>
-      <c r="B8" s="173"/>
+      <c r="A8" s="165"/>
+      <c r="B8" s="180"/>
       <c r="C8" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1874,7 +1890,7 @@
       <c r="E8" s="18">
         <v>0.5</v>
       </c>
-      <c r="F8" s="176"/>
+      <c r="F8" s="183"/>
       <c r="G8" s="96"/>
       <c r="H8" s="19" t="s">
         <v>20</v>
@@ -1888,8 +1904,8 @@
       <c r="O8" s="55"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="159"/>
-      <c r="B9" s="174"/>
+      <c r="A9" s="166"/>
+      <c r="B9" s="181"/>
       <c r="C9" s="17">
         <v>0.83333333333333337</v>
       </c>
@@ -1899,7 +1915,7 @@
       <c r="E9" s="18">
         <v>1.5</v>
       </c>
-      <c r="F9" s="177"/>
+      <c r="F9" s="184"/>
       <c r="G9" s="97"/>
       <c r="H9" s="41" t="s">
         <v>25</v>
@@ -1911,10 +1927,10 @@
       <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="160">
+      <c r="A10" s="167">
         <v>2</v>
       </c>
-      <c r="B10" s="155">
+      <c r="B10" s="162">
         <v>41589</v>
       </c>
       <c r="C10" s="46">
@@ -1926,7 +1942,7 @@
       <c r="E10" s="47">
         <v>1.5</v>
       </c>
-      <c r="F10" s="135">
+      <c r="F10" s="144">
         <f>SUM(E10:E11)</f>
         <v>3.5</v>
       </c>
@@ -1941,8 +1957,8 @@
       <c r="K10" s="48"/>
     </row>
     <row r="11" spans="1:16" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="161"/>
-      <c r="B11" s="156"/>
+      <c r="A11" s="168"/>
+      <c r="B11" s="163"/>
       <c r="C11" s="46">
         <v>0.875</v>
       </c>
@@ -1952,7 +1968,7 @@
       <c r="E11" s="47">
         <v>2</v>
       </c>
-      <c r="F11" s="136"/>
+      <c r="F11" s="145"/>
       <c r="G11" s="88"/>
       <c r="H11" s="56" t="s">
         <v>25</v>
@@ -1964,8 +1980,8 @@
       <c r="K11" s="48"/>
     </row>
     <row r="12" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="161"/>
-      <c r="B12" s="140">
+      <c r="A12" s="168"/>
+      <c r="B12" s="131">
         <v>41590</v>
       </c>
       <c r="C12" s="21">
@@ -1977,7 +1993,7 @@
       <c r="E12" s="22">
         <v>2.25</v>
       </c>
-      <c r="F12" s="133">
+      <c r="F12" s="125">
         <f>SUM(E12:E13)</f>
         <v>3.5</v>
       </c>
@@ -2004,8 +2020,8 @@
       <c r="P12" s="30"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="161"/>
-      <c r="B13" s="141"/>
+      <c r="A13" s="168"/>
+      <c r="B13" s="132"/>
       <c r="C13" s="21">
         <v>0.86458333333333337</v>
       </c>
@@ -2015,7 +2031,7 @@
       <c r="E13" s="22">
         <v>1.25</v>
       </c>
-      <c r="F13" s="134"/>
+      <c r="F13" s="126"/>
       <c r="G13" s="82"/>
       <c r="H13" s="56" t="s">
         <v>25</v>
@@ -2032,8 +2048,8 @@
       <c r="P13" s="30"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="161"/>
-      <c r="B14" s="140">
+      <c r="A14" s="168"/>
+      <c r="B14" s="131">
         <v>41592</v>
       </c>
       <c r="C14" s="23">
@@ -2045,7 +2061,7 @@
       <c r="E14" s="26">
         <v>1.5</v>
       </c>
-      <c r="F14" s="133">
+      <c r="F14" s="125">
         <f>SUM(E14:E15)</f>
         <v>2</v>
       </c>
@@ -2064,8 +2080,8 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="161"/>
-      <c r="B15" s="141"/>
+      <c r="A15" s="168"/>
+      <c r="B15" s="132"/>
       <c r="C15" s="23">
         <v>0.9375</v>
       </c>
@@ -2075,7 +2091,7 @@
       <c r="E15" s="26">
         <v>0.5</v>
       </c>
-      <c r="F15" s="134"/>
+      <c r="F15" s="126"/>
       <c r="G15" s="82"/>
       <c r="H15" s="56" t="s">
         <v>17</v>
@@ -2091,7 +2107,7 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="162"/>
+      <c r="A16" s="169"/>
       <c r="B16" s="40">
         <v>41593</v>
       </c>
@@ -2130,10 +2146,10 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="181">
+      <c r="A17" s="188">
         <v>3</v>
       </c>
-      <c r="B17" s="184">
+      <c r="B17" s="128">
         <v>41596</v>
       </c>
       <c r="C17" s="44">
@@ -2145,7 +2161,7 @@
       <c r="E17" s="42">
         <v>1</v>
       </c>
-      <c r="F17" s="133">
+      <c r="F17" s="125">
         <f>SUM(E17:E19)</f>
         <v>3.5</v>
       </c>
@@ -2171,8 +2187,8 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="181"/>
-      <c r="B18" s="186"/>
+      <c r="A18" s="188"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="44">
         <v>0.75</v>
       </c>
@@ -2182,7 +2198,7 @@
       <c r="E18" s="42">
         <v>1.5</v>
       </c>
-      <c r="F18" s="187"/>
+      <c r="F18" s="127"/>
       <c r="G18" s="83"/>
       <c r="H18" s="41" t="s">
         <v>18</v>
@@ -2200,8 +2216,8 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="181"/>
-      <c r="B19" s="185"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="130"/>
       <c r="C19" s="44">
         <v>0.89583333333333337</v>
       </c>
@@ -2211,7 +2227,7 @@
       <c r="E19" s="42">
         <v>1</v>
       </c>
-      <c r="F19" s="134"/>
+      <c r="F19" s="126"/>
       <c r="G19" s="82"/>
       <c r="H19" s="41" t="s">
         <v>25</v>
@@ -2227,8 +2243,8 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="181"/>
-      <c r="B20" s="184">
+      <c r="A20" s="188"/>
+      <c r="B20" s="128">
         <v>41597</v>
       </c>
       <c r="C20" s="44">
@@ -2240,7 +2256,7 @@
       <c r="E20" s="42">
         <v>1.5</v>
       </c>
-      <c r="F20" s="133">
+      <c r="F20" s="125">
         <f>SUM(E20:E21)</f>
         <v>3</v>
       </c>
@@ -2259,8 +2275,8 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="181"/>
-      <c r="B21" s="185"/>
+      <c r="A21" s="188"/>
+      <c r="B21" s="130"/>
       <c r="C21" s="44">
         <v>0.8125</v>
       </c>
@@ -2270,7 +2286,7 @@
       <c r="E21" s="42">
         <v>1.5</v>
       </c>
-      <c r="F21" s="134"/>
+      <c r="F21" s="126"/>
       <c r="G21" s="82"/>
       <c r="H21" s="41" t="s">
         <v>18</v>
@@ -2285,16 +2301,16 @@
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="10">
-        <f>SUM(E83:E87)</f>
-        <v>0</v>
+        <f>SUM(E84:E90)</f>
+        <v>1.25</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="181"/>
-      <c r="B22" s="184">
+      <c r="A22" s="188"/>
+      <c r="B22" s="128">
         <v>41599</v>
       </c>
       <c r="C22" s="44">
@@ -2306,7 +2322,7 @@
       <c r="E22" s="42">
         <v>3</v>
       </c>
-      <c r="F22" s="133">
+      <c r="F22" s="125">
         <f>SUM(E22:E26)</f>
         <v>7.9</v>
       </c>
@@ -2325,8 +2341,8 @@
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="181"/>
-      <c r="B23" s="186"/>
+      <c r="A23" s="188"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="44">
         <v>0.38194444444444442</v>
       </c>
@@ -2336,7 +2352,7 @@
       <c r="E23" s="42">
         <v>1</v>
       </c>
-      <c r="F23" s="187"/>
+      <c r="F23" s="127"/>
       <c r="G23" s="83"/>
       <c r="H23" s="61" t="s">
         <v>20</v>
@@ -2352,8 +2368,8 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="181"/>
-      <c r="B24" s="186"/>
+      <c r="A24" s="188"/>
+      <c r="B24" s="129"/>
       <c r="C24" s="44">
         <v>0.4236111111111111</v>
       </c>
@@ -2363,7 +2379,7 @@
       <c r="E24" s="42">
         <v>1.3</v>
       </c>
-      <c r="F24" s="187"/>
+      <c r="F24" s="127"/>
       <c r="G24" s="83"/>
       <c r="H24" s="41" t="s">
         <v>16</v>
@@ -2379,8 +2395,8 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="181"/>
-      <c r="B25" s="186"/>
+      <c r="A25" s="188"/>
+      <c r="B25" s="129"/>
       <c r="C25" s="44">
         <v>0.58333333333333337</v>
       </c>
@@ -2390,7 +2406,7 @@
       <c r="E25" s="42">
         <v>0.5</v>
       </c>
-      <c r="F25" s="187"/>
+      <c r="F25" s="127"/>
       <c r="G25" s="83"/>
       <c r="H25" s="41" t="s">
         <v>18</v>
@@ -2406,8 +2422,8 @@
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="181"/>
-      <c r="B26" s="185"/>
+      <c r="A26" s="188"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="65">
         <v>0.625</v>
       </c>
@@ -2417,7 +2433,7 @@
       <c r="E26" s="42">
         <v>2.1</v>
       </c>
-      <c r="F26" s="134"/>
+      <c r="F26" s="126"/>
       <c r="G26" s="82"/>
       <c r="H26" s="41" t="s">
         <v>16</v>
@@ -2432,7 +2448,7 @@
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="10">
-        <f>SUM(E95:E99)</f>
+        <f>SUM(E98:E102)</f>
         <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
@@ -2440,8 +2456,8 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="181"/>
-      <c r="B27" s="184">
+      <c r="A27" s="188"/>
+      <c r="B27" s="128">
         <v>41600</v>
       </c>
       <c r="C27" s="65">
@@ -2453,7 +2469,7 @@
       <c r="E27" s="18">
         <v>1.25</v>
       </c>
-      <c r="F27" s="129">
+      <c r="F27" s="133">
         <f>SUM(E27:E29)</f>
         <v>4</v>
       </c>
@@ -2474,8 +2490,8 @@
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="181"/>
-      <c r="B28" s="186"/>
+      <c r="A28" s="188"/>
+      <c r="B28" s="129"/>
       <c r="C28" s="65">
         <v>0.5625</v>
       </c>
@@ -2485,7 +2501,7 @@
       <c r="E28" s="18">
         <v>1.25</v>
       </c>
-      <c r="F28" s="130"/>
+      <c r="F28" s="134"/>
       <c r="G28" s="85"/>
       <c r="H28" s="69" t="s">
         <v>16</v>
@@ -2499,8 +2515,8 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="181"/>
-      <c r="B29" s="185"/>
+      <c r="A29" s="188"/>
+      <c r="B29" s="130"/>
       <c r="C29" s="65">
         <v>0.625</v>
       </c>
@@ -2510,7 +2526,7 @@
       <c r="E29" s="69">
         <v>1.5</v>
       </c>
-      <c r="F29" s="131"/>
+      <c r="F29" s="135"/>
       <c r="G29" s="86"/>
       <c r="H29" s="69" t="s">
         <v>21</v>
@@ -2525,7 +2541,7 @@
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="10">
-        <f>SUM(E101:E105)</f>
+        <f>SUM(E104:E108)</f>
         <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
@@ -2534,7 +2550,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="67"/>
-      <c r="B30" s="184">
+      <c r="B30" s="128">
         <v>41601</v>
       </c>
       <c r="C30" s="65">
@@ -2546,7 +2562,7 @@
       <c r="E30" s="69">
         <v>0.5</v>
       </c>
-      <c r="F30" s="137">
+      <c r="F30" s="146">
         <f>SUM(E30:E33)</f>
         <v>2</v>
       </c>
@@ -2568,7 +2584,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="67"/>
-      <c r="B31" s="186"/>
+      <c r="B31" s="129"/>
       <c r="C31" s="65">
         <v>0.39583333333333331</v>
       </c>
@@ -2578,7 +2594,7 @@
       <c r="E31" s="69">
         <v>0.5</v>
       </c>
-      <c r="F31" s="138"/>
+      <c r="F31" s="147"/>
       <c r="G31" s="90"/>
       <c r="H31" s="69" t="s">
         <v>19</v>
@@ -2597,7 +2613,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="73"/>
-      <c r="B32" s="186"/>
+      <c r="B32" s="129"/>
       <c r="C32" s="65">
         <v>0.5625</v>
       </c>
@@ -2607,7 +2623,7 @@
       <c r="E32" s="69">
         <v>0.25</v>
       </c>
-      <c r="F32" s="138"/>
+      <c r="F32" s="147"/>
       <c r="G32" s="90"/>
       <c r="H32" s="69" t="s">
         <v>16</v>
@@ -2622,7 +2638,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="72"/>
-      <c r="B33" s="185"/>
+      <c r="B33" s="130"/>
       <c r="C33" s="65">
         <v>0.57291666666666663</v>
       </c>
@@ -2632,7 +2648,7 @@
       <c r="E33" s="69">
         <v>0.75</v>
       </c>
-      <c r="F33" s="139"/>
+      <c r="F33" s="148"/>
       <c r="G33" s="91"/>
       <c r="H33" s="69" t="s">
         <v>19</v>
@@ -2650,7 +2666,7 @@
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="120">
+      <c r="A34" s="116">
         <v>4</v>
       </c>
       <c r="B34" s="25">
@@ -2683,7 +2699,7 @@
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="10">
-        <f>SUM(E107:E111)</f>
+        <f>SUM(E110:E114)</f>
         <v>0</v>
       </c>
       <c r="O34" s="3" t="s">
@@ -2691,8 +2707,8 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="121"/>
-      <c r="B35" s="126">
+      <c r="A35" s="117"/>
+      <c r="B35" s="141">
         <v>41604</v>
       </c>
       <c r="C35" s="74">
@@ -2704,7 +2720,7 @@
       <c r="E35" s="70">
         <v>1.5</v>
       </c>
-      <c r="F35" s="188">
+      <c r="F35" s="136">
         <f>SUM(E35:E36)</f>
         <v>3</v>
       </c>
@@ -2722,7 +2738,7 @@
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="10">
-        <f>SUM(E112:E116)</f>
+        <f>SUM(E115:E119)</f>
         <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
@@ -2730,8 +2746,8 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="121"/>
-      <c r="B36" s="128"/>
+      <c r="A36" s="117"/>
+      <c r="B36" s="142"/>
       <c r="C36" s="74">
         <v>0.54166666666666663</v>
       </c>
@@ -2741,7 +2757,7 @@
       <c r="E36" s="70">
         <v>1.5</v>
       </c>
-      <c r="F36" s="189"/>
+      <c r="F36" s="137"/>
       <c r="G36" s="99"/>
       <c r="H36" s="75" t="s">
         <v>16</v>
@@ -2757,8 +2773,8 @@
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="121"/>
-      <c r="B37" s="126">
+      <c r="A37" s="117"/>
+      <c r="B37" s="141">
         <v>41605</v>
       </c>
       <c r="C37" s="74">
@@ -2770,7 +2786,7 @@
       <c r="E37" s="70">
         <v>0.25</v>
       </c>
-      <c r="F37" s="188">
+      <c r="F37" s="136">
         <f>SUM(E37:E39)</f>
         <v>3.08</v>
       </c>
@@ -2790,7 +2806,7 @@
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="10">
-        <f>SUM(E117:E121)</f>
+        <f>SUM(E120:E124)</f>
         <v>0</v>
       </c>
       <c r="O37" s="3" t="s">
@@ -2798,8 +2814,8 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="121"/>
-      <c r="B38" s="127"/>
+      <c r="A38" s="117"/>
+      <c r="B38" s="143"/>
       <c r="C38" s="74">
         <v>0.35416666666666669</v>
       </c>
@@ -2809,7 +2825,7 @@
       <c r="E38" s="70">
         <v>0.5</v>
       </c>
-      <c r="F38" s="190"/>
+      <c r="F38" s="138"/>
       <c r="G38" s="100"/>
       <c r="H38" s="75" t="s">
         <v>19</v>
@@ -2827,8 +2843,8 @@
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="121"/>
-      <c r="B39" s="128"/>
+      <c r="A39" s="117"/>
+      <c r="B39" s="142"/>
       <c r="C39" s="74">
         <v>0.5625</v>
       </c>
@@ -2838,7 +2854,7 @@
       <c r="E39" s="70">
         <v>2.33</v>
       </c>
-      <c r="F39" s="189"/>
+      <c r="F39" s="137"/>
       <c r="G39" s="99"/>
       <c r="H39" s="75" t="s">
         <v>16</v>
@@ -2854,8 +2870,8 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="121"/>
-      <c r="B40" s="126">
+      <c r="A40" s="117"/>
+      <c r="B40" s="141">
         <v>41608</v>
       </c>
       <c r="C40" s="74">
@@ -2867,7 +2883,7 @@
       <c r="E40" s="70">
         <v>1</v>
       </c>
-      <c r="F40" s="188">
+      <c r="F40" s="136">
         <f>SUM(E40:E41)</f>
         <v>1.5</v>
       </c>
@@ -2886,8 +2902,8 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="122"/>
-      <c r="B41" s="128"/>
+      <c r="A41" s="118"/>
+      <c r="B41" s="142"/>
       <c r="C41" s="74">
         <v>0.875</v>
       </c>
@@ -2897,7 +2913,7 @@
       <c r="E41" s="70">
         <v>0.5</v>
       </c>
-      <c r="F41" s="189"/>
+      <c r="F41" s="137"/>
       <c r="G41" s="99"/>
       <c r="H41" s="75" t="s">
         <v>19</v>
@@ -2914,7 +2930,7 @@
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="10">
-        <f>SUM(E129:E133)</f>
+        <f>SUM(E132:E136)</f>
         <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
@@ -2922,7 +2938,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="182"/>
+      <c r="A42" s="139"/>
       <c r="B42" s="77">
         <v>41610</v>
       </c>
@@ -2953,8 +2969,8 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="182"/>
-      <c r="B43" s="184">
+      <c r="A43" s="139"/>
+      <c r="B43" s="128">
         <v>41611</v>
       </c>
       <c r="C43" s="59">
@@ -2966,7 +2982,7 @@
       <c r="E43" s="69">
         <v>1</v>
       </c>
-      <c r="F43" s="129">
+      <c r="F43" s="133">
         <f>SUM(E43:E43:E44)</f>
         <v>1.8</v>
       </c>
@@ -2985,8 +3001,8 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="182"/>
-      <c r="B44" s="185"/>
+      <c r="A44" s="139"/>
+      <c r="B44" s="130"/>
       <c r="C44" s="59">
         <v>0.9375</v>
       </c>
@@ -2996,7 +3012,7 @@
       <c r="E44" s="79">
         <v>0.8</v>
       </c>
-      <c r="F44" s="131"/>
+      <c r="F44" s="135"/>
       <c r="G44" s="86"/>
       <c r="H44" s="69" t="s">
         <v>19</v>
@@ -3013,7 +3029,7 @@
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="10">
-        <f>SUM(E141:E145)</f>
+        <f>SUM(E144:E148)</f>
         <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
@@ -3021,8 +3037,8 @@
       </c>
     </row>
     <row r="45" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="182"/>
-      <c r="B45" s="184">
+      <c r="A45" s="139"/>
+      <c r="B45" s="128">
         <v>41612</v>
       </c>
       <c r="C45" s="59">
@@ -3034,7 +3050,7 @@
       <c r="E45" s="27">
         <v>4.5</v>
       </c>
-      <c r="F45" s="129">
+      <c r="F45" s="133">
         <f>SUM(E45:E46)</f>
         <v>4.67</v>
       </c>
@@ -3052,7 +3068,7 @@
       </c>
       <c r="M45" s="6"/>
       <c r="N45" s="10">
-        <f>SUM(E147:E151)</f>
+        <f>SUM(E150:E154)</f>
         <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
@@ -3060,8 +3076,8 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="182"/>
-      <c r="B46" s="185"/>
+      <c r="A46" s="139"/>
+      <c r="B46" s="130"/>
       <c r="C46" s="59">
         <v>0.82638888888888884</v>
       </c>
@@ -3071,7 +3087,7 @@
       <c r="E46" s="27">
         <v>0.17</v>
       </c>
-      <c r="F46" s="131"/>
+      <c r="F46" s="135"/>
       <c r="G46" s="86"/>
       <c r="H46" s="27" t="s">
         <v>18</v>
@@ -3089,8 +3105,8 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="182"/>
-      <c r="B47" s="184">
+      <c r="A47" s="139"/>
+      <c r="B47" s="128">
         <v>41613</v>
       </c>
       <c r="C47" s="59">
@@ -3102,7 +3118,7 @@
       <c r="E47" s="69">
         <v>0.67</v>
       </c>
-      <c r="F47" s="129">
+      <c r="F47" s="133">
         <f>SUM(E47:E48)</f>
         <v>0.92</v>
       </c>
@@ -3120,7 +3136,7 @@
       </c>
       <c r="M47" s="6"/>
       <c r="N47" s="10">
-        <f>SUM(E153:E157)</f>
+        <f>SUM(E156:E160)</f>
         <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
@@ -3128,8 +3144,8 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="182"/>
-      <c r="B48" s="185"/>
+      <c r="A48" s="139"/>
+      <c r="B48" s="130"/>
       <c r="C48" s="59">
         <v>0.875</v>
       </c>
@@ -3139,7 +3155,7 @@
       <c r="E48" s="69">
         <v>0.25</v>
       </c>
-      <c r="F48" s="131"/>
+      <c r="F48" s="135"/>
       <c r="G48" s="86"/>
       <c r="H48" s="69" t="s">
         <v>19</v>
@@ -3157,7 +3173,7 @@
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="183"/>
+      <c r="A49" s="140"/>
       <c r="B49" s="24">
         <v>41614</v>
       </c>
@@ -3188,7 +3204,7 @@
       </c>
       <c r="M49" s="6"/>
       <c r="N49" s="10">
-        <f>SUM(E159:E163)</f>
+        <f>SUM(E162:E166)</f>
         <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
@@ -3196,7 +3212,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="120">
+      <c r="A50" s="116">
         <v>6</v>
       </c>
       <c r="B50" s="25">
@@ -3229,7 +3245,7 @@
       </c>
       <c r="M50" s="6"/>
       <c r="N50" s="10">
-        <f>SUM(E165:E169)</f>
+        <f>SUM(E168:E172)</f>
         <v>0</v>
       </c>
       <c r="O50" s="3" t="s">
@@ -3237,7 +3253,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="121"/>
+      <c r="A51" s="117"/>
       <c r="B51" s="25">
         <v>41618</v>
       </c>
@@ -3270,7 +3286,7 @@
       </c>
       <c r="M51" s="6"/>
       <c r="N51" s="10">
-        <f>SUM(E171:E175)</f>
+        <f>SUM(E174:E178)</f>
         <v>0</v>
       </c>
       <c r="O51" s="3" t="s">
@@ -3278,7 +3294,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="121"/>
+      <c r="A52" s="117"/>
       <c r="B52" s="25">
         <v>41619</v>
       </c>
@@ -3309,7 +3325,7 @@
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="10">
-        <f>SUM(E177:E181)</f>
+        <f>SUM(E180:E184)</f>
         <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
@@ -3317,8 +3333,8 @@
       </c>
     </row>
     <row r="53" spans="1:15" s="104" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="121"/>
-      <c r="B53" s="126">
+      <c r="A53" s="117"/>
+      <c r="B53" s="141">
         <v>41620</v>
       </c>
       <c r="C53" s="105">
@@ -3330,7 +3346,7 @@
       <c r="E53" s="71">
         <v>2</v>
       </c>
-      <c r="F53" s="129">
+      <c r="F53" s="133">
         <f>SUM(E53:E55)</f>
         <v>6</v>
       </c>
@@ -3348,7 +3364,7 @@
       </c>
       <c r="M53" s="36"/>
       <c r="N53" s="102">
-        <f>SUM(E183:E187)</f>
+        <f>SUM(E186:E190)</f>
         <v>0</v>
       </c>
       <c r="O53" s="103" t="s">
@@ -3356,8 +3372,8 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="121"/>
-      <c r="B54" s="127"/>
+      <c r="A54" s="117"/>
+      <c r="B54" s="143"/>
       <c r="C54" s="105">
         <v>0.45833333333333331</v>
       </c>
@@ -3367,7 +3383,7 @@
       <c r="E54" s="70">
         <v>1</v>
       </c>
-      <c r="F54" s="130"/>
+      <c r="F54" s="134"/>
       <c r="G54" s="85"/>
       <c r="H54" s="75" t="s">
         <v>16</v>
@@ -3383,8 +3399,8 @@
       <c r="O54" s="3"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="121"/>
-      <c r="B55" s="128"/>
+      <c r="A55" s="117"/>
+      <c r="B55" s="142"/>
       <c r="C55" s="74">
         <v>0.58333333333333337</v>
       </c>
@@ -3394,7 +3410,7 @@
       <c r="E55" s="70">
         <v>3</v>
       </c>
-      <c r="F55" s="131"/>
+      <c r="F55" s="135"/>
       <c r="G55" s="86"/>
       <c r="H55" s="75" t="s">
         <v>22</v>
@@ -3410,8 +3426,8 @@
       <c r="O55" s="3"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="121"/>
-      <c r="B56" s="126">
+      <c r="A56" s="117"/>
+      <c r="B56" s="141">
         <v>41621</v>
       </c>
       <c r="C56" s="74">
@@ -3423,7 +3439,7 @@
       <c r="E56" s="70">
         <v>0.5</v>
       </c>
-      <c r="F56" s="129">
+      <c r="F56" s="133">
         <f>SUM(E56:E58)</f>
         <v>2.5</v>
       </c>
@@ -3443,7 +3459,7 @@
       </c>
       <c r="M56" s="6"/>
       <c r="N56" s="10">
-        <f>SUM(E189:E193)</f>
+        <f>SUM(E192:E196)</f>
         <v>0</v>
       </c>
       <c r="O56" s="3" t="s">
@@ -3451,8 +3467,8 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="121"/>
-      <c r="B57" s="127"/>
+      <c r="A57" s="117"/>
+      <c r="B57" s="143"/>
       <c r="C57" s="74">
         <v>0.58333333333333337</v>
       </c>
@@ -3462,7 +3478,7 @@
       <c r="E57" s="70">
         <v>1</v>
       </c>
-      <c r="F57" s="130"/>
+      <c r="F57" s="134"/>
       <c r="G57" s="85"/>
       <c r="H57" s="75" t="s">
         <v>21</v>
@@ -3480,8 +3496,8 @@
       <c r="O57" s="3"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="121"/>
-      <c r="B58" s="128"/>
+      <c r="A58" s="117"/>
+      <c r="B58" s="142"/>
       <c r="C58" s="74">
         <v>0.625</v>
       </c>
@@ -3491,7 +3507,7 @@
       <c r="E58" s="70">
         <v>1</v>
       </c>
-      <c r="F58" s="131"/>
+      <c r="F58" s="135"/>
       <c r="G58" s="86"/>
       <c r="H58" s="75" t="s">
         <v>21</v>
@@ -3509,7 +3525,7 @@
       <c r="O58" s="3"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="123">
+      <c r="A59" s="119">
         <v>7</v>
       </c>
       <c r="B59" s="24">
@@ -3532,7 +3548,7 @@
       </c>
       <c r="M59" s="6"/>
       <c r="N59" s="10">
-        <f>SUM(E195:E199)</f>
+        <f>SUM(E198:E202)</f>
         <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
@@ -3540,8 +3556,8 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="124"/>
-      <c r="B60" s="184">
+      <c r="A60" s="120"/>
+      <c r="B60" s="128">
         <v>41625</v>
       </c>
       <c r="C60" s="114" t="s">
@@ -3553,7 +3569,7 @@
       <c r="E60" s="27">
         <v>2</v>
       </c>
-      <c r="F60" s="129">
+      <c r="F60" s="133">
         <f>SUM(E60:E62)</f>
         <v>3.75</v>
       </c>
@@ -3571,7 +3587,7 @@
       </c>
       <c r="M60" s="6"/>
       <c r="N60" s="10">
-        <f>SUM(E201:E205)</f>
+        <f>SUM(E204:E208)</f>
         <v>0</v>
       </c>
       <c r="O60" s="3" t="s">
@@ -3579,8 +3595,8 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="124"/>
-      <c r="B61" s="186"/>
+      <c r="A61" s="120"/>
+      <c r="B61" s="129"/>
       <c r="C61" s="59">
         <v>0.875</v>
       </c>
@@ -3590,7 +3606,7 @@
       <c r="E61" s="27">
         <v>0.75</v>
       </c>
-      <c r="F61" s="130"/>
+      <c r="F61" s="134"/>
       <c r="G61" s="109"/>
       <c r="H61" s="69" t="s">
         <v>17</v>
@@ -3606,8 +3622,8 @@
       <c r="O61" s="3"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="124"/>
-      <c r="B62" s="185"/>
+      <c r="A62" s="120"/>
+      <c r="B62" s="130"/>
       <c r="C62" s="59">
         <v>0.91666666666666663</v>
       </c>
@@ -3617,7 +3633,7 @@
       <c r="E62" s="27">
         <v>1</v>
       </c>
-      <c r="F62" s="131"/>
+      <c r="F62" s="135"/>
       <c r="G62" s="109"/>
       <c r="H62" s="69" t="s">
         <v>25</v>
@@ -3633,7 +3649,7 @@
       <c r="O62" s="3"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="124"/>
+      <c r="A63" s="120"/>
       <c r="B63" s="24">
         <v>41626</v>
       </c>
@@ -3664,7 +3680,7 @@
       </c>
       <c r="M63" s="6"/>
       <c r="N63" s="10">
-        <f>SUM(E207:E212)</f>
+        <f>SUM(E210:E215)</f>
         <v>0</v>
       </c>
       <c r="O63" s="3" t="s">
@@ -3672,7 +3688,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="124"/>
+      <c r="A64" s="120"/>
       <c r="B64" s="24">
         <v>41627</v>
       </c>
@@ -3700,7 +3716,7 @@
       <c r="K64" s="35"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="124"/>
+      <c r="A65" s="120"/>
       <c r="B65" s="24">
         <v>41628</v>
       </c>
@@ -3718,7 +3734,7 @@
       <c r="K65" s="35"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="125"/>
+      <c r="A66" s="121"/>
       <c r="B66" s="24">
         <v>41629</v>
       </c>
@@ -3746,10 +3762,10 @@
       <c r="K66" s="35"/>
     </row>
     <row r="67" spans="1:11" s="104" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="120">
+      <c r="A67" s="116">
         <v>8</v>
       </c>
-      <c r="B67" s="126">
+      <c r="B67" s="141">
         <v>41631</v>
       </c>
       <c r="C67" s="105">
@@ -3761,11 +3777,11 @@
       <c r="E67" s="36">
         <v>1.5</v>
       </c>
-      <c r="F67" s="129">
+      <c r="F67" s="133">
         <f>SUM(E67:E69)</f>
         <v>3.17</v>
       </c>
-      <c r="G67" s="132">
+      <c r="G67" s="192">
         <v>25</v>
       </c>
       <c r="H67" s="33" t="s">
@@ -3780,8 +3796,8 @@
       <c r="K67" s="71"/>
     </row>
     <row r="68" spans="1:11" s="104" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="121"/>
-      <c r="B68" s="127"/>
+      <c r="A68" s="117"/>
+      <c r="B68" s="143"/>
       <c r="C68" s="105">
         <v>0.90625</v>
       </c>
@@ -3791,8 +3807,8 @@
       <c r="E68" s="71">
         <v>1</v>
       </c>
-      <c r="F68" s="130"/>
-      <c r="G68" s="132"/>
+      <c r="F68" s="134"/>
+      <c r="G68" s="192"/>
       <c r="H68" s="33" t="s">
         <v>19</v>
       </c>
@@ -3805,8 +3821,8 @@
       <c r="K68" s="71"/>
     </row>
     <row r="69" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="121"/>
-      <c r="B69" s="128"/>
+      <c r="A69" s="117"/>
+      <c r="B69" s="142"/>
       <c r="C69" s="105">
         <v>0.95138888888888884</v>
       </c>
@@ -3816,8 +3832,8 @@
       <c r="E69" s="71">
         <v>0.67</v>
       </c>
-      <c r="F69" s="131"/>
-      <c r="G69" s="132"/>
+      <c r="F69" s="135"/>
+      <c r="G69" s="192"/>
       <c r="H69" s="33" t="s">
         <v>17</v>
       </c>
@@ -3828,8 +3844,8 @@
       <c r="K69" s="71"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="121"/>
-      <c r="B70" s="126">
+      <c r="A70" s="117"/>
+      <c r="B70" s="141">
         <v>41632</v>
       </c>
       <c r="C70" s="74">
@@ -3841,11 +3857,11 @@
       <c r="E70" s="70">
         <v>1</v>
       </c>
-      <c r="F70" s="129">
+      <c r="F70" s="133">
         <f>SUM(E70:E72)</f>
         <v>2</v>
       </c>
-      <c r="G70" s="132"/>
+      <c r="G70" s="192"/>
       <c r="H70" s="75" t="s">
         <v>17</v>
       </c>
@@ -3856,8 +3872,8 @@
       <c r="K70" s="71"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="121"/>
-      <c r="B71" s="127"/>
+      <c r="A71" s="117"/>
+      <c r="B71" s="143"/>
       <c r="C71" s="74">
         <v>0.91666666666666663</v>
       </c>
@@ -3867,8 +3883,8 @@
       <c r="E71" s="70">
         <v>0.5</v>
       </c>
-      <c r="F71" s="130"/>
-      <c r="G71" s="132"/>
+      <c r="F71" s="134"/>
+      <c r="G71" s="192"/>
       <c r="H71" s="75" t="s">
         <v>19</v>
       </c>
@@ -3883,8 +3899,8 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="121"/>
-      <c r="B72" s="128"/>
+      <c r="A72" s="117"/>
+      <c r="B72" s="142"/>
       <c r="C72" s="105">
         <v>0.9375</v>
       </c>
@@ -3894,8 +3910,8 @@
       <c r="E72" s="70">
         <v>0.5</v>
       </c>
-      <c r="F72" s="131"/>
-      <c r="G72" s="132"/>
+      <c r="F72" s="135"/>
+      <c r="G72" s="192"/>
       <c r="H72" s="75" t="s">
         <v>19</v>
       </c>
@@ -3908,8 +3924,8 @@
       <c r="K72" s="71"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="121"/>
-      <c r="B73" s="126">
+      <c r="A73" s="117"/>
+      <c r="B73" s="141">
         <v>41633</v>
       </c>
       <c r="C73" s="74">
@@ -3921,11 +3937,11 @@
       <c r="E73" s="70">
         <v>1</v>
       </c>
-      <c r="F73" s="129">
+      <c r="F73" s="133">
         <f>SUM(E73:E75)</f>
         <v>2.5</v>
       </c>
-      <c r="G73" s="132"/>
+      <c r="G73" s="192"/>
       <c r="H73" s="75" t="s">
         <v>17</v>
       </c>
@@ -3936,8 +3952,8 @@
       <c r="K73" s="71"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="121"/>
-      <c r="B74" s="127"/>
+      <c r="A74" s="117"/>
+      <c r="B74" s="143"/>
       <c r="C74" s="74">
         <v>0.83333333333333337</v>
       </c>
@@ -3947,8 +3963,8 @@
       <c r="E74" s="70">
         <v>0.5</v>
       </c>
-      <c r="F74" s="130"/>
-      <c r="G74" s="132"/>
+      <c r="F74" s="134"/>
+      <c r="G74" s="192"/>
       <c r="H74" s="75" t="s">
         <v>18</v>
       </c>
@@ -3961,8 +3977,8 @@
       <c r="K74" s="71"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="121"/>
-      <c r="B75" s="128"/>
+      <c r="A75" s="117"/>
+      <c r="B75" s="142"/>
       <c r="C75" s="74">
         <v>0.875</v>
       </c>
@@ -3972,8 +3988,8 @@
       <c r="E75" s="70">
         <v>1</v>
       </c>
-      <c r="F75" s="131"/>
-      <c r="G75" s="132"/>
+      <c r="F75" s="135"/>
+      <c r="G75" s="192"/>
       <c r="H75" s="75" t="s">
         <v>17</v>
       </c>
@@ -3984,8 +4000,8 @@
       <c r="K75" s="71"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="121"/>
-      <c r="B76" s="126">
+      <c r="A76" s="117"/>
+      <c r="B76" s="141">
         <v>41634</v>
       </c>
       <c r="C76" s="74">
@@ -3997,11 +4013,11 @@
       <c r="E76" s="70">
         <v>0.5</v>
       </c>
-      <c r="F76" s="129">
+      <c r="F76" s="133">
         <f>SUM(E76:E78)</f>
         <v>1.67</v>
       </c>
-      <c r="G76" s="132"/>
+      <c r="G76" s="192"/>
       <c r="H76" s="75" t="s">
         <v>17</v>
       </c>
@@ -4012,8 +4028,8 @@
       <c r="K76" s="71"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="121"/>
-      <c r="B77" s="127"/>
+      <c r="A77" s="117"/>
+      <c r="B77" s="143"/>
       <c r="C77" s="74">
         <v>0.85416666666666663</v>
       </c>
@@ -4023,8 +4039,8 @@
       <c r="E77" s="70">
         <v>0.5</v>
       </c>
-      <c r="F77" s="130"/>
-      <c r="G77" s="132"/>
+      <c r="F77" s="134"/>
+      <c r="G77" s="192"/>
       <c r="H77" s="75" t="s">
         <v>25</v>
       </c>
@@ -4035,8 +4051,8 @@
       <c r="K77" s="71"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="121"/>
-      <c r="B78" s="127"/>
+      <c r="A78" s="117"/>
+      <c r="B78" s="143"/>
       <c r="C78" s="74">
         <v>0.97222222222222221</v>
       </c>
@@ -4046,8 +4062,8 @@
       <c r="E78" s="71">
         <v>0.67</v>
       </c>
-      <c r="F78" s="130"/>
-      <c r="G78" s="132"/>
+      <c r="F78" s="134"/>
+      <c r="G78" s="192"/>
       <c r="H78" s="75" t="s">
         <v>18</v>
       </c>
@@ -4060,8 +4076,8 @@
       <c r="K78" s="71"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="121"/>
-      <c r="B79" s="126">
+      <c r="A79" s="117"/>
+      <c r="B79" s="141">
         <v>41635</v>
       </c>
       <c r="C79" s="74">
@@ -4073,11 +4089,11 @@
       <c r="E79" s="70">
         <v>1.5</v>
       </c>
-      <c r="F79" s="129">
+      <c r="F79" s="133">
         <f>SUM(E79:E81)</f>
-        <v>1.5</v>
-      </c>
-      <c r="G79" s="132"/>
+        <v>3.5</v>
+      </c>
+      <c r="G79" s="192"/>
       <c r="H79" s="75" t="s">
         <v>18</v>
       </c>
@@ -4090,223 +4106,256 @@
       <c r="K79" s="71"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="121"/>
-      <c r="B80" s="127"/>
-      <c r="C80" s="115"/>
-      <c r="D80" s="115"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="130"/>
-      <c r="G80" s="132"/>
-      <c r="H80" s="75"/>
-      <c r="I80" s="71"/>
+      <c r="A80" s="117"/>
+      <c r="B80" s="143"/>
+      <c r="C80" s="74">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D80" s="74">
+        <v>0.875</v>
+      </c>
+      <c r="E80" s="70">
+        <v>1</v>
+      </c>
+      <c r="F80" s="134"/>
+      <c r="G80" s="192"/>
+      <c r="H80" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" s="71" t="s">
+        <v>117</v>
+      </c>
       <c r="J80" s="71"/>
       <c r="K80" s="71"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="121"/>
-      <c r="B81" s="128"/>
-      <c r="C81" s="115"/>
-      <c r="D81" s="115"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="131"/>
-      <c r="G81" s="132"/>
-      <c r="H81" s="75"/>
-      <c r="I81" s="71"/>
+      <c r="A81" s="117"/>
+      <c r="B81" s="142"/>
+      <c r="C81" s="74">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D81" s="105">
+        <v>0.9375</v>
+      </c>
+      <c r="E81" s="70">
+        <v>1</v>
+      </c>
+      <c r="F81" s="135"/>
+      <c r="G81" s="192"/>
+      <c r="H81" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="71" t="s">
+        <v>118</v>
+      </c>
       <c r="J81" s="71"/>
       <c r="K81" s="71"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="122"/>
-      <c r="B82" s="25">
+      <c r="A82" s="117"/>
+      <c r="B82" s="141">
         <v>41636</v>
       </c>
-      <c r="C82" s="115"/>
-      <c r="D82" s="115"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="116">
-        <f>SUM(E82:E86)</f>
-        <v>0</v>
-      </c>
-      <c r="G82" s="132"/>
-      <c r="H82" s="75"/>
-      <c r="I82" s="71"/>
+      <c r="C82" s="74">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D82" s="74">
+        <v>0.875</v>
+      </c>
+      <c r="E82" s="70">
+        <v>1</v>
+      </c>
+      <c r="F82" s="133">
+        <f>SUM(E82:E83)</f>
+        <v>2.75</v>
+      </c>
+      <c r="G82" s="192"/>
+      <c r="H82" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="71" t="s">
+        <v>118</v>
+      </c>
       <c r="J82" s="71"/>
       <c r="K82" s="71"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="123">
+    <row r="83" spans="1:11" s="104" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A83" s="117"/>
+      <c r="B83" s="143"/>
+      <c r="C83" s="105">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D83" s="105">
+        <v>0.96875</v>
+      </c>
+      <c r="E83" s="71">
+        <v>1.75</v>
+      </c>
+      <c r="F83" s="134"/>
+      <c r="G83" s="192"/>
+      <c r="H83" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="J83" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="K83" s="71"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="193">
         <v>9</v>
       </c>
-      <c r="B83" s="24">
+      <c r="B84" s="128">
         <v>41638</v>
       </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="107">
-        <f t="shared" ref="F83:F106" si="0">SUM(E83:E87)</f>
-        <v>0</v>
-      </c>
-      <c r="G83" s="117">
+      <c r="C84" s="197">
+        <v>0.5625</v>
+      </c>
+      <c r="D84" s="197">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E84" s="69">
+        <v>1.25</v>
+      </c>
+      <c r="F84" s="133">
+        <f>SUM(E84:E86)</f>
+        <v>1.25</v>
+      </c>
+      <c r="G84" s="194">
         <v>25</v>
       </c>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="124"/>
-      <c r="B84" s="24">
+      <c r="H84" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="139"/>
+      <c r="B85" s="129"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="69"/>
+      <c r="F85" s="134"/>
+      <c r="G85" s="195"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="27"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="139"/>
+      <c r="B86" s="130"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="69"/>
+      <c r="F86" s="135"/>
+      <c r="G86" s="195"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="27"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="139"/>
+      <c r="B87" s="24">
         <v>41639</v>
       </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="107">
+      <c r="C87" s="69"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="115">
+        <f t="shared" ref="F87:F109" si="0">SUM(E87:E91)</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="195"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="27"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="139"/>
+      <c r="B88" s="24">
+        <v>41640</v>
+      </c>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="69"/>
+      <c r="F88" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G84" s="118"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="35"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="124"/>
-      <c r="B85" s="24">
-        <v>41640</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="107">
+      <c r="G88" s="195"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="27"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="139"/>
+      <c r="B89" s="24">
+        <v>41641</v>
+      </c>
+      <c r="C89" s="69"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G85" s="118"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="124"/>
-      <c r="B86" s="24">
-        <v>41641</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="107">
+      <c r="G89" s="195"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
+      <c r="K89" s="27"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="139"/>
+      <c r="B90" s="24">
+        <v>41642</v>
+      </c>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="69"/>
+      <c r="F90" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G86" s="118"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="124"/>
-      <c r="B87" s="24">
-        <v>41642</v>
-      </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="107">
+      <c r="G90" s="195"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="27"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="140"/>
+      <c r="B91" s="24">
+        <v>41643</v>
+      </c>
+      <c r="C91" s="69"/>
+      <c r="D91" s="69"/>
+      <c r="E91" s="69"/>
+      <c r="F91" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G87" s="118"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="125"/>
-      <c r="B88" s="24">
-        <v>41643</v>
-      </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="119"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="35"/>
-      <c r="K88" s="35"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="120">
+      <c r="G91" s="196"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="116">
         <v>10</v>
       </c>
-      <c r="B89" s="25">
+      <c r="B92" s="25">
         <v>41645</v>
-      </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="117">
-        <v>25</v>
-      </c>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="121"/>
-      <c r="B90" s="25">
-        <v>41646</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="118"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="121"/>
-      <c r="B91" s="25">
-        <v>41647</v>
-      </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="118"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="121"/>
-      <c r="B92" s="25">
-        <v>41648</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -4315,16 +4364,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G92" s="118"/>
+      <c r="G92" s="189">
+        <v>25</v>
+      </c>
       <c r="H92" s="36"/>
       <c r="I92" s="36"/>
       <c r="J92" s="36"/>
       <c r="K92" s="36"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="121"/>
+      <c r="A93" s="117"/>
       <c r="B93" s="25">
-        <v>41649</v>
+        <v>41646</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -4333,16 +4384,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G93" s="118"/>
+      <c r="G93" s="190"/>
       <c r="H93" s="36"/>
       <c r="I93" s="36"/>
       <c r="J93" s="36"/>
       <c r="K93" s="36"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="122"/>
+      <c r="A94" s="117"/>
       <c r="B94" s="25">
-        <v>41650</v>
+        <v>41647</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -4351,74 +4402,72 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G94" s="119"/>
+      <c r="G94" s="190"/>
       <c r="H94" s="36"/>
       <c r="I94" s="36"/>
       <c r="J94" s="36"/>
       <c r="K94" s="36"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="123">
-        <v>11</v>
-      </c>
-      <c r="B95" s="24">
-        <v>41652</v>
-      </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
+      <c r="A95" s="117"/>
+      <c r="B95" s="25">
+        <v>41648</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
       <c r="F95" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G95" s="117">
-        <v>35</v>
-      </c>
-      <c r="H95" s="35"/>
-      <c r="I95" s="35"/>
-      <c r="J95" s="35"/>
-      <c r="K95" s="35"/>
+      <c r="G95" s="190"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="124"/>
-      <c r="B96" s="24">
-        <v>41653</v>
-      </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
+      <c r="A96" s="117"/>
+      <c r="B96" s="25">
+        <v>41649</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
       <c r="F96" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G96" s="118"/>
-      <c r="H96" s="35"/>
-      <c r="I96" s="35"/>
-      <c r="J96" s="35"/>
-      <c r="K96" s="35"/>
+      <c r="G96" s="190"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="124"/>
-      <c r="B97" s="24">
-        <v>41654</v>
-      </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
+      <c r="A97" s="118"/>
+      <c r="B97" s="25">
+        <v>41650</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
       <c r="F97" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G97" s="118"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="35"/>
+      <c r="G97" s="191"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="124"/>
+      <c r="A98" s="119">
+        <v>11</v>
+      </c>
       <c r="B98" s="24">
-        <v>41655</v>
+        <v>41652</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -4427,16 +4476,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G98" s="118"/>
+      <c r="G98" s="189">
+        <v>35</v>
+      </c>
       <c r="H98" s="35"/>
       <c r="I98" s="35"/>
       <c r="J98" s="35"/>
       <c r="K98" s="35"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="124"/>
+      <c r="A99" s="120"/>
       <c r="B99" s="24">
-        <v>41656</v>
+        <v>41653</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -4445,16 +4496,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G99" s="118"/>
+      <c r="G99" s="190"/>
       <c r="H99" s="35"/>
       <c r="I99" s="35"/>
       <c r="J99" s="35"/>
       <c r="K99" s="35"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="125"/>
+      <c r="A100" s="120"/>
       <c r="B100" s="24">
-        <v>41658</v>
+        <v>41654</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -4463,74 +4514,72 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G100" s="119"/>
+      <c r="G100" s="190"/>
       <c r="H100" s="35"/>
       <c r="I100" s="35"/>
       <c r="J100" s="35"/>
       <c r="K100" s="35"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="120">
-        <v>12</v>
-      </c>
-      <c r="B101" s="25">
-        <v>41659</v>
-      </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
+      <c r="A101" s="120"/>
+      <c r="B101" s="24">
+        <v>41655</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
       <c r="F101" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G101" s="117">
-        <v>35</v>
-      </c>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
+      <c r="G101" s="190"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="35"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="121"/>
-      <c r="B102" s="25">
-        <v>41660</v>
-      </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
+      <c r="A102" s="120"/>
+      <c r="B102" s="24">
+        <v>41656</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
       <c r="F102" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G102" s="118"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="36"/>
+      <c r="G102" s="190"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
+      <c r="J102" s="35"/>
+      <c r="K102" s="35"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="121"/>
-      <c r="B103" s="25">
-        <v>41661</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
+      <c r="B103" s="24">
+        <v>41658</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
       <c r="F103" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G103" s="118"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
+      <c r="G103" s="191"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="121"/>
+      <c r="A104" s="116">
+        <v>12</v>
+      </c>
       <c r="B104" s="25">
-        <v>41662</v>
+        <v>41659</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -4539,16 +4588,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G104" s="118"/>
+      <c r="G104" s="189">
+        <v>35</v>
+      </c>
       <c r="H104" s="36"/>
       <c r="I104" s="36"/>
       <c r="J104" s="36"/>
       <c r="K104" s="36"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="121"/>
+      <c r="A105" s="117"/>
       <c r="B105" s="25">
-        <v>41663</v>
+        <v>41660</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -4557,16 +4608,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G105" s="118"/>
+      <c r="G105" s="190"/>
       <c r="H105" s="36"/>
       <c r="I105" s="36"/>
       <c r="J105" s="36"/>
       <c r="K105" s="36"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="122"/>
+      <c r="A106" s="117"/>
       <c r="B106" s="25">
-        <v>41665</v>
+        <v>41661</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -4575,84 +4626,78 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G106" s="119"/>
+      <c r="G106" s="190"/>
       <c r="H106" s="36"/>
       <c r="I106" s="36"/>
       <c r="J106" s="36"/>
       <c r="K106" s="36"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="123">
+      <c r="A107" s="117"/>
+      <c r="B107" s="25">
+        <v>41662</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="190"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="36"/>
+      <c r="K107" s="36"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="117"/>
+      <c r="B108" s="25">
+        <v>41663</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="190"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="36"/>
+      <c r="K108" s="36"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="118"/>
+      <c r="B109" s="25">
+        <v>41665</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="191"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="36"/>
+      <c r="K109" s="36"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="119">
         <v>13</v>
       </c>
-      <c r="B107" s="24">
+      <c r="B110" s="24">
         <v>41666</v>
-      </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5">
-        <f t="shared" ref="F107:F116" si="1">E107</f>
-        <v>0</v>
-      </c>
-      <c r="G107" s="5"/>
-      <c r="H107" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="I107" s="35"/>
-      <c r="J107" s="35"/>
-      <c r="K107" s="35"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="124"/>
-      <c r="B108" s="24">
-        <v>41667</v>
-      </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G108" s="5"/>
-      <c r="H108" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="I108" s="35"/>
-      <c r="J108" s="35"/>
-      <c r="K108" s="35"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="124"/>
-      <c r="B109" s="24">
-        <v>41668</v>
-      </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G109" s="5"/>
-      <c r="H109" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="I109" s="35"/>
-      <c r="J109" s="35"/>
-      <c r="K109" s="35"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="124"/>
-      <c r="B110" s="24">
-        <v>41669</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F110:F119" si="1">E110</f>
         <v>0</v>
       </c>
       <c r="G110" s="5"/>
@@ -4664,9 +4709,9 @@
       <c r="K110" s="35"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="125"/>
+      <c r="A111" s="120"/>
       <c r="B111" s="24">
-        <v>41670</v>
+        <v>41667</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -4684,71 +4729,71 @@
       <c r="K111" s="35"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="120">
-        <v>14</v>
-      </c>
-      <c r="B112" s="25">
-        <v>41673</v>
-      </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6">
+      <c r="A112" s="120"/>
+      <c r="B112" s="24">
+        <v>41668</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G112" s="6"/>
-      <c r="H112" s="37" t="s">
+      <c r="G112" s="5"/>
+      <c r="H112" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I112" s="36"/>
-      <c r="J112" s="36"/>
-      <c r="K112" s="36"/>
+      <c r="I112" s="35"/>
+      <c r="J112" s="35"/>
+      <c r="K112" s="35"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="121"/>
-      <c r="B113" s="25">
-        <v>41674</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6">
+      <c r="A113" s="120"/>
+      <c r="B113" s="24">
+        <v>41669</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G113" s="6"/>
-      <c r="H113" s="37" t="s">
+      <c r="G113" s="5"/>
+      <c r="H113" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I113" s="36"/>
-      <c r="J113" s="36"/>
-      <c r="K113" s="36"/>
+      <c r="I113" s="35"/>
+      <c r="J113" s="35"/>
+      <c r="K113" s="35"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="121"/>
-      <c r="B114" s="25">
-        <v>41675</v>
-      </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6">
+      <c r="B114" s="24">
+        <v>41670</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G114" s="6"/>
-      <c r="H114" s="37" t="s">
+      <c r="G114" s="5"/>
+      <c r="H114" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I114" s="36"/>
-      <c r="J114" s="36"/>
-      <c r="K114" s="36"/>
+      <c r="I114" s="35"/>
+      <c r="J114" s="35"/>
+      <c r="K114" s="35"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="121"/>
+      <c r="A115" s="116">
+        <v>14</v>
+      </c>
       <c r="B115" s="25">
-        <v>41676</v>
+        <v>41673</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -4766,9 +4811,9 @@
       <c r="K115" s="36"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="122"/>
+      <c r="A116" s="117"/>
       <c r="B116" s="25">
-        <v>41677</v>
+        <v>41674</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -4786,85 +4831,91 @@
       <c r="K116" s="36"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="123">
+      <c r="A117" s="117"/>
+      <c r="B117" s="25">
+        <v>41675</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="6"/>
+      <c r="H117" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I117" s="36"/>
+      <c r="J117" s="36"/>
+      <c r="K117" s="36"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="117"/>
+      <c r="B118" s="25">
+        <v>41676</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="6"/>
+      <c r="H118" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I118" s="36"/>
+      <c r="J118" s="36"/>
+      <c r="K118" s="36"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="118"/>
+      <c r="B119" s="25">
+        <v>41677</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="6"/>
+      <c r="H119" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I119" s="36"/>
+      <c r="J119" s="36"/>
+      <c r="K119" s="36"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="119">
         <v>15</v>
       </c>
-      <c r="B117" s="24">
+      <c r="B120" s="24">
         <v>41680</v>
-      </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="107">
-        <f t="shared" ref="F117:F180" si="2">SUM(E117:E121)</f>
-        <v>0</v>
-      </c>
-      <c r="G117" s="117">
-        <v>35</v>
-      </c>
-      <c r="H117" s="35"/>
-      <c r="I117" s="35"/>
-      <c r="J117" s="35"/>
-      <c r="K117" s="35"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="124"/>
-      <c r="B118" s="24">
-        <v>41681</v>
-      </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="107">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G118" s="118"/>
-      <c r="H118" s="35"/>
-      <c r="I118" s="35"/>
-      <c r="J118" s="35"/>
-      <c r="K118" s="35"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="124"/>
-      <c r="B119" s="24">
-        <v>41682</v>
-      </c>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="107">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="118"/>
-      <c r="H119" s="35"/>
-      <c r="I119" s="35"/>
-      <c r="J119" s="35"/>
-      <c r="K119" s="35"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="124"/>
-      <c r="B120" s="24">
-        <v>41683</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="107">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G120" s="118"/>
+        <f t="shared" ref="F120:F183" si="2">SUM(E120:E124)</f>
+        <v>0</v>
+      </c>
+      <c r="G120" s="189">
+        <v>35</v>
+      </c>
       <c r="H120" s="35"/>
       <c r="I120" s="35"/>
       <c r="J120" s="35"/>
       <c r="K120" s="35"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="124"/>
+      <c r="A121" s="120"/>
       <c r="B121" s="24">
-        <v>41684</v>
+        <v>41681</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -4873,16 +4924,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G121" s="118"/>
+      <c r="G121" s="190"/>
       <c r="H121" s="35"/>
       <c r="I121" s="35"/>
       <c r="J121" s="35"/>
       <c r="K121" s="35"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="125"/>
+      <c r="A122" s="120"/>
       <c r="B122" s="24">
-        <v>41685</v>
+        <v>41682</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -4891,74 +4942,72 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G122" s="119"/>
+      <c r="G122" s="190"/>
       <c r="H122" s="35"/>
       <c r="I122" s="35"/>
       <c r="J122" s="35"/>
       <c r="K122" s="35"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="120">
-        <v>16</v>
-      </c>
-      <c r="B123" s="25">
-        <v>41687</v>
-      </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
+      <c r="A123" s="120"/>
+      <c r="B123" s="24">
+        <v>41683</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
       <c r="F123" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G123" s="117">
-        <v>35</v>
-      </c>
-      <c r="H123" s="36"/>
-      <c r="I123" s="36"/>
-      <c r="J123" s="36"/>
-      <c r="K123" s="36"/>
+      <c r="G123" s="190"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="35"/>
+      <c r="J123" s="35"/>
+      <c r="K123" s="35"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="121"/>
-      <c r="B124" s="25">
-        <v>41688</v>
-      </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
+      <c r="A124" s="120"/>
+      <c r="B124" s="24">
+        <v>41684</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
       <c r="F124" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G124" s="118"/>
-      <c r="H124" s="36"/>
-      <c r="I124" s="36"/>
-      <c r="J124" s="36"/>
-      <c r="K124" s="36"/>
+      <c r="G124" s="190"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="35"/>
+      <c r="J124" s="35"/>
+      <c r="K124" s="35"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="121"/>
-      <c r="B125" s="25">
-        <v>41689</v>
-      </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
+      <c r="B125" s="24">
+        <v>41685</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
       <c r="F125" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G125" s="118"/>
-      <c r="H125" s="36"/>
-      <c r="I125" s="36"/>
-      <c r="J125" s="36"/>
-      <c r="K125" s="36"/>
+      <c r="G125" s="191"/>
+      <c r="H125" s="35"/>
+      <c r="I125" s="35"/>
+      <c r="J125" s="35"/>
+      <c r="K125" s="35"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="121"/>
+      <c r="A126" s="116">
+        <v>16</v>
+      </c>
       <c r="B126" s="25">
-        <v>41690</v>
+        <v>41687</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -4967,16 +5016,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G126" s="118"/>
+      <c r="G126" s="189">
+        <v>35</v>
+      </c>
       <c r="H126" s="36"/>
       <c r="I126" s="36"/>
       <c r="J126" s="36"/>
       <c r="K126" s="36"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="121"/>
+      <c r="A127" s="117"/>
       <c r="B127" s="25">
-        <v>41691</v>
+        <v>41688</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -4985,16 +5036,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G127" s="118"/>
+      <c r="G127" s="190"/>
       <c r="H127" s="36"/>
       <c r="I127" s="36"/>
       <c r="J127" s="36"/>
       <c r="K127" s="36"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="122"/>
+      <c r="A128" s="117"/>
       <c r="B128" s="25">
-        <v>41692</v>
+        <v>41689</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -5003,74 +5054,72 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G128" s="119"/>
+      <c r="G128" s="190"/>
       <c r="H128" s="36"/>
       <c r="I128" s="36"/>
       <c r="J128" s="36"/>
       <c r="K128" s="36"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="123">
-        <v>17</v>
-      </c>
-      <c r="B129" s="24">
-        <v>41694</v>
-      </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
+      <c r="A129" s="117"/>
+      <c r="B129" s="25">
+        <v>41690</v>
+      </c>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
       <c r="F129" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G129" s="117">
-        <v>35</v>
-      </c>
-      <c r="H129" s="35"/>
-      <c r="I129" s="35"/>
-      <c r="J129" s="35"/>
-      <c r="K129" s="35"/>
+      <c r="G129" s="190"/>
+      <c r="H129" s="36"/>
+      <c r="I129" s="36"/>
+      <c r="J129" s="36"/>
+      <c r="K129" s="36"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="124"/>
-      <c r="B130" s="24">
-        <v>41695</v>
-      </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
+      <c r="A130" s="117"/>
+      <c r="B130" s="25">
+        <v>41691</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
       <c r="F130" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G130" s="118"/>
-      <c r="H130" s="35"/>
-      <c r="I130" s="35"/>
-      <c r="J130" s="35"/>
-      <c r="K130" s="35"/>
+      <c r="G130" s="190"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="36"/>
+      <c r="J130" s="36"/>
+      <c r="K130" s="36"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="124"/>
-      <c r="B131" s="24">
-        <v>41696</v>
-      </c>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
+      <c r="A131" s="118"/>
+      <c r="B131" s="25">
+        <v>41692</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
       <c r="F131" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G131" s="118"/>
-      <c r="H131" s="35"/>
-      <c r="I131" s="35"/>
-      <c r="J131" s="35"/>
-      <c r="K131" s="35"/>
+      <c r="G131" s="191"/>
+      <c r="H131" s="36"/>
+      <c r="I131" s="36"/>
+      <c r="J131" s="36"/>
+      <c r="K131" s="36"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="124"/>
+      <c r="A132" s="119">
+        <v>17</v>
+      </c>
       <c r="B132" s="24">
-        <v>41697</v>
+        <v>41694</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -5079,16 +5128,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G132" s="118"/>
+      <c r="G132" s="189">
+        <v>35</v>
+      </c>
       <c r="H132" s="35"/>
       <c r="I132" s="35"/>
       <c r="J132" s="35"/>
       <c r="K132" s="35"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="124"/>
+      <c r="A133" s="120"/>
       <c r="B133" s="24">
-        <v>41698</v>
+        <v>41695</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -5097,16 +5148,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G133" s="118"/>
+      <c r="G133" s="190"/>
       <c r="H133" s="35"/>
       <c r="I133" s="35"/>
       <c r="J133" s="35"/>
       <c r="K133" s="35"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="125"/>
+      <c r="A134" s="120"/>
       <c r="B134" s="24">
-        <v>41699</v>
+        <v>41696</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -5115,74 +5166,72 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G134" s="119"/>
+      <c r="G134" s="190"/>
       <c r="H134" s="35"/>
       <c r="I134" s="35"/>
       <c r="J134" s="35"/>
       <c r="K134" s="35"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="120">
-        <v>18</v>
-      </c>
-      <c r="B135" s="25">
-        <v>41701</v>
-      </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
+      <c r="A135" s="120"/>
+      <c r="B135" s="24">
+        <v>41697</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
       <c r="F135" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G135" s="117">
-        <v>35</v>
-      </c>
-      <c r="H135" s="36"/>
-      <c r="I135" s="36"/>
-      <c r="J135" s="36"/>
-      <c r="K135" s="36"/>
+      <c r="G135" s="190"/>
+      <c r="H135" s="35"/>
+      <c r="I135" s="35"/>
+      <c r="J135" s="35"/>
+      <c r="K135" s="35"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="121"/>
-      <c r="B136" s="25">
-        <v>41702</v>
-      </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
+      <c r="A136" s="120"/>
+      <c r="B136" s="24">
+        <v>41698</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
       <c r="F136" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G136" s="118"/>
-      <c r="H136" s="36"/>
-      <c r="I136" s="36"/>
-      <c r="J136" s="36"/>
-      <c r="K136" s="36"/>
+      <c r="G136" s="190"/>
+      <c r="H136" s="35"/>
+      <c r="I136" s="35"/>
+      <c r="J136" s="35"/>
+      <c r="K136" s="35"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="121"/>
-      <c r="B137" s="25">
-        <v>41703</v>
-      </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
+      <c r="B137" s="24">
+        <v>41699</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
       <c r="F137" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G137" s="118"/>
-      <c r="H137" s="36"/>
-      <c r="I137" s="36"/>
-      <c r="J137" s="36"/>
-      <c r="K137" s="36"/>
+      <c r="G137" s="191"/>
+      <c r="H137" s="35"/>
+      <c r="I137" s="35"/>
+      <c r="J137" s="35"/>
+      <c r="K137" s="35"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="121"/>
+      <c r="A138" s="116">
+        <v>18</v>
+      </c>
       <c r="B138" s="25">
-        <v>41704</v>
+        <v>41701</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -5191,16 +5240,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G138" s="118"/>
+      <c r="G138" s="189">
+        <v>35</v>
+      </c>
       <c r="H138" s="36"/>
       <c r="I138" s="36"/>
       <c r="J138" s="36"/>
       <c r="K138" s="36"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="121"/>
+      <c r="A139" s="117"/>
       <c r="B139" s="25">
-        <v>41705</v>
+        <v>41702</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -5209,16 +5260,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G139" s="118"/>
+      <c r="G139" s="190"/>
       <c r="H139" s="36"/>
       <c r="I139" s="36"/>
       <c r="J139" s="36"/>
       <c r="K139" s="36"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="122"/>
+      <c r="A140" s="117"/>
       <c r="B140" s="25">
-        <v>41706</v>
+        <v>41703</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -5227,74 +5278,72 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G140" s="119"/>
+      <c r="G140" s="190"/>
       <c r="H140" s="36"/>
       <c r="I140" s="36"/>
       <c r="J140" s="36"/>
       <c r="K140" s="36"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="123">
-        <v>19</v>
-      </c>
-      <c r="B141" s="24">
-        <v>41708</v>
-      </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
+      <c r="A141" s="117"/>
+      <c r="B141" s="25">
+        <v>41704</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
       <c r="F141" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G141" s="117">
-        <v>35</v>
-      </c>
-      <c r="H141" s="35"/>
-      <c r="I141" s="35"/>
-      <c r="J141" s="35"/>
-      <c r="K141" s="35"/>
+      <c r="G141" s="190"/>
+      <c r="H141" s="36"/>
+      <c r="I141" s="36"/>
+      <c r="J141" s="36"/>
+      <c r="K141" s="36"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="124"/>
-      <c r="B142" s="24">
-        <v>41709</v>
-      </c>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
+      <c r="A142" s="117"/>
+      <c r="B142" s="25">
+        <v>41705</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
       <c r="F142" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G142" s="118"/>
-      <c r="H142" s="35"/>
-      <c r="I142" s="35"/>
-      <c r="J142" s="35"/>
-      <c r="K142" s="35"/>
+      <c r="G142" s="190"/>
+      <c r="H142" s="36"/>
+      <c r="I142" s="36"/>
+      <c r="J142" s="36"/>
+      <c r="K142" s="36"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="124"/>
-      <c r="B143" s="24">
-        <v>41710</v>
-      </c>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
+      <c r="A143" s="118"/>
+      <c r="B143" s="25">
+        <v>41706</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
       <c r="F143" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G143" s="118"/>
-      <c r="H143" s="35"/>
-      <c r="I143" s="35"/>
-      <c r="J143" s="35"/>
-      <c r="K143" s="35"/>
+      <c r="G143" s="191"/>
+      <c r="H143" s="36"/>
+      <c r="I143" s="36"/>
+      <c r="J143" s="36"/>
+      <c r="K143" s="36"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="124"/>
+      <c r="A144" s="119">
+        <v>19</v>
+      </c>
       <c r="B144" s="24">
-        <v>41711</v>
+        <v>41708</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -5303,16 +5352,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G144" s="118"/>
+      <c r="G144" s="189">
+        <v>35</v>
+      </c>
       <c r="H144" s="35"/>
       <c r="I144" s="35"/>
       <c r="J144" s="35"/>
       <c r="K144" s="35"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="124"/>
+      <c r="A145" s="120"/>
       <c r="B145" s="24">
-        <v>41712</v>
+        <v>41709</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -5321,16 +5372,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G145" s="118"/>
+      <c r="G145" s="190"/>
       <c r="H145" s="35"/>
       <c r="I145" s="35"/>
       <c r="J145" s="35"/>
       <c r="K145" s="35"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="125"/>
+      <c r="A146" s="120"/>
       <c r="B146" s="24">
-        <v>41713</v>
+        <v>41710</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -5339,74 +5390,72 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G146" s="119"/>
+      <c r="G146" s="190"/>
       <c r="H146" s="35"/>
       <c r="I146" s="35"/>
       <c r="J146" s="35"/>
       <c r="K146" s="35"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="120">
-        <v>20</v>
-      </c>
-      <c r="B147" s="25">
-        <v>41715</v>
-      </c>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
+      <c r="A147" s="120"/>
+      <c r="B147" s="24">
+        <v>41711</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
       <c r="F147" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G147" s="117">
-        <v>35</v>
-      </c>
-      <c r="H147" s="36"/>
-      <c r="I147" s="36"/>
-      <c r="J147" s="36"/>
-      <c r="K147" s="36"/>
+      <c r="G147" s="190"/>
+      <c r="H147" s="35"/>
+      <c r="I147" s="35"/>
+      <c r="J147" s="35"/>
+      <c r="K147" s="35"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="121"/>
-      <c r="B148" s="25">
-        <v>41716</v>
-      </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
+      <c r="A148" s="120"/>
+      <c r="B148" s="24">
+        <v>41712</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
       <c r="F148" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G148" s="118"/>
-      <c r="H148" s="36"/>
-      <c r="I148" s="36"/>
-      <c r="J148" s="36"/>
-      <c r="K148" s="36"/>
+      <c r="G148" s="190"/>
+      <c r="H148" s="35"/>
+      <c r="I148" s="35"/>
+      <c r="J148" s="35"/>
+      <c r="K148" s="35"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="121"/>
-      <c r="B149" s="25">
-        <v>41717</v>
-      </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
+      <c r="B149" s="24">
+        <v>41713</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
       <c r="F149" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G149" s="118"/>
-      <c r="H149" s="36"/>
-      <c r="I149" s="36"/>
-      <c r="J149" s="36"/>
-      <c r="K149" s="36"/>
+      <c r="G149" s="191"/>
+      <c r="H149" s="35"/>
+      <c r="I149" s="35"/>
+      <c r="J149" s="35"/>
+      <c r="K149" s="35"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="121"/>
+      <c r="A150" s="116">
+        <v>20</v>
+      </c>
       <c r="B150" s="25">
-        <v>41718</v>
+        <v>41715</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -5415,16 +5464,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G150" s="118"/>
+      <c r="G150" s="189">
+        <v>35</v>
+      </c>
       <c r="H150" s="36"/>
       <c r="I150" s="36"/>
       <c r="J150" s="36"/>
       <c r="K150" s="36"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="121"/>
+      <c r="A151" s="117"/>
       <c r="B151" s="25">
-        <v>41719</v>
+        <v>41716</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -5433,16 +5484,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G151" s="118"/>
+      <c r="G151" s="190"/>
       <c r="H151" s="36"/>
       <c r="I151" s="36"/>
       <c r="J151" s="36"/>
       <c r="K151" s="36"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="122"/>
+      <c r="A152" s="117"/>
       <c r="B152" s="25">
-        <v>41720</v>
+        <v>41717</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -5451,74 +5502,72 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G152" s="119"/>
+      <c r="G152" s="190"/>
       <c r="H152" s="36"/>
       <c r="I152" s="36"/>
       <c r="J152" s="36"/>
       <c r="K152" s="36"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="123">
-        <v>21</v>
-      </c>
-      <c r="B153" s="24">
-        <v>41722</v>
-      </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
+      <c r="A153" s="117"/>
+      <c r="B153" s="25">
+        <v>41718</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
       <c r="F153" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G153" s="117">
-        <v>35</v>
-      </c>
-      <c r="H153" s="35"/>
-      <c r="I153" s="35"/>
-      <c r="J153" s="35"/>
-      <c r="K153" s="35"/>
+      <c r="G153" s="190"/>
+      <c r="H153" s="36"/>
+      <c r="I153" s="36"/>
+      <c r="J153" s="36"/>
+      <c r="K153" s="36"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="124"/>
-      <c r="B154" s="24">
-        <v>41723</v>
-      </c>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
+      <c r="A154" s="117"/>
+      <c r="B154" s="25">
+        <v>41719</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
       <c r="F154" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G154" s="118"/>
-      <c r="H154" s="35"/>
-      <c r="I154" s="35"/>
-      <c r="J154" s="35"/>
-      <c r="K154" s="35"/>
+      <c r="G154" s="190"/>
+      <c r="H154" s="36"/>
+      <c r="I154" s="36"/>
+      <c r="J154" s="36"/>
+      <c r="K154" s="36"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="124"/>
-      <c r="B155" s="24">
-        <v>41724</v>
-      </c>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
+      <c r="A155" s="118"/>
+      <c r="B155" s="25">
+        <v>41720</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
       <c r="F155" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G155" s="118"/>
-      <c r="H155" s="35"/>
-      <c r="I155" s="35"/>
-      <c r="J155" s="35"/>
-      <c r="K155" s="35"/>
+      <c r="G155" s="191"/>
+      <c r="H155" s="36"/>
+      <c r="I155" s="36"/>
+      <c r="J155" s="36"/>
+      <c r="K155" s="36"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="124"/>
+      <c r="A156" s="119">
+        <v>21</v>
+      </c>
       <c r="B156" s="24">
-        <v>41725</v>
+        <v>41722</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -5527,16 +5576,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G156" s="118"/>
+      <c r="G156" s="189">
+        <v>35</v>
+      </c>
       <c r="H156" s="35"/>
       <c r="I156" s="35"/>
       <c r="J156" s="35"/>
       <c r="K156" s="35"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="124"/>
+      <c r="A157" s="120"/>
       <c r="B157" s="24">
-        <v>41726</v>
+        <v>41723</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -5545,16 +5596,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G157" s="118"/>
+      <c r="G157" s="190"/>
       <c r="H157" s="35"/>
       <c r="I157" s="35"/>
       <c r="J157" s="35"/>
       <c r="K157" s="35"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="125"/>
+      <c r="A158" s="120"/>
       <c r="B158" s="24">
-        <v>41727</v>
+        <v>41724</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
@@ -5563,74 +5614,72 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G158" s="119"/>
+      <c r="G158" s="190"/>
       <c r="H158" s="35"/>
       <c r="I158" s="35"/>
       <c r="J158" s="35"/>
       <c r="K158" s="35"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="120">
-        <v>22</v>
-      </c>
-      <c r="B159" s="25">
-        <v>41729</v>
-      </c>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
+      <c r="A159" s="120"/>
+      <c r="B159" s="24">
+        <v>41725</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
       <c r="F159" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G159" s="117">
-        <v>35</v>
-      </c>
-      <c r="H159" s="36"/>
-      <c r="I159" s="36"/>
-      <c r="J159" s="36"/>
-      <c r="K159" s="36"/>
+      <c r="G159" s="190"/>
+      <c r="H159" s="35"/>
+      <c r="I159" s="35"/>
+      <c r="J159" s="35"/>
+      <c r="K159" s="35"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="121"/>
-      <c r="B160" s="25">
-        <v>41730</v>
-      </c>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
+      <c r="A160" s="120"/>
+      <c r="B160" s="24">
+        <v>41726</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
       <c r="F160" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G160" s="118"/>
-      <c r="H160" s="36"/>
-      <c r="I160" s="36"/>
-      <c r="J160" s="36"/>
-      <c r="K160" s="36"/>
+      <c r="G160" s="190"/>
+      <c r="H160" s="35"/>
+      <c r="I160" s="35"/>
+      <c r="J160" s="35"/>
+      <c r="K160" s="35"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="121"/>
-      <c r="B161" s="25">
-        <v>41731</v>
-      </c>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
+      <c r="B161" s="24">
+        <v>41727</v>
+      </c>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
       <c r="F161" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G161" s="118"/>
-      <c r="H161" s="36"/>
-      <c r="I161" s="36"/>
-      <c r="J161" s="36"/>
-      <c r="K161" s="36"/>
+      <c r="G161" s="191"/>
+      <c r="H161" s="35"/>
+      <c r="I161" s="35"/>
+      <c r="J161" s="35"/>
+      <c r="K161" s="35"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="121"/>
+      <c r="A162" s="116">
+        <v>22</v>
+      </c>
       <c r="B162" s="25">
-        <v>41732</v>
+        <v>41729</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
@@ -5639,16 +5688,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G162" s="118"/>
+      <c r="G162" s="189">
+        <v>35</v>
+      </c>
       <c r="H162" s="36"/>
       <c r="I162" s="36"/>
       <c r="J162" s="36"/>
       <c r="K162" s="36"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="121"/>
+      <c r="A163" s="117"/>
       <c r="B163" s="25">
-        <v>41733</v>
+        <v>41730</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -5657,16 +5708,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G163" s="118"/>
+      <c r="G163" s="190"/>
       <c r="H163" s="36"/>
       <c r="I163" s="36"/>
       <c r="J163" s="36"/>
       <c r="K163" s="36"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="122"/>
+      <c r="A164" s="117"/>
       <c r="B164" s="25">
-        <v>41734</v>
+        <v>41731</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
@@ -5675,74 +5726,72 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G164" s="119"/>
+      <c r="G164" s="190"/>
       <c r="H164" s="36"/>
       <c r="I164" s="36"/>
       <c r="J164" s="36"/>
       <c r="K164" s="36"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="123">
-        <v>23</v>
-      </c>
-      <c r="B165" s="24">
-        <v>41736</v>
-      </c>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
+      <c r="A165" s="117"/>
+      <c r="B165" s="25">
+        <v>41732</v>
+      </c>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
       <c r="F165" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G165" s="117">
-        <v>35</v>
-      </c>
-      <c r="H165" s="35"/>
-      <c r="I165" s="35"/>
-      <c r="J165" s="35"/>
-      <c r="K165" s="35"/>
+      <c r="G165" s="190"/>
+      <c r="H165" s="36"/>
+      <c r="I165" s="36"/>
+      <c r="J165" s="36"/>
+      <c r="K165" s="36"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="124"/>
-      <c r="B166" s="24">
-        <v>41737</v>
-      </c>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
+      <c r="A166" s="117"/>
+      <c r="B166" s="25">
+        <v>41733</v>
+      </c>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
       <c r="F166" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G166" s="118"/>
-      <c r="H166" s="35"/>
-      <c r="I166" s="35"/>
-      <c r="J166" s="35"/>
-      <c r="K166" s="35"/>
+      <c r="G166" s="190"/>
+      <c r="H166" s="36"/>
+      <c r="I166" s="36"/>
+      <c r="J166" s="36"/>
+      <c r="K166" s="36"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="124"/>
-      <c r="B167" s="24">
-        <v>41738</v>
-      </c>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
+      <c r="A167" s="118"/>
+      <c r="B167" s="25">
+        <v>41734</v>
+      </c>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
       <c r="F167" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G167" s="118"/>
-      <c r="H167" s="35"/>
-      <c r="I167" s="35"/>
-      <c r="J167" s="35"/>
-      <c r="K167" s="35"/>
+      <c r="G167" s="191"/>
+      <c r="H167" s="36"/>
+      <c r="I167" s="36"/>
+      <c r="J167" s="36"/>
+      <c r="K167" s="36"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="124"/>
+      <c r="A168" s="119">
+        <v>23</v>
+      </c>
       <c r="B168" s="24">
-        <v>41739</v>
+        <v>41736</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
@@ -5751,16 +5800,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G168" s="118"/>
+      <c r="G168" s="189">
+        <v>35</v>
+      </c>
       <c r="H168" s="35"/>
       <c r="I168" s="35"/>
       <c r="J168" s="35"/>
       <c r="K168" s="35"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="124"/>
+      <c r="A169" s="120"/>
       <c r="B169" s="24">
-        <v>41740</v>
+        <v>41737</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
@@ -5769,16 +5820,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G169" s="118"/>
+      <c r="G169" s="190"/>
       <c r="H169" s="35"/>
       <c r="I169" s="35"/>
       <c r="J169" s="35"/>
       <c r="K169" s="35"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="125"/>
+      <c r="A170" s="120"/>
       <c r="B170" s="24">
-        <v>41741</v>
+        <v>41738</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -5787,74 +5838,72 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G170" s="119"/>
+      <c r="G170" s="190"/>
       <c r="H170" s="35"/>
       <c r="I170" s="35"/>
       <c r="J170" s="35"/>
       <c r="K170" s="35"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="120">
-        <v>24</v>
-      </c>
-      <c r="B171" s="25">
-        <v>41743</v>
-      </c>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
+      <c r="A171" s="120"/>
+      <c r="B171" s="24">
+        <v>41739</v>
+      </c>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
       <c r="F171" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G171" s="117">
-        <v>35</v>
-      </c>
-      <c r="H171" s="36"/>
-      <c r="I171" s="36"/>
-      <c r="J171" s="36"/>
-      <c r="K171" s="36"/>
+      <c r="G171" s="190"/>
+      <c r="H171" s="35"/>
+      <c r="I171" s="35"/>
+      <c r="J171" s="35"/>
+      <c r="K171" s="35"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="121"/>
-      <c r="B172" s="25">
-        <v>41744</v>
-      </c>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
+      <c r="A172" s="120"/>
+      <c r="B172" s="24">
+        <v>41740</v>
+      </c>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
       <c r="F172" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G172" s="118"/>
-      <c r="H172" s="36"/>
-      <c r="I172" s="36"/>
-      <c r="J172" s="36"/>
-      <c r="K172" s="36"/>
+      <c r="G172" s="190"/>
+      <c r="H172" s="35"/>
+      <c r="I172" s="35"/>
+      <c r="J172" s="35"/>
+      <c r="K172" s="35"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="121"/>
-      <c r="B173" s="25">
-        <v>41745</v>
-      </c>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
+      <c r="B173" s="24">
+        <v>41741</v>
+      </c>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
       <c r="F173" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G173" s="118"/>
-      <c r="H173" s="36"/>
-      <c r="I173" s="36"/>
-      <c r="J173" s="36"/>
-      <c r="K173" s="36"/>
+      <c r="G173" s="191"/>
+      <c r="H173" s="35"/>
+      <c r="I173" s="35"/>
+      <c r="J173" s="35"/>
+      <c r="K173" s="35"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="121"/>
+      <c r="A174" s="116">
+        <v>24</v>
+      </c>
       <c r="B174" s="25">
-        <v>41746</v>
+        <v>41743</v>
       </c>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
@@ -5863,16 +5912,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G174" s="118"/>
+      <c r="G174" s="189">
+        <v>35</v>
+      </c>
       <c r="H174" s="36"/>
       <c r="I174" s="36"/>
       <c r="J174" s="36"/>
       <c r="K174" s="36"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="121"/>
+      <c r="A175" s="117"/>
       <c r="B175" s="25">
-        <v>41747</v>
+        <v>41744</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
@@ -5881,16 +5932,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G175" s="118"/>
+      <c r="G175" s="190"/>
       <c r="H175" s="36"/>
       <c r="I175" s="36"/>
       <c r="J175" s="36"/>
       <c r="K175" s="36"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="122"/>
+      <c r="A176" s="117"/>
       <c r="B176" s="25">
-        <v>41748</v>
+        <v>41745</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
@@ -5899,74 +5950,72 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G176" s="119"/>
+      <c r="G176" s="190"/>
       <c r="H176" s="36"/>
       <c r="I176" s="36"/>
       <c r="J176" s="36"/>
       <c r="K176" s="36"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="123">
-        <v>25</v>
-      </c>
-      <c r="B177" s="24">
-        <v>41750</v>
-      </c>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
+      <c r="A177" s="117"/>
+      <c r="B177" s="25">
+        <v>41746</v>
+      </c>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
       <c r="F177" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G177" s="117">
-        <v>35</v>
-      </c>
-      <c r="H177" s="35"/>
-      <c r="I177" s="35"/>
-      <c r="J177" s="35"/>
-      <c r="K177" s="35"/>
+      <c r="G177" s="190"/>
+      <c r="H177" s="36"/>
+      <c r="I177" s="36"/>
+      <c r="J177" s="36"/>
+      <c r="K177" s="36"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="124"/>
-      <c r="B178" s="24">
-        <v>41751</v>
-      </c>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
+      <c r="A178" s="117"/>
+      <c r="B178" s="25">
+        <v>41747</v>
+      </c>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
       <c r="F178" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G178" s="118"/>
-      <c r="H178" s="35"/>
-      <c r="I178" s="35"/>
-      <c r="J178" s="35"/>
-      <c r="K178" s="35"/>
+      <c r="G178" s="190"/>
+      <c r="H178" s="36"/>
+      <c r="I178" s="36"/>
+      <c r="J178" s="36"/>
+      <c r="K178" s="36"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="124"/>
-      <c r="B179" s="24">
-        <v>41752</v>
-      </c>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
+      <c r="A179" s="118"/>
+      <c r="B179" s="25">
+        <v>41748</v>
+      </c>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
       <c r="F179" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G179" s="118"/>
-      <c r="H179" s="35"/>
-      <c r="I179" s="35"/>
-      <c r="J179" s="35"/>
-      <c r="K179" s="35"/>
+      <c r="G179" s="191"/>
+      <c r="H179" s="36"/>
+      <c r="I179" s="36"/>
+      <c r="J179" s="36"/>
+      <c r="K179" s="36"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="124"/>
+      <c r="A180" s="119">
+        <v>25</v>
+      </c>
       <c r="B180" s="24">
-        <v>41753</v>
+        <v>41750</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
@@ -5975,110 +6024,110 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G180" s="118"/>
+      <c r="G180" s="189">
+        <v>35</v>
+      </c>
       <c r="H180" s="35"/>
       <c r="I180" s="35"/>
       <c r="J180" s="35"/>
       <c r="K180" s="35"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="124"/>
+      <c r="A181" s="120"/>
       <c r="B181" s="24">
-        <v>41754</v>
+        <v>41751</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="107">
-        <f t="shared" ref="F181:F212" si="3">SUM(E181:E185)</f>
-        <v>0</v>
-      </c>
-      <c r="G181" s="118"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G181" s="190"/>
       <c r="H181" s="35"/>
       <c r="I181" s="35"/>
       <c r="J181" s="35"/>
       <c r="K181" s="35"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="125"/>
+      <c r="A182" s="120"/>
       <c r="B182" s="24">
-        <v>41755</v>
+        <v>41752</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G182" s="119"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G182" s="190"/>
       <c r="H182" s="35"/>
       <c r="I182" s="35"/>
       <c r="J182" s="35"/>
       <c r="K182" s="35"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="120">
-        <v>26</v>
-      </c>
-      <c r="B183" s="25">
-        <v>41757</v>
-      </c>
-      <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
-      <c r="E183" s="6"/>
+      <c r="A183" s="120"/>
+      <c r="B183" s="24">
+        <v>41753</v>
+      </c>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
       <c r="F183" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G183" s="117">
-        <v>35</v>
-      </c>
-      <c r="H183" s="36"/>
-      <c r="I183" s="36"/>
-      <c r="J183" s="36"/>
-      <c r="K183" s="36"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G183" s="190"/>
+      <c r="H183" s="35"/>
+      <c r="I183" s="35"/>
+      <c r="J183" s="35"/>
+      <c r="K183" s="35"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="121"/>
-      <c r="B184" s="25">
-        <v>41758</v>
-      </c>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
+      <c r="A184" s="120"/>
+      <c r="B184" s="24">
+        <v>41754</v>
+      </c>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
       <c r="F184" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G184" s="118"/>
-      <c r="H184" s="36"/>
-      <c r="I184" s="36"/>
-      <c r="J184" s="36"/>
-      <c r="K184" s="36"/>
+        <f t="shared" ref="F184:F215" si="3">SUM(E184:E188)</f>
+        <v>0</v>
+      </c>
+      <c r="G184" s="190"/>
+      <c r="H184" s="35"/>
+      <c r="I184" s="35"/>
+      <c r="J184" s="35"/>
+      <c r="K184" s="35"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="121"/>
-      <c r="B185" s="25">
-        <v>41759</v>
-      </c>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="E185" s="6"/>
+      <c r="B185" s="24">
+        <v>41755</v>
+      </c>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
       <c r="F185" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G185" s="118"/>
-      <c r="H185" s="36"/>
-      <c r="I185" s="36"/>
-      <c r="J185" s="36"/>
-      <c r="K185" s="36"/>
+      <c r="G185" s="191"/>
+      <c r="H185" s="35"/>
+      <c r="I185" s="35"/>
+      <c r="J185" s="35"/>
+      <c r="K185" s="35"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="121"/>
+      <c r="A186" s="116">
+        <v>26</v>
+      </c>
       <c r="B186" s="25">
-        <v>41760</v>
+        <v>41757</v>
       </c>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
@@ -6087,16 +6136,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G186" s="118"/>
+      <c r="G186" s="189">
+        <v>35</v>
+      </c>
       <c r="H186" s="36"/>
       <c r="I186" s="36"/>
       <c r="J186" s="36"/>
       <c r="K186" s="36"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="121"/>
+      <c r="A187" s="117"/>
       <c r="B187" s="25">
-        <v>41761</v>
+        <v>41758</v>
       </c>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
@@ -6105,16 +6156,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G187" s="118"/>
+      <c r="G187" s="190"/>
       <c r="H187" s="36"/>
       <c r="I187" s="36"/>
       <c r="J187" s="36"/>
       <c r="K187" s="36"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="122"/>
+      <c r="A188" s="117"/>
       <c r="B188" s="25">
-        <v>41762</v>
+        <v>41759</v>
       </c>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
@@ -6123,74 +6174,72 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G188" s="119"/>
+      <c r="G188" s="190"/>
       <c r="H188" s="36"/>
       <c r="I188" s="36"/>
       <c r="J188" s="36"/>
       <c r="K188" s="36"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="123">
-        <v>27</v>
-      </c>
-      <c r="B189" s="24">
-        <v>41764</v>
-      </c>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
+      <c r="A189" s="117"/>
+      <c r="B189" s="25">
+        <v>41760</v>
+      </c>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
       <c r="F189" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G189" s="117">
-        <v>35</v>
-      </c>
-      <c r="H189" s="35"/>
-      <c r="I189" s="35"/>
-      <c r="J189" s="35"/>
-      <c r="K189" s="35"/>
+      <c r="G189" s="190"/>
+      <c r="H189" s="36"/>
+      <c r="I189" s="36"/>
+      <c r="J189" s="36"/>
+      <c r="K189" s="36"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="124"/>
-      <c r="B190" s="24">
-        <v>41765</v>
-      </c>
-      <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
+      <c r="A190" s="117"/>
+      <c r="B190" s="25">
+        <v>41761</v>
+      </c>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
       <c r="F190" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G190" s="118"/>
-      <c r="H190" s="35"/>
-      <c r="I190" s="35"/>
-      <c r="J190" s="35"/>
-      <c r="K190" s="35"/>
+      <c r="G190" s="190"/>
+      <c r="H190" s="36"/>
+      <c r="I190" s="36"/>
+      <c r="J190" s="36"/>
+      <c r="K190" s="36"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="124"/>
-      <c r="B191" s="24">
-        <v>41766</v>
-      </c>
-      <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
+      <c r="A191" s="118"/>
+      <c r="B191" s="25">
+        <v>41762</v>
+      </c>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
       <c r="F191" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G191" s="118"/>
-      <c r="H191" s="35"/>
-      <c r="I191" s="35"/>
-      <c r="J191" s="35"/>
-      <c r="K191" s="35"/>
+      <c r="G191" s="191"/>
+      <c r="H191" s="36"/>
+      <c r="I191" s="36"/>
+      <c r="J191" s="36"/>
+      <c r="K191" s="36"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="124"/>
+      <c r="A192" s="119">
+        <v>27</v>
+      </c>
       <c r="B192" s="24">
-        <v>41767</v>
+        <v>41764</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
@@ -6199,16 +6248,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G192" s="118"/>
+      <c r="G192" s="189">
+        <v>35</v>
+      </c>
       <c r="H192" s="35"/>
       <c r="I192" s="35"/>
       <c r="J192" s="35"/>
       <c r="K192" s="35"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="124"/>
+      <c r="A193" s="120"/>
       <c r="B193" s="24">
-        <v>41768</v>
+        <v>41765</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
@@ -6217,16 +6268,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G193" s="118"/>
+      <c r="G193" s="190"/>
       <c r="H193" s="35"/>
       <c r="I193" s="35"/>
       <c r="J193" s="35"/>
       <c r="K193" s="35"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="125"/>
+      <c r="A194" s="120"/>
       <c r="B194" s="24">
-        <v>41769</v>
+        <v>41766</v>
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
@@ -6235,74 +6286,72 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G194" s="119"/>
+      <c r="G194" s="190"/>
       <c r="H194" s="35"/>
       <c r="I194" s="35"/>
       <c r="J194" s="35"/>
       <c r="K194" s="35"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="120">
-        <v>28</v>
-      </c>
-      <c r="B195" s="25">
-        <v>41771</v>
-      </c>
-      <c r="C195" s="6"/>
-      <c r="D195" s="6"/>
-      <c r="E195" s="6"/>
+      <c r="A195" s="120"/>
+      <c r="B195" s="24">
+        <v>41767</v>
+      </c>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
       <c r="F195" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G195" s="117">
-        <v>35</v>
-      </c>
-      <c r="H195" s="36"/>
-      <c r="I195" s="36"/>
-      <c r="J195" s="36"/>
-      <c r="K195" s="36"/>
+      <c r="G195" s="190"/>
+      <c r="H195" s="35"/>
+      <c r="I195" s="35"/>
+      <c r="J195" s="35"/>
+      <c r="K195" s="35"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="121"/>
-      <c r="B196" s="25">
-        <v>41772</v>
-      </c>
-      <c r="C196" s="6"/>
-      <c r="D196" s="6"/>
-      <c r="E196" s="6"/>
+      <c r="A196" s="120"/>
+      <c r="B196" s="24">
+        <v>41768</v>
+      </c>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
       <c r="F196" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G196" s="118"/>
-      <c r="H196" s="36"/>
-      <c r="I196" s="36"/>
-      <c r="J196" s="36"/>
-      <c r="K196" s="36"/>
+      <c r="G196" s="190"/>
+      <c r="H196" s="35"/>
+      <c r="I196" s="35"/>
+      <c r="J196" s="35"/>
+      <c r="K196" s="35"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="121"/>
-      <c r="B197" s="25">
-        <v>41773</v>
-      </c>
-      <c r="C197" s="6"/>
-      <c r="D197" s="6"/>
-      <c r="E197" s="6"/>
+      <c r="B197" s="24">
+        <v>41769</v>
+      </c>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
       <c r="F197" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G197" s="118"/>
-      <c r="H197" s="36"/>
-      <c r="I197" s="36"/>
-      <c r="J197" s="36"/>
-      <c r="K197" s="36"/>
+      <c r="G197" s="191"/>
+      <c r="H197" s="35"/>
+      <c r="I197" s="35"/>
+      <c r="J197" s="35"/>
+      <c r="K197" s="35"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="121"/>
+      <c r="A198" s="116">
+        <v>28</v>
+      </c>
       <c r="B198" s="25">
-        <v>41774</v>
+        <v>41771</v>
       </c>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
@@ -6311,16 +6360,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G198" s="118"/>
+      <c r="G198" s="189">
+        <v>35</v>
+      </c>
       <c r="H198" s="36"/>
       <c r="I198" s="36"/>
       <c r="J198" s="36"/>
       <c r="K198" s="36"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="121"/>
+      <c r="A199" s="117"/>
       <c r="B199" s="25">
-        <v>41775</v>
+        <v>41772</v>
       </c>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
@@ -6329,16 +6380,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G199" s="118"/>
+      <c r="G199" s="190"/>
       <c r="H199" s="36"/>
       <c r="I199" s="36"/>
       <c r="J199" s="36"/>
       <c r="K199" s="36"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="122"/>
+      <c r="A200" s="117"/>
       <c r="B200" s="25">
-        <v>41776</v>
+        <v>41773</v>
       </c>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
@@ -6347,74 +6398,72 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G200" s="119"/>
+      <c r="G200" s="190"/>
       <c r="H200" s="36"/>
       <c r="I200" s="36"/>
       <c r="J200" s="36"/>
       <c r="K200" s="36"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="123">
-        <v>29</v>
-      </c>
-      <c r="B201" s="24">
-        <v>41778</v>
-      </c>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
-      <c r="E201" s="5"/>
+      <c r="A201" s="117"/>
+      <c r="B201" s="25">
+        <v>41774</v>
+      </c>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
       <c r="F201" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G201" s="117">
-        <v>35</v>
-      </c>
-      <c r="H201" s="35"/>
-      <c r="I201" s="35"/>
-      <c r="J201" s="35"/>
-      <c r="K201" s="35"/>
+      <c r="G201" s="190"/>
+      <c r="H201" s="36"/>
+      <c r="I201" s="36"/>
+      <c r="J201" s="36"/>
+      <c r="K201" s="36"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="124"/>
-      <c r="B202" s="24">
-        <v>41779</v>
-      </c>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
+      <c r="A202" s="117"/>
+      <c r="B202" s="25">
+        <v>41775</v>
+      </c>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
       <c r="F202" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G202" s="118"/>
-      <c r="H202" s="35"/>
-      <c r="I202" s="35"/>
-      <c r="J202" s="35"/>
-      <c r="K202" s="35"/>
+      <c r="G202" s="190"/>
+      <c r="H202" s="36"/>
+      <c r="I202" s="36"/>
+      <c r="J202" s="36"/>
+      <c r="K202" s="36"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="124"/>
-      <c r="B203" s="24">
-        <v>41780</v>
-      </c>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
-      <c r="E203" s="5"/>
+      <c r="A203" s="118"/>
+      <c r="B203" s="25">
+        <v>41776</v>
+      </c>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
       <c r="F203" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G203" s="118"/>
-      <c r="H203" s="35"/>
-      <c r="I203" s="35"/>
-      <c r="J203" s="35"/>
-      <c r="K203" s="35"/>
+      <c r="G203" s="191"/>
+      <c r="H203" s="36"/>
+      <c r="I203" s="36"/>
+      <c r="J203" s="36"/>
+      <c r="K203" s="36"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="124"/>
+      <c r="A204" s="119">
+        <v>29</v>
+      </c>
       <c r="B204" s="24">
-        <v>41781</v>
+        <v>41778</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
@@ -6423,16 +6472,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G204" s="118"/>
+      <c r="G204" s="189">
+        <v>35</v>
+      </c>
       <c r="H204" s="35"/>
       <c r="I204" s="35"/>
       <c r="J204" s="35"/>
       <c r="K204" s="35"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="124"/>
+      <c r="A205" s="120"/>
       <c r="B205" s="24">
-        <v>41782</v>
+        <v>41779</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
@@ -6441,16 +6492,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G205" s="118"/>
+      <c r="G205" s="190"/>
       <c r="H205" s="35"/>
       <c r="I205" s="35"/>
       <c r="J205" s="35"/>
       <c r="K205" s="35"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="125"/>
+      <c r="A206" s="120"/>
       <c r="B206" s="24">
-        <v>41783</v>
+        <v>41780</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
@@ -6459,92 +6510,92 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G206" s="119"/>
+      <c r="G206" s="190"/>
       <c r="H206" s="35"/>
       <c r="I206" s="35"/>
       <c r="J206" s="35"/>
       <c r="K206" s="35"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="191">
-        <v>30</v>
-      </c>
-      <c r="B207" s="25">
-        <v>41785</v>
-      </c>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
+      <c r="A207" s="120"/>
+      <c r="B207" s="24">
+        <v>41781</v>
+      </c>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
       <c r="F207" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G207" s="117">
-        <v>35</v>
-      </c>
-      <c r="H207" s="37"/>
-      <c r="I207" s="37"/>
-      <c r="J207" s="37"/>
-      <c r="K207" s="37"/>
+      <c r="G207" s="190"/>
+      <c r="H207" s="35"/>
+      <c r="I207" s="35"/>
+      <c r="J207" s="35"/>
+      <c r="K207" s="35"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="192"/>
-      <c r="B208" s="25">
-        <v>41786</v>
-      </c>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
+      <c r="A208" s="120"/>
+      <c r="B208" s="24">
+        <v>41782</v>
+      </c>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
       <c r="F208" s="107">
-        <f>SUM(E208:E211)</f>
-        <v>0</v>
-      </c>
-      <c r="G208" s="118"/>
-      <c r="H208" s="37"/>
-      <c r="I208" s="37"/>
-      <c r="J208" s="37"/>
-      <c r="K208" s="37"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G208" s="190"/>
+      <c r="H208" s="35"/>
+      <c r="I208" s="35"/>
+      <c r="J208" s="35"/>
+      <c r="K208" s="35"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="192"/>
-      <c r="B209" s="25">
-        <v>41787</v>
-      </c>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
+      <c r="A209" s="121"/>
+      <c r="B209" s="24">
+        <v>41783</v>
+      </c>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
       <c r="F209" s="107">
-        <f>SUM(E209:E212)</f>
-        <v>0</v>
-      </c>
-      <c r="G209" s="118"/>
-      <c r="H209" s="37"/>
-      <c r="I209" s="37"/>
-      <c r="J209" s="37"/>
-      <c r="K209" s="37"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G209" s="191"/>
+      <c r="H209" s="35"/>
+      <c r="I209" s="35"/>
+      <c r="J209" s="35"/>
+      <c r="K209" s="35"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="192"/>
+      <c r="A210" s="122">
+        <v>30</v>
+      </c>
       <c r="B210" s="25">
-        <v>41788</v>
+        <v>41785</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
       <c r="F210" s="107">
-        <f>SUM(E210:E213)</f>
-        <v>0</v>
-      </c>
-      <c r="G210" s="118"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G210" s="189">
+        <v>35</v>
+      </c>
       <c r="H210" s="37"/>
       <c r="I210" s="37"/>
       <c r="J210" s="37"/>
       <c r="K210" s="37"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="192"/>
+      <c r="A211" s="123"/>
       <c r="B211" s="25">
-        <v>41789</v>
+        <v>41786</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -6553,73 +6604,190 @@
         <f>SUM(E211:E214)</f>
         <v>0</v>
       </c>
-      <c r="G211" s="118"/>
+      <c r="G211" s="190"/>
       <c r="H211" s="37"/>
       <c r="I211" s="37"/>
       <c r="J211" s="37"/>
       <c r="K211" s="37"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="193"/>
+      <c r="A212" s="123"/>
       <c r="B212" s="25">
-        <v>41790</v>
+        <v>41787</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
       <c r="F212" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G212" s="119"/>
+        <f>SUM(E212:E215)</f>
+        <v>0</v>
+      </c>
+      <c r="G212" s="190"/>
       <c r="H212" s="37"/>
       <c r="I212" s="37"/>
       <c r="J212" s="37"/>
       <c r="K212" s="37"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="106"/>
-      <c r="B213" s="110"/>
-      <c r="C213" s="111"/>
-      <c r="D213" s="111"/>
-      <c r="E213" s="111"/>
-      <c r="F213" s="111"/>
-      <c r="G213" s="112"/>
-      <c r="H213" s="113"/>
-      <c r="I213" s="113"/>
-      <c r="J213" s="113"/>
-      <c r="K213" s="113"/>
+      <c r="A213" s="123"/>
+      <c r="B213" s="25">
+        <v>41788</v>
+      </c>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="107">
+        <f>SUM(E213:E216)</f>
+        <v>0</v>
+      </c>
+      <c r="G213" s="190"/>
+      <c r="H213" s="37"/>
+      <c r="I213" s="37"/>
+      <c r="J213" s="37"/>
+      <c r="K213" s="37"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="106"/>
-      <c r="B214" s="110"/>
-      <c r="C214" s="111"/>
-      <c r="D214" s="111"/>
-      <c r="E214" s="111"/>
-      <c r="F214" s="111"/>
-      <c r="G214" s="112"/>
-      <c r="H214" s="113"/>
-      <c r="I214" s="113"/>
-      <c r="J214" s="113"/>
-      <c r="K214" s="113"/>
+      <c r="A214" s="123"/>
+      <c r="B214" s="25">
+        <v>41789</v>
+      </c>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="107">
+        <f>SUM(E214:E217)</f>
+        <v>0</v>
+      </c>
+      <c r="G214" s="190"/>
+      <c r="H214" s="37"/>
+      <c r="I214" s="37"/>
+      <c r="J214" s="37"/>
+      <c r="K214" s="37"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" s="124"/>
+      <c r="B215" s="25">
+        <v>41790</v>
+      </c>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G215" s="191"/>
+      <c r="H215" s="37"/>
+      <c r="I215" s="37"/>
+      <c r="J215" s="37"/>
+      <c r="K215" s="37"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" s="106"/>
+      <c r="B216" s="110"/>
+      <c r="C216" s="111"/>
+      <c r="D216" s="111"/>
+      <c r="E216" s="111"/>
+      <c r="F216" s="111"/>
+      <c r="G216" s="112"/>
+      <c r="H216" s="113"/>
+      <c r="I216" s="113"/>
+      <c r="J216" s="113"/>
+      <c r="K216" s="113"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" s="106"/>
+      <c r="B217" s="110"/>
+      <c r="C217" s="111"/>
+      <c r="D217" s="111"/>
+      <c r="E217" s="111"/>
+      <c r="F217" s="111"/>
+      <c r="G217" s="112"/>
+      <c r="H217" s="113"/>
+      <c r="I217" s="113"/>
+      <c r="J217" s="113"/>
+      <c r="K217" s="113"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="103">
-    <mergeCell ref="A135:A140"/>
-    <mergeCell ref="A129:A134"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="A147:A152"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A207:A212"/>
-    <mergeCell ref="A153:A158"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="A165:A170"/>
-    <mergeCell ref="A171:A176"/>
-    <mergeCell ref="A177:A182"/>
-    <mergeCell ref="A183:A188"/>
-    <mergeCell ref="A189:A194"/>
+  <mergeCells count="107">
+    <mergeCell ref="G192:G197"/>
+    <mergeCell ref="G150:G155"/>
+    <mergeCell ref="G156:G161"/>
+    <mergeCell ref="G162:G167"/>
+    <mergeCell ref="G168:G173"/>
+    <mergeCell ref="G174:G179"/>
+    <mergeCell ref="G138:G143"/>
+    <mergeCell ref="G132:G137"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="G210:G215"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="G67:G83"/>
+    <mergeCell ref="A67:A83"/>
+    <mergeCell ref="G84:G91"/>
+    <mergeCell ref="A84:A91"/>
+    <mergeCell ref="G92:G97"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="G98:G103"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="G104:G109"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="G120:G125"/>
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="G126:G131"/>
+    <mergeCell ref="A126:A131"/>
+    <mergeCell ref="G198:G203"/>
+    <mergeCell ref="A198:A203"/>
+    <mergeCell ref="G204:G209"/>
+    <mergeCell ref="A204:A209"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="G180:G185"/>
+    <mergeCell ref="G186:G191"/>
+    <mergeCell ref="G144:G149"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="H2:O4"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A17:A29"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A110:A114"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B81"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="B17:B19"/>
@@ -6636,79 +6804,20 @@
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="F40:F41"/>
     <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="H2:O4"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A17:A29"/>
-    <mergeCell ref="G141:G146"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="G207:G212"/>
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="G67:G82"/>
-    <mergeCell ref="A67:A82"/>
-    <mergeCell ref="G83:G88"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="G89:G94"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="G95:G100"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="G101:G106"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="G117:G122"/>
-    <mergeCell ref="A117:A122"/>
-    <mergeCell ref="G123:G128"/>
-    <mergeCell ref="A123:A128"/>
-    <mergeCell ref="G195:G200"/>
-    <mergeCell ref="A195:A200"/>
-    <mergeCell ref="G201:G206"/>
-    <mergeCell ref="A201:A206"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="G177:G182"/>
-    <mergeCell ref="G183:G188"/>
-    <mergeCell ref="G189:G194"/>
-    <mergeCell ref="G147:G152"/>
-    <mergeCell ref="G153:G158"/>
-    <mergeCell ref="G159:G164"/>
-    <mergeCell ref="G165:G170"/>
-    <mergeCell ref="G171:G176"/>
-    <mergeCell ref="G135:G140"/>
-    <mergeCell ref="G129:G134"/>
+    <mergeCell ref="A138:A143"/>
+    <mergeCell ref="A132:A137"/>
+    <mergeCell ref="A144:A149"/>
+    <mergeCell ref="A150:A155"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="A210:A215"/>
+    <mergeCell ref="A156:A161"/>
+    <mergeCell ref="A162:A167"/>
+    <mergeCell ref="A168:A173"/>
+    <mergeCell ref="A174:A179"/>
+    <mergeCell ref="A180:A185"/>
+    <mergeCell ref="A186:A191"/>
+    <mergeCell ref="A192:A197"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -7248,7 +7357,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G95</xm:sqref>
+          <xm:sqref>G98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="19" id="{83799E8E-AE26-41DF-98BB-7B9572015E61}">
@@ -7267,7 +7376,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G101</xm:sqref>
+          <xm:sqref>G104</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="18" id="{FA2A3A95-FA8D-4F56-854C-9054E142B63E}">
@@ -7286,7 +7395,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G83</xm:sqref>
+          <xm:sqref>G84:G86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="17" id="{8EC835F6-72FB-4F43-B2F2-C1FA27FF4C02}">
@@ -7324,7 +7433,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G117</xm:sqref>
+          <xm:sqref>G120</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="15" id="{20219CE6-01A6-4CEE-B14D-554BF0D9F2D1}">
@@ -7343,7 +7452,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G123</xm:sqref>
+          <xm:sqref>G126</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="14" id="{2AF0936D-CF99-4524-B73B-0988BA7EE1D3}">
@@ -7362,7 +7471,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G129</xm:sqref>
+          <xm:sqref>G132</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="13" id="{FA71D3A3-FDB2-4B5A-8934-308ED9DD36C7}">
@@ -7381,7 +7490,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G135</xm:sqref>
+          <xm:sqref>G138</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="12" id="{E3934660-007D-4AA3-AE76-3A2F21DD9340}">
@@ -7400,7 +7509,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G141</xm:sqref>
+          <xm:sqref>G144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="11" id="{FFB586F1-ED42-4656-8556-6F2D7F6D9D9C}">
@@ -7419,7 +7528,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G147</xm:sqref>
+          <xm:sqref>G150</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="10" id="{DE789BF7-4075-4A28-B372-1F995688EC22}">
@@ -7438,7 +7547,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G153</xm:sqref>
+          <xm:sqref>G156</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="9" id="{6102CDE8-C104-4F38-A02E-97986E5A3D2A}">
@@ -7457,7 +7566,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G159</xm:sqref>
+          <xm:sqref>G162</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="8" id="{BBFDEC18-F962-46B9-A09A-36D07BEBC015}">
@@ -7476,7 +7585,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G165</xm:sqref>
+          <xm:sqref>G168</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="7" id="{5AC105A1-D473-4304-9B80-BFDA678421CF}">
@@ -7495,7 +7604,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G171</xm:sqref>
+          <xm:sqref>G174</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="6" id="{1757CEBF-5652-4367-ADB0-36DC819DF1FA}">
@@ -7514,7 +7623,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G177</xm:sqref>
+          <xm:sqref>G180</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="5" id="{83FCD0DA-2CEC-4778-9EA6-AFA9D59FE8E1}">
@@ -7533,7 +7642,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G183</xm:sqref>
+          <xm:sqref>G186</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{A116D67A-F01D-41FD-B8A6-8EAC3E0A805A}">
@@ -7552,7 +7661,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G189</xm:sqref>
+          <xm:sqref>G192</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="3" id="{183F4820-F7F6-44CE-8972-54D40FD98D25}">
@@ -7571,7 +7680,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G195</xm:sqref>
+          <xm:sqref>G198</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{246531BF-D004-46E5-AA65-14D381EE7296}">
@@ -7590,7 +7699,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G201</xm:sqref>
+          <xm:sqref>G204</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{451D81C9-15B6-4DEB-B618-2E756277D7B1}">
@@ -7609,7 +7718,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G207</xm:sqref>
+          <xm:sqref>G210</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="71" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
@@ -7628,7 +7737,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F107:G116 F59:G60 F45:G45 F22:G22 F7:G8 F12:G12 F14:G14 F16:G17 F20:G20 F27:G27 F30:G30 F34:G35 F37:G38 F42:G43 F40:G40 F47:G47 F49:G53 F56:G56 G89 F66:F67 F117:F214 F63:G66 G61:G62 F70 F73:F74 F76 F79 F82:F106</xm:sqref>
+          <xm:sqref>F110:G119 F59:G60 F45:G45 F22:G22 F7:G8 F12:G12 F14:G14 F16:G17 F20:G20 F27:G27 F30:G30 F34:G35 F37:G38 F42:G43 F40:G40 F47:G47 F49:G53 F56:G56 G92 F66:F67 F120:F217 F63:G66 G61:G62 F70 F73:F74 F76 F79 F82:F84 F87:F109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="72" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
@@ -7657,7 +7766,7 @@
           <x14:formula1>
             <xm:f>'List main task'!$B$4:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>H9:H82</xm:sqref>
+          <xm:sqref>H9:H91</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
+++ b/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="130">
   <si>
     <t>Week</t>
   </si>
@@ -415,6 +415,24 @@
     <t>AS_RE_ArchitectureDriverSpecification_UC.docx
 AS_RE_ArchitectureDriverSpecification_Entity_25.12.2013_SendToCustomer.docx
 UC-QA Android app.docx</t>
+  </si>
+  <si>
+    <t>C&amp;C View</t>
+  </si>
+  <si>
+    <t>Presentation about architect style</t>
+  </si>
+  <si>
+    <t>Review entity, usecases documents</t>
+  </si>
+  <si>
+    <t>Priority functionals</t>
+  </si>
+  <si>
+    <t>Java Spring</t>
+  </si>
+  <si>
+    <t>Review Stage 3 Plan</t>
   </si>
 </sst>
 </file>
@@ -1040,6 +1058,7 @@
     <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="18" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1067,6 +1086,171 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1076,21 +1260,6 @@
     <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1109,156 +1278,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1271,19 +1290,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1679,13 +1697,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P217"/>
+  <dimension ref="A1:P223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I86" sqref="I86"/>
+      <selection pane="bottomRight" activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1707,85 +1725,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="149"/>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="151"/>
+      <c r="A1" s="141"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="143"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="172"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="164"/>
       <c r="G2" s="92"/>
-      <c r="H2" s="152" t="s">
+      <c r="H2" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="154"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="146"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="175"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
       <c r="G3" s="93"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="157"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="149"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="176"/>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="178"/>
+      <c r="A4" s="168"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="170"/>
       <c r="G4" s="94"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="160"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="152"/>
     </row>
     <row r="5" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="187"/>
+      <c r="A5" s="177"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="179"/>
       <c r="F5" s="16"/>
       <c r="G5" s="108"/>
       <c r="I5" s="39" t="s">
@@ -1834,16 +1852,16 @@
       <c r="K6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="161"/>
+      <c r="L6" s="153"/>
+      <c r="M6" s="153"/>
+      <c r="N6" s="153"/>
+      <c r="O6" s="153"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="164">
+      <c r="A7" s="156">
         <v>1</v>
       </c>
-      <c r="B7" s="179">
+      <c r="B7" s="171">
         <v>41586</v>
       </c>
       <c r="C7" s="17">
@@ -1855,7 +1873,7 @@
       <c r="E7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="182">
+      <c r="F7" s="174">
         <f>SUM(E7:E9)</f>
         <v>2</v>
       </c>
@@ -1879,8 +1897,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="165"/>
-      <c r="B8" s="180"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="172"/>
       <c r="C8" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1890,7 +1908,7 @@
       <c r="E8" s="18">
         <v>0.5</v>
       </c>
-      <c r="F8" s="183"/>
+      <c r="F8" s="175"/>
       <c r="G8" s="96"/>
       <c r="H8" s="19" t="s">
         <v>20</v>
@@ -1904,8 +1922,8 @@
       <c r="O8" s="55"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="166"/>
-      <c r="B9" s="181"/>
+      <c r="A9" s="158"/>
+      <c r="B9" s="173"/>
       <c r="C9" s="17">
         <v>0.83333333333333337</v>
       </c>
@@ -1915,7 +1933,7 @@
       <c r="E9" s="18">
         <v>1.5</v>
       </c>
-      <c r="F9" s="184"/>
+      <c r="F9" s="176"/>
       <c r="G9" s="97"/>
       <c r="H9" s="41" t="s">
         <v>25</v>
@@ -1927,10 +1945,10 @@
       <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="167">
+      <c r="A10" s="159">
         <v>2</v>
       </c>
-      <c r="B10" s="162">
+      <c r="B10" s="154">
         <v>41589</v>
       </c>
       <c r="C10" s="46">
@@ -1942,7 +1960,7 @@
       <c r="E10" s="47">
         <v>1.5</v>
       </c>
-      <c r="F10" s="144">
+      <c r="F10" s="134">
         <f>SUM(E10:E11)</f>
         <v>3.5</v>
       </c>
@@ -1957,8 +1975,8 @@
       <c r="K10" s="48"/>
     </row>
     <row r="11" spans="1:16" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="168"/>
-      <c r="B11" s="163"/>
+      <c r="A11" s="160"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="46">
         <v>0.875</v>
       </c>
@@ -1968,7 +1986,7 @@
       <c r="E11" s="47">
         <v>2</v>
       </c>
-      <c r="F11" s="145"/>
+      <c r="F11" s="135"/>
       <c r="G11" s="88"/>
       <c r="H11" s="56" t="s">
         <v>25</v>
@@ -1980,8 +1998,8 @@
       <c r="K11" s="48"/>
     </row>
     <row r="12" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="168"/>
-      <c r="B12" s="131">
+      <c r="A12" s="160"/>
+      <c r="B12" s="139">
         <v>41590</v>
       </c>
       <c r="C12" s="21">
@@ -1993,7 +2011,7 @@
       <c r="E12" s="22">
         <v>2.25</v>
       </c>
-      <c r="F12" s="125">
+      <c r="F12" s="181">
         <f>SUM(E12:E13)</f>
         <v>3.5</v>
       </c>
@@ -2020,8 +2038,8 @@
       <c r="P12" s="30"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="168"/>
-      <c r="B13" s="132"/>
+      <c r="A13" s="160"/>
+      <c r="B13" s="140"/>
       <c r="C13" s="21">
         <v>0.86458333333333337</v>
       </c>
@@ -2031,7 +2049,7 @@
       <c r="E13" s="22">
         <v>1.25</v>
       </c>
-      <c r="F13" s="126"/>
+      <c r="F13" s="182"/>
       <c r="G13" s="82"/>
       <c r="H13" s="56" t="s">
         <v>25</v>
@@ -2048,8 +2066,8 @@
       <c r="P13" s="30"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="168"/>
-      <c r="B14" s="131">
+      <c r="A14" s="160"/>
+      <c r="B14" s="139">
         <v>41592</v>
       </c>
       <c r="C14" s="23">
@@ -2061,7 +2079,7 @@
       <c r="E14" s="26">
         <v>1.5</v>
       </c>
-      <c r="F14" s="125">
+      <c r="F14" s="181">
         <f>SUM(E14:E15)</f>
         <v>2</v>
       </c>
@@ -2080,8 +2098,8 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="168"/>
-      <c r="B15" s="132"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="140"/>
       <c r="C15" s="23">
         <v>0.9375</v>
       </c>
@@ -2091,7 +2109,7 @@
       <c r="E15" s="26">
         <v>0.5</v>
       </c>
-      <c r="F15" s="126"/>
+      <c r="F15" s="182"/>
       <c r="G15" s="82"/>
       <c r="H15" s="56" t="s">
         <v>17</v>
@@ -2107,7 +2125,7 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="169"/>
+      <c r="A16" s="161"/>
       <c r="B16" s="40">
         <v>41593</v>
       </c>
@@ -2146,7 +2164,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="188">
+      <c r="A17" s="180">
         <v>3</v>
       </c>
       <c r="B17" s="128">
@@ -2161,7 +2179,7 @@
       <c r="E17" s="42">
         <v>1</v>
       </c>
-      <c r="F17" s="125">
+      <c r="F17" s="181">
         <f>SUM(E17:E19)</f>
         <v>3.5</v>
       </c>
@@ -2187,8 +2205,8 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="188"/>
-      <c r="B18" s="129"/>
+      <c r="A18" s="180"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="44">
         <v>0.75</v>
       </c>
@@ -2198,7 +2216,7 @@
       <c r="E18" s="42">
         <v>1.5</v>
       </c>
-      <c r="F18" s="127"/>
+      <c r="F18" s="183"/>
       <c r="G18" s="83"/>
       <c r="H18" s="41" t="s">
         <v>18</v>
@@ -2216,8 +2234,8 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="188"/>
-      <c r="B19" s="130"/>
+      <c r="A19" s="180"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="44">
         <v>0.89583333333333337</v>
       </c>
@@ -2227,7 +2245,7 @@
       <c r="E19" s="42">
         <v>1</v>
       </c>
-      <c r="F19" s="126"/>
+      <c r="F19" s="182"/>
       <c r="G19" s="82"/>
       <c r="H19" s="41" t="s">
         <v>25</v>
@@ -2243,7 +2261,7 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="188"/>
+      <c r="A20" s="180"/>
       <c r="B20" s="128">
         <v>41597</v>
       </c>
@@ -2256,7 +2274,7 @@
       <c r="E20" s="42">
         <v>1.5</v>
       </c>
-      <c r="F20" s="125">
+      <c r="F20" s="181">
         <f>SUM(E20:E21)</f>
         <v>3</v>
       </c>
@@ -2275,8 +2293,8 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="188"/>
-      <c r="B21" s="130"/>
+      <c r="A21" s="180"/>
+      <c r="B21" s="129"/>
       <c r="C21" s="44">
         <v>0.8125</v>
       </c>
@@ -2286,7 +2304,7 @@
       <c r="E21" s="42">
         <v>1.5</v>
       </c>
-      <c r="F21" s="126"/>
+      <c r="F21" s="182"/>
       <c r="G21" s="82"/>
       <c r="H21" s="41" t="s">
         <v>18</v>
@@ -2301,15 +2319,15 @@
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="10">
-        <f>SUM(E84:E90)</f>
-        <v>1.25</v>
+        <f>SUM(E84:E96)</f>
+        <v>15.5</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="188"/>
+      <c r="A22" s="180"/>
       <c r="B22" s="128">
         <v>41599</v>
       </c>
@@ -2322,7 +2340,7 @@
       <c r="E22" s="42">
         <v>3</v>
       </c>
-      <c r="F22" s="125">
+      <c r="F22" s="181">
         <f>SUM(E22:E26)</f>
         <v>7.9</v>
       </c>
@@ -2341,8 +2359,8 @@
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="188"/>
-      <c r="B23" s="129"/>
+      <c r="A23" s="180"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="44">
         <v>0.38194444444444442</v>
       </c>
@@ -2352,7 +2370,7 @@
       <c r="E23" s="42">
         <v>1</v>
       </c>
-      <c r="F23" s="127"/>
+      <c r="F23" s="183"/>
       <c r="G23" s="83"/>
       <c r="H23" s="61" t="s">
         <v>20</v>
@@ -2368,8 +2386,8 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="188"/>
-      <c r="B24" s="129"/>
+      <c r="A24" s="180"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="44">
         <v>0.4236111111111111</v>
       </c>
@@ -2379,7 +2397,7 @@
       <c r="E24" s="42">
         <v>1.3</v>
       </c>
-      <c r="F24" s="127"/>
+      <c r="F24" s="183"/>
       <c r="G24" s="83"/>
       <c r="H24" s="41" t="s">
         <v>16</v>
@@ -2395,8 +2413,8 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="188"/>
-      <c r="B25" s="129"/>
+      <c r="A25" s="180"/>
+      <c r="B25" s="130"/>
       <c r="C25" s="44">
         <v>0.58333333333333337</v>
       </c>
@@ -2406,7 +2424,7 @@
       <c r="E25" s="42">
         <v>0.5</v>
       </c>
-      <c r="F25" s="127"/>
+      <c r="F25" s="183"/>
       <c r="G25" s="83"/>
       <c r="H25" s="41" t="s">
         <v>18</v>
@@ -2422,8 +2440,8 @@
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="188"/>
-      <c r="B26" s="130"/>
+      <c r="A26" s="180"/>
+      <c r="B26" s="129"/>
       <c r="C26" s="65">
         <v>0.625</v>
       </c>
@@ -2433,7 +2451,7 @@
       <c r="E26" s="42">
         <v>2.1</v>
       </c>
-      <c r="F26" s="126"/>
+      <c r="F26" s="182"/>
       <c r="G26" s="82"/>
       <c r="H26" s="41" t="s">
         <v>16</v>
@@ -2448,7 +2466,7 @@
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="10">
-        <f>SUM(E98:E102)</f>
+        <f>SUM(E104:E108)</f>
         <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
@@ -2456,7 +2474,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="188"/>
+      <c r="A27" s="180"/>
       <c r="B27" s="128">
         <v>41600</v>
       </c>
@@ -2469,7 +2487,7 @@
       <c r="E27" s="18">
         <v>1.25</v>
       </c>
-      <c r="F27" s="133">
+      <c r="F27" s="184">
         <f>SUM(E27:E29)</f>
         <v>4</v>
       </c>
@@ -2490,8 +2508,8 @@
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="188"/>
-      <c r="B28" s="129"/>
+      <c r="A28" s="180"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="65">
         <v>0.5625</v>
       </c>
@@ -2501,7 +2519,7 @@
       <c r="E28" s="18">
         <v>1.25</v>
       </c>
-      <c r="F28" s="134"/>
+      <c r="F28" s="185"/>
       <c r="G28" s="85"/>
       <c r="H28" s="69" t="s">
         <v>16</v>
@@ -2515,8 +2533,8 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="188"/>
-      <c r="B29" s="130"/>
+      <c r="A29" s="180"/>
+      <c r="B29" s="129"/>
       <c r="C29" s="65">
         <v>0.625</v>
       </c>
@@ -2526,7 +2544,7 @@
       <c r="E29" s="69">
         <v>1.5</v>
       </c>
-      <c r="F29" s="135"/>
+      <c r="F29" s="186"/>
       <c r="G29" s="86"/>
       <c r="H29" s="69" t="s">
         <v>21</v>
@@ -2541,7 +2559,7 @@
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="10">
-        <f>SUM(E104:E108)</f>
+        <f>SUM(E110:E114)</f>
         <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
@@ -2562,7 +2580,7 @@
       <c r="E30" s="69">
         <v>0.5</v>
       </c>
-      <c r="F30" s="146">
+      <c r="F30" s="136">
         <f>SUM(E30:E33)</f>
         <v>2</v>
       </c>
@@ -2584,7 +2602,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="67"/>
-      <c r="B31" s="129"/>
+      <c r="B31" s="130"/>
       <c r="C31" s="65">
         <v>0.39583333333333331</v>
       </c>
@@ -2594,7 +2612,7 @@
       <c r="E31" s="69">
         <v>0.5</v>
       </c>
-      <c r="F31" s="147"/>
+      <c r="F31" s="137"/>
       <c r="G31" s="90"/>
       <c r="H31" s="69" t="s">
         <v>19</v>
@@ -2613,7 +2631,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="73"/>
-      <c r="B32" s="129"/>
+      <c r="B32" s="130"/>
       <c r="C32" s="65">
         <v>0.5625</v>
       </c>
@@ -2623,7 +2641,7 @@
       <c r="E32" s="69">
         <v>0.25</v>
       </c>
-      <c r="F32" s="147"/>
+      <c r="F32" s="137"/>
       <c r="G32" s="90"/>
       <c r="H32" s="69" t="s">
         <v>16</v>
@@ -2638,7 +2656,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="72"/>
-      <c r="B33" s="130"/>
+      <c r="B33" s="129"/>
       <c r="C33" s="65">
         <v>0.57291666666666663</v>
       </c>
@@ -2648,7 +2666,7 @@
       <c r="E33" s="69">
         <v>0.75</v>
       </c>
-      <c r="F33" s="148"/>
+      <c r="F33" s="138"/>
       <c r="G33" s="91"/>
       <c r="H33" s="69" t="s">
         <v>19</v>
@@ -2666,7 +2684,7 @@
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="116">
+      <c r="A34" s="117">
         <v>4</v>
       </c>
       <c r="B34" s="25">
@@ -2699,7 +2717,7 @@
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="10">
-        <f>SUM(E110:E114)</f>
+        <f>SUM(E116:E120)</f>
         <v>0</v>
       </c>
       <c r="O34" s="3" t="s">
@@ -2707,8 +2725,8 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="117"/>
-      <c r="B35" s="141">
+      <c r="A35" s="118"/>
+      <c r="B35" s="131">
         <v>41604</v>
       </c>
       <c r="C35" s="74">
@@ -2720,7 +2738,7 @@
       <c r="E35" s="70">
         <v>1.5</v>
       </c>
-      <c r="F35" s="136">
+      <c r="F35" s="187">
         <f>SUM(E35:E36)</f>
         <v>3</v>
       </c>
@@ -2738,7 +2756,7 @@
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="10">
-        <f>SUM(E115:E119)</f>
+        <f>SUM(E121:E125)</f>
         <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
@@ -2746,8 +2764,8 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="117"/>
-      <c r="B36" s="142"/>
+      <c r="A36" s="118"/>
+      <c r="B36" s="132"/>
       <c r="C36" s="74">
         <v>0.54166666666666663</v>
       </c>
@@ -2757,7 +2775,7 @@
       <c r="E36" s="70">
         <v>1.5</v>
       </c>
-      <c r="F36" s="137"/>
+      <c r="F36" s="188"/>
       <c r="G36" s="99"/>
       <c r="H36" s="75" t="s">
         <v>16</v>
@@ -2773,8 +2791,8 @@
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="117"/>
-      <c r="B37" s="141">
+      <c r="A37" s="118"/>
+      <c r="B37" s="131">
         <v>41605</v>
       </c>
       <c r="C37" s="74">
@@ -2786,7 +2804,7 @@
       <c r="E37" s="70">
         <v>0.25</v>
       </c>
-      <c r="F37" s="136">
+      <c r="F37" s="187">
         <f>SUM(E37:E39)</f>
         <v>3.08</v>
       </c>
@@ -2806,7 +2824,7 @@
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="10">
-        <f>SUM(E120:E124)</f>
+        <f>SUM(E126:E130)</f>
         <v>0</v>
       </c>
       <c r="O37" s="3" t="s">
@@ -2814,8 +2832,8 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="117"/>
-      <c r="B38" s="143"/>
+      <c r="A38" s="118"/>
+      <c r="B38" s="133"/>
       <c r="C38" s="74">
         <v>0.35416666666666669</v>
       </c>
@@ -2825,7 +2843,7 @@
       <c r="E38" s="70">
         <v>0.5</v>
       </c>
-      <c r="F38" s="138"/>
+      <c r="F38" s="189"/>
       <c r="G38" s="100"/>
       <c r="H38" s="75" t="s">
         <v>19</v>
@@ -2843,8 +2861,8 @@
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="117"/>
-      <c r="B39" s="142"/>
+      <c r="A39" s="118"/>
+      <c r="B39" s="132"/>
       <c r="C39" s="74">
         <v>0.5625</v>
       </c>
@@ -2854,7 +2872,7 @@
       <c r="E39" s="70">
         <v>2.33</v>
       </c>
-      <c r="F39" s="137"/>
+      <c r="F39" s="188"/>
       <c r="G39" s="99"/>
       <c r="H39" s="75" t="s">
         <v>16</v>
@@ -2870,8 +2888,8 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="117"/>
-      <c r="B40" s="141">
+      <c r="A40" s="118"/>
+      <c r="B40" s="131">
         <v>41608</v>
       </c>
       <c r="C40" s="74">
@@ -2883,7 +2901,7 @@
       <c r="E40" s="70">
         <v>1</v>
       </c>
-      <c r="F40" s="136">
+      <c r="F40" s="187">
         <f>SUM(E40:E41)</f>
         <v>1.5</v>
       </c>
@@ -2902,8 +2920,8 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="118"/>
-      <c r="B41" s="142"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="132"/>
       <c r="C41" s="74">
         <v>0.875</v>
       </c>
@@ -2913,7 +2931,7 @@
       <c r="E41" s="70">
         <v>0.5</v>
       </c>
-      <c r="F41" s="137"/>
+      <c r="F41" s="188"/>
       <c r="G41" s="99"/>
       <c r="H41" s="75" t="s">
         <v>19</v>
@@ -2930,7 +2948,7 @@
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="10">
-        <f>SUM(E132:E136)</f>
+        <f>SUM(E138:E142)</f>
         <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
@@ -2938,7 +2956,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="139"/>
+      <c r="A42" s="126"/>
       <c r="B42" s="77">
         <v>41610</v>
       </c>
@@ -2969,7 +2987,7 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="139"/>
+      <c r="A43" s="126"/>
       <c r="B43" s="128">
         <v>41611</v>
       </c>
@@ -2982,7 +3000,7 @@
       <c r="E43" s="69">
         <v>1</v>
       </c>
-      <c r="F43" s="133">
+      <c r="F43" s="184">
         <f>SUM(E43:E43:E44)</f>
         <v>1.8</v>
       </c>
@@ -3001,8 +3019,8 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="139"/>
-      <c r="B44" s="130"/>
+      <c r="A44" s="126"/>
+      <c r="B44" s="129"/>
       <c r="C44" s="59">
         <v>0.9375</v>
       </c>
@@ -3012,7 +3030,7 @@
       <c r="E44" s="79">
         <v>0.8</v>
       </c>
-      <c r="F44" s="135"/>
+      <c r="F44" s="186"/>
       <c r="G44" s="86"/>
       <c r="H44" s="69" t="s">
         <v>19</v>
@@ -3029,7 +3047,7 @@
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="10">
-        <f>SUM(E144:E148)</f>
+        <f>SUM(E150:E154)</f>
         <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
@@ -3037,7 +3055,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="139"/>
+      <c r="A45" s="126"/>
       <c r="B45" s="128">
         <v>41612</v>
       </c>
@@ -3050,7 +3068,7 @@
       <c r="E45" s="27">
         <v>4.5</v>
       </c>
-      <c r="F45" s="133">
+      <c r="F45" s="184">
         <f>SUM(E45:E46)</f>
         <v>4.67</v>
       </c>
@@ -3068,7 +3086,7 @@
       </c>
       <c r="M45" s="6"/>
       <c r="N45" s="10">
-        <f>SUM(E150:E154)</f>
+        <f>SUM(E156:E160)</f>
         <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
@@ -3076,8 +3094,8 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="139"/>
-      <c r="B46" s="130"/>
+      <c r="A46" s="126"/>
+      <c r="B46" s="129"/>
       <c r="C46" s="59">
         <v>0.82638888888888884</v>
       </c>
@@ -3087,7 +3105,7 @@
       <c r="E46" s="27">
         <v>0.17</v>
       </c>
-      <c r="F46" s="135"/>
+      <c r="F46" s="186"/>
       <c r="G46" s="86"/>
       <c r="H46" s="27" t="s">
         <v>18</v>
@@ -3105,7 +3123,7 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="139"/>
+      <c r="A47" s="126"/>
       <c r="B47" s="128">
         <v>41613</v>
       </c>
@@ -3118,7 +3136,7 @@
       <c r="E47" s="69">
         <v>0.67</v>
       </c>
-      <c r="F47" s="133">
+      <c r="F47" s="184">
         <f>SUM(E47:E48)</f>
         <v>0.92</v>
       </c>
@@ -3136,7 +3154,7 @@
       </c>
       <c r="M47" s="6"/>
       <c r="N47" s="10">
-        <f>SUM(E156:E160)</f>
+        <f>SUM(E162:E166)</f>
         <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
@@ -3144,8 +3162,8 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="139"/>
-      <c r="B48" s="130"/>
+      <c r="A48" s="126"/>
+      <c r="B48" s="129"/>
       <c r="C48" s="59">
         <v>0.875</v>
       </c>
@@ -3155,7 +3173,7 @@
       <c r="E48" s="69">
         <v>0.25</v>
       </c>
-      <c r="F48" s="135"/>
+      <c r="F48" s="186"/>
       <c r="G48" s="86"/>
       <c r="H48" s="69" t="s">
         <v>19</v>
@@ -3173,7 +3191,7 @@
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="140"/>
+      <c r="A49" s="127"/>
       <c r="B49" s="24">
         <v>41614</v>
       </c>
@@ -3204,7 +3222,7 @@
       </c>
       <c r="M49" s="6"/>
       <c r="N49" s="10">
-        <f>SUM(E162:E166)</f>
+        <f>SUM(E168:E172)</f>
         <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
@@ -3212,7 +3230,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="116">
+      <c r="A50" s="117">
         <v>6</v>
       </c>
       <c r="B50" s="25">
@@ -3245,7 +3263,7 @@
       </c>
       <c r="M50" s="6"/>
       <c r="N50" s="10">
-        <f>SUM(E168:E172)</f>
+        <f>SUM(E174:E178)</f>
         <v>0</v>
       </c>
       <c r="O50" s="3" t="s">
@@ -3253,7 +3271,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="117"/>
+      <c r="A51" s="118"/>
       <c r="B51" s="25">
         <v>41618</v>
       </c>
@@ -3286,7 +3304,7 @@
       </c>
       <c r="M51" s="6"/>
       <c r="N51" s="10">
-        <f>SUM(E174:E178)</f>
+        <f>SUM(E180:E184)</f>
         <v>0</v>
       </c>
       <c r="O51" s="3" t="s">
@@ -3294,7 +3312,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="117"/>
+      <c r="A52" s="118"/>
       <c r="B52" s="25">
         <v>41619</v>
       </c>
@@ -3325,7 +3343,7 @@
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="10">
-        <f>SUM(E180:E184)</f>
+        <f>SUM(E186:E190)</f>
         <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
@@ -3333,8 +3351,8 @@
       </c>
     </row>
     <row r="53" spans="1:15" s="104" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="117"/>
-      <c r="B53" s="141">
+      <c r="A53" s="118"/>
+      <c r="B53" s="131">
         <v>41620</v>
       </c>
       <c r="C53" s="105">
@@ -3346,7 +3364,7 @@
       <c r="E53" s="71">
         <v>2</v>
       </c>
-      <c r="F53" s="133">
+      <c r="F53" s="184">
         <f>SUM(E53:E55)</f>
         <v>6</v>
       </c>
@@ -3364,7 +3382,7 @@
       </c>
       <c r="M53" s="36"/>
       <c r="N53" s="102">
-        <f>SUM(E186:E190)</f>
+        <f>SUM(E192:E196)</f>
         <v>0</v>
       </c>
       <c r="O53" s="103" t="s">
@@ -3372,8 +3390,8 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="117"/>
-      <c r="B54" s="143"/>
+      <c r="A54" s="118"/>
+      <c r="B54" s="133"/>
       <c r="C54" s="105">
         <v>0.45833333333333331</v>
       </c>
@@ -3383,7 +3401,7 @@
       <c r="E54" s="70">
         <v>1</v>
       </c>
-      <c r="F54" s="134"/>
+      <c r="F54" s="185"/>
       <c r="G54" s="85"/>
       <c r="H54" s="75" t="s">
         <v>16</v>
@@ -3399,8 +3417,8 @@
       <c r="O54" s="3"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="117"/>
-      <c r="B55" s="142"/>
+      <c r="A55" s="118"/>
+      <c r="B55" s="132"/>
       <c r="C55" s="74">
         <v>0.58333333333333337</v>
       </c>
@@ -3410,7 +3428,7 @@
       <c r="E55" s="70">
         <v>3</v>
       </c>
-      <c r="F55" s="135"/>
+      <c r="F55" s="186"/>
       <c r="G55" s="86"/>
       <c r="H55" s="75" t="s">
         <v>22</v>
@@ -3426,8 +3444,8 @@
       <c r="O55" s="3"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="117"/>
-      <c r="B56" s="141">
+      <c r="A56" s="118"/>
+      <c r="B56" s="131">
         <v>41621</v>
       </c>
       <c r="C56" s="74">
@@ -3439,7 +3457,7 @@
       <c r="E56" s="70">
         <v>0.5</v>
       </c>
-      <c r="F56" s="133">
+      <c r="F56" s="184">
         <f>SUM(E56:E58)</f>
         <v>2.5</v>
       </c>
@@ -3459,7 +3477,7 @@
       </c>
       <c r="M56" s="6"/>
       <c r="N56" s="10">
-        <f>SUM(E192:E196)</f>
+        <f>SUM(E198:E202)</f>
         <v>0</v>
       </c>
       <c r="O56" s="3" t="s">
@@ -3467,8 +3485,8 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="117"/>
-      <c r="B57" s="143"/>
+      <c r="A57" s="118"/>
+      <c r="B57" s="133"/>
       <c r="C57" s="74">
         <v>0.58333333333333337</v>
       </c>
@@ -3478,7 +3496,7 @@
       <c r="E57" s="70">
         <v>1</v>
       </c>
-      <c r="F57" s="134"/>
+      <c r="F57" s="185"/>
       <c r="G57" s="85"/>
       <c r="H57" s="75" t="s">
         <v>21</v>
@@ -3496,8 +3514,8 @@
       <c r="O57" s="3"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="117"/>
-      <c r="B58" s="142"/>
+      <c r="A58" s="118"/>
+      <c r="B58" s="132"/>
       <c r="C58" s="74">
         <v>0.625</v>
       </c>
@@ -3507,7 +3525,7 @@
       <c r="E58" s="70">
         <v>1</v>
       </c>
-      <c r="F58" s="135"/>
+      <c r="F58" s="186"/>
       <c r="G58" s="86"/>
       <c r="H58" s="75" t="s">
         <v>21</v>
@@ -3525,7 +3543,7 @@
       <c r="O58" s="3"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="119">
+      <c r="A59" s="120">
         <v>7</v>
       </c>
       <c r="B59" s="24">
@@ -3548,7 +3566,7 @@
       </c>
       <c r="M59" s="6"/>
       <c r="N59" s="10">
-        <f>SUM(E198:E202)</f>
+        <f>SUM(E204:E208)</f>
         <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
@@ -3556,7 +3574,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="120"/>
+      <c r="A60" s="121"/>
       <c r="B60" s="128">
         <v>41625</v>
       </c>
@@ -3569,7 +3587,7 @@
       <c r="E60" s="27">
         <v>2</v>
       </c>
-      <c r="F60" s="133">
+      <c r="F60" s="184">
         <f>SUM(E60:E62)</f>
         <v>3.75</v>
       </c>
@@ -3587,7 +3605,7 @@
       </c>
       <c r="M60" s="6"/>
       <c r="N60" s="10">
-        <f>SUM(E204:E208)</f>
+        <f>SUM(E210:E214)</f>
         <v>0</v>
       </c>
       <c r="O60" s="3" t="s">
@@ -3595,8 +3613,8 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="120"/>
-      <c r="B61" s="129"/>
+      <c r="A61" s="121"/>
+      <c r="B61" s="130"/>
       <c r="C61" s="59">
         <v>0.875</v>
       </c>
@@ -3606,7 +3624,7 @@
       <c r="E61" s="27">
         <v>0.75</v>
       </c>
-      <c r="F61" s="134"/>
+      <c r="F61" s="185"/>
       <c r="G61" s="109"/>
       <c r="H61" s="69" t="s">
         <v>17</v>
@@ -3622,8 +3640,8 @@
       <c r="O61" s="3"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="120"/>
-      <c r="B62" s="130"/>
+      <c r="A62" s="121"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="59">
         <v>0.91666666666666663</v>
       </c>
@@ -3633,7 +3651,7 @@
       <c r="E62" s="27">
         <v>1</v>
       </c>
-      <c r="F62" s="135"/>
+      <c r="F62" s="186"/>
       <c r="G62" s="109"/>
       <c r="H62" s="69" t="s">
         <v>25</v>
@@ -3649,7 +3667,7 @@
       <c r="O62" s="3"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="120"/>
+      <c r="A63" s="121"/>
       <c r="B63" s="24">
         <v>41626</v>
       </c>
@@ -3680,7 +3698,7 @@
       </c>
       <c r="M63" s="6"/>
       <c r="N63" s="10">
-        <f>SUM(E210:E215)</f>
+        <f>SUM(E216:E221)</f>
         <v>0</v>
       </c>
       <c r="O63" s="3" t="s">
@@ -3688,7 +3706,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="120"/>
+      <c r="A64" s="121"/>
       <c r="B64" s="24">
         <v>41627</v>
       </c>
@@ -3716,7 +3734,7 @@
       <c r="K64" s="35"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="120"/>
+      <c r="A65" s="121"/>
       <c r="B65" s="24">
         <v>41628</v>
       </c>
@@ -3734,7 +3752,7 @@
       <c r="K65" s="35"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="121"/>
+      <c r="A66" s="122"/>
       <c r="B66" s="24">
         <v>41629</v>
       </c>
@@ -3762,10 +3780,10 @@
       <c r="K66" s="35"/>
     </row>
     <row r="67" spans="1:11" s="104" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="116">
+      <c r="A67" s="117">
         <v>8</v>
       </c>
-      <c r="B67" s="141">
+      <c r="B67" s="131">
         <v>41631</v>
       </c>
       <c r="C67" s="105">
@@ -3777,11 +3795,11 @@
       <c r="E67" s="36">
         <v>1.5</v>
       </c>
-      <c r="F67" s="133">
+      <c r="F67" s="184">
         <f>SUM(E67:E69)</f>
         <v>3.17</v>
       </c>
-      <c r="G67" s="192">
+      <c r="G67" s="193">
         <v>25</v>
       </c>
       <c r="H67" s="33" t="s">
@@ -3796,8 +3814,8 @@
       <c r="K67" s="71"/>
     </row>
     <row r="68" spans="1:11" s="104" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="117"/>
-      <c r="B68" s="143"/>
+      <c r="A68" s="118"/>
+      <c r="B68" s="133"/>
       <c r="C68" s="105">
         <v>0.90625</v>
       </c>
@@ -3807,8 +3825,8 @@
       <c r="E68" s="71">
         <v>1</v>
       </c>
-      <c r="F68" s="134"/>
-      <c r="G68" s="192"/>
+      <c r="F68" s="185"/>
+      <c r="G68" s="193"/>
       <c r="H68" s="33" t="s">
         <v>19</v>
       </c>
@@ -3821,8 +3839,8 @@
       <c r="K68" s="71"/>
     </row>
     <row r="69" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="117"/>
-      <c r="B69" s="142"/>
+      <c r="A69" s="118"/>
+      <c r="B69" s="132"/>
       <c r="C69" s="105">
         <v>0.95138888888888884</v>
       </c>
@@ -3832,8 +3850,8 @@
       <c r="E69" s="71">
         <v>0.67</v>
       </c>
-      <c r="F69" s="135"/>
-      <c r="G69" s="192"/>
+      <c r="F69" s="186"/>
+      <c r="G69" s="193"/>
       <c r="H69" s="33" t="s">
         <v>17</v>
       </c>
@@ -3844,8 +3862,8 @@
       <c r="K69" s="71"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="117"/>
-      <c r="B70" s="141">
+      <c r="A70" s="118"/>
+      <c r="B70" s="131">
         <v>41632</v>
       </c>
       <c r="C70" s="74">
@@ -3857,11 +3875,11 @@
       <c r="E70" s="70">
         <v>1</v>
       </c>
-      <c r="F70" s="133">
+      <c r="F70" s="184">
         <f>SUM(E70:E72)</f>
         <v>2</v>
       </c>
-      <c r="G70" s="192"/>
+      <c r="G70" s="193"/>
       <c r="H70" s="75" t="s">
         <v>17</v>
       </c>
@@ -3872,8 +3890,8 @@
       <c r="K70" s="71"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="117"/>
-      <c r="B71" s="143"/>
+      <c r="A71" s="118"/>
+      <c r="B71" s="133"/>
       <c r="C71" s="74">
         <v>0.91666666666666663</v>
       </c>
@@ -3883,8 +3901,8 @@
       <c r="E71" s="70">
         <v>0.5</v>
       </c>
-      <c r="F71" s="134"/>
-      <c r="G71" s="192"/>
+      <c r="F71" s="185"/>
+      <c r="G71" s="193"/>
       <c r="H71" s="75" t="s">
         <v>19</v>
       </c>
@@ -3899,8 +3917,8 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="117"/>
-      <c r="B72" s="142"/>
+      <c r="A72" s="118"/>
+      <c r="B72" s="132"/>
       <c r="C72" s="105">
         <v>0.9375</v>
       </c>
@@ -3910,8 +3928,8 @@
       <c r="E72" s="70">
         <v>0.5</v>
       </c>
-      <c r="F72" s="135"/>
-      <c r="G72" s="192"/>
+      <c r="F72" s="186"/>
+      <c r="G72" s="193"/>
       <c r="H72" s="75" t="s">
         <v>19</v>
       </c>
@@ -3924,8 +3942,8 @@
       <c r="K72" s="71"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="117"/>
-      <c r="B73" s="141">
+      <c r="A73" s="118"/>
+      <c r="B73" s="131">
         <v>41633</v>
       </c>
       <c r="C73" s="74">
@@ -3937,11 +3955,11 @@
       <c r="E73" s="70">
         <v>1</v>
       </c>
-      <c r="F73" s="133">
+      <c r="F73" s="184">
         <f>SUM(E73:E75)</f>
         <v>2.5</v>
       </c>
-      <c r="G73" s="192"/>
+      <c r="G73" s="193"/>
       <c r="H73" s="75" t="s">
         <v>17</v>
       </c>
@@ -3952,8 +3970,8 @@
       <c r="K73" s="71"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="117"/>
-      <c r="B74" s="143"/>
+      <c r="A74" s="118"/>
+      <c r="B74" s="133"/>
       <c r="C74" s="74">
         <v>0.83333333333333337</v>
       </c>
@@ -3963,8 +3981,8 @@
       <c r="E74" s="70">
         <v>0.5</v>
       </c>
-      <c r="F74" s="134"/>
-      <c r="G74" s="192"/>
+      <c r="F74" s="185"/>
+      <c r="G74" s="193"/>
       <c r="H74" s="75" t="s">
         <v>18</v>
       </c>
@@ -3977,8 +3995,8 @@
       <c r="K74" s="71"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="117"/>
-      <c r="B75" s="142"/>
+      <c r="A75" s="118"/>
+      <c r="B75" s="132"/>
       <c r="C75" s="74">
         <v>0.875</v>
       </c>
@@ -3988,8 +4006,8 @@
       <c r="E75" s="70">
         <v>1</v>
       </c>
-      <c r="F75" s="135"/>
-      <c r="G75" s="192"/>
+      <c r="F75" s="186"/>
+      <c r="G75" s="193"/>
       <c r="H75" s="75" t="s">
         <v>17</v>
       </c>
@@ -4000,8 +4018,8 @@
       <c r="K75" s="71"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="117"/>
-      <c r="B76" s="141">
+      <c r="A76" s="118"/>
+      <c r="B76" s="131">
         <v>41634</v>
       </c>
       <c r="C76" s="74">
@@ -4013,11 +4031,11 @@
       <c r="E76" s="70">
         <v>0.5</v>
       </c>
-      <c r="F76" s="133">
+      <c r="F76" s="184">
         <f>SUM(E76:E78)</f>
         <v>1.67</v>
       </c>
-      <c r="G76" s="192"/>
+      <c r="G76" s="193"/>
       <c r="H76" s="75" t="s">
         <v>17</v>
       </c>
@@ -4028,8 +4046,8 @@
       <c r="K76" s="71"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="117"/>
-      <c r="B77" s="143"/>
+      <c r="A77" s="118"/>
+      <c r="B77" s="133"/>
       <c r="C77" s="74">
         <v>0.85416666666666663</v>
       </c>
@@ -4039,8 +4057,8 @@
       <c r="E77" s="70">
         <v>0.5</v>
       </c>
-      <c r="F77" s="134"/>
-      <c r="G77" s="192"/>
+      <c r="F77" s="185"/>
+      <c r="G77" s="193"/>
       <c r="H77" s="75" t="s">
         <v>25</v>
       </c>
@@ -4051,8 +4069,8 @@
       <c r="K77" s="71"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="117"/>
-      <c r="B78" s="143"/>
+      <c r="A78" s="118"/>
+      <c r="B78" s="133"/>
       <c r="C78" s="74">
         <v>0.97222222222222221</v>
       </c>
@@ -4062,8 +4080,8 @@
       <c r="E78" s="71">
         <v>0.67</v>
       </c>
-      <c r="F78" s="134"/>
-      <c r="G78" s="192"/>
+      <c r="F78" s="185"/>
+      <c r="G78" s="193"/>
       <c r="H78" s="75" t="s">
         <v>18</v>
       </c>
@@ -4076,8 +4094,8 @@
       <c r="K78" s="71"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="117"/>
-      <c r="B79" s="141">
+      <c r="A79" s="118"/>
+      <c r="B79" s="131">
         <v>41635</v>
       </c>
       <c r="C79" s="74">
@@ -4089,11 +4107,11 @@
       <c r="E79" s="70">
         <v>1.5</v>
       </c>
-      <c r="F79" s="133">
+      <c r="F79" s="184">
         <f>SUM(E79:E81)</f>
         <v>3.5</v>
       </c>
-      <c r="G79" s="192"/>
+      <c r="G79" s="193"/>
       <c r="H79" s="75" t="s">
         <v>18</v>
       </c>
@@ -4106,8 +4124,8 @@
       <c r="K79" s="71"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="117"/>
-      <c r="B80" s="143"/>
+      <c r="A80" s="118"/>
+      <c r="B80" s="133"/>
       <c r="C80" s="74">
         <v>0.83333333333333337</v>
       </c>
@@ -4117,8 +4135,8 @@
       <c r="E80" s="70">
         <v>1</v>
       </c>
-      <c r="F80" s="134"/>
-      <c r="G80" s="192"/>
+      <c r="F80" s="185"/>
+      <c r="G80" s="193"/>
       <c r="H80" s="75" t="s">
         <v>17</v>
       </c>
@@ -4129,8 +4147,8 @@
       <c r="K80" s="71"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="117"/>
-      <c r="B81" s="142"/>
+      <c r="A81" s="118"/>
+      <c r="B81" s="132"/>
       <c r="C81" s="74">
         <v>0.89583333333333337</v>
       </c>
@@ -4140,8 +4158,8 @@
       <c r="E81" s="70">
         <v>1</v>
       </c>
-      <c r="F81" s="135"/>
-      <c r="G81" s="192"/>
+      <c r="F81" s="186"/>
+      <c r="G81" s="193"/>
       <c r="H81" s="75" t="s">
         <v>17</v>
       </c>
@@ -4152,8 +4170,8 @@
       <c r="K81" s="71"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="117"/>
-      <c r="B82" s="141">
+      <c r="A82" s="118"/>
+      <c r="B82" s="131">
         <v>41636</v>
       </c>
       <c r="C82" s="74">
@@ -4165,11 +4183,11 @@
       <c r="E82" s="70">
         <v>1</v>
       </c>
-      <c r="F82" s="133">
+      <c r="F82" s="184">
         <f>SUM(E82:E83)</f>
         <v>2.75</v>
       </c>
-      <c r="G82" s="192"/>
+      <c r="G82" s="193"/>
       <c r="H82" s="75" t="s">
         <v>17</v>
       </c>
@@ -4180,8 +4198,8 @@
       <c r="K82" s="71"/>
     </row>
     <row r="83" spans="1:11" s="104" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A83" s="117"/>
-      <c r="B83" s="143"/>
+      <c r="A83" s="118"/>
+      <c r="B83" s="133"/>
       <c r="C83" s="105">
         <v>0.89583333333333337</v>
       </c>
@@ -4191,8 +4209,8 @@
       <c r="E83" s="71">
         <v>1.75</v>
       </c>
-      <c r="F83" s="134"/>
-      <c r="G83" s="192"/>
+      <c r="F83" s="185"/>
+      <c r="G83" s="193"/>
       <c r="H83" s="33" t="s">
         <v>18</v>
       </c>
@@ -4205,24 +4223,24 @@
       <c r="K83" s="71"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="193">
+      <c r="A84" s="197">
         <v>9</v>
       </c>
       <c r="B84" s="128">
         <v>41638</v>
       </c>
-      <c r="C84" s="197">
+      <c r="C84" s="116">
         <v>0.5625</v>
       </c>
-      <c r="D84" s="197">
+      <c r="D84" s="116">
         <v>0.61458333333333337</v>
       </c>
       <c r="E84" s="69">
         <v>1.25</v>
       </c>
-      <c r="F84" s="133">
+      <c r="F84" s="184">
         <f>SUM(E84:E86)</f>
-        <v>1.25</v>
+        <v>4.75</v>
       </c>
       <c r="G84" s="194">
         <v>25</v>
@@ -4230,2524 +4248,2709 @@
       <c r="H84" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I84" s="27"/>
+      <c r="I84" s="27" t="s">
+        <v>125</v>
+      </c>
       <c r="J84" s="27"/>
       <c r="K84" s="27"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="139"/>
-      <c r="B85" s="129"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="69"/>
-      <c r="F85" s="134"/>
+      <c r="A85" s="126"/>
+      <c r="B85" s="130"/>
+      <c r="C85" s="116">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D85" s="116">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E85" s="69">
+        <v>2</v>
+      </c>
+      <c r="F85" s="185"/>
       <c r="G85" s="195"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
+      <c r="H85" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="J85" s="27"/>
       <c r="K85" s="27"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="139"/>
-      <c r="B86" s="130"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="69"/>
-      <c r="F86" s="135"/>
+      <c r="A86" s="126"/>
+      <c r="B86" s="129"/>
+      <c r="C86" s="116">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D86" s="116">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E86" s="69">
+        <v>1.5</v>
+      </c>
+      <c r="F86" s="186"/>
       <c r="G86" s="195"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
+      <c r="H86" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86" s="27" t="s">
+        <v>124</v>
+      </c>
       <c r="J86" s="27"/>
       <c r="K86" s="27"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="139"/>
-      <c r="B87" s="24">
+      <c r="A87" s="126"/>
+      <c r="B87" s="128">
         <v>41639</v>
       </c>
-      <c r="C87" s="69"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="115">
-        <f t="shared" ref="F87:F109" si="0">SUM(E87:E91)</f>
-        <v>0</v>
+      <c r="C87" s="116">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D87" s="116">
+        <v>0.375</v>
+      </c>
+      <c r="E87" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="F87" s="184">
+        <f>SUM(E87:E90)</f>
+        <v>6.25</v>
       </c>
       <c r="G87" s="195"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
+      <c r="H87" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" s="27" t="s">
+        <v>127</v>
+      </c>
       <c r="J87" s="27"/>
       <c r="K87" s="27"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="139"/>
-      <c r="B88" s="24">
-        <v>41640</v>
-      </c>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="69"/>
-      <c r="F88" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A88" s="126"/>
+      <c r="B88" s="130"/>
+      <c r="C88" s="116">
+        <v>0.375</v>
+      </c>
+      <c r="D88" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="E88" s="69">
+        <v>3</v>
+      </c>
+      <c r="F88" s="185"/>
       <c r="G88" s="195"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
+      <c r="H88" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" s="27" t="s">
+        <v>126</v>
+      </c>
       <c r="J88" s="27"/>
       <c r="K88" s="27"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="139"/>
-      <c r="B89" s="24">
-        <v>41641</v>
-      </c>
-      <c r="C89" s="69"/>
-      <c r="D89" s="69"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A89" s="126"/>
+      <c r="B89" s="130"/>
+      <c r="C89" s="116">
+        <v>0.5625</v>
+      </c>
+      <c r="D89" s="116">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E89" s="69">
+        <v>1.25</v>
+      </c>
+      <c r="F89" s="185"/>
       <c r="G89" s="195"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
+      <c r="H89" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I89" s="27" t="s">
+        <v>128</v>
+      </c>
       <c r="J89" s="27"/>
       <c r="K89" s="27"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="139"/>
-      <c r="B90" s="24">
-        <v>41642</v>
-      </c>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A90" s="126"/>
+      <c r="B90" s="129"/>
+      <c r="C90" s="116">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D90" s="116">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E90" s="69">
+        <v>1.5</v>
+      </c>
+      <c r="F90" s="186"/>
       <c r="G90" s="195"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
+      <c r="H90" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="J90" s="27"/>
       <c r="K90" s="27"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="140"/>
-      <c r="B91" s="24">
-        <v>41643</v>
-      </c>
-      <c r="C91" s="69"/>
-      <c r="D91" s="69"/>
-      <c r="E91" s="69"/>
-      <c r="F91" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="196"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
+      <c r="A91" s="126"/>
+      <c r="B91" s="128">
+        <v>41640</v>
+      </c>
+      <c r="C91" s="116">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D91" s="116">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E91" s="69">
+        <v>1.5</v>
+      </c>
+      <c r="F91" s="184">
+        <f>SUM(E91:E92)</f>
+        <v>3</v>
+      </c>
+      <c r="G91" s="195"/>
+      <c r="H91" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="J91" s="27"/>
       <c r="K91" s="27"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="116">
+      <c r="A92" s="126"/>
+      <c r="B92" s="129"/>
+      <c r="C92" s="116">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D92" s="116">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E92" s="69">
+        <v>1.5</v>
+      </c>
+      <c r="F92" s="186"/>
+      <c r="G92" s="195"/>
+      <c r="H92" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I92" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J92" s="27"/>
+      <c r="K92" s="27"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="126"/>
+      <c r="B93" s="128">
+        <v>41641</v>
+      </c>
+      <c r="C93" s="116">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D93" s="116">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E93" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="F93" s="184">
+        <f>SUM(E93:E95)</f>
+        <v>1.5</v>
+      </c>
+      <c r="G93" s="195"/>
+      <c r="H93" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="J93" s="27"/>
+      <c r="K93" s="27"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="126"/>
+      <c r="B94" s="130"/>
+      <c r="C94" s="116">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D94" s="116">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E94" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="F94" s="185"/>
+      <c r="G94" s="195"/>
+      <c r="H94" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="J94" s="27"/>
+      <c r="K94" s="27"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="126"/>
+      <c r="B95" s="129"/>
+      <c r="C95" s="69"/>
+      <c r="D95" s="69"/>
+      <c r="E95" s="69"/>
+      <c r="F95" s="186"/>
+      <c r="G95" s="195"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="27"/>
+      <c r="K95" s="27"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="126"/>
+      <c r="B96" s="24">
+        <v>41642</v>
+      </c>
+      <c r="C96" s="69"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="115">
+        <f t="shared" ref="F96:F115" si="0">SUM(E96:E100)</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="195"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="27"/>
+      <c r="K96" s="27"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="127"/>
+      <c r="B97" s="24">
+        <v>41643</v>
+      </c>
+      <c r="C97" s="69"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="69"/>
+      <c r="F97" s="115">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="196"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="27"/>
+      <c r="K97" s="27"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="117">
         <v>10</v>
       </c>
-      <c r="B92" s="25">
+      <c r="B98" s="25">
         <v>41645</v>
       </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="189">
-        <v>25</v>
-      </c>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="117"/>
-      <c r="B93" s="25">
-        <v>41646</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="190"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="117"/>
-      <c r="B94" s="25">
-        <v>41647</v>
-      </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="190"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="117"/>
-      <c r="B95" s="25">
-        <v>41648</v>
-      </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="190"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="117"/>
-      <c r="B96" s="25">
-        <v>41649</v>
-      </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="190"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="118"/>
-      <c r="B97" s="25">
-        <v>41650</v>
-      </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="191"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="36"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="119">
-        <v>11</v>
-      </c>
-      <c r="B98" s="24">
-        <v>41652</v>
-      </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
       <c r="F98" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G98" s="189">
-        <v>35</v>
-      </c>
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="35"/>
+      <c r="G98" s="190">
+        <v>25</v>
+      </c>
+      <c r="H98" s="36"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="120"/>
-      <c r="B99" s="24">
-        <v>41653</v>
-      </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
+      <c r="A99" s="118"/>
+      <c r="B99" s="25">
+        <v>41646</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
       <c r="F99" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G99" s="190"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="35"/>
-      <c r="J99" s="35"/>
-      <c r="K99" s="35"/>
+      <c r="G99" s="191"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="120"/>
-      <c r="B100" s="24">
-        <v>41654</v>
-      </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
+      <c r="A100" s="118"/>
+      <c r="B100" s="25">
+        <v>41647</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
       <c r="F100" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G100" s="190"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="35"/>
-      <c r="J100" s="35"/>
-      <c r="K100" s="35"/>
+      <c r="G100" s="191"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="120"/>
-      <c r="B101" s="24">
-        <v>41655</v>
-      </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
+      <c r="A101" s="118"/>
+      <c r="B101" s="25">
+        <v>41648</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
       <c r="F101" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G101" s="190"/>
-      <c r="H101" s="35"/>
-      <c r="I101" s="35"/>
-      <c r="J101" s="35"/>
-      <c r="K101" s="35"/>
+      <c r="G101" s="191"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="120"/>
-      <c r="B102" s="24">
-        <v>41656</v>
-      </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
+      <c r="A102" s="118"/>
+      <c r="B102" s="25">
+        <v>41649</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
       <c r="F102" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G102" s="190"/>
-      <c r="H102" s="35"/>
-      <c r="I102" s="35"/>
-      <c r="J102" s="35"/>
-      <c r="K102" s="35"/>
+      <c r="G102" s="191"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="121"/>
-      <c r="B103" s="24">
-        <v>41658</v>
-      </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
+      <c r="A103" s="119"/>
+      <c r="B103" s="25">
+        <v>41650</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
       <c r="F103" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G103" s="191"/>
-      <c r="H103" s="35"/>
-      <c r="I103" s="35"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="35"/>
+      <c r="G103" s="192"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="116">
-        <v>12</v>
-      </c>
-      <c r="B104" s="25">
-        <v>41659</v>
-      </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
+      <c r="A104" s="120">
+        <v>11</v>
+      </c>
+      <c r="B104" s="24">
+        <v>41652</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
       <c r="F104" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G104" s="189">
+      <c r="G104" s="190">
         <v>35</v>
       </c>
-      <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="36"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="35"/>
+      <c r="J104" s="35"/>
+      <c r="K104" s="35"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="117"/>
-      <c r="B105" s="25">
-        <v>41660</v>
-      </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
+      <c r="A105" s="121"/>
+      <c r="B105" s="24">
+        <v>41653</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
       <c r="F105" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G105" s="190"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="36"/>
+      <c r="G105" s="191"/>
+      <c r="H105" s="35"/>
+      <c r="I105" s="35"/>
+      <c r="J105" s="35"/>
+      <c r="K105" s="35"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="117"/>
-      <c r="B106" s="25">
-        <v>41661</v>
-      </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
+      <c r="A106" s="121"/>
+      <c r="B106" s="24">
+        <v>41654</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
       <c r="F106" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G106" s="190"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="36"/>
-      <c r="K106" s="36"/>
+      <c r="G106" s="191"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="35"/>
+      <c r="J106" s="35"/>
+      <c r="K106" s="35"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="117"/>
-      <c r="B107" s="25">
-        <v>41662</v>
-      </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
+      <c r="A107" s="121"/>
+      <c r="B107" s="24">
+        <v>41655</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
       <c r="F107" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G107" s="190"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="36"/>
-      <c r="J107" s="36"/>
-      <c r="K107" s="36"/>
+      <c r="G107" s="191"/>
+      <c r="H107" s="35"/>
+      <c r="I107" s="35"/>
+      <c r="J107" s="35"/>
+      <c r="K107" s="35"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="117"/>
-      <c r="B108" s="25">
-        <v>41663</v>
-      </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
+      <c r="A108" s="121"/>
+      <c r="B108" s="24">
+        <v>41656</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
       <c r="F108" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G108" s="190"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="36"/>
+      <c r="G108" s="191"/>
+      <c r="H108" s="35"/>
+      <c r="I108" s="35"/>
+      <c r="J108" s="35"/>
+      <c r="K108" s="35"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="118"/>
-      <c r="B109" s="25">
-        <v>41665</v>
-      </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
+      <c r="A109" s="122"/>
+      <c r="B109" s="24">
+        <v>41658</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
       <c r="F109" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G109" s="191"/>
-      <c r="H109" s="36"/>
-      <c r="I109" s="36"/>
-      <c r="J109" s="36"/>
-      <c r="K109" s="36"/>
+      <c r="G109" s="192"/>
+      <c r="H109" s="35"/>
+      <c r="I109" s="35"/>
+      <c r="J109" s="35"/>
+      <c r="K109" s="35"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="119">
-        <v>13</v>
-      </c>
-      <c r="B110" s="24">
-        <v>41666</v>
-      </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5">
-        <f t="shared" ref="F110:F119" si="1">E110</f>
-        <v>0</v>
-      </c>
-      <c r="G110" s="5"/>
-      <c r="H110" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="I110" s="35"/>
-      <c r="J110" s="35"/>
-      <c r="K110" s="35"/>
+      <c r="A110" s="117">
+        <v>12</v>
+      </c>
+      <c r="B110" s="25">
+        <v>41659</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="190">
+        <v>35</v>
+      </c>
+      <c r="H110" s="36"/>
+      <c r="I110" s="36"/>
+      <c r="J110" s="36"/>
+      <c r="K110" s="36"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="120"/>
-      <c r="B111" s="24">
-        <v>41667</v>
-      </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G111" s="5"/>
-      <c r="H111" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="I111" s="35"/>
-      <c r="J111" s="35"/>
-      <c r="K111" s="35"/>
+      <c r="A111" s="118"/>
+      <c r="B111" s="25">
+        <v>41660</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G111" s="191"/>
+      <c r="H111" s="36"/>
+      <c r="I111" s="36"/>
+      <c r="J111" s="36"/>
+      <c r="K111" s="36"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="120"/>
-      <c r="B112" s="24">
-        <v>41668</v>
-      </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G112" s="5"/>
-      <c r="H112" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="I112" s="35"/>
-      <c r="J112" s="35"/>
-      <c r="K112" s="35"/>
+      <c r="A112" s="118"/>
+      <c r="B112" s="25">
+        <v>41661</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="191"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="36"/>
+      <c r="J112" s="36"/>
+      <c r="K112" s="36"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="120"/>
-      <c r="B113" s="24">
-        <v>41669</v>
-      </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G113" s="5"/>
-      <c r="H113" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="I113" s="35"/>
-      <c r="J113" s="35"/>
-      <c r="K113" s="35"/>
+      <c r="A113" s="118"/>
+      <c r="B113" s="25">
+        <v>41662</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G113" s="191"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="36"/>
+      <c r="K113" s="36"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="121"/>
-      <c r="B114" s="24">
-        <v>41670</v>
-      </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G114" s="5"/>
-      <c r="H114" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="I114" s="35"/>
-      <c r="J114" s="35"/>
-      <c r="K114" s="35"/>
+      <c r="A114" s="118"/>
+      <c r="B114" s="25">
+        <v>41663</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="191"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="36"/>
+      <c r="J114" s="36"/>
+      <c r="K114" s="36"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="116">
-        <v>14</v>
-      </c>
+      <c r="A115" s="119"/>
       <c r="B115" s="25">
-        <v>41673</v>
+        <v>41665</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
-      <c r="F115" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G115" s="6"/>
-      <c r="H115" s="37" t="s">
-        <v>30</v>
-      </c>
+      <c r="F115" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="192"/>
+      <c r="H115" s="36"/>
       <c r="I115" s="36"/>
       <c r="J115" s="36"/>
       <c r="K115" s="36"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="117"/>
-      <c r="B116" s="25">
-        <v>41674</v>
-      </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6">
+      <c r="A116" s="120">
+        <v>13</v>
+      </c>
+      <c r="B116" s="24">
+        <v>41666</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5">
+        <f t="shared" ref="F116:F125" si="1">E116</f>
+        <v>0</v>
+      </c>
+      <c r="G116" s="5"/>
+      <c r="H116" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I116" s="35"/>
+      <c r="J116" s="35"/>
+      <c r="K116" s="35"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="121"/>
+      <c r="B117" s="24">
+        <v>41667</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G116" s="6"/>
-      <c r="H116" s="37" t="s">
+      <c r="G117" s="5"/>
+      <c r="H117" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I116" s="36"/>
-      <c r="J116" s="36"/>
-      <c r="K116" s="36"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="117"/>
-      <c r="B117" s="25">
-        <v>41675</v>
-      </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6">
+      <c r="I117" s="35"/>
+      <c r="J117" s="35"/>
+      <c r="K117" s="35"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="121"/>
+      <c r="B118" s="24">
+        <v>41668</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G117" s="6"/>
-      <c r="H117" s="37" t="s">
+      <c r="G118" s="5"/>
+      <c r="H118" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I117" s="36"/>
-      <c r="J117" s="36"/>
-      <c r="K117" s="36"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="117"/>
-      <c r="B118" s="25">
-        <v>41676</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6">
+      <c r="I118" s="35"/>
+      <c r="J118" s="35"/>
+      <c r="K118" s="35"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="121"/>
+      <c r="B119" s="24">
+        <v>41669</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G118" s="6"/>
-      <c r="H118" s="37" t="s">
+      <c r="G119" s="5"/>
+      <c r="H119" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I118" s="36"/>
-      <c r="J118" s="36"/>
-      <c r="K118" s="36"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="118"/>
-      <c r="B119" s="25">
-        <v>41677</v>
-      </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="6"/>
-      <c r="H119" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="I119" s="36"/>
-      <c r="J119" s="36"/>
-      <c r="K119" s="36"/>
+      <c r="I119" s="35"/>
+      <c r="J119" s="35"/>
+      <c r="K119" s="35"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="119">
-        <v>15</v>
-      </c>
+      <c r="A120" s="122"/>
       <c r="B120" s="24">
-        <v>41680</v>
+        <v>41670</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
-      <c r="F120" s="107">
-        <f t="shared" ref="F120:F183" si="2">SUM(E120:E124)</f>
-        <v>0</v>
-      </c>
-      <c r="G120" s="189">
-        <v>35</v>
-      </c>
-      <c r="H120" s="35"/>
+      <c r="F120" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G120" s="5"/>
+      <c r="H120" s="35" t="s">
+        <v>30</v>
+      </c>
       <c r="I120" s="35"/>
       <c r="J120" s="35"/>
       <c r="K120" s="35"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="120"/>
-      <c r="B121" s="24">
+      <c r="A121" s="117">
+        <v>14</v>
+      </c>
+      <c r="B121" s="25">
+        <v>41673</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G121" s="6"/>
+      <c r="H121" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I121" s="36"/>
+      <c r="J121" s="36"/>
+      <c r="K121" s="36"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="118"/>
+      <c r="B122" s="25">
+        <v>41674</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="6"/>
+      <c r="H122" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I122" s="36"/>
+      <c r="J122" s="36"/>
+      <c r="K122" s="36"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="118"/>
+      <c r="B123" s="25">
+        <v>41675</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G123" s="6"/>
+      <c r="H123" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I123" s="36"/>
+      <c r="J123" s="36"/>
+      <c r="K123" s="36"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="118"/>
+      <c r="B124" s="25">
+        <v>41676</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G124" s="6"/>
+      <c r="H124" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I124" s="36"/>
+      <c r="J124" s="36"/>
+      <c r="K124" s="36"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="119"/>
+      <c r="B125" s="25">
+        <v>41677</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G125" s="6"/>
+      <c r="H125" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I125" s="36"/>
+      <c r="J125" s="36"/>
+      <c r="K125" s="36"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="120">
+        <v>15</v>
+      </c>
+      <c r="B126" s="24">
+        <v>41680</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="107">
+        <f t="shared" ref="F126:F189" si="2">SUM(E126:E130)</f>
+        <v>0</v>
+      </c>
+      <c r="G126" s="190">
+        <v>35</v>
+      </c>
+      <c r="H126" s="35"/>
+      <c r="I126" s="35"/>
+      <c r="J126" s="35"/>
+      <c r="K126" s="35"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="121"/>
+      <c r="B127" s="24">
         <v>41681</v>
       </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="107">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G121" s="190"/>
-      <c r="H121" s="35"/>
-      <c r="I121" s="35"/>
-      <c r="J121" s="35"/>
-      <c r="K121" s="35"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="120"/>
-      <c r="B122" s="24">
-        <v>41682</v>
-      </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="107">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G122" s="190"/>
-      <c r="H122" s="35"/>
-      <c r="I122" s="35"/>
-      <c r="J122" s="35"/>
-      <c r="K122" s="35"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="120"/>
-      <c r="B123" s="24">
-        <v>41683</v>
-      </c>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="107">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G123" s="190"/>
-      <c r="H123" s="35"/>
-      <c r="I123" s="35"/>
-      <c r="J123" s="35"/>
-      <c r="K123" s="35"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="120"/>
-      <c r="B124" s="24">
-        <v>41684</v>
-      </c>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="107">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G124" s="190"/>
-      <c r="H124" s="35"/>
-      <c r="I124" s="35"/>
-      <c r="J124" s="35"/>
-      <c r="K124" s="35"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="121"/>
-      <c r="B125" s="24">
-        <v>41685</v>
-      </c>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="107">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G125" s="191"/>
-      <c r="H125" s="35"/>
-      <c r="I125" s="35"/>
-      <c r="J125" s="35"/>
-      <c r="K125" s="35"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="116">
-        <v>16</v>
-      </c>
-      <c r="B126" s="25">
-        <v>41687</v>
-      </c>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="107">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G126" s="189">
-        <v>35</v>
-      </c>
-      <c r="H126" s="36"/>
-      <c r="I126" s="36"/>
-      <c r="J126" s="36"/>
-      <c r="K126" s="36"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="117"/>
-      <c r="B127" s="25">
-        <v>41688</v>
-      </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
       <c r="F127" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G127" s="190"/>
-      <c r="H127" s="36"/>
-      <c r="I127" s="36"/>
-      <c r="J127" s="36"/>
-      <c r="K127" s="36"/>
+      <c r="G127" s="191"/>
+      <c r="H127" s="35"/>
+      <c r="I127" s="35"/>
+      <c r="J127" s="35"/>
+      <c r="K127" s="35"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="117"/>
-      <c r="B128" s="25">
-        <v>41689</v>
-      </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
+      <c r="A128" s="121"/>
+      <c r="B128" s="24">
+        <v>41682</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
       <c r="F128" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G128" s="190"/>
-      <c r="H128" s="36"/>
-      <c r="I128" s="36"/>
-      <c r="J128" s="36"/>
-      <c r="K128" s="36"/>
+      <c r="G128" s="191"/>
+      <c r="H128" s="35"/>
+      <c r="I128" s="35"/>
+      <c r="J128" s="35"/>
+      <c r="K128" s="35"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="117"/>
-      <c r="B129" s="25">
-        <v>41690</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
+      <c r="A129" s="121"/>
+      <c r="B129" s="24">
+        <v>41683</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
       <c r="F129" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G129" s="190"/>
-      <c r="H129" s="36"/>
-      <c r="I129" s="36"/>
-      <c r="J129" s="36"/>
-      <c r="K129" s="36"/>
+      <c r="G129" s="191"/>
+      <c r="H129" s="35"/>
+      <c r="I129" s="35"/>
+      <c r="J129" s="35"/>
+      <c r="K129" s="35"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="117"/>
-      <c r="B130" s="25">
-        <v>41691</v>
-      </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
+      <c r="A130" s="121"/>
+      <c r="B130" s="24">
+        <v>41684</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
       <c r="F130" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G130" s="190"/>
-      <c r="H130" s="36"/>
-      <c r="I130" s="36"/>
-      <c r="J130" s="36"/>
-      <c r="K130" s="36"/>
+      <c r="G130" s="191"/>
+      <c r="H130" s="35"/>
+      <c r="I130" s="35"/>
+      <c r="J130" s="35"/>
+      <c r="K130" s="35"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="118"/>
-      <c r="B131" s="25">
-        <v>41692</v>
-      </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
+      <c r="A131" s="122"/>
+      <c r="B131" s="24">
+        <v>41685</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
       <c r="F131" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G131" s="191"/>
-      <c r="H131" s="36"/>
-      <c r="I131" s="36"/>
-      <c r="J131" s="36"/>
-      <c r="K131" s="36"/>
+      <c r="G131" s="192"/>
+      <c r="H131" s="35"/>
+      <c r="I131" s="35"/>
+      <c r="J131" s="35"/>
+      <c r="K131" s="35"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="119">
-        <v>17</v>
-      </c>
-      <c r="B132" s="24">
-        <v>41694</v>
-      </c>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
+      <c r="A132" s="117">
+        <v>16</v>
+      </c>
+      <c r="B132" s="25">
+        <v>41687</v>
+      </c>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
       <c r="F132" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G132" s="189">
+      <c r="G132" s="190">
         <v>35</v>
       </c>
-      <c r="H132" s="35"/>
-      <c r="I132" s="35"/>
-      <c r="J132" s="35"/>
-      <c r="K132" s="35"/>
+      <c r="H132" s="36"/>
+      <c r="I132" s="36"/>
+      <c r="J132" s="36"/>
+      <c r="K132" s="36"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="120"/>
-      <c r="B133" s="24">
-        <v>41695</v>
-      </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
+      <c r="A133" s="118"/>
+      <c r="B133" s="25">
+        <v>41688</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
       <c r="F133" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G133" s="190"/>
-      <c r="H133" s="35"/>
-      <c r="I133" s="35"/>
-      <c r="J133" s="35"/>
-      <c r="K133" s="35"/>
+      <c r="G133" s="191"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="36"/>
+      <c r="J133" s="36"/>
+      <c r="K133" s="36"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="120"/>
-      <c r="B134" s="24">
-        <v>41696</v>
-      </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
+      <c r="A134" s="118"/>
+      <c r="B134" s="25">
+        <v>41689</v>
+      </c>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
       <c r="F134" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G134" s="190"/>
-      <c r="H134" s="35"/>
-      <c r="I134" s="35"/>
-      <c r="J134" s="35"/>
-      <c r="K134" s="35"/>
+      <c r="G134" s="191"/>
+      <c r="H134" s="36"/>
+      <c r="I134" s="36"/>
+      <c r="J134" s="36"/>
+      <c r="K134" s="36"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="120"/>
-      <c r="B135" s="24">
-        <v>41697</v>
-      </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
+      <c r="A135" s="118"/>
+      <c r="B135" s="25">
+        <v>41690</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
       <c r="F135" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G135" s="190"/>
-      <c r="H135" s="35"/>
-      <c r="I135" s="35"/>
-      <c r="J135" s="35"/>
-      <c r="K135" s="35"/>
+      <c r="G135" s="191"/>
+      <c r="H135" s="36"/>
+      <c r="I135" s="36"/>
+      <c r="J135" s="36"/>
+      <c r="K135" s="36"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="120"/>
-      <c r="B136" s="24">
-        <v>41698</v>
-      </c>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
+      <c r="A136" s="118"/>
+      <c r="B136" s="25">
+        <v>41691</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
       <c r="F136" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G136" s="190"/>
-      <c r="H136" s="35"/>
-      <c r="I136" s="35"/>
-      <c r="J136" s="35"/>
-      <c r="K136" s="35"/>
+      <c r="G136" s="191"/>
+      <c r="H136" s="36"/>
+      <c r="I136" s="36"/>
+      <c r="J136" s="36"/>
+      <c r="K136" s="36"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="121"/>
-      <c r="B137" s="24">
-        <v>41699</v>
-      </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
+      <c r="A137" s="119"/>
+      <c r="B137" s="25">
+        <v>41692</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
       <c r="F137" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G137" s="191"/>
-      <c r="H137" s="35"/>
-      <c r="I137" s="35"/>
-      <c r="J137" s="35"/>
-      <c r="K137" s="35"/>
+      <c r="G137" s="192"/>
+      <c r="H137" s="36"/>
+      <c r="I137" s="36"/>
+      <c r="J137" s="36"/>
+      <c r="K137" s="36"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="116">
-        <v>18</v>
-      </c>
-      <c r="B138" s="25">
-        <v>41701</v>
-      </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
+      <c r="A138" s="120">
+        <v>17</v>
+      </c>
+      <c r="B138" s="24">
+        <v>41694</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
       <c r="F138" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G138" s="189">
+      <c r="G138" s="190">
         <v>35</v>
       </c>
-      <c r="H138" s="36"/>
-      <c r="I138" s="36"/>
-      <c r="J138" s="36"/>
-      <c r="K138" s="36"/>
+      <c r="H138" s="35"/>
+      <c r="I138" s="35"/>
+      <c r="J138" s="35"/>
+      <c r="K138" s="35"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="117"/>
-      <c r="B139" s="25">
-        <v>41702</v>
-      </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
+      <c r="A139" s="121"/>
+      <c r="B139" s="24">
+        <v>41695</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
       <c r="F139" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G139" s="190"/>
-      <c r="H139" s="36"/>
-      <c r="I139" s="36"/>
-      <c r="J139" s="36"/>
-      <c r="K139" s="36"/>
+      <c r="G139" s="191"/>
+      <c r="H139" s="35"/>
+      <c r="I139" s="35"/>
+      <c r="J139" s="35"/>
+      <c r="K139" s="35"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="117"/>
-      <c r="B140" s="25">
-        <v>41703</v>
-      </c>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
+      <c r="A140" s="121"/>
+      <c r="B140" s="24">
+        <v>41696</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
       <c r="F140" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G140" s="190"/>
-      <c r="H140" s="36"/>
-      <c r="I140" s="36"/>
-      <c r="J140" s="36"/>
-      <c r="K140" s="36"/>
+      <c r="G140" s="191"/>
+      <c r="H140" s="35"/>
+      <c r="I140" s="35"/>
+      <c r="J140" s="35"/>
+      <c r="K140" s="35"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="117"/>
-      <c r="B141" s="25">
-        <v>41704</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
+      <c r="A141" s="121"/>
+      <c r="B141" s="24">
+        <v>41697</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
       <c r="F141" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G141" s="190"/>
-      <c r="H141" s="36"/>
-      <c r="I141" s="36"/>
-      <c r="J141" s="36"/>
-      <c r="K141" s="36"/>
+      <c r="G141" s="191"/>
+      <c r="H141" s="35"/>
+      <c r="I141" s="35"/>
+      <c r="J141" s="35"/>
+      <c r="K141" s="35"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="117"/>
-      <c r="B142" s="25">
-        <v>41705</v>
-      </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
+      <c r="A142" s="121"/>
+      <c r="B142" s="24">
+        <v>41698</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
       <c r="F142" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G142" s="190"/>
-      <c r="H142" s="36"/>
-      <c r="I142" s="36"/>
-      <c r="J142" s="36"/>
-      <c r="K142" s="36"/>
+      <c r="G142" s="191"/>
+      <c r="H142" s="35"/>
+      <c r="I142" s="35"/>
+      <c r="J142" s="35"/>
+      <c r="K142" s="35"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="118"/>
-      <c r="B143" s="25">
-        <v>41706</v>
-      </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
+      <c r="A143" s="122"/>
+      <c r="B143" s="24">
+        <v>41699</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
       <c r="F143" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G143" s="191"/>
-      <c r="H143" s="36"/>
-      <c r="I143" s="36"/>
-      <c r="J143" s="36"/>
-      <c r="K143" s="36"/>
+      <c r="G143" s="192"/>
+      <c r="H143" s="35"/>
+      <c r="I143" s="35"/>
+      <c r="J143" s="35"/>
+      <c r="K143" s="35"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="119">
-        <v>19</v>
-      </c>
-      <c r="B144" s="24">
-        <v>41708</v>
-      </c>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
+      <c r="A144" s="117">
+        <v>18</v>
+      </c>
+      <c r="B144" s="25">
+        <v>41701</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
       <c r="F144" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G144" s="189">
+      <c r="G144" s="190">
         <v>35</v>
       </c>
-      <c r="H144" s="35"/>
-      <c r="I144" s="35"/>
-      <c r="J144" s="35"/>
-      <c r="K144" s="35"/>
+      <c r="H144" s="36"/>
+      <c r="I144" s="36"/>
+      <c r="J144" s="36"/>
+      <c r="K144" s="36"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="120"/>
-      <c r="B145" s="24">
-        <v>41709</v>
-      </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
+      <c r="A145" s="118"/>
+      <c r="B145" s="25">
+        <v>41702</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
       <c r="F145" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G145" s="190"/>
-      <c r="H145" s="35"/>
-      <c r="I145" s="35"/>
-      <c r="J145" s="35"/>
-      <c r="K145" s="35"/>
+      <c r="G145" s="191"/>
+      <c r="H145" s="36"/>
+      <c r="I145" s="36"/>
+      <c r="J145" s="36"/>
+      <c r="K145" s="36"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="120"/>
-      <c r="B146" s="24">
-        <v>41710</v>
-      </c>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
+      <c r="A146" s="118"/>
+      <c r="B146" s="25">
+        <v>41703</v>
+      </c>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
       <c r="F146" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G146" s="190"/>
-      <c r="H146" s="35"/>
-      <c r="I146" s="35"/>
-      <c r="J146" s="35"/>
-      <c r="K146" s="35"/>
+      <c r="G146" s="191"/>
+      <c r="H146" s="36"/>
+      <c r="I146" s="36"/>
+      <c r="J146" s="36"/>
+      <c r="K146" s="36"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="120"/>
-      <c r="B147" s="24">
-        <v>41711</v>
-      </c>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
+      <c r="A147" s="118"/>
+      <c r="B147" s="25">
+        <v>41704</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
       <c r="F147" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G147" s="190"/>
-      <c r="H147" s="35"/>
-      <c r="I147" s="35"/>
-      <c r="J147" s="35"/>
-      <c r="K147" s="35"/>
+      <c r="G147" s="191"/>
+      <c r="H147" s="36"/>
+      <c r="I147" s="36"/>
+      <c r="J147" s="36"/>
+      <c r="K147" s="36"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="120"/>
-      <c r="B148" s="24">
-        <v>41712</v>
-      </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
+      <c r="A148" s="118"/>
+      <c r="B148" s="25">
+        <v>41705</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
       <c r="F148" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G148" s="190"/>
-      <c r="H148" s="35"/>
-      <c r="I148" s="35"/>
-      <c r="J148" s="35"/>
-      <c r="K148" s="35"/>
+      <c r="G148" s="191"/>
+      <c r="H148" s="36"/>
+      <c r="I148" s="36"/>
+      <c r="J148" s="36"/>
+      <c r="K148" s="36"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="121"/>
-      <c r="B149" s="24">
-        <v>41713</v>
-      </c>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
+      <c r="A149" s="119"/>
+      <c r="B149" s="25">
+        <v>41706</v>
+      </c>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
       <c r="F149" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G149" s="191"/>
-      <c r="H149" s="35"/>
-      <c r="I149" s="35"/>
-      <c r="J149" s="35"/>
-      <c r="K149" s="35"/>
+      <c r="G149" s="192"/>
+      <c r="H149" s="36"/>
+      <c r="I149" s="36"/>
+      <c r="J149" s="36"/>
+      <c r="K149" s="36"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="116">
-        <v>20</v>
-      </c>
-      <c r="B150" s="25">
-        <v>41715</v>
-      </c>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
+      <c r="A150" s="120">
+        <v>19</v>
+      </c>
+      <c r="B150" s="24">
+        <v>41708</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
       <c r="F150" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G150" s="189">
+      <c r="G150" s="190">
         <v>35</v>
       </c>
-      <c r="H150" s="36"/>
-      <c r="I150" s="36"/>
-      <c r="J150" s="36"/>
-      <c r="K150" s="36"/>
+      <c r="H150" s="35"/>
+      <c r="I150" s="35"/>
+      <c r="J150" s="35"/>
+      <c r="K150" s="35"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="117"/>
-      <c r="B151" s="25">
-        <v>41716</v>
-      </c>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
+      <c r="A151" s="121"/>
+      <c r="B151" s="24">
+        <v>41709</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
       <c r="F151" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G151" s="190"/>
-      <c r="H151" s="36"/>
-      <c r="I151" s="36"/>
-      <c r="J151" s="36"/>
-      <c r="K151" s="36"/>
+      <c r="G151" s="191"/>
+      <c r="H151" s="35"/>
+      <c r="I151" s="35"/>
+      <c r="J151" s="35"/>
+      <c r="K151" s="35"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="117"/>
-      <c r="B152" s="25">
-        <v>41717</v>
-      </c>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
+      <c r="A152" s="121"/>
+      <c r="B152" s="24">
+        <v>41710</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
       <c r="F152" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G152" s="190"/>
-      <c r="H152" s="36"/>
-      <c r="I152" s="36"/>
-      <c r="J152" s="36"/>
-      <c r="K152" s="36"/>
+      <c r="G152" s="191"/>
+      <c r="H152" s="35"/>
+      <c r="I152" s="35"/>
+      <c r="J152" s="35"/>
+      <c r="K152" s="35"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="117"/>
-      <c r="B153" s="25">
-        <v>41718</v>
-      </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
+      <c r="A153" s="121"/>
+      <c r="B153" s="24">
+        <v>41711</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
       <c r="F153" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G153" s="190"/>
-      <c r="H153" s="36"/>
-      <c r="I153" s="36"/>
-      <c r="J153" s="36"/>
-      <c r="K153" s="36"/>
+      <c r="G153" s="191"/>
+      <c r="H153" s="35"/>
+      <c r="I153" s="35"/>
+      <c r="J153" s="35"/>
+      <c r="K153" s="35"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="117"/>
-      <c r="B154" s="25">
-        <v>41719</v>
-      </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
+      <c r="A154" s="121"/>
+      <c r="B154" s="24">
+        <v>41712</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
       <c r="F154" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G154" s="190"/>
-      <c r="H154" s="36"/>
-      <c r="I154" s="36"/>
-      <c r="J154" s="36"/>
-      <c r="K154" s="36"/>
+      <c r="G154" s="191"/>
+      <c r="H154" s="35"/>
+      <c r="I154" s="35"/>
+      <c r="J154" s="35"/>
+      <c r="K154" s="35"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="118"/>
-      <c r="B155" s="25">
-        <v>41720</v>
-      </c>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
+      <c r="A155" s="122"/>
+      <c r="B155" s="24">
+        <v>41713</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
       <c r="F155" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G155" s="191"/>
-      <c r="H155" s="36"/>
-      <c r="I155" s="36"/>
-      <c r="J155" s="36"/>
-      <c r="K155" s="36"/>
+      <c r="G155" s="192"/>
+      <c r="H155" s="35"/>
+      <c r="I155" s="35"/>
+      <c r="J155" s="35"/>
+      <c r="K155" s="35"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="119">
-        <v>21</v>
-      </c>
-      <c r="B156" s="24">
-        <v>41722</v>
-      </c>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
+      <c r="A156" s="117">
+        <v>20</v>
+      </c>
+      <c r="B156" s="25">
+        <v>41715</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
       <c r="F156" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G156" s="189">
+      <c r="G156" s="190">
         <v>35</v>
       </c>
-      <c r="H156" s="35"/>
-      <c r="I156" s="35"/>
-      <c r="J156" s="35"/>
-      <c r="K156" s="35"/>
+      <c r="H156" s="36"/>
+      <c r="I156" s="36"/>
+      <c r="J156" s="36"/>
+      <c r="K156" s="36"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="120"/>
-      <c r="B157" s="24">
-        <v>41723</v>
-      </c>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
+      <c r="A157" s="118"/>
+      <c r="B157" s="25">
+        <v>41716</v>
+      </c>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
       <c r="F157" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G157" s="190"/>
-      <c r="H157" s="35"/>
-      <c r="I157" s="35"/>
-      <c r="J157" s="35"/>
-      <c r="K157" s="35"/>
+      <c r="G157" s="191"/>
+      <c r="H157" s="36"/>
+      <c r="I157" s="36"/>
+      <c r="J157" s="36"/>
+      <c r="K157" s="36"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="120"/>
-      <c r="B158" s="24">
-        <v>41724</v>
-      </c>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
+      <c r="A158" s="118"/>
+      <c r="B158" s="25">
+        <v>41717</v>
+      </c>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
       <c r="F158" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G158" s="190"/>
-      <c r="H158" s="35"/>
-      <c r="I158" s="35"/>
-      <c r="J158" s="35"/>
-      <c r="K158" s="35"/>
+      <c r="G158" s="191"/>
+      <c r="H158" s="36"/>
+      <c r="I158" s="36"/>
+      <c r="J158" s="36"/>
+      <c r="K158" s="36"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="120"/>
-      <c r="B159" s="24">
-        <v>41725</v>
-      </c>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
+      <c r="A159" s="118"/>
+      <c r="B159" s="25">
+        <v>41718</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
       <c r="F159" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G159" s="190"/>
-      <c r="H159" s="35"/>
-      <c r="I159" s="35"/>
-      <c r="J159" s="35"/>
-      <c r="K159" s="35"/>
+      <c r="G159" s="191"/>
+      <c r="H159" s="36"/>
+      <c r="I159" s="36"/>
+      <c r="J159" s="36"/>
+      <c r="K159" s="36"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="120"/>
-      <c r="B160" s="24">
-        <v>41726</v>
-      </c>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
+      <c r="A160" s="118"/>
+      <c r="B160" s="25">
+        <v>41719</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
       <c r="F160" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G160" s="190"/>
-      <c r="H160" s="35"/>
-      <c r="I160" s="35"/>
-      <c r="J160" s="35"/>
-      <c r="K160" s="35"/>
+      <c r="G160" s="191"/>
+      <c r="H160" s="36"/>
+      <c r="I160" s="36"/>
+      <c r="J160" s="36"/>
+      <c r="K160" s="36"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="121"/>
-      <c r="B161" s="24">
-        <v>41727</v>
-      </c>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
+      <c r="A161" s="119"/>
+      <c r="B161" s="25">
+        <v>41720</v>
+      </c>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
       <c r="F161" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G161" s="191"/>
-      <c r="H161" s="35"/>
-      <c r="I161" s="35"/>
-      <c r="J161" s="35"/>
-      <c r="K161" s="35"/>
+      <c r="G161" s="192"/>
+      <c r="H161" s="36"/>
+      <c r="I161" s="36"/>
+      <c r="J161" s="36"/>
+      <c r="K161" s="36"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="116">
-        <v>22</v>
-      </c>
-      <c r="B162" s="25">
-        <v>41729</v>
-      </c>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
+      <c r="A162" s="120">
+        <v>21</v>
+      </c>
+      <c r="B162" s="24">
+        <v>41722</v>
+      </c>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
       <c r="F162" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G162" s="189">
+      <c r="G162" s="190">
         <v>35</v>
       </c>
-      <c r="H162" s="36"/>
-      <c r="I162" s="36"/>
-      <c r="J162" s="36"/>
-      <c r="K162" s="36"/>
+      <c r="H162" s="35"/>
+      <c r="I162" s="35"/>
+      <c r="J162" s="35"/>
+      <c r="K162" s="35"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="117"/>
-      <c r="B163" s="25">
-        <v>41730</v>
-      </c>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
+      <c r="A163" s="121"/>
+      <c r="B163" s="24">
+        <v>41723</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
       <c r="F163" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G163" s="190"/>
-      <c r="H163" s="36"/>
-      <c r="I163" s="36"/>
-      <c r="J163" s="36"/>
-      <c r="K163" s="36"/>
+      <c r="G163" s="191"/>
+      <c r="H163" s="35"/>
+      <c r="I163" s="35"/>
+      <c r="J163" s="35"/>
+      <c r="K163" s="35"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="117"/>
-      <c r="B164" s="25">
-        <v>41731</v>
-      </c>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
+      <c r="A164" s="121"/>
+      <c r="B164" s="24">
+        <v>41724</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
       <c r="F164" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G164" s="190"/>
-      <c r="H164" s="36"/>
-      <c r="I164" s="36"/>
-      <c r="J164" s="36"/>
-      <c r="K164" s="36"/>
+      <c r="G164" s="191"/>
+      <c r="H164" s="35"/>
+      <c r="I164" s="35"/>
+      <c r="J164" s="35"/>
+      <c r="K164" s="35"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="117"/>
-      <c r="B165" s="25">
-        <v>41732</v>
-      </c>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-      <c r="E165" s="6"/>
+      <c r="A165" s="121"/>
+      <c r="B165" s="24">
+        <v>41725</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
       <c r="F165" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G165" s="190"/>
-      <c r="H165" s="36"/>
-      <c r="I165" s="36"/>
-      <c r="J165" s="36"/>
-      <c r="K165" s="36"/>
+      <c r="G165" s="191"/>
+      <c r="H165" s="35"/>
+      <c r="I165" s="35"/>
+      <c r="J165" s="35"/>
+      <c r="K165" s="35"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="117"/>
-      <c r="B166" s="25">
-        <v>41733</v>
-      </c>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6"/>
+      <c r="A166" s="121"/>
+      <c r="B166" s="24">
+        <v>41726</v>
+      </c>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
       <c r="F166" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G166" s="190"/>
-      <c r="H166" s="36"/>
-      <c r="I166" s="36"/>
-      <c r="J166" s="36"/>
-      <c r="K166" s="36"/>
+      <c r="G166" s="191"/>
+      <c r="H166" s="35"/>
+      <c r="I166" s="35"/>
+      <c r="J166" s="35"/>
+      <c r="K166" s="35"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="118"/>
-      <c r="B167" s="25">
-        <v>41734</v>
-      </c>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
+      <c r="A167" s="122"/>
+      <c r="B167" s="24">
+        <v>41727</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
       <c r="F167" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G167" s="191"/>
-      <c r="H167" s="36"/>
-      <c r="I167" s="36"/>
-      <c r="J167" s="36"/>
-      <c r="K167" s="36"/>
+      <c r="G167" s="192"/>
+      <c r="H167" s="35"/>
+      <c r="I167" s="35"/>
+      <c r="J167" s="35"/>
+      <c r="K167" s="35"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="119">
-        <v>23</v>
-      </c>
-      <c r="B168" s="24">
-        <v>41736</v>
-      </c>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
+      <c r="A168" s="117">
+        <v>22</v>
+      </c>
+      <c r="B168" s="25">
+        <v>41729</v>
+      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
       <c r="F168" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G168" s="189">
+      <c r="G168" s="190">
         <v>35</v>
       </c>
-      <c r="H168" s="35"/>
-      <c r="I168" s="35"/>
-      <c r="J168" s="35"/>
-      <c r="K168" s="35"/>
+      <c r="H168" s="36"/>
+      <c r="I168" s="36"/>
+      <c r="J168" s="36"/>
+      <c r="K168" s="36"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="120"/>
-      <c r="B169" s="24">
-        <v>41737</v>
-      </c>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
+      <c r="A169" s="118"/>
+      <c r="B169" s="25">
+        <v>41730</v>
+      </c>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
       <c r="F169" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G169" s="190"/>
-      <c r="H169" s="35"/>
-      <c r="I169" s="35"/>
-      <c r="J169" s="35"/>
-      <c r="K169" s="35"/>
+      <c r="G169" s="191"/>
+      <c r="H169" s="36"/>
+      <c r="I169" s="36"/>
+      <c r="J169" s="36"/>
+      <c r="K169" s="36"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="120"/>
-      <c r="B170" s="24">
-        <v>41738</v>
-      </c>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
+      <c r="A170" s="118"/>
+      <c r="B170" s="25">
+        <v>41731</v>
+      </c>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
       <c r="F170" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G170" s="190"/>
-      <c r="H170" s="35"/>
-      <c r="I170" s="35"/>
-      <c r="J170" s="35"/>
-      <c r="K170" s="35"/>
+      <c r="G170" s="191"/>
+      <c r="H170" s="36"/>
+      <c r="I170" s="36"/>
+      <c r="J170" s="36"/>
+      <c r="K170" s="36"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="120"/>
-      <c r="B171" s="24">
-        <v>41739</v>
-      </c>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
+      <c r="A171" s="118"/>
+      <c r="B171" s="25">
+        <v>41732</v>
+      </c>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
       <c r="F171" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G171" s="190"/>
-      <c r="H171" s="35"/>
-      <c r="I171" s="35"/>
-      <c r="J171" s="35"/>
-      <c r="K171" s="35"/>
+      <c r="G171" s="191"/>
+      <c r="H171" s="36"/>
+      <c r="I171" s="36"/>
+      <c r="J171" s="36"/>
+      <c r="K171" s="36"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="120"/>
-      <c r="B172" s="24">
-        <v>41740</v>
-      </c>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
+      <c r="A172" s="118"/>
+      <c r="B172" s="25">
+        <v>41733</v>
+      </c>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
       <c r="F172" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G172" s="190"/>
-      <c r="H172" s="35"/>
-      <c r="I172" s="35"/>
-      <c r="J172" s="35"/>
-      <c r="K172" s="35"/>
+      <c r="G172" s="191"/>
+      <c r="H172" s="36"/>
+      <c r="I172" s="36"/>
+      <c r="J172" s="36"/>
+      <c r="K172" s="36"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="121"/>
-      <c r="B173" s="24">
-        <v>41741</v>
-      </c>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
+      <c r="A173" s="119"/>
+      <c r="B173" s="25">
+        <v>41734</v>
+      </c>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
       <c r="F173" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G173" s="191"/>
-      <c r="H173" s="35"/>
-      <c r="I173" s="35"/>
-      <c r="J173" s="35"/>
-      <c r="K173" s="35"/>
+      <c r="G173" s="192"/>
+      <c r="H173" s="36"/>
+      <c r="I173" s="36"/>
+      <c r="J173" s="36"/>
+      <c r="K173" s="36"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="116">
-        <v>24</v>
-      </c>
-      <c r="B174" s="25">
-        <v>41743</v>
-      </c>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
+      <c r="A174" s="120">
+        <v>23</v>
+      </c>
+      <c r="B174" s="24">
+        <v>41736</v>
+      </c>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
       <c r="F174" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G174" s="189">
+      <c r="G174" s="190">
         <v>35</v>
       </c>
-      <c r="H174" s="36"/>
-      <c r="I174" s="36"/>
-      <c r="J174" s="36"/>
-      <c r="K174" s="36"/>
+      <c r="H174" s="35"/>
+      <c r="I174" s="35"/>
+      <c r="J174" s="35"/>
+      <c r="K174" s="35"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="117"/>
-      <c r="B175" s="25">
-        <v>41744</v>
-      </c>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
+      <c r="A175" s="121"/>
+      <c r="B175" s="24">
+        <v>41737</v>
+      </c>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
       <c r="F175" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G175" s="190"/>
-      <c r="H175" s="36"/>
-      <c r="I175" s="36"/>
-      <c r="J175" s="36"/>
-      <c r="K175" s="36"/>
+      <c r="G175" s="191"/>
+      <c r="H175" s="35"/>
+      <c r="I175" s="35"/>
+      <c r="J175" s="35"/>
+      <c r="K175" s="35"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="117"/>
-      <c r="B176" s="25">
-        <v>41745</v>
-      </c>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
+      <c r="A176" s="121"/>
+      <c r="B176" s="24">
+        <v>41738</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
       <c r="F176" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G176" s="190"/>
-      <c r="H176" s="36"/>
-      <c r="I176" s="36"/>
-      <c r="J176" s="36"/>
-      <c r="K176" s="36"/>
+      <c r="G176" s="191"/>
+      <c r="H176" s="35"/>
+      <c r="I176" s="35"/>
+      <c r="J176" s="35"/>
+      <c r="K176" s="35"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="117"/>
-      <c r="B177" s="25">
-        <v>41746</v>
-      </c>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
+      <c r="A177" s="121"/>
+      <c r="B177" s="24">
+        <v>41739</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
       <c r="F177" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G177" s="190"/>
-      <c r="H177" s="36"/>
-      <c r="I177" s="36"/>
-      <c r="J177" s="36"/>
-      <c r="K177" s="36"/>
+      <c r="G177" s="191"/>
+      <c r="H177" s="35"/>
+      <c r="I177" s="35"/>
+      <c r="J177" s="35"/>
+      <c r="K177" s="35"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="117"/>
-      <c r="B178" s="25">
-        <v>41747</v>
-      </c>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="6"/>
+      <c r="A178" s="121"/>
+      <c r="B178" s="24">
+        <v>41740</v>
+      </c>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
       <c r="F178" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G178" s="190"/>
-      <c r="H178" s="36"/>
-      <c r="I178" s="36"/>
-      <c r="J178" s="36"/>
-      <c r="K178" s="36"/>
+      <c r="G178" s="191"/>
+      <c r="H178" s="35"/>
+      <c r="I178" s="35"/>
+      <c r="J178" s="35"/>
+      <c r="K178" s="35"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="118"/>
-      <c r="B179" s="25">
-        <v>41748</v>
-      </c>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
+      <c r="A179" s="122"/>
+      <c r="B179" s="24">
+        <v>41741</v>
+      </c>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
       <c r="F179" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G179" s="191"/>
-      <c r="H179" s="36"/>
-      <c r="I179" s="36"/>
-      <c r="J179" s="36"/>
-      <c r="K179" s="36"/>
+      <c r="G179" s="192"/>
+      <c r="H179" s="35"/>
+      <c r="I179" s="35"/>
+      <c r="J179" s="35"/>
+      <c r="K179" s="35"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="119">
-        <v>25</v>
-      </c>
-      <c r="B180" s="24">
-        <v>41750</v>
-      </c>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
+      <c r="A180" s="117">
+        <v>24</v>
+      </c>
+      <c r="B180" s="25">
+        <v>41743</v>
+      </c>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
       <c r="F180" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G180" s="189">
+      <c r="G180" s="190">
         <v>35</v>
       </c>
-      <c r="H180" s="35"/>
-      <c r="I180" s="35"/>
-      <c r="J180" s="35"/>
-      <c r="K180" s="35"/>
+      <c r="H180" s="36"/>
+      <c r="I180" s="36"/>
+      <c r="J180" s="36"/>
+      <c r="K180" s="36"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="120"/>
-      <c r="B181" s="24">
-        <v>41751</v>
-      </c>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
+      <c r="A181" s="118"/>
+      <c r="B181" s="25">
+        <v>41744</v>
+      </c>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
       <c r="F181" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G181" s="190"/>
-      <c r="H181" s="35"/>
-      <c r="I181" s="35"/>
-      <c r="J181" s="35"/>
-      <c r="K181" s="35"/>
+      <c r="G181" s="191"/>
+      <c r="H181" s="36"/>
+      <c r="I181" s="36"/>
+      <c r="J181" s="36"/>
+      <c r="K181" s="36"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="120"/>
-      <c r="B182" s="24">
-        <v>41752</v>
-      </c>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
+      <c r="A182" s="118"/>
+      <c r="B182" s="25">
+        <v>41745</v>
+      </c>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
       <c r="F182" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G182" s="190"/>
-      <c r="H182" s="35"/>
-      <c r="I182" s="35"/>
-      <c r="J182" s="35"/>
-      <c r="K182" s="35"/>
+      <c r="G182" s="191"/>
+      <c r="H182" s="36"/>
+      <c r="I182" s="36"/>
+      <c r="J182" s="36"/>
+      <c r="K182" s="36"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="120"/>
-      <c r="B183" s="24">
-        <v>41753</v>
-      </c>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
+      <c r="A183" s="118"/>
+      <c r="B183" s="25">
+        <v>41746</v>
+      </c>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
       <c r="F183" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G183" s="190"/>
-      <c r="H183" s="35"/>
-      <c r="I183" s="35"/>
-      <c r="J183" s="35"/>
-      <c r="K183" s="35"/>
+      <c r="G183" s="191"/>
+      <c r="H183" s="36"/>
+      <c r="I183" s="36"/>
+      <c r="J183" s="36"/>
+      <c r="K183" s="36"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="120"/>
-      <c r="B184" s="24">
+      <c r="A184" s="118"/>
+      <c r="B184" s="25">
+        <v>41747</v>
+      </c>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G184" s="191"/>
+      <c r="H184" s="36"/>
+      <c r="I184" s="36"/>
+      <c r="J184" s="36"/>
+      <c r="K184" s="36"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="119"/>
+      <c r="B185" s="25">
+        <v>41748</v>
+      </c>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G185" s="192"/>
+      <c r="H185" s="36"/>
+      <c r="I185" s="36"/>
+      <c r="J185" s="36"/>
+      <c r="K185" s="36"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="120">
+        <v>25</v>
+      </c>
+      <c r="B186" s="24">
+        <v>41750</v>
+      </c>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G186" s="190">
+        <v>35</v>
+      </c>
+      <c r="H186" s="35"/>
+      <c r="I186" s="35"/>
+      <c r="J186" s="35"/>
+      <c r="K186" s="35"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="121"/>
+      <c r="B187" s="24">
+        <v>41751</v>
+      </c>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G187" s="191"/>
+      <c r="H187" s="35"/>
+      <c r="I187" s="35"/>
+      <c r="J187" s="35"/>
+      <c r="K187" s="35"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="121"/>
+      <c r="B188" s="24">
+        <v>41752</v>
+      </c>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G188" s="191"/>
+      <c r="H188" s="35"/>
+      <c r="I188" s="35"/>
+      <c r="J188" s="35"/>
+      <c r="K188" s="35"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="121"/>
+      <c r="B189" s="24">
+        <v>41753</v>
+      </c>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G189" s="191"/>
+      <c r="H189" s="35"/>
+      <c r="I189" s="35"/>
+      <c r="J189" s="35"/>
+      <c r="K189" s="35"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="121"/>
+      <c r="B190" s="24">
         <v>41754</v>
       </c>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
-      <c r="F184" s="107">
-        <f t="shared" ref="F184:F215" si="3">SUM(E184:E188)</f>
-        <v>0</v>
-      </c>
-      <c r="G184" s="190"/>
-      <c r="H184" s="35"/>
-      <c r="I184" s="35"/>
-      <c r="J184" s="35"/>
-      <c r="K184" s="35"/>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="121"/>
-      <c r="B185" s="24">
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="107">
+        <f t="shared" ref="F190:F221" si="3">SUM(E190:E194)</f>
+        <v>0</v>
+      </c>
+      <c r="G190" s="191"/>
+      <c r="H190" s="35"/>
+      <c r="I190" s="35"/>
+      <c r="J190" s="35"/>
+      <c r="K190" s="35"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="122"/>
+      <c r="B191" s="24">
         <v>41755</v>
       </c>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G185" s="191"/>
-      <c r="H185" s="35"/>
-      <c r="I185" s="35"/>
-      <c r="J185" s="35"/>
-      <c r="K185" s="35"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="116">
-        <v>26</v>
-      </c>
-      <c r="B186" s="25">
-        <v>41757</v>
-      </c>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
-      <c r="F186" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G186" s="189">
-        <v>35</v>
-      </c>
-      <c r="H186" s="36"/>
-      <c r="I186" s="36"/>
-      <c r="J186" s="36"/>
-      <c r="K186" s="36"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="117"/>
-      <c r="B187" s="25">
-        <v>41758</v>
-      </c>
-      <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
-      <c r="F187" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G187" s="190"/>
-      <c r="H187" s="36"/>
-      <c r="I187" s="36"/>
-      <c r="J187" s="36"/>
-      <c r="K187" s="36"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="117"/>
-      <c r="B188" s="25">
-        <v>41759</v>
-      </c>
-      <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
-      <c r="F188" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G188" s="190"/>
-      <c r="H188" s="36"/>
-      <c r="I188" s="36"/>
-      <c r="J188" s="36"/>
-      <c r="K188" s="36"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="117"/>
-      <c r="B189" s="25">
-        <v>41760</v>
-      </c>
-      <c r="C189" s="6"/>
-      <c r="D189" s="6"/>
-      <c r="E189" s="6"/>
-      <c r="F189" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G189" s="190"/>
-      <c r="H189" s="36"/>
-      <c r="I189" s="36"/>
-      <c r="J189" s="36"/>
-      <c r="K189" s="36"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="117"/>
-      <c r="B190" s="25">
-        <v>41761</v>
-      </c>
-      <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6"/>
-      <c r="F190" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G190" s="190"/>
-      <c r="H190" s="36"/>
-      <c r="I190" s="36"/>
-      <c r="J190" s="36"/>
-      <c r="K190" s="36"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="118"/>
-      <c r="B191" s="25">
-        <v>41762</v>
-      </c>
-      <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
-      <c r="E191" s="6"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
       <c r="F191" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G191" s="191"/>
-      <c r="H191" s="36"/>
-      <c r="I191" s="36"/>
-      <c r="J191" s="36"/>
-      <c r="K191" s="36"/>
+      <c r="G191" s="192"/>
+      <c r="H191" s="35"/>
+      <c r="I191" s="35"/>
+      <c r="J191" s="35"/>
+      <c r="K191" s="35"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="119">
-        <v>27</v>
-      </c>
-      <c r="B192" s="24">
-        <v>41764</v>
-      </c>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
+      <c r="A192" s="117">
+        <v>26</v>
+      </c>
+      <c r="B192" s="25">
+        <v>41757</v>
+      </c>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
       <c r="F192" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G192" s="189">
+      <c r="G192" s="190">
         <v>35</v>
       </c>
-      <c r="H192" s="35"/>
-      <c r="I192" s="35"/>
-      <c r="J192" s="35"/>
-      <c r="K192" s="35"/>
+      <c r="H192" s="36"/>
+      <c r="I192" s="36"/>
+      <c r="J192" s="36"/>
+      <c r="K192" s="36"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="120"/>
-      <c r="B193" s="24">
-        <v>41765</v>
-      </c>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
+      <c r="A193" s="118"/>
+      <c r="B193" s="25">
+        <v>41758</v>
+      </c>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
       <c r="F193" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G193" s="190"/>
-      <c r="H193" s="35"/>
-      <c r="I193" s="35"/>
-      <c r="J193" s="35"/>
-      <c r="K193" s="35"/>
+      <c r="G193" s="191"/>
+      <c r="H193" s="36"/>
+      <c r="I193" s="36"/>
+      <c r="J193" s="36"/>
+      <c r="K193" s="36"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="120"/>
-      <c r="B194" s="24">
-        <v>41766</v>
-      </c>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
+      <c r="A194" s="118"/>
+      <c r="B194" s="25">
+        <v>41759</v>
+      </c>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
       <c r="F194" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G194" s="190"/>
-      <c r="H194" s="35"/>
-      <c r="I194" s="35"/>
-      <c r="J194" s="35"/>
-      <c r="K194" s="35"/>
+      <c r="G194" s="191"/>
+      <c r="H194" s="36"/>
+      <c r="I194" s="36"/>
+      <c r="J194" s="36"/>
+      <c r="K194" s="36"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="120"/>
-      <c r="B195" s="24">
-        <v>41767</v>
-      </c>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
+      <c r="A195" s="118"/>
+      <c r="B195" s="25">
+        <v>41760</v>
+      </c>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
       <c r="F195" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G195" s="190"/>
-      <c r="H195" s="35"/>
-      <c r="I195" s="35"/>
-      <c r="J195" s="35"/>
-      <c r="K195" s="35"/>
+      <c r="G195" s="191"/>
+      <c r="H195" s="36"/>
+      <c r="I195" s="36"/>
+      <c r="J195" s="36"/>
+      <c r="K195" s="36"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="120"/>
-      <c r="B196" s="24">
-        <v>41768</v>
-      </c>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
+      <c r="A196" s="118"/>
+      <c r="B196" s="25">
+        <v>41761</v>
+      </c>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
       <c r="F196" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G196" s="190"/>
-      <c r="H196" s="35"/>
-      <c r="I196" s="35"/>
-      <c r="J196" s="35"/>
-      <c r="K196" s="35"/>
+      <c r="G196" s="191"/>
+      <c r="H196" s="36"/>
+      <c r="I196" s="36"/>
+      <c r="J196" s="36"/>
+      <c r="K196" s="36"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="121"/>
-      <c r="B197" s="24">
-        <v>41769</v>
-      </c>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
+      <c r="A197" s="119"/>
+      <c r="B197" s="25">
+        <v>41762</v>
+      </c>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
       <c r="F197" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G197" s="191"/>
-      <c r="H197" s="35"/>
-      <c r="I197" s="35"/>
-      <c r="J197" s="35"/>
-      <c r="K197" s="35"/>
+      <c r="G197" s="192"/>
+      <c r="H197" s="36"/>
+      <c r="I197" s="36"/>
+      <c r="J197" s="36"/>
+      <c r="K197" s="36"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="116">
-        <v>28</v>
-      </c>
-      <c r="B198" s="25">
-        <v>41771</v>
-      </c>
-      <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
-      <c r="E198" s="6"/>
+      <c r="A198" s="120">
+        <v>27</v>
+      </c>
+      <c r="B198" s="24">
+        <v>41764</v>
+      </c>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
       <c r="F198" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G198" s="189">
+      <c r="G198" s="190">
         <v>35</v>
       </c>
-      <c r="H198" s="36"/>
-      <c r="I198" s="36"/>
-      <c r="J198" s="36"/>
-      <c r="K198" s="36"/>
+      <c r="H198" s="35"/>
+      <c r="I198" s="35"/>
+      <c r="J198" s="35"/>
+      <c r="K198" s="35"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="117"/>
-      <c r="B199" s="25">
-        <v>41772</v>
-      </c>
-      <c r="C199" s="6"/>
-      <c r="D199" s="6"/>
-      <c r="E199" s="6"/>
+      <c r="A199" s="121"/>
+      <c r="B199" s="24">
+        <v>41765</v>
+      </c>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
       <c r="F199" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G199" s="190"/>
-      <c r="H199" s="36"/>
-      <c r="I199" s="36"/>
-      <c r="J199" s="36"/>
-      <c r="K199" s="36"/>
+      <c r="G199" s="191"/>
+      <c r="H199" s="35"/>
+      <c r="I199" s="35"/>
+      <c r="J199" s="35"/>
+      <c r="K199" s="35"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="117"/>
-      <c r="B200" s="25">
-        <v>41773</v>
-      </c>
-      <c r="C200" s="6"/>
-      <c r="D200" s="6"/>
-      <c r="E200" s="6"/>
+      <c r="A200" s="121"/>
+      <c r="B200" s="24">
+        <v>41766</v>
+      </c>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
       <c r="F200" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G200" s="190"/>
-      <c r="H200" s="36"/>
-      <c r="I200" s="36"/>
-      <c r="J200" s="36"/>
-      <c r="K200" s="36"/>
+      <c r="G200" s="191"/>
+      <c r="H200" s="35"/>
+      <c r="I200" s="35"/>
+      <c r="J200" s="35"/>
+      <c r="K200" s="35"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="117"/>
-      <c r="B201" s="25">
-        <v>41774</v>
-      </c>
-      <c r="C201" s="6"/>
-      <c r="D201" s="6"/>
-      <c r="E201" s="6"/>
+      <c r="A201" s="121"/>
+      <c r="B201" s="24">
+        <v>41767</v>
+      </c>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
       <c r="F201" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G201" s="190"/>
-      <c r="H201" s="36"/>
-      <c r="I201" s="36"/>
-      <c r="J201" s="36"/>
-      <c r="K201" s="36"/>
+      <c r="G201" s="191"/>
+      <c r="H201" s="35"/>
+      <c r="I201" s="35"/>
+      <c r="J201" s="35"/>
+      <c r="K201" s="35"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="117"/>
-      <c r="B202" s="25">
-        <v>41775</v>
-      </c>
-      <c r="C202" s="6"/>
-      <c r="D202" s="6"/>
-      <c r="E202" s="6"/>
+      <c r="A202" s="121"/>
+      <c r="B202" s="24">
+        <v>41768</v>
+      </c>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
       <c r="F202" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G202" s="190"/>
-      <c r="H202" s="36"/>
-      <c r="I202" s="36"/>
-      <c r="J202" s="36"/>
-      <c r="K202" s="36"/>
+      <c r="G202" s="191"/>
+      <c r="H202" s="35"/>
+      <c r="I202" s="35"/>
+      <c r="J202" s="35"/>
+      <c r="K202" s="35"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="118"/>
-      <c r="B203" s="25">
-        <v>41776</v>
-      </c>
-      <c r="C203" s="6"/>
-      <c r="D203" s="6"/>
-      <c r="E203" s="6"/>
+      <c r="A203" s="122"/>
+      <c r="B203" s="24">
+        <v>41769</v>
+      </c>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
       <c r="F203" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G203" s="191"/>
-      <c r="H203" s="36"/>
-      <c r="I203" s="36"/>
-      <c r="J203" s="36"/>
-      <c r="K203" s="36"/>
+      <c r="G203" s="192"/>
+      <c r="H203" s="35"/>
+      <c r="I203" s="35"/>
+      <c r="J203" s="35"/>
+      <c r="K203" s="35"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="119">
-        <v>29</v>
-      </c>
-      <c r="B204" s="24">
-        <v>41778</v>
-      </c>
-      <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
-      <c r="E204" s="5"/>
+      <c r="A204" s="117">
+        <v>28</v>
+      </c>
+      <c r="B204" s="25">
+        <v>41771</v>
+      </c>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
       <c r="F204" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G204" s="189">
+      <c r="G204" s="190">
         <v>35</v>
       </c>
-      <c r="H204" s="35"/>
-      <c r="I204" s="35"/>
-      <c r="J204" s="35"/>
-      <c r="K204" s="35"/>
+      <c r="H204" s="36"/>
+      <c r="I204" s="36"/>
+      <c r="J204" s="36"/>
+      <c r="K204" s="36"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="120"/>
-      <c r="B205" s="24">
-        <v>41779</v>
-      </c>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
+      <c r="A205" s="118"/>
+      <c r="B205" s="25">
+        <v>41772</v>
+      </c>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
       <c r="F205" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G205" s="190"/>
-      <c r="H205" s="35"/>
-      <c r="I205" s="35"/>
-      <c r="J205" s="35"/>
-      <c r="K205" s="35"/>
+      <c r="G205" s="191"/>
+      <c r="H205" s="36"/>
+      <c r="I205" s="36"/>
+      <c r="J205" s="36"/>
+      <c r="K205" s="36"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="120"/>
-      <c r="B206" s="24">
-        <v>41780</v>
-      </c>
-      <c r="C206" s="5"/>
-      <c r="D206" s="5"/>
-      <c r="E206" s="5"/>
+      <c r="A206" s="118"/>
+      <c r="B206" s="25">
+        <v>41773</v>
+      </c>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
       <c r="F206" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G206" s="190"/>
-      <c r="H206" s="35"/>
-      <c r="I206" s="35"/>
-      <c r="J206" s="35"/>
-      <c r="K206" s="35"/>
+      <c r="G206" s="191"/>
+      <c r="H206" s="36"/>
+      <c r="I206" s="36"/>
+      <c r="J206" s="36"/>
+      <c r="K206" s="36"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="120"/>
-      <c r="B207" s="24">
-        <v>41781</v>
-      </c>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
+      <c r="A207" s="118"/>
+      <c r="B207" s="25">
+        <v>41774</v>
+      </c>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
       <c r="F207" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G207" s="190"/>
-      <c r="H207" s="35"/>
-      <c r="I207" s="35"/>
-      <c r="J207" s="35"/>
-      <c r="K207" s="35"/>
+      <c r="G207" s="191"/>
+      <c r="H207" s="36"/>
+      <c r="I207" s="36"/>
+      <c r="J207" s="36"/>
+      <c r="K207" s="36"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="120"/>
-      <c r="B208" s="24">
-        <v>41782</v>
-      </c>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
+      <c r="A208" s="118"/>
+      <c r="B208" s="25">
+        <v>41775</v>
+      </c>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
       <c r="F208" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G208" s="190"/>
-      <c r="H208" s="35"/>
-      <c r="I208" s="35"/>
-      <c r="J208" s="35"/>
-      <c r="K208" s="35"/>
+      <c r="G208" s="191"/>
+      <c r="H208" s="36"/>
+      <c r="I208" s="36"/>
+      <c r="J208" s="36"/>
+      <c r="K208" s="36"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="121"/>
-      <c r="B209" s="24">
-        <v>41783</v>
-      </c>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
+      <c r="A209" s="119"/>
+      <c r="B209" s="25">
+        <v>41776</v>
+      </c>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
       <c r="F209" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G209" s="191"/>
-      <c r="H209" s="35"/>
-      <c r="I209" s="35"/>
-      <c r="J209" s="35"/>
-      <c r="K209" s="35"/>
+      <c r="G209" s="192"/>
+      <c r="H209" s="36"/>
+      <c r="I209" s="36"/>
+      <c r="J209" s="36"/>
+      <c r="K209" s="36"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="122">
-        <v>30</v>
-      </c>
-      <c r="B210" s="25">
-        <v>41785</v>
-      </c>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
+      <c r="A210" s="120">
+        <v>29</v>
+      </c>
+      <c r="B210" s="24">
+        <v>41778</v>
+      </c>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
       <c r="F210" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G210" s="189">
+      <c r="G210" s="190">
         <v>35</v>
       </c>
-      <c r="H210" s="37"/>
-      <c r="I210" s="37"/>
-      <c r="J210" s="37"/>
-      <c r="K210" s="37"/>
+      <c r="H210" s="35"/>
+      <c r="I210" s="35"/>
+      <c r="J210" s="35"/>
+      <c r="K210" s="35"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="123"/>
-      <c r="B211" s="25">
-        <v>41786</v>
-      </c>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
+      <c r="A211" s="121"/>
+      <c r="B211" s="24">
+        <v>41779</v>
+      </c>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
       <c r="F211" s="107">
-        <f>SUM(E211:E214)</f>
-        <v>0</v>
-      </c>
-      <c r="G211" s="190"/>
-      <c r="H211" s="37"/>
-      <c r="I211" s="37"/>
-      <c r="J211" s="37"/>
-      <c r="K211" s="37"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G211" s="191"/>
+      <c r="H211" s="35"/>
+      <c r="I211" s="35"/>
+      <c r="J211" s="35"/>
+      <c r="K211" s="35"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="123"/>
-      <c r="B212" s="25">
-        <v>41787</v>
-      </c>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
+      <c r="A212" s="121"/>
+      <c r="B212" s="24">
+        <v>41780</v>
+      </c>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
       <c r="F212" s="107">
-        <f>SUM(E212:E215)</f>
-        <v>0</v>
-      </c>
-      <c r="G212" s="190"/>
-      <c r="H212" s="37"/>
-      <c r="I212" s="37"/>
-      <c r="J212" s="37"/>
-      <c r="K212" s="37"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G212" s="191"/>
+      <c r="H212" s="35"/>
+      <c r="I212" s="35"/>
+      <c r="J212" s="35"/>
+      <c r="K212" s="35"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="123"/>
-      <c r="B213" s="25">
-        <v>41788</v>
-      </c>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
+      <c r="A213" s="121"/>
+      <c r="B213" s="24">
+        <v>41781</v>
+      </c>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
       <c r="F213" s="107">
-        <f>SUM(E213:E216)</f>
-        <v>0</v>
-      </c>
-      <c r="G213" s="190"/>
-      <c r="H213" s="37"/>
-      <c r="I213" s="37"/>
-      <c r="J213" s="37"/>
-      <c r="K213" s="37"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G213" s="191"/>
+      <c r="H213" s="35"/>
+      <c r="I213" s="35"/>
+      <c r="J213" s="35"/>
+      <c r="K213" s="35"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="123"/>
-      <c r="B214" s="25">
-        <v>41789</v>
-      </c>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
+      <c r="A214" s="121"/>
+      <c r="B214" s="24">
+        <v>41782</v>
+      </c>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
       <c r="F214" s="107">
-        <f>SUM(E214:E217)</f>
-        <v>0</v>
-      </c>
-      <c r="G214" s="190"/>
-      <c r="H214" s="37"/>
-      <c r="I214" s="37"/>
-      <c r="J214" s="37"/>
-      <c r="K214" s="37"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G214" s="191"/>
+      <c r="H214" s="35"/>
+      <c r="I214" s="35"/>
+      <c r="J214" s="35"/>
+      <c r="K214" s="35"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="124"/>
-      <c r="B215" s="25">
-        <v>41790</v>
-      </c>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
+      <c r="A215" s="122"/>
+      <c r="B215" s="24">
+        <v>41783</v>
+      </c>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
       <c r="F215" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G215" s="191"/>
-      <c r="H215" s="37"/>
-      <c r="I215" s="37"/>
-      <c r="J215" s="37"/>
-      <c r="K215" s="37"/>
+      <c r="G215" s="192"/>
+      <c r="H215" s="35"/>
+      <c r="I215" s="35"/>
+      <c r="J215" s="35"/>
+      <c r="K215" s="35"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="106"/>
-      <c r="B216" s="110"/>
-      <c r="C216" s="111"/>
-      <c r="D216" s="111"/>
-      <c r="E216" s="111"/>
-      <c r="F216" s="111"/>
-      <c r="G216" s="112"/>
-      <c r="H216" s="113"/>
-      <c r="I216" s="113"/>
-      <c r="J216" s="113"/>
-      <c r="K216" s="113"/>
+      <c r="A216" s="123">
+        <v>30</v>
+      </c>
+      <c r="B216" s="25">
+        <v>41785</v>
+      </c>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G216" s="190">
+        <v>35</v>
+      </c>
+      <c r="H216" s="37"/>
+      <c r="I216" s="37"/>
+      <c r="J216" s="37"/>
+      <c r="K216" s="37"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="106"/>
-      <c r="B217" s="110"/>
-      <c r="C217" s="111"/>
-      <c r="D217" s="111"/>
-      <c r="E217" s="111"/>
-      <c r="F217" s="111"/>
-      <c r="G217" s="112"/>
-      <c r="H217" s="113"/>
-      <c r="I217" s="113"/>
-      <c r="J217" s="113"/>
-      <c r="K217" s="113"/>
+      <c r="A217" s="124"/>
+      <c r="B217" s="25">
+        <v>41786</v>
+      </c>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="107">
+        <f>SUM(E217:E220)</f>
+        <v>0</v>
+      </c>
+      <c r="G217" s="191"/>
+      <c r="H217" s="37"/>
+      <c r="I217" s="37"/>
+      <c r="J217" s="37"/>
+      <c r="K217" s="37"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" s="124"/>
+      <c r="B218" s="25">
+        <v>41787</v>
+      </c>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="107">
+        <f>SUM(E218:E221)</f>
+        <v>0</v>
+      </c>
+      <c r="G218" s="191"/>
+      <c r="H218" s="37"/>
+      <c r="I218" s="37"/>
+      <c r="J218" s="37"/>
+      <c r="K218" s="37"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" s="124"/>
+      <c r="B219" s="25">
+        <v>41788</v>
+      </c>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="107">
+        <f>SUM(E219:E222)</f>
+        <v>0</v>
+      </c>
+      <c r="G219" s="191"/>
+      <c r="H219" s="37"/>
+      <c r="I219" s="37"/>
+      <c r="J219" s="37"/>
+      <c r="K219" s="37"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" s="124"/>
+      <c r="B220" s="25">
+        <v>41789</v>
+      </c>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="107">
+        <f>SUM(E220:E223)</f>
+        <v>0</v>
+      </c>
+      <c r="G220" s="191"/>
+      <c r="H220" s="37"/>
+      <c r="I220" s="37"/>
+      <c r="J220" s="37"/>
+      <c r="K220" s="37"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" s="125"/>
+      <c r="B221" s="25">
+        <v>41790</v>
+      </c>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G221" s="192"/>
+      <c r="H221" s="37"/>
+      <c r="I221" s="37"/>
+      <c r="J221" s="37"/>
+      <c r="K221" s="37"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" s="106"/>
+      <c r="B222" s="110"/>
+      <c r="C222" s="111"/>
+      <c r="D222" s="111"/>
+      <c r="E222" s="111"/>
+      <c r="F222" s="111"/>
+      <c r="G222" s="112"/>
+      <c r="H222" s="113"/>
+      <c r="I222" s="113"/>
+      <c r="J222" s="113"/>
+      <c r="K222" s="113"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" s="106"/>
+      <c r="B223" s="110"/>
+      <c r="C223" s="111"/>
+      <c r="D223" s="111"/>
+      <c r="E223" s="111"/>
+      <c r="F223" s="111"/>
+      <c r="G223" s="112"/>
+      <c r="H223" s="113"/>
+      <c r="I223" s="113"/>
+      <c r="J223" s="113"/>
+      <c r="K223" s="113"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="107">
-    <mergeCell ref="G192:G197"/>
-    <mergeCell ref="G150:G155"/>
+  <mergeCells count="113">
+    <mergeCell ref="G198:G203"/>
     <mergeCell ref="G156:G161"/>
     <mergeCell ref="G162:G167"/>
     <mergeCell ref="G168:G173"/>
     <mergeCell ref="G174:G179"/>
+    <mergeCell ref="G180:G185"/>
+    <mergeCell ref="G144:G149"/>
     <mergeCell ref="G138:G143"/>
-    <mergeCell ref="G132:G137"/>
     <mergeCell ref="B82:B83"/>
     <mergeCell ref="F82:F83"/>
     <mergeCell ref="B84:B86"/>
     <mergeCell ref="F84:F86"/>
-    <mergeCell ref="G210:G215"/>
+    <mergeCell ref="G150:G155"/>
+    <mergeCell ref="F87:F90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="G216:G221"/>
     <mergeCell ref="A59:A66"/>
     <mergeCell ref="G67:G83"/>
     <mergeCell ref="A67:A83"/>
-    <mergeCell ref="G84:G91"/>
-    <mergeCell ref="A84:A91"/>
-    <mergeCell ref="G92:G97"/>
-    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="G84:G97"/>
+    <mergeCell ref="A84:A97"/>
     <mergeCell ref="G98:G103"/>
     <mergeCell ref="A98:A103"/>
     <mergeCell ref="G104:G109"/>
     <mergeCell ref="A104:A109"/>
-    <mergeCell ref="G120:G125"/>
-    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="G110:G115"/>
+    <mergeCell ref="A110:A115"/>
     <mergeCell ref="G126:G131"/>
     <mergeCell ref="A126:A131"/>
-    <mergeCell ref="G198:G203"/>
-    <mergeCell ref="A198:A203"/>
+    <mergeCell ref="G132:G137"/>
+    <mergeCell ref="A132:A137"/>
     <mergeCell ref="G204:G209"/>
     <mergeCell ref="A204:A209"/>
+    <mergeCell ref="G210:G215"/>
+    <mergeCell ref="A210:A215"/>
     <mergeCell ref="B67:B69"/>
     <mergeCell ref="F67:F69"/>
-    <mergeCell ref="G180:G185"/>
     <mergeCell ref="G186:G191"/>
-    <mergeCell ref="G144:G149"/>
+    <mergeCell ref="G192:G197"/>
     <mergeCell ref="F53:F55"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="F56:F58"/>
@@ -6757,6 +6960,13 @@
     <mergeCell ref="F76:F78"/>
     <mergeCell ref="F79:F81"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F43:F44"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F30:F33"/>
     <mergeCell ref="B12:B13"/>
@@ -6772,9 +6982,16 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A17:A29"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="F27:F29"/>
     <mergeCell ref="A34:A41"/>
     <mergeCell ref="A42:A49"/>
-    <mergeCell ref="A110:A114"/>
+    <mergeCell ref="A116:A120"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B47:B48"/>
@@ -6788,36 +7005,23 @@
     <mergeCell ref="B73:B75"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="B79:B81"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F22:F26"/>
     <mergeCell ref="B27:B29"/>
-    <mergeCell ref="F27:F29"/>
     <mergeCell ref="B60:B62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="A144:A149"/>
     <mergeCell ref="A138:A143"/>
-    <mergeCell ref="A132:A137"/>
-    <mergeCell ref="A144:A149"/>
     <mergeCell ref="A150:A155"/>
+    <mergeCell ref="A156:A161"/>
     <mergeCell ref="A50:A58"/>
-    <mergeCell ref="A115:A119"/>
-    <mergeCell ref="A210:A215"/>
-    <mergeCell ref="A156:A161"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A216:A221"/>
     <mergeCell ref="A162:A167"/>
     <mergeCell ref="A168:A173"/>
     <mergeCell ref="A174:A179"/>
     <mergeCell ref="A180:A185"/>
     <mergeCell ref="A186:A191"/>
     <mergeCell ref="A192:A197"/>
+    <mergeCell ref="A198:A203"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -7357,7 +7561,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G98</xm:sqref>
+          <xm:sqref>G104</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="19" id="{83799E8E-AE26-41DF-98BB-7B9572015E61}">
@@ -7376,7 +7580,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G104</xm:sqref>
+          <xm:sqref>G110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="18" id="{FA2A3A95-FA8D-4F56-854C-9054E142B63E}">
@@ -7433,29 +7637,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G120</xm:sqref>
+          <xm:sqref>G126</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="15" id="{20219CE6-01A6-4CEE-B14D-554BF0D9F2D1}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>35</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>178</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>G126</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{2AF0936D-CF99-4524-B73B-0988BA7EE1D3}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7474,7 +7659,7 @@
           <xm:sqref>G132</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{FA71D3A3-FDB2-4B5A-8934-308ED9DD36C7}">
+          <x14:cfRule type="iconSet" priority="14" id="{2AF0936D-CF99-4524-B73B-0988BA7EE1D3}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7493,7 +7678,7 @@
           <xm:sqref>G138</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{E3934660-007D-4AA3-AE76-3A2F21DD9340}">
+          <x14:cfRule type="iconSet" priority="13" id="{FA71D3A3-FDB2-4B5A-8934-308ED9DD36C7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7512,7 +7697,7 @@
           <xm:sqref>G144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{FFB586F1-ED42-4656-8556-6F2D7F6D9D9C}">
+          <x14:cfRule type="iconSet" priority="12" id="{E3934660-007D-4AA3-AE76-3A2F21DD9340}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7531,7 +7716,7 @@
           <xm:sqref>G150</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{DE789BF7-4075-4A28-B372-1F995688EC22}">
+          <x14:cfRule type="iconSet" priority="11" id="{FFB586F1-ED42-4656-8556-6F2D7F6D9D9C}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7550,7 +7735,7 @@
           <xm:sqref>G156</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{6102CDE8-C104-4F38-A02E-97986E5A3D2A}">
+          <x14:cfRule type="iconSet" priority="10" id="{DE789BF7-4075-4A28-B372-1F995688EC22}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7569,7 +7754,7 @@
           <xm:sqref>G162</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{BBFDEC18-F962-46B9-A09A-36D07BEBC015}">
+          <x14:cfRule type="iconSet" priority="9" id="{6102CDE8-C104-4F38-A02E-97986E5A3D2A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7588,7 +7773,7 @@
           <xm:sqref>G168</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{5AC105A1-D473-4304-9B80-BFDA678421CF}">
+          <x14:cfRule type="iconSet" priority="8" id="{BBFDEC18-F962-46B9-A09A-36D07BEBC015}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7607,7 +7792,7 @@
           <xm:sqref>G174</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{1757CEBF-5652-4367-ADB0-36DC819DF1FA}">
+          <x14:cfRule type="iconSet" priority="7" id="{5AC105A1-D473-4304-9B80-BFDA678421CF}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7626,7 +7811,7 @@
           <xm:sqref>G180</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{83FCD0DA-2CEC-4778-9EA6-AFA9D59FE8E1}">
+          <x14:cfRule type="iconSet" priority="6" id="{1757CEBF-5652-4367-ADB0-36DC819DF1FA}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7645,7 +7830,7 @@
           <xm:sqref>G186</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{A116D67A-F01D-41FD-B8A6-8EAC3E0A805A}">
+          <x14:cfRule type="iconSet" priority="5" id="{83FCD0DA-2CEC-4778-9EA6-AFA9D59FE8E1}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7664,7 +7849,7 @@
           <xm:sqref>G192</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{183F4820-F7F6-44CE-8972-54D40FD98D25}">
+          <x14:cfRule type="iconSet" priority="4" id="{A116D67A-F01D-41FD-B8A6-8EAC3E0A805A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7683,7 +7868,7 @@
           <xm:sqref>G198</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{246531BF-D004-46E5-AA65-14D381EE7296}">
+          <x14:cfRule type="iconSet" priority="3" id="{183F4820-F7F6-44CE-8972-54D40FD98D25}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7702,7 +7887,7 @@
           <xm:sqref>G204</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{451D81C9-15B6-4DEB-B618-2E756277D7B1}">
+          <x14:cfRule type="iconSet" priority="2" id="{246531BF-D004-46E5-AA65-14D381EE7296}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7721,13 +7906,13 @@
           <xm:sqref>G210</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="71" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
+          <x14:cfRule type="iconSet" priority="1" id="{451D81C9-15B6-4DEB-B618-2E756277D7B1}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>25</xm:f>
+                <xm:f>35</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num" gte="0">
                 <xm:f>178</xm:f>
@@ -7737,7 +7922,26 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F110:G119 F59:G60 F45:G45 F22:G22 F7:G8 F12:G12 F14:G14 F16:G17 F20:G20 F27:G27 F30:G30 F34:G35 F37:G38 F42:G43 F40:G40 F47:G47 F49:G53 F56:G56 G92 F66:F67 F120:F217 F63:G66 G61:G62 F70 F73:F74 F76 F79 F82:F84 F87:F109</xm:sqref>
+          <xm:sqref>G216</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="71" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>178</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F116:G125 F59:G60 F45:G45 F22:G22 F7:G8 F12:G12 F14:G14 F16:G17 F20:G20 F27:G27 F30:G30 F34:G35 F37:G38 F42:G43 F40:G40 F47:G47 F49:G53 F56:G56 G98 F66:F67 F126:F223 F63:G66 G61:G62 F70 F73:F74 F76 F79 F82:F84 F87:F88 F91 F93 F96:F115</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="72" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
@@ -7766,7 +7970,7 @@
           <x14:formula1>
             <xm:f>'List main task'!$B$4:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>H9:H91</xm:sqref>
+          <xm:sqref>H9:H97</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
+++ b/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNguyen.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="133">
   <si>
     <t>Week</t>
   </si>
@@ -433,6 +433,15 @@
   </si>
   <si>
     <t>Review Stage 3 Plan</t>
+  </si>
+  <si>
+    <t>Spring framework structure</t>
+  </si>
+  <si>
+    <t>Web service</t>
+  </si>
+  <si>
+    <t>Update C&amp;C View</t>
   </si>
 </sst>
 </file>
@@ -1055,27 +1064,234 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="18" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1086,220 +1302,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1697,13 +1706,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P223"/>
+  <dimension ref="A1:P229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I94" sqref="I94"/>
+      <selection pane="bottomRight" activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1725,85 +1734,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="141"/>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="143"/>
+      <c r="A1" s="151"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="153"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="164"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="174"/>
       <c r="G2" s="92"/>
-      <c r="H2" s="144" t="s">
+      <c r="H2" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="146"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="156"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="175" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="167"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="177"/>
       <c r="G3" s="93"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="149"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="159"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="168"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="170"/>
+      <c r="A4" s="178"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="180"/>
       <c r="G4" s="94"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
-      <c r="O4" s="152"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="162"/>
     </row>
     <row r="5" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="177"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="179"/>
+      <c r="A5" s="187"/>
+      <c r="B5" s="188"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="189"/>
       <c r="F5" s="16"/>
       <c r="G5" s="108"/>
       <c r="I5" s="39" t="s">
@@ -1852,16 +1861,16 @@
       <c r="K6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="153"/>
-      <c r="M6" s="153"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="156">
+      <c r="A7" s="166">
         <v>1</v>
       </c>
-      <c r="B7" s="171">
+      <c r="B7" s="181">
         <v>41586</v>
       </c>
       <c r="C7" s="17">
@@ -1873,7 +1882,7 @@
       <c r="E7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="174">
+      <c r="F7" s="184">
         <f>SUM(E7:E9)</f>
         <v>2</v>
       </c>
@@ -1897,8 +1906,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="157"/>
-      <c r="B8" s="172"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="182"/>
       <c r="C8" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1908,7 +1917,7 @@
       <c r="E8" s="18">
         <v>0.5</v>
       </c>
-      <c r="F8" s="175"/>
+      <c r="F8" s="185"/>
       <c r="G8" s="96"/>
       <c r="H8" s="19" t="s">
         <v>20</v>
@@ -1922,8 +1931,8 @@
       <c r="O8" s="55"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="158"/>
-      <c r="B9" s="173"/>
+      <c r="A9" s="168"/>
+      <c r="B9" s="183"/>
       <c r="C9" s="17">
         <v>0.83333333333333337</v>
       </c>
@@ -1933,7 +1942,7 @@
       <c r="E9" s="18">
         <v>1.5</v>
       </c>
-      <c r="F9" s="176"/>
+      <c r="F9" s="186"/>
       <c r="G9" s="97"/>
       <c r="H9" s="41" t="s">
         <v>25</v>
@@ -1945,10 +1954,10 @@
       <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="159">
+      <c r="A10" s="169">
         <v>2</v>
       </c>
-      <c r="B10" s="154">
+      <c r="B10" s="164">
         <v>41589</v>
       </c>
       <c r="C10" s="46">
@@ -1960,7 +1969,7 @@
       <c r="E10" s="47">
         <v>1.5</v>
       </c>
-      <c r="F10" s="134">
+      <c r="F10" s="144">
         <f>SUM(E10:E11)</f>
         <v>3.5</v>
       </c>
@@ -1975,8 +1984,8 @@
       <c r="K10" s="48"/>
     </row>
     <row r="11" spans="1:16" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="160"/>
-      <c r="B11" s="155"/>
+      <c r="A11" s="170"/>
+      <c r="B11" s="165"/>
       <c r="C11" s="46">
         <v>0.875</v>
       </c>
@@ -1986,7 +1995,7 @@
       <c r="E11" s="47">
         <v>2</v>
       </c>
-      <c r="F11" s="135"/>
+      <c r="F11" s="145"/>
       <c r="G11" s="88"/>
       <c r="H11" s="56" t="s">
         <v>25</v>
@@ -1998,8 +2007,8 @@
       <c r="K11" s="48"/>
     </row>
     <row r="12" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="160"/>
-      <c r="B12" s="139">
+      <c r="A12" s="170"/>
+      <c r="B12" s="149">
         <v>41590</v>
       </c>
       <c r="C12" s="21">
@@ -2011,7 +2020,7 @@
       <c r="E12" s="22">
         <v>2.25</v>
       </c>
-      <c r="F12" s="181">
+      <c r="F12" s="139">
         <f>SUM(E12:E13)</f>
         <v>3.5</v>
       </c>
@@ -2038,8 +2047,8 @@
       <c r="P12" s="30"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="160"/>
-      <c r="B13" s="140"/>
+      <c r="A13" s="170"/>
+      <c r="B13" s="150"/>
       <c r="C13" s="21">
         <v>0.86458333333333337</v>
       </c>
@@ -2049,7 +2058,7 @@
       <c r="E13" s="22">
         <v>1.25</v>
       </c>
-      <c r="F13" s="182"/>
+      <c r="F13" s="140"/>
       <c r="G13" s="82"/>
       <c r="H13" s="56" t="s">
         <v>25</v>
@@ -2066,8 +2075,8 @@
       <c r="P13" s="30"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="160"/>
-      <c r="B14" s="139">
+      <c r="A14" s="170"/>
+      <c r="B14" s="149">
         <v>41592</v>
       </c>
       <c r="C14" s="23">
@@ -2079,7 +2088,7 @@
       <c r="E14" s="26">
         <v>1.5</v>
       </c>
-      <c r="F14" s="181">
+      <c r="F14" s="139">
         <f>SUM(E14:E15)</f>
         <v>2</v>
       </c>
@@ -2098,8 +2107,8 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="160"/>
-      <c r="B15" s="140"/>
+      <c r="A15" s="170"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="23">
         <v>0.9375</v>
       </c>
@@ -2109,7 +2118,7 @@
       <c r="E15" s="26">
         <v>0.5</v>
       </c>
-      <c r="F15" s="182"/>
+      <c r="F15" s="140"/>
       <c r="G15" s="82"/>
       <c r="H15" s="56" t="s">
         <v>17</v>
@@ -2125,7 +2134,7 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="161"/>
+      <c r="A16" s="171"/>
       <c r="B16" s="40">
         <v>41593</v>
       </c>
@@ -2164,10 +2173,10 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="180">
+      <c r="A17" s="190">
         <v>3</v>
       </c>
-      <c r="B17" s="128">
+      <c r="B17" s="124">
         <v>41596</v>
       </c>
       <c r="C17" s="44">
@@ -2179,7 +2188,7 @@
       <c r="E17" s="42">
         <v>1</v>
       </c>
-      <c r="F17" s="181">
+      <c r="F17" s="139">
         <f>SUM(E17:E19)</f>
         <v>3.5</v>
       </c>
@@ -2205,8 +2214,8 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="180"/>
-      <c r="B18" s="130"/>
+      <c r="A18" s="190"/>
+      <c r="B18" s="125"/>
       <c r="C18" s="44">
         <v>0.75</v>
       </c>
@@ -2216,7 +2225,7 @@
       <c r="E18" s="42">
         <v>1.5</v>
       </c>
-      <c r="F18" s="183"/>
+      <c r="F18" s="191"/>
       <c r="G18" s="83"/>
       <c r="H18" s="41" t="s">
         <v>18</v>
@@ -2234,8 +2243,8 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="180"/>
-      <c r="B19" s="129"/>
+      <c r="A19" s="190"/>
+      <c r="B19" s="126"/>
       <c r="C19" s="44">
         <v>0.89583333333333337</v>
       </c>
@@ -2245,7 +2254,7 @@
       <c r="E19" s="42">
         <v>1</v>
       </c>
-      <c r="F19" s="182"/>
+      <c r="F19" s="140"/>
       <c r="G19" s="82"/>
       <c r="H19" s="41" t="s">
         <v>25</v>
@@ -2261,8 +2270,8 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="180"/>
-      <c r="B20" s="128">
+      <c r="A20" s="190"/>
+      <c r="B20" s="124">
         <v>41597</v>
       </c>
       <c r="C20" s="44">
@@ -2274,7 +2283,7 @@
       <c r="E20" s="42">
         <v>1.5</v>
       </c>
-      <c r="F20" s="181">
+      <c r="F20" s="139">
         <f>SUM(E20:E21)</f>
         <v>3</v>
       </c>
@@ -2293,8 +2302,8 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="180"/>
-      <c r="B21" s="129"/>
+      <c r="A21" s="190"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="44">
         <v>0.8125</v>
       </c>
@@ -2304,7 +2313,7 @@
       <c r="E21" s="42">
         <v>1.5</v>
       </c>
-      <c r="F21" s="182"/>
+      <c r="F21" s="140"/>
       <c r="G21" s="82"/>
       <c r="H21" s="41" t="s">
         <v>18</v>
@@ -2319,16 +2328,16 @@
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="10">
-        <f>SUM(E84:E96)</f>
-        <v>15.5</v>
+        <f>SUM(E84:E97)</f>
+        <v>18.75</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="180"/>
-      <c r="B22" s="128">
+      <c r="A22" s="190"/>
+      <c r="B22" s="124">
         <v>41599</v>
       </c>
       <c r="C22" s="44">
@@ -2340,7 +2349,7 @@
       <c r="E22" s="42">
         <v>3</v>
       </c>
-      <c r="F22" s="181">
+      <c r="F22" s="139">
         <f>SUM(E22:E26)</f>
         <v>7.9</v>
       </c>
@@ -2359,8 +2368,8 @@
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="180"/>
-      <c r="B23" s="130"/>
+      <c r="A23" s="190"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="44">
         <v>0.38194444444444442</v>
       </c>
@@ -2370,7 +2379,7 @@
       <c r="E23" s="42">
         <v>1</v>
       </c>
-      <c r="F23" s="183"/>
+      <c r="F23" s="191"/>
       <c r="G23" s="83"/>
       <c r="H23" s="61" t="s">
         <v>20</v>
@@ -2386,8 +2395,8 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="180"/>
-      <c r="B24" s="130"/>
+      <c r="A24" s="190"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="44">
         <v>0.4236111111111111</v>
       </c>
@@ -2397,7 +2406,7 @@
       <c r="E24" s="42">
         <v>1.3</v>
       </c>
-      <c r="F24" s="183"/>
+      <c r="F24" s="191"/>
       <c r="G24" s="83"/>
       <c r="H24" s="41" t="s">
         <v>16</v>
@@ -2413,8 +2422,8 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="180"/>
-      <c r="B25" s="130"/>
+      <c r="A25" s="190"/>
+      <c r="B25" s="125"/>
       <c r="C25" s="44">
         <v>0.58333333333333337</v>
       </c>
@@ -2424,7 +2433,7 @@
       <c r="E25" s="42">
         <v>0.5</v>
       </c>
-      <c r="F25" s="183"/>
+      <c r="F25" s="191"/>
       <c r="G25" s="83"/>
       <c r="H25" s="41" t="s">
         <v>18</v>
@@ -2440,8 +2449,8 @@
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="180"/>
-      <c r="B26" s="129"/>
+      <c r="A26" s="190"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="65">
         <v>0.625</v>
       </c>
@@ -2451,7 +2460,7 @@
       <c r="E26" s="42">
         <v>2.1</v>
       </c>
-      <c r="F26" s="182"/>
+      <c r="F26" s="140"/>
       <c r="G26" s="82"/>
       <c r="H26" s="41" t="s">
         <v>16</v>
@@ -2466,7 +2475,7 @@
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="10">
-        <f>SUM(E104:E108)</f>
+        <f>SUM(E110:E114)</f>
         <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
@@ -2474,8 +2483,8 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="180"/>
-      <c r="B27" s="128">
+      <c r="A27" s="190"/>
+      <c r="B27" s="124">
         <v>41600</v>
       </c>
       <c r="C27" s="65">
@@ -2487,7 +2496,7 @@
       <c r="E27" s="18">
         <v>1.25</v>
       </c>
-      <c r="F27" s="184">
+      <c r="F27" s="122">
         <f>SUM(E27:E29)</f>
         <v>4</v>
       </c>
@@ -2508,8 +2517,8 @@
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="180"/>
-      <c r="B28" s="130"/>
+      <c r="A28" s="190"/>
+      <c r="B28" s="125"/>
       <c r="C28" s="65">
         <v>0.5625</v>
       </c>
@@ -2519,7 +2528,7 @@
       <c r="E28" s="18">
         <v>1.25</v>
       </c>
-      <c r="F28" s="185"/>
+      <c r="F28" s="123"/>
       <c r="G28" s="85"/>
       <c r="H28" s="69" t="s">
         <v>16</v>
@@ -2533,8 +2542,8 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="180"/>
-      <c r="B29" s="129"/>
+      <c r="A29" s="190"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="65">
         <v>0.625</v>
       </c>
@@ -2544,7 +2553,7 @@
       <c r="E29" s="69">
         <v>1.5</v>
       </c>
-      <c r="F29" s="186"/>
+      <c r="F29" s="127"/>
       <c r="G29" s="86"/>
       <c r="H29" s="69" t="s">
         <v>21</v>
@@ -2559,7 +2568,7 @@
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="10">
-        <f>SUM(E110:E114)</f>
+        <f>SUM(E116:E120)</f>
         <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
@@ -2568,7 +2577,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="67"/>
-      <c r="B30" s="128">
+      <c r="B30" s="124">
         <v>41601</v>
       </c>
       <c r="C30" s="65">
@@ -2580,7 +2589,7 @@
       <c r="E30" s="69">
         <v>0.5</v>
       </c>
-      <c r="F30" s="136">
+      <c r="F30" s="146">
         <f>SUM(E30:E33)</f>
         <v>2</v>
       </c>
@@ -2602,7 +2611,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="67"/>
-      <c r="B31" s="130"/>
+      <c r="B31" s="125"/>
       <c r="C31" s="65">
         <v>0.39583333333333331</v>
       </c>
@@ -2612,7 +2621,7 @@
       <c r="E31" s="69">
         <v>0.5</v>
       </c>
-      <c r="F31" s="137"/>
+      <c r="F31" s="147"/>
       <c r="G31" s="90"/>
       <c r="H31" s="69" t="s">
         <v>19</v>
@@ -2631,7 +2640,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="73"/>
-      <c r="B32" s="130"/>
+      <c r="B32" s="125"/>
       <c r="C32" s="65">
         <v>0.5625</v>
       </c>
@@ -2641,7 +2650,7 @@
       <c r="E32" s="69">
         <v>0.25</v>
       </c>
-      <c r="F32" s="137"/>
+      <c r="F32" s="147"/>
       <c r="G32" s="90"/>
       <c r="H32" s="69" t="s">
         <v>16</v>
@@ -2656,7 +2665,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="72"/>
-      <c r="B33" s="129"/>
+      <c r="B33" s="126"/>
       <c r="C33" s="65">
         <v>0.57291666666666663</v>
       </c>
@@ -2666,7 +2675,7 @@
       <c r="E33" s="69">
         <v>0.75</v>
       </c>
-      <c r="F33" s="138"/>
+      <c r="F33" s="148"/>
       <c r="G33" s="91"/>
       <c r="H33" s="69" t="s">
         <v>19</v>
@@ -2684,7 +2693,7 @@
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="117">
+      <c r="A34" s="132">
         <v>4</v>
       </c>
       <c r="B34" s="25">
@@ -2717,7 +2726,7 @@
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="10">
-        <f>SUM(E116:E120)</f>
+        <f>SUM(E122:E126)</f>
         <v>0</v>
       </c>
       <c r="O34" s="3" t="s">
@@ -2725,8 +2734,8 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="118"/>
-      <c r="B35" s="131">
+      <c r="A35" s="133"/>
+      <c r="B35" s="120">
         <v>41604</v>
       </c>
       <c r="C35" s="74">
@@ -2738,7 +2747,7 @@
       <c r="E35" s="70">
         <v>1.5</v>
       </c>
-      <c r="F35" s="187">
+      <c r="F35" s="141">
         <f>SUM(E35:E36)</f>
         <v>3</v>
       </c>
@@ -2756,7 +2765,7 @@
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="10">
-        <f>SUM(E121:E125)</f>
+        <f>SUM(E127:E131)</f>
         <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
@@ -2764,8 +2773,8 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="118"/>
-      <c r="B36" s="132"/>
+      <c r="A36" s="133"/>
+      <c r="B36" s="138"/>
       <c r="C36" s="74">
         <v>0.54166666666666663</v>
       </c>
@@ -2775,7 +2784,7 @@
       <c r="E36" s="70">
         <v>1.5</v>
       </c>
-      <c r="F36" s="188"/>
+      <c r="F36" s="142"/>
       <c r="G36" s="99"/>
       <c r="H36" s="75" t="s">
         <v>16</v>
@@ -2791,8 +2800,8 @@
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="118"/>
-      <c r="B37" s="131">
+      <c r="A37" s="133"/>
+      <c r="B37" s="120">
         <v>41605</v>
       </c>
       <c r="C37" s="74">
@@ -2804,7 +2813,7 @@
       <c r="E37" s="70">
         <v>0.25</v>
       </c>
-      <c r="F37" s="187">
+      <c r="F37" s="141">
         <f>SUM(E37:E39)</f>
         <v>3.08</v>
       </c>
@@ -2824,7 +2833,7 @@
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="10">
-        <f>SUM(E126:E130)</f>
+        <f>SUM(E132:E136)</f>
         <v>0</v>
       </c>
       <c r="O37" s="3" t="s">
@@ -2832,8 +2841,8 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="118"/>
-      <c r="B38" s="133"/>
+      <c r="A38" s="133"/>
+      <c r="B38" s="121"/>
       <c r="C38" s="74">
         <v>0.35416666666666669</v>
       </c>
@@ -2843,7 +2852,7 @@
       <c r="E38" s="70">
         <v>0.5</v>
       </c>
-      <c r="F38" s="189"/>
+      <c r="F38" s="143"/>
       <c r="G38" s="100"/>
       <c r="H38" s="75" t="s">
         <v>19</v>
@@ -2861,8 +2870,8 @@
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="118"/>
-      <c r="B39" s="132"/>
+      <c r="A39" s="133"/>
+      <c r="B39" s="138"/>
       <c r="C39" s="74">
         <v>0.5625</v>
       </c>
@@ -2872,7 +2881,7 @@
       <c r="E39" s="70">
         <v>2.33</v>
       </c>
-      <c r="F39" s="188"/>
+      <c r="F39" s="142"/>
       <c r="G39" s="99"/>
       <c r="H39" s="75" t="s">
         <v>16</v>
@@ -2888,8 +2897,8 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="118"/>
-      <c r="B40" s="131">
+      <c r="A40" s="133"/>
+      <c r="B40" s="120">
         <v>41608</v>
       </c>
       <c r="C40" s="74">
@@ -2901,7 +2910,7 @@
       <c r="E40" s="70">
         <v>1</v>
       </c>
-      <c r="F40" s="187">
+      <c r="F40" s="141">
         <f>SUM(E40:E41)</f>
         <v>1.5</v>
       </c>
@@ -2920,8 +2929,8 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="119"/>
-      <c r="B41" s="132"/>
+      <c r="A41" s="137"/>
+      <c r="B41" s="138"/>
       <c r="C41" s="74">
         <v>0.875</v>
       </c>
@@ -2931,7 +2940,7 @@
       <c r="E41" s="70">
         <v>0.5</v>
       </c>
-      <c r="F41" s="188"/>
+      <c r="F41" s="142"/>
       <c r="G41" s="99"/>
       <c r="H41" s="75" t="s">
         <v>19</v>
@@ -2948,7 +2957,7 @@
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="10">
-        <f>SUM(E138:E142)</f>
+        <f>SUM(E144:E148)</f>
         <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
@@ -2956,7 +2965,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="126"/>
+      <c r="A42" s="135"/>
       <c r="B42" s="77">
         <v>41610</v>
       </c>
@@ -2987,8 +2996,8 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="126"/>
-      <c r="B43" s="128">
+      <c r="A43" s="135"/>
+      <c r="B43" s="124">
         <v>41611</v>
       </c>
       <c r="C43" s="59">
@@ -3000,7 +3009,7 @@
       <c r="E43" s="69">
         <v>1</v>
       </c>
-      <c r="F43" s="184">
+      <c r="F43" s="122">
         <f>SUM(E43:E43:E44)</f>
         <v>1.8</v>
       </c>
@@ -3019,8 +3028,8 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="126"/>
-      <c r="B44" s="129"/>
+      <c r="A44" s="135"/>
+      <c r="B44" s="126"/>
       <c r="C44" s="59">
         <v>0.9375</v>
       </c>
@@ -3030,7 +3039,7 @@
       <c r="E44" s="79">
         <v>0.8</v>
       </c>
-      <c r="F44" s="186"/>
+      <c r="F44" s="127"/>
       <c r="G44" s="86"/>
       <c r="H44" s="69" t="s">
         <v>19</v>
@@ -3047,7 +3056,7 @@
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="10">
-        <f>SUM(E150:E154)</f>
+        <f>SUM(E156:E160)</f>
         <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
@@ -3055,8 +3064,8 @@
       </c>
     </row>
     <row r="45" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="126"/>
-      <c r="B45" s="128">
+      <c r="A45" s="135"/>
+      <c r="B45" s="124">
         <v>41612</v>
       </c>
       <c r="C45" s="59">
@@ -3068,7 +3077,7 @@
       <c r="E45" s="27">
         <v>4.5</v>
       </c>
-      <c r="F45" s="184">
+      <c r="F45" s="122">
         <f>SUM(E45:E46)</f>
         <v>4.67</v>
       </c>
@@ -3086,7 +3095,7 @@
       </c>
       <c r="M45" s="6"/>
       <c r="N45" s="10">
-        <f>SUM(E156:E160)</f>
+        <f>SUM(E162:E166)</f>
         <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
@@ -3094,8 +3103,8 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="126"/>
-      <c r="B46" s="129"/>
+      <c r="A46" s="135"/>
+      <c r="B46" s="126"/>
       <c r="C46" s="59">
         <v>0.82638888888888884</v>
       </c>
@@ -3105,7 +3114,7 @@
       <c r="E46" s="27">
         <v>0.17</v>
       </c>
-      <c r="F46" s="186"/>
+      <c r="F46" s="127"/>
       <c r="G46" s="86"/>
       <c r="H46" s="27" t="s">
         <v>18</v>
@@ -3123,8 +3132,8 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="126"/>
-      <c r="B47" s="128">
+      <c r="A47" s="135"/>
+      <c r="B47" s="124">
         <v>41613</v>
       </c>
       <c r="C47" s="59">
@@ -3136,7 +3145,7 @@
       <c r="E47" s="69">
         <v>0.67</v>
       </c>
-      <c r="F47" s="184">
+      <c r="F47" s="122">
         <f>SUM(E47:E48)</f>
         <v>0.92</v>
       </c>
@@ -3154,7 +3163,7 @@
       </c>
       <c r="M47" s="6"/>
       <c r="N47" s="10">
-        <f>SUM(E162:E166)</f>
+        <f>SUM(E168:E172)</f>
         <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
@@ -3162,8 +3171,8 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="126"/>
-      <c r="B48" s="129"/>
+      <c r="A48" s="135"/>
+      <c r="B48" s="126"/>
       <c r="C48" s="59">
         <v>0.875</v>
       </c>
@@ -3173,7 +3182,7 @@
       <c r="E48" s="69">
         <v>0.25</v>
       </c>
-      <c r="F48" s="186"/>
+      <c r="F48" s="127"/>
       <c r="G48" s="86"/>
       <c r="H48" s="69" t="s">
         <v>19</v>
@@ -3191,7 +3200,7 @@
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="127"/>
+      <c r="A49" s="136"/>
       <c r="B49" s="24">
         <v>41614</v>
       </c>
@@ -3222,7 +3231,7 @@
       </c>
       <c r="M49" s="6"/>
       <c r="N49" s="10">
-        <f>SUM(E168:E172)</f>
+        <f>SUM(E174:E178)</f>
         <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
@@ -3230,7 +3239,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="117">
+      <c r="A50" s="132">
         <v>6</v>
       </c>
       <c r="B50" s="25">
@@ -3263,7 +3272,7 @@
       </c>
       <c r="M50" s="6"/>
       <c r="N50" s="10">
-        <f>SUM(E174:E178)</f>
+        <f>SUM(E180:E184)</f>
         <v>0</v>
       </c>
       <c r="O50" s="3" t="s">
@@ -3271,7 +3280,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="118"/>
+      <c r="A51" s="133"/>
       <c r="B51" s="25">
         <v>41618</v>
       </c>
@@ -3304,7 +3313,7 @@
       </c>
       <c r="M51" s="6"/>
       <c r="N51" s="10">
-        <f>SUM(E180:E184)</f>
+        <f>SUM(E186:E190)</f>
         <v>0</v>
       </c>
       <c r="O51" s="3" t="s">
@@ -3312,7 +3321,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="118"/>
+      <c r="A52" s="133"/>
       <c r="B52" s="25">
         <v>41619</v>
       </c>
@@ -3343,7 +3352,7 @@
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="10">
-        <f>SUM(E186:E190)</f>
+        <f>SUM(E192:E196)</f>
         <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
@@ -3351,8 +3360,8 @@
       </c>
     </row>
     <row r="53" spans="1:15" s="104" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="118"/>
-      <c r="B53" s="131">
+      <c r="A53" s="133"/>
+      <c r="B53" s="120">
         <v>41620</v>
       </c>
       <c r="C53" s="105">
@@ -3364,7 +3373,7 @@
       <c r="E53" s="71">
         <v>2</v>
       </c>
-      <c r="F53" s="184">
+      <c r="F53" s="122">
         <f>SUM(E53:E55)</f>
         <v>6</v>
       </c>
@@ -3382,7 +3391,7 @@
       </c>
       <c r="M53" s="36"/>
       <c r="N53" s="102">
-        <f>SUM(E192:E196)</f>
+        <f>SUM(E198:E202)</f>
         <v>0</v>
       </c>
       <c r="O53" s="103" t="s">
@@ -3390,8 +3399,8 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="118"/>
-      <c r="B54" s="133"/>
+      <c r="A54" s="133"/>
+      <c r="B54" s="121"/>
       <c r="C54" s="105">
         <v>0.45833333333333331</v>
       </c>
@@ -3401,7 +3410,7 @@
       <c r="E54" s="70">
         <v>1</v>
       </c>
-      <c r="F54" s="185"/>
+      <c r="F54" s="123"/>
       <c r="G54" s="85"/>
       <c r="H54" s="75" t="s">
         <v>16</v>
@@ -3417,8 +3426,8 @@
       <c r="O54" s="3"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="118"/>
-      <c r="B55" s="132"/>
+      <c r="A55" s="133"/>
+      <c r="B55" s="138"/>
       <c r="C55" s="74">
         <v>0.58333333333333337</v>
       </c>
@@ -3428,7 +3437,7 @@
       <c r="E55" s="70">
         <v>3</v>
       </c>
-      <c r="F55" s="186"/>
+      <c r="F55" s="127"/>
       <c r="G55" s="86"/>
       <c r="H55" s="75" t="s">
         <v>22</v>
@@ -3444,8 +3453,8 @@
       <c r="O55" s="3"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="118"/>
-      <c r="B56" s="131">
+      <c r="A56" s="133"/>
+      <c r="B56" s="120">
         <v>41621</v>
       </c>
       <c r="C56" s="74">
@@ -3457,7 +3466,7 @@
       <c r="E56" s="70">
         <v>0.5</v>
       </c>
-      <c r="F56" s="184">
+      <c r="F56" s="122">
         <f>SUM(E56:E58)</f>
         <v>2.5</v>
       </c>
@@ -3477,7 +3486,7 @@
       </c>
       <c r="M56" s="6"/>
       <c r="N56" s="10">
-        <f>SUM(E198:E202)</f>
+        <f>SUM(E204:E208)</f>
         <v>0</v>
       </c>
       <c r="O56" s="3" t="s">
@@ -3485,8 +3494,8 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="118"/>
-      <c r="B57" s="133"/>
+      <c r="A57" s="133"/>
+      <c r="B57" s="121"/>
       <c r="C57" s="74">
         <v>0.58333333333333337</v>
       </c>
@@ -3496,7 +3505,7 @@
       <c r="E57" s="70">
         <v>1</v>
       </c>
-      <c r="F57" s="185"/>
+      <c r="F57" s="123"/>
       <c r="G57" s="85"/>
       <c r="H57" s="75" t="s">
         <v>21</v>
@@ -3514,8 +3523,8 @@
       <c r="O57" s="3"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="118"/>
-      <c r="B58" s="132"/>
+      <c r="A58" s="133"/>
+      <c r="B58" s="138"/>
       <c r="C58" s="74">
         <v>0.625</v>
       </c>
@@ -3525,7 +3534,7 @@
       <c r="E58" s="70">
         <v>1</v>
       </c>
-      <c r="F58" s="186"/>
+      <c r="F58" s="127"/>
       <c r="G58" s="86"/>
       <c r="H58" s="75" t="s">
         <v>21</v>
@@ -3543,7 +3552,7 @@
       <c r="O58" s="3"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="120">
+      <c r="A59" s="128">
         <v>7</v>
       </c>
       <c r="B59" s="24">
@@ -3566,7 +3575,7 @@
       </c>
       <c r="M59" s="6"/>
       <c r="N59" s="10">
-        <f>SUM(E204:E208)</f>
+        <f>SUM(E210:E214)</f>
         <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
@@ -3574,8 +3583,8 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="121"/>
-      <c r="B60" s="128">
+      <c r="A60" s="129"/>
+      <c r="B60" s="124">
         <v>41625</v>
       </c>
       <c r="C60" s="114" t="s">
@@ -3587,7 +3596,7 @@
       <c r="E60" s="27">
         <v>2</v>
       </c>
-      <c r="F60" s="184">
+      <c r="F60" s="122">
         <f>SUM(E60:E62)</f>
         <v>3.75</v>
       </c>
@@ -3605,7 +3614,7 @@
       </c>
       <c r="M60" s="6"/>
       <c r="N60" s="10">
-        <f>SUM(E210:E214)</f>
+        <f>SUM(E216:E220)</f>
         <v>0</v>
       </c>
       <c r="O60" s="3" t="s">
@@ -3613,8 +3622,8 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="121"/>
-      <c r="B61" s="130"/>
+      <c r="A61" s="129"/>
+      <c r="B61" s="125"/>
       <c r="C61" s="59">
         <v>0.875</v>
       </c>
@@ -3624,7 +3633,7 @@
       <c r="E61" s="27">
         <v>0.75</v>
       </c>
-      <c r="F61" s="185"/>
+      <c r="F61" s="123"/>
       <c r="G61" s="109"/>
       <c r="H61" s="69" t="s">
         <v>17</v>
@@ -3640,8 +3649,8 @@
       <c r="O61" s="3"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="121"/>
-      <c r="B62" s="129"/>
+      <c r="A62" s="129"/>
+      <c r="B62" s="126"/>
       <c r="C62" s="59">
         <v>0.91666666666666663</v>
       </c>
@@ -3651,7 +3660,7 @@
       <c r="E62" s="27">
         <v>1</v>
       </c>
-      <c r="F62" s="186"/>
+      <c r="F62" s="127"/>
       <c r="G62" s="109"/>
       <c r="H62" s="69" t="s">
         <v>25</v>
@@ -3667,7 +3676,7 @@
       <c r="O62" s="3"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="121"/>
+      <c r="A63" s="129"/>
       <c r="B63" s="24">
         <v>41626</v>
       </c>
@@ -3698,7 +3707,7 @@
       </c>
       <c r="M63" s="6"/>
       <c r="N63" s="10">
-        <f>SUM(E216:E221)</f>
+        <f>SUM(E222:E227)</f>
         <v>0</v>
       </c>
       <c r="O63" s="3" t="s">
@@ -3706,7 +3715,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="121"/>
+      <c r="A64" s="129"/>
       <c r="B64" s="24">
         <v>41627</v>
       </c>
@@ -3734,7 +3743,7 @@
       <c r="K64" s="35"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="121"/>
+      <c r="A65" s="129"/>
       <c r="B65" s="24">
         <v>41628</v>
       </c>
@@ -3752,7 +3761,7 @@
       <c r="K65" s="35"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="122"/>
+      <c r="A66" s="130"/>
       <c r="B66" s="24">
         <v>41629</v>
       </c>
@@ -3780,10 +3789,10 @@
       <c r="K66" s="35"/>
     </row>
     <row r="67" spans="1:11" s="104" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="117">
+      <c r="A67" s="132">
         <v>8</v>
       </c>
-      <c r="B67" s="131">
+      <c r="B67" s="120">
         <v>41631</v>
       </c>
       <c r="C67" s="105">
@@ -3795,11 +3804,11 @@
       <c r="E67" s="36">
         <v>1.5</v>
       </c>
-      <c r="F67" s="184">
+      <c r="F67" s="122">
         <f>SUM(E67:E69)</f>
         <v>3.17</v>
       </c>
-      <c r="G67" s="193">
+      <c r="G67" s="131">
         <v>25</v>
       </c>
       <c r="H67" s="33" t="s">
@@ -3814,8 +3823,8 @@
       <c r="K67" s="71"/>
     </row>
     <row r="68" spans="1:11" s="104" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="118"/>
-      <c r="B68" s="133"/>
+      <c r="A68" s="133"/>
+      <c r="B68" s="121"/>
       <c r="C68" s="105">
         <v>0.90625</v>
       </c>
@@ -3825,8 +3834,8 @@
       <c r="E68" s="71">
         <v>1</v>
       </c>
-      <c r="F68" s="185"/>
-      <c r="G68" s="193"/>
+      <c r="F68" s="123"/>
+      <c r="G68" s="131"/>
       <c r="H68" s="33" t="s">
         <v>19</v>
       </c>
@@ -3839,8 +3848,8 @@
       <c r="K68" s="71"/>
     </row>
     <row r="69" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="118"/>
-      <c r="B69" s="132"/>
+      <c r="A69" s="133"/>
+      <c r="B69" s="138"/>
       <c r="C69" s="105">
         <v>0.95138888888888884</v>
       </c>
@@ -3850,8 +3859,8 @@
       <c r="E69" s="71">
         <v>0.67</v>
       </c>
-      <c r="F69" s="186"/>
-      <c r="G69" s="193"/>
+      <c r="F69" s="127"/>
+      <c r="G69" s="131"/>
       <c r="H69" s="33" t="s">
         <v>17</v>
       </c>
@@ -3862,8 +3871,8 @@
       <c r="K69" s="71"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="118"/>
-      <c r="B70" s="131">
+      <c r="A70" s="133"/>
+      <c r="B70" s="120">
         <v>41632</v>
       </c>
       <c r="C70" s="74">
@@ -3875,11 +3884,11 @@
       <c r="E70" s="70">
         <v>1</v>
       </c>
-      <c r="F70" s="184">
+      <c r="F70" s="122">
         <f>SUM(E70:E72)</f>
         <v>2</v>
       </c>
-      <c r="G70" s="193"/>
+      <c r="G70" s="131"/>
       <c r="H70" s="75" t="s">
         <v>17</v>
       </c>
@@ -3890,8 +3899,8 @@
       <c r="K70" s="71"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="118"/>
-      <c r="B71" s="133"/>
+      <c r="A71" s="133"/>
+      <c r="B71" s="121"/>
       <c r="C71" s="74">
         <v>0.91666666666666663</v>
       </c>
@@ -3901,8 +3910,8 @@
       <c r="E71" s="70">
         <v>0.5</v>
       </c>
-      <c r="F71" s="185"/>
-      <c r="G71" s="193"/>
+      <c r="F71" s="123"/>
+      <c r="G71" s="131"/>
       <c r="H71" s="75" t="s">
         <v>19</v>
       </c>
@@ -3917,8 +3926,8 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="118"/>
-      <c r="B72" s="132"/>
+      <c r="A72" s="133"/>
+      <c r="B72" s="138"/>
       <c r="C72" s="105">
         <v>0.9375</v>
       </c>
@@ -3928,8 +3937,8 @@
       <c r="E72" s="70">
         <v>0.5</v>
       </c>
-      <c r="F72" s="186"/>
-      <c r="G72" s="193"/>
+      <c r="F72" s="127"/>
+      <c r="G72" s="131"/>
       <c r="H72" s="75" t="s">
         <v>19</v>
       </c>
@@ -3942,8 +3951,8 @@
       <c r="K72" s="71"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="118"/>
-      <c r="B73" s="131">
+      <c r="A73" s="133"/>
+      <c r="B73" s="120">
         <v>41633</v>
       </c>
       <c r="C73" s="74">
@@ -3955,11 +3964,11 @@
       <c r="E73" s="70">
         <v>1</v>
       </c>
-      <c r="F73" s="184">
+      <c r="F73" s="122">
         <f>SUM(E73:E75)</f>
         <v>2.5</v>
       </c>
-      <c r="G73" s="193"/>
+      <c r="G73" s="131"/>
       <c r="H73" s="75" t="s">
         <v>17</v>
       </c>
@@ -3970,8 +3979,8 @@
       <c r="K73" s="71"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="118"/>
-      <c r="B74" s="133"/>
+      <c r="A74" s="133"/>
+      <c r="B74" s="121"/>
       <c r="C74" s="74">
         <v>0.83333333333333337</v>
       </c>
@@ -3981,8 +3990,8 @@
       <c r="E74" s="70">
         <v>0.5</v>
       </c>
-      <c r="F74" s="185"/>
-      <c r="G74" s="193"/>
+      <c r="F74" s="123"/>
+      <c r="G74" s="131"/>
       <c r="H74" s="75" t="s">
         <v>18</v>
       </c>
@@ -3995,8 +4004,8 @@
       <c r="K74" s="71"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="118"/>
-      <c r="B75" s="132"/>
+      <c r="A75" s="133"/>
+      <c r="B75" s="138"/>
       <c r="C75" s="74">
         <v>0.875</v>
       </c>
@@ -4006,8 +4015,8 @@
       <c r="E75" s="70">
         <v>1</v>
       </c>
-      <c r="F75" s="186"/>
-      <c r="G75" s="193"/>
+      <c r="F75" s="127"/>
+      <c r="G75" s="131"/>
       <c r="H75" s="75" t="s">
         <v>17</v>
       </c>
@@ -4018,8 +4027,8 @@
       <c r="K75" s="71"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="118"/>
-      <c r="B76" s="131">
+      <c r="A76" s="133"/>
+      <c r="B76" s="120">
         <v>41634</v>
       </c>
       <c r="C76" s="74">
@@ -4031,11 +4040,11 @@
       <c r="E76" s="70">
         <v>0.5</v>
       </c>
-      <c r="F76" s="184">
+      <c r="F76" s="122">
         <f>SUM(E76:E78)</f>
         <v>1.67</v>
       </c>
-      <c r="G76" s="193"/>
+      <c r="G76" s="131"/>
       <c r="H76" s="75" t="s">
         <v>17</v>
       </c>
@@ -4046,8 +4055,8 @@
       <c r="K76" s="71"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="118"/>
-      <c r="B77" s="133"/>
+      <c r="A77" s="133"/>
+      <c r="B77" s="121"/>
       <c r="C77" s="74">
         <v>0.85416666666666663</v>
       </c>
@@ -4057,8 +4066,8 @@
       <c r="E77" s="70">
         <v>0.5</v>
       </c>
-      <c r="F77" s="185"/>
-      <c r="G77" s="193"/>
+      <c r="F77" s="123"/>
+      <c r="G77" s="131"/>
       <c r="H77" s="75" t="s">
         <v>25</v>
       </c>
@@ -4069,8 +4078,8 @@
       <c r="K77" s="71"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="118"/>
-      <c r="B78" s="133"/>
+      <c r="A78" s="133"/>
+      <c r="B78" s="121"/>
       <c r="C78" s="74">
         <v>0.97222222222222221</v>
       </c>
@@ -4080,8 +4089,8 @@
       <c r="E78" s="71">
         <v>0.67</v>
       </c>
-      <c r="F78" s="185"/>
-      <c r="G78" s="193"/>
+      <c r="F78" s="123"/>
+      <c r="G78" s="131"/>
       <c r="H78" s="75" t="s">
         <v>18</v>
       </c>
@@ -4094,8 +4103,8 @@
       <c r="K78" s="71"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="118"/>
-      <c r="B79" s="131">
+      <c r="A79" s="133"/>
+      <c r="B79" s="120">
         <v>41635</v>
       </c>
       <c r="C79" s="74">
@@ -4107,11 +4116,11 @@
       <c r="E79" s="70">
         <v>1.5</v>
       </c>
-      <c r="F79" s="184">
+      <c r="F79" s="122">
         <f>SUM(E79:E81)</f>
         <v>3.5</v>
       </c>
-      <c r="G79" s="193"/>
+      <c r="G79" s="131"/>
       <c r="H79" s="75" t="s">
         <v>18</v>
       </c>
@@ -4124,8 +4133,8 @@
       <c r="K79" s="71"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="118"/>
-      <c r="B80" s="133"/>
+      <c r="A80" s="133"/>
+      <c r="B80" s="121"/>
       <c r="C80" s="74">
         <v>0.83333333333333337</v>
       </c>
@@ -4135,8 +4144,8 @@
       <c r="E80" s="70">
         <v>1</v>
       </c>
-      <c r="F80" s="185"/>
-      <c r="G80" s="193"/>
+      <c r="F80" s="123"/>
+      <c r="G80" s="131"/>
       <c r="H80" s="75" t="s">
         <v>17</v>
       </c>
@@ -4147,8 +4156,8 @@
       <c r="K80" s="71"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="118"/>
-      <c r="B81" s="132"/>
+      <c r="A81" s="133"/>
+      <c r="B81" s="138"/>
       <c r="C81" s="74">
         <v>0.89583333333333337</v>
       </c>
@@ -4158,8 +4167,8 @@
       <c r="E81" s="70">
         <v>1</v>
       </c>
-      <c r="F81" s="186"/>
-      <c r="G81" s="193"/>
+      <c r="F81" s="127"/>
+      <c r="G81" s="131"/>
       <c r="H81" s="75" t="s">
         <v>17</v>
       </c>
@@ -4170,8 +4179,8 @@
       <c r="K81" s="71"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="118"/>
-      <c r="B82" s="131">
+      <c r="A82" s="133"/>
+      <c r="B82" s="120">
         <v>41636</v>
       </c>
       <c r="C82" s="74">
@@ -4183,11 +4192,11 @@
       <c r="E82" s="70">
         <v>1</v>
       </c>
-      <c r="F82" s="184">
+      <c r="F82" s="122">
         <f>SUM(E82:E83)</f>
         <v>2.75</v>
       </c>
-      <c r="G82" s="193"/>
+      <c r="G82" s="131"/>
       <c r="H82" s="75" t="s">
         <v>17</v>
       </c>
@@ -4198,8 +4207,8 @@
       <c r="K82" s="71"/>
     </row>
     <row r="83" spans="1:11" s="104" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A83" s="118"/>
-      <c r="B83" s="133"/>
+      <c r="A83" s="133"/>
+      <c r="B83" s="121"/>
       <c r="C83" s="105">
         <v>0.89583333333333337</v>
       </c>
@@ -4209,8 +4218,8 @@
       <c r="E83" s="71">
         <v>1.75</v>
       </c>
-      <c r="F83" s="185"/>
-      <c r="G83" s="193"/>
+      <c r="F83" s="123"/>
+      <c r="G83" s="131"/>
       <c r="H83" s="33" t="s">
         <v>18</v>
       </c>
@@ -4223,26 +4232,26 @@
       <c r="K83" s="71"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="197">
+      <c r="A84" s="134">
         <v>9</v>
       </c>
-      <c r="B84" s="128">
+      <c r="B84" s="124">
         <v>41638</v>
       </c>
-      <c r="C84" s="116">
+      <c r="C84" s="115">
         <v>0.5625</v>
       </c>
-      <c r="D84" s="116">
+      <c r="D84" s="115">
         <v>0.61458333333333337</v>
       </c>
       <c r="E84" s="69">
         <v>1.25</v>
       </c>
-      <c r="F84" s="184">
+      <c r="F84" s="122">
         <f>SUM(E84:E86)</f>
         <v>4.75</v>
       </c>
-      <c r="G84" s="194">
+      <c r="G84" s="195">
         <v>25</v>
       </c>
       <c r="H84" s="27" t="s">
@@ -4255,19 +4264,19 @@
       <c r="K84" s="27"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="126"/>
-      <c r="B85" s="130"/>
-      <c r="C85" s="116">
+      <c r="A85" s="135"/>
+      <c r="B85" s="125"/>
+      <c r="C85" s="115">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D85" s="116">
+      <c r="D85" s="115">
         <v>0.91666666666666663</v>
       </c>
       <c r="E85" s="69">
         <v>2</v>
       </c>
-      <c r="F85" s="185"/>
-      <c r="G85" s="195"/>
+      <c r="F85" s="123"/>
+      <c r="G85" s="196"/>
       <c r="H85" s="27" t="s">
         <v>17</v>
       </c>
@@ -4278,19 +4287,19 @@
       <c r="K85" s="27"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="126"/>
-      <c r="B86" s="129"/>
-      <c r="C86" s="116">
+      <c r="A86" s="135"/>
+      <c r="B86" s="126"/>
+      <c r="C86" s="115">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D86" s="116">
+      <c r="D86" s="115">
         <v>0.97916666666666663</v>
       </c>
       <c r="E86" s="69">
         <v>1.5</v>
       </c>
-      <c r="F86" s="186"/>
-      <c r="G86" s="195"/>
+      <c r="F86" s="127"/>
+      <c r="G86" s="196"/>
       <c r="H86" s="27" t="s">
         <v>25</v>
       </c>
@@ -4301,24 +4310,24 @@
       <c r="K86" s="27"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="126"/>
-      <c r="B87" s="128">
+      <c r="A87" s="135"/>
+      <c r="B87" s="124">
         <v>41639</v>
       </c>
-      <c r="C87" s="116">
+      <c r="C87" s="115">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D87" s="116">
+      <c r="D87" s="115">
         <v>0.375</v>
       </c>
       <c r="E87" s="69">
         <v>0.5</v>
       </c>
-      <c r="F87" s="184">
+      <c r="F87" s="122">
         <f>SUM(E87:E90)</f>
         <v>6.25</v>
       </c>
-      <c r="G87" s="195"/>
+      <c r="G87" s="196"/>
       <c r="H87" s="27" t="s">
         <v>16</v>
       </c>
@@ -4329,19 +4338,19 @@
       <c r="K87" s="27"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="126"/>
-      <c r="B88" s="130"/>
-      <c r="C88" s="116">
+      <c r="A88" s="135"/>
+      <c r="B88" s="125"/>
+      <c r="C88" s="115">
         <v>0.375</v>
       </c>
-      <c r="D88" s="116">
+      <c r="D88" s="115">
         <v>0.5</v>
       </c>
       <c r="E88" s="69">
         <v>3</v>
       </c>
-      <c r="F88" s="185"/>
-      <c r="G88" s="195"/>
+      <c r="F88" s="123"/>
+      <c r="G88" s="196"/>
       <c r="H88" s="27" t="s">
         <v>22</v>
       </c>
@@ -4352,19 +4361,19 @@
       <c r="K88" s="27"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="126"/>
-      <c r="B89" s="130"/>
-      <c r="C89" s="116">
+      <c r="A89" s="135"/>
+      <c r="B89" s="125"/>
+      <c r="C89" s="115">
         <v>0.5625</v>
       </c>
-      <c r="D89" s="116">
+      <c r="D89" s="115">
         <v>0.61458333333333337</v>
       </c>
       <c r="E89" s="69">
         <v>1.25</v>
       </c>
-      <c r="F89" s="185"/>
-      <c r="G89" s="195"/>
+      <c r="F89" s="123"/>
+      <c r="G89" s="196"/>
       <c r="H89" s="27" t="s">
         <v>24</v>
       </c>
@@ -4375,19 +4384,19 @@
       <c r="K89" s="27"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="126"/>
-      <c r="B90" s="129"/>
-      <c r="C90" s="116">
+      <c r="A90" s="135"/>
+      <c r="B90" s="126"/>
+      <c r="C90" s="115">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D90" s="116">
+      <c r="D90" s="115">
         <v>0.89583333333333337</v>
       </c>
       <c r="E90" s="69">
         <v>1.5</v>
       </c>
-      <c r="F90" s="186"/>
-      <c r="G90" s="195"/>
+      <c r="F90" s="127"/>
+      <c r="G90" s="196"/>
       <c r="H90" s="27" t="s">
         <v>17</v>
       </c>
@@ -4398,24 +4407,24 @@
       <c r="K90" s="27"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="126"/>
-      <c r="B91" s="128">
+      <c r="A91" s="135"/>
+      <c r="B91" s="124">
         <v>41640</v>
       </c>
-      <c r="C91" s="116">
+      <c r="C91" s="115">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D91" s="116">
+      <c r="D91" s="115">
         <v>0.89583333333333337</v>
       </c>
       <c r="E91" s="69">
         <v>1.5</v>
       </c>
-      <c r="F91" s="184">
+      <c r="F91" s="122">
         <f>SUM(E91:E92)</f>
         <v>3</v>
       </c>
-      <c r="G91" s="195"/>
+      <c r="G91" s="196"/>
       <c r="H91" s="27" t="s">
         <v>17</v>
       </c>
@@ -4426,19 +4435,19 @@
       <c r="K91" s="27"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="126"/>
-      <c r="B92" s="129"/>
-      <c r="C92" s="116">
+      <c r="A92" s="135"/>
+      <c r="B92" s="126"/>
+      <c r="C92" s="115">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D92" s="116">
+      <c r="D92" s="115">
         <v>0.97916666666666663</v>
       </c>
       <c r="E92" s="69">
         <v>1.5</v>
       </c>
-      <c r="F92" s="186"/>
-      <c r="G92" s="195"/>
+      <c r="F92" s="127"/>
+      <c r="G92" s="196"/>
       <c r="H92" s="27" t="s">
         <v>25</v>
       </c>
@@ -4449,24 +4458,24 @@
       <c r="K92" s="27"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="126"/>
-      <c r="B93" s="128">
+      <c r="A93" s="135"/>
+      <c r="B93" s="124">
         <v>41641</v>
       </c>
-      <c r="C93" s="116">
+      <c r="C93" s="115">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D93" s="116">
+      <c r="D93" s="115">
         <v>0.38541666666666669</v>
       </c>
       <c r="E93" s="69">
         <v>0.75</v>
       </c>
-      <c r="F93" s="184">
-        <f>SUM(E93:E95)</f>
-        <v>1.5</v>
-      </c>
-      <c r="G93" s="195"/>
+      <c r="F93" s="122">
+        <f>SUM(E93:E96)</f>
+        <v>3.75</v>
+      </c>
+      <c r="G93" s="196"/>
       <c r="H93" s="27" t="s">
         <v>16</v>
       </c>
@@ -4477,19 +4486,19 @@
       <c r="K93" s="27"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="126"/>
-      <c r="B94" s="130"/>
-      <c r="C94" s="116">
+      <c r="A94" s="135"/>
+      <c r="B94" s="125"/>
+      <c r="C94" s="115">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D94" s="116">
+      <c r="D94" s="115">
         <v>0.41666666666666669</v>
       </c>
       <c r="E94" s="69">
         <v>0.75</v>
       </c>
-      <c r="F94" s="185"/>
-      <c r="G94" s="195"/>
+      <c r="F94" s="123"/>
+      <c r="G94" s="196"/>
       <c r="H94" s="27" t="s">
         <v>20</v>
       </c>
@@ -4500,2473 +4509,2614 @@
       <c r="K94" s="27"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="126"/>
-      <c r="B95" s="129"/>
-      <c r="C95" s="69"/>
-      <c r="D95" s="69"/>
-      <c r="E95" s="69"/>
-      <c r="F95" s="186"/>
-      <c r="G95" s="195"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
+      <c r="A95" s="135"/>
+      <c r="B95" s="125"/>
+      <c r="C95" s="115">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D95" s="115">
+        <v>0.875</v>
+      </c>
+      <c r="E95" s="69">
+        <v>1</v>
+      </c>
+      <c r="F95" s="123"/>
+      <c r="G95" s="196"/>
+      <c r="H95" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="J95" s="27"/>
       <c r="K95" s="27"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="126"/>
-      <c r="B96" s="24">
-        <v>41642</v>
-      </c>
-      <c r="C96" s="69"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="69"/>
-      <c r="F96" s="115">
-        <f t="shared" ref="F96:F115" si="0">SUM(E96:E100)</f>
-        <v>0</v>
-      </c>
-      <c r="G96" s="195"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
+      <c r="A96" s="135"/>
+      <c r="B96" s="126"/>
+      <c r="C96" s="115">
+        <v>0.875</v>
+      </c>
+      <c r="D96" s="115">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="E96" s="69">
+        <v>1.25</v>
+      </c>
+      <c r="F96" s="127"/>
+      <c r="G96" s="196"/>
+      <c r="H96" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I96" s="27" t="s">
+        <v>130</v>
+      </c>
       <c r="J96" s="27"/>
       <c r="K96" s="27"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="127"/>
-      <c r="B97" s="24">
-        <v>41643</v>
-      </c>
-      <c r="C97" s="69"/>
-      <c r="D97" s="69"/>
-      <c r="E97" s="69"/>
-      <c r="F97" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A97" s="135"/>
+      <c r="B97" s="124">
+        <v>41642</v>
+      </c>
+      <c r="C97" s="115">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D97" s="115">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E97" s="69">
+        <v>1</v>
+      </c>
+      <c r="F97" s="122">
+        <f>SUM(E97:E99)</f>
+        <v>2.25</v>
       </c>
       <c r="G97" s="196"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
+      <c r="H97" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="27" t="s">
+        <v>122</v>
+      </c>
       <c r="J97" s="27"/>
       <c r="K97" s="27"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="117">
+      <c r="A98" s="135"/>
+      <c r="B98" s="125"/>
+      <c r="C98" s="115">
+        <v>0.84375</v>
+      </c>
+      <c r="D98" s="115">
+        <v>0.875</v>
+      </c>
+      <c r="E98" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="F98" s="123"/>
+      <c r="G98" s="196"/>
+      <c r="H98" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="J98" s="27"/>
+      <c r="K98" s="27"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="135"/>
+      <c r="B99" s="126"/>
+      <c r="C99" s="115">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D99" s="115">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E99" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="F99" s="127"/>
+      <c r="G99" s="196"/>
+      <c r="H99" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J99" s="27"/>
+      <c r="K99" s="27"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="135"/>
+      <c r="B100" s="124">
+        <v>41643</v>
+      </c>
+      <c r="C100" s="115">
+        <v>0.8125</v>
+      </c>
+      <c r="D100" s="115">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E100" s="69">
+        <v>1</v>
+      </c>
+      <c r="F100" s="122">
+        <f>SUM(E100:E102)</f>
+        <v>2</v>
+      </c>
+      <c r="G100" s="196"/>
+      <c r="H100" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="J100" s="27"/>
+      <c r="K100" s="27"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="135"/>
+      <c r="B101" s="125"/>
+      <c r="C101" s="115">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="D101" s="115">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E101" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="F101" s="123"/>
+      <c r="G101" s="196"/>
+      <c r="H101" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I101" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="J101" s="27"/>
+      <c r="K101" s="27"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="135"/>
+      <c r="B102" s="126"/>
+      <c r="C102" s="115">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D102" s="115">
+        <v>0.90625</v>
+      </c>
+      <c r="E102" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="F102" s="127"/>
+      <c r="G102" s="196"/>
+      <c r="H102" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="J102" s="27"/>
+      <c r="K102" s="27"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="136"/>
+      <c r="B103" s="24">
+        <v>41644</v>
+      </c>
+      <c r="C103" s="69"/>
+      <c r="D103" s="69"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="116">
+        <f>SUM(E103:E108)</f>
+        <v>0</v>
+      </c>
+      <c r="G103" s="197"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="27"/>
+      <c r="K103" s="27"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="132">
         <v>10</v>
       </c>
-      <c r="B98" s="25">
+      <c r="B104" s="25">
         <v>41645</v>
       </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="190">
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="107">
+        <f t="shared" ref="F104:F121" si="0">SUM(E104:E108)</f>
+        <v>0</v>
+      </c>
+      <c r="G104" s="117">
         <v>25</v>
       </c>
-      <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="36"/>
-      <c r="K98" s="36"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="118"/>
-      <c r="B99" s="25">
+      <c r="H104" s="36"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="133"/>
+      <c r="B105" s="25">
         <v>41646</v>
       </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="191"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="36"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="118"/>
-      <c r="B100" s="25">
-        <v>41647</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="191"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="118"/>
-      <c r="B101" s="25">
-        <v>41648</v>
-      </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="191"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="118"/>
-      <c r="B102" s="25">
-        <v>41649</v>
-      </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="191"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="36"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="119"/>
-      <c r="B103" s="25">
-        <v>41650</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="192"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="120">
-        <v>11</v>
-      </c>
-      <c r="B104" s="24">
-        <v>41652</v>
-      </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G104" s="190">
-        <v>35</v>
-      </c>
-      <c r="H104" s="35"/>
-      <c r="I104" s="35"/>
-      <c r="J104" s="35"/>
-      <c r="K104" s="35"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="121"/>
-      <c r="B105" s="24">
-        <v>41653</v>
-      </c>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
       <c r="F105" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G105" s="191"/>
-      <c r="H105" s="35"/>
-      <c r="I105" s="35"/>
-      <c r="J105" s="35"/>
-      <c r="K105" s="35"/>
+      <c r="G105" s="118"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="36"/>
+      <c r="K105"